--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.597394</v>
+        <v>0.621429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.434451</v>
+        <v>0.530429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.295955</v>
+        <v>0.396184</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.354534</v>
+        <v>0.347438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289999</v>
+        <v>0.343564</v>
       </c>
       <c r="D3" t="n">
-        <v>0.300721</v>
+        <v>0.384196</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346879</v>
+        <v>0.341371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.302242</v>
+        <v>0.33206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.286433</v>
+        <v>0.37813</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.336487</v>
+        <v>0.340198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.288546</v>
+        <v>0.349406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283105</v>
+        <v>0.382084</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.333213</v>
+        <v>0.337195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273503</v>
+        <v>0.332239</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276905</v>
+        <v>0.362238</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.345298</v>
+        <v>0.332665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291072</v>
+        <v>0.331703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.289103</v>
+        <v>0.356753</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.330037</v>
+        <v>0.315826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.283156</v>
+        <v>0.327506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.284652</v>
+        <v>0.35185</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335625</v>
+        <v>0.316392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270786</v>
+        <v>0.579344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6239440000000001</v>
+        <v>0.743323</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572993</v>
+        <v>0.57969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.552777</v>
+        <v>0.565925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.604264</v>
+        <v>0.7126209999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.567833</v>
+        <v>0.560738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532732</v>
+        <v>0.540131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.606268</v>
+        <v>0.704541</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.56204</v>
+        <v>0.531212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.498673</v>
+        <v>0.518267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.561345</v>
+        <v>0.647459</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518841</v>
+        <v>0.528884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.483554</v>
+        <v>0.517302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.546222</v>
+        <v>0.638496</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.516514</v>
+        <v>0.515571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.468338</v>
+        <v>0.496355</v>
       </c>
       <c r="D14" t="n">
-        <v>0.526332</v>
+        <v>0.630923</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488543</v>
+        <v>0.492721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.439736</v>
+        <v>0.475455</v>
       </c>
       <c r="D15" t="n">
-        <v>0.511514</v>
+        <v>0.5980220000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482461</v>
+        <v>0.499615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.433284</v>
+        <v>0.474615</v>
       </c>
       <c r="D16" t="n">
-        <v>0.498098</v>
+        <v>0.580426</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466372</v>
+        <v>0.471556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422879</v>
+        <v>0.45571</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46609</v>
+        <v>0.560457</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.46823</v>
+        <v>0.464745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.418636</v>
+        <v>0.443116</v>
       </c>
       <c r="D18" t="n">
-        <v>0.455759</v>
+        <v>0.545393</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.458576</v>
+        <v>0.445671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.40258</v>
+        <v>0.442835</v>
       </c>
       <c r="D19" t="n">
-        <v>0.445813</v>
+        <v>0.520825</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.425591</v>
+        <v>0.43903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3876</v>
+        <v>0.435919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429172</v>
+        <v>0.5037509999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421665</v>
+        <v>0.418402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.377779</v>
+        <v>0.411331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4108</v>
+        <v>0.492591</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418794</v>
+        <v>0.414601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.372779</v>
+        <v>0.421929</v>
       </c>
       <c r="D22" t="n">
-        <v>0.413182</v>
+        <v>0.483264</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.414944</v>
+        <v>0.421298</v>
       </c>
       <c r="C23" t="n">
-        <v>0.367731</v>
+        <v>0.6816</v>
       </c>
       <c r="D23" t="n">
-        <v>0.559905</v>
+        <v>0.790274</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6942199999999999</v>
+        <v>0.678207</v>
       </c>
       <c r="C24" t="n">
-        <v>0.639004</v>
+        <v>0.661108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.541489</v>
+        <v>0.648284</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.648719</v>
+        <v>0.659324</v>
       </c>
       <c r="C25" t="n">
-        <v>0.62791</v>
+        <v>0.637263</v>
       </c>
       <c r="D25" t="n">
-        <v>0.524396</v>
+        <v>0.627099</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.631397</v>
+        <v>0.63657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.601643</v>
+        <v>0.619452</v>
       </c>
       <c r="D26" t="n">
-        <v>0.499782</v>
+        <v>0.607583</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.662375</v>
+        <v>0.638566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.577018</v>
+        <v>0.590141</v>
       </c>
       <c r="D27" t="n">
-        <v>0.491596</v>
+        <v>0.5818179999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.59307</v>
+        <v>0.600202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5567569999999999</v>
+        <v>0.587938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.46482</v>
+        <v>0.562179</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58116</v>
+        <v>0.567694</v>
       </c>
       <c r="C29" t="n">
-        <v>0.544205</v>
+        <v>0.565527</v>
       </c>
       <c r="D29" t="n">
-        <v>0.455683</v>
+        <v>0.550633</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567265</v>
+        <v>0.557006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521922</v>
+        <v>0.543446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.441021</v>
+        <v>0.525056</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5445680000000001</v>
+        <v>0.5411550000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.504462</v>
+        <v>0.533803</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430863</v>
+        <v>0.514653</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5330240000000001</v>
+        <v>0.529353</v>
       </c>
       <c r="C32" t="n">
-        <v>0.481856</v>
+        <v>0.523392</v>
       </c>
       <c r="D32" t="n">
-        <v>0.420423</v>
+        <v>0.499659</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.517808</v>
+        <v>0.523358</v>
       </c>
       <c r="C33" t="n">
-        <v>0.471005</v>
+        <v>0.491359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.407355</v>
+        <v>0.48242</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.520177</v>
+        <v>0.504468</v>
       </c>
       <c r="C34" t="n">
-        <v>0.460449</v>
+        <v>0.486491</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389307</v>
+        <v>0.470159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493138</v>
+        <v>0.489797</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443881</v>
+        <v>0.47372</v>
       </c>
       <c r="D35" t="n">
-        <v>0.38953</v>
+        <v>0.472058</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.475366</v>
+        <v>0.487951</v>
       </c>
       <c r="C36" t="n">
-        <v>0.431413</v>
+        <v>0.471646</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382055</v>
+        <v>0.451107</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.471392</v>
+        <v>0.480755</v>
       </c>
       <c r="C37" t="n">
-        <v>0.42112</v>
+        <v>0.745915</v>
       </c>
       <c r="D37" t="n">
-        <v>0.658739</v>
+        <v>0.784744</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7350449999999999</v>
+        <v>0.741208</v>
       </c>
       <c r="C38" t="n">
-        <v>0.689866</v>
+        <v>0.708847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.643435</v>
+        <v>0.736995</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.720766</v>
+        <v>0.70237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.670714</v>
+        <v>0.678971</v>
       </c>
       <c r="D39" t="n">
-        <v>0.617765</v>
+        <v>0.720794</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668607</v>
+        <v>0.690732</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6533409999999999</v>
+        <v>0.662453</v>
       </c>
       <c r="D40" t="n">
-        <v>0.59022</v>
+        <v>0.70469</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6690160000000001</v>
+        <v>0.6841429999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.631333</v>
+        <v>0.642586</v>
       </c>
       <c r="D41" t="n">
-        <v>0.575661</v>
+        <v>0.683233</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.65315</v>
+        <v>0.667339</v>
       </c>
       <c r="C42" t="n">
-        <v>0.611129</v>
+        <v>0.613164</v>
       </c>
       <c r="D42" t="n">
-        <v>0.555941</v>
+        <v>0.647023</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6308009999999999</v>
+        <v>0.642896</v>
       </c>
       <c r="C43" t="n">
-        <v>0.587083</v>
+        <v>0.600884</v>
       </c>
       <c r="D43" t="n">
-        <v>0.530872</v>
+        <v>0.6400940000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.612914</v>
+        <v>0.624235</v>
       </c>
       <c r="C44" t="n">
-        <v>0.577662</v>
+        <v>0.606575</v>
       </c>
       <c r="D44" t="n">
-        <v>0.515971</v>
+        <v>0.619838</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.590962</v>
+        <v>0.607262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5524</v>
+        <v>0.575524</v>
       </c>
       <c r="D45" t="n">
-        <v>0.502564</v>
+        <v>0.594773</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5723510000000001</v>
+        <v>0.592076</v>
       </c>
       <c r="C46" t="n">
-        <v>0.534236</v>
+        <v>0.55321</v>
       </c>
       <c r="D46" t="n">
-        <v>0.502996</v>
+        <v>0.581328</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.568004</v>
+        <v>0.571151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.52491</v>
+        <v>0.5465950000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.484056</v>
+        <v>0.576929</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.553722</v>
+        <v>0.540943</v>
       </c>
       <c r="C48" t="n">
-        <v>0.499369</v>
+        <v>0.52329</v>
       </c>
       <c r="D48" t="n">
-        <v>0.470625</v>
+        <v>0.545372</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536986</v>
+        <v>0.545238</v>
       </c>
       <c r="C49" t="n">
-        <v>0.492955</v>
+        <v>0.51511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.465632</v>
+        <v>0.537798</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.530204</v>
+        <v>0.532463</v>
       </c>
       <c r="C50" t="n">
-        <v>0.484358</v>
+        <v>0.5118279999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.445379</v>
+        <v>0.528856</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.534757</v>
+        <v>0.514859</v>
       </c>
       <c r="C51" t="n">
-        <v>0.471869</v>
+        <v>0.7744450000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.720139</v>
+        <v>0.854289</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.513453</v>
+        <v>0.516994</v>
       </c>
       <c r="C52" t="n">
-        <v>0.468332</v>
+        <v>0.749073</v>
       </c>
       <c r="D52" t="n">
-        <v>0.724793</v>
+        <v>0.829283</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.771779</v>
+        <v>0.782769</v>
       </c>
       <c r="C53" t="n">
-        <v>0.726544</v>
+        <v>0.737981</v>
       </c>
       <c r="D53" t="n">
-        <v>0.667246</v>
+        <v>0.805137</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.771377</v>
+        <v>0.766131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.70836</v>
+        <v>0.7139259999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.668452</v>
+        <v>0.772388</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.748506</v>
+        <v>0.751062</v>
       </c>
       <c r="C55" t="n">
-        <v>0.692469</v>
+        <v>0.699711</v>
       </c>
       <c r="D55" t="n">
-        <v>0.654882</v>
+        <v>0.761097</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.719285</v>
+        <v>0.714769</v>
       </c>
       <c r="C56" t="n">
-        <v>0.688464</v>
+        <v>0.687384</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6364069999999999</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.691254</v>
+        <v>0.715282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6558079999999999</v>
+        <v>0.662339</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6135389999999999</v>
+        <v>0.714585</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.679332</v>
+        <v>0.674644</v>
       </c>
       <c r="C58" t="n">
-        <v>0.626448</v>
+        <v>0.649618</v>
       </c>
       <c r="D58" t="n">
-        <v>0.60605</v>
+        <v>0.6982</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.67459</v>
+        <v>0.654014</v>
       </c>
       <c r="C59" t="n">
-        <v>0.609391</v>
+        <v>0.636926</v>
       </c>
       <c r="D59" t="n">
-        <v>0.585317</v>
+        <v>0.6948530000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.66051</v>
+        <v>0.642178</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606106</v>
+        <v>0.617488</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5860300000000001</v>
+        <v>0.662287</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6374339999999999</v>
+        <v>0.632248</v>
       </c>
       <c r="C61" t="n">
-        <v>0.582178</v>
+        <v>0.594625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.573326</v>
+        <v>0.655023</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.624791</v>
+        <v>0.627668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.577537</v>
+        <v>0.597105</v>
       </c>
       <c r="D62" t="n">
-        <v>0.544952</v>
+        <v>0.62365</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593</v>
+        <v>0.6291099999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.570253</v>
+        <v>0.595925</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5359930000000001</v>
+        <v>0.611894</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.60725</v>
+        <v>0.602892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.547833</v>
+        <v>0.566786</v>
       </c>
       <c r="D64" t="n">
-        <v>0.521458</v>
+        <v>0.603539</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.607067</v>
+        <v>0.600944</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537737</v>
+        <v>0.565851</v>
       </c>
       <c r="D65" t="n">
-        <v>0.522064</v>
+        <v>0.602712</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.593703</v>
+        <v>0.578946</v>
       </c>
       <c r="C66" t="n">
-        <v>0.53169</v>
+        <v>0.8482460000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.821972</v>
+        <v>0.918898</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8701140000000001</v>
+        <v>0.870883</v>
       </c>
       <c r="C67" t="n">
-        <v>0.809395</v>
+        <v>0.8142200000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.804594</v>
+        <v>0.8948700000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.834269</v>
+        <v>0.849309</v>
       </c>
       <c r="C68" t="n">
-        <v>0.80543</v>
+        <v>0.814931</v>
       </c>
       <c r="D68" t="n">
-        <v>0.752728</v>
+        <v>0.886447</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.822861</v>
+        <v>0.825135</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781793</v>
+        <v>0.7790589999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.752568</v>
+        <v>0.8543230000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.821195</v>
+        <v>0.819846</v>
       </c>
       <c r="C70" t="n">
-        <v>0.767375</v>
+        <v>0.7897999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.740416</v>
+        <v>0.84133</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.775152</v>
+        <v>0.779879</v>
       </c>
       <c r="C71" t="n">
-        <v>0.743393</v>
+        <v>0.754837</v>
       </c>
       <c r="D71" t="n">
-        <v>0.714275</v>
+        <v>0.799407</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.771315</v>
+        <v>0.776161</v>
       </c>
       <c r="C72" t="n">
-        <v>0.730214</v>
+        <v>0.716519</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6919149999999999</v>
+        <v>0.781531</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.776265</v>
+        <v>0.760001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.716135</v>
+        <v>0.704095</v>
       </c>
       <c r="D73" t="n">
-        <v>0.692755</v>
+        <v>0.7557739999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.748188</v>
+        <v>0.738002</v>
       </c>
       <c r="C74" t="n">
-        <v>0.686818</v>
+        <v>0.694824</v>
       </c>
       <c r="D74" t="n">
-        <v>0.666288</v>
+        <v>0.741839</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.714846</v>
+        <v>0.717818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.68377</v>
+        <v>0.6887720000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.656904</v>
+        <v>0.730228</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.707721</v>
+        <v>0.718395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.677238</v>
+        <v>0.671554</v>
       </c>
       <c r="D76" t="n">
-        <v>0.644003</v>
+        <v>0.715989</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.693395</v>
+        <v>0.691648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.643136</v>
+        <v>0.668587</v>
       </c>
       <c r="D77" t="n">
-        <v>0.619231</v>
+        <v>0.6896679999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.67552</v>
+        <v>0.690001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6329</v>
+        <v>0.651914</v>
       </c>
       <c r="D78" t="n">
-        <v>0.606617</v>
+        <v>0.72057</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.675464</v>
+        <v>0.682681</v>
       </c>
       <c r="C79" t="n">
-        <v>0.616938</v>
+        <v>0.6386770000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.603678</v>
+        <v>0.687029</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.687491</v>
+        <v>0.66909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.606666</v>
+        <v>0.952793</v>
       </c>
       <c r="D80" t="n">
-        <v>0.976881</v>
+        <v>1.05926</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00248</v>
+        <v>0.977286</v>
       </c>
       <c r="C81" t="n">
-        <v>0.969874</v>
+        <v>0.943088</v>
       </c>
       <c r="D81" t="n">
-        <v>0.933775</v>
+        <v>1.02301</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.965612</v>
+        <v>0.957686</v>
       </c>
       <c r="C82" t="n">
-        <v>0.924366</v>
+        <v>0.905052</v>
       </c>
       <c r="D82" t="n">
-        <v>0.892111</v>
+        <v>0.982151</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.944475</v>
+        <v>0.975665</v>
       </c>
       <c r="C83" t="n">
-        <v>0.945872</v>
+        <v>0.888752</v>
       </c>
       <c r="D83" t="n">
-        <v>0.868872</v>
+        <v>0.989578</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.935406</v>
+        <v>0.930813</v>
       </c>
       <c r="C84" t="n">
-        <v>0.913303</v>
+        <v>0.865995</v>
       </c>
       <c r="D84" t="n">
-        <v>0.858169</v>
+        <v>0.94169</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.906249</v>
+        <v>0.899609</v>
       </c>
       <c r="C85" t="n">
-        <v>0.855604</v>
+        <v>0.8419180000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.824994</v>
+        <v>0.911824</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.88049</v>
+        <v>0.874881</v>
       </c>
       <c r="C86" t="n">
-        <v>0.848484</v>
+        <v>0.816026</v>
       </c>
       <c r="D86" t="n">
-        <v>0.81248</v>
+        <v>0.90796</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.866178</v>
+        <v>0.893563</v>
       </c>
       <c r="C87" t="n">
-        <v>0.815329</v>
+        <v>0.810388</v>
       </c>
       <c r="D87" t="n">
-        <v>0.796504</v>
+        <v>0.880124</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.848002</v>
+        <v>0.846292</v>
       </c>
       <c r="C88" t="n">
-        <v>0.797022</v>
+        <v>0.796591</v>
       </c>
       <c r="D88" t="n">
-        <v>0.792259</v>
+        <v>0.853784</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.849438</v>
+        <v>0.832471</v>
       </c>
       <c r="C89" t="n">
-        <v>0.796944</v>
+        <v>0.769922</v>
       </c>
       <c r="D89" t="n">
-        <v>0.761581</v>
+        <v>0.853979</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.820379</v>
+        <v>0.8115</v>
       </c>
       <c r="C90" t="n">
-        <v>0.769739</v>
+        <v>0.762791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.736061</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.800437</v>
+        <v>0.824411</v>
       </c>
       <c r="C91" t="n">
-        <v>0.78368</v>
+        <v>0.7541679999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7251609999999999</v>
+        <v>0.796716</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.794672</v>
+        <v>0.794389</v>
       </c>
       <c r="C92" t="n">
-        <v>0.760477</v>
+        <v>0.737442</v>
       </c>
       <c r="D92" t="n">
-        <v>0.705979</v>
+        <v>0.793208</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.791771</v>
+        <v>0.781644</v>
       </c>
       <c r="C93" t="n">
-        <v>0.732777</v>
+        <v>0.73303</v>
       </c>
       <c r="D93" t="n">
-        <v>0.719364</v>
+        <v>0.775909</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77755</v>
+        <v>0.764608</v>
       </c>
       <c r="C94" t="n">
-        <v>0.721269</v>
+        <v>1.05496</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06793</v>
+        <v>1.19873</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.06668</v>
+        <v>1.10473</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05242</v>
+        <v>1.04309</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03279</v>
+        <v>1.11439</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08006</v>
+        <v>1.06698</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07468</v>
+        <v>0.991027</v>
       </c>
       <c r="D96" t="n">
-        <v>0.986565</v>
+        <v>1.09398</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08293</v>
+        <v>1.06151</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02794</v>
+        <v>0.978542</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9788019999999999</v>
+        <v>1.06942</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0214</v>
+        <v>1.0481</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02121</v>
+        <v>0.949051</v>
       </c>
       <c r="D98" t="n">
-        <v>0.959392</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00916</v>
+        <v>1.01092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.98212</v>
+        <v>0.9440770000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.951264</v>
+        <v>1.00605</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00005</v>
+        <v>0.989072</v>
       </c>
       <c r="C100" t="n">
-        <v>0.982419</v>
+        <v>0.937649</v>
       </c>
       <c r="D100" t="n">
-        <v>0.925507</v>
+        <v>1.01385</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.999078</v>
+        <v>1.00779</v>
       </c>
       <c r="C101" t="n">
-        <v>0.950911</v>
+        <v>0.928583</v>
       </c>
       <c r="D101" t="n">
-        <v>0.887211</v>
+        <v>0.989812</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.978514</v>
+        <v>0.958195</v>
       </c>
       <c r="C102" t="n">
-        <v>0.957771</v>
+        <v>0.912884</v>
       </c>
       <c r="D102" t="n">
-        <v>0.902375</v>
+        <v>0.971525</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9563970000000001</v>
+        <v>0.990955</v>
       </c>
       <c r="C103" t="n">
-        <v>0.927517</v>
+        <v>0.867872</v>
       </c>
       <c r="D103" t="n">
-        <v>0.891903</v>
+        <v>0.933549</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.929251</v>
+        <v>0.957183</v>
       </c>
       <c r="C104" t="n">
-        <v>0.915131</v>
+        <v>0.857687</v>
       </c>
       <c r="D104" t="n">
-        <v>0.853316</v>
+        <v>0.934411</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94037</v>
+        <v>0.930823</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909486</v>
+        <v>0.852268</v>
       </c>
       <c r="D105" t="n">
-        <v>0.853458</v>
+        <v>0.896965</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.916867</v>
+        <v>0.949526</v>
       </c>
       <c r="C106" t="n">
-        <v>0.903718</v>
+        <v>0.84259</v>
       </c>
       <c r="D106" t="n">
-        <v>0.839037</v>
+        <v>0.903504</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.915745</v>
+        <v>0.917737</v>
       </c>
       <c r="C107" t="n">
-        <v>0.892108</v>
+        <v>0.827035</v>
       </c>
       <c r="D107" t="n">
-        <v>0.822498</v>
+        <v>0.874055</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.906007</v>
+        <v>0.89413</v>
       </c>
       <c r="C108" t="n">
-        <v>0.868235</v>
+        <v>1.15185</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18329</v>
+        <v>1.25482</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.914238</v>
+        <v>0.912122</v>
       </c>
       <c r="C109" t="n">
-        <v>0.881821</v>
+        <v>1.15403</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17796</v>
+        <v>1.24473</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21919</v>
+        <v>1.23307</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21535</v>
+        <v>1.1161</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20224</v>
+        <v>1.20843</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22103</v>
+        <v>1.19443</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19458</v>
+        <v>1.09504</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16999</v>
+        <v>1.19245</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21577</v>
+        <v>1.19729</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18881</v>
+        <v>1.08065</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11964</v>
+        <v>1.19189</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.22136</v>
+        <v>1.16654</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18812</v>
+        <v>1.07404</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12625</v>
+        <v>1.16431</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.19516</v>
+        <v>1.1562</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16294</v>
+        <v>1.08971</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08474</v>
+        <v>1.15984</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17708</v>
+        <v>1.15562</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16424</v>
+        <v>1.06051</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10799</v>
+        <v>1.11618</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17149</v>
+        <v>1.1651</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13119</v>
+        <v>1.05179</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06029</v>
+        <v>1.11381</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16164</v>
+        <v>1.14442</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13783</v>
+        <v>1.02066</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08532</v>
+        <v>1.10363</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14346</v>
+        <v>1.13429</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12957</v>
+        <v>1.04495</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06975</v>
+        <v>1.08496</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14778</v>
+        <v>1.13101</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11094</v>
+        <v>1.02828</v>
       </c>
       <c r="D119" t="n">
-        <v>1.0558</v>
+        <v>1.07748</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13754</v>
+        <v>1.13242</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12149</v>
+        <v>1.02644</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06201</v>
+        <v>1.0549</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10956</v>
+        <v>1.11098</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07508</v>
+        <v>1.01503</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01627</v>
+        <v>1.04625</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10852</v>
+        <v>1.13651</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10791</v>
+        <v>1.02636</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02686</v>
+        <v>1.05226</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.13792</v>
+        <v>1.11661</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09879</v>
+        <v>1.32673</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37868</v>
+        <v>1.42956</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4394</v>
+        <v>1.44218</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44784</v>
+        <v>1.29296</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39691</v>
+        <v>1.42289</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42266</v>
+        <v>1.42775</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4125</v>
+        <v>1.30674</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38543</v>
+        <v>1.37981</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42171</v>
+        <v>1.45573</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42823</v>
+        <v>1.31668</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37759</v>
+        <v>1.37762</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42677</v>
+        <v>1.43951</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43919</v>
+        <v>1.31</v>
       </c>
       <c r="D127" t="n">
-        <v>1.38314</v>
+        <v>1.37166</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4378</v>
+        <v>1.40261</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41783</v>
+        <v>1.30481</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37396</v>
+        <v>1.36392</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42842</v>
+        <v>1.43396</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41096</v>
+        <v>1.2943</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35468</v>
+        <v>1.37941</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40897</v>
+        <v>1.42909</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41474</v>
+        <v>1.29616</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36611</v>
+        <v>1.36958</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41836</v>
+        <v>1.4233</v>
       </c>
       <c r="C131" t="n">
-        <v>1.42339</v>
+        <v>1.2925</v>
       </c>
       <c r="D131" t="n">
-        <v>1.34177</v>
+        <v>1.35706</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42481</v>
+        <v>1.41718</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39019</v>
+        <v>1.28248</v>
       </c>
       <c r="D132" t="n">
-        <v>1.36231</v>
+        <v>1.34383</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42107</v>
+        <v>1.40724</v>
       </c>
       <c r="C133" t="n">
-        <v>1.39203</v>
+        <v>1.27308</v>
       </c>
       <c r="D133" t="n">
-        <v>1.35453</v>
+        <v>1.32765</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4068</v>
+        <v>1.39467</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38839</v>
+        <v>1.30673</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36561</v>
+        <v>1.33924</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40994</v>
+        <v>1.40555</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38588</v>
+        <v>1.3025</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34729</v>
+        <v>1.32092</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40381</v>
+        <v>1.37825</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39782</v>
+        <v>1.25792</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37359</v>
+        <v>1.27713</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.39737</v>
+        <v>1.34786</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37961</v>
+        <v>1.5703</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71851</v>
+        <v>1.66038</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73105</v>
+        <v>1.69252</v>
       </c>
       <c r="C138" t="n">
-        <v>1.72444</v>
+        <v>1.56284</v>
       </c>
       <c r="D138" t="n">
-        <v>1.72512</v>
+        <v>1.62174</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.75159</v>
+        <v>1.66522</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73435</v>
+        <v>1.56899</v>
       </c>
       <c r="D139" t="n">
-        <v>1.7117</v>
+        <v>1.61224</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.72798</v>
+        <v>1.6622</v>
       </c>
       <c r="C140" t="n">
-        <v>1.73132</v>
+        <v>1.60452</v>
       </c>
       <c r="D140" t="n">
-        <v>1.71647</v>
+        <v>1.66767</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72962</v>
+        <v>1.69208</v>
       </c>
       <c r="C141" t="n">
-        <v>1.74754</v>
+        <v>1.56869</v>
       </c>
       <c r="D141" t="n">
-        <v>1.69674</v>
+        <v>1.67192</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.7189</v>
+        <v>1.72414</v>
       </c>
       <c r="C142" t="n">
-        <v>1.7267</v>
+        <v>1.58653</v>
       </c>
       <c r="D142" t="n">
-        <v>1.68442</v>
+        <v>1.64601</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72322</v>
+        <v>1.71296</v>
       </c>
       <c r="C143" t="n">
-        <v>1.72333</v>
+        <v>1.60161</v>
       </c>
       <c r="D143" t="n">
-        <v>1.71219</v>
+        <v>1.64515</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.621429</v>
+        <v>0.594462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.530429</v>
+        <v>0.452607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.396184</v>
+        <v>0.406466</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.347438</v>
+        <v>0.368247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.343564</v>
+        <v>0.327755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.384196</v>
+        <v>0.405766</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.341371</v>
+        <v>0.356601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33206</v>
+        <v>0.312834</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37813</v>
+        <v>0.396874</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.340198</v>
+        <v>0.352844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.349406</v>
+        <v>0.304047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.382084</v>
+        <v>0.380024</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337195</v>
+        <v>0.352719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332239</v>
+        <v>0.305433</v>
       </c>
       <c r="D6" t="n">
-        <v>0.362238</v>
+        <v>0.38447</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332665</v>
+        <v>0.33031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.331703</v>
+        <v>0.30696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.356753</v>
+        <v>0.365917</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.315826</v>
+        <v>0.330455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.327506</v>
+        <v>0.297782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.35185</v>
+        <v>0.367349</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.316392</v>
+        <v>0.319159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.579344</v>
+        <v>0.577799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.743323</v>
+        <v>0.7555460000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.57969</v>
+        <v>0.593697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.565925</v>
+        <v>0.53077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7126209999999999</v>
+        <v>0.727355</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560738</v>
+        <v>0.583886</v>
       </c>
       <c r="C11" t="n">
-        <v>0.540131</v>
+        <v>0.532821</v>
       </c>
       <c r="D11" t="n">
-        <v>0.704541</v>
+        <v>0.701472</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.531212</v>
+        <v>0.562781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.518267</v>
+        <v>0.49578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.647459</v>
+        <v>0.669423</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.528884</v>
+        <v>0.5310780000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.517302</v>
+        <v>0.507042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.638496</v>
+        <v>0.646834</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.515571</v>
+        <v>0.506799</v>
       </c>
       <c r="C14" t="n">
-        <v>0.496355</v>
+        <v>0.474432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.630923</v>
+        <v>0.628398</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.492721</v>
+        <v>0.5038280000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.475455</v>
+        <v>0.468845</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5980220000000001</v>
+        <v>0.625792</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.499615</v>
+        <v>0.479391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.474615</v>
+        <v>0.439473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.580426</v>
+        <v>0.5873930000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471556</v>
+        <v>0.471948</v>
       </c>
       <c r="C17" t="n">
-        <v>0.45571</v>
+        <v>0.432842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.560457</v>
+        <v>0.561878</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.464745</v>
+        <v>0.461297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.443116</v>
+        <v>0.414614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.545393</v>
+        <v>0.555627</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445671</v>
+        <v>0.44825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.442835</v>
+        <v>0.404079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.520825</v>
+        <v>0.536443</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43903</v>
+        <v>0.443798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.435919</v>
+        <v>0.400432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5037509999999999</v>
+        <v>0.515703</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418402</v>
+        <v>0.434311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.411331</v>
+        <v>0.383828</v>
       </c>
       <c r="D21" t="n">
-        <v>0.492591</v>
+        <v>0.513122</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.414601</v>
+        <v>0.414387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.421929</v>
+        <v>0.396277</v>
       </c>
       <c r="D22" t="n">
-        <v>0.483264</v>
+        <v>0.498542</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421298</v>
+        <v>0.42625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6816</v>
+        <v>0.661842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.790274</v>
+        <v>0.800519</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.678207</v>
+        <v>0.731701</v>
       </c>
       <c r="C24" t="n">
-        <v>0.661108</v>
+        <v>0.649219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.648284</v>
+        <v>0.637805</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659324</v>
+        <v>0.691128</v>
       </c>
       <c r="C25" t="n">
-        <v>0.637263</v>
+        <v>0.61743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.627099</v>
+        <v>0.629833</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.63657</v>
+        <v>0.670163</v>
       </c>
       <c r="C26" t="n">
-        <v>0.619452</v>
+        <v>0.5772389999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.607583</v>
+        <v>0.608517</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.638566</v>
+        <v>0.648723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.590141</v>
+        <v>0.577336</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5818179999999999</v>
+        <v>0.60272</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.600202</v>
+        <v>0.618981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.587938</v>
+        <v>0.561851</v>
       </c>
       <c r="D28" t="n">
-        <v>0.562179</v>
+        <v>0.580474</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.567694</v>
+        <v>0.591453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.565527</v>
+        <v>0.530687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.550633</v>
+        <v>0.553943</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.557006</v>
+        <v>0.556365</v>
       </c>
       <c r="C30" t="n">
-        <v>0.543446</v>
+        <v>0.5163450000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.525056</v>
+        <v>0.537114</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5411550000000001</v>
+        <v>0.563473</v>
       </c>
       <c r="C31" t="n">
-        <v>0.533803</v>
+        <v>0.510594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.514653</v>
+        <v>0.518522</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.529353</v>
+        <v>0.557903</v>
       </c>
       <c r="C32" t="n">
-        <v>0.523392</v>
+        <v>0.500627</v>
       </c>
       <c r="D32" t="n">
-        <v>0.499659</v>
+        <v>0.5191750000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.523358</v>
+        <v>0.551284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491359</v>
+        <v>0.488674</v>
       </c>
       <c r="D33" t="n">
-        <v>0.48242</v>
+        <v>0.496333</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.504468</v>
+        <v>0.521082</v>
       </c>
       <c r="C34" t="n">
-        <v>0.486491</v>
+        <v>0.467383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.470159</v>
+        <v>0.479786</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.489797</v>
+        <v>0.502318</v>
       </c>
       <c r="C35" t="n">
-        <v>0.47372</v>
+        <v>0.464453</v>
       </c>
       <c r="D35" t="n">
-        <v>0.472058</v>
+        <v>0.476431</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.487951</v>
+        <v>0.5021099999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.471646</v>
+        <v>0.465216</v>
       </c>
       <c r="D36" t="n">
-        <v>0.451107</v>
+        <v>0.463931</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.480755</v>
+        <v>0.501849</v>
       </c>
       <c r="C37" t="n">
-        <v>0.745915</v>
+        <v>0.726291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.784744</v>
+        <v>0.773473</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.741208</v>
+        <v>0.747617</v>
       </c>
       <c r="C38" t="n">
-        <v>0.708847</v>
+        <v>0.69303</v>
       </c>
       <c r="D38" t="n">
-        <v>0.736995</v>
+        <v>0.746046</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.70237</v>
+        <v>0.745071</v>
       </c>
       <c r="C39" t="n">
-        <v>0.678971</v>
+        <v>0.675292</v>
       </c>
       <c r="D39" t="n">
-        <v>0.720794</v>
+        <v>0.723153</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.690732</v>
+        <v>0.707008</v>
       </c>
       <c r="C40" t="n">
-        <v>0.662453</v>
+        <v>0.639637</v>
       </c>
       <c r="D40" t="n">
-        <v>0.70469</v>
+        <v>0.710448</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6841429999999999</v>
+        <v>0.687176</v>
       </c>
       <c r="C41" t="n">
-        <v>0.642586</v>
+        <v>0.630404</v>
       </c>
       <c r="D41" t="n">
-        <v>0.683233</v>
+        <v>0.681159</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667339</v>
+        <v>0.684314</v>
       </c>
       <c r="C42" t="n">
-        <v>0.613164</v>
+        <v>0.601967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.647023</v>
+        <v>0.6723440000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.642896</v>
+        <v>0.673146</v>
       </c>
       <c r="C43" t="n">
-        <v>0.600884</v>
+        <v>0.587748</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6400940000000001</v>
+        <v>0.649933</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.624235</v>
+        <v>0.642007</v>
       </c>
       <c r="C44" t="n">
-        <v>0.606575</v>
+        <v>0.571462</v>
       </c>
       <c r="D44" t="n">
-        <v>0.619838</v>
+        <v>0.620594</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.607262</v>
+        <v>0.627089</v>
       </c>
       <c r="C45" t="n">
-        <v>0.575524</v>
+        <v>0.570454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.594773</v>
+        <v>0.605127</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592076</v>
+        <v>0.6076240000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.55321</v>
+        <v>0.54369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.581328</v>
+        <v>0.592693</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.571151</v>
+        <v>0.585568</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5465950000000001</v>
+        <v>0.528136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.576929</v>
+        <v>0.577192</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.540943</v>
+        <v>0.5674</v>
       </c>
       <c r="C48" t="n">
-        <v>0.52329</v>
+        <v>0.515089</v>
       </c>
       <c r="D48" t="n">
-        <v>0.545372</v>
+        <v>0.561853</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.545238</v>
+        <v>0.549305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.51511</v>
+        <v>0.4881</v>
       </c>
       <c r="D49" t="n">
-        <v>0.537798</v>
+        <v>0.543306</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.532463</v>
+        <v>0.540932</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5118279999999999</v>
+        <v>0.483699</v>
       </c>
       <c r="D50" t="n">
-        <v>0.528856</v>
+        <v>0.530245</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.514859</v>
+        <v>0.53468</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7744450000000001</v>
+        <v>0.7811709999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.854289</v>
+        <v>0.8844689999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.516994</v>
+        <v>0.52547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.749073</v>
+        <v>0.746272</v>
       </c>
       <c r="D52" t="n">
-        <v>0.829283</v>
+        <v>0.8424779999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.782769</v>
+        <v>0.798856</v>
       </c>
       <c r="C53" t="n">
-        <v>0.737981</v>
+        <v>0.72349</v>
       </c>
       <c r="D53" t="n">
-        <v>0.805137</v>
+        <v>0.817175</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.766131</v>
+        <v>0.77927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7139259999999999</v>
+        <v>0.7112540000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.772388</v>
+        <v>0.82168</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.751062</v>
+        <v>0.785778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.699711</v>
+        <v>0.7000999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.761097</v>
+        <v>0.79175</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.714769</v>
+        <v>0.749738</v>
       </c>
       <c r="C56" t="n">
-        <v>0.687384</v>
+        <v>0.667454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.742</v>
+        <v>0.731761</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.715282</v>
+        <v>0.713376</v>
       </c>
       <c r="C57" t="n">
-        <v>0.662339</v>
+        <v>0.662133</v>
       </c>
       <c r="D57" t="n">
-        <v>0.714585</v>
+        <v>0.7406700000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.674644</v>
+        <v>0.711806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.649618</v>
+        <v>0.639113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6982</v>
+        <v>0.720258</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.654014</v>
+        <v>0.685099</v>
       </c>
       <c r="C59" t="n">
-        <v>0.636926</v>
+        <v>0.627263</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6948530000000001</v>
+        <v>0.70655</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.642178</v>
+        <v>0.675445</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617488</v>
+        <v>0.626488</v>
       </c>
       <c r="D60" t="n">
-        <v>0.662287</v>
+        <v>0.664988</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.632248</v>
+        <v>0.667362</v>
       </c>
       <c r="C61" t="n">
-        <v>0.594625</v>
+        <v>0.588058</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655023</v>
+        <v>0.665499</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.627668</v>
+        <v>0.652051</v>
       </c>
       <c r="C62" t="n">
-        <v>0.597105</v>
+        <v>0.59185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.62365</v>
+        <v>0.634807</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6291099999999999</v>
+        <v>0.617645</v>
       </c>
       <c r="C63" t="n">
-        <v>0.595925</v>
+        <v>0.570623</v>
       </c>
       <c r="D63" t="n">
-        <v>0.611894</v>
+        <v>0.632238</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.602892</v>
+        <v>0.621483</v>
       </c>
       <c r="C64" t="n">
-        <v>0.566786</v>
+        <v>0.56623</v>
       </c>
       <c r="D64" t="n">
-        <v>0.603539</v>
+        <v>0.6222299999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600944</v>
+        <v>0.607573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.565851</v>
+        <v>0.56232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.602712</v>
+        <v>0.6181410000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578946</v>
+        <v>0.611758</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8482460000000001</v>
+        <v>0.859422</v>
       </c>
       <c r="D66" t="n">
-        <v>0.918898</v>
+        <v>0.95159</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.870883</v>
+        <v>0.894603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8142200000000001</v>
+        <v>0.807144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8948700000000001</v>
+        <v>0.942069</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.849309</v>
+        <v>0.853553</v>
       </c>
       <c r="C68" t="n">
-        <v>0.814931</v>
+        <v>0.78844</v>
       </c>
       <c r="D68" t="n">
-        <v>0.886447</v>
+        <v>0.891887</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.825135</v>
+        <v>0.8703610000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.78769</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8543230000000001</v>
+        <v>0.860022</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.819846</v>
+        <v>0.864568</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7897999999999999</v>
+        <v>0.762296</v>
       </c>
       <c r="D70" t="n">
-        <v>0.84133</v>
+        <v>0.85021</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.779879</v>
+        <v>0.801797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.754837</v>
+        <v>0.724503</v>
       </c>
       <c r="D71" t="n">
-        <v>0.799407</v>
+        <v>0.850754</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.776161</v>
+        <v>0.807949</v>
       </c>
       <c r="C72" t="n">
-        <v>0.716519</v>
+        <v>0.724587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.781531</v>
+        <v>0.806773</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760001</v>
+        <v>0.784351</v>
       </c>
       <c r="C73" t="n">
-        <v>0.704095</v>
+        <v>0.700793</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7557739999999999</v>
+        <v>0.788781</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.738002</v>
+        <v>0.752207</v>
       </c>
       <c r="C74" t="n">
-        <v>0.694824</v>
+        <v>0.6868840000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.741839</v>
+        <v>0.787701</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.717818</v>
+        <v>0.730927</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6887720000000001</v>
+        <v>0.669948</v>
       </c>
       <c r="D75" t="n">
-        <v>0.730228</v>
+        <v>0.753673</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.718395</v>
+        <v>0.721542</v>
       </c>
       <c r="C76" t="n">
-        <v>0.671554</v>
+        <v>0.6648269999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715989</v>
+        <v>0.741619</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.691648</v>
+        <v>0.720532</v>
       </c>
       <c r="C77" t="n">
-        <v>0.668587</v>
+        <v>0.649297</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6896679999999999</v>
+        <v>0.720293</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.690001</v>
+        <v>0.7328519999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.651914</v>
+        <v>0.6440439999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.72057</v>
+        <v>0.693127</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.682681</v>
+        <v>0.712584</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6386770000000001</v>
+        <v>0.628705</v>
       </c>
       <c r="D79" t="n">
-        <v>0.687029</v>
+        <v>0.708377</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.66909</v>
+        <v>0.691731</v>
       </c>
       <c r="C80" t="n">
-        <v>0.952793</v>
+        <v>0.946995</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05926</v>
+        <v>1.10548</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.977286</v>
+        <v>0.9935619999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.943088</v>
+        <v>0.900886</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02301</v>
+        <v>1.04635</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.957686</v>
+        <v>0.986049</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905052</v>
+        <v>0.911994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.982151</v>
+        <v>1.00817</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.975665</v>
+        <v>0.973132</v>
       </c>
       <c r="C83" t="n">
-        <v>0.888752</v>
+        <v>0.86438</v>
       </c>
       <c r="D83" t="n">
-        <v>0.989578</v>
+        <v>0.972061</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.930813</v>
+        <v>0.941539</v>
       </c>
       <c r="C84" t="n">
-        <v>0.865995</v>
+        <v>0.859643</v>
       </c>
       <c r="D84" t="n">
-        <v>0.94169</v>
+        <v>0.97182</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.899609</v>
+        <v>0.919399</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8419180000000001</v>
+        <v>0.831368</v>
       </c>
       <c r="D85" t="n">
-        <v>0.911824</v>
+        <v>0.928281</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.874881</v>
+        <v>0.9167650000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816026</v>
+        <v>0.861273</v>
       </c>
       <c r="D86" t="n">
-        <v>0.90796</v>
+        <v>0.9296720000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.893563</v>
+        <v>0.896583</v>
       </c>
       <c r="C87" t="n">
-        <v>0.810388</v>
+        <v>0.797075</v>
       </c>
       <c r="D87" t="n">
-        <v>0.880124</v>
+        <v>0.90399</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.846292</v>
+        <v>0.851421</v>
       </c>
       <c r="C88" t="n">
-        <v>0.796591</v>
+        <v>0.77393</v>
       </c>
       <c r="D88" t="n">
-        <v>0.853784</v>
+        <v>0.875304</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.832471</v>
+        <v>0.852288</v>
       </c>
       <c r="C89" t="n">
-        <v>0.769922</v>
+        <v>0.775021</v>
       </c>
       <c r="D89" t="n">
-        <v>0.853979</v>
+        <v>0.855069</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8115</v>
+        <v>0.854028</v>
       </c>
       <c r="C90" t="n">
-        <v>0.762791</v>
+        <v>0.753741</v>
       </c>
       <c r="D90" t="n">
-        <v>0.826</v>
+        <v>0.8238529999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.824411</v>
+        <v>0.832498</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7541679999999999</v>
+        <v>0.752081</v>
       </c>
       <c r="D91" t="n">
-        <v>0.796716</v>
+        <v>0.819574</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.794389</v>
+        <v>0.83274</v>
       </c>
       <c r="C92" t="n">
-        <v>0.737442</v>
+        <v>0.73019</v>
       </c>
       <c r="D92" t="n">
-        <v>0.793208</v>
+        <v>0.810173</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.781644</v>
+        <v>0.812007</v>
       </c>
       <c r="C93" t="n">
-        <v>0.73303</v>
+        <v>0.736345</v>
       </c>
       <c r="D93" t="n">
-        <v>0.775909</v>
+        <v>0.780864</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.764608</v>
+        <v>0.792798</v>
       </c>
       <c r="C94" t="n">
-        <v>1.05496</v>
+        <v>1.03683</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19873</v>
+        <v>1.17578</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10473</v>
+        <v>1.12855</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04309</v>
+        <v>1.01258</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11439</v>
+        <v>1.11755</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06698</v>
+        <v>1.07236</v>
       </c>
       <c r="C96" t="n">
-        <v>0.991027</v>
+        <v>0.989052</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09398</v>
+        <v>1.13466</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06151</v>
+        <v>1.05379</v>
       </c>
       <c r="C97" t="n">
-        <v>0.978542</v>
+        <v>0.963306</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06942</v>
+        <v>1.07707</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0481</v>
+        <v>1.06722</v>
       </c>
       <c r="C98" t="n">
-        <v>0.949051</v>
+        <v>0.9692499999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0297</v>
+        <v>1.07125</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01092</v>
+        <v>1.03962</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9440770000000001</v>
+        <v>0.937539</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00605</v>
+        <v>1.04597</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.989072</v>
+        <v>1.02927</v>
       </c>
       <c r="C100" t="n">
-        <v>0.937649</v>
+        <v>0.912116</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01385</v>
+        <v>1.00482</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00779</v>
+        <v>0.988561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.928583</v>
+        <v>0.886095</v>
       </c>
       <c r="D101" t="n">
-        <v>0.989812</v>
+        <v>0.983939</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958195</v>
+        <v>0.990367</v>
       </c>
       <c r="C102" t="n">
-        <v>0.912884</v>
+        <v>0.885567</v>
       </c>
       <c r="D102" t="n">
-        <v>0.971525</v>
+        <v>0.988895</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.990955</v>
+        <v>0.976977</v>
       </c>
       <c r="C103" t="n">
-        <v>0.867872</v>
+        <v>0.879903</v>
       </c>
       <c r="D103" t="n">
-        <v>0.933549</v>
+        <v>0.9509339999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.957183</v>
+        <v>0.9595</v>
       </c>
       <c r="C104" t="n">
-        <v>0.857687</v>
+        <v>0.854579</v>
       </c>
       <c r="D104" t="n">
-        <v>0.934411</v>
+        <v>0.938813</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.930823</v>
+        <v>0.947161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.852268</v>
+        <v>0.835638</v>
       </c>
       <c r="D105" t="n">
-        <v>0.896965</v>
+        <v>0.929179</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.949526</v>
+        <v>0.929129</v>
       </c>
       <c r="C106" t="n">
-        <v>0.84259</v>
+        <v>0.82756</v>
       </c>
       <c r="D106" t="n">
-        <v>0.903504</v>
+        <v>0.925677</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.917737</v>
+        <v>0.9253479999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.827035</v>
+        <v>0.827474</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874055</v>
+        <v>0.894583</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.89413</v>
+        <v>0.930006</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15185</v>
+        <v>1.15993</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25482</v>
+        <v>1.23242</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.912122</v>
+        <v>0.923145</v>
       </c>
       <c r="C109" t="n">
-        <v>1.15403</v>
+        <v>1.14372</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24473</v>
+        <v>1.23827</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23307</v>
+        <v>1.21385</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1161</v>
+        <v>1.12323</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20843</v>
+        <v>1.22279</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19443</v>
+        <v>1.207</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09504</v>
+        <v>1.14969</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19245</v>
+        <v>1.20727</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19729</v>
+        <v>1.21674</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08065</v>
+        <v>1.11192</v>
       </c>
       <c r="D112" t="n">
-        <v>1.19189</v>
+        <v>1.20058</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16654</v>
+        <v>1.19331</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07404</v>
+        <v>1.07943</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16431</v>
+        <v>1.17021</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1562</v>
+        <v>1.20328</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08971</v>
+        <v>1.05869</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15984</v>
+        <v>1.15034</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15562</v>
+        <v>1.18046</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06051</v>
+        <v>1.04811</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11618</v>
+        <v>1.15662</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1651</v>
+        <v>1.15189</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05179</v>
+        <v>1.03543</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11381</v>
+        <v>1.13856</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14442</v>
+        <v>1.16644</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02066</v>
+        <v>1.05815</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10363</v>
+        <v>1.11756</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13429</v>
+        <v>1.17483</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04495</v>
+        <v>1.02959</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08496</v>
+        <v>1.10715</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13101</v>
+        <v>1.14152</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02828</v>
+        <v>1.02072</v>
       </c>
       <c r="D119" t="n">
-        <v>1.07748</v>
+        <v>1.05603</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13242</v>
+        <v>1.13886</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02644</v>
+        <v>1.02308</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0549</v>
+        <v>1.05737</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11098</v>
+        <v>1.12358</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01503</v>
+        <v>1.03144</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04625</v>
+        <v>1.06067</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13651</v>
+        <v>1.1108</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02636</v>
+        <v>1.01633</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05226</v>
+        <v>1.06948</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11661</v>
+        <v>1.14025</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32673</v>
+        <v>1.33139</v>
       </c>
       <c r="D123" t="n">
-        <v>1.42956</v>
+        <v>1.43234</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44218</v>
+        <v>1.44073</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29296</v>
+        <v>1.32925</v>
       </c>
       <c r="D124" t="n">
-        <v>1.42289</v>
+        <v>1.42395</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42775</v>
+        <v>1.42823</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30674</v>
+        <v>1.30901</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37981</v>
+        <v>1.4128</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.45573</v>
+        <v>1.43351</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31668</v>
+        <v>1.32348</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37762</v>
+        <v>1.40234</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43951</v>
+        <v>1.44931</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31</v>
+        <v>1.32086</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37166</v>
+        <v>1.39365</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40261</v>
+        <v>1.42984</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30481</v>
+        <v>1.33262</v>
       </c>
       <c r="D128" t="n">
-        <v>1.36392</v>
+        <v>1.38251</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43396</v>
+        <v>1.44412</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2943</v>
+        <v>1.32266</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37941</v>
+        <v>1.39989</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42909</v>
+        <v>1.41916</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29616</v>
+        <v>1.30867</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36958</v>
+        <v>1.35772</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.4233</v>
+        <v>1.42735</v>
       </c>
       <c r="C131" t="n">
-        <v>1.2925</v>
+        <v>1.31643</v>
       </c>
       <c r="D131" t="n">
-        <v>1.35706</v>
+        <v>1.36008</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41718</v>
+        <v>1.42087</v>
       </c>
       <c r="C132" t="n">
-        <v>1.28248</v>
+        <v>1.31766</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34383</v>
+        <v>1.35462</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40724</v>
+        <v>1.41937</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27308</v>
+        <v>1.32308</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32765</v>
+        <v>1.36104</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39467</v>
+        <v>1.40418</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30673</v>
+        <v>1.31725</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33924</v>
+        <v>1.32528</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40555</v>
+        <v>1.41596</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3025</v>
+        <v>1.3118</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32092</v>
+        <v>1.34752</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37825</v>
+        <v>1.42252</v>
       </c>
       <c r="C136" t="n">
-        <v>1.25792</v>
+        <v>1.33209</v>
       </c>
       <c r="D136" t="n">
-        <v>1.27713</v>
+        <v>1.34085</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.34786</v>
+        <v>1.45274</v>
       </c>
       <c r="C137" t="n">
-        <v>1.5703</v>
+        <v>1.65424</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66038</v>
+        <v>1.73673</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.69252</v>
+        <v>1.75409</v>
       </c>
       <c r="C138" t="n">
-        <v>1.56284</v>
+        <v>1.66486</v>
       </c>
       <c r="D138" t="n">
-        <v>1.62174</v>
+        <v>1.71806</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.66522</v>
+        <v>1.75744</v>
       </c>
       <c r="C139" t="n">
-        <v>1.56899</v>
+        <v>1.67495</v>
       </c>
       <c r="D139" t="n">
-        <v>1.61224</v>
+        <v>1.68592</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6622</v>
+        <v>1.74034</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60452</v>
+        <v>1.64197</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66767</v>
+        <v>1.68135</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.69208</v>
+        <v>1.73709</v>
       </c>
       <c r="C141" t="n">
-        <v>1.56869</v>
+        <v>1.65955</v>
       </c>
       <c r="D141" t="n">
-        <v>1.67192</v>
+        <v>1.66273</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72414</v>
+        <v>1.7377</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58653</v>
+        <v>1.64701</v>
       </c>
       <c r="D142" t="n">
-        <v>1.64601</v>
+        <v>1.67305</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71296</v>
+        <v>1.72965</v>
       </c>
       <c r="C143" t="n">
-        <v>1.60161</v>
+        <v>1.65481</v>
       </c>
       <c r="D143" t="n">
-        <v>1.64515</v>
+        <v>1.6509</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.594462</v>
+        <v>0.626893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.452607</v>
+        <v>0.491744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.406466</v>
+        <v>0.409742</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368247</v>
+        <v>0.362187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327755</v>
+        <v>0.320716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.405766</v>
+        <v>0.399052</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.356601</v>
+        <v>0.351504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312834</v>
+        <v>0.308147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.396874</v>
+        <v>0.392214</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352844</v>
+        <v>0.351067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304047</v>
+        <v>0.312398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.380024</v>
+        <v>0.379695</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.352719</v>
+        <v>0.35175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.305433</v>
+        <v>0.303394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38447</v>
+        <v>0.377974</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33031</v>
+        <v>0.326068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.30696</v>
+        <v>0.291358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.365917</v>
+        <v>0.372933</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.330455</v>
+        <v>0.331441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.297782</v>
+        <v>0.300158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367349</v>
+        <v>0.364773</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.319159</v>
+        <v>0.322345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.577799</v>
+        <v>0.553368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7555460000000001</v>
+        <v>0.754347</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.593697</v>
+        <v>0.580892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.53077</v>
+        <v>0.534765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.727355</v>
+        <v>0.718955</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.583886</v>
+        <v>0.566343</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532821</v>
+        <v>0.515716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.701472</v>
+        <v>0.663272</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.562781</v>
+        <v>0.541167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49578</v>
+        <v>0.494204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.669423</v>
+        <v>0.670813</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5310780000000001</v>
+        <v>0.526665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.507042</v>
+        <v>0.498843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.646834</v>
+        <v>0.62103</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506799</v>
+        <v>0.506252</v>
       </c>
       <c r="C14" t="n">
-        <v>0.474432</v>
+        <v>0.4571</v>
       </c>
       <c r="D14" t="n">
-        <v>0.628398</v>
+        <v>0.61081</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5038280000000001</v>
+        <v>0.493805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.468845</v>
+        <v>0.453522</v>
       </c>
       <c r="D15" t="n">
-        <v>0.625792</v>
+        <v>0.596627</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479391</v>
+        <v>0.475065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.439473</v>
+        <v>0.433403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5873930000000001</v>
+        <v>0.570345</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471948</v>
+        <v>0.471893</v>
       </c>
       <c r="C17" t="n">
-        <v>0.432842</v>
+        <v>0.433656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.561878</v>
+        <v>0.552538</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.461297</v>
+        <v>0.459133</v>
       </c>
       <c r="C18" t="n">
-        <v>0.414614</v>
+        <v>0.412342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.555627</v>
+        <v>0.5289</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.44825</v>
+        <v>0.439527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.404079</v>
+        <v>0.396927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.536443</v>
+        <v>0.520844</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.443798</v>
+        <v>0.428548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.400432</v>
+        <v>0.399808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.515703</v>
+        <v>0.516379</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.434311</v>
+        <v>0.430152</v>
       </c>
       <c r="C21" t="n">
-        <v>0.383828</v>
+        <v>0.381691</v>
       </c>
       <c r="D21" t="n">
-        <v>0.513122</v>
+        <v>0.493712</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.414387</v>
+        <v>0.426832</v>
       </c>
       <c r="C22" t="n">
-        <v>0.396277</v>
+        <v>0.379895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.498542</v>
+        <v>0.495518</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.42625</v>
+        <v>0.416375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.661842</v>
+        <v>0.651249</v>
       </c>
       <c r="D23" t="n">
-        <v>0.800519</v>
+        <v>0.795427</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.731701</v>
+        <v>0.6836370000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.649219</v>
+        <v>0.618934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.637805</v>
+        <v>0.633841</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.691128</v>
+        <v>0.6591939999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61743</v>
+        <v>0.60318</v>
       </c>
       <c r="D25" t="n">
-        <v>0.629833</v>
+        <v>0.63146</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.670163</v>
+        <v>0.626034</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5772389999999999</v>
+        <v>0.586128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.608517</v>
+        <v>0.60022</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.648723</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.577336</v>
+        <v>0.564238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.60272</v>
+        <v>0.592104</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.618981</v>
+        <v>0.620859</v>
       </c>
       <c r="C28" t="n">
-        <v>0.561851</v>
+        <v>0.546693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.580474</v>
+        <v>0.5735170000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591453</v>
+        <v>0.578944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.530687</v>
+        <v>0.530375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.553943</v>
+        <v>0.544038</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.556365</v>
+        <v>0.56272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5163450000000001</v>
+        <v>0.515741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.537114</v>
+        <v>0.5286920000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.563473</v>
+        <v>0.532752</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510594</v>
+        <v>0.5031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.518522</v>
+        <v>0.519723</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.557903</v>
+        <v>0.531417</v>
       </c>
       <c r="C32" t="n">
-        <v>0.500627</v>
+        <v>0.484312</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5191750000000001</v>
+        <v>0.499061</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.551284</v>
+        <v>0.512816</v>
       </c>
       <c r="C33" t="n">
-        <v>0.488674</v>
+        <v>0.47029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.496333</v>
+        <v>0.495531</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.521082</v>
+        <v>0.509314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.467383</v>
+        <v>0.444317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.479786</v>
+        <v>0.481526</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.502318</v>
+        <v>0.5029090000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.464453</v>
+        <v>0.452379</v>
       </c>
       <c r="D35" t="n">
-        <v>0.476431</v>
+        <v>0.473059</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5021099999999999</v>
+        <v>0.474648</v>
       </c>
       <c r="C36" t="n">
-        <v>0.465216</v>
+        <v>0.436999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.463931</v>
+        <v>0.461907</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.501849</v>
+        <v>0.461416</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726291</v>
+        <v>0.699161</v>
       </c>
       <c r="D37" t="n">
-        <v>0.773473</v>
+        <v>0.7887420000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.747617</v>
+        <v>0.738654</v>
       </c>
       <c r="C38" t="n">
-        <v>0.69303</v>
+        <v>0.67672</v>
       </c>
       <c r="D38" t="n">
-        <v>0.746046</v>
+        <v>0.737996</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745071</v>
+        <v>0.721425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.675292</v>
+        <v>0.646861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.723153</v>
+        <v>0.72396</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.707008</v>
+        <v>0.683713</v>
       </c>
       <c r="C40" t="n">
-        <v>0.639637</v>
+        <v>0.634497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.710448</v>
+        <v>0.71571</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.687176</v>
+        <v>0.669125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.630404</v>
+        <v>0.610127</v>
       </c>
       <c r="D41" t="n">
-        <v>0.681159</v>
+        <v>0.688908</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.684314</v>
+        <v>0.660346</v>
       </c>
       <c r="C42" t="n">
-        <v>0.601967</v>
+        <v>0.599422</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6723440000000001</v>
+        <v>0.6550589999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.673146</v>
+        <v>0.631892</v>
       </c>
       <c r="C43" t="n">
-        <v>0.587748</v>
+        <v>0.566453</v>
       </c>
       <c r="D43" t="n">
-        <v>0.649933</v>
+        <v>0.634895</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.642007</v>
+        <v>0.631927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.571462</v>
+        <v>0.565486</v>
       </c>
       <c r="D44" t="n">
-        <v>0.620594</v>
+        <v>0.612352</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.627089</v>
+        <v>0.596158</v>
       </c>
       <c r="C45" t="n">
-        <v>0.570454</v>
+        <v>0.542232</v>
       </c>
       <c r="D45" t="n">
-        <v>0.605127</v>
+        <v>0.597133</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6076240000000001</v>
+        <v>0.573001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.54369</v>
+        <v>0.517033</v>
       </c>
       <c r="D46" t="n">
-        <v>0.592693</v>
+        <v>0.578418</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.585568</v>
+        <v>0.571056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.528136</v>
+        <v>0.508599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.577192</v>
+        <v>0.5604170000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5674</v>
+        <v>0.556607</v>
       </c>
       <c r="C48" t="n">
-        <v>0.515089</v>
+        <v>0.498087</v>
       </c>
       <c r="D48" t="n">
-        <v>0.561853</v>
+        <v>0.548343</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.549305</v>
+        <v>0.542695</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4881</v>
+        <v>0.481516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.543306</v>
+        <v>0.544454</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.540932</v>
+        <v>0.528095</v>
       </c>
       <c r="C50" t="n">
-        <v>0.483699</v>
+        <v>0.477242</v>
       </c>
       <c r="D50" t="n">
-        <v>0.530245</v>
+        <v>0.525986</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.53468</v>
+        <v>0.509594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7811709999999999</v>
+        <v>0.73896</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8844689999999999</v>
+        <v>0.843236</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.52547</v>
+        <v>0.512757</v>
       </c>
       <c r="C52" t="n">
-        <v>0.746272</v>
+        <v>0.723069</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8424779999999999</v>
+        <v>0.825851</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.798856</v>
+        <v>0.7578819999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.72349</v>
+        <v>0.702067</v>
       </c>
       <c r="D53" t="n">
-        <v>0.817175</v>
+        <v>0.793045</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.77927</v>
+        <v>0.757667</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.696889</v>
       </c>
       <c r="D54" t="n">
-        <v>0.82168</v>
+        <v>0.769906</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.785778</v>
+        <v>0.735429</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7000999999999999</v>
+        <v>0.665752</v>
       </c>
       <c r="D55" t="n">
-        <v>0.79175</v>
+        <v>0.774792</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749738</v>
+        <v>0.716573</v>
       </c>
       <c r="C56" t="n">
-        <v>0.667454</v>
+        <v>0.658623</v>
       </c>
       <c r="D56" t="n">
-        <v>0.731761</v>
+        <v>0.73186</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.713376</v>
+        <v>0.693794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.662133</v>
+        <v>0.634868</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7406700000000001</v>
+        <v>0.710883</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.711806</v>
+        <v>0.678809</v>
       </c>
       <c r="C58" t="n">
-        <v>0.639113</v>
+        <v>0.632383</v>
       </c>
       <c r="D58" t="n">
-        <v>0.720258</v>
+        <v>0.691716</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.685099</v>
+        <v>0.663079</v>
       </c>
       <c r="C59" t="n">
-        <v>0.627263</v>
+        <v>0.597504</v>
       </c>
       <c r="D59" t="n">
-        <v>0.70655</v>
+        <v>0.6808149999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.675445</v>
+        <v>0.648349</v>
       </c>
       <c r="C60" t="n">
-        <v>0.626488</v>
+        <v>0.59417</v>
       </c>
       <c r="D60" t="n">
-        <v>0.664988</v>
+        <v>0.664875</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.667362</v>
+        <v>0.630599</v>
       </c>
       <c r="C61" t="n">
-        <v>0.588058</v>
+        <v>0.601739</v>
       </c>
       <c r="D61" t="n">
-        <v>0.665499</v>
+        <v>0.645853</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.652051</v>
+        <v>0.626582</v>
       </c>
       <c r="C62" t="n">
-        <v>0.59185</v>
+        <v>0.553849</v>
       </c>
       <c r="D62" t="n">
-        <v>0.634807</v>
+        <v>0.621122</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.617645</v>
+        <v>0.6222760000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.570623</v>
+        <v>0.552358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.632238</v>
+        <v>0.618889</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.621483</v>
+        <v>0.5988599999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.56623</v>
+        <v>0.535992</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6222299999999999</v>
+        <v>0.600077</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.607573</v>
+        <v>0.58677</v>
       </c>
       <c r="C65" t="n">
-        <v>0.56232</v>
+        <v>0.526076</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6181410000000001</v>
+        <v>0.595666</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.611758</v>
+        <v>0.573462</v>
       </c>
       <c r="C66" t="n">
-        <v>0.859422</v>
+        <v>0.812954</v>
       </c>
       <c r="D66" t="n">
-        <v>0.95159</v>
+        <v>0.943316</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.894603</v>
+        <v>0.872371</v>
       </c>
       <c r="C67" t="n">
-        <v>0.807144</v>
+        <v>0.811487</v>
       </c>
       <c r="D67" t="n">
-        <v>0.942069</v>
+        <v>0.913865</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853553</v>
+        <v>0.853633</v>
       </c>
       <c r="C68" t="n">
-        <v>0.78844</v>
+        <v>0.783573</v>
       </c>
       <c r="D68" t="n">
-        <v>0.891887</v>
+        <v>0.886576</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8703610000000001</v>
+        <v>0.823478</v>
       </c>
       <c r="C69" t="n">
-        <v>0.78769</v>
+        <v>0.743512</v>
       </c>
       <c r="D69" t="n">
-        <v>0.860022</v>
+        <v>0.864564</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.864568</v>
+        <v>0.797542</v>
       </c>
       <c r="C70" t="n">
-        <v>0.762296</v>
+        <v>0.757081</v>
       </c>
       <c r="D70" t="n">
-        <v>0.85021</v>
+        <v>0.833385</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.801797</v>
+        <v>0.7808389999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.724503</v>
+        <v>0.704601</v>
       </c>
       <c r="D71" t="n">
-        <v>0.850754</v>
+        <v>0.810925</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.807949</v>
+        <v>0.773608</v>
       </c>
       <c r="C72" t="n">
-        <v>0.724587</v>
+        <v>0.712171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.806773</v>
+        <v>0.782662</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.784351</v>
+        <v>0.763269</v>
       </c>
       <c r="C73" t="n">
-        <v>0.700793</v>
+        <v>0.678856</v>
       </c>
       <c r="D73" t="n">
-        <v>0.788781</v>
+        <v>0.780438</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.752207</v>
+        <v>0.735465</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6868840000000001</v>
+        <v>0.658193</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787701</v>
+        <v>0.773254</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.730927</v>
+        <v>0.721769</v>
       </c>
       <c r="C75" t="n">
-        <v>0.669948</v>
+        <v>0.6536380000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.753673</v>
+        <v>0.725101</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.721542</v>
+        <v>0.710263</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6648269999999999</v>
+        <v>0.63523</v>
       </c>
       <c r="D76" t="n">
-        <v>0.741619</v>
+        <v>0.715214</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.720532</v>
+        <v>0.685961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.649297</v>
+        <v>0.621428</v>
       </c>
       <c r="D77" t="n">
-        <v>0.720293</v>
+        <v>0.694997</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7328519999999999</v>
+        <v>0.680364</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6440439999999999</v>
+        <v>0.620763</v>
       </c>
       <c r="D78" t="n">
-        <v>0.693127</v>
+        <v>0.684655</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.712584</v>
+        <v>0.668301</v>
       </c>
       <c r="C79" t="n">
-        <v>0.628705</v>
+        <v>0.611635</v>
       </c>
       <c r="D79" t="n">
-        <v>0.708377</v>
+        <v>0.678856</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.691731</v>
+        <v>0.6770350000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.946995</v>
+        <v>0.904656</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10548</v>
+        <v>1.04757</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9935619999999999</v>
+        <v>0.9567560000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.900886</v>
+        <v>0.902051</v>
       </c>
       <c r="D81" t="n">
-        <v>1.04635</v>
+        <v>1.0141</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.986049</v>
+        <v>0.959055</v>
       </c>
       <c r="C82" t="n">
-        <v>0.911994</v>
+        <v>0.86348</v>
       </c>
       <c r="D82" t="n">
-        <v>1.00817</v>
+        <v>0.98761</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.973132</v>
+        <v>0.929806</v>
       </c>
       <c r="C83" t="n">
-        <v>0.86438</v>
+        <v>0.847989</v>
       </c>
       <c r="D83" t="n">
-        <v>0.972061</v>
+        <v>0.952274</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.941539</v>
+        <v>0.908577</v>
       </c>
       <c r="C84" t="n">
-        <v>0.859643</v>
+        <v>0.85497</v>
       </c>
       <c r="D84" t="n">
-        <v>0.97182</v>
+        <v>0.937002</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.919399</v>
+        <v>0.899992</v>
       </c>
       <c r="C85" t="n">
-        <v>0.831368</v>
+        <v>0.801379</v>
       </c>
       <c r="D85" t="n">
-        <v>0.928281</v>
+        <v>0.925225</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9167650000000001</v>
+        <v>0.893209</v>
       </c>
       <c r="C86" t="n">
-        <v>0.861273</v>
+        <v>0.7976569999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9296720000000001</v>
+        <v>0.891979</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.896583</v>
+        <v>0.870992</v>
       </c>
       <c r="C87" t="n">
-        <v>0.797075</v>
+        <v>0.785951</v>
       </c>
       <c r="D87" t="n">
-        <v>0.90399</v>
+        <v>0.878178</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.851421</v>
+        <v>0.852116</v>
       </c>
       <c r="C88" t="n">
-        <v>0.77393</v>
+        <v>0.766877</v>
       </c>
       <c r="D88" t="n">
-        <v>0.875304</v>
+        <v>0.847837</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.852288</v>
+        <v>0.819998</v>
       </c>
       <c r="C89" t="n">
-        <v>0.775021</v>
+        <v>0.768946</v>
       </c>
       <c r="D89" t="n">
-        <v>0.855069</v>
+        <v>0.822568</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.854028</v>
+        <v>0.820688</v>
       </c>
       <c r="C90" t="n">
-        <v>0.753741</v>
+        <v>0.7249370000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8238529999999999</v>
+        <v>0.8035409999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.832498</v>
+        <v>0.821651</v>
       </c>
       <c r="C91" t="n">
-        <v>0.752081</v>
+        <v>0.70861</v>
       </c>
       <c r="D91" t="n">
-        <v>0.819574</v>
+        <v>0.80923</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.83274</v>
+        <v>0.772602</v>
       </c>
       <c r="C92" t="n">
-        <v>0.73019</v>
+        <v>0.717386</v>
       </c>
       <c r="D92" t="n">
-        <v>0.810173</v>
+        <v>0.793578</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.812007</v>
+        <v>0.775483</v>
       </c>
       <c r="C93" t="n">
-        <v>0.736345</v>
+        <v>0.70727</v>
       </c>
       <c r="D93" t="n">
-        <v>0.780864</v>
+        <v>0.777185</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.792798</v>
+        <v>0.778006</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03683</v>
+        <v>0.9894269999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17578</v>
+        <v>1.14813</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.12855</v>
+        <v>1.08653</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01258</v>
+        <v>1.00226</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11755</v>
+        <v>1.12829</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07236</v>
+        <v>1.07648</v>
       </c>
       <c r="C96" t="n">
-        <v>0.989052</v>
+        <v>0.962984</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13466</v>
+        <v>1.09568</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05379</v>
+        <v>1.03393</v>
       </c>
       <c r="C97" t="n">
-        <v>0.963306</v>
+        <v>0.95225</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07707</v>
+        <v>1.0676</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06722</v>
+        <v>1.03885</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9692499999999999</v>
+        <v>0.944087</v>
       </c>
       <c r="D98" t="n">
-        <v>1.07125</v>
+        <v>1.0144</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03962</v>
+        <v>1.03118</v>
       </c>
       <c r="C99" t="n">
-        <v>0.937539</v>
+        <v>0.91579</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04597</v>
+        <v>1.02651</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02927</v>
+        <v>0.9897010000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.912116</v>
+        <v>0.885011</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00482</v>
+        <v>0.988401</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.988561</v>
+        <v>0.974409</v>
       </c>
       <c r="C101" t="n">
-        <v>0.886095</v>
+        <v>0.883463</v>
       </c>
       <c r="D101" t="n">
-        <v>0.983939</v>
+        <v>0.993286</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.990367</v>
+        <v>0.96852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.885567</v>
+        <v>0.867339</v>
       </c>
       <c r="D102" t="n">
-        <v>0.988895</v>
+        <v>0.9513160000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.976977</v>
+        <v>0.948895</v>
       </c>
       <c r="C103" t="n">
-        <v>0.879903</v>
+        <v>0.856395</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9509339999999999</v>
+        <v>0.938628</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9595</v>
+        <v>0.942841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.854579</v>
+        <v>0.873463</v>
       </c>
       <c r="D104" t="n">
-        <v>0.938813</v>
+        <v>0.924897</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.947161</v>
+        <v>0.92741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.835638</v>
+        <v>0.820601</v>
       </c>
       <c r="D105" t="n">
-        <v>0.929179</v>
+        <v>0.904563</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.929129</v>
+        <v>0.904919</v>
       </c>
       <c r="C106" t="n">
-        <v>0.82756</v>
+        <v>0.82285</v>
       </c>
       <c r="D106" t="n">
-        <v>0.925677</v>
+        <v>0.907368</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9253479999999999</v>
+        <v>0.90804</v>
       </c>
       <c r="C107" t="n">
-        <v>0.827474</v>
+        <v>0.852082</v>
       </c>
       <c r="D107" t="n">
-        <v>0.894583</v>
+        <v>0.909421</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.930006</v>
+        <v>0.9034799999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15993</v>
+        <v>1.13015</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23242</v>
+        <v>1.23853</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.923145</v>
+        <v>0.896573</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14372</v>
+        <v>1.13685</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23827</v>
+        <v>1.25829</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21385</v>
+        <v>1.22537</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12323</v>
+        <v>1.1109</v>
       </c>
       <c r="D110" t="n">
-        <v>1.22279</v>
+        <v>1.19866</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.207</v>
+        <v>1.17297</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14969</v>
+        <v>1.08094</v>
       </c>
       <c r="D111" t="n">
-        <v>1.20727</v>
+        <v>1.1767</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21674</v>
+        <v>1.15787</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11192</v>
+        <v>1.07558</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20058</v>
+        <v>1.15853</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19331</v>
+        <v>1.17378</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07943</v>
+        <v>1.04992</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17021</v>
+        <v>1.14191</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20328</v>
+        <v>1.16321</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05869</v>
+        <v>1.05699</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15034</v>
+        <v>1.14415</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18046</v>
+        <v>1.14472</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04811</v>
+        <v>1.06847</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15662</v>
+        <v>1.11659</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15189</v>
+        <v>1.16502</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03543</v>
+        <v>1.04091</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13856</v>
+        <v>1.11537</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16644</v>
+        <v>1.13153</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05815</v>
+        <v>1.0392</v>
       </c>
       <c r="D117" t="n">
-        <v>1.11756</v>
+        <v>1.10596</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17483</v>
+        <v>1.12917</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02959</v>
+        <v>1.03317</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10715</v>
+        <v>1.10457</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14152</v>
+        <v>1.14036</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02072</v>
+        <v>0.998793</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05603</v>
+        <v>1.09041</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13886</v>
+        <v>1.11802</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02308</v>
+        <v>1.00636</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05737</v>
+        <v>1.0639</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.12358</v>
+        <v>1.11968</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03144</v>
+        <v>1.02275</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06067</v>
+        <v>1.07386</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.1108</v>
+        <v>1.12206</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01633</v>
+        <v>1.00016</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06948</v>
+        <v>1.07218</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.14025</v>
+        <v>1.11783</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33139</v>
+        <v>1.31991</v>
       </c>
       <c r="D123" t="n">
-        <v>1.43234</v>
+        <v>1.40738</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44073</v>
+        <v>1.42079</v>
       </c>
       <c r="C124" t="n">
-        <v>1.32925</v>
+        <v>1.29866</v>
       </c>
       <c r="D124" t="n">
-        <v>1.42395</v>
+        <v>1.40885</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42823</v>
+        <v>1.42829</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30901</v>
+        <v>1.31414</v>
       </c>
       <c r="D125" t="n">
-        <v>1.4128</v>
+        <v>1.40266</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43351</v>
+        <v>1.41366</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32348</v>
+        <v>1.3157</v>
       </c>
       <c r="D126" t="n">
-        <v>1.40234</v>
+        <v>1.37219</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.44931</v>
+        <v>1.40347</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32086</v>
+        <v>1.32095</v>
       </c>
       <c r="D127" t="n">
-        <v>1.39365</v>
+        <v>1.36197</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42984</v>
+        <v>1.42487</v>
       </c>
       <c r="C128" t="n">
-        <v>1.33262</v>
+        <v>1.30186</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38251</v>
+        <v>1.37215</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.44412</v>
+        <v>1.39849</v>
       </c>
       <c r="C129" t="n">
-        <v>1.32266</v>
+        <v>1.30226</v>
       </c>
       <c r="D129" t="n">
-        <v>1.39989</v>
+        <v>1.3708</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41916</v>
+        <v>1.39919</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30867</v>
+        <v>1.32243</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35772</v>
+        <v>1.34976</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42735</v>
+        <v>1.408</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31643</v>
+        <v>1.31555</v>
       </c>
       <c r="D131" t="n">
-        <v>1.36008</v>
+        <v>1.341</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42087</v>
+        <v>1.38985</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31766</v>
+        <v>1.30806</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35462</v>
+        <v>1.34295</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41937</v>
+        <v>1.41909</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32308</v>
+        <v>1.31579</v>
       </c>
       <c r="D133" t="n">
-        <v>1.36104</v>
+        <v>1.32703</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40418</v>
+        <v>1.40262</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31725</v>
+        <v>1.30428</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32528</v>
+        <v>1.33597</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41596</v>
+        <v>1.40824</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3118</v>
+        <v>1.31033</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34752</v>
+        <v>1.34149</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42252</v>
+        <v>1.39849</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33209</v>
+        <v>1.30063</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34085</v>
+        <v>1.32378</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.45274</v>
+        <v>1.41354</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65424</v>
+        <v>1.65271</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73673</v>
+        <v>1.71616</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.75409</v>
+        <v>1.74463</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66486</v>
+        <v>1.65037</v>
       </c>
       <c r="D138" t="n">
-        <v>1.71806</v>
+        <v>1.69518</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.75744</v>
+        <v>1.7413</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67495</v>
+        <v>1.63108</v>
       </c>
       <c r="D139" t="n">
-        <v>1.68592</v>
+        <v>1.66313</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.74034</v>
+        <v>1.71491</v>
       </c>
       <c r="C140" t="n">
-        <v>1.64197</v>
+        <v>1.62833</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68135</v>
+        <v>1.67342</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73709</v>
+        <v>1.74163</v>
       </c>
       <c r="C141" t="n">
-        <v>1.65955</v>
+        <v>1.64194</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66273</v>
+        <v>1.66088</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.7377</v>
+        <v>1.71691</v>
       </c>
       <c r="C142" t="n">
-        <v>1.64701</v>
+        <v>1.63587</v>
       </c>
       <c r="D142" t="n">
-        <v>1.67305</v>
+        <v>1.64849</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72965</v>
+        <v>1.71858</v>
       </c>
       <c r="C143" t="n">
-        <v>1.65481</v>
+        <v>1.62181</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6509</v>
+        <v>1.63682</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626893</v>
+        <v>0.64867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.491744</v>
+        <v>0.501187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.409742</v>
+        <v>1.00516</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362187</v>
+        <v>0.355148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320716</v>
+        <v>0.323386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.399052</v>
+        <v>1.01029</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351504</v>
+        <v>0.355874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308147</v>
+        <v>0.308835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.392214</v>
+        <v>1.00145</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.351067</v>
+        <v>0.345826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.312398</v>
+        <v>0.314316</v>
       </c>
       <c r="D5" t="n">
-        <v>0.379695</v>
+        <v>1.01335</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.35175</v>
+        <v>0.342526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.303394</v>
+        <v>0.296245</v>
       </c>
       <c r="D6" t="n">
-        <v>0.377974</v>
+        <v>0.986376</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.326068</v>
+        <v>0.332567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291358</v>
+        <v>0.293905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.372933</v>
+        <v>1.17374</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331441</v>
+        <v>0.325278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.300158</v>
+        <v>0.290106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.364773</v>
+        <v>1.13566</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.322345</v>
+        <v>0.330554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553368</v>
+        <v>0.559222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.754347</v>
+        <v>1.10925</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.580892</v>
+        <v>0.58108</v>
       </c>
       <c r="C10" t="n">
-        <v>0.534765</v>
+        <v>0.541708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.718955</v>
+        <v>1.09684</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.566343</v>
+        <v>0.5643049999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.515716</v>
+        <v>0.515517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.663272</v>
+        <v>1.07668</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.541167</v>
+        <v>0.545598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.494204</v>
+        <v>0.499344</v>
       </c>
       <c r="D12" t="n">
-        <v>0.670813</v>
+        <v>1.07779</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.526665</v>
+        <v>0.525419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.498843</v>
+        <v>0.482646</v>
       </c>
       <c r="D13" t="n">
-        <v>0.62103</v>
+        <v>1.05707</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506252</v>
+        <v>0.519657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4571</v>
+        <v>0.478531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.61081</v>
+        <v>1.05989</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.493805</v>
+        <v>0.513703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.453522</v>
+        <v>0.455902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596627</v>
+        <v>1.04674</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475065</v>
+        <v>0.492755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.433403</v>
+        <v>0.453389</v>
       </c>
       <c r="D16" t="n">
-        <v>0.570345</v>
+        <v>1.00999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471893</v>
+        <v>0.492834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.433656</v>
+        <v>0.436653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.552538</v>
+        <v>1.02216</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459133</v>
+        <v>0.478619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.412342</v>
+        <v>0.406722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5289</v>
+        <v>1.00838</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439527</v>
+        <v>0.464204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.396927</v>
+        <v>0.400162</v>
       </c>
       <c r="D19" t="n">
-        <v>0.520844</v>
+        <v>1.00692</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428548</v>
+        <v>0.442532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.399808</v>
+        <v>0.39869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.516379</v>
+        <v>0.989223</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.430152</v>
+        <v>0.429345</v>
       </c>
       <c r="C21" t="n">
-        <v>0.381691</v>
+        <v>0.379109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.493712</v>
+        <v>1.17467</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.426832</v>
+        <v>0.422147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.379895</v>
+        <v>0.389135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.495518</v>
+        <v>1.19828</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.416375</v>
+        <v>0.430282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.651249</v>
+        <v>0.67444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.795427</v>
+        <v>1.16492</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6836370000000001</v>
+        <v>0.6882819999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.618934</v>
+        <v>0.617725</v>
       </c>
       <c r="D24" t="n">
-        <v>0.633841</v>
+        <v>1.13589</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6591939999999999</v>
+        <v>0.67626</v>
       </c>
       <c r="C25" t="n">
-        <v>0.60318</v>
+        <v>0.621221</v>
       </c>
       <c r="D25" t="n">
-        <v>0.63146</v>
+        <v>1.1356</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.626034</v>
+        <v>0.648525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.586128</v>
+        <v>0.604287</v>
       </c>
       <c r="D26" t="n">
-        <v>0.60022</v>
+        <v>1.11216</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.63091</v>
       </c>
       <c r="C27" t="n">
-        <v>0.564238</v>
+        <v>0.574998</v>
       </c>
       <c r="D27" t="n">
-        <v>0.592104</v>
+        <v>1.0965</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.620859</v>
+        <v>0.61481</v>
       </c>
       <c r="C28" t="n">
-        <v>0.546693</v>
+        <v>0.561101</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5735170000000001</v>
+        <v>1.10325</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.578944</v>
+        <v>0.597082</v>
       </c>
       <c r="C29" t="n">
-        <v>0.530375</v>
+        <v>0.538198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.544038</v>
+        <v>1.08895</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56272</v>
+        <v>0.579329</v>
       </c>
       <c r="C30" t="n">
-        <v>0.515741</v>
+        <v>0.526816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5286920000000001</v>
+        <v>1.14687</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.532752</v>
+        <v>0.555011</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5031</v>
+        <v>0.515141</v>
       </c>
       <c r="D31" t="n">
-        <v>0.519723</v>
+        <v>1.12689</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.531417</v>
+        <v>0.540635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484312</v>
+        <v>0.484388</v>
       </c>
       <c r="D32" t="n">
-        <v>0.499061</v>
+        <v>1.14262</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.512816</v>
+        <v>0.52103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.47029</v>
+        <v>0.483045</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495531</v>
+        <v>1.09399</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.509314</v>
+        <v>0.520343</v>
       </c>
       <c r="C34" t="n">
-        <v>0.444317</v>
+        <v>0.465342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.481526</v>
+        <v>1.06888</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5029090000000001</v>
+        <v>0.506706</v>
       </c>
       <c r="C35" t="n">
-        <v>0.452379</v>
+        <v>0.451747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.473059</v>
+        <v>1.33599</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.474648</v>
+        <v>0.488498</v>
       </c>
       <c r="C36" t="n">
-        <v>0.436999</v>
+        <v>0.44863</v>
       </c>
       <c r="D36" t="n">
-        <v>0.461907</v>
+        <v>1.27822</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.461416</v>
+        <v>0.493096</v>
       </c>
       <c r="C37" t="n">
-        <v>0.699161</v>
+        <v>0.714579</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7887420000000001</v>
+        <v>1.33049</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738654</v>
+        <v>0.755096</v>
       </c>
       <c r="C38" t="n">
-        <v>0.67672</v>
+        <v>0.706601</v>
       </c>
       <c r="D38" t="n">
-        <v>0.737996</v>
+        <v>1.29805</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.721425</v>
+        <v>0.734691</v>
       </c>
       <c r="C39" t="n">
-        <v>0.646861</v>
+        <v>0.681496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.72396</v>
+        <v>1.22913</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.683713</v>
+        <v>0.723542</v>
       </c>
       <c r="C40" t="n">
-        <v>0.634497</v>
+        <v>0.641622</v>
       </c>
       <c r="D40" t="n">
-        <v>0.71571</v>
+        <v>1.22894</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669125</v>
+        <v>0.701542</v>
       </c>
       <c r="C41" t="n">
-        <v>0.610127</v>
+        <v>0.62454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.688908</v>
+        <v>1.23857</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.660346</v>
+        <v>0.679708</v>
       </c>
       <c r="C42" t="n">
-        <v>0.599422</v>
+        <v>0.601149</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6550589999999999</v>
+        <v>1.18493</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.631892</v>
+        <v>0.656714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.566453</v>
+        <v>0.591932</v>
       </c>
       <c r="D43" t="n">
-        <v>0.634895</v>
+        <v>1.1654</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.631927</v>
+        <v>0.627715</v>
       </c>
       <c r="C44" t="n">
-        <v>0.565486</v>
+        <v>0.568989</v>
       </c>
       <c r="D44" t="n">
-        <v>0.612352</v>
+        <v>1.18569</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.596158</v>
+        <v>0.629678</v>
       </c>
       <c r="C45" t="n">
-        <v>0.542232</v>
+        <v>0.545337</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597133</v>
+        <v>1.13506</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573001</v>
+        <v>0.5867329999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.517033</v>
+        <v>0.5319739999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.578418</v>
+        <v>1.17749</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.571056</v>
+        <v>0.587579</v>
       </c>
       <c r="C47" t="n">
-        <v>0.508599</v>
+        <v>0.516062</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5604170000000001</v>
+        <v>1.14766</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.556607</v>
+        <v>0.561113</v>
       </c>
       <c r="C48" t="n">
-        <v>0.498087</v>
+        <v>0.503443</v>
       </c>
       <c r="D48" t="n">
-        <v>0.548343</v>
+        <v>1.16266</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.542695</v>
+        <v>0.565897</v>
       </c>
       <c r="C49" t="n">
-        <v>0.481516</v>
+        <v>0.489192</v>
       </c>
       <c r="D49" t="n">
-        <v>0.544454</v>
+        <v>1.16662</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.528095</v>
+        <v>0.540829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.477242</v>
+        <v>0.47229</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525986</v>
+        <v>1.60554</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509594</v>
+        <v>0.536694</v>
       </c>
       <c r="C51" t="n">
-        <v>0.73896</v>
+        <v>0.765861</v>
       </c>
       <c r="D51" t="n">
-        <v>0.843236</v>
+        <v>1.58721</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512757</v>
+        <v>0.5225880000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.723069</v>
+        <v>0.7443689999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.825851</v>
+        <v>1.56813</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7578819999999999</v>
+        <v>0.801135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.702067</v>
+        <v>0.724945</v>
       </c>
       <c r="D53" t="n">
-        <v>0.793045</v>
+        <v>1.60982</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.757667</v>
+        <v>0.765942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.696889</v>
+        <v>0.704608</v>
       </c>
       <c r="D54" t="n">
-        <v>0.769906</v>
+        <v>1.5321</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.735429</v>
+        <v>0.751922</v>
       </c>
       <c r="C55" t="n">
-        <v>0.665752</v>
+        <v>0.699606</v>
       </c>
       <c r="D55" t="n">
-        <v>0.774792</v>
+        <v>1.50738</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.716573</v>
+        <v>0.742927</v>
       </c>
       <c r="C56" t="n">
-        <v>0.658623</v>
+        <v>0.66723</v>
       </c>
       <c r="D56" t="n">
-        <v>0.73186</v>
+        <v>1.51365</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.693794</v>
+        <v>0.724523</v>
       </c>
       <c r="C57" t="n">
-        <v>0.634868</v>
+        <v>0.664941</v>
       </c>
       <c r="D57" t="n">
-        <v>0.710883</v>
+        <v>1.50849</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.678809</v>
+        <v>0.708995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632383</v>
+        <v>0.635728</v>
       </c>
       <c r="D58" t="n">
-        <v>0.691716</v>
+        <v>1.48008</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.663079</v>
+        <v>0.679778</v>
       </c>
       <c r="C59" t="n">
-        <v>0.597504</v>
+        <v>0.615757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6808149999999999</v>
+        <v>1.48183</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.648349</v>
+        <v>0.666996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.59417</v>
+        <v>0.600214</v>
       </c>
       <c r="D60" t="n">
-        <v>0.664875</v>
+        <v>1.52174</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.630599</v>
+        <v>0.644557</v>
       </c>
       <c r="C61" t="n">
-        <v>0.601739</v>
+        <v>0.602396</v>
       </c>
       <c r="D61" t="n">
-        <v>0.645853</v>
+        <v>1.48067</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.626582</v>
+        <v>0.644644</v>
       </c>
       <c r="C62" t="n">
-        <v>0.553849</v>
+        <v>0.570693</v>
       </c>
       <c r="D62" t="n">
-        <v>0.621122</v>
+        <v>1.45572</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6222760000000001</v>
+        <v>0.623396</v>
       </c>
       <c r="C63" t="n">
-        <v>0.552358</v>
+        <v>0.559925</v>
       </c>
       <c r="D63" t="n">
-        <v>0.618889</v>
+        <v>1.4285</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5988599999999999</v>
+        <v>0.626897</v>
       </c>
       <c r="C64" t="n">
-        <v>0.535992</v>
+        <v>0.558266</v>
       </c>
       <c r="D64" t="n">
-        <v>0.600077</v>
+        <v>2.3904</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58677</v>
+        <v>0.6075430000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.526076</v>
+        <v>0.549807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.595666</v>
+        <v>2.33715</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.573462</v>
+        <v>0.594684</v>
       </c>
       <c r="C66" t="n">
-        <v>0.812954</v>
+        <v>0.857312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.943316</v>
+        <v>2.26568</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.872371</v>
+        <v>0.90001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.811487</v>
+        <v>0.808724</v>
       </c>
       <c r="D67" t="n">
-        <v>0.913865</v>
+        <v>2.14939</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853633</v>
+        <v>0.873965</v>
       </c>
       <c r="C68" t="n">
-        <v>0.783573</v>
+        <v>0.8006490000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.886576</v>
+        <v>2.20241</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.823478</v>
+        <v>0.859322</v>
       </c>
       <c r="C69" t="n">
-        <v>0.743512</v>
+        <v>0.7727540000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.864564</v>
+        <v>2.122</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.797542</v>
+        <v>0.8363699999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.757081</v>
+        <v>0.74191</v>
       </c>
       <c r="D70" t="n">
-        <v>0.833385</v>
+        <v>2.11061</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7808389999999999</v>
+        <v>0.820564</v>
       </c>
       <c r="C71" t="n">
-        <v>0.704601</v>
+        <v>0.738852</v>
       </c>
       <c r="D71" t="n">
-        <v>0.810925</v>
+        <v>2.06351</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.773608</v>
+        <v>0.799072</v>
       </c>
       <c r="C72" t="n">
-        <v>0.712171</v>
+        <v>0.723176</v>
       </c>
       <c r="D72" t="n">
-        <v>0.782662</v>
+        <v>2.07424</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.763269</v>
+        <v>0.783146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678856</v>
+        <v>0.70044</v>
       </c>
       <c r="D73" t="n">
-        <v>0.780438</v>
+        <v>2.09397</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.735465</v>
+        <v>0.750721</v>
       </c>
       <c r="C74" t="n">
-        <v>0.658193</v>
+        <v>0.696626</v>
       </c>
       <c r="D74" t="n">
-        <v>0.773254</v>
+        <v>2.06606</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.721769</v>
+        <v>0.748828</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6536380000000001</v>
+        <v>0.657908</v>
       </c>
       <c r="D75" t="n">
-        <v>0.725101</v>
+        <v>2.03795</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.710263</v>
+        <v>0.723037</v>
       </c>
       <c r="C76" t="n">
-        <v>0.63523</v>
+        <v>0.6609390000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715214</v>
+        <v>2.04005</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.685961</v>
+        <v>0.724952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.621428</v>
+        <v>0.638058</v>
       </c>
       <c r="D77" t="n">
-        <v>0.694997</v>
+        <v>2.0364</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.680364</v>
+        <v>0.703929</v>
       </c>
       <c r="C78" t="n">
-        <v>0.620763</v>
+        <v>0.650905</v>
       </c>
       <c r="D78" t="n">
-        <v>0.684655</v>
+        <v>3.2238</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.668301</v>
+        <v>0.70247</v>
       </c>
       <c r="C79" t="n">
-        <v>0.611635</v>
+        <v>0.631792</v>
       </c>
       <c r="D79" t="n">
-        <v>0.678856</v>
+        <v>3.20933</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6770350000000001</v>
+        <v>0.704496</v>
       </c>
       <c r="C80" t="n">
-        <v>0.904656</v>
+        <v>0.943154</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04757</v>
+        <v>3.16892</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9567560000000001</v>
+        <v>1.00507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.902051</v>
+        <v>0.902346</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0141</v>
+        <v>3.0773</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.959055</v>
+        <v>0.991357</v>
       </c>
       <c r="C82" t="n">
-        <v>0.86348</v>
+        <v>0.908636</v>
       </c>
       <c r="D82" t="n">
-        <v>0.98761</v>
+        <v>2.93777</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.929806</v>
+        <v>0.967619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847989</v>
+        <v>0.874074</v>
       </c>
       <c r="D83" t="n">
-        <v>0.952274</v>
+        <v>2.86793</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.908577</v>
+        <v>0.948124</v>
       </c>
       <c r="C84" t="n">
-        <v>0.85497</v>
+        <v>0.849872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.937002</v>
+        <v>2.90155</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.899992</v>
+        <v>0.926072</v>
       </c>
       <c r="C85" t="n">
-        <v>0.801379</v>
+        <v>0.829743</v>
       </c>
       <c r="D85" t="n">
-        <v>0.925225</v>
+        <v>2.8405</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.893209</v>
+        <v>0.903178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7976569999999999</v>
+        <v>0.825759</v>
       </c>
       <c r="D86" t="n">
-        <v>0.891979</v>
+        <v>2.8534</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.870992</v>
+        <v>0.9000280000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.785951</v>
+        <v>0.816487</v>
       </c>
       <c r="D87" t="n">
-        <v>0.878178</v>
+        <v>2.80256</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.852116</v>
+        <v>0.863002</v>
       </c>
       <c r="C88" t="n">
-        <v>0.766877</v>
+        <v>0.776836</v>
       </c>
       <c r="D88" t="n">
-        <v>0.847837</v>
+        <v>2.73611</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819998</v>
+        <v>0.861115</v>
       </c>
       <c r="C89" t="n">
-        <v>0.768946</v>
+        <v>0.766615</v>
       </c>
       <c r="D89" t="n">
-        <v>0.822568</v>
+        <v>2.71894</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.820688</v>
+        <v>0.830273</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7249370000000001</v>
+        <v>0.762391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8035409999999999</v>
+        <v>2.74992</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.821651</v>
+        <v>0.831097</v>
       </c>
       <c r="C91" t="n">
-        <v>0.70861</v>
+        <v>0.732439</v>
       </c>
       <c r="D91" t="n">
-        <v>0.80923</v>
+        <v>2.68602</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.772602</v>
+        <v>0.8212159999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.717386</v>
+        <v>0.731835</v>
       </c>
       <c r="D92" t="n">
-        <v>0.793578</v>
+        <v>3.85227</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.775483</v>
+        <v>0.811615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.70727</v>
+        <v>0.723123</v>
       </c>
       <c r="D93" t="n">
-        <v>0.777185</v>
+        <v>3.69143</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.778006</v>
+        <v>0.801131</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9894269999999999</v>
+        <v>1.02216</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14813</v>
+        <v>3.70302</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08653</v>
+        <v>1.09096</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00226</v>
+        <v>1.00551</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12829</v>
+        <v>3.56503</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07648</v>
+        <v>1.09958</v>
       </c>
       <c r="C96" t="n">
-        <v>0.962984</v>
+        <v>0.980297</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09568</v>
+        <v>4.23942</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03393</v>
+        <v>1.28288</v>
       </c>
       <c r="C97" t="n">
-        <v>0.95225</v>
+        <v>1.05068</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0676</v>
+        <v>3.93487</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03885</v>
+        <v>1.11671</v>
       </c>
       <c r="C98" t="n">
-        <v>0.944087</v>
+        <v>0.966925</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0144</v>
+        <v>3.49065</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03118</v>
+        <v>1.05341</v>
       </c>
       <c r="C99" t="n">
-        <v>0.91579</v>
+        <v>0.9498450000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02651</v>
+        <v>3.41729</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9897010000000001</v>
+        <v>1.02918</v>
       </c>
       <c r="C100" t="n">
-        <v>0.885011</v>
+        <v>0.916282</v>
       </c>
       <c r="D100" t="n">
-        <v>0.988401</v>
+        <v>3.35849</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.974409</v>
+        <v>1.00461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.883463</v>
+        <v>0.906765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.993286</v>
+        <v>3.22323</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.96852</v>
+        <v>1.01268</v>
       </c>
       <c r="C102" t="n">
-        <v>0.867339</v>
+        <v>0.909983</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9513160000000001</v>
+        <v>3.23455</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.948895</v>
+        <v>0.9844079999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.856395</v>
+        <v>0.863798</v>
       </c>
       <c r="D103" t="n">
-        <v>0.938628</v>
+        <v>3.2197</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.942841</v>
+        <v>0.986806</v>
       </c>
       <c r="C104" t="n">
-        <v>0.873463</v>
+        <v>0.878754</v>
       </c>
       <c r="D104" t="n">
-        <v>0.924897</v>
+        <v>3.20491</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.92741</v>
+        <v>0.946168</v>
       </c>
       <c r="C105" t="n">
-        <v>0.820601</v>
+        <v>0.853916</v>
       </c>
       <c r="D105" t="n">
-        <v>0.904563</v>
+        <v>3.19808</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.904919</v>
+        <v>0.9322279999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.82285</v>
+        <v>0.828725</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907368</v>
+        <v>3.13403</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90804</v>
+        <v>0.914642</v>
       </c>
       <c r="C107" t="n">
-        <v>0.852082</v>
+        <v>0.841434</v>
       </c>
       <c r="D107" t="n">
-        <v>0.909421</v>
+        <v>4.24563</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9034799999999999</v>
+        <v>0.911698</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13015</v>
+        <v>1.16024</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23853</v>
+        <v>4.21891</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.896573</v>
+        <v>0.917945</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13685</v>
+        <v>1.12865</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25829</v>
+        <v>4.11145</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22537</v>
+        <v>1.22815</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1109</v>
+        <v>1.10338</v>
       </c>
       <c r="D110" t="n">
-        <v>1.19866</v>
+        <v>4.06275</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17297</v>
+        <v>1.21294</v>
       </c>
       <c r="C111" t="n">
-        <v>1.08094</v>
+        <v>1.0912</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1767</v>
+        <v>4.00138</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15787</v>
+        <v>1.19329</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07558</v>
+        <v>1.08621</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15853</v>
+        <v>3.91808</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17378</v>
+        <v>1.19011</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04992</v>
+        <v>1.07073</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14191</v>
+        <v>3.87657</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.16321</v>
+        <v>1.17149</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05699</v>
+        <v>1.07781</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14415</v>
+        <v>3.80701</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14472</v>
+        <v>1.15613</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06847</v>
+        <v>1.04762</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11659</v>
+        <v>3.81768</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16502</v>
+        <v>1.16709</v>
       </c>
       <c r="C116" t="n">
-        <v>1.04091</v>
+        <v>1.04106</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11537</v>
+        <v>3.82077</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13153</v>
+        <v>1.16405</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0392</v>
+        <v>1.04038</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10596</v>
+        <v>3.72712</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12917</v>
+        <v>1.14</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03317</v>
+        <v>1.02696</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10457</v>
+        <v>3.6535</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14036</v>
+        <v>1.17403</v>
       </c>
       <c r="C119" t="n">
-        <v>0.998793</v>
+        <v>1.03161</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09041</v>
+        <v>3.64106</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11802</v>
+        <v>1.12689</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00636</v>
+        <v>1.03642</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0639</v>
+        <v>3.70717</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11968</v>
+        <v>1.1546</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02275</v>
+        <v>1.00095</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07386</v>
+        <v>4.99605</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12206</v>
+        <v>1.13291</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00016</v>
+        <v>1.02146</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07218</v>
+        <v>4.90851</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11783</v>
+        <v>1.16832</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31991</v>
+        <v>1.33523</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40738</v>
+        <v>4.86683</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42079</v>
+        <v>1.45162</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29866</v>
+        <v>1.34049</v>
       </c>
       <c r="D124" t="n">
-        <v>1.40885</v>
+        <v>4.75653</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42829</v>
+        <v>1.43407</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31414</v>
+        <v>1.32298</v>
       </c>
       <c r="D125" t="n">
-        <v>1.40266</v>
+        <v>4.71156</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41366</v>
+        <v>1.42571</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3157</v>
+        <v>1.33344</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37219</v>
+        <v>4.62365</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40347</v>
+        <v>1.43342</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32095</v>
+        <v>1.27813</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36197</v>
+        <v>4.40779</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42487</v>
+        <v>1.3745</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30186</v>
+        <v>1.27753</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37215</v>
+        <v>4.4324</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39849</v>
+        <v>1.4451</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30226</v>
+        <v>1.31964</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3708</v>
+        <v>4.39582</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39919</v>
+        <v>1.40583</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32243</v>
+        <v>1.32105</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34976</v>
+        <v>4.42885</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.408</v>
+        <v>1.41468</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31555</v>
+        <v>1.31042</v>
       </c>
       <c r="D131" t="n">
-        <v>1.341</v>
+        <v>4.29799</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38985</v>
+        <v>1.40703</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30806</v>
+        <v>1.29775</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34295</v>
+        <v>4.28213</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41909</v>
+        <v>1.42713</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31579</v>
+        <v>1.30829</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32703</v>
+        <v>4.24646</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40262</v>
+        <v>1.41995</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30428</v>
+        <v>1.32489</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33597</v>
+        <v>4.24221</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40824</v>
+        <v>1.4077</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31033</v>
+        <v>1.31427</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34149</v>
+        <v>5.79798</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39849</v>
+        <v>1.37939</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30063</v>
+        <v>1.24815</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32378</v>
+        <v>5.43066</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41354</v>
+        <v>1.3607</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65271</v>
+        <v>1.61709</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71616</v>
+        <v>5.34731</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74463</v>
+        <v>1.66383</v>
       </c>
       <c r="C138" t="n">
-        <v>1.65037</v>
+        <v>1.61057</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69518</v>
+        <v>5.29681</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.7413</v>
+        <v>1.6597</v>
       </c>
       <c r="C139" t="n">
-        <v>1.63108</v>
+        <v>1.57133</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66313</v>
+        <v>5.20506</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71491</v>
+        <v>1.73662</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62833</v>
+        <v>1.65095</v>
       </c>
       <c r="D140" t="n">
-        <v>1.67342</v>
+        <v>5.35655</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.74163</v>
+        <v>1.73778</v>
       </c>
       <c r="C141" t="n">
-        <v>1.64194</v>
+        <v>1.6542</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66088</v>
+        <v>5.27842</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71691</v>
+        <v>1.73218</v>
       </c>
       <c r="C142" t="n">
-        <v>1.63587</v>
+        <v>1.65313</v>
       </c>
       <c r="D142" t="n">
-        <v>1.64849</v>
+        <v>5.1759</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71858</v>
+        <v>1.71835</v>
       </c>
       <c r="C143" t="n">
-        <v>1.62181</v>
+        <v>1.63209</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63682</v>
+        <v>5.16551</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626893</v>
+        <v>0.636888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.491744</v>
+        <v>0.584186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.409742</v>
+        <v>0.349842</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362187</v>
+        <v>0.36486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320716</v>
+        <v>0.402801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.399052</v>
+        <v>0.338355</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351504</v>
+        <v>0.344449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308147</v>
+        <v>0.386655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.392214</v>
+        <v>0.332347</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.351067</v>
+        <v>0.367114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.312398</v>
+        <v>0.366616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.379695</v>
+        <v>0.321346</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.35175</v>
+        <v>0.332113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.303394</v>
+        <v>0.362403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.377974</v>
+        <v>0.309873</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.326068</v>
+        <v>0.359987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291358</v>
+        <v>0.35171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.372933</v>
+        <v>0.309161</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331441</v>
+        <v>0.319774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.300158</v>
+        <v>0.346397</v>
       </c>
       <c r="D8" t="n">
-        <v>0.364773</v>
+        <v>0.304012</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.322345</v>
+        <v>0.329222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553368</v>
+        <v>0.646366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.754347</v>
+        <v>0.67549</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.580892</v>
+        <v>0.594315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.534765</v>
+        <v>0.634732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.718955</v>
+        <v>0.67816</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.566343</v>
+        <v>0.562804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.515716</v>
+        <v>0.606201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.663272</v>
+        <v>0.62148</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.541167</v>
+        <v>0.52585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.494204</v>
+        <v>0.578596</v>
       </c>
       <c r="D12" t="n">
-        <v>0.670813</v>
+        <v>0.597058</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.526665</v>
+        <v>0.53788</v>
       </c>
       <c r="C13" t="n">
-        <v>0.498843</v>
+        <v>0.578322</v>
       </c>
       <c r="D13" t="n">
-        <v>0.62103</v>
+        <v>0.5825939999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506252</v>
+        <v>0.519568</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4571</v>
+        <v>0.545341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.61081</v>
+        <v>0.560926</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.493805</v>
+        <v>0.519687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.453522</v>
+        <v>0.530139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596627</v>
+        <v>0.541944</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475065</v>
+        <v>0.505266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.433403</v>
+        <v>0.509736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.570345</v>
+        <v>0.518387</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471893</v>
+        <v>0.489859</v>
       </c>
       <c r="C17" t="n">
-        <v>0.433656</v>
+        <v>0.493062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.552538</v>
+        <v>0.506664</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459133</v>
+        <v>0.471328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.412342</v>
+        <v>0.497488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5289</v>
+        <v>0.481263</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439527</v>
+        <v>0.441963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.396927</v>
+        <v>0.467484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.520844</v>
+        <v>0.469725</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428548</v>
+        <v>0.45419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.399808</v>
+        <v>0.449624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.516379</v>
+        <v>0.465682</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.430152</v>
+        <v>0.424615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.381691</v>
+        <v>0.44592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.493712</v>
+        <v>0.458913</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.426832</v>
+        <v>0.438852</v>
       </c>
       <c r="C22" t="n">
-        <v>0.379895</v>
+        <v>0.44766</v>
       </c>
       <c r="D22" t="n">
-        <v>0.495518</v>
+        <v>0.441206</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.416375</v>
+        <v>0.43351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.651249</v>
+        <v>0.757393</v>
       </c>
       <c r="D23" t="n">
-        <v>0.795427</v>
+        <v>0.7298480000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6836370000000001</v>
+        <v>0.691742</v>
       </c>
       <c r="C24" t="n">
-        <v>0.618934</v>
+        <v>0.725448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.633841</v>
+        <v>0.592537</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6591939999999999</v>
+        <v>0.680001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.60318</v>
+        <v>0.696312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.63146</v>
+        <v>0.584028</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.626034</v>
+        <v>0.662691</v>
       </c>
       <c r="C26" t="n">
-        <v>0.586128</v>
+        <v>0.6973279999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.60022</v>
+        <v>0.54571</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.631059</v>
       </c>
       <c r="C27" t="n">
-        <v>0.564238</v>
+        <v>0.663053</v>
       </c>
       <c r="D27" t="n">
-        <v>0.592104</v>
+        <v>0.527712</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.620859</v>
+        <v>0.610801</v>
       </c>
       <c r="C28" t="n">
-        <v>0.546693</v>
+        <v>0.633983</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5735170000000001</v>
+        <v>0.519555</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.578944</v>
+        <v>0.60426</v>
       </c>
       <c r="C29" t="n">
-        <v>0.530375</v>
+        <v>0.597962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.544038</v>
+        <v>0.494264</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56272</v>
+        <v>0.576743</v>
       </c>
       <c r="C30" t="n">
-        <v>0.515741</v>
+        <v>0.597851</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5286920000000001</v>
+        <v>0.478297</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.532752</v>
+        <v>0.555572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5031</v>
+        <v>0.577689</v>
       </c>
       <c r="D31" t="n">
-        <v>0.519723</v>
+        <v>0.461336</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.531417</v>
+        <v>0.556729</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484312</v>
+        <v>0.567903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.499061</v>
+        <v>0.453923</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.512816</v>
+        <v>0.539104</v>
       </c>
       <c r="C33" t="n">
-        <v>0.47029</v>
+        <v>0.5509810000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495531</v>
+        <v>0.449209</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.509314</v>
+        <v>0.505692</v>
       </c>
       <c r="C34" t="n">
-        <v>0.444317</v>
+        <v>0.523045</v>
       </c>
       <c r="D34" t="n">
-        <v>0.481526</v>
+        <v>0.429027</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5029090000000001</v>
+        <v>0.510297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.452379</v>
+        <v>0.512879</v>
       </c>
       <c r="D35" t="n">
-        <v>0.473059</v>
+        <v>0.427164</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.474648</v>
+        <v>0.489565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.436999</v>
+        <v>0.499024</v>
       </c>
       <c r="D36" t="n">
-        <v>0.461907</v>
+        <v>0.420878</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.461416</v>
+        <v>0.479849</v>
       </c>
       <c r="C37" t="n">
-        <v>0.699161</v>
+        <v>0.845634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7887420000000001</v>
+        <v>0.723599</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738654</v>
+        <v>0.746939</v>
       </c>
       <c r="C38" t="n">
-        <v>0.67672</v>
+        <v>0.771069</v>
       </c>
       <c r="D38" t="n">
-        <v>0.737996</v>
+        <v>0.715435</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.721425</v>
+        <v>0.745491</v>
       </c>
       <c r="C39" t="n">
-        <v>0.646861</v>
+        <v>0.763027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.72396</v>
+        <v>0.660923</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.683713</v>
+        <v>0.714311</v>
       </c>
       <c r="C40" t="n">
-        <v>0.634497</v>
+        <v>0.744345</v>
       </c>
       <c r="D40" t="n">
-        <v>0.71571</v>
+        <v>0.649585</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669125</v>
+        <v>0.700825</v>
       </c>
       <c r="C41" t="n">
-        <v>0.610127</v>
+        <v>0.703361</v>
       </c>
       <c r="D41" t="n">
-        <v>0.688908</v>
+        <v>0.631485</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.660346</v>
+        <v>0.665834</v>
       </c>
       <c r="C42" t="n">
-        <v>0.599422</v>
+        <v>0.693285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6550589999999999</v>
+        <v>0.60188</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.631892</v>
+        <v>0.642956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.566453</v>
+        <v>0.672775</v>
       </c>
       <c r="D43" t="n">
-        <v>0.634895</v>
+        <v>0.600282</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.631927</v>
+        <v>0.6430399999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.565486</v>
+        <v>0.667453</v>
       </c>
       <c r="D44" t="n">
-        <v>0.612352</v>
+        <v>0.562209</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.596158</v>
+        <v>0.624343</v>
       </c>
       <c r="C45" t="n">
-        <v>0.542232</v>
+        <v>0.629467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597133</v>
+        <v>0.563317</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573001</v>
+        <v>0.590049</v>
       </c>
       <c r="C46" t="n">
-        <v>0.517033</v>
+        <v>0.603214</v>
       </c>
       <c r="D46" t="n">
-        <v>0.578418</v>
+        <v>0.538118</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.571056</v>
+        <v>0.58692</v>
       </c>
       <c r="C47" t="n">
-        <v>0.508599</v>
+        <v>0.587627</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5604170000000001</v>
+        <v>0.516419</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.556607</v>
+        <v>0.5666639999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.498087</v>
+        <v>0.562297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.548343</v>
+        <v>0.508506</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.542695</v>
+        <v>0.570005</v>
       </c>
       <c r="C49" t="n">
-        <v>0.481516</v>
+        <v>0.570811</v>
       </c>
       <c r="D49" t="n">
-        <v>0.544454</v>
+        <v>0.489078</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.528095</v>
+        <v>0.542184</v>
       </c>
       <c r="C50" t="n">
-        <v>0.477242</v>
+        <v>0.542173</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525986</v>
+        <v>0.491707</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509594</v>
+        <v>0.521808</v>
       </c>
       <c r="C51" t="n">
-        <v>0.73896</v>
+        <v>0.859707</v>
       </c>
       <c r="D51" t="n">
-        <v>0.843236</v>
+        <v>0.812788</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512757</v>
+        <v>0.518994</v>
       </c>
       <c r="C52" t="n">
-        <v>0.723069</v>
+        <v>0.849313</v>
       </c>
       <c r="D52" t="n">
-        <v>0.825851</v>
+        <v>0.785511</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7578819999999999</v>
+        <v>0.79871</v>
       </c>
       <c r="C53" t="n">
-        <v>0.702067</v>
+        <v>0.856351</v>
       </c>
       <c r="D53" t="n">
-        <v>0.793045</v>
+        <v>0.782676</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.757667</v>
+        <v>0.780365</v>
       </c>
       <c r="C54" t="n">
-        <v>0.696889</v>
+        <v>0.800358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.769906</v>
+        <v>0.750787</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.735429</v>
+        <v>0.801107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.665752</v>
+        <v>0.773701</v>
       </c>
       <c r="D55" t="n">
-        <v>0.774792</v>
+        <v>0.709628</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.716573</v>
+        <v>0.732118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.658623</v>
+        <v>0.74369</v>
       </c>
       <c r="D56" t="n">
-        <v>0.73186</v>
+        <v>0.68954</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.693794</v>
+        <v>0.725093</v>
       </c>
       <c r="C57" t="n">
-        <v>0.634868</v>
+        <v>0.736344</v>
       </c>
       <c r="D57" t="n">
-        <v>0.710883</v>
+        <v>0.69631</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.678809</v>
+        <v>0.710997</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632383</v>
+        <v>0.724961</v>
       </c>
       <c r="D58" t="n">
-        <v>0.691716</v>
+        <v>0.644332</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.663079</v>
+        <v>0.685402</v>
       </c>
       <c r="C59" t="n">
-        <v>0.597504</v>
+        <v>0.6801700000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6808149999999999</v>
+        <v>0.6348510000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.648349</v>
+        <v>0.658411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.59417</v>
+        <v>0.673631</v>
       </c>
       <c r="D60" t="n">
-        <v>0.664875</v>
+        <v>0.627899</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.630599</v>
+        <v>0.680924</v>
       </c>
       <c r="C61" t="n">
-        <v>0.601739</v>
+        <v>0.6560510000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.645853</v>
+        <v>0.59826</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.626582</v>
+        <v>0.649007</v>
       </c>
       <c r="C62" t="n">
-        <v>0.553849</v>
+        <v>0.647204</v>
       </c>
       <c r="D62" t="n">
-        <v>0.621122</v>
+        <v>0.60038</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6222760000000001</v>
+        <v>0.642866</v>
       </c>
       <c r="C63" t="n">
-        <v>0.552358</v>
+        <v>0.631077</v>
       </c>
       <c r="D63" t="n">
-        <v>0.618889</v>
+        <v>0.587275</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5988599999999999</v>
+        <v>0.63559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.535992</v>
+        <v>0.637249</v>
       </c>
       <c r="D64" t="n">
-        <v>0.600077</v>
+        <v>0.576874</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58677</v>
+        <v>0.624506</v>
       </c>
       <c r="C65" t="n">
-        <v>0.526076</v>
+        <v>0.616142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.595666</v>
+        <v>0.568909</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.573462</v>
+        <v>0.589076</v>
       </c>
       <c r="C66" t="n">
-        <v>0.812954</v>
+        <v>0.978688</v>
       </c>
       <c r="D66" t="n">
-        <v>0.943316</v>
+        <v>0.914071</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.872371</v>
+        <v>0.917704</v>
       </c>
       <c r="C67" t="n">
-        <v>0.811487</v>
+        <v>0.903603</v>
       </c>
       <c r="D67" t="n">
-        <v>0.913865</v>
+        <v>0.862107</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853633</v>
+        <v>0.887682</v>
       </c>
       <c r="C68" t="n">
-        <v>0.783573</v>
+        <v>0.901205</v>
       </c>
       <c r="D68" t="n">
-        <v>0.886576</v>
+        <v>0.8365899999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.823478</v>
+        <v>0.863421</v>
       </c>
       <c r="C69" t="n">
-        <v>0.743512</v>
+        <v>0.848711</v>
       </c>
       <c r="D69" t="n">
-        <v>0.864564</v>
+        <v>0.824642</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.797542</v>
+        <v>0.831955</v>
       </c>
       <c r="C70" t="n">
-        <v>0.757081</v>
+        <v>0.829743</v>
       </c>
       <c r="D70" t="n">
-        <v>0.833385</v>
+        <v>0.7946</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7808389999999999</v>
+        <v>0.820404</v>
       </c>
       <c r="C71" t="n">
-        <v>0.704601</v>
+        <v>0.834355</v>
       </c>
       <c r="D71" t="n">
-        <v>0.810925</v>
+        <v>0.7764450000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.773608</v>
+        <v>0.798697</v>
       </c>
       <c r="C72" t="n">
-        <v>0.712171</v>
+        <v>0.804969</v>
       </c>
       <c r="D72" t="n">
-        <v>0.782662</v>
+        <v>0.742622</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.763269</v>
+        <v>0.7977610000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678856</v>
+        <v>0.772689</v>
       </c>
       <c r="D73" t="n">
-        <v>0.780438</v>
+        <v>0.74721</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.735465</v>
+        <v>0.768554</v>
       </c>
       <c r="C74" t="n">
-        <v>0.658193</v>
+        <v>0.749654</v>
       </c>
       <c r="D74" t="n">
-        <v>0.773254</v>
+        <v>0.721547</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.721769</v>
+        <v>0.73976</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6536380000000001</v>
+        <v>0.74666</v>
       </c>
       <c r="D75" t="n">
-        <v>0.725101</v>
+        <v>0.7149450000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.710263</v>
+        <v>0.770952</v>
       </c>
       <c r="C76" t="n">
-        <v>0.63523</v>
+        <v>0.721435</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715214</v>
+        <v>0.676651</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.685961</v>
+        <v>0.743739</v>
       </c>
       <c r="C77" t="n">
-        <v>0.621428</v>
+        <v>0.7232769999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.694997</v>
+        <v>0.66388</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.680364</v>
+        <v>0.694287</v>
       </c>
       <c r="C78" t="n">
-        <v>0.620763</v>
+        <v>0.71304</v>
       </c>
       <c r="D78" t="n">
-        <v>0.684655</v>
+        <v>0.678732</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.668301</v>
+        <v>0.697525</v>
       </c>
       <c r="C79" t="n">
-        <v>0.611635</v>
+        <v>0.687575</v>
       </c>
       <c r="D79" t="n">
-        <v>0.678856</v>
+        <v>0.646187</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6770350000000001</v>
+        <v>0.678582</v>
       </c>
       <c r="C80" t="n">
-        <v>0.904656</v>
+        <v>1.03096</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04757</v>
+        <v>1.01378</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9567560000000001</v>
+        <v>1.01904</v>
       </c>
       <c r="C81" t="n">
-        <v>0.902051</v>
+        <v>1.03121</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0141</v>
+        <v>0.968662</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.959055</v>
+        <v>0.999806</v>
       </c>
       <c r="C82" t="n">
-        <v>0.86348</v>
+        <v>1.00408</v>
       </c>
       <c r="D82" t="n">
-        <v>0.98761</v>
+        <v>0.956549</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.929806</v>
+        <v>0.996366</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847989</v>
+        <v>0.972956</v>
       </c>
       <c r="D83" t="n">
-        <v>0.952274</v>
+        <v>0.912502</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.908577</v>
+        <v>0.987937</v>
       </c>
       <c r="C84" t="n">
-        <v>0.85497</v>
+        <v>0.959047</v>
       </c>
       <c r="D84" t="n">
-        <v>0.937002</v>
+        <v>0.889304</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.899992</v>
+        <v>0.925308</v>
       </c>
       <c r="C85" t="n">
-        <v>0.801379</v>
+        <v>0.935895</v>
       </c>
       <c r="D85" t="n">
-        <v>0.925225</v>
+        <v>0.871332</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.893209</v>
+        <v>0.932898</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7976569999999999</v>
+        <v>0.905282</v>
       </c>
       <c r="D86" t="n">
-        <v>0.891979</v>
+        <v>0.879538</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.870992</v>
+        <v>0.898104</v>
       </c>
       <c r="C87" t="n">
-        <v>0.785951</v>
+        <v>0.8992520000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.878178</v>
+        <v>0.837075</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.852116</v>
+        <v>0.881382</v>
       </c>
       <c r="C88" t="n">
-        <v>0.766877</v>
+        <v>0.857046</v>
       </c>
       <c r="D88" t="n">
-        <v>0.847837</v>
+        <v>0.834014</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819998</v>
+        <v>0.862637</v>
       </c>
       <c r="C89" t="n">
-        <v>0.768946</v>
+        <v>0.856884</v>
       </c>
       <c r="D89" t="n">
-        <v>0.822568</v>
+        <v>0.803708</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.820688</v>
+        <v>0.865662</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7249370000000001</v>
+        <v>0.828719</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8035409999999999</v>
+        <v>0.787559</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.821651</v>
+        <v>0.848203</v>
       </c>
       <c r="C91" t="n">
-        <v>0.70861</v>
+        <v>0.825062</v>
       </c>
       <c r="D91" t="n">
-        <v>0.80923</v>
+        <v>0.767588</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.772602</v>
+        <v>0.836717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.717386</v>
+        <v>0.8008189999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.793578</v>
+        <v>0.765624</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.775483</v>
+        <v>0.8188879999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.70727</v>
+        <v>0.794493</v>
       </c>
       <c r="D93" t="n">
-        <v>0.777185</v>
+        <v>0.751987</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.778006</v>
+        <v>0.816098</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9894269999999999</v>
+        <v>1.1348</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14813</v>
+        <v>1.08492</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08653</v>
+        <v>1.13095</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00226</v>
+        <v>1.11957</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12829</v>
+        <v>1.09521</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07648</v>
+        <v>1.12505</v>
       </c>
       <c r="C96" t="n">
-        <v>0.962984</v>
+        <v>1.07661</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09568</v>
+        <v>1.06391</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03393</v>
+        <v>1.11093</v>
       </c>
       <c r="C97" t="n">
-        <v>0.95225</v>
+        <v>1.07716</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0676</v>
+        <v>1.04293</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03885</v>
+        <v>1.05997</v>
       </c>
       <c r="C98" t="n">
-        <v>0.944087</v>
+        <v>1.05976</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0144</v>
+        <v>1.01412</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03118</v>
+        <v>1.0584</v>
       </c>
       <c r="C99" t="n">
-        <v>0.91579</v>
+        <v>1.00805</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02651</v>
+        <v>1.0038</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9897010000000001</v>
+        <v>1.03833</v>
       </c>
       <c r="C100" t="n">
-        <v>0.885011</v>
+        <v>1.00692</v>
       </c>
       <c r="D100" t="n">
-        <v>0.988401</v>
+        <v>0.958642</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.974409</v>
+        <v>1.06933</v>
       </c>
       <c r="C101" t="n">
-        <v>0.883463</v>
+        <v>1.01935</v>
       </c>
       <c r="D101" t="n">
-        <v>0.993286</v>
+        <v>0.958364</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.96852</v>
+        <v>1.00566</v>
       </c>
       <c r="C102" t="n">
-        <v>0.867339</v>
+        <v>0.992083</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9513160000000001</v>
+        <v>0.945253</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.948895</v>
+        <v>1.0027</v>
       </c>
       <c r="C103" t="n">
-        <v>0.856395</v>
+        <v>0.978469</v>
       </c>
       <c r="D103" t="n">
-        <v>0.938628</v>
+        <v>0.9242860000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.942841</v>
+        <v>0.967087</v>
       </c>
       <c r="C104" t="n">
-        <v>0.873463</v>
+        <v>0.935176</v>
       </c>
       <c r="D104" t="n">
-        <v>0.924897</v>
+        <v>0.903234</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.92741</v>
+        <v>0.981555</v>
       </c>
       <c r="C105" t="n">
-        <v>0.820601</v>
+        <v>0.928681</v>
       </c>
       <c r="D105" t="n">
-        <v>0.904563</v>
+        <v>0.89012</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.904919</v>
+        <v>0.971697</v>
       </c>
       <c r="C106" t="n">
-        <v>0.82285</v>
+        <v>0.90868</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907368</v>
+        <v>0.909815</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90804</v>
+        <v>0.967354</v>
       </c>
       <c r="C107" t="n">
-        <v>0.852082</v>
+        <v>0.900741</v>
       </c>
       <c r="D107" t="n">
-        <v>0.909421</v>
+        <v>0.862503</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9034799999999999</v>
+        <v>0.952222</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13015</v>
+        <v>1.25355</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23853</v>
+        <v>1.21859</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.896573</v>
+        <v>0.947732</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13685</v>
+        <v>1.22395</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25829</v>
+        <v>1.21294</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22537</v>
+        <v>1.24658</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1109</v>
+        <v>1.22677</v>
       </c>
       <c r="D110" t="n">
-        <v>1.19866</v>
+        <v>1.23264</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17297</v>
+        <v>1.22897</v>
       </c>
       <c r="C111" t="n">
-        <v>1.08094</v>
+        <v>1.24383</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1767</v>
+        <v>1.21814</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15787</v>
+        <v>1.25212</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07558</v>
+        <v>1.20518</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15853</v>
+        <v>1.18956</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17378</v>
+        <v>1.22935</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04992</v>
+        <v>1.19632</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14191</v>
+        <v>1.19818</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.16321</v>
+        <v>1.2146</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05699</v>
+        <v>1.19487</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14415</v>
+        <v>1.16958</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14472</v>
+        <v>1.22423</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06847</v>
+        <v>1.15914</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11659</v>
+        <v>1.18119</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16502</v>
+        <v>1.20405</v>
       </c>
       <c r="C116" t="n">
-        <v>1.04091</v>
+        <v>1.15404</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11537</v>
+        <v>1.12562</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13153</v>
+        <v>1.21545</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0392</v>
+        <v>1.1469</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10596</v>
+        <v>1.12952</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12917</v>
+        <v>1.191</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03317</v>
+        <v>1.13151</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10457</v>
+        <v>1.12431</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14036</v>
+        <v>1.19318</v>
       </c>
       <c r="C119" t="n">
-        <v>0.998793</v>
+        <v>1.11289</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09041</v>
+        <v>1.12745</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11802</v>
+        <v>1.22395</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00636</v>
+        <v>1.12516</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0639</v>
+        <v>1.10922</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11968</v>
+        <v>1.19731</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02275</v>
+        <v>1.09104</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07386</v>
+        <v>1.10016</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12206</v>
+        <v>1.18167</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00016</v>
+        <v>1.10359</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07218</v>
+        <v>1.10903</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11783</v>
+        <v>1.15169</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31991</v>
+        <v>1.50324</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40738</v>
+        <v>1.48049</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42079</v>
+        <v>1.51982</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29866</v>
+        <v>1.49244</v>
       </c>
       <c r="D124" t="n">
-        <v>1.40885</v>
+        <v>1.46817</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42829</v>
+        <v>1.49337</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31414</v>
+        <v>1.46048</v>
       </c>
       <c r="D125" t="n">
-        <v>1.40266</v>
+        <v>1.48575</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41366</v>
+        <v>1.51539</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3157</v>
+        <v>1.43054</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37219</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40347</v>
+        <v>1.49012</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32095</v>
+        <v>1.44749</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36197</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42487</v>
+        <v>1.46953</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30186</v>
+        <v>1.44343</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37215</v>
+        <v>1.4647</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39849</v>
+        <v>1.46646</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30226</v>
+        <v>1.42581</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3708</v>
+        <v>1.44434</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39919</v>
+        <v>1.48676</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32243</v>
+        <v>1.42276</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34976</v>
+        <v>1.43747</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.408</v>
+        <v>1.46524</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31555</v>
+        <v>1.42591</v>
       </c>
       <c r="D131" t="n">
-        <v>1.341</v>
+        <v>1.4254</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38985</v>
+        <v>1.46752</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30806</v>
+        <v>1.40506</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34295</v>
+        <v>1.43219</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41909</v>
+        <v>1.45345</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31579</v>
+        <v>1.40958</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32703</v>
+        <v>1.42351</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40262</v>
+        <v>1.45915</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30428</v>
+        <v>1.39693</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33597</v>
+        <v>1.43421</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40824</v>
+        <v>1.45446</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31033</v>
+        <v>1.4046</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34149</v>
+        <v>1.40479</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39849</v>
+        <v>1.4593</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30063</v>
+        <v>1.39859</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32378</v>
+        <v>1.41766</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41354</v>
+        <v>1.44268</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65271</v>
+        <v>1.76296</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71616</v>
+        <v>1.76374</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74463</v>
+        <v>1.76331</v>
       </c>
       <c r="C138" t="n">
-        <v>1.65037</v>
+        <v>1.80029</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69518</v>
+        <v>1.83728</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.7413</v>
+        <v>1.83813</v>
       </c>
       <c r="C139" t="n">
-        <v>1.63108</v>
+        <v>1.80807</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66313</v>
+        <v>1.87296</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71491</v>
+        <v>1.84722</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62833</v>
+        <v>1.84794</v>
       </c>
       <c r="D140" t="n">
-        <v>1.67342</v>
+        <v>1.8633</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.74163</v>
+        <v>1.86727</v>
       </c>
       <c r="C141" t="n">
-        <v>1.64194</v>
+        <v>1.81709</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66088</v>
+        <v>1.85598</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71691</v>
+        <v>1.90203</v>
       </c>
       <c r="C142" t="n">
-        <v>1.63587</v>
+        <v>1.87743</v>
       </c>
       <c r="D142" t="n">
-        <v>1.64849</v>
+        <v>1.87652</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71858</v>
+        <v>1.9128</v>
       </c>
       <c r="C143" t="n">
-        <v>1.62181</v>
+        <v>1.86936</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63682</v>
+        <v>1.88224</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.636888</v>
+        <v>0.413953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.584186</v>
+        <v>0.392347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.349842</v>
+        <v>0.35974</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.36486</v>
+        <v>0.351453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.402801</v>
+        <v>0.399768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.338355</v>
+        <v>0.364995</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.344449</v>
+        <v>0.352027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.386655</v>
+        <v>0.375527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332347</v>
+        <v>0.339053</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367114</v>
+        <v>0.346026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.366616</v>
+        <v>0.356584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321346</v>
+        <v>0.319322</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.332113</v>
+        <v>0.344009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.362403</v>
+        <v>0.354177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.309873</v>
+        <v>0.317792</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.359987</v>
+        <v>0.343456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35171</v>
+        <v>0.348759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309161</v>
+        <v>0.314625</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.319774</v>
+        <v>0.325295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.346397</v>
+        <v>0.344413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304012</v>
+        <v>0.309464</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.329222</v>
+        <v>0.33857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.646366</v>
+        <v>0.650294</v>
       </c>
       <c r="D9" t="n">
-        <v>0.67549</v>
+        <v>0.677774</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.594315</v>
+        <v>0.589324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.634732</v>
+        <v>0.624244</v>
       </c>
       <c r="D10" t="n">
-        <v>0.67816</v>
+        <v>0.665165</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.562804</v>
+        <v>0.571273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.606201</v>
+        <v>0.60188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62148</v>
+        <v>0.6341869999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.52585</v>
+        <v>0.580707</v>
       </c>
       <c r="C12" t="n">
-        <v>0.578596</v>
+        <v>0.576868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.597058</v>
+        <v>0.591453</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.53788</v>
+        <v>0.553327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.578322</v>
+        <v>0.591288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5825939999999999</v>
+        <v>0.580646</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.519568</v>
+        <v>0.516312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.545341</v>
+        <v>0.5427959999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.560926</v>
+        <v>0.554541</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.519687</v>
+        <v>0.512164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.530139</v>
+        <v>0.524517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.541944</v>
+        <v>0.543977</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.505266</v>
+        <v>0.487008</v>
       </c>
       <c r="C16" t="n">
-        <v>0.509736</v>
+        <v>0.513166</v>
       </c>
       <c r="D16" t="n">
-        <v>0.518387</v>
+        <v>0.516336</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.489859</v>
+        <v>0.467268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.493062</v>
+        <v>0.501308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.506664</v>
+        <v>0.50878</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471328</v>
+        <v>0.467327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.497488</v>
+        <v>0.488547</v>
       </c>
       <c r="D18" t="n">
-        <v>0.481263</v>
+        <v>0.481096</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.441963</v>
+        <v>0.466254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.467484</v>
+        <v>0.491363</v>
       </c>
       <c r="D19" t="n">
-        <v>0.469725</v>
+        <v>0.490145</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.45419</v>
+        <v>0.45638</v>
       </c>
       <c r="C20" t="n">
-        <v>0.449624</v>
+        <v>0.459629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.465682</v>
+        <v>0.478404</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.424615</v>
+        <v>0.438169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.44592</v>
+        <v>0.455157</v>
       </c>
       <c r="D21" t="n">
-        <v>0.458913</v>
+        <v>0.440523</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.438852</v>
+        <v>0.443705</v>
       </c>
       <c r="C22" t="n">
-        <v>0.44766</v>
+        <v>0.436631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.441206</v>
+        <v>0.444296</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.43351</v>
+        <v>0.417134</v>
       </c>
       <c r="C23" t="n">
-        <v>0.757393</v>
+        <v>0.75922</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7298480000000001</v>
+        <v>0.743846</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.691742</v>
+        <v>0.69116</v>
       </c>
       <c r="C24" t="n">
-        <v>0.725448</v>
+        <v>0.745542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.592537</v>
+        <v>0.7329560000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.680001</v>
+        <v>0.653791</v>
       </c>
       <c r="C25" t="n">
-        <v>0.696312</v>
+        <v>0.7136130000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.584028</v>
+        <v>0.677167</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.662691</v>
+        <v>0.66346</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6973279999999999</v>
+        <v>0.688159</v>
       </c>
       <c r="D26" t="n">
-        <v>0.54571</v>
+        <v>0.674807</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.631059</v>
+        <v>0.6149520000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.663053</v>
+        <v>0.651379</v>
       </c>
       <c r="D27" t="n">
-        <v>0.527712</v>
+        <v>0.641721</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.610801</v>
+        <v>0.61335</v>
       </c>
       <c r="C28" t="n">
-        <v>0.633983</v>
+        <v>0.624295</v>
       </c>
       <c r="D28" t="n">
-        <v>0.519555</v>
+        <v>0.630836</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.60426</v>
+        <v>0.586334</v>
       </c>
       <c r="C29" t="n">
-        <v>0.597962</v>
+        <v>0.6369669999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.494264</v>
+        <v>0.595841</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.576743</v>
+        <v>0.575357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.597851</v>
+        <v>0.594729</v>
       </c>
       <c r="D30" t="n">
-        <v>0.478297</v>
+        <v>0.570896</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.555572</v>
+        <v>0.551148</v>
       </c>
       <c r="C31" t="n">
-        <v>0.577689</v>
+        <v>0.576912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.461336</v>
+        <v>0.56726</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.556729</v>
+        <v>0.549837</v>
       </c>
       <c r="C32" t="n">
-        <v>0.567903</v>
+        <v>0.548222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.453923</v>
+        <v>0.534601</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539104</v>
+        <v>0.526105</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5509810000000001</v>
+        <v>0.541138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.449209</v>
+        <v>0.520023</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.505692</v>
+        <v>0.5170709999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.523045</v>
+        <v>0.542614</v>
       </c>
       <c r="D34" t="n">
-        <v>0.429027</v>
+        <v>0.510613</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.510297</v>
+        <v>0.503397</v>
       </c>
       <c r="C35" t="n">
-        <v>0.512879</v>
+        <v>0.517212</v>
       </c>
       <c r="D35" t="n">
-        <v>0.427164</v>
+        <v>0.505959</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.489565</v>
+        <v>0.501853</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499024</v>
+        <v>0.50183</v>
       </c>
       <c r="D36" t="n">
-        <v>0.420878</v>
+        <v>0.503248</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.479849</v>
+        <v>0.494947</v>
       </c>
       <c r="C37" t="n">
-        <v>0.845634</v>
+        <v>0.828135</v>
       </c>
       <c r="D37" t="n">
-        <v>0.723599</v>
+        <v>0.796859</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.746939</v>
+        <v>0.747771</v>
       </c>
       <c r="C38" t="n">
-        <v>0.771069</v>
+        <v>0.803646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.715435</v>
+        <v>0.7665419999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745491</v>
+        <v>0.716861</v>
       </c>
       <c r="C39" t="n">
-        <v>0.763027</v>
+        <v>0.753335</v>
       </c>
       <c r="D39" t="n">
-        <v>0.660923</v>
+        <v>0.738802</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.714311</v>
+        <v>0.692611</v>
       </c>
       <c r="C40" t="n">
-        <v>0.744345</v>
+        <v>0.7416779999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.649585</v>
+        <v>0.698079</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.700825</v>
+        <v>0.702828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.703361</v>
+        <v>0.716221</v>
       </c>
       <c r="D41" t="n">
-        <v>0.631485</v>
+        <v>0.687904</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.665834</v>
+        <v>0.6718460000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.693285</v>
+        <v>0.686953</v>
       </c>
       <c r="D42" t="n">
-        <v>0.60188</v>
+        <v>0.652123</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.642956</v>
+        <v>0.668152</v>
       </c>
       <c r="C43" t="n">
-        <v>0.672775</v>
+        <v>0.669315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.600282</v>
+        <v>0.644102</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6430399999999999</v>
+        <v>0.633953</v>
       </c>
       <c r="C44" t="n">
-        <v>0.667453</v>
+        <v>0.635418</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562209</v>
+        <v>0.624178</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.624343</v>
+        <v>0.639099</v>
       </c>
       <c r="C45" t="n">
-        <v>0.629467</v>
+        <v>0.639051</v>
       </c>
       <c r="D45" t="n">
-        <v>0.563317</v>
+        <v>0.602619</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590049</v>
+        <v>0.610393</v>
       </c>
       <c r="C46" t="n">
-        <v>0.603214</v>
+        <v>0.600422</v>
       </c>
       <c r="D46" t="n">
-        <v>0.538118</v>
+        <v>0.567779</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
+        <v>0.590302</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.58692</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.587627</v>
-      </c>
       <c r="D47" t="n">
-        <v>0.516419</v>
+        <v>0.563349</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5666639999999999</v>
+        <v>0.570512</v>
       </c>
       <c r="C48" t="n">
-        <v>0.562297</v>
+        <v>0.573717</v>
       </c>
       <c r="D48" t="n">
-        <v>0.508506</v>
+        <v>0.5404369999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.570005</v>
+        <v>0.559632</v>
       </c>
       <c r="C49" t="n">
-        <v>0.570811</v>
+        <v>0.55794</v>
       </c>
       <c r="D49" t="n">
-        <v>0.489078</v>
+        <v>0.530758</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.542184</v>
+        <v>0.540077</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542173</v>
+        <v>0.565148</v>
       </c>
       <c r="D50" t="n">
-        <v>0.491707</v>
+        <v>0.511589</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.521808</v>
+        <v>0.565693</v>
       </c>
       <c r="C51" t="n">
-        <v>0.859707</v>
+        <v>0.859775</v>
       </c>
       <c r="D51" t="n">
-        <v>0.812788</v>
+        <v>0.809768</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.518994</v>
+        <v>0.535565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.849313</v>
+        <v>0.83589</v>
       </c>
       <c r="D52" t="n">
-        <v>0.785511</v>
+        <v>0.780565</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.79871</v>
+        <v>0.808912</v>
       </c>
       <c r="C53" t="n">
-        <v>0.856351</v>
+        <v>0.832116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.782676</v>
+        <v>0.7791360000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.780365</v>
+        <v>0.795714</v>
       </c>
       <c r="C54" t="n">
-        <v>0.800358</v>
+        <v>0.798871</v>
       </c>
       <c r="D54" t="n">
-        <v>0.750787</v>
+        <v>0.747615</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.801107</v>
+        <v>0.760975</v>
       </c>
       <c r="C55" t="n">
-        <v>0.773701</v>
+        <v>0.765528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.709628</v>
+        <v>0.722417</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732118</v>
+        <v>0.753486</v>
       </c>
       <c r="C56" t="n">
-        <v>0.74369</v>
+        <v>0.737519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.68954</v>
+        <v>0.7379869999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.725093</v>
+        <v>0.704353</v>
       </c>
       <c r="C57" t="n">
-        <v>0.736344</v>
+        <v>0.734382</v>
       </c>
       <c r="D57" t="n">
-        <v>0.69631</v>
+        <v>0.693192</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.710997</v>
+        <v>0.713649</v>
       </c>
       <c r="C58" t="n">
-        <v>0.724961</v>
+        <v>0.706817</v>
       </c>
       <c r="D58" t="n">
-        <v>0.644332</v>
+        <v>0.654992</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.685402</v>
+        <v>0.687792</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6801700000000001</v>
+        <v>0.696088</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6348510000000001</v>
+        <v>0.6575</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.658411</v>
+        <v>0.690486</v>
       </c>
       <c r="C60" t="n">
-        <v>0.673631</v>
+        <v>0.673838</v>
       </c>
       <c r="D60" t="n">
-        <v>0.627899</v>
+        <v>0.637222</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.680924</v>
+        <v>0.674015</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6560510000000001</v>
+        <v>0.671049</v>
       </c>
       <c r="D61" t="n">
-        <v>0.59826</v>
+        <v>0.620997</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.649007</v>
+        <v>0.635893</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647204</v>
+        <v>0.639275</v>
       </c>
       <c r="D62" t="n">
-        <v>0.60038</v>
+        <v>0.6015509999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.642866</v>
+        <v>0.648331</v>
       </c>
       <c r="C63" t="n">
-        <v>0.631077</v>
+        <v>0.623736</v>
       </c>
       <c r="D63" t="n">
-        <v>0.587275</v>
+        <v>0.591769</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.63559</v>
+        <v>0.631042</v>
       </c>
       <c r="C64" t="n">
-        <v>0.637249</v>
+        <v>0.612997</v>
       </c>
       <c r="D64" t="n">
-        <v>0.576874</v>
+        <v>0.575218</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.624506</v>
+        <v>0.631026</v>
       </c>
       <c r="C65" t="n">
-        <v>0.616142</v>
+        <v>0.6085</v>
       </c>
       <c r="D65" t="n">
-        <v>0.568909</v>
+        <v>0.5576</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.589076</v>
+        <v>0.615301</v>
       </c>
       <c r="C66" t="n">
-        <v>0.978688</v>
+        <v>0.9912840000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.914071</v>
+        <v>0.898326</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.917704</v>
+        <v>0.91339</v>
       </c>
       <c r="C67" t="n">
-        <v>0.903603</v>
+        <v>0.912021</v>
       </c>
       <c r="D67" t="n">
-        <v>0.862107</v>
+        <v>0.867283</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.887682</v>
+        <v>0.90534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.901205</v>
+        <v>0.912296</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8365899999999999</v>
+        <v>0.846807</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.863421</v>
+        <v>0.881499</v>
       </c>
       <c r="C69" t="n">
-        <v>0.848711</v>
+        <v>0.8845190000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.824642</v>
+        <v>0.826893</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.831955</v>
+        <v>0.850962</v>
       </c>
       <c r="C70" t="n">
-        <v>0.829743</v>
+        <v>0.846094</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7946</v>
+        <v>0.794994</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.820404</v>
+        <v>0.821936</v>
       </c>
       <c r="C71" t="n">
-        <v>0.834355</v>
+        <v>0.823834</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7764450000000001</v>
+        <v>0.773326</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.798697</v>
+        <v>0.8085059999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.804969</v>
+        <v>0.797278</v>
       </c>
       <c r="D72" t="n">
-        <v>0.742622</v>
+        <v>0.7629050000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7977610000000001</v>
+        <v>0.788515</v>
       </c>
       <c r="C73" t="n">
-        <v>0.772689</v>
+        <v>0.79311</v>
       </c>
       <c r="D73" t="n">
-        <v>0.74721</v>
+        <v>0.763401</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.768554</v>
+        <v>0.767662</v>
       </c>
       <c r="C74" t="n">
-        <v>0.749654</v>
+        <v>0.769653</v>
       </c>
       <c r="D74" t="n">
-        <v>0.721547</v>
+        <v>0.7155010000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.73976</v>
+        <v>0.744298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.74666</v>
+        <v>0.7404809999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7149450000000001</v>
+        <v>0.698503</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.770952</v>
+        <v>0.748661</v>
       </c>
       <c r="C76" t="n">
-        <v>0.721435</v>
+        <v>0.745593</v>
       </c>
       <c r="D76" t="n">
-        <v>0.676651</v>
+        <v>0.699848</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.743739</v>
+        <v>0.74591</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7232769999999999</v>
+        <v>0.701775</v>
       </c>
       <c r="D77" t="n">
-        <v>0.66388</v>
+        <v>0.658154</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.694287</v>
+        <v>0.717318</v>
       </c>
       <c r="C78" t="n">
-        <v>0.71304</v>
+        <v>0.710859</v>
       </c>
       <c r="D78" t="n">
-        <v>0.678732</v>
+        <v>0.673507</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.697525</v>
+        <v>0.71345</v>
       </c>
       <c r="C79" t="n">
-        <v>0.687575</v>
+        <v>0.66847</v>
       </c>
       <c r="D79" t="n">
-        <v>0.646187</v>
+        <v>0.638745</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.678582</v>
+        <v>0.688115</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03096</v>
+        <v>1.05053</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01378</v>
+        <v>0.998752</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01904</v>
+        <v>1.02738</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03121</v>
+        <v>1.05179</v>
       </c>
       <c r="D81" t="n">
-        <v>0.968662</v>
+        <v>0.9806049999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.999806</v>
+        <v>1.00556</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00408</v>
+        <v>1.02224</v>
       </c>
       <c r="D82" t="n">
-        <v>0.956549</v>
+        <v>0.996713</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.996366</v>
+        <v>1.00512</v>
       </c>
       <c r="C83" t="n">
-        <v>0.972956</v>
+        <v>0.96995</v>
       </c>
       <c r="D83" t="n">
-        <v>0.912502</v>
+        <v>0.930571</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.987937</v>
+        <v>0.973817</v>
       </c>
       <c r="C84" t="n">
-        <v>0.959047</v>
+        <v>0.941671</v>
       </c>
       <c r="D84" t="n">
-        <v>0.889304</v>
+        <v>0.9031979999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.925308</v>
+        <v>0.932924</v>
       </c>
       <c r="C85" t="n">
-        <v>0.935895</v>
+        <v>0.9345909999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.871332</v>
+        <v>0.911496</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.932898</v>
+        <v>0.950793</v>
       </c>
       <c r="C86" t="n">
-        <v>0.905282</v>
+        <v>0.915775</v>
       </c>
       <c r="D86" t="n">
-        <v>0.879538</v>
+        <v>0.888517</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.898104</v>
+        <v>0.919137</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8992520000000001</v>
+        <v>0.8933680000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.837075</v>
+        <v>0.8561029999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.881382</v>
+        <v>0.89607</v>
       </c>
       <c r="C88" t="n">
-        <v>0.857046</v>
+        <v>0.863134</v>
       </c>
       <c r="D88" t="n">
-        <v>0.834014</v>
+        <v>0.827516</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.862637</v>
+        <v>0.866533</v>
       </c>
       <c r="C89" t="n">
-        <v>0.856884</v>
+        <v>0.844406</v>
       </c>
       <c r="D89" t="n">
-        <v>0.803708</v>
+        <v>0.817804</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.865662</v>
+        <v>0.8726699999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.828719</v>
+        <v>0.850722</v>
       </c>
       <c r="D90" t="n">
-        <v>0.787559</v>
+        <v>0.789049</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.848203</v>
+        <v>0.854503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.825062</v>
+        <v>0.831801</v>
       </c>
       <c r="D91" t="n">
-        <v>0.767588</v>
+        <v>0.778315</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.836717</v>
+        <v>0.847981</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8008189999999999</v>
+        <v>0.808319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.765624</v>
+        <v>0.767954</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8188879999999999</v>
+        <v>0.800204</v>
       </c>
       <c r="C93" t="n">
-        <v>0.794493</v>
+        <v>0.7844370000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.751987</v>
+        <v>0.751322</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.816098</v>
+        <v>0.828989</v>
       </c>
       <c r="C94" t="n">
-        <v>1.1348</v>
+        <v>1.14829</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08492</v>
+        <v>1.13599</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13095</v>
+        <v>1.1249</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11957</v>
+        <v>1.13716</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09521</v>
+        <v>1.11018</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.12505</v>
+        <v>1.13795</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07661</v>
+        <v>1.0765</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06391</v>
+        <v>1.06196</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11093</v>
+        <v>1.11499</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07716</v>
+        <v>1.07291</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04293</v>
+        <v>1.04171</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05997</v>
+        <v>1.08717</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05976</v>
+        <v>1.06494</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01412</v>
+        <v>1.04274</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0584</v>
+        <v>1.08942</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00805</v>
+        <v>1.02401</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0038</v>
+        <v>1.00525</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03833</v>
+        <v>1.05807</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00692</v>
+        <v>1.00809</v>
       </c>
       <c r="D100" t="n">
-        <v>0.958642</v>
+        <v>0.9910910000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.06933</v>
+        <v>1.05414</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01935</v>
+        <v>1.01066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.958364</v>
+        <v>0.9783269999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00566</v>
+        <v>1.04563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.992083</v>
+        <v>0.97307</v>
       </c>
       <c r="D102" t="n">
-        <v>0.945253</v>
+        <v>0.964557</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0027</v>
+        <v>1.00685</v>
       </c>
       <c r="C103" t="n">
-        <v>0.978469</v>
+        <v>0.931559</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9242860000000001</v>
+        <v>0.954526</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.967087</v>
+        <v>1.00784</v>
       </c>
       <c r="C104" t="n">
-        <v>0.935176</v>
+        <v>0.947361</v>
       </c>
       <c r="D104" t="n">
-        <v>0.903234</v>
+        <v>0.961023</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.981555</v>
+        <v>0.997386</v>
       </c>
       <c r="C105" t="n">
-        <v>0.928681</v>
+        <v>0.937019</v>
       </c>
       <c r="D105" t="n">
-        <v>0.89012</v>
+        <v>0.907619</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.971697</v>
+        <v>0.989885</v>
       </c>
       <c r="C106" t="n">
-        <v>0.90868</v>
+        <v>0.9038119999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.909815</v>
+        <v>0.874787</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.967354</v>
+        <v>0.968253</v>
       </c>
       <c r="C107" t="n">
-        <v>0.900741</v>
+        <v>0.886504</v>
       </c>
       <c r="D107" t="n">
-        <v>0.862503</v>
+        <v>0.88571</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.952222</v>
+        <v>0.946963</v>
       </c>
       <c r="C108" t="n">
-        <v>1.25355</v>
+        <v>1.27121</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21859</v>
+        <v>1.25782</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.947732</v>
+        <v>0.970843</v>
       </c>
       <c r="C109" t="n">
-        <v>1.22395</v>
+        <v>1.24129</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21294</v>
+        <v>1.26568</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24658</v>
+        <v>1.32765</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22677</v>
+        <v>1.25127</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23264</v>
+        <v>1.20867</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22897</v>
+        <v>1.26154</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24383</v>
+        <v>1.22465</v>
       </c>
       <c r="D111" t="n">
-        <v>1.21814</v>
+        <v>1.22206</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.25212</v>
+        <v>1.2645</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20518</v>
+        <v>1.20719</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18956</v>
+        <v>1.22326</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.22935</v>
+        <v>1.24467</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19632</v>
+        <v>1.21432</v>
       </c>
       <c r="D113" t="n">
-        <v>1.19818</v>
+        <v>1.20602</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2146</v>
+        <v>1.2564</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19487</v>
+        <v>1.18723</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16958</v>
+        <v>1.18683</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.22423</v>
+        <v>1.22577</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15914</v>
+        <v>1.17264</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18119</v>
+        <v>1.16652</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.20405</v>
+        <v>1.19871</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15404</v>
+        <v>1.15337</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12562</v>
+        <v>1.15433</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.21545</v>
+        <v>1.18305</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1469</v>
+        <v>1.15046</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12952</v>
+        <v>1.15321</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.191</v>
+        <v>1.20582</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13151</v>
+        <v>1.13513</v>
       </c>
       <c r="D118" t="n">
-        <v>1.12431</v>
+        <v>1.1477</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19318</v>
+        <v>1.21944</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11289</v>
+        <v>1.11718</v>
       </c>
       <c r="D119" t="n">
-        <v>1.12745</v>
+        <v>1.13125</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.22395</v>
+        <v>1.18301</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12516</v>
+        <v>1.12378</v>
       </c>
       <c r="D120" t="n">
-        <v>1.10922</v>
+        <v>1.0946</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.19731</v>
+        <v>1.16662</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09104</v>
+        <v>1.11365</v>
       </c>
       <c r="D121" t="n">
-        <v>1.10016</v>
+        <v>1.1129</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.18167</v>
+        <v>1.19046</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10359</v>
+        <v>1.10645</v>
       </c>
       <c r="D122" t="n">
-        <v>1.10903</v>
+        <v>1.08722</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15169</v>
+        <v>1.17257</v>
       </c>
       <c r="C123" t="n">
-        <v>1.50324</v>
+        <v>1.5043</v>
       </c>
       <c r="D123" t="n">
-        <v>1.48049</v>
+        <v>1.46625</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.51982</v>
+        <v>1.488</v>
       </c>
       <c r="C124" t="n">
-        <v>1.49244</v>
+        <v>1.46182</v>
       </c>
       <c r="D124" t="n">
-        <v>1.46817</v>
+        <v>1.45179</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.49337</v>
+        <v>1.49745</v>
       </c>
       <c r="C125" t="n">
-        <v>1.46048</v>
+        <v>1.46922</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48575</v>
+        <v>1.45497</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.51539</v>
+        <v>1.49123</v>
       </c>
       <c r="C126" t="n">
-        <v>1.43054</v>
+        <v>1.43735</v>
       </c>
       <c r="D126" t="n">
-        <v>1.449</v>
+        <v>1.43083</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.49012</v>
+        <v>1.46449</v>
       </c>
       <c r="C127" t="n">
-        <v>1.44749</v>
+        <v>1.42958</v>
       </c>
       <c r="D127" t="n">
-        <v>1.448</v>
+        <v>1.46742</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.46953</v>
+        <v>1.47699</v>
       </c>
       <c r="C128" t="n">
-        <v>1.44343</v>
+        <v>1.43993</v>
       </c>
       <c r="D128" t="n">
-        <v>1.4647</v>
+        <v>1.47117</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.46646</v>
+        <v>1.47805</v>
       </c>
       <c r="C129" t="n">
-        <v>1.42581</v>
+        <v>1.43981</v>
       </c>
       <c r="D129" t="n">
-        <v>1.44434</v>
+        <v>1.43669</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.48676</v>
+        <v>1.48517</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42276</v>
+        <v>1.42632</v>
       </c>
       <c r="D130" t="n">
-        <v>1.43747</v>
+        <v>1.43319</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.46524</v>
+        <v>1.47077</v>
       </c>
       <c r="C131" t="n">
-        <v>1.42591</v>
+        <v>1.42214</v>
       </c>
       <c r="D131" t="n">
-        <v>1.4254</v>
+        <v>1.4536</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.46752</v>
+        <v>1.4387</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40506</v>
+        <v>1.42865</v>
       </c>
       <c r="D132" t="n">
-        <v>1.43219</v>
+        <v>1.42644</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.45345</v>
+        <v>1.46395</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40958</v>
+        <v>1.38514</v>
       </c>
       <c r="D133" t="n">
-        <v>1.42351</v>
+        <v>1.41899</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.45915</v>
+        <v>1.4469</v>
       </c>
       <c r="C134" t="n">
-        <v>1.39693</v>
+        <v>1.38502</v>
       </c>
       <c r="D134" t="n">
-        <v>1.43421</v>
+        <v>1.40509</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.45446</v>
+        <v>1.44365</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4046</v>
+        <v>1.39972</v>
       </c>
       <c r="D135" t="n">
-        <v>1.40479</v>
+        <v>1.41356</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.4593</v>
+        <v>1.44331</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39859</v>
+        <v>1.39381</v>
       </c>
       <c r="D136" t="n">
-        <v>1.41766</v>
+        <v>1.41452</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.44268</v>
+        <v>1.43494</v>
       </c>
       <c r="C137" t="n">
-        <v>1.76296</v>
+        <v>1.7828</v>
       </c>
       <c r="D137" t="n">
-        <v>1.76374</v>
+        <v>1.7686</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.76331</v>
+        <v>1.77934</v>
       </c>
       <c r="C138" t="n">
-        <v>1.80029</v>
+        <v>1.78422</v>
       </c>
       <c r="D138" t="n">
-        <v>1.83728</v>
+        <v>1.84978</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.83813</v>
+        <v>1.83005</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80807</v>
+        <v>1.80834</v>
       </c>
       <c r="D139" t="n">
-        <v>1.87296</v>
+        <v>1.82858</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84722</v>
+        <v>1.86271</v>
       </c>
       <c r="C140" t="n">
-        <v>1.84794</v>
+        <v>1.8538</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8633</v>
+        <v>1.87258</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86727</v>
+        <v>1.90502</v>
       </c>
       <c r="C141" t="n">
-        <v>1.81709</v>
+        <v>1.86533</v>
       </c>
       <c r="D141" t="n">
-        <v>1.85598</v>
+        <v>1.90881</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.90203</v>
+        <v>1.89234</v>
       </c>
       <c r="C142" t="n">
-        <v>1.87743</v>
+        <v>1.86345</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87652</v>
+        <v>1.92431</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.9128</v>
+        <v>1.89425</v>
       </c>
       <c r="C143" t="n">
-        <v>1.86936</v>
+        <v>1.87047</v>
       </c>
       <c r="D143" t="n">
-        <v>1.88224</v>
+        <v>1.91537</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.413953</v>
+        <v>0.650342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392347</v>
+        <v>0.577582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35974</v>
+        <v>0.350144</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.351453</v>
+        <v>0.372229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.399768</v>
+        <v>0.398596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.364995</v>
+        <v>0.350174</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.352027</v>
+        <v>0.34891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375527</v>
+        <v>0.384367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339053</v>
+        <v>0.333166</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.346026</v>
+        <v>0.348714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.356584</v>
+        <v>0.371722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.319322</v>
+        <v>0.326912</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.344009</v>
+        <v>0.350454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.354177</v>
+        <v>0.370014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317792</v>
+        <v>0.323107</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.343456</v>
+        <v>0.338205</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348759</v>
+        <v>0.352599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.314625</v>
+        <v>0.32637</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.325295</v>
+        <v>0.32443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.344413</v>
+        <v>0.352467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309464</v>
+        <v>0.306446</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.33857</v>
+        <v>0.323727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.650294</v>
+        <v>0.643025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677774</v>
+        <v>0.683071</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.589324</v>
+        <v>0.591107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.624244</v>
+        <v>0.6375729999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.665165</v>
+        <v>0.669668</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.571273</v>
+        <v>0.579227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.60188</v>
+        <v>0.601121</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6341869999999999</v>
+        <v>0.6480590000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.580707</v>
+        <v>0.550222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.576868</v>
+        <v>0.599868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.591453</v>
+        <v>0.613476</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.553327</v>
+        <v>0.529659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.591288</v>
+        <v>0.588981</v>
       </c>
       <c r="D13" t="n">
-        <v>0.580646</v>
+        <v>0.5950299999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.516312</v>
+        <v>0.520223</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5427959999999999</v>
+        <v>0.540357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.554541</v>
+        <v>0.564717</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.512164</v>
+        <v>0.509083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524517</v>
+        <v>0.535033</v>
       </c>
       <c r="D15" t="n">
-        <v>0.543977</v>
+        <v>0.550374</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487008</v>
+        <v>0.514835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.513166</v>
+        <v>0.520348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.516336</v>
+        <v>0.532713</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467268</v>
+        <v>0.479083</v>
       </c>
       <c r="C17" t="n">
-        <v>0.501308</v>
+        <v>0.506953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.50878</v>
+        <v>0.506412</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.467327</v>
+        <v>0.469246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.488547</v>
+        <v>0.487876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.481096</v>
+        <v>0.5030289999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.466254</v>
+        <v>0.465381</v>
       </c>
       <c r="C19" t="n">
-        <v>0.491363</v>
+        <v>0.475527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.490145</v>
+        <v>0.502705</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.45638</v>
+        <v>0.439389</v>
       </c>
       <c r="C20" t="n">
-        <v>0.459629</v>
+        <v>0.456008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.478404</v>
+        <v>0.467584</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.438169</v>
+        <v>0.452347</v>
       </c>
       <c r="C21" t="n">
-        <v>0.455157</v>
+        <v>0.45071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.440523</v>
+        <v>0.464596</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.443705</v>
+        <v>0.422173</v>
       </c>
       <c r="C22" t="n">
-        <v>0.436631</v>
+        <v>0.447452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.444296</v>
+        <v>0.439044</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417134</v>
+        <v>0.410701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75922</v>
+        <v>0.766751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.743846</v>
+        <v>0.735438</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.69116</v>
+        <v>0.690763</v>
       </c>
       <c r="C24" t="n">
-        <v>0.745542</v>
+        <v>0.750873</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7329560000000001</v>
+        <v>0.58914</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.653791</v>
+        <v>0.681253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7136130000000001</v>
+        <v>0.734714</v>
       </c>
       <c r="D25" t="n">
-        <v>0.677167</v>
+        <v>0.563165</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.66346</v>
+        <v>0.658035</v>
       </c>
       <c r="C26" t="n">
-        <v>0.688159</v>
+        <v>0.676044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.674807</v>
+        <v>0.5451780000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6149520000000001</v>
+        <v>0.646572</v>
       </c>
       <c r="C27" t="n">
-        <v>0.651379</v>
+        <v>0.650848</v>
       </c>
       <c r="D27" t="n">
-        <v>0.641721</v>
+        <v>0.532529</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.61335</v>
+        <v>0.61517</v>
       </c>
       <c r="C28" t="n">
-        <v>0.624295</v>
+        <v>0.648497</v>
       </c>
       <c r="D28" t="n">
-        <v>0.630836</v>
+        <v>0.5261940000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586334</v>
+        <v>0.594549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6369669999999999</v>
+        <v>0.620854</v>
       </c>
       <c r="D29" t="n">
-        <v>0.595841</v>
+        <v>0.510024</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.575357</v>
+        <v>0.60256</v>
       </c>
       <c r="C30" t="n">
-        <v>0.594729</v>
+        <v>0.609361</v>
       </c>
       <c r="D30" t="n">
-        <v>0.570896</v>
+        <v>0.488329</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.551148</v>
+        <v>0.570424</v>
       </c>
       <c r="C31" t="n">
-        <v>0.576912</v>
+        <v>0.585099</v>
       </c>
       <c r="D31" t="n">
-        <v>0.56726</v>
+        <v>0.460817</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.549837</v>
+        <v>0.549511</v>
       </c>
       <c r="C32" t="n">
-        <v>0.548222</v>
+        <v>0.566708</v>
       </c>
       <c r="D32" t="n">
-        <v>0.534601</v>
+        <v>0.466212</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.526105</v>
+        <v>0.533987</v>
       </c>
       <c r="C33" t="n">
-        <v>0.541138</v>
+        <v>0.547991</v>
       </c>
       <c r="D33" t="n">
-        <v>0.520023</v>
+        <v>0.445757</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5170709999999999</v>
+        <v>0.529939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.542614</v>
+        <v>0.5313639999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.510613</v>
+        <v>0.430708</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.503397</v>
+        <v>0.505059</v>
       </c>
       <c r="C35" t="n">
-        <v>0.517212</v>
+        <v>0.5104070000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.505959</v>
+        <v>0.41459</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.501853</v>
+        <v>0.50871</v>
       </c>
       <c r="C36" t="n">
-        <v>0.50183</v>
+        <v>0.508667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.503248</v>
+        <v>0.418762</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.494947</v>
+        <v>0.468321</v>
       </c>
       <c r="C37" t="n">
-        <v>0.828135</v>
+        <v>0.837518</v>
       </c>
       <c r="D37" t="n">
-        <v>0.796859</v>
+        <v>0.718462</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.747771</v>
+        <v>0.756594</v>
       </c>
       <c r="C38" t="n">
-        <v>0.803646</v>
+        <v>0.7738350000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7665419999999999</v>
+        <v>0.683157</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.716861</v>
+        <v>0.733229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.753335</v>
+        <v>0.784223</v>
       </c>
       <c r="D39" t="n">
-        <v>0.738802</v>
+        <v>0.68664</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692611</v>
+        <v>0.722542</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7416779999999999</v>
+        <v>0.735686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.698079</v>
+        <v>0.661438</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.702828</v>
+        <v>0.707768</v>
       </c>
       <c r="C41" t="n">
-        <v>0.716221</v>
+        <v>0.706409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.687904</v>
+        <v>0.645195</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6718460000000001</v>
+        <v>0.670265</v>
       </c>
       <c r="C42" t="n">
-        <v>0.686953</v>
+        <v>0.671394</v>
       </c>
       <c r="D42" t="n">
-        <v>0.652123</v>
+        <v>0.590971</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.668152</v>
+        <v>0.655924</v>
       </c>
       <c r="C43" t="n">
-        <v>0.669315</v>
+        <v>0.657397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.644102</v>
+        <v>0.600669</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.633953</v>
+        <v>0.651999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.635418</v>
+        <v>0.644321</v>
       </c>
       <c r="D44" t="n">
-        <v>0.624178</v>
+        <v>0.57082</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.639099</v>
+        <v>0.599245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.639051</v>
+        <v>0.636445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.602619</v>
+        <v>0.565087</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.610393</v>
+        <v>0.578989</v>
       </c>
       <c r="C46" t="n">
-        <v>0.600422</v>
+        <v>0.6115</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567779</v>
+        <v>0.550249</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.590302</v>
+        <v>0.596082</v>
       </c>
       <c r="C47" t="n">
-        <v>0.58692</v>
+        <v>0.590487</v>
       </c>
       <c r="D47" t="n">
-        <v>0.563349</v>
+        <v>0.520163</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.570512</v>
+        <v>0.576897</v>
       </c>
       <c r="C48" t="n">
-        <v>0.573717</v>
+        <v>0.585165</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5404369999999999</v>
+        <v>0.501735</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.559632</v>
+        <v>0.554941</v>
       </c>
       <c r="C49" t="n">
-        <v>0.55794</v>
+        <v>0.566708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.530758</v>
+        <v>0.510505</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.540077</v>
+        <v>0.545492</v>
       </c>
       <c r="C50" t="n">
-        <v>0.565148</v>
+        <v>0.555243</v>
       </c>
       <c r="D50" t="n">
-        <v>0.511589</v>
+        <v>0.505905</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.565693</v>
+        <v>0.522516</v>
       </c>
       <c r="C51" t="n">
-        <v>0.859775</v>
+        <v>0.8751989999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.809768</v>
+        <v>0.809109</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.535565</v>
+        <v>0.53101</v>
       </c>
       <c r="C52" t="n">
-        <v>0.83589</v>
+        <v>0.853866</v>
       </c>
       <c r="D52" t="n">
-        <v>0.780565</v>
+        <v>0.789682</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808912</v>
+        <v>0.800674</v>
       </c>
       <c r="C53" t="n">
-        <v>0.832116</v>
+        <v>0.830703</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7791360000000001</v>
+        <v>0.766815</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.795714</v>
+        <v>0.845542</v>
       </c>
       <c r="C54" t="n">
-        <v>0.798871</v>
+        <v>0.8419410000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.747615</v>
+        <v>0.756536</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.760975</v>
+        <v>0.750699</v>
       </c>
       <c r="C55" t="n">
-        <v>0.765528</v>
+        <v>0.7891010000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.722417</v>
+        <v>0.721328</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.753486</v>
+        <v>0.763711</v>
       </c>
       <c r="C56" t="n">
-        <v>0.737519</v>
+        <v>0.769474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7379869999999999</v>
+        <v>0.69908</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.704353</v>
+        <v>0.741123</v>
       </c>
       <c r="C57" t="n">
-        <v>0.734382</v>
+        <v>0.730034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.693192</v>
+        <v>0.69721</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.713649</v>
+        <v>0.714259</v>
       </c>
       <c r="C58" t="n">
-        <v>0.706817</v>
+        <v>0.723794</v>
       </c>
       <c r="D58" t="n">
-        <v>0.654992</v>
+        <v>0.652966</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.687792</v>
+        <v>0.6973549999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.696088</v>
+        <v>0.704676</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6575</v>
+        <v>0.646545</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.690486</v>
+        <v>0.685742</v>
       </c>
       <c r="C60" t="n">
-        <v>0.673838</v>
+        <v>0.695698</v>
       </c>
       <c r="D60" t="n">
-        <v>0.637222</v>
+        <v>0.623916</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.674015</v>
+        <v>0.6935210000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.671049</v>
+        <v>0.675104</v>
       </c>
       <c r="D61" t="n">
-        <v>0.620997</v>
+        <v>0.620969</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.635893</v>
+        <v>0.651902</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639275</v>
+        <v>0.655165</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6015509999999999</v>
+        <v>0.593263</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.648331</v>
+        <v>0.635975</v>
       </c>
       <c r="C63" t="n">
-        <v>0.623736</v>
+        <v>0.64013</v>
       </c>
       <c r="D63" t="n">
-        <v>0.591769</v>
+        <v>0.584439</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.631042</v>
+        <v>0.639485</v>
       </c>
       <c r="C64" t="n">
-        <v>0.612997</v>
+        <v>0.630922</v>
       </c>
       <c r="D64" t="n">
-        <v>0.575218</v>
+        <v>0.566416</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.631026</v>
+        <v>0.623076</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6085</v>
+        <v>0.62348</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5576</v>
+        <v>0.565617</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.615301</v>
+        <v>0.592551</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9912840000000001</v>
+        <v>0.940836</v>
       </c>
       <c r="D66" t="n">
-        <v>0.898326</v>
+        <v>0.87974</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.91339</v>
+        <v>0.9272629999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.912021</v>
+        <v>0.9188499999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.867283</v>
+        <v>0.87381</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.90534</v>
+        <v>0.885619</v>
       </c>
       <c r="C68" t="n">
-        <v>0.912296</v>
+        <v>0.91185</v>
       </c>
       <c r="D68" t="n">
-        <v>0.846807</v>
+        <v>0.841354</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.881499</v>
+        <v>0.87731</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8845190000000001</v>
+        <v>0.887581</v>
       </c>
       <c r="D69" t="n">
-        <v>0.826893</v>
+        <v>0.833199</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.850962</v>
+        <v>0.837719</v>
       </c>
       <c r="C70" t="n">
-        <v>0.846094</v>
+        <v>0.848924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.794994</v>
+        <v>0.824068</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.821936</v>
+        <v>0.8372849999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.823834</v>
+        <v>0.831268</v>
       </c>
       <c r="D71" t="n">
-        <v>0.773326</v>
+        <v>0.779047</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8085059999999999</v>
+        <v>0.846494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.797278</v>
+        <v>0.820569</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7629050000000001</v>
+        <v>0.75463</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.788515</v>
+        <v>0.7851359999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.79311</v>
+        <v>0.801837</v>
       </c>
       <c r="D73" t="n">
-        <v>0.763401</v>
+        <v>0.74408</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.767662</v>
+        <v>0.805125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.769653</v>
+        <v>0.755446</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7155010000000001</v>
+        <v>0.719364</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.744298</v>
+        <v>0.781681</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7404809999999999</v>
+        <v>0.756053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.698503</v>
+        <v>0.7143929999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.748661</v>
+        <v>0.748382</v>
       </c>
       <c r="C76" t="n">
-        <v>0.745593</v>
+        <v>0.727117</v>
       </c>
       <c r="D76" t="n">
-        <v>0.699848</v>
+        <v>0.693363</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.74591</v>
+        <v>0.755737</v>
       </c>
       <c r="C77" t="n">
-        <v>0.701775</v>
+        <v>0.717656</v>
       </c>
       <c r="D77" t="n">
-        <v>0.658154</v>
+        <v>0.694693</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.717318</v>
+        <v>0.74393</v>
       </c>
       <c r="C78" t="n">
-        <v>0.710859</v>
+        <v>0.702713</v>
       </c>
       <c r="D78" t="n">
-        <v>0.673507</v>
+        <v>0.665117</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.71345</v>
+        <v>0.7071730000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66847</v>
+        <v>0.684482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638745</v>
+        <v>0.63912</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.688115</v>
+        <v>0.696295</v>
       </c>
       <c r="C80" t="n">
-        <v>1.05053</v>
+        <v>1.05119</v>
       </c>
       <c r="D80" t="n">
-        <v>0.998752</v>
+        <v>1.01194</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02738</v>
+        <v>1.02626</v>
       </c>
       <c r="C81" t="n">
-        <v>1.05179</v>
+        <v>1.02722</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9806049999999999</v>
+        <v>0.9657790000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00556</v>
+        <v>1.01646</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02224</v>
+        <v>0.981257</v>
       </c>
       <c r="D82" t="n">
-        <v>0.996713</v>
+        <v>0.928112</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00512</v>
+        <v>0.983203</v>
       </c>
       <c r="C83" t="n">
-        <v>0.96995</v>
+        <v>0.984253</v>
       </c>
       <c r="D83" t="n">
-        <v>0.930571</v>
+        <v>0.949942</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.973817</v>
+        <v>0.966109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.941671</v>
+        <v>0.962962</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9031979999999999</v>
+        <v>0.9023369999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.932924</v>
+        <v>0.930627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9345909999999999</v>
+        <v>0.9161280000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.911496</v>
+        <v>0.878628</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950793</v>
+        <v>0.915293</v>
       </c>
       <c r="C86" t="n">
-        <v>0.915775</v>
+        <v>0.903731</v>
       </c>
       <c r="D86" t="n">
-        <v>0.888517</v>
+        <v>0.858642</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.919137</v>
+        <v>0.914181</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8933680000000001</v>
+        <v>0.88719</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8561029999999999</v>
+        <v>0.851486</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.89607</v>
+        <v>0.889441</v>
       </c>
       <c r="C88" t="n">
-        <v>0.863134</v>
+        <v>0.85963</v>
       </c>
       <c r="D88" t="n">
-        <v>0.827516</v>
+        <v>0.807029</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.866533</v>
+        <v>0.892302</v>
       </c>
       <c r="C89" t="n">
-        <v>0.844406</v>
+        <v>0.854183</v>
       </c>
       <c r="D89" t="n">
-        <v>0.817804</v>
+        <v>0.819033</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8726699999999999</v>
+        <v>0.870961</v>
       </c>
       <c r="C90" t="n">
-        <v>0.850722</v>
+        <v>0.808429</v>
       </c>
       <c r="D90" t="n">
-        <v>0.789049</v>
+        <v>0.794759</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.854503</v>
+        <v>0.844477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.831801</v>
+        <v>0.809606</v>
       </c>
       <c r="D91" t="n">
-        <v>0.778315</v>
+        <v>0.76745</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.847981</v>
+        <v>0.811344</v>
       </c>
       <c r="C92" t="n">
-        <v>0.808319</v>
+        <v>0.795875</v>
       </c>
       <c r="D92" t="n">
-        <v>0.767954</v>
+        <v>0.7567390000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.800204</v>
+        <v>0.823122</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7844370000000001</v>
+        <v>0.799338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.751322</v>
+        <v>0.754236</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.828989</v>
+        <v>0.786016</v>
       </c>
       <c r="C94" t="n">
-        <v>1.14829</v>
+        <v>1.1554</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13599</v>
+        <v>1.11615</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1249</v>
+        <v>1.1184</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13716</v>
+        <v>1.12145</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11018</v>
+        <v>1.10149</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.13795</v>
+        <v>1.11247</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0765</v>
+        <v>1.1046</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06196</v>
+        <v>1.10175</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11499</v>
+        <v>1.0733</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07291</v>
+        <v>1.05784</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04171</v>
+        <v>1.04168</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.08717</v>
+        <v>1.09364</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06494</v>
+        <v>1.05486</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04274</v>
+        <v>1.02205</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.08942</v>
+        <v>1.07389</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02401</v>
+        <v>1.04004</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00525</v>
+        <v>1.00501</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.05807</v>
+        <v>1.03667</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00809</v>
+        <v>1.02344</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9910910000000001</v>
+        <v>0.989472</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05414</v>
+        <v>1.04921</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01066</v>
+        <v>1.00363</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9783269999999999</v>
+        <v>0.979939</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04563</v>
+        <v>1.00476</v>
       </c>
       <c r="C102" t="n">
-        <v>0.97307</v>
+        <v>0.980877</v>
       </c>
       <c r="D102" t="n">
-        <v>0.964557</v>
+        <v>0.920007</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.00685</v>
+        <v>1.01688</v>
       </c>
       <c r="C103" t="n">
-        <v>0.931559</v>
+        <v>0.991518</v>
       </c>
       <c r="D103" t="n">
-        <v>0.954526</v>
+        <v>0.945106</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.00784</v>
+        <v>1.03054</v>
       </c>
       <c r="C104" t="n">
-        <v>0.947361</v>
+        <v>0.943674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.961023</v>
+        <v>0.921897</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.997386</v>
+        <v>0.972454</v>
       </c>
       <c r="C105" t="n">
-        <v>0.937019</v>
+        <v>0.9485479999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.907619</v>
+        <v>0.920444</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.989885</v>
+        <v>0.958529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9038119999999999</v>
+        <v>0.92907</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874787</v>
+        <v>0.897292</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.968253</v>
+        <v>0.966935</v>
       </c>
       <c r="C107" t="n">
-        <v>0.886504</v>
+        <v>0.924695</v>
       </c>
       <c r="D107" t="n">
-        <v>0.88571</v>
+        <v>0.871266</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.946963</v>
+        <v>0.959615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.27121</v>
+        <v>1.3091</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25782</v>
+        <v>1.2476</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.970843</v>
+        <v>0.924129</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24129</v>
+        <v>1.26794</v>
       </c>
       <c r="D109" t="n">
-        <v>1.26568</v>
+        <v>1.25299</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32765</v>
+        <v>1.2867</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25127</v>
+        <v>1.24348</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20867</v>
+        <v>1.21846</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26154</v>
+        <v>1.27932</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22465</v>
+        <v>1.2458</v>
       </c>
       <c r="D111" t="n">
-        <v>1.22206</v>
+        <v>1.22913</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.2645</v>
+        <v>1.26768</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20719</v>
+        <v>1.23426</v>
       </c>
       <c r="D112" t="n">
-        <v>1.22326</v>
+        <v>1.20634</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.24467</v>
+        <v>1.23662</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21432</v>
+        <v>1.21975</v>
       </c>
       <c r="D113" t="n">
-        <v>1.20602</v>
+        <v>1.21275</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2564</v>
+        <v>1.23527</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18723</v>
+        <v>1.18656</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18683</v>
+        <v>1.16538</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.22577</v>
+        <v>1.24083</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17264</v>
+        <v>1.15496</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16652</v>
+        <v>1.17617</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.19871</v>
+        <v>1.1873</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15337</v>
+        <v>1.16376</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15433</v>
+        <v>1.16833</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18305</v>
+        <v>1.21689</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15046</v>
+        <v>1.15952</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15321</v>
+        <v>1.14934</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.20582</v>
+        <v>1.20511</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13513</v>
+        <v>1.12946</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1477</v>
+        <v>1.12915</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21944</v>
+        <v>1.20385</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11718</v>
+        <v>1.13655</v>
       </c>
       <c r="D119" t="n">
-        <v>1.13125</v>
+        <v>1.1393</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.18301</v>
+        <v>1.18107</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12378</v>
+        <v>1.12314</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0946</v>
+        <v>1.11934</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16662</v>
+        <v>1.19707</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11365</v>
+        <v>1.132</v>
       </c>
       <c r="D121" t="n">
-        <v>1.1129</v>
+        <v>1.12627</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.19046</v>
+        <v>1.1689</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10645</v>
+        <v>1.11762</v>
       </c>
       <c r="D122" t="n">
-        <v>1.08722</v>
+        <v>1.12255</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17257</v>
+        <v>1.19532</v>
       </c>
       <c r="C123" t="n">
-        <v>1.5043</v>
+        <v>1.51149</v>
       </c>
       <c r="D123" t="n">
-        <v>1.46625</v>
+        <v>1.48384</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.488</v>
+        <v>1.52763</v>
       </c>
       <c r="C124" t="n">
-        <v>1.46182</v>
+        <v>1.4683</v>
       </c>
       <c r="D124" t="n">
-        <v>1.45179</v>
+        <v>1.45485</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.49745</v>
+        <v>1.5015</v>
       </c>
       <c r="C125" t="n">
-        <v>1.46922</v>
+        <v>1.46643</v>
       </c>
       <c r="D125" t="n">
-        <v>1.45497</v>
+        <v>1.46395</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.49123</v>
+        <v>1.53428</v>
       </c>
       <c r="C126" t="n">
-        <v>1.43735</v>
+        <v>1.46863</v>
       </c>
       <c r="D126" t="n">
-        <v>1.43083</v>
+        <v>1.47026</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.46449</v>
+        <v>1.50097</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42958</v>
+        <v>1.45632</v>
       </c>
       <c r="D127" t="n">
-        <v>1.46742</v>
+        <v>1.45886</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.47699</v>
+        <v>1.48636</v>
       </c>
       <c r="C128" t="n">
-        <v>1.43993</v>
+        <v>1.43839</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47117</v>
+        <v>1.45651</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.47805</v>
+        <v>1.50936</v>
       </c>
       <c r="C129" t="n">
-        <v>1.43981</v>
+        <v>1.44263</v>
       </c>
       <c r="D129" t="n">
-        <v>1.43669</v>
+        <v>1.45392</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.48517</v>
+        <v>1.47396</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42632</v>
+        <v>1.43124</v>
       </c>
       <c r="D130" t="n">
-        <v>1.43319</v>
+        <v>1.45879</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.47077</v>
+        <v>1.46275</v>
       </c>
       <c r="C131" t="n">
-        <v>1.42214</v>
+        <v>1.431</v>
       </c>
       <c r="D131" t="n">
-        <v>1.4536</v>
+        <v>1.45284</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.4387</v>
+        <v>1.47763</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42865</v>
+        <v>1.43324</v>
       </c>
       <c r="D132" t="n">
-        <v>1.42644</v>
+        <v>1.4421</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.46395</v>
+        <v>1.46467</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38514</v>
+        <v>1.40056</v>
       </c>
       <c r="D133" t="n">
-        <v>1.41899</v>
+        <v>1.43925</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4469</v>
+        <v>1.45303</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38502</v>
+        <v>1.4292</v>
       </c>
       <c r="D134" t="n">
-        <v>1.40509</v>
+        <v>1.42515</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.44365</v>
+        <v>1.46429</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39972</v>
+        <v>1.41482</v>
       </c>
       <c r="D135" t="n">
-        <v>1.41356</v>
+        <v>1.4247</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.44331</v>
+        <v>1.44623</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39381</v>
+        <v>1.41515</v>
       </c>
       <c r="D136" t="n">
-        <v>1.41452</v>
+        <v>1.43201</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.43494</v>
+        <v>1.45792</v>
       </c>
       <c r="C137" t="n">
-        <v>1.7828</v>
+        <v>1.79163</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7686</v>
+        <v>1.80012</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.77934</v>
+        <v>1.81385</v>
       </c>
       <c r="C138" t="n">
-        <v>1.78422</v>
+        <v>1.82069</v>
       </c>
       <c r="D138" t="n">
-        <v>1.84978</v>
+        <v>1.83757</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.83005</v>
+        <v>1.85665</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80834</v>
+        <v>1.83508</v>
       </c>
       <c r="D139" t="n">
-        <v>1.82858</v>
+        <v>1.88435</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86271</v>
+        <v>1.88565</v>
       </c>
       <c r="C140" t="n">
-        <v>1.8538</v>
+        <v>1.84537</v>
       </c>
       <c r="D140" t="n">
-        <v>1.87258</v>
+        <v>1.91327</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.90502</v>
+        <v>1.9347</v>
       </c>
       <c r="C141" t="n">
-        <v>1.86533</v>
+        <v>1.8804</v>
       </c>
       <c r="D141" t="n">
-        <v>1.90881</v>
+        <v>1.90785</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.89234</v>
+        <v>1.91813</v>
       </c>
       <c r="C142" t="n">
-        <v>1.86345</v>
+        <v>1.87859</v>
       </c>
       <c r="D142" t="n">
-        <v>1.92431</v>
+        <v>1.88918</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.89425</v>
+        <v>1.91413</v>
       </c>
       <c r="C143" t="n">
-        <v>1.87047</v>
+        <v>1.88658</v>
       </c>
       <c r="D143" t="n">
-        <v>1.91537</v>
+        <v>1.91063</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64867</v>
+        <v>0.642309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.501187</v>
+        <v>0.600909</v>
       </c>
       <c r="D2" t="n">
-        <v>1.00516</v>
+        <v>1.08722</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.355148</v>
+        <v>0.385222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.323386</v>
+        <v>0.400299</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01029</v>
+        <v>1.0773</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.355874</v>
+        <v>0.357192</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308835</v>
+        <v>0.385674</v>
       </c>
       <c r="D4" t="n">
-        <v>1.00145</v>
+        <v>1.02545</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.345826</v>
+        <v>0.367253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.314316</v>
+        <v>0.364875</v>
       </c>
       <c r="D5" t="n">
-        <v>1.01335</v>
+        <v>1.00682</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.342526</v>
+        <v>0.341329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296245</v>
+        <v>0.374987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.986376</v>
+        <v>1.06078</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332567</v>
+        <v>0.347178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293905</v>
+        <v>0.359268</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17374</v>
+        <v>1.25102</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.325278</v>
+        <v>0.32719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.290106</v>
+        <v>0.354165</v>
       </c>
       <c r="D8" t="n">
-        <v>1.13566</v>
+        <v>1.24624</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.330554</v>
+        <v>0.335712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.559222</v>
+        <v>0.658662</v>
       </c>
       <c r="D9" t="n">
-        <v>1.10925</v>
+        <v>1.1928</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.58108</v>
+        <v>0.572666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.541708</v>
+        <v>0.6284960000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.09684</v>
+        <v>1.24632</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5643049999999999</v>
+        <v>0.584186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.515517</v>
+        <v>0.621408</v>
       </c>
       <c r="D11" t="n">
-        <v>1.07668</v>
+        <v>1.22719</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.545598</v>
+        <v>0.553885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.499344</v>
+        <v>0.574236</v>
       </c>
       <c r="D12" t="n">
-        <v>1.07779</v>
+        <v>1.16515</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.525419</v>
+        <v>0.5524250000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.482646</v>
+        <v>0.577717</v>
       </c>
       <c r="D13" t="n">
-        <v>1.05707</v>
+        <v>1.11636</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.519657</v>
+        <v>0.5272210000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478531</v>
+        <v>0.553961</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05989</v>
+        <v>1.12218</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.513703</v>
+        <v>0.501166</v>
       </c>
       <c r="C15" t="n">
-        <v>0.455902</v>
+        <v>0.522247</v>
       </c>
       <c r="D15" t="n">
-        <v>1.04674</v>
+        <v>1.10531</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.492755</v>
+        <v>0.502534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453389</v>
+        <v>0.509211</v>
       </c>
       <c r="D16" t="n">
-        <v>1.00999</v>
+        <v>1.09654</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.492834</v>
+        <v>0.479171</v>
       </c>
       <c r="C17" t="n">
-        <v>0.436653</v>
+        <v>0.483815</v>
       </c>
       <c r="D17" t="n">
-        <v>1.02216</v>
+        <v>1.08615</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.478619</v>
+        <v>0.472373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406722</v>
+        <v>0.488187</v>
       </c>
       <c r="D18" t="n">
-        <v>1.00838</v>
+        <v>1.06336</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464204</v>
+        <v>0.461116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.400162</v>
+        <v>0.465306</v>
       </c>
       <c r="D19" t="n">
-        <v>1.00692</v>
+        <v>1.05984</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442532</v>
+        <v>0.448876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.39869</v>
+        <v>0.471247</v>
       </c>
       <c r="D20" t="n">
-        <v>0.989223</v>
+        <v>1.00745</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429345</v>
+        <v>0.429127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.379109</v>
+        <v>0.460938</v>
       </c>
       <c r="D21" t="n">
-        <v>1.17467</v>
+        <v>1.29516</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422147</v>
+        <v>0.422111</v>
       </c>
       <c r="C22" t="n">
-        <v>0.389135</v>
+        <v>0.443478</v>
       </c>
       <c r="D22" t="n">
-        <v>1.19828</v>
+        <v>1.22197</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430282</v>
+        <v>0.427878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.67444</v>
+        <v>0.782847</v>
       </c>
       <c r="D23" t="n">
-        <v>1.16492</v>
+        <v>1.20574</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6882819999999999</v>
+        <v>0.702773</v>
       </c>
       <c r="C24" t="n">
-        <v>0.617725</v>
+        <v>0.7204660000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13589</v>
+        <v>1.21074</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.67626</v>
+        <v>0.6817879999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621221</v>
+        <v>0.701035</v>
       </c>
       <c r="D25" t="n">
-        <v>1.1356</v>
+        <v>1.18357</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.648525</v>
+        <v>0.6418509999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.604287</v>
+        <v>0.698614</v>
       </c>
       <c r="D26" t="n">
-        <v>1.11216</v>
+        <v>1.18841</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.63091</v>
+        <v>0.637378</v>
       </c>
       <c r="C27" t="n">
-        <v>0.574998</v>
+        <v>0.667308</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0965</v>
+        <v>1.18606</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.61481</v>
+        <v>0.606744</v>
       </c>
       <c r="C28" t="n">
-        <v>0.561101</v>
+        <v>0.656096</v>
       </c>
       <c r="D28" t="n">
-        <v>1.10325</v>
+        <v>1.17008</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.597082</v>
+        <v>0.583267</v>
       </c>
       <c r="C29" t="n">
-        <v>0.538198</v>
+        <v>0.624069</v>
       </c>
       <c r="D29" t="n">
-        <v>1.08895</v>
+        <v>1.17895</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.579329</v>
+        <v>0.570562</v>
       </c>
       <c r="C30" t="n">
-        <v>0.526816</v>
+        <v>0.587473</v>
       </c>
       <c r="D30" t="n">
-        <v>1.14687</v>
+        <v>1.18723</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.555011</v>
+        <v>0.585023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.515141</v>
+        <v>0.572677</v>
       </c>
       <c r="D31" t="n">
-        <v>1.12689</v>
+        <v>1.12728</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.540635</v>
+        <v>0.5388309999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484388</v>
+        <v>0.557644</v>
       </c>
       <c r="D32" t="n">
-        <v>1.14262</v>
+        <v>1.1844</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.52103</v>
+        <v>0.535922</v>
       </c>
       <c r="C33" t="n">
-        <v>0.483045</v>
+        <v>0.552575</v>
       </c>
       <c r="D33" t="n">
-        <v>1.09399</v>
+        <v>1.13868</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.520343</v>
+        <v>0.518931</v>
       </c>
       <c r="C34" t="n">
-        <v>0.465342</v>
+        <v>0.525085</v>
       </c>
       <c r="D34" t="n">
-        <v>1.06888</v>
+        <v>1.14864</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506706</v>
+        <v>0.495073</v>
       </c>
       <c r="C35" t="n">
-        <v>0.451747</v>
+        <v>0.522587</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33599</v>
+        <v>1.37233</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.488498</v>
+        <v>0.504044</v>
       </c>
       <c r="C36" t="n">
-        <v>0.44863</v>
+        <v>0.511004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.27822</v>
+        <v>1.29969</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493096</v>
+        <v>0.49286</v>
       </c>
       <c r="C37" t="n">
-        <v>0.714579</v>
+        <v>0.810588</v>
       </c>
       <c r="D37" t="n">
-        <v>1.33049</v>
+        <v>1.30119</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.755096</v>
+        <v>0.748557</v>
       </c>
       <c r="C38" t="n">
-        <v>0.706601</v>
+        <v>0.784463</v>
       </c>
       <c r="D38" t="n">
-        <v>1.29805</v>
+        <v>1.29114</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.734691</v>
+        <v>0.766998</v>
       </c>
       <c r="C39" t="n">
-        <v>0.681496</v>
+        <v>0.790698</v>
       </c>
       <c r="D39" t="n">
-        <v>1.22913</v>
+        <v>1.27299</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.723542</v>
+        <v>0.708071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.641622</v>
+        <v>0.735633</v>
       </c>
       <c r="D40" t="n">
-        <v>1.22894</v>
+        <v>1.28212</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.701542</v>
+        <v>0.717841</v>
       </c>
       <c r="C41" t="n">
-        <v>0.62454</v>
+        <v>0.708496</v>
       </c>
       <c r="D41" t="n">
-        <v>1.23857</v>
+        <v>1.31078</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.679708</v>
+        <v>0.690998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.601149</v>
+        <v>0.694557</v>
       </c>
       <c r="D42" t="n">
-        <v>1.18493</v>
+        <v>1.2363</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.656714</v>
+        <v>0.669775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.591932</v>
+        <v>0.659219</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1654</v>
+        <v>1.226</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.627715</v>
+        <v>0.670363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.568989</v>
+        <v>0.644841</v>
       </c>
       <c r="D44" t="n">
-        <v>1.18569</v>
+        <v>1.19897</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.629678</v>
+        <v>0.640312</v>
       </c>
       <c r="C45" t="n">
-        <v>0.545337</v>
+        <v>0.620662</v>
       </c>
       <c r="D45" t="n">
-        <v>1.13506</v>
+        <v>1.19781</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5867329999999999</v>
+        <v>0.594788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5319739999999999</v>
+        <v>0.586824</v>
       </c>
       <c r="D46" t="n">
-        <v>1.17749</v>
+        <v>1.22068</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.587579</v>
+        <v>0.608093</v>
       </c>
       <c r="C47" t="n">
-        <v>0.516062</v>
+        <v>0.589108</v>
       </c>
       <c r="D47" t="n">
-        <v>1.14766</v>
+        <v>1.19973</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.561113</v>
+        <v>0.574074</v>
       </c>
       <c r="C48" t="n">
-        <v>0.503443</v>
+        <v>0.583334</v>
       </c>
       <c r="D48" t="n">
-        <v>1.16266</v>
+        <v>1.20736</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.565897</v>
+        <v>0.556132</v>
       </c>
       <c r="C49" t="n">
-        <v>0.489192</v>
+        <v>0.5570580000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>1.16662</v>
+        <v>1.17834</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.540829</v>
+        <v>0.535992</v>
       </c>
       <c r="C50" t="n">
-        <v>0.47229</v>
+        <v>0.542682</v>
       </c>
       <c r="D50" t="n">
-        <v>1.60554</v>
+        <v>1.71477</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.536694</v>
+        <v>0.544203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.765861</v>
+        <v>0.878158</v>
       </c>
       <c r="D51" t="n">
-        <v>1.58721</v>
+        <v>1.64451</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5225880000000001</v>
+        <v>0.526753</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7443689999999999</v>
+        <v>0.851925</v>
       </c>
       <c r="D52" t="n">
-        <v>1.56813</v>
+        <v>1.60921</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.801135</v>
+        <v>0.804107</v>
       </c>
       <c r="C53" t="n">
-        <v>0.724945</v>
+        <v>0.825675</v>
       </c>
       <c r="D53" t="n">
-        <v>1.60982</v>
+        <v>1.6441</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.765942</v>
+        <v>0.78364</v>
       </c>
       <c r="C54" t="n">
-        <v>0.704608</v>
+        <v>0.79034</v>
       </c>
       <c r="D54" t="n">
-        <v>1.5321</v>
+        <v>1.6063</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.751922</v>
+        <v>0.770488</v>
       </c>
       <c r="C55" t="n">
-        <v>0.699606</v>
+        <v>0.781334</v>
       </c>
       <c r="D55" t="n">
-        <v>1.50738</v>
+        <v>1.57845</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.742927</v>
+        <v>0.745076</v>
       </c>
       <c r="C56" t="n">
-        <v>0.66723</v>
+        <v>0.755101</v>
       </c>
       <c r="D56" t="n">
-        <v>1.51365</v>
+        <v>1.62665</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.724523</v>
+        <v>0.744717</v>
       </c>
       <c r="C57" t="n">
-        <v>0.664941</v>
+        <v>0.756522</v>
       </c>
       <c r="D57" t="n">
-        <v>1.50849</v>
+        <v>1.58227</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.708995</v>
+        <v>0.723889</v>
       </c>
       <c r="C58" t="n">
-        <v>0.635728</v>
+        <v>0.725782</v>
       </c>
       <c r="D58" t="n">
-        <v>1.48008</v>
+        <v>1.5447</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.679778</v>
+        <v>0.699654</v>
       </c>
       <c r="C59" t="n">
-        <v>0.615757</v>
+        <v>0.692333</v>
       </c>
       <c r="D59" t="n">
-        <v>1.48183</v>
+        <v>1.52602</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.666996</v>
+        <v>0.703068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.600214</v>
+        <v>0.678331</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52174</v>
+        <v>1.53412</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.644557</v>
+        <v>0.635767</v>
       </c>
       <c r="C61" t="n">
-        <v>0.602396</v>
+        <v>0.648749</v>
       </c>
       <c r="D61" t="n">
-        <v>1.48067</v>
+        <v>1.54264</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.644644</v>
+        <v>0.655394</v>
       </c>
       <c r="C62" t="n">
-        <v>0.570693</v>
+        <v>0.663795</v>
       </c>
       <c r="D62" t="n">
-        <v>1.45572</v>
+        <v>1.55577</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.623396</v>
+        <v>0.641508</v>
       </c>
       <c r="C63" t="n">
-        <v>0.559925</v>
+        <v>0.63226</v>
       </c>
       <c r="D63" t="n">
-        <v>1.4285</v>
+        <v>1.53531</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.626897</v>
+        <v>0.628698</v>
       </c>
       <c r="C64" t="n">
-        <v>0.558266</v>
+        <v>0.623389</v>
       </c>
       <c r="D64" t="n">
-        <v>2.3904</v>
+        <v>2.61239</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6075430000000001</v>
+        <v>0.611667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.549807</v>
+        <v>0.617753</v>
       </c>
       <c r="D65" t="n">
-        <v>2.33715</v>
+        <v>2.51664</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.594684</v>
+        <v>0.6088170000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.857312</v>
+        <v>1.00521</v>
       </c>
       <c r="D66" t="n">
-        <v>2.26568</v>
+        <v>2.39088</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.90001</v>
+        <v>0.923822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.808724</v>
+        <v>0.948174</v>
       </c>
       <c r="D67" t="n">
-        <v>2.14939</v>
+        <v>2.33887</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.873965</v>
+        <v>0.88889</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8006490000000001</v>
+        <v>0.884388</v>
       </c>
       <c r="D68" t="n">
-        <v>2.20241</v>
+        <v>2.40131</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.859322</v>
+        <v>0.879053</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7727540000000001</v>
+        <v>0.878267</v>
       </c>
       <c r="D69" t="n">
-        <v>2.122</v>
+        <v>2.32255</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8363699999999999</v>
+        <v>0.867523</v>
       </c>
       <c r="C70" t="n">
-        <v>0.74191</v>
+        <v>0.85663</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11061</v>
+        <v>2.34798</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.820564</v>
+        <v>0.812253</v>
       </c>
       <c r="C71" t="n">
-        <v>0.738852</v>
+        <v>0.8168260000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>2.06351</v>
+        <v>2.25118</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.799072</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.723176</v>
+        <v>0.822083</v>
       </c>
       <c r="D72" t="n">
-        <v>2.07424</v>
+        <v>2.24583</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.783146</v>
+        <v>0.799793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.70044</v>
+        <v>0.792986</v>
       </c>
       <c r="D73" t="n">
-        <v>2.09397</v>
+        <v>2.27117</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.750721</v>
+        <v>0.783145</v>
       </c>
       <c r="C74" t="n">
-        <v>0.696626</v>
+        <v>0.746314</v>
       </c>
       <c r="D74" t="n">
-        <v>2.06606</v>
+        <v>2.23104</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.748828</v>
+        <v>0.757399</v>
       </c>
       <c r="C75" t="n">
-        <v>0.657908</v>
+        <v>0.7550249999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>2.03795</v>
+        <v>2.18525</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723037</v>
+        <v>0.725135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6609390000000001</v>
+        <v>0.727042</v>
       </c>
       <c r="D76" t="n">
-        <v>2.04005</v>
+        <v>2.17945</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.724952</v>
+        <v>0.722735</v>
       </c>
       <c r="C77" t="n">
-        <v>0.638058</v>
+        <v>0.713016</v>
       </c>
       <c r="D77" t="n">
-        <v>2.0364</v>
+        <v>2.26206</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.703929</v>
+        <v>0.734172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.650905</v>
+        <v>0.708522</v>
       </c>
       <c r="D78" t="n">
-        <v>3.2238</v>
+        <v>3.58408</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.70247</v>
+        <v>0.711431</v>
       </c>
       <c r="C79" t="n">
-        <v>0.631792</v>
+        <v>0.6873629999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>3.20933</v>
+        <v>3.45793</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.704496</v>
+        <v>0.700101</v>
       </c>
       <c r="C80" t="n">
-        <v>0.943154</v>
+        <v>1.03214</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16892</v>
+        <v>3.29152</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00507</v>
+        <v>1.02758</v>
       </c>
       <c r="C81" t="n">
-        <v>0.902346</v>
+        <v>1.03132</v>
       </c>
       <c r="D81" t="n">
-        <v>3.0773</v>
+        <v>3.26612</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.991357</v>
+        <v>1.01279</v>
       </c>
       <c r="C82" t="n">
-        <v>0.908636</v>
+        <v>1.01739</v>
       </c>
       <c r="D82" t="n">
-        <v>2.93777</v>
+        <v>3.12491</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.967619</v>
+        <v>0.989191</v>
       </c>
       <c r="C83" t="n">
-        <v>0.874074</v>
+        <v>0.978432</v>
       </c>
       <c r="D83" t="n">
-        <v>2.86793</v>
+        <v>3.1031</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.948124</v>
+        <v>0.951588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.849872</v>
+        <v>0.953772</v>
       </c>
       <c r="D84" t="n">
-        <v>2.90155</v>
+        <v>3.03543</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.926072</v>
+        <v>0.938706</v>
       </c>
       <c r="C85" t="n">
-        <v>0.829743</v>
+        <v>0.920869</v>
       </c>
       <c r="D85" t="n">
-        <v>2.8405</v>
+        <v>3.03496</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.903178</v>
+        <v>0.94691</v>
       </c>
       <c r="C86" t="n">
-        <v>0.825759</v>
+        <v>0.897985</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8534</v>
+        <v>2.99419</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9000280000000001</v>
+        <v>0.9040589999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.816487</v>
+        <v>0.875109</v>
       </c>
       <c r="D87" t="n">
-        <v>2.80256</v>
+        <v>2.92706</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.863002</v>
+        <v>0.865515</v>
       </c>
       <c r="C88" t="n">
-        <v>0.776836</v>
+        <v>0.855194</v>
       </c>
       <c r="D88" t="n">
-        <v>2.73611</v>
+        <v>2.89903</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.861115</v>
+        <v>0.855101</v>
       </c>
       <c r="C89" t="n">
-        <v>0.766615</v>
+        <v>0.833858</v>
       </c>
       <c r="D89" t="n">
-        <v>2.71894</v>
+        <v>2.88809</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.830273</v>
+        <v>0.830779</v>
       </c>
       <c r="C90" t="n">
-        <v>0.762391</v>
+        <v>0.823197</v>
       </c>
       <c r="D90" t="n">
-        <v>2.74992</v>
+        <v>2.89684</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.831097</v>
+        <v>0.846643</v>
       </c>
       <c r="C91" t="n">
-        <v>0.732439</v>
+        <v>0.8126719999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>2.68602</v>
+        <v>2.78788</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8212159999999999</v>
+        <v>0.824952</v>
       </c>
       <c r="C92" t="n">
-        <v>0.731835</v>
+        <v>0.799287</v>
       </c>
       <c r="D92" t="n">
-        <v>3.85227</v>
+        <v>4.04566</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.811615</v>
+        <v>0.822453</v>
       </c>
       <c r="C93" t="n">
-        <v>0.723123</v>
+        <v>0.797221</v>
       </c>
       <c r="D93" t="n">
-        <v>3.69143</v>
+        <v>3.90293</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.801131</v>
+        <v>0.795517</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02216</v>
+        <v>1.13873</v>
       </c>
       <c r="D94" t="n">
-        <v>3.70302</v>
+        <v>3.82193</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09096</v>
+        <v>1.13046</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00551</v>
+        <v>1.11154</v>
       </c>
       <c r="D95" t="n">
-        <v>3.56503</v>
+        <v>3.77429</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09958</v>
+        <v>1.11516</v>
       </c>
       <c r="C96" t="n">
-        <v>0.980297</v>
+        <v>1.11622</v>
       </c>
       <c r="D96" t="n">
-        <v>4.23942</v>
+        <v>3.76615</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.28288</v>
+        <v>1.08682</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05068</v>
+        <v>1.05038</v>
       </c>
       <c r="D97" t="n">
-        <v>3.93487</v>
+        <v>3.59167</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.11671</v>
+        <v>1.07838</v>
       </c>
       <c r="C98" t="n">
-        <v>0.966925</v>
+        <v>1.02253</v>
       </c>
       <c r="D98" t="n">
-        <v>3.49065</v>
+        <v>3.57746</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.05341</v>
+        <v>1.06513</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9498450000000001</v>
+        <v>1.00926</v>
       </c>
       <c r="D99" t="n">
-        <v>3.41729</v>
+        <v>3.52699</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02918</v>
+        <v>1.04937</v>
       </c>
       <c r="C100" t="n">
-        <v>0.916282</v>
+        <v>1.002</v>
       </c>
       <c r="D100" t="n">
-        <v>3.35849</v>
+        <v>3.49583</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00461</v>
+        <v>1.02054</v>
       </c>
       <c r="C101" t="n">
-        <v>0.906765</v>
+        <v>0.991227</v>
       </c>
       <c r="D101" t="n">
-        <v>3.22323</v>
+        <v>3.38849</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01268</v>
+        <v>1.02496</v>
       </c>
       <c r="C102" t="n">
-        <v>0.909983</v>
+        <v>0.960758</v>
       </c>
       <c r="D102" t="n">
-        <v>3.23455</v>
+        <v>3.44549</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9844079999999999</v>
+        <v>0.977889</v>
       </c>
       <c r="C103" t="n">
-        <v>0.863798</v>
+        <v>0.95163</v>
       </c>
       <c r="D103" t="n">
-        <v>3.2197</v>
+        <v>3.35466</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.986806</v>
+        <v>0.986309</v>
       </c>
       <c r="C104" t="n">
-        <v>0.878754</v>
+        <v>0.963932</v>
       </c>
       <c r="D104" t="n">
-        <v>3.20491</v>
+        <v>3.39214</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.946168</v>
+        <v>0.9897</v>
       </c>
       <c r="C105" t="n">
-        <v>0.853916</v>
+        <v>0.909038</v>
       </c>
       <c r="D105" t="n">
-        <v>3.19808</v>
+        <v>3.3311</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9322279999999999</v>
+        <v>0.967293</v>
       </c>
       <c r="C106" t="n">
-        <v>0.828725</v>
+        <v>0.89798</v>
       </c>
       <c r="D106" t="n">
-        <v>3.13403</v>
+        <v>3.30692</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.914642</v>
+        <v>0.961238</v>
       </c>
       <c r="C107" t="n">
-        <v>0.841434</v>
+        <v>0.900309</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24563</v>
+        <v>4.45916</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.911698</v>
+        <v>0.945842</v>
       </c>
       <c r="C108" t="n">
-        <v>1.16024</v>
+        <v>1.29007</v>
       </c>
       <c r="D108" t="n">
-        <v>4.21891</v>
+        <v>4.46839</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.917945</v>
+        <v>0.939437</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12865</v>
+        <v>1.27157</v>
       </c>
       <c r="D109" t="n">
-        <v>4.11145</v>
+        <v>4.36958</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22815</v>
+        <v>1.26605</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10338</v>
+        <v>1.25439</v>
       </c>
       <c r="D110" t="n">
-        <v>4.06275</v>
+        <v>4.20476</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.21294</v>
+        <v>1.26724</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0912</v>
+        <v>1.19868</v>
       </c>
       <c r="D111" t="n">
-        <v>4.00138</v>
+        <v>4.17734</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19329</v>
+        <v>1.22506</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08621</v>
+        <v>1.19632</v>
       </c>
       <c r="D112" t="n">
-        <v>3.91808</v>
+        <v>4.18417</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19011</v>
+        <v>1.20892</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07073</v>
+        <v>1.18128</v>
       </c>
       <c r="D113" t="n">
-        <v>3.87657</v>
+        <v>4.10942</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17149</v>
+        <v>1.22874</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07781</v>
+        <v>1.17428</v>
       </c>
       <c r="D114" t="n">
-        <v>3.80701</v>
+        <v>4.04699</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15613</v>
+        <v>1.23063</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04762</v>
+        <v>1.1776</v>
       </c>
       <c r="D115" t="n">
-        <v>3.81768</v>
+        <v>3.99334</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16709</v>
+        <v>1.22807</v>
       </c>
       <c r="C116" t="n">
-        <v>1.04106</v>
+        <v>1.16702</v>
       </c>
       <c r="D116" t="n">
-        <v>3.82077</v>
+        <v>3.97238</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16405</v>
+        <v>1.18829</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04038</v>
+        <v>1.12056</v>
       </c>
       <c r="D117" t="n">
-        <v>3.72712</v>
+        <v>3.90413</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14</v>
+        <v>1.21119</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02696</v>
+        <v>1.11253</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6535</v>
+        <v>3.90307</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.17403</v>
+        <v>1.19229</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03161</v>
+        <v>1.10753</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64106</v>
+        <v>3.86106</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12689</v>
+        <v>1.18426</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03642</v>
+        <v>1.107</v>
       </c>
       <c r="D120" t="n">
-        <v>3.70717</v>
+        <v>3.85512</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1546</v>
+        <v>1.16067</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00095</v>
+        <v>1.08949</v>
       </c>
       <c r="D121" t="n">
-        <v>4.99605</v>
+        <v>5.22976</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13291</v>
+        <v>1.16091</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02146</v>
+        <v>1.07164</v>
       </c>
       <c r="D122" t="n">
-        <v>4.90851</v>
+        <v>5.14399</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16832</v>
+        <v>1.15166</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33523</v>
+        <v>1.4593</v>
       </c>
       <c r="D123" t="n">
-        <v>4.86683</v>
+        <v>5.00965</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.45162</v>
+        <v>1.4878</v>
       </c>
       <c r="C124" t="n">
-        <v>1.34049</v>
+        <v>1.44277</v>
       </c>
       <c r="D124" t="n">
-        <v>4.75653</v>
+        <v>4.91875</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.43407</v>
+        <v>1.44758</v>
       </c>
       <c r="C125" t="n">
-        <v>1.32298</v>
+        <v>1.42952</v>
       </c>
       <c r="D125" t="n">
-        <v>4.71156</v>
+        <v>4.87138</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42571</v>
+        <v>1.47086</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33344</v>
+        <v>1.41262</v>
       </c>
       <c r="D126" t="n">
-        <v>4.62365</v>
+        <v>4.70745</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43342</v>
+        <v>1.4406</v>
       </c>
       <c r="C127" t="n">
-        <v>1.27813</v>
+        <v>1.43548</v>
       </c>
       <c r="D127" t="n">
-        <v>4.40779</v>
+        <v>4.63261</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3745</v>
+        <v>1.43157</v>
       </c>
       <c r="C128" t="n">
-        <v>1.27753</v>
+        <v>1.37375</v>
       </c>
       <c r="D128" t="n">
-        <v>4.4324</v>
+        <v>4.61095</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.4451</v>
+        <v>1.43225</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31964</v>
+        <v>1.36741</v>
       </c>
       <c r="D129" t="n">
-        <v>4.39582</v>
+        <v>4.50448</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40583</v>
+        <v>1.42882</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32105</v>
+        <v>1.36792</v>
       </c>
       <c r="D130" t="n">
-        <v>4.42885</v>
+        <v>4.42377</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41468</v>
+        <v>1.40674</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31042</v>
+        <v>1.38895</v>
       </c>
       <c r="D131" t="n">
-        <v>4.29799</v>
+        <v>4.39071</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40703</v>
+        <v>1.41594</v>
       </c>
       <c r="C132" t="n">
-        <v>1.29775</v>
+        <v>1.38328</v>
       </c>
       <c r="D132" t="n">
-        <v>4.28213</v>
+        <v>4.36107</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42713</v>
+        <v>1.42147</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30829</v>
+        <v>1.37199</v>
       </c>
       <c r="D133" t="n">
-        <v>4.24646</v>
+        <v>4.33999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41995</v>
+        <v>1.41406</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32489</v>
+        <v>1.37156</v>
       </c>
       <c r="D134" t="n">
-        <v>4.24221</v>
+        <v>4.30149</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4077</v>
+        <v>1.4016</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31427</v>
+        <v>1.34256</v>
       </c>
       <c r="D135" t="n">
-        <v>5.79798</v>
+        <v>5.92552</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37939</v>
+        <v>1.42542</v>
       </c>
       <c r="C136" t="n">
-        <v>1.24815</v>
+        <v>1.37313</v>
       </c>
       <c r="D136" t="n">
-        <v>5.43066</v>
+        <v>5.79842</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3607</v>
+        <v>1.42373</v>
       </c>
       <c r="C137" t="n">
-        <v>1.61709</v>
+        <v>1.73549</v>
       </c>
       <c r="D137" t="n">
-        <v>5.34731</v>
+        <v>5.70351</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.66383</v>
+        <v>1.74136</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61057</v>
+        <v>1.71707</v>
       </c>
       <c r="D138" t="n">
-        <v>5.29681</v>
+        <v>5.61823</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.6597</v>
+        <v>1.74686</v>
       </c>
       <c r="C139" t="n">
-        <v>1.57133</v>
+        <v>1.7301</v>
       </c>
       <c r="D139" t="n">
-        <v>5.20506</v>
+        <v>5.50453</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73662</v>
+        <v>1.7315</v>
       </c>
       <c r="C140" t="n">
-        <v>1.65095</v>
+        <v>1.71469</v>
       </c>
       <c r="D140" t="n">
-        <v>5.35655</v>
+        <v>5.38355</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73778</v>
+        <v>1.72015</v>
       </c>
       <c r="C141" t="n">
-        <v>1.6542</v>
+        <v>1.71214</v>
       </c>
       <c r="D141" t="n">
-        <v>5.27842</v>
+        <v>5.3239</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.73218</v>
+        <v>1.71033</v>
       </c>
       <c r="C142" t="n">
-        <v>1.65313</v>
+        <v>1.71999</v>
       </c>
       <c r="D142" t="n">
-        <v>5.1759</v>
+        <v>5.28371</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71835</v>
+        <v>1.72258</v>
       </c>
       <c r="C143" t="n">
-        <v>1.63209</v>
+        <v>1.71674</v>
       </c>
       <c r="D143" t="n">
-        <v>5.16551</v>
+        <v>5.21527</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.642309</v>
+        <v>0.412699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.600909</v>
+        <v>0.441235</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08722</v>
+        <v>1.01681</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.385222</v>
+        <v>0.363878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400299</v>
+        <v>0.433128</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0773</v>
+        <v>1.04932</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.357192</v>
+        <v>0.357626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.385674</v>
+        <v>0.414304</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02545</v>
+        <v>0.9981449999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367253</v>
+        <v>0.342035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364875</v>
+        <v>0.391497</v>
       </c>
       <c r="D5" t="n">
-        <v>1.00682</v>
+        <v>0.998057</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.341329</v>
+        <v>0.339272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.374987</v>
+        <v>0.392141</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06078</v>
+        <v>1.03564</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.347178</v>
+        <v>0.330843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359268</v>
+        <v>0.393809</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25102</v>
+        <v>1.24511</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32719</v>
+        <v>0.339168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.354165</v>
+        <v>0.38085</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24624</v>
+        <v>1.20426</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335712</v>
+        <v>0.333534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.658662</v>
+        <v>0.7018180000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1928</v>
+        <v>1.17095</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572666</v>
+        <v>0.594897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6284960000000001</v>
+        <v>0.677881</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24632</v>
+        <v>1.13358</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.584186</v>
+        <v>0.578561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.621408</v>
+        <v>0.652599</v>
       </c>
       <c r="D11" t="n">
-        <v>1.22719</v>
+        <v>1.13849</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.553885</v>
+        <v>0.560086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.574236</v>
+        <v>0.621075</v>
       </c>
       <c r="D12" t="n">
-        <v>1.16515</v>
+        <v>1.09224</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5524250000000001</v>
+        <v>0.521408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.577717</v>
+        <v>0.602701</v>
       </c>
       <c r="D13" t="n">
-        <v>1.11636</v>
+        <v>1.07687</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5272210000000001</v>
+        <v>0.527285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.553961</v>
+        <v>0.601715</v>
       </c>
       <c r="D14" t="n">
-        <v>1.12218</v>
+        <v>1.04902</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.501166</v>
+        <v>0.492534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.522247</v>
+        <v>0.572053</v>
       </c>
       <c r="D15" t="n">
-        <v>1.10531</v>
+        <v>1.1094</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.502534</v>
+        <v>0.492001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.509211</v>
+        <v>0.545849</v>
       </c>
       <c r="D16" t="n">
-        <v>1.09654</v>
+        <v>1.06633</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479171</v>
+        <v>0.464968</v>
       </c>
       <c r="C17" t="n">
-        <v>0.483815</v>
+        <v>0.532728</v>
       </c>
       <c r="D17" t="n">
-        <v>1.08615</v>
+        <v>1.05434</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472373</v>
+        <v>0.461779</v>
       </c>
       <c r="C18" t="n">
-        <v>0.488187</v>
+        <v>0.506084</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06336</v>
+        <v>1.01616</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461116</v>
+        <v>0.445406</v>
       </c>
       <c r="C19" t="n">
-        <v>0.465306</v>
+        <v>0.497235</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05984</v>
+        <v>1.0165</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.448876</v>
+        <v>0.429178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.471247</v>
+        <v>0.491381</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00745</v>
+        <v>1.03353</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429127</v>
+        <v>0.432045</v>
       </c>
       <c r="C21" t="n">
-        <v>0.460938</v>
+        <v>0.471712</v>
       </c>
       <c r="D21" t="n">
-        <v>1.29516</v>
+        <v>1.25175</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422111</v>
+        <v>0.419966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443478</v>
+        <v>0.467028</v>
       </c>
       <c r="D22" t="n">
-        <v>1.22197</v>
+        <v>1.23124</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427878</v>
+        <v>0.411729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.782847</v>
+        <v>0.787458</v>
       </c>
       <c r="D23" t="n">
-        <v>1.20574</v>
+        <v>1.2055</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702773</v>
+        <v>0.68499</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7204660000000001</v>
+        <v>0.765236</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21074</v>
+        <v>1.17529</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6817879999999999</v>
+        <v>0.648625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701035</v>
+        <v>0.731718</v>
       </c>
       <c r="D25" t="n">
-        <v>1.18357</v>
+        <v>1.1437</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6418509999999999</v>
+        <v>0.686079</v>
       </c>
       <c r="C26" t="n">
-        <v>0.698614</v>
+        <v>0.745607</v>
       </c>
       <c r="D26" t="n">
-        <v>1.18841</v>
+        <v>1.15318</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637378</v>
+        <v>0.622465</v>
       </c>
       <c r="C27" t="n">
-        <v>0.667308</v>
+        <v>0.698178</v>
       </c>
       <c r="D27" t="n">
-        <v>1.18606</v>
+        <v>1.15163</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.606744</v>
+        <v>0.619041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.656096</v>
+        <v>0.675292</v>
       </c>
       <c r="D28" t="n">
-        <v>1.17008</v>
+        <v>1.09758</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583267</v>
+        <v>0.577592</v>
       </c>
       <c r="C29" t="n">
-        <v>0.624069</v>
+        <v>0.64147</v>
       </c>
       <c r="D29" t="n">
-        <v>1.17895</v>
+        <v>1.12914</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.570562</v>
+        <v>0.572147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587473</v>
+        <v>0.6066589999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>1.18723</v>
+        <v>1.15809</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.585023</v>
+        <v>0.572821</v>
       </c>
       <c r="C31" t="n">
-        <v>0.572677</v>
+        <v>0.60651</v>
       </c>
       <c r="D31" t="n">
-        <v>1.12728</v>
+        <v>1.16202</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5388309999999999</v>
+        <v>0.54311</v>
       </c>
       <c r="C32" t="n">
-        <v>0.557644</v>
+        <v>0.56953</v>
       </c>
       <c r="D32" t="n">
-        <v>1.1844</v>
+        <v>1.11689</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.535922</v>
+        <v>0.518554</v>
       </c>
       <c r="C33" t="n">
-        <v>0.552575</v>
+        <v>0.564921</v>
       </c>
       <c r="D33" t="n">
-        <v>1.13868</v>
+        <v>1.08196</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.518931</v>
+        <v>0.49871</v>
       </c>
       <c r="C34" t="n">
-        <v>0.525085</v>
+        <v>0.540224</v>
       </c>
       <c r="D34" t="n">
-        <v>1.14864</v>
+        <v>1.07806</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.495073</v>
+        <v>0.502047</v>
       </c>
       <c r="C35" t="n">
-        <v>0.522587</v>
+        <v>0.538005</v>
       </c>
       <c r="D35" t="n">
-        <v>1.37233</v>
+        <v>1.37823</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.504044</v>
+        <v>0.493912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.511004</v>
+        <v>0.52175</v>
       </c>
       <c r="D36" t="n">
-        <v>1.29969</v>
+        <v>1.32526</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49286</v>
+        <v>0.488521</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810588</v>
+        <v>0.829222</v>
       </c>
       <c r="D37" t="n">
-        <v>1.30119</v>
+        <v>1.34139</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748557</v>
+        <v>0.751968</v>
       </c>
       <c r="C38" t="n">
-        <v>0.784463</v>
+        <v>0.840049</v>
       </c>
       <c r="D38" t="n">
-        <v>1.29114</v>
+        <v>1.30132</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766998</v>
+        <v>0.714183</v>
       </c>
       <c r="C39" t="n">
-        <v>0.790698</v>
+        <v>0.801268</v>
       </c>
       <c r="D39" t="n">
-        <v>1.27299</v>
+        <v>1.25663</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708071</v>
+        <v>0.702286</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735633</v>
+        <v>0.758413</v>
       </c>
       <c r="D40" t="n">
-        <v>1.28212</v>
+        <v>1.25696</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717841</v>
+        <v>0.69212</v>
       </c>
       <c r="C41" t="n">
-        <v>0.708496</v>
+        <v>0.745828</v>
       </c>
       <c r="D41" t="n">
-        <v>1.31078</v>
+        <v>1.22191</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.690998</v>
+        <v>0.656946</v>
       </c>
       <c r="C42" t="n">
-        <v>0.694557</v>
+        <v>0.731652</v>
       </c>
       <c r="D42" t="n">
-        <v>1.2363</v>
+        <v>1.24361</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.669775</v>
+        <v>0.650299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.659219</v>
+        <v>0.686743</v>
       </c>
       <c r="D43" t="n">
-        <v>1.226</v>
+        <v>1.21846</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.670363</v>
+        <v>0.623322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.644841</v>
+        <v>0.667843</v>
       </c>
       <c r="D44" t="n">
-        <v>1.19897</v>
+        <v>1.21646</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.640312</v>
+        <v>0.598244</v>
       </c>
       <c r="C45" t="n">
-        <v>0.620662</v>
+        <v>0.640678</v>
       </c>
       <c r="D45" t="n">
-        <v>1.19781</v>
+        <v>1.22373</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.594788</v>
+        <v>0.590267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.586824</v>
+        <v>0.632804</v>
       </c>
       <c r="D46" t="n">
-        <v>1.22068</v>
+        <v>1.19127</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.608093</v>
+        <v>0.582409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.589108</v>
+        <v>0.607666</v>
       </c>
       <c r="D47" t="n">
-        <v>1.19973</v>
+        <v>1.18996</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.574074</v>
+        <v>0.560501</v>
       </c>
       <c r="C48" t="n">
-        <v>0.583334</v>
+        <v>0.5782040000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>1.20736</v>
+        <v>1.18235</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.556132</v>
+        <v>0.546314</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5570580000000001</v>
+        <v>0.574172</v>
       </c>
       <c r="D49" t="n">
-        <v>1.17834</v>
+        <v>1.18263</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535992</v>
+        <v>0.521907</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542682</v>
+        <v>0.552897</v>
       </c>
       <c r="D50" t="n">
-        <v>1.71477</v>
+        <v>1.66946</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.544203</v>
+        <v>0.514136</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878158</v>
+        <v>0.889038</v>
       </c>
       <c r="D51" t="n">
-        <v>1.64451</v>
+        <v>1.62509</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.526753</v>
+        <v>0.513371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.851925</v>
+        <v>0.864654</v>
       </c>
       <c r="D52" t="n">
-        <v>1.60921</v>
+        <v>1.61315</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.804107</v>
+        <v>0.786531</v>
       </c>
       <c r="C53" t="n">
-        <v>0.825675</v>
+        <v>0.861579</v>
       </c>
       <c r="D53" t="n">
-        <v>1.6441</v>
+        <v>1.56929</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.78364</v>
+        <v>0.768567</v>
       </c>
       <c r="C54" t="n">
-        <v>0.79034</v>
+        <v>0.825713</v>
       </c>
       <c r="D54" t="n">
-        <v>1.6063</v>
+        <v>1.52614</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.770488</v>
+        <v>0.732808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.781334</v>
+        <v>0.790585</v>
       </c>
       <c r="D55" t="n">
-        <v>1.57845</v>
+        <v>1.50451</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.745076</v>
+        <v>0.754792</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755101</v>
+        <v>0.761886</v>
       </c>
       <c r="D56" t="n">
-        <v>1.62665</v>
+        <v>1.50099</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.744717</v>
+        <v>0.712611</v>
       </c>
       <c r="C57" t="n">
-        <v>0.756522</v>
+        <v>0.750534</v>
       </c>
       <c r="D57" t="n">
-        <v>1.58227</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.723889</v>
+        <v>0.710564</v>
       </c>
       <c r="C58" t="n">
-        <v>0.725782</v>
+        <v>0.742269</v>
       </c>
       <c r="D58" t="n">
-        <v>1.5447</v>
+        <v>1.49488</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.699654</v>
+        <v>0.669234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.692333</v>
+        <v>0.70858</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52602</v>
+        <v>1.49543</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.703068</v>
+        <v>0.669471</v>
       </c>
       <c r="C60" t="n">
-        <v>0.678331</v>
+        <v>0.688828</v>
       </c>
       <c r="D60" t="n">
-        <v>1.53412</v>
+        <v>1.50769</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.635767</v>
+        <v>0.655684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648749</v>
+        <v>0.675908</v>
       </c>
       <c r="D61" t="n">
-        <v>1.54264</v>
+        <v>1.43468</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.655394</v>
+        <v>0.640742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.663795</v>
+        <v>0.652682</v>
       </c>
       <c r="D62" t="n">
-        <v>1.55577</v>
+        <v>1.43853</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.641508</v>
+        <v>0.623158</v>
       </c>
       <c r="C63" t="n">
-        <v>0.63226</v>
+        <v>0.657735</v>
       </c>
       <c r="D63" t="n">
-        <v>1.53531</v>
+        <v>1.43481</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.628698</v>
+        <v>0.60026</v>
       </c>
       <c r="C64" t="n">
-        <v>0.623389</v>
+        <v>0.637861</v>
       </c>
       <c r="D64" t="n">
-        <v>2.61239</v>
+        <v>2.40646</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.611667</v>
+        <v>0.592469</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617753</v>
+        <v>0.635012</v>
       </c>
       <c r="D65" t="n">
-        <v>2.51664</v>
+        <v>2.28463</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6088170000000001</v>
+        <v>0.576767</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00521</v>
+        <v>1.11446</v>
       </c>
       <c r="D66" t="n">
-        <v>2.39088</v>
+        <v>2.30259</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.923822</v>
+        <v>0.868322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.948174</v>
+        <v>1.05209</v>
       </c>
       <c r="D67" t="n">
-        <v>2.33887</v>
+        <v>2.19276</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.88889</v>
+        <v>0.847834</v>
       </c>
       <c r="C68" t="n">
-        <v>0.884388</v>
+        <v>1.03499</v>
       </c>
       <c r="D68" t="n">
-        <v>2.40131</v>
+        <v>2.17431</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.879053</v>
+        <v>0.8530759999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.878267</v>
+        <v>1.00658</v>
       </c>
       <c r="D69" t="n">
-        <v>2.32255</v>
+        <v>2.17318</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.867523</v>
+        <v>0.835907</v>
       </c>
       <c r="C70" t="n">
-        <v>0.85663</v>
+        <v>0.941122</v>
       </c>
       <c r="D70" t="n">
-        <v>2.34798</v>
+        <v>2.14251</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.812253</v>
+        <v>0.7914060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8168260000000001</v>
+        <v>0.910528</v>
       </c>
       <c r="D71" t="n">
-        <v>2.25118</v>
+        <v>2.06298</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8137799999999999</v>
+        <v>0.793496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.822083</v>
+        <v>0.897513</v>
       </c>
       <c r="D72" t="n">
-        <v>2.24583</v>
+        <v>2.10279</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.799793</v>
+        <v>0.753486</v>
       </c>
       <c r="C73" t="n">
-        <v>0.792986</v>
+        <v>0.8750599999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>2.27117</v>
+        <v>2.10137</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.783145</v>
+        <v>0.748962</v>
       </c>
       <c r="C74" t="n">
-        <v>0.746314</v>
+        <v>0.839983</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23104</v>
+        <v>2.04183</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757399</v>
+        <v>0.742924</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7550249999999999</v>
+        <v>0.830219</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18525</v>
+        <v>2.10551</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.725135</v>
+        <v>0.731164</v>
       </c>
       <c r="C76" t="n">
-        <v>0.727042</v>
+        <v>0.816102</v>
       </c>
       <c r="D76" t="n">
-        <v>2.17945</v>
+        <v>2.03317</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.722735</v>
+        <v>0.69587</v>
       </c>
       <c r="C77" t="n">
-        <v>0.713016</v>
+        <v>0.790167</v>
       </c>
       <c r="D77" t="n">
-        <v>2.26206</v>
+        <v>2.06217</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.734172</v>
+        <v>0.676306</v>
       </c>
       <c r="C78" t="n">
-        <v>0.708522</v>
+        <v>0.765666</v>
       </c>
       <c r="D78" t="n">
-        <v>3.58408</v>
+        <v>3.27797</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.711431</v>
+        <v>0.667919</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6873629999999999</v>
+        <v>0.7521600000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>3.45793</v>
+        <v>3.24984</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.700101</v>
+        <v>0.673856</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03214</v>
+        <v>1.15559</v>
       </c>
       <c r="D80" t="n">
-        <v>3.29152</v>
+        <v>3.18445</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02758</v>
+        <v>0.961457</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03132</v>
+        <v>1.08948</v>
       </c>
       <c r="D81" t="n">
-        <v>3.26612</v>
+        <v>3.13587</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01279</v>
+        <v>0.942349</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01739</v>
+        <v>1.08347</v>
       </c>
       <c r="D82" t="n">
-        <v>3.12491</v>
+        <v>3.03002</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.989191</v>
+        <v>0.951699</v>
       </c>
       <c r="C83" t="n">
-        <v>0.978432</v>
+        <v>1.04819</v>
       </c>
       <c r="D83" t="n">
-        <v>3.1031</v>
+        <v>2.93984</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.951588</v>
+        <v>0.9224909999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.953772</v>
+        <v>1.01933</v>
       </c>
       <c r="D84" t="n">
-        <v>3.03543</v>
+        <v>2.92562</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.938706</v>
+        <v>0.920826</v>
       </c>
       <c r="C85" t="n">
-        <v>0.920869</v>
+        <v>0.981166</v>
       </c>
       <c r="D85" t="n">
-        <v>3.03496</v>
+        <v>2.863</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.94691</v>
+        <v>0.8693380000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.897985</v>
+        <v>0.9779099999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>2.99419</v>
+        <v>2.82498</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9040589999999999</v>
+        <v>0.8790480000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.875109</v>
+        <v>0.9230429999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2.92706</v>
+        <v>2.74553</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.865515</v>
+        <v>0.86433</v>
       </c>
       <c r="C88" t="n">
-        <v>0.855194</v>
+        <v>0.902917</v>
       </c>
       <c r="D88" t="n">
-        <v>2.89903</v>
+        <v>2.79972</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.855101</v>
+        <v>0.845723</v>
       </c>
       <c r="C89" t="n">
-        <v>0.833858</v>
+        <v>0.925515</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88809</v>
+        <v>2.77176</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.830779</v>
+        <v>0.822455</v>
       </c>
       <c r="C90" t="n">
-        <v>0.823197</v>
+        <v>0.891386</v>
       </c>
       <c r="D90" t="n">
-        <v>2.89684</v>
+        <v>2.65418</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.846643</v>
+        <v>0.793979</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8126719999999999</v>
+        <v>0.851266</v>
       </c>
       <c r="D91" t="n">
-        <v>2.78788</v>
+        <v>2.64457</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.824952</v>
+        <v>0.7996799999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.799287</v>
+        <v>0.826066</v>
       </c>
       <c r="D92" t="n">
-        <v>4.04566</v>
+        <v>3.79316</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.822453</v>
+        <v>0.776705</v>
       </c>
       <c r="C93" t="n">
-        <v>0.797221</v>
+        <v>0.812248</v>
       </c>
       <c r="D93" t="n">
-        <v>3.90293</v>
+        <v>3.67555</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.795517</v>
+        <v>0.767015</v>
       </c>
       <c r="C94" t="n">
-        <v>1.13873</v>
+        <v>1.18464</v>
       </c>
       <c r="D94" t="n">
-        <v>3.82193</v>
+        <v>3.58017</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13046</v>
+        <v>1.07813</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11154</v>
+        <v>1.1664</v>
       </c>
       <c r="D95" t="n">
-        <v>3.77429</v>
+        <v>3.55026</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11516</v>
+        <v>1.08593</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11622</v>
+        <v>1.14694</v>
       </c>
       <c r="D96" t="n">
-        <v>3.76615</v>
+        <v>3.5551</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08682</v>
+        <v>1.05063</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05038</v>
+        <v>1.11538</v>
       </c>
       <c r="D97" t="n">
-        <v>3.59167</v>
+        <v>3.4011</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07838</v>
+        <v>1.03523</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02253</v>
+        <v>1.09997</v>
       </c>
       <c r="D98" t="n">
-        <v>3.57746</v>
+        <v>3.45278</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06513</v>
+        <v>1.02931</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00926</v>
+        <v>1.06604</v>
       </c>
       <c r="D99" t="n">
-        <v>3.52699</v>
+        <v>3.33896</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04937</v>
+        <v>1.01993</v>
       </c>
       <c r="C100" t="n">
-        <v>1.002</v>
+        <v>1.04292</v>
       </c>
       <c r="D100" t="n">
-        <v>3.49583</v>
+        <v>3.3194</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02054</v>
+        <v>0.998286</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991227</v>
+        <v>1.0421</v>
       </c>
       <c r="D101" t="n">
-        <v>3.38849</v>
+        <v>3.32552</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.02496</v>
+        <v>0.99964</v>
       </c>
       <c r="C102" t="n">
-        <v>0.960758</v>
+        <v>1.02543</v>
       </c>
       <c r="D102" t="n">
-        <v>3.44549</v>
+        <v>3.2142</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.977889</v>
+        <v>0.955487</v>
       </c>
       <c r="C103" t="n">
-        <v>0.95163</v>
+        <v>0.992272</v>
       </c>
       <c r="D103" t="n">
-        <v>3.35466</v>
+        <v>3.19801</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.986309</v>
+        <v>0.949434</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963932</v>
+        <v>0.975058</v>
       </c>
       <c r="D104" t="n">
-        <v>3.39214</v>
+        <v>3.20826</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9897</v>
+        <v>0.969525</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909038</v>
+        <v>0.9463009999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>3.3311</v>
+        <v>3.18016</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.967293</v>
+        <v>0.926631</v>
       </c>
       <c r="C106" t="n">
-        <v>0.89798</v>
+        <v>0.947951</v>
       </c>
       <c r="D106" t="n">
-        <v>3.30692</v>
+        <v>3.26759</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.961238</v>
+        <v>0.927638</v>
       </c>
       <c r="C107" t="n">
-        <v>0.900309</v>
+        <v>0.921372</v>
       </c>
       <c r="D107" t="n">
-        <v>4.45916</v>
+        <v>4.27738</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.945842</v>
+        <v>0.902958</v>
       </c>
       <c r="C108" t="n">
-        <v>1.29007</v>
+        <v>1.30728</v>
       </c>
       <c r="D108" t="n">
-        <v>4.46839</v>
+        <v>4.19711</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.939437</v>
+        <v>0.897581</v>
       </c>
       <c r="C109" t="n">
-        <v>1.27157</v>
+        <v>1.28905</v>
       </c>
       <c r="D109" t="n">
-        <v>4.36958</v>
+        <v>4.17318</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.26605</v>
+        <v>1.20368</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25439</v>
+        <v>1.26709</v>
       </c>
       <c r="D110" t="n">
-        <v>4.20476</v>
+        <v>4.09653</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26724</v>
+        <v>1.24299</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19868</v>
+        <v>1.26924</v>
       </c>
       <c r="D111" t="n">
-        <v>4.17734</v>
+        <v>4.07531</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22506</v>
+        <v>1.19192</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19632</v>
+        <v>1.23502</v>
       </c>
       <c r="D112" t="n">
-        <v>4.18417</v>
+        <v>4.01737</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20892</v>
+        <v>1.17505</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18128</v>
+        <v>1.20813</v>
       </c>
       <c r="D113" t="n">
-        <v>4.10942</v>
+        <v>3.92785</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.22874</v>
+        <v>1.18609</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17428</v>
+        <v>1.21428</v>
       </c>
       <c r="D114" t="n">
-        <v>4.04699</v>
+        <v>3.86024</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.23063</v>
+        <v>1.17112</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1776</v>
+        <v>1.17452</v>
       </c>
       <c r="D115" t="n">
-        <v>3.99334</v>
+        <v>3.8894</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.22807</v>
+        <v>1.14902</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16702</v>
+        <v>1.17149</v>
       </c>
       <c r="D116" t="n">
-        <v>3.97238</v>
+        <v>3.8106</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18829</v>
+        <v>1.18371</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12056</v>
+        <v>1.16194</v>
       </c>
       <c r="D117" t="n">
-        <v>3.90413</v>
+        <v>3.76156</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21119</v>
+        <v>1.12706</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11253</v>
+        <v>1.12328</v>
       </c>
       <c r="D118" t="n">
-        <v>3.90307</v>
+        <v>3.78279</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19229</v>
+        <v>1.14272</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10753</v>
+        <v>1.1192</v>
       </c>
       <c r="D119" t="n">
-        <v>3.86106</v>
+        <v>3.70293</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.18426</v>
+        <v>1.12308</v>
       </c>
       <c r="C120" t="n">
-        <v>1.107</v>
+        <v>1.10578</v>
       </c>
       <c r="D120" t="n">
-        <v>3.85512</v>
+        <v>3.69763</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16067</v>
+        <v>1.1184</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08949</v>
+        <v>1.11534</v>
       </c>
       <c r="D121" t="n">
-        <v>5.22976</v>
+        <v>5.15117</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16091</v>
+        <v>1.11528</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07164</v>
+        <v>1.08975</v>
       </c>
       <c r="D122" t="n">
-        <v>5.14399</v>
+        <v>4.98015</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15166</v>
+        <v>1.12323</v>
       </c>
       <c r="C123" t="n">
-        <v>1.4593</v>
+        <v>1.49417</v>
       </c>
       <c r="D123" t="n">
-        <v>5.00965</v>
+        <v>4.90784</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4878</v>
+        <v>1.44143</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44277</v>
+        <v>1.48333</v>
       </c>
       <c r="D124" t="n">
-        <v>4.91875</v>
+        <v>4.85884</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44758</v>
+        <v>1.43354</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42952</v>
+        <v>1.46593</v>
       </c>
       <c r="D125" t="n">
-        <v>4.87138</v>
+        <v>4.72675</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.47086</v>
+        <v>1.4131</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41262</v>
+        <v>1.46842</v>
       </c>
       <c r="D126" t="n">
-        <v>4.70745</v>
+        <v>4.67579</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4406</v>
+        <v>1.41009</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43548</v>
+        <v>1.47527</v>
       </c>
       <c r="D127" t="n">
-        <v>4.63261</v>
+        <v>4.58594</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.43157</v>
+        <v>1.43464</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37375</v>
+        <v>1.47503</v>
       </c>
       <c r="D128" t="n">
-        <v>4.61095</v>
+        <v>4.59105</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43225</v>
+        <v>1.4256</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36741</v>
+        <v>1.43438</v>
       </c>
       <c r="D129" t="n">
-        <v>4.50448</v>
+        <v>4.50213</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42882</v>
+        <v>1.40647</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36792</v>
+        <v>1.44443</v>
       </c>
       <c r="D130" t="n">
-        <v>4.42377</v>
+        <v>4.51421</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40674</v>
+        <v>1.41743</v>
       </c>
       <c r="C131" t="n">
-        <v>1.38895</v>
+        <v>1.42471</v>
       </c>
       <c r="D131" t="n">
-        <v>4.39071</v>
+        <v>4.43124</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41594</v>
+        <v>1.40284</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38328</v>
+        <v>1.39505</v>
       </c>
       <c r="D132" t="n">
-        <v>4.36107</v>
+        <v>4.363</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42147</v>
+        <v>1.39122</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37199</v>
+        <v>1.41486</v>
       </c>
       <c r="D133" t="n">
-        <v>4.33999</v>
+        <v>4.33298</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41406</v>
+        <v>1.42949</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37156</v>
+        <v>1.42476</v>
       </c>
       <c r="D134" t="n">
-        <v>4.30149</v>
+        <v>4.30057</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4016</v>
+        <v>1.42067</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34256</v>
+        <v>1.40471</v>
       </c>
       <c r="D135" t="n">
-        <v>5.92552</v>
+        <v>5.93138</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42542</v>
+        <v>1.44763</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37313</v>
+        <v>1.39789</v>
       </c>
       <c r="D136" t="n">
-        <v>5.79842</v>
+        <v>5.81556</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42373</v>
+        <v>1.42198</v>
       </c>
       <c r="C137" t="n">
-        <v>1.73549</v>
+        <v>1.80892</v>
       </c>
       <c r="D137" t="n">
-        <v>5.70351</v>
+        <v>5.74081</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74136</v>
+        <v>1.75924</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71707</v>
+        <v>1.79854</v>
       </c>
       <c r="D138" t="n">
-        <v>5.61823</v>
+        <v>5.61731</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74686</v>
+        <v>1.75485</v>
       </c>
       <c r="C139" t="n">
-        <v>1.7301</v>
+        <v>1.78431</v>
       </c>
       <c r="D139" t="n">
-        <v>5.50453</v>
+        <v>5.54001</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.7315</v>
+        <v>1.72671</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71469</v>
+        <v>1.75432</v>
       </c>
       <c r="D140" t="n">
-        <v>5.38355</v>
+        <v>5.42526</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72015</v>
+        <v>1.74946</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71214</v>
+        <v>1.78357</v>
       </c>
       <c r="D141" t="n">
-        <v>5.3239</v>
+        <v>5.37294</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71033</v>
+        <v>1.732</v>
       </c>
       <c r="C142" t="n">
-        <v>1.71999</v>
+        <v>1.75636</v>
       </c>
       <c r="D142" t="n">
-        <v>5.28371</v>
+        <v>5.27071</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72258</v>
+        <v>1.7098</v>
       </c>
       <c r="C143" t="n">
-        <v>1.71674</v>
+        <v>1.75151</v>
       </c>
       <c r="D143" t="n">
-        <v>5.21527</v>
+        <v>5.19973</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.642309</v>
+        <v>0.5907520000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.600909</v>
+        <v>0.547028</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08722</v>
+        <v>1.00519</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.385222</v>
+        <v>0.354631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400299</v>
+        <v>0.372542</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0773</v>
+        <v>0.994422</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.357192</v>
+        <v>0.340663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.385674</v>
+        <v>0.354628</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02545</v>
+        <v>0.995675</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367253</v>
+        <v>0.338168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364875</v>
+        <v>0.351674</v>
       </c>
       <c r="D5" t="n">
-        <v>1.00682</v>
+        <v>0.982793</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.341329</v>
+        <v>0.33262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.374987</v>
+        <v>0.364798</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06078</v>
+        <v>0.979002</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.347178</v>
+        <v>0.325028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359268</v>
+        <v>0.342127</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25102</v>
+        <v>1.22347</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32719</v>
+        <v>0.318602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.354165</v>
+        <v>0.340105</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24624</v>
+        <v>1.19799</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335712</v>
+        <v>0.315989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.658662</v>
+        <v>0.636759</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1928</v>
+        <v>1.13776</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572666</v>
+        <v>0.573097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6284960000000001</v>
+        <v>0.612009</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24632</v>
+        <v>1.1318</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.584186</v>
+        <v>0.553162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.621408</v>
+        <v>0.592391</v>
       </c>
       <c r="D11" t="n">
-        <v>1.22719</v>
+        <v>1.10375</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.553885</v>
+        <v>0.541499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.574236</v>
+        <v>0.574591</v>
       </c>
       <c r="D12" t="n">
-        <v>1.16515</v>
+        <v>1.11918</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5524250000000001</v>
+        <v>0.520572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.577717</v>
+        <v>0.557253</v>
       </c>
       <c r="D13" t="n">
-        <v>1.11636</v>
+        <v>1.08027</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5272210000000001</v>
+        <v>0.500394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.553961</v>
+        <v>0.543099</v>
       </c>
       <c r="D14" t="n">
-        <v>1.12218</v>
+        <v>1.07958</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.501166</v>
+        <v>0.510551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.522247</v>
+        <v>0.519895</v>
       </c>
       <c r="D15" t="n">
-        <v>1.10531</v>
+        <v>1.06954</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.502534</v>
+        <v>0.492682</v>
       </c>
       <c r="C16" t="n">
-        <v>0.509211</v>
+        <v>0.496754</v>
       </c>
       <c r="D16" t="n">
-        <v>1.09654</v>
+        <v>1.08225</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479171</v>
+        <v>0.47021</v>
       </c>
       <c r="C17" t="n">
-        <v>0.483815</v>
+        <v>0.479587</v>
       </c>
       <c r="D17" t="n">
-        <v>1.08615</v>
+        <v>1.0716</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472373</v>
+        <v>0.452991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.488187</v>
+        <v>0.469541</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06336</v>
+        <v>1.0388</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461116</v>
+        <v>0.456649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.465306</v>
+        <v>0.460084</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05984</v>
+        <v>1.03802</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.448876</v>
+        <v>0.44617</v>
       </c>
       <c r="C20" t="n">
-        <v>0.471247</v>
+        <v>0.436832</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00745</v>
+        <v>1.04569</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429127</v>
+        <v>0.433347</v>
       </c>
       <c r="C21" t="n">
-        <v>0.460938</v>
+        <v>0.43667</v>
       </c>
       <c r="D21" t="n">
-        <v>1.29516</v>
+        <v>1.24557</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422111</v>
+        <v>0.424273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443478</v>
+        <v>0.435257</v>
       </c>
       <c r="D22" t="n">
-        <v>1.22197</v>
+        <v>1.21585</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427878</v>
+        <v>0.420426</v>
       </c>
       <c r="C23" t="n">
-        <v>0.782847</v>
+        <v>0.732986</v>
       </c>
       <c r="D23" t="n">
-        <v>1.20574</v>
+        <v>1.18308</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702773</v>
+        <v>0.668108</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7204660000000001</v>
+        <v>0.698284</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21074</v>
+        <v>1.15803</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6817879999999999</v>
+        <v>0.653477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701035</v>
+        <v>0.68254</v>
       </c>
       <c r="D25" t="n">
-        <v>1.18357</v>
+        <v>1.17991</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6418509999999999</v>
+        <v>0.625077</v>
       </c>
       <c r="C26" t="n">
-        <v>0.698614</v>
+        <v>0.664504</v>
       </c>
       <c r="D26" t="n">
-        <v>1.18841</v>
+        <v>1.13438</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637378</v>
+        <v>0.637147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.667308</v>
+        <v>0.632378</v>
       </c>
       <c r="D27" t="n">
-        <v>1.18606</v>
+        <v>1.14613</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.606744</v>
+        <v>0.600618</v>
       </c>
       <c r="C28" t="n">
-        <v>0.656096</v>
+        <v>0.610961</v>
       </c>
       <c r="D28" t="n">
-        <v>1.17008</v>
+        <v>1.14485</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583267</v>
+        <v>0.575078</v>
       </c>
       <c r="C29" t="n">
-        <v>0.624069</v>
+        <v>0.6119790000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>1.17895</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.570562</v>
+        <v>0.5604209999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587473</v>
+        <v>0.580422</v>
       </c>
       <c r="D30" t="n">
-        <v>1.18723</v>
+        <v>1.09489</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.585023</v>
+        <v>0.545418</v>
       </c>
       <c r="C31" t="n">
-        <v>0.572677</v>
+        <v>0.554765</v>
       </c>
       <c r="D31" t="n">
-        <v>1.12728</v>
+        <v>1.11446</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5388309999999999</v>
+        <v>0.546752</v>
       </c>
       <c r="C32" t="n">
-        <v>0.557644</v>
+        <v>0.546925</v>
       </c>
       <c r="D32" t="n">
-        <v>1.1844</v>
+        <v>1.0828</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.535922</v>
+        <v>0.521398</v>
       </c>
       <c r="C33" t="n">
-        <v>0.552575</v>
+        <v>0.5235069999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>1.13868</v>
+        <v>1.09418</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.518931</v>
+        <v>0.510558</v>
       </c>
       <c r="C34" t="n">
-        <v>0.525085</v>
+        <v>0.5098510000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>1.14864</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.495073</v>
+        <v>0.49271</v>
       </c>
       <c r="C35" t="n">
-        <v>0.522587</v>
+        <v>0.497953</v>
       </c>
       <c r="D35" t="n">
-        <v>1.37233</v>
+        <v>1.36254</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.504044</v>
+        <v>0.481771</v>
       </c>
       <c r="C36" t="n">
-        <v>0.511004</v>
+        <v>0.483088</v>
       </c>
       <c r="D36" t="n">
-        <v>1.29969</v>
+        <v>1.34335</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49286</v>
+        <v>0.477308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810588</v>
+        <v>0.804189</v>
       </c>
       <c r="D37" t="n">
-        <v>1.30119</v>
+        <v>1.29654</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748557</v>
+        <v>0.740869</v>
       </c>
       <c r="C38" t="n">
-        <v>0.784463</v>
+        <v>0.765524</v>
       </c>
       <c r="D38" t="n">
-        <v>1.29114</v>
+        <v>1.28651</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766998</v>
+        <v>0.707215</v>
       </c>
       <c r="C39" t="n">
-        <v>0.790698</v>
+        <v>0.728059</v>
       </c>
       <c r="D39" t="n">
-        <v>1.27299</v>
+        <v>1.28591</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708071</v>
+        <v>0.684077</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735633</v>
+        <v>0.707342</v>
       </c>
       <c r="D40" t="n">
-        <v>1.28212</v>
+        <v>1.25328</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717841</v>
+        <v>0.683883</v>
       </c>
       <c r="C41" t="n">
-        <v>0.708496</v>
+        <v>0.682114</v>
       </c>
       <c r="D41" t="n">
-        <v>1.31078</v>
+        <v>1.22686</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.690998</v>
+        <v>0.648751</v>
       </c>
       <c r="C42" t="n">
-        <v>0.694557</v>
+        <v>0.65794</v>
       </c>
       <c r="D42" t="n">
-        <v>1.2363</v>
+        <v>1.29423</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.669775</v>
+        <v>0.639501</v>
       </c>
       <c r="C43" t="n">
-        <v>0.659219</v>
+        <v>0.660941</v>
       </c>
       <c r="D43" t="n">
-        <v>1.226</v>
+        <v>1.23132</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.670363</v>
+        <v>0.611967</v>
       </c>
       <c r="C44" t="n">
-        <v>0.644841</v>
+        <v>0.628947</v>
       </c>
       <c r="D44" t="n">
-        <v>1.19897</v>
+        <v>1.2123</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.640312</v>
+        <v>0.583742</v>
       </c>
       <c r="C45" t="n">
-        <v>0.620662</v>
+        <v>0.598832</v>
       </c>
       <c r="D45" t="n">
-        <v>1.19781</v>
+        <v>1.14392</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.594788</v>
+        <v>0.572813</v>
       </c>
       <c r="C46" t="n">
-        <v>0.586824</v>
+        <v>0.581005</v>
       </c>
       <c r="D46" t="n">
-        <v>1.22068</v>
+        <v>1.17915</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.608093</v>
+        <v>0.563971</v>
       </c>
       <c r="C47" t="n">
-        <v>0.589108</v>
+        <v>0.559655</v>
       </c>
       <c r="D47" t="n">
-        <v>1.19973</v>
+        <v>1.17247</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.574074</v>
+        <v>0.55547</v>
       </c>
       <c r="C48" t="n">
-        <v>0.583334</v>
+        <v>0.537562</v>
       </c>
       <c r="D48" t="n">
-        <v>1.20736</v>
+        <v>1.1893</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.556132</v>
+        <v>0.545782</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5570580000000001</v>
+        <v>0.532896</v>
       </c>
       <c r="D49" t="n">
-        <v>1.17834</v>
+        <v>1.17227</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535992</v>
+        <v>0.531129</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542682</v>
+        <v>0.518444</v>
       </c>
       <c r="D50" t="n">
-        <v>1.71477</v>
+        <v>1.60171</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.544203</v>
+        <v>0.514099</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878158</v>
+        <v>0.82174</v>
       </c>
       <c r="D51" t="n">
-        <v>1.64451</v>
+        <v>1.56176</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.526753</v>
+        <v>0.5044380000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.851925</v>
+        <v>0.807751</v>
       </c>
       <c r="D52" t="n">
-        <v>1.60921</v>
+        <v>1.54278</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.804107</v>
+        <v>0.749912</v>
       </c>
       <c r="C53" t="n">
-        <v>0.825675</v>
+        <v>0.764313</v>
       </c>
       <c r="D53" t="n">
-        <v>1.6441</v>
+        <v>1.56804</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.78364</v>
+        <v>0.736949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.79034</v>
+        <v>0.757872</v>
       </c>
       <c r="D54" t="n">
-        <v>1.6063</v>
+        <v>1.554</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.770488</v>
+        <v>0.767612</v>
       </c>
       <c r="C55" t="n">
-        <v>0.781334</v>
+        <v>0.721951</v>
       </c>
       <c r="D55" t="n">
-        <v>1.57845</v>
+        <v>1.53726</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.745076</v>
+        <v>0.71294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755101</v>
+        <v>0.7053469999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>1.62665</v>
+        <v>1.48085</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.744717</v>
+        <v>0.7097290000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.756522</v>
+        <v>0.723266</v>
       </c>
       <c r="D57" t="n">
-        <v>1.58227</v>
+        <v>1.49455</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.723889</v>
+        <v>0.689644</v>
       </c>
       <c r="C58" t="n">
-        <v>0.725782</v>
+        <v>0.701388</v>
       </c>
       <c r="D58" t="n">
-        <v>1.5447</v>
+        <v>1.49882</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.699654</v>
+        <v>0.693142</v>
       </c>
       <c r="C59" t="n">
-        <v>0.692333</v>
+        <v>0.680075</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52602</v>
+        <v>1.48171</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.703068</v>
+        <v>0.652873</v>
       </c>
       <c r="C60" t="n">
-        <v>0.678331</v>
+        <v>0.6616109999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>1.53412</v>
+        <v>1.44369</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.635767</v>
+        <v>0.651858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648749</v>
+        <v>0.64239</v>
       </c>
       <c r="D61" t="n">
-        <v>1.54264</v>
+        <v>1.4489</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.655394</v>
+        <v>0.6267740000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.663795</v>
+        <v>0.627219</v>
       </c>
       <c r="D62" t="n">
-        <v>1.55577</v>
+        <v>1.44569</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.641508</v>
+        <v>0.635265</v>
       </c>
       <c r="C63" t="n">
-        <v>0.63226</v>
+        <v>0.609634</v>
       </c>
       <c r="D63" t="n">
-        <v>1.53531</v>
+        <v>1.46288</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.628698</v>
+        <v>0.616881</v>
       </c>
       <c r="C64" t="n">
-        <v>0.623389</v>
+        <v>0.591139</v>
       </c>
       <c r="D64" t="n">
-        <v>2.61239</v>
+        <v>2.43615</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.611667</v>
+        <v>0.612337</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617753</v>
+        <v>0.58519</v>
       </c>
       <c r="D65" t="n">
-        <v>2.51664</v>
+        <v>2.34034</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6088170000000001</v>
+        <v>0.58982</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00521</v>
+        <v>0.916046</v>
       </c>
       <c r="D66" t="n">
-        <v>2.39088</v>
+        <v>2.27763</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.923822</v>
+        <v>0.883891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.948174</v>
+        <v>0.869436</v>
       </c>
       <c r="D67" t="n">
-        <v>2.33887</v>
+        <v>2.23612</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.88889</v>
+        <v>0.864391</v>
       </c>
       <c r="C68" t="n">
-        <v>0.884388</v>
+        <v>0.881282</v>
       </c>
       <c r="D68" t="n">
-        <v>2.40131</v>
+        <v>2.17786</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.879053</v>
+        <v>0.848268</v>
       </c>
       <c r="C69" t="n">
-        <v>0.878267</v>
+        <v>0.813984</v>
       </c>
       <c r="D69" t="n">
-        <v>2.32255</v>
+        <v>2.09519</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.867523</v>
+        <v>0.825188</v>
       </c>
       <c r="C70" t="n">
-        <v>0.85663</v>
+        <v>0.805866</v>
       </c>
       <c r="D70" t="n">
-        <v>2.34798</v>
+        <v>2.07196</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.812253</v>
+        <v>0.799358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8168260000000001</v>
+        <v>0.788243</v>
       </c>
       <c r="D71" t="n">
-        <v>2.25118</v>
+        <v>2.07454</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8137799999999999</v>
+        <v>0.790115</v>
       </c>
       <c r="C72" t="n">
-        <v>0.822083</v>
+        <v>0.7731479999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>2.24583</v>
+        <v>2.1236</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.799793</v>
+        <v>0.783406</v>
       </c>
       <c r="C73" t="n">
-        <v>0.792986</v>
+        <v>0.769449</v>
       </c>
       <c r="D73" t="n">
-        <v>2.27117</v>
+        <v>2.09203</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.783145</v>
+        <v>0.752296</v>
       </c>
       <c r="C74" t="n">
-        <v>0.746314</v>
+        <v>0.726683</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23104</v>
+        <v>2.15457</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757399</v>
+        <v>0.74058</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7550249999999999</v>
+        <v>0.725084</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18525</v>
+        <v>2.04993</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.725135</v>
+        <v>0.71853</v>
       </c>
       <c r="C76" t="n">
-        <v>0.727042</v>
+        <v>0.699196</v>
       </c>
       <c r="D76" t="n">
-        <v>2.17945</v>
+        <v>2.01664</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.722735</v>
+        <v>0.700832</v>
       </c>
       <c r="C77" t="n">
-        <v>0.713016</v>
+        <v>0.684405</v>
       </c>
       <c r="D77" t="n">
-        <v>2.26206</v>
+        <v>2.00433</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.734172</v>
+        <v>0.696823</v>
       </c>
       <c r="C78" t="n">
-        <v>0.708522</v>
+        <v>0.658427</v>
       </c>
       <c r="D78" t="n">
-        <v>3.58408</v>
+        <v>3.29987</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.711431</v>
+        <v>0.696981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6873629999999999</v>
+        <v>0.655734</v>
       </c>
       <c r="D79" t="n">
-        <v>3.45793</v>
+        <v>3.22833</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.700101</v>
+        <v>0.664873</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03214</v>
+        <v>1.02192</v>
       </c>
       <c r="D80" t="n">
-        <v>3.29152</v>
+        <v>3.17057</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02758</v>
+        <v>0.996438</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03132</v>
+        <v>0.999789</v>
       </c>
       <c r="D81" t="n">
-        <v>3.26612</v>
+        <v>3.09341</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01279</v>
+        <v>0.95702</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01739</v>
+        <v>0.956046</v>
       </c>
       <c r="D82" t="n">
-        <v>3.12491</v>
+        <v>2.99347</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.989191</v>
+        <v>0.944573</v>
       </c>
       <c r="C83" t="n">
-        <v>0.978432</v>
+        <v>0.916295</v>
       </c>
       <c r="D83" t="n">
-        <v>3.1031</v>
+        <v>2.93435</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.951588</v>
+        <v>0.916564</v>
       </c>
       <c r="C84" t="n">
-        <v>0.953772</v>
+        <v>0.901097</v>
       </c>
       <c r="D84" t="n">
-        <v>3.03543</v>
+        <v>2.85409</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.938706</v>
+        <v>0.909602</v>
       </c>
       <c r="C85" t="n">
-        <v>0.920869</v>
+        <v>0.8931750000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>3.03496</v>
+        <v>2.86919</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.94691</v>
+        <v>0.896289</v>
       </c>
       <c r="C86" t="n">
-        <v>0.897985</v>
+        <v>0.868788</v>
       </c>
       <c r="D86" t="n">
-        <v>2.99419</v>
+        <v>2.786</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9040589999999999</v>
+        <v>0.885585</v>
       </c>
       <c r="C87" t="n">
-        <v>0.875109</v>
+        <v>0.831887</v>
       </c>
       <c r="D87" t="n">
-        <v>2.92706</v>
+        <v>2.74124</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.865515</v>
+        <v>0.868134</v>
       </c>
       <c r="C88" t="n">
-        <v>0.855194</v>
+        <v>0.826033</v>
       </c>
       <c r="D88" t="n">
-        <v>2.89903</v>
+        <v>2.70605</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.855101</v>
+        <v>0.834488</v>
       </c>
       <c r="C89" t="n">
-        <v>0.833858</v>
+        <v>0.806691</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88809</v>
+        <v>2.72299</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.830779</v>
+        <v>0.811989</v>
       </c>
       <c r="C90" t="n">
-        <v>0.823197</v>
+        <v>0.790026</v>
       </c>
       <c r="D90" t="n">
-        <v>2.89684</v>
+        <v>2.66161</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.846643</v>
+        <v>0.824107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8126719999999999</v>
+        <v>0.763487</v>
       </c>
       <c r="D91" t="n">
-        <v>2.78788</v>
+        <v>2.68208</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.824952</v>
+        <v>0.818164</v>
       </c>
       <c r="C92" t="n">
-        <v>0.799287</v>
+        <v>0.751634</v>
       </c>
       <c r="D92" t="n">
-        <v>4.04566</v>
+        <v>3.82514</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.822453</v>
+        <v>0.774322</v>
       </c>
       <c r="C93" t="n">
-        <v>0.797221</v>
+        <v>0.7540249999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>3.90293</v>
+        <v>3.70721</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.795517</v>
+        <v>0.7811979999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>1.13873</v>
+        <v>1.08907</v>
       </c>
       <c r="D94" t="n">
-        <v>3.82193</v>
+        <v>3.65009</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13046</v>
+        <v>1.08781</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11154</v>
+        <v>1.04968</v>
       </c>
       <c r="D95" t="n">
-        <v>3.77429</v>
+        <v>3.55956</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11516</v>
+        <v>1.10195</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11622</v>
+        <v>1.05509</v>
       </c>
       <c r="D96" t="n">
-        <v>3.76615</v>
+        <v>3.5413</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08682</v>
+        <v>1.0557</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05038</v>
+        <v>1.04327</v>
       </c>
       <c r="D97" t="n">
-        <v>3.59167</v>
+        <v>3.47942</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07838</v>
+        <v>1.062</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02253</v>
+        <v>1.00856</v>
       </c>
       <c r="D98" t="n">
-        <v>3.57746</v>
+        <v>3.41161</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06513</v>
+        <v>1.00906</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00926</v>
+        <v>0.974876</v>
       </c>
       <c r="D99" t="n">
-        <v>3.52699</v>
+        <v>3.3421</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04937</v>
+        <v>0.994053</v>
       </c>
       <c r="C100" t="n">
-        <v>1.002</v>
+        <v>0.968773</v>
       </c>
       <c r="D100" t="n">
-        <v>3.49583</v>
+        <v>3.27134</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02054</v>
+        <v>1.00335</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991227</v>
+        <v>0.9465519999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>3.38849</v>
+        <v>3.23113</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.02496</v>
+        <v>0.963724</v>
       </c>
       <c r="C102" t="n">
-        <v>0.960758</v>
+        <v>0.912335</v>
       </c>
       <c r="D102" t="n">
-        <v>3.44549</v>
+        <v>3.23992</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.977889</v>
+        <v>0.969327</v>
       </c>
       <c r="C103" t="n">
-        <v>0.95163</v>
+        <v>0.8999239999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>3.35466</v>
+        <v>3.20384</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.986309</v>
+        <v>0.943432</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963932</v>
+        <v>0.894083</v>
       </c>
       <c r="D104" t="n">
-        <v>3.39214</v>
+        <v>3.23908</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9897</v>
+        <v>0.9380230000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909038</v>
+        <v>0.889834</v>
       </c>
       <c r="D105" t="n">
-        <v>3.3311</v>
+        <v>3.14108</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.967293</v>
+        <v>0.94242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.89798</v>
+        <v>0.853886</v>
       </c>
       <c r="D106" t="n">
-        <v>3.30692</v>
+        <v>3.17641</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.961238</v>
+        <v>0.912021</v>
       </c>
       <c r="C107" t="n">
-        <v>0.900309</v>
+        <v>0.842183</v>
       </c>
       <c r="D107" t="n">
-        <v>4.45916</v>
+        <v>4.27984</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.945842</v>
+        <v>0.933631</v>
       </c>
       <c r="C108" t="n">
-        <v>1.29007</v>
+        <v>1.21434</v>
       </c>
       <c r="D108" t="n">
-        <v>4.46839</v>
+        <v>4.22231</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.939437</v>
+        <v>0.896848</v>
       </c>
       <c r="C109" t="n">
-        <v>1.27157</v>
+        <v>1.21557</v>
       </c>
       <c r="D109" t="n">
-        <v>4.36958</v>
+        <v>4.15379</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.26605</v>
+        <v>1.20947</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25439</v>
+        <v>1.16573</v>
       </c>
       <c r="D110" t="n">
-        <v>4.20476</v>
+        <v>4.08377</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26724</v>
+        <v>1.23913</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19868</v>
+        <v>1.1726</v>
       </c>
       <c r="D111" t="n">
-        <v>4.17734</v>
+        <v>4.02848</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22506</v>
+        <v>1.19026</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19632</v>
+        <v>1.13554</v>
       </c>
       <c r="D112" t="n">
-        <v>4.18417</v>
+        <v>3.98283</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20892</v>
+        <v>1.19279</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18128</v>
+        <v>1.11946</v>
       </c>
       <c r="D113" t="n">
-        <v>4.10942</v>
+        <v>3.97939</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.22874</v>
+        <v>1.15259</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17428</v>
+        <v>1.08796</v>
       </c>
       <c r="D114" t="n">
-        <v>4.04699</v>
+        <v>3.91717</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.23063</v>
+        <v>1.19505</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1776</v>
+        <v>1.09553</v>
       </c>
       <c r="D115" t="n">
-        <v>3.99334</v>
+        <v>3.90581</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.22807</v>
+        <v>1.17554</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16702</v>
+        <v>1.07393</v>
       </c>
       <c r="D116" t="n">
-        <v>3.97238</v>
+        <v>3.90089</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18829</v>
+        <v>1.16907</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12056</v>
+        <v>1.08396</v>
       </c>
       <c r="D117" t="n">
-        <v>3.90413</v>
+        <v>3.76286</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21119</v>
+        <v>1.11959</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11253</v>
+        <v>1.06287</v>
       </c>
       <c r="D118" t="n">
-        <v>3.90307</v>
+        <v>3.77388</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19229</v>
+        <v>1.14264</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10753</v>
+        <v>1.05106</v>
       </c>
       <c r="D119" t="n">
-        <v>3.86106</v>
+        <v>3.7534</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.18426</v>
+        <v>1.10492</v>
       </c>
       <c r="C120" t="n">
-        <v>1.107</v>
+        <v>1.03829</v>
       </c>
       <c r="D120" t="n">
-        <v>3.85512</v>
+        <v>3.73781</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16067</v>
+        <v>1.13331</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08949</v>
+        <v>1.03528</v>
       </c>
       <c r="D121" t="n">
-        <v>5.22976</v>
+        <v>5.08658</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16091</v>
+        <v>1.10485</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07164</v>
+        <v>1.02086</v>
       </c>
       <c r="D122" t="n">
-        <v>5.14399</v>
+        <v>5.03206</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15166</v>
+        <v>1.11274</v>
       </c>
       <c r="C123" t="n">
-        <v>1.4593</v>
+        <v>1.40505</v>
       </c>
       <c r="D123" t="n">
-        <v>5.00965</v>
+        <v>4.91186</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4878</v>
+        <v>1.4517</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44277</v>
+        <v>1.35857</v>
       </c>
       <c r="D124" t="n">
-        <v>4.91875</v>
+        <v>4.86715</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44758</v>
+        <v>1.42064</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42952</v>
+        <v>1.37661</v>
       </c>
       <c r="D125" t="n">
-        <v>4.87138</v>
+        <v>4.76229</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.47086</v>
+        <v>1.43722</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41262</v>
+        <v>1.3697</v>
       </c>
       <c r="D126" t="n">
-        <v>4.70745</v>
+        <v>4.67272</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4406</v>
+        <v>1.43136</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43548</v>
+        <v>1.35282</v>
       </c>
       <c r="D127" t="n">
-        <v>4.63261</v>
+        <v>4.61256</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.43157</v>
+        <v>1.43291</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37375</v>
+        <v>1.32644</v>
       </c>
       <c r="D128" t="n">
-        <v>4.61095</v>
+        <v>4.53658</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43225</v>
+        <v>1.43987</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36741</v>
+        <v>1.33134</v>
       </c>
       <c r="D129" t="n">
-        <v>4.50448</v>
+        <v>4.49647</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42882</v>
+        <v>1.39432</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36792</v>
+        <v>1.32146</v>
       </c>
       <c r="D130" t="n">
-        <v>4.42377</v>
+        <v>4.43011</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40674</v>
+        <v>1.39074</v>
       </c>
       <c r="C131" t="n">
-        <v>1.38895</v>
+        <v>1.2897</v>
       </c>
       <c r="D131" t="n">
-        <v>4.39071</v>
+        <v>4.41566</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41594</v>
+        <v>1.3972</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38328</v>
+        <v>1.30978</v>
       </c>
       <c r="D132" t="n">
-        <v>4.36107</v>
+        <v>4.40169</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42147</v>
+        <v>1.41079</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37199</v>
+        <v>1.29037</v>
       </c>
       <c r="D133" t="n">
-        <v>4.33999</v>
+        <v>4.37106</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41406</v>
+        <v>1.40019</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37156</v>
+        <v>1.29446</v>
       </c>
       <c r="D134" t="n">
-        <v>4.30149</v>
+        <v>4.30741</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4016</v>
+        <v>1.3909</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34256</v>
+        <v>1.2738</v>
       </c>
       <c r="D135" t="n">
-        <v>5.92552</v>
+        <v>5.92083</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42542</v>
+        <v>1.40729</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37313</v>
+        <v>1.2791</v>
       </c>
       <c r="D136" t="n">
-        <v>5.79842</v>
+        <v>5.83396</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42373</v>
+        <v>1.39316</v>
       </c>
       <c r="C137" t="n">
-        <v>1.73549</v>
+        <v>1.68001</v>
       </c>
       <c r="D137" t="n">
-        <v>5.70351</v>
+        <v>5.7178</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74136</v>
+        <v>1.73223</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71707</v>
+        <v>1.66466</v>
       </c>
       <c r="D138" t="n">
-        <v>5.61823</v>
+        <v>5.62097</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74686</v>
+        <v>1.72013</v>
       </c>
       <c r="C139" t="n">
-        <v>1.7301</v>
+        <v>1.64078</v>
       </c>
       <c r="D139" t="n">
-        <v>5.50453</v>
+        <v>5.4715</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.7315</v>
+        <v>1.7047</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71469</v>
+        <v>1.65286</v>
       </c>
       <c r="D140" t="n">
-        <v>5.38355</v>
+        <v>5.39483</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72015</v>
+        <v>1.73114</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71214</v>
+        <v>1.6253</v>
       </c>
       <c r="D141" t="n">
-        <v>5.3239</v>
+        <v>5.34217</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71033</v>
+        <v>1.71574</v>
       </c>
       <c r="C142" t="n">
-        <v>1.71999</v>
+        <v>1.60193</v>
       </c>
       <c r="D142" t="n">
-        <v>5.28371</v>
+        <v>5.23825</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72258</v>
+        <v>1.72073</v>
       </c>
       <c r="C143" t="n">
-        <v>1.71674</v>
+        <v>1.62029</v>
       </c>
       <c r="D143" t="n">
-        <v>5.21527</v>
+        <v>5.19407</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.642309</v>
+        <v>0.60173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.600909</v>
+        <v>0.470451</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08722</v>
+        <v>0.981105</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.385222</v>
+        <v>0.341192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400299</v>
+        <v>0.326408</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0773</v>
+        <v>1.00467</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.357192</v>
+        <v>0.337354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.385674</v>
+        <v>0.307454</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02545</v>
+        <v>0.979144</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367253</v>
+        <v>0.333786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364875</v>
+        <v>0.313739</v>
       </c>
       <c r="D5" t="n">
-        <v>1.00682</v>
+        <v>0.979501</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.341329</v>
+        <v>0.33211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.374987</v>
+        <v>0.305091</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06078</v>
+        <v>0.979712</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.347178</v>
+        <v>0.325653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359268</v>
+        <v>0.303729</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25102</v>
+        <v>1.15241</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32719</v>
+        <v>0.32407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.354165</v>
+        <v>0.297179</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24624</v>
+        <v>1.1407</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335712</v>
+        <v>0.317998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.658662</v>
+        <v>0.5744010000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1928</v>
+        <v>1.14711</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572666</v>
+        <v>0.578187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6284960000000001</v>
+        <v>0.541034</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24632</v>
+        <v>1.12817</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.584186</v>
+        <v>0.565062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.621408</v>
+        <v>0.540646</v>
       </c>
       <c r="D11" t="n">
-        <v>1.22719</v>
+        <v>1.09216</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.553885</v>
+        <v>0.542925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.574236</v>
+        <v>0.519811</v>
       </c>
       <c r="D12" t="n">
-        <v>1.16515</v>
+        <v>1.07537</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5524250000000001</v>
+        <v>0.525665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.577717</v>
+        <v>0.501084</v>
       </c>
       <c r="D13" t="n">
-        <v>1.11636</v>
+        <v>1.08189</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5272210000000001</v>
+        <v>0.516058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.553961</v>
+        <v>0.486506</v>
       </c>
       <c r="D14" t="n">
-        <v>1.12218</v>
+        <v>1.05942</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.501166</v>
+        <v>0.502234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.522247</v>
+        <v>0.477826</v>
       </c>
       <c r="D15" t="n">
-        <v>1.10531</v>
+        <v>1.08539</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.502534</v>
+        <v>0.47709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.509211</v>
+        <v>0.447727</v>
       </c>
       <c r="D16" t="n">
-        <v>1.09654</v>
+        <v>1.0707</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479171</v>
+        <v>0.480418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.483815</v>
+        <v>0.441506</v>
       </c>
       <c r="D17" t="n">
-        <v>1.08615</v>
+        <v>1.04953</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472373</v>
+        <v>0.463999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.488187</v>
+        <v>0.432122</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06336</v>
+        <v>1.03882</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461116</v>
+        <v>0.448813</v>
       </c>
       <c r="C19" t="n">
-        <v>0.465306</v>
+        <v>0.413327</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05984</v>
+        <v>1.05259</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.448876</v>
+        <v>0.437068</v>
       </c>
       <c r="C20" t="n">
-        <v>0.471247</v>
+        <v>0.409363</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00745</v>
+        <v>1.02162</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429127</v>
+        <v>0.425389</v>
       </c>
       <c r="C21" t="n">
-        <v>0.460938</v>
+        <v>0.406251</v>
       </c>
       <c r="D21" t="n">
-        <v>1.29516</v>
+        <v>1.24016</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422111</v>
+        <v>0.418195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443478</v>
+        <v>0.402041</v>
       </c>
       <c r="D22" t="n">
-        <v>1.22197</v>
+        <v>1.21659</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427878</v>
+        <v>0.412313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.782847</v>
+        <v>0.6628270000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.20574</v>
+        <v>1.21788</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702773</v>
+        <v>0.67196</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7204660000000001</v>
+        <v>0.636679</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21074</v>
+        <v>1.16499</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6817879999999999</v>
+        <v>0.684989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701035</v>
+        <v>0.638988</v>
       </c>
       <c r="D25" t="n">
-        <v>1.18357</v>
+        <v>1.17535</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6418509999999999</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.698614</v>
+        <v>0.59702</v>
       </c>
       <c r="D26" t="n">
-        <v>1.18841</v>
+        <v>1.14249</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637378</v>
+        <v>0.614542</v>
       </c>
       <c r="C27" t="n">
-        <v>0.667308</v>
+        <v>0.565705</v>
       </c>
       <c r="D27" t="n">
-        <v>1.18606</v>
+        <v>1.12899</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.606744</v>
+        <v>0.609033</v>
       </c>
       <c r="C28" t="n">
-        <v>0.656096</v>
+        <v>0.570416</v>
       </c>
       <c r="D28" t="n">
-        <v>1.17008</v>
+        <v>1.12288</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583267</v>
+        <v>0.600048</v>
       </c>
       <c r="C29" t="n">
-        <v>0.624069</v>
+        <v>0.547825</v>
       </c>
       <c r="D29" t="n">
-        <v>1.17895</v>
+        <v>1.12569</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.570562</v>
+        <v>0.558572</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587473</v>
+        <v>0.519136</v>
       </c>
       <c r="D30" t="n">
-        <v>1.18723</v>
+        <v>1.09856</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.585023</v>
+        <v>0.540988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.572677</v>
+        <v>0.510329</v>
       </c>
       <c r="D31" t="n">
-        <v>1.12728</v>
+        <v>1.10727</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5388309999999999</v>
+        <v>0.534888</v>
       </c>
       <c r="C32" t="n">
-        <v>0.557644</v>
+        <v>0.501297</v>
       </c>
       <c r="D32" t="n">
-        <v>1.1844</v>
+        <v>1.10725</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.535922</v>
+        <v>0.551599</v>
       </c>
       <c r="C33" t="n">
-        <v>0.552575</v>
+        <v>0.493069</v>
       </c>
       <c r="D33" t="n">
-        <v>1.13868</v>
+        <v>1.06597</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.518931</v>
+        <v>0.511136</v>
       </c>
       <c r="C34" t="n">
-        <v>0.525085</v>
+        <v>0.474601</v>
       </c>
       <c r="D34" t="n">
-        <v>1.14864</v>
+        <v>1.1008</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.495073</v>
+        <v>0.493248</v>
       </c>
       <c r="C35" t="n">
-        <v>0.522587</v>
+        <v>0.464816</v>
       </c>
       <c r="D35" t="n">
-        <v>1.37233</v>
+        <v>1.33504</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.504044</v>
+        <v>0.476581</v>
       </c>
       <c r="C36" t="n">
-        <v>0.511004</v>
+        <v>0.459587</v>
       </c>
       <c r="D36" t="n">
-        <v>1.29969</v>
+        <v>1.30339</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49286</v>
+        <v>0.471209</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810588</v>
+        <v>0.705705</v>
       </c>
       <c r="D37" t="n">
-        <v>1.30119</v>
+        <v>1.30634</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748557</v>
+        <v>0.74196</v>
       </c>
       <c r="C38" t="n">
-        <v>0.784463</v>
+        <v>0.6885790000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>1.29114</v>
+        <v>1.26812</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766998</v>
+        <v>0.704484</v>
       </c>
       <c r="C39" t="n">
-        <v>0.790698</v>
+        <v>0.659381</v>
       </c>
       <c r="D39" t="n">
-        <v>1.27299</v>
+        <v>1.2569</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708071</v>
+        <v>0.696072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735633</v>
+        <v>0.656009</v>
       </c>
       <c r="D40" t="n">
-        <v>1.28212</v>
+        <v>1.27228</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717841</v>
+        <v>0.6729309999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.708496</v>
+        <v>0.630763</v>
       </c>
       <c r="D41" t="n">
-        <v>1.31078</v>
+        <v>1.25595</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.690998</v>
+        <v>0.643422</v>
       </c>
       <c r="C42" t="n">
-        <v>0.694557</v>
+        <v>0.619414</v>
       </c>
       <c r="D42" t="n">
-        <v>1.2363</v>
+        <v>1.23022</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.669775</v>
+        <v>0.644651</v>
       </c>
       <c r="C43" t="n">
-        <v>0.659219</v>
+        <v>0.584946</v>
       </c>
       <c r="D43" t="n">
-        <v>1.226</v>
+        <v>1.25458</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.670363</v>
+        <v>0.614182</v>
       </c>
       <c r="C44" t="n">
-        <v>0.644841</v>
+        <v>0.562755</v>
       </c>
       <c r="D44" t="n">
-        <v>1.19897</v>
+        <v>1.20019</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.640312</v>
+        <v>0.597348</v>
       </c>
       <c r="C45" t="n">
-        <v>0.620662</v>
+        <v>0.554304</v>
       </c>
       <c r="D45" t="n">
-        <v>1.19781</v>
+        <v>1.25015</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.594788</v>
+        <v>0.589846</v>
       </c>
       <c r="C46" t="n">
-        <v>0.586824</v>
+        <v>0.542289</v>
       </c>
       <c r="D46" t="n">
-        <v>1.22068</v>
+        <v>1.17866</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.608093</v>
+        <v>0.57402</v>
       </c>
       <c r="C47" t="n">
-        <v>0.589108</v>
+        <v>0.548325</v>
       </c>
       <c r="D47" t="n">
-        <v>1.19973</v>
+        <v>1.20012</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.574074</v>
+        <v>0.553791</v>
       </c>
       <c r="C48" t="n">
-        <v>0.583334</v>
+        <v>0.511052</v>
       </c>
       <c r="D48" t="n">
-        <v>1.20736</v>
+        <v>1.15939</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.556132</v>
+        <v>0.5319</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5570580000000001</v>
+        <v>0.490511</v>
       </c>
       <c r="D49" t="n">
-        <v>1.17834</v>
+        <v>1.19995</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535992</v>
+        <v>0.527742</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542682</v>
+        <v>0.488167</v>
       </c>
       <c r="D50" t="n">
-        <v>1.71477</v>
+        <v>1.65386</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.544203</v>
+        <v>0.533678</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878158</v>
+        <v>0.7594649999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1.64451</v>
+        <v>1.62744</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.526753</v>
+        <v>0.509859</v>
       </c>
       <c r="C52" t="n">
-        <v>0.851925</v>
+        <v>0.748468</v>
       </c>
       <c r="D52" t="n">
-        <v>1.60921</v>
+        <v>1.57918</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.804107</v>
+        <v>0.782378</v>
       </c>
       <c r="C53" t="n">
-        <v>0.825675</v>
+        <v>0.73349</v>
       </c>
       <c r="D53" t="n">
-        <v>1.6441</v>
+        <v>1.55823</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.78364</v>
+        <v>0.769188</v>
       </c>
       <c r="C54" t="n">
-        <v>0.79034</v>
+        <v>0.713365</v>
       </c>
       <c r="D54" t="n">
-        <v>1.6063</v>
+        <v>1.51145</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.770488</v>
+        <v>0.741255</v>
       </c>
       <c r="C55" t="n">
-        <v>0.781334</v>
+        <v>0.689509</v>
       </c>
       <c r="D55" t="n">
-        <v>1.57845</v>
+        <v>1.53876</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.745076</v>
+        <v>0.718311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755101</v>
+        <v>0.666803</v>
       </c>
       <c r="D56" t="n">
-        <v>1.62665</v>
+        <v>1.4893</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.744717</v>
+        <v>0.6899380000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.756522</v>
+        <v>0.646228</v>
       </c>
       <c r="D57" t="n">
-        <v>1.58227</v>
+        <v>1.47675</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.723889</v>
+        <v>0.69212</v>
       </c>
       <c r="C58" t="n">
-        <v>0.725782</v>
+        <v>0.633475</v>
       </c>
       <c r="D58" t="n">
-        <v>1.5447</v>
+        <v>1.49355</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.699654</v>
+        <v>0.678478</v>
       </c>
       <c r="C59" t="n">
-        <v>0.692333</v>
+        <v>0.620716</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52602</v>
+        <v>1.43427</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.703068</v>
+        <v>0.663096</v>
       </c>
       <c r="C60" t="n">
-        <v>0.678331</v>
+        <v>0.608912</v>
       </c>
       <c r="D60" t="n">
-        <v>1.53412</v>
+        <v>1.47563</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.635767</v>
+        <v>0.6410169999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648749</v>
+        <v>0.591137</v>
       </c>
       <c r="D61" t="n">
-        <v>1.54264</v>
+        <v>1.47737</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.655394</v>
+        <v>0.646278</v>
       </c>
       <c r="C62" t="n">
-        <v>0.663795</v>
+        <v>0.580233</v>
       </c>
       <c r="D62" t="n">
-        <v>1.55577</v>
+        <v>1.44617</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.641508</v>
+        <v>0.604786</v>
       </c>
       <c r="C63" t="n">
-        <v>0.63226</v>
+        <v>0.574897</v>
       </c>
       <c r="D63" t="n">
-        <v>1.53531</v>
+        <v>1.46083</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.628698</v>
+        <v>0.621732</v>
       </c>
       <c r="C64" t="n">
-        <v>0.623389</v>
+        <v>0.562683</v>
       </c>
       <c r="D64" t="n">
-        <v>2.61239</v>
+        <v>2.27787</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.611667</v>
+        <v>0.595159</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617753</v>
+        <v>0.546594</v>
       </c>
       <c r="D65" t="n">
-        <v>2.51664</v>
+        <v>2.23951</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6088170000000001</v>
+        <v>0.583294</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00521</v>
+        <v>0.828578</v>
       </c>
       <c r="D66" t="n">
-        <v>2.39088</v>
+        <v>2.22412</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.923822</v>
+        <v>0.869407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.948174</v>
+        <v>0.806095</v>
       </c>
       <c r="D67" t="n">
-        <v>2.33887</v>
+        <v>2.20805</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.88889</v>
+        <v>0.852502</v>
       </c>
       <c r="C68" t="n">
-        <v>0.884388</v>
+        <v>0.799583</v>
       </c>
       <c r="D68" t="n">
-        <v>2.40131</v>
+        <v>2.13642</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.879053</v>
+        <v>0.849827</v>
       </c>
       <c r="C69" t="n">
-        <v>0.878267</v>
+        <v>0.790824</v>
       </c>
       <c r="D69" t="n">
-        <v>2.32255</v>
+        <v>2.07568</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.867523</v>
+        <v>0.798884</v>
       </c>
       <c r="C70" t="n">
-        <v>0.85663</v>
+        <v>0.750896</v>
       </c>
       <c r="D70" t="n">
-        <v>2.34798</v>
+        <v>2.07674</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.812253</v>
+        <v>0.812992</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8168260000000001</v>
+        <v>0.7319870000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>2.25118</v>
+        <v>2.04762</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8137799999999999</v>
+        <v>0.771983</v>
       </c>
       <c r="C72" t="n">
-        <v>0.822083</v>
+        <v>0.717129</v>
       </c>
       <c r="D72" t="n">
-        <v>2.24583</v>
+        <v>2.00309</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.799793</v>
+        <v>0.762686</v>
       </c>
       <c r="C73" t="n">
-        <v>0.792986</v>
+        <v>0.713867</v>
       </c>
       <c r="D73" t="n">
-        <v>2.27117</v>
+        <v>2.03114</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.783145</v>
+        <v>0.757959</v>
       </c>
       <c r="C74" t="n">
-        <v>0.746314</v>
+        <v>0.674028</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23104</v>
+        <v>2.00502</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757399</v>
+        <v>0.744274</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7550249999999999</v>
+        <v>0.682922</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18525</v>
+        <v>2.05639</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.725135</v>
+        <v>0.725749</v>
       </c>
       <c r="C76" t="n">
-        <v>0.727042</v>
+        <v>0.646366</v>
       </c>
       <c r="D76" t="n">
-        <v>2.17945</v>
+        <v>2.04495</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.722735</v>
+        <v>0.71952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.713016</v>
+        <v>0.648155</v>
       </c>
       <c r="D77" t="n">
-        <v>2.26206</v>
+        <v>2.01435</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.734172</v>
+        <v>0.699304</v>
       </c>
       <c r="C78" t="n">
-        <v>0.708522</v>
+        <v>0.641478</v>
       </c>
       <c r="D78" t="n">
-        <v>3.58408</v>
+        <v>3.22845</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.711431</v>
+        <v>0.682637</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6873629999999999</v>
+        <v>0.627466</v>
       </c>
       <c r="D79" t="n">
-        <v>3.45793</v>
+        <v>3.07906</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.700101</v>
+        <v>0.6848379999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03214</v>
+        <v>0.935619</v>
       </c>
       <c r="D80" t="n">
-        <v>3.29152</v>
+        <v>3.05656</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02758</v>
+        <v>0.9672230000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03132</v>
+        <v>0.904145</v>
       </c>
       <c r="D81" t="n">
-        <v>3.26612</v>
+        <v>3.02582</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01279</v>
+        <v>0.944141</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01739</v>
+        <v>0.885137</v>
       </c>
       <c r="D82" t="n">
-        <v>3.12491</v>
+        <v>2.9166</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.989191</v>
+        <v>0.950139</v>
       </c>
       <c r="C83" t="n">
-        <v>0.978432</v>
+        <v>0.879864</v>
       </c>
       <c r="D83" t="n">
-        <v>3.1031</v>
+        <v>2.84141</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.951588</v>
+        <v>0.9208190000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.953772</v>
+        <v>0.837379</v>
       </c>
       <c r="D84" t="n">
-        <v>3.03543</v>
+        <v>2.80093</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.938706</v>
+        <v>0.907713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.920869</v>
+        <v>0.820662</v>
       </c>
       <c r="D85" t="n">
-        <v>3.03496</v>
+        <v>2.85542</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.94691</v>
+        <v>0.888297</v>
       </c>
       <c r="C86" t="n">
-        <v>0.897985</v>
+        <v>0.846729</v>
       </c>
       <c r="D86" t="n">
-        <v>2.99419</v>
+        <v>2.70849</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9040589999999999</v>
+        <v>0.858137</v>
       </c>
       <c r="C87" t="n">
-        <v>0.875109</v>
+        <v>0.796147</v>
       </c>
       <c r="D87" t="n">
-        <v>2.92706</v>
+        <v>2.78497</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.865515</v>
+        <v>0.851694</v>
       </c>
       <c r="C88" t="n">
-        <v>0.855194</v>
+        <v>0.773034</v>
       </c>
       <c r="D88" t="n">
-        <v>2.89903</v>
+        <v>2.68437</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.855101</v>
+        <v>0.846408</v>
       </c>
       <c r="C89" t="n">
-        <v>0.833858</v>
+        <v>0.7610710000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88809</v>
+        <v>2.68269</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.830779</v>
+        <v>0.826317</v>
       </c>
       <c r="C90" t="n">
-        <v>0.823197</v>
+        <v>0.751178</v>
       </c>
       <c r="D90" t="n">
-        <v>2.89684</v>
+        <v>2.65557</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.846643</v>
+        <v>0.796623</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8126719999999999</v>
+        <v>0.735802</v>
       </c>
       <c r="D91" t="n">
-        <v>2.78788</v>
+        <v>2.69259</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.824952</v>
+        <v>0.792442</v>
       </c>
       <c r="C92" t="n">
-        <v>0.799287</v>
+        <v>0.7144509999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>4.04566</v>
+        <v>3.8371</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.822453</v>
+        <v>0.79305</v>
       </c>
       <c r="C93" t="n">
-        <v>0.797221</v>
+        <v>0.711319</v>
       </c>
       <c r="D93" t="n">
-        <v>3.90293</v>
+        <v>3.60565</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.795517</v>
+        <v>0.769826</v>
       </c>
       <c r="C94" t="n">
-        <v>1.13873</v>
+        <v>1.04327</v>
       </c>
       <c r="D94" t="n">
-        <v>3.82193</v>
+        <v>3.67783</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13046</v>
+        <v>1.08334</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11154</v>
+        <v>1.0115</v>
       </c>
       <c r="D95" t="n">
-        <v>3.77429</v>
+        <v>3.52767</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11516</v>
+        <v>1.08218</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11622</v>
+        <v>1.00141</v>
       </c>
       <c r="D96" t="n">
-        <v>3.76615</v>
+        <v>3.51971</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08682</v>
+        <v>1.0565</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05038</v>
+        <v>0.957475</v>
       </c>
       <c r="D97" t="n">
-        <v>3.59167</v>
+        <v>3.48739</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07838</v>
+        <v>1.05574</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02253</v>
+        <v>0.95966</v>
       </c>
       <c r="D98" t="n">
-        <v>3.57746</v>
+        <v>3.366</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06513</v>
+        <v>1.00761</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00926</v>
+        <v>0.929979</v>
       </c>
       <c r="D99" t="n">
-        <v>3.52699</v>
+        <v>3.33983</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04937</v>
+        <v>1.00165</v>
       </c>
       <c r="C100" t="n">
-        <v>1.002</v>
+        <v>0.925762</v>
       </c>
       <c r="D100" t="n">
-        <v>3.49583</v>
+        <v>3.24312</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02054</v>
+        <v>1.01448</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991227</v>
+        <v>0.893069</v>
       </c>
       <c r="D101" t="n">
-        <v>3.38849</v>
+        <v>3.21915</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.02496</v>
+        <v>0.970458</v>
       </c>
       <c r="C102" t="n">
-        <v>0.960758</v>
+        <v>0.880705</v>
       </c>
       <c r="D102" t="n">
-        <v>3.44549</v>
+        <v>3.25279</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.977889</v>
+        <v>0.97018</v>
       </c>
       <c r="C103" t="n">
-        <v>0.95163</v>
+        <v>0.871692</v>
       </c>
       <c r="D103" t="n">
-        <v>3.35466</v>
+        <v>3.22556</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.986309</v>
+        <v>0.958914</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963932</v>
+        <v>0.872227</v>
       </c>
       <c r="D104" t="n">
-        <v>3.39214</v>
+        <v>3.22496</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9897</v>
+        <v>0.926415</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909038</v>
+        <v>0.879333</v>
       </c>
       <c r="D105" t="n">
-        <v>3.3311</v>
+        <v>3.19712</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.967293</v>
+        <v>0.924893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.89798</v>
+        <v>0.865241</v>
       </c>
       <c r="D106" t="n">
-        <v>3.30692</v>
+        <v>3.14662</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.961238</v>
+        <v>0.913618</v>
       </c>
       <c r="C107" t="n">
-        <v>0.900309</v>
+        <v>0.815258</v>
       </c>
       <c r="D107" t="n">
-        <v>4.45916</v>
+        <v>4.26319</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.945842</v>
+        <v>0.935727</v>
       </c>
       <c r="C108" t="n">
-        <v>1.29007</v>
+        <v>1.15016</v>
       </c>
       <c r="D108" t="n">
-        <v>4.46839</v>
+        <v>4.16322</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.939437</v>
+        <v>0.893634</v>
       </c>
       <c r="C109" t="n">
-        <v>1.27157</v>
+        <v>1.13844</v>
       </c>
       <c r="D109" t="n">
-        <v>4.36958</v>
+        <v>4.25522</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.26605</v>
+        <v>1.23974</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25439</v>
+        <v>1.10768</v>
       </c>
       <c r="D110" t="n">
-        <v>4.20476</v>
+        <v>4.05474</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26724</v>
+        <v>1.22766</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19868</v>
+        <v>1.09051</v>
       </c>
       <c r="D111" t="n">
-        <v>4.17734</v>
+        <v>4.02813</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22506</v>
+        <v>1.18045</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19632</v>
+        <v>1.07589</v>
       </c>
       <c r="D112" t="n">
-        <v>4.18417</v>
+        <v>4.00012</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20892</v>
+        <v>1.2019</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18128</v>
+        <v>1.06892</v>
       </c>
       <c r="D113" t="n">
-        <v>4.10942</v>
+        <v>3.95537</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.22874</v>
+        <v>1.17061</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17428</v>
+        <v>1.07346</v>
       </c>
       <c r="D114" t="n">
-        <v>4.04699</v>
+        <v>3.89936</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.23063</v>
+        <v>1.16401</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1776</v>
+        <v>1.0677</v>
       </c>
       <c r="D115" t="n">
-        <v>3.99334</v>
+        <v>3.85223</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.22807</v>
+        <v>1.16471</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16702</v>
+        <v>1.02071</v>
       </c>
       <c r="D116" t="n">
-        <v>3.97238</v>
+        <v>3.80826</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18829</v>
+        <v>1.15685</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12056</v>
+        <v>1.03323</v>
       </c>
       <c r="D117" t="n">
-        <v>3.90413</v>
+        <v>3.78417</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21119</v>
+        <v>1.12566</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11253</v>
+        <v>1.02413</v>
       </c>
       <c r="D118" t="n">
-        <v>3.90307</v>
+        <v>3.76176</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19229</v>
+        <v>1.13526</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10753</v>
+        <v>1.02667</v>
       </c>
       <c r="D119" t="n">
-        <v>3.86106</v>
+        <v>3.75422</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.18426</v>
+        <v>1.10851</v>
       </c>
       <c r="C120" t="n">
-        <v>1.107</v>
+        <v>1.01021</v>
       </c>
       <c r="D120" t="n">
-        <v>3.85512</v>
+        <v>3.74367</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16067</v>
+        <v>1.12163</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08949</v>
+        <v>0.990066</v>
       </c>
       <c r="D121" t="n">
-        <v>5.22976</v>
+        <v>5.12898</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16091</v>
+        <v>1.10799</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07164</v>
+        <v>0.994452</v>
       </c>
       <c r="D122" t="n">
-        <v>5.14399</v>
+        <v>4.94098</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15166</v>
+        <v>1.10675</v>
       </c>
       <c r="C123" t="n">
-        <v>1.4593</v>
+        <v>1.31451</v>
       </c>
       <c r="D123" t="n">
-        <v>5.00965</v>
+        <v>4.89569</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4878</v>
+        <v>1.44805</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44277</v>
+        <v>1.33404</v>
       </c>
       <c r="D124" t="n">
-        <v>4.91875</v>
+        <v>4.81273</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44758</v>
+        <v>1.41765</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42952</v>
+        <v>1.3052</v>
       </c>
       <c r="D125" t="n">
-        <v>4.87138</v>
+        <v>4.72571</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.47086</v>
+        <v>1.42029</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41262</v>
+        <v>1.29894</v>
       </c>
       <c r="D126" t="n">
-        <v>4.70745</v>
+        <v>4.67237</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4406</v>
+        <v>1.41281</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43548</v>
+        <v>1.31574</v>
       </c>
       <c r="D127" t="n">
-        <v>4.63261</v>
+        <v>4.56007</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.43157</v>
+        <v>1.40767</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37375</v>
+        <v>1.29629</v>
       </c>
       <c r="D128" t="n">
-        <v>4.61095</v>
+        <v>4.51812</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43225</v>
+        <v>1.45427</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36741</v>
+        <v>1.28114</v>
       </c>
       <c r="D129" t="n">
-        <v>4.50448</v>
+        <v>4.44748</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42882</v>
+        <v>1.39949</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36792</v>
+        <v>1.29421</v>
       </c>
       <c r="D130" t="n">
-        <v>4.42377</v>
+        <v>4.44949</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40674</v>
+        <v>1.41475</v>
       </c>
       <c r="C131" t="n">
-        <v>1.38895</v>
+        <v>1.26704</v>
       </c>
       <c r="D131" t="n">
-        <v>4.39071</v>
+        <v>4.36487</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41594</v>
+        <v>1.42757</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38328</v>
+        <v>1.29964</v>
       </c>
       <c r="D132" t="n">
-        <v>4.36107</v>
+        <v>4.37209</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42147</v>
+        <v>1.42379</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37199</v>
+        <v>1.27409</v>
       </c>
       <c r="D133" t="n">
-        <v>4.33999</v>
+        <v>4.30975</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41406</v>
+        <v>1.39705</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37156</v>
+        <v>1.29245</v>
       </c>
       <c r="D134" t="n">
-        <v>4.30149</v>
+        <v>4.2728</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4016</v>
+        <v>1.40328</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34256</v>
+        <v>1.28529</v>
       </c>
       <c r="D135" t="n">
-        <v>5.92552</v>
+        <v>5.88444</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42542</v>
+        <v>1.39585</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37313</v>
+        <v>1.27962</v>
       </c>
       <c r="D136" t="n">
-        <v>5.79842</v>
+        <v>5.78753</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42373</v>
+        <v>1.3996</v>
       </c>
       <c r="C137" t="n">
-        <v>1.73549</v>
+        <v>1.60078</v>
       </c>
       <c r="D137" t="n">
-        <v>5.70351</v>
+        <v>5.67752</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74136</v>
+        <v>1.74056</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71707</v>
+        <v>1.60547</v>
       </c>
       <c r="D138" t="n">
-        <v>5.61823</v>
+        <v>5.58557</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74686</v>
+        <v>1.73148</v>
       </c>
       <c r="C139" t="n">
-        <v>1.7301</v>
+        <v>1.59927</v>
       </c>
       <c r="D139" t="n">
-        <v>5.50453</v>
+        <v>5.51584</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.7315</v>
+        <v>1.73983</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71469</v>
+        <v>1.59249</v>
       </c>
       <c r="D140" t="n">
-        <v>5.38355</v>
+        <v>5.44233</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72015</v>
+        <v>1.71006</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71214</v>
+        <v>1.56988</v>
       </c>
       <c r="D141" t="n">
-        <v>5.3239</v>
+        <v>5.32991</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71033</v>
+        <v>1.69831</v>
       </c>
       <c r="C142" t="n">
-        <v>1.71999</v>
+        <v>1.57543</v>
       </c>
       <c r="D142" t="n">
-        <v>5.28371</v>
+        <v>5.20688</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72258</v>
+        <v>1.70097</v>
       </c>
       <c r="C143" t="n">
-        <v>1.71674</v>
+        <v>1.59869</v>
       </c>
       <c r="D143" t="n">
-        <v>5.21527</v>
+        <v>5.20187</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.60173</v>
+        <v>0.598974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.470451</v>
+        <v>0.478269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.981105</v>
+        <v>1.00315</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.341192</v>
+        <v>0.345518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.326408</v>
+        <v>0.315953</v>
       </c>
       <c r="D3" t="n">
-        <v>1.00467</v>
+        <v>0.958351</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.337354</v>
+        <v>0.335218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.307454</v>
+        <v>0.31448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.979144</v>
+        <v>1.01612</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.333786</v>
+        <v>0.336383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.313739</v>
+        <v>0.312276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.979501</v>
+        <v>0.956823</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.33211</v>
+        <v>0.335581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.305091</v>
+        <v>0.306016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.979712</v>
+        <v>0.967843</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.325653</v>
+        <v>0.319451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.303729</v>
+        <v>0.310623</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15241</v>
+        <v>1.20661</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32407</v>
+        <v>0.319683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.297179</v>
+        <v>0.304903</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1407</v>
+        <v>1.18071</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.317998</v>
+        <v>0.316471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5744010000000001</v>
+        <v>0.586561</v>
       </c>
       <c r="D9" t="n">
-        <v>1.14711</v>
+        <v>1.13682</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.578187</v>
+        <v>0.578711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.541034</v>
+        <v>0.545168</v>
       </c>
       <c r="D10" t="n">
-        <v>1.12817</v>
+        <v>1.12358</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.565062</v>
+        <v>0.565846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.540646</v>
+        <v>0.53137</v>
       </c>
       <c r="D11" t="n">
-        <v>1.09216</v>
+        <v>1.08676</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.542925</v>
+        <v>0.542432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.519811</v>
+        <v>0.5137930000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.07537</v>
+        <v>1.09728</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.525665</v>
+        <v>0.526597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.501084</v>
+        <v>0.51381</v>
       </c>
       <c r="D13" t="n">
-        <v>1.08189</v>
+        <v>1.09262</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.516058</v>
+        <v>0.505672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.486506</v>
+        <v>0.473179</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05942</v>
+        <v>1.07389</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.502234</v>
+        <v>0.498378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.477826</v>
+        <v>0.458939</v>
       </c>
       <c r="D15" t="n">
-        <v>1.08539</v>
+        <v>1.05728</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47709</v>
+        <v>0.480844</v>
       </c>
       <c r="C16" t="n">
-        <v>0.447727</v>
+        <v>0.471426</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0707</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480418</v>
+        <v>0.465877</v>
       </c>
       <c r="C17" t="n">
-        <v>0.441506</v>
+        <v>0.430537</v>
       </c>
       <c r="D17" t="n">
-        <v>1.04953</v>
+        <v>1.04499</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463999</v>
+        <v>0.46181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.432122</v>
+        <v>0.42676</v>
       </c>
       <c r="D18" t="n">
-        <v>1.03882</v>
+        <v>1.03168</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.448813</v>
+        <v>0.451811</v>
       </c>
       <c r="C19" t="n">
-        <v>0.413327</v>
+        <v>0.415959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05259</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.437068</v>
+        <v>0.437637</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409363</v>
+        <v>0.406851</v>
       </c>
       <c r="D20" t="n">
-        <v>1.02162</v>
+        <v>1.04043</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425389</v>
+        <v>0.430033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.406251</v>
+        <v>0.395283</v>
       </c>
       <c r="D21" t="n">
-        <v>1.24016</v>
+        <v>1.24753</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418195</v>
+        <v>0.423327</v>
       </c>
       <c r="C22" t="n">
-        <v>0.402041</v>
+        <v>0.394842</v>
       </c>
       <c r="D22" t="n">
-        <v>1.21659</v>
+        <v>1.21157</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.412313</v>
+        <v>0.423049</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6628270000000001</v>
+        <v>0.6530589999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>1.21788</v>
+        <v>1.19672</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.67196</v>
+        <v>0.676077</v>
       </c>
       <c r="C24" t="n">
-        <v>0.636679</v>
+        <v>0.643682</v>
       </c>
       <c r="D24" t="n">
-        <v>1.16499</v>
+        <v>1.19183</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.684989</v>
+        <v>0.664793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.638988</v>
+        <v>0.620212</v>
       </c>
       <c r="D25" t="n">
-        <v>1.17535</v>
+        <v>1.14791</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6410090000000001</v>
+        <v>0.6321870000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.59702</v>
+        <v>0.61812</v>
       </c>
       <c r="D26" t="n">
-        <v>1.14249</v>
+        <v>1.14188</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.614542</v>
+        <v>0.618297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.565705</v>
+        <v>0.58694</v>
       </c>
       <c r="D27" t="n">
-        <v>1.12899</v>
+        <v>1.14232</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.609033</v>
+        <v>0.608674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.570416</v>
+        <v>0.566999</v>
       </c>
       <c r="D28" t="n">
-        <v>1.12288</v>
+        <v>1.10815</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.600048</v>
+        <v>0.591009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547825</v>
+        <v>0.545046</v>
       </c>
       <c r="D29" t="n">
-        <v>1.12569</v>
+        <v>1.12166</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.558572</v>
+        <v>0.5739919999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.519136</v>
+        <v>0.542744</v>
       </c>
       <c r="D30" t="n">
-        <v>1.09856</v>
+        <v>1.11392</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.540988</v>
+        <v>0.562172</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510329</v>
+        <v>0.518249</v>
       </c>
       <c r="D31" t="n">
-        <v>1.10727</v>
+        <v>1.0933</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.534888</v>
+        <v>0.54376</v>
       </c>
       <c r="C32" t="n">
-        <v>0.501297</v>
+        <v>0.494343</v>
       </c>
       <c r="D32" t="n">
-        <v>1.10725</v>
+        <v>1.08914</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.551599</v>
+        <v>0.523328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.493069</v>
+        <v>0.480167</v>
       </c>
       <c r="D33" t="n">
-        <v>1.06597</v>
+        <v>1.07824</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.511136</v>
+        <v>0.516783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.474601</v>
+        <v>0.46518</v>
       </c>
       <c r="D34" t="n">
-        <v>1.1008</v>
+        <v>1.08633</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493248</v>
+        <v>0.511279</v>
       </c>
       <c r="C35" t="n">
-        <v>0.464816</v>
+        <v>0.457783</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33504</v>
+        <v>1.37809</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.476581</v>
+        <v>0.472132</v>
       </c>
       <c r="C36" t="n">
-        <v>0.459587</v>
+        <v>0.457142</v>
       </c>
       <c r="D36" t="n">
-        <v>1.30339</v>
+        <v>1.33783</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.471209</v>
+        <v>0.475298</v>
       </c>
       <c r="C37" t="n">
-        <v>0.705705</v>
+        <v>0.727625</v>
       </c>
       <c r="D37" t="n">
-        <v>1.30634</v>
+        <v>1.31228</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.74196</v>
+        <v>0.727288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6885790000000001</v>
+        <v>0.6953240000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>1.26812</v>
+        <v>1.28946</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704484</v>
+        <v>0.704101</v>
       </c>
       <c r="C39" t="n">
-        <v>0.659381</v>
+        <v>0.675227</v>
       </c>
       <c r="D39" t="n">
-        <v>1.2569</v>
+        <v>1.30122</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.696072</v>
+        <v>0.7065</v>
       </c>
       <c r="C40" t="n">
-        <v>0.656009</v>
+        <v>0.646116</v>
       </c>
       <c r="D40" t="n">
-        <v>1.27228</v>
+        <v>1.23443</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6729309999999999</v>
+        <v>0.6840039999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.630763</v>
+        <v>0.644617</v>
       </c>
       <c r="D41" t="n">
-        <v>1.25595</v>
+        <v>1.29226</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.643422</v>
+        <v>0.643122</v>
       </c>
       <c r="C42" t="n">
-        <v>0.619414</v>
+        <v>0.614637</v>
       </c>
       <c r="D42" t="n">
-        <v>1.23022</v>
+        <v>1.23526</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.644651</v>
+        <v>0.6301600000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.584946</v>
+        <v>0.601437</v>
       </c>
       <c r="D43" t="n">
-        <v>1.25458</v>
+        <v>1.24384</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.614182</v>
+        <v>0.604391</v>
       </c>
       <c r="C44" t="n">
-        <v>0.562755</v>
+        <v>0.56859</v>
       </c>
       <c r="D44" t="n">
-        <v>1.20019</v>
+        <v>1.22377</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.597348</v>
+        <v>0.58753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.554304</v>
+        <v>0.55239</v>
       </c>
       <c r="D45" t="n">
-        <v>1.25015</v>
+        <v>1.21656</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.589846</v>
+        <v>0.5877599999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.542289</v>
+        <v>0.555323</v>
       </c>
       <c r="D46" t="n">
-        <v>1.17866</v>
+        <v>1.18107</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.57402</v>
+        <v>0.567642</v>
       </c>
       <c r="C47" t="n">
-        <v>0.548325</v>
+        <v>0.542559</v>
       </c>
       <c r="D47" t="n">
-        <v>1.20012</v>
+        <v>1.20515</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.553791</v>
+        <v>0.558433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.511052</v>
+        <v>0.527409</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15939</v>
+        <v>1.17782</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5319</v>
+        <v>0.5544480000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.490511</v>
+        <v>0.508186</v>
       </c>
       <c r="D49" t="n">
-        <v>1.19995</v>
+        <v>1.18275</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.527742</v>
+        <v>0.539913</v>
       </c>
       <c r="C50" t="n">
-        <v>0.488167</v>
+        <v>0.494432</v>
       </c>
       <c r="D50" t="n">
-        <v>1.65386</v>
+        <v>1.69484</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.533678</v>
+        <v>0.516208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7594649999999999</v>
+        <v>0.764545</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62744</v>
+        <v>1.57261</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.509859</v>
+        <v>0.518995</v>
       </c>
       <c r="C52" t="n">
-        <v>0.748468</v>
+        <v>0.746323</v>
       </c>
       <c r="D52" t="n">
-        <v>1.57918</v>
+        <v>1.58915</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.782378</v>
+        <v>0.793942</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73349</v>
+        <v>0.720008</v>
       </c>
       <c r="D53" t="n">
-        <v>1.55823</v>
+        <v>1.57864</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.769188</v>
+        <v>0.773735</v>
       </c>
       <c r="C54" t="n">
-        <v>0.713365</v>
+        <v>0.706324</v>
       </c>
       <c r="D54" t="n">
-        <v>1.51145</v>
+        <v>1.50578</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.741255</v>
+        <v>0.766238</v>
       </c>
       <c r="C55" t="n">
-        <v>0.689509</v>
+        <v>0.6844980000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1.53876</v>
+        <v>1.53674</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.718311</v>
+        <v>0.736581</v>
       </c>
       <c r="C56" t="n">
-        <v>0.666803</v>
+        <v>0.678532</v>
       </c>
       <c r="D56" t="n">
-        <v>1.4893</v>
+        <v>1.52403</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6899380000000001</v>
+        <v>0.714888</v>
       </c>
       <c r="C57" t="n">
-        <v>0.646228</v>
+        <v>0.6711780000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>1.47675</v>
+        <v>1.47654</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.69212</v>
+        <v>0.679935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.633475</v>
+        <v>0.63745</v>
       </c>
       <c r="D58" t="n">
-        <v>1.49355</v>
+        <v>1.47894</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.678478</v>
+        <v>0.6672439999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.620716</v>
+        <v>0.614129</v>
       </c>
       <c r="D59" t="n">
-        <v>1.43427</v>
+        <v>1.44074</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.663096</v>
+        <v>0.677347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.608912</v>
+        <v>0.623561</v>
       </c>
       <c r="D60" t="n">
-        <v>1.47563</v>
+        <v>1.41232</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6410169999999999</v>
+        <v>0.639908</v>
       </c>
       <c r="C61" t="n">
-        <v>0.591137</v>
+        <v>0.591371</v>
       </c>
       <c r="D61" t="n">
-        <v>1.47737</v>
+        <v>1.43619</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.646278</v>
+        <v>0.625804</v>
       </c>
       <c r="C62" t="n">
-        <v>0.580233</v>
+        <v>0.583244</v>
       </c>
       <c r="D62" t="n">
-        <v>1.44617</v>
+        <v>1.40457</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.604786</v>
+        <v>0.61343</v>
       </c>
       <c r="C63" t="n">
-        <v>0.574897</v>
+        <v>0.569881</v>
       </c>
       <c r="D63" t="n">
-        <v>1.46083</v>
+        <v>1.45808</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.621732</v>
+        <v>0.598576</v>
       </c>
       <c r="C64" t="n">
-        <v>0.562683</v>
+        <v>0.573739</v>
       </c>
       <c r="D64" t="n">
-        <v>2.27787</v>
+        <v>2.3025</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.595159</v>
+        <v>0.587525</v>
       </c>
       <c r="C65" t="n">
-        <v>0.546594</v>
+        <v>0.5590850000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>2.23951</v>
+        <v>2.2927</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583294</v>
+        <v>0.597921</v>
       </c>
       <c r="C66" t="n">
-        <v>0.828578</v>
+        <v>0.830854</v>
       </c>
       <c r="D66" t="n">
-        <v>2.22412</v>
+        <v>2.22724</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.869407</v>
+        <v>0.881785</v>
       </c>
       <c r="C67" t="n">
-        <v>0.806095</v>
+        <v>0.825044</v>
       </c>
       <c r="D67" t="n">
-        <v>2.20805</v>
+        <v>2.20624</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.852502</v>
+        <v>0.896447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.799583</v>
+        <v>0.795588</v>
       </c>
       <c r="D68" t="n">
-        <v>2.13642</v>
+        <v>2.14767</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.849827</v>
+        <v>0.860242</v>
       </c>
       <c r="C69" t="n">
-        <v>0.790824</v>
+        <v>0.787671</v>
       </c>
       <c r="D69" t="n">
-        <v>2.07568</v>
+        <v>2.14896</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.798884</v>
+        <v>0.814396</v>
       </c>
       <c r="C70" t="n">
-        <v>0.750896</v>
+        <v>0.763801</v>
       </c>
       <c r="D70" t="n">
-        <v>2.07674</v>
+        <v>2.09117</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.812992</v>
+        <v>0.7971240000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7319870000000001</v>
+        <v>0.735845</v>
       </c>
       <c r="D71" t="n">
-        <v>2.04762</v>
+        <v>2.1124</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.771983</v>
+        <v>0.799138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.717129</v>
+        <v>0.71936</v>
       </c>
       <c r="D72" t="n">
-        <v>2.00309</v>
+        <v>2.05937</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.762686</v>
+        <v>0.755167</v>
       </c>
       <c r="C73" t="n">
-        <v>0.713867</v>
+        <v>0.7189449999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>2.03114</v>
+        <v>2.06595</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.757959</v>
+        <v>0.754538</v>
       </c>
       <c r="C74" t="n">
-        <v>0.674028</v>
+        <v>0.689532</v>
       </c>
       <c r="D74" t="n">
-        <v>2.00502</v>
+        <v>2.02462</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.744274</v>
+        <v>0.741299</v>
       </c>
       <c r="C75" t="n">
-        <v>0.682922</v>
+        <v>0.667106</v>
       </c>
       <c r="D75" t="n">
-        <v>2.05639</v>
+        <v>2.02866</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.725749</v>
+        <v>0.705435</v>
       </c>
       <c r="C76" t="n">
-        <v>0.646366</v>
+        <v>0.645351</v>
       </c>
       <c r="D76" t="n">
-        <v>2.04495</v>
+        <v>1.97945</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.71952</v>
+        <v>0.709364</v>
       </c>
       <c r="C77" t="n">
-        <v>0.648155</v>
+        <v>0.648784</v>
       </c>
       <c r="D77" t="n">
-        <v>2.01435</v>
+        <v>1.94606</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.699304</v>
+        <v>0.68519</v>
       </c>
       <c r="C78" t="n">
-        <v>0.641478</v>
+        <v>0.62323</v>
       </c>
       <c r="D78" t="n">
-        <v>3.22845</v>
+        <v>3.1393</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.682637</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.627466</v>
+        <v>0.618433</v>
       </c>
       <c r="D79" t="n">
-        <v>3.07906</v>
+        <v>3.09617</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6848379999999999</v>
+        <v>0.684909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.935619</v>
+        <v>0.922979</v>
       </c>
       <c r="D80" t="n">
-        <v>3.05656</v>
+        <v>3.07054</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9672230000000001</v>
+        <v>0.982775</v>
       </c>
       <c r="C81" t="n">
-        <v>0.904145</v>
+        <v>0.908959</v>
       </c>
       <c r="D81" t="n">
-        <v>3.02582</v>
+        <v>3.00536</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.944141</v>
+        <v>0.959743</v>
       </c>
       <c r="C82" t="n">
-        <v>0.885137</v>
+        <v>0.887005</v>
       </c>
       <c r="D82" t="n">
-        <v>2.9166</v>
+        <v>2.98221</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.950139</v>
+        <v>0.949966</v>
       </c>
       <c r="C83" t="n">
-        <v>0.879864</v>
+        <v>0.859701</v>
       </c>
       <c r="D83" t="n">
-        <v>2.84141</v>
+        <v>2.87077</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9208190000000001</v>
+        <v>0.915295</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837379</v>
+        <v>0.835685</v>
       </c>
       <c r="D84" t="n">
-        <v>2.80093</v>
+        <v>2.79589</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.907713</v>
+        <v>0.918458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.820662</v>
+        <v>0.833799</v>
       </c>
       <c r="D85" t="n">
-        <v>2.85542</v>
+        <v>2.8806</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.888297</v>
+        <v>0.886052</v>
       </c>
       <c r="C86" t="n">
-        <v>0.846729</v>
+        <v>0.8242429999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>2.70849</v>
+        <v>2.75437</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.858137</v>
+        <v>0.8626740000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.796147</v>
+        <v>0.807924</v>
       </c>
       <c r="D87" t="n">
-        <v>2.78497</v>
+        <v>2.72112</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.851694</v>
+        <v>0.855684</v>
       </c>
       <c r="C88" t="n">
-        <v>0.773034</v>
+        <v>0.781725</v>
       </c>
       <c r="D88" t="n">
-        <v>2.68437</v>
+        <v>2.67183</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.846408</v>
+        <v>0.835501</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7610710000000001</v>
+        <v>0.762025</v>
       </c>
       <c r="D89" t="n">
-        <v>2.68269</v>
+        <v>2.67783</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826317</v>
+        <v>0.817071</v>
       </c>
       <c r="C90" t="n">
-        <v>0.751178</v>
+        <v>0.762694</v>
       </c>
       <c r="D90" t="n">
-        <v>2.65557</v>
+        <v>2.67012</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.796623</v>
+        <v>0.808992</v>
       </c>
       <c r="C91" t="n">
-        <v>0.735802</v>
+        <v>0.747467</v>
       </c>
       <c r="D91" t="n">
-        <v>2.69259</v>
+        <v>2.6383</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.792442</v>
+        <v>0.8253509999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7144509999999999</v>
+        <v>0.744812</v>
       </c>
       <c r="D92" t="n">
-        <v>3.8371</v>
+        <v>3.84107</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.79305</v>
+        <v>0.809082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.711319</v>
+        <v>0.730055</v>
       </c>
       <c r="D93" t="n">
-        <v>3.60565</v>
+        <v>3.67828</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.769826</v>
+        <v>0.767848</v>
       </c>
       <c r="C94" t="n">
-        <v>1.04327</v>
+        <v>1.03084</v>
       </c>
       <c r="D94" t="n">
-        <v>3.67783</v>
+        <v>3.63077</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08334</v>
+        <v>1.10751</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0115</v>
+        <v>1.00385</v>
       </c>
       <c r="D95" t="n">
-        <v>3.52767</v>
+        <v>3.59438</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08218</v>
+        <v>1.073</v>
       </c>
       <c r="C96" t="n">
-        <v>1.00141</v>
+        <v>0.979034</v>
       </c>
       <c r="D96" t="n">
-        <v>3.51971</v>
+        <v>3.49885</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0565</v>
+        <v>1.04244</v>
       </c>
       <c r="C97" t="n">
-        <v>0.957475</v>
+        <v>0.9495440000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>3.48739</v>
+        <v>3.38278</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05574</v>
+        <v>1.0322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.95966</v>
+        <v>0.959212</v>
       </c>
       <c r="D98" t="n">
-        <v>3.366</v>
+        <v>3.4632</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00761</v>
+        <v>1.00634</v>
       </c>
       <c r="C99" t="n">
-        <v>0.929979</v>
+        <v>0.945341</v>
       </c>
       <c r="D99" t="n">
-        <v>3.33983</v>
+        <v>3.30983</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00165</v>
+        <v>0.990355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.925762</v>
+        <v>0.923582</v>
       </c>
       <c r="D100" t="n">
-        <v>3.24312</v>
+        <v>3.29704</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01448</v>
+        <v>0.983208</v>
       </c>
       <c r="C101" t="n">
-        <v>0.893069</v>
+        <v>0.893307</v>
       </c>
       <c r="D101" t="n">
-        <v>3.21915</v>
+        <v>3.27498</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.970458</v>
+        <v>0.984949</v>
       </c>
       <c r="C102" t="n">
-        <v>0.880705</v>
+        <v>0.8869010000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>3.25279</v>
+        <v>3.2549</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.97018</v>
+        <v>0.979426</v>
       </c>
       <c r="C103" t="n">
-        <v>0.871692</v>
+        <v>0.8833259999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>3.22556</v>
+        <v>3.18541</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.958914</v>
+        <v>0.954792</v>
       </c>
       <c r="C104" t="n">
-        <v>0.872227</v>
+        <v>0.8744</v>
       </c>
       <c r="D104" t="n">
-        <v>3.22496</v>
+        <v>3.16421</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.926415</v>
+        <v>0.948314</v>
       </c>
       <c r="C105" t="n">
-        <v>0.879333</v>
+        <v>0.8427789999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>3.19712</v>
+        <v>3.18166</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.924893</v>
+        <v>0.944448</v>
       </c>
       <c r="C106" t="n">
-        <v>0.865241</v>
+        <v>0.845992</v>
       </c>
       <c r="D106" t="n">
-        <v>3.14662</v>
+        <v>3.08919</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.913618</v>
+        <v>0.948601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.815258</v>
+        <v>0.818522</v>
       </c>
       <c r="D107" t="n">
-        <v>4.26319</v>
+        <v>4.30349</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.935727</v>
+        <v>0.907016</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15016</v>
+        <v>1.14852</v>
       </c>
       <c r="D108" t="n">
-        <v>4.16322</v>
+        <v>4.26634</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.893634</v>
+        <v>0.904558</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13844</v>
+        <v>1.12615</v>
       </c>
       <c r="D109" t="n">
-        <v>4.25522</v>
+        <v>4.18368</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23974</v>
+        <v>1.24944</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10768</v>
+        <v>1.08965</v>
       </c>
       <c r="D110" t="n">
-        <v>4.05474</v>
+        <v>4.15096</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22766</v>
+        <v>1.22445</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09051</v>
+        <v>1.1245</v>
       </c>
       <c r="D111" t="n">
-        <v>4.02813</v>
+        <v>4.04269</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18045</v>
+        <v>1.21008</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07589</v>
+        <v>1.08865</v>
       </c>
       <c r="D112" t="n">
-        <v>4.00012</v>
+        <v>3.96789</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2019</v>
+        <v>1.18111</v>
       </c>
       <c r="C113" t="n">
-        <v>1.06892</v>
+        <v>1.07149</v>
       </c>
       <c r="D113" t="n">
-        <v>3.95537</v>
+        <v>3.90903</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17061</v>
+        <v>1.1898</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07346</v>
+        <v>1.07437</v>
       </c>
       <c r="D114" t="n">
-        <v>3.89936</v>
+        <v>3.89269</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16401</v>
+        <v>1.18728</v>
       </c>
       <c r="C115" t="n">
-        <v>1.0677</v>
+        <v>1.04552</v>
       </c>
       <c r="D115" t="n">
-        <v>3.85223</v>
+        <v>3.85843</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16471</v>
+        <v>1.16731</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02071</v>
+        <v>1.0611</v>
       </c>
       <c r="D116" t="n">
-        <v>3.80826</v>
+        <v>3.74931</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15685</v>
+        <v>1.14483</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03323</v>
+        <v>1.04409</v>
       </c>
       <c r="D117" t="n">
-        <v>3.78417</v>
+        <v>3.78789</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12566</v>
+        <v>1.13778</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02413</v>
+        <v>1.03417</v>
       </c>
       <c r="D118" t="n">
-        <v>3.76176</v>
+        <v>3.78945</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13526</v>
+        <v>1.1481</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02667</v>
+        <v>1.00059</v>
       </c>
       <c r="D119" t="n">
-        <v>3.75422</v>
+        <v>3.71606</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10851</v>
+        <v>1.1467</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01021</v>
+        <v>0.9910910000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>3.74367</v>
+        <v>3.74557</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.12163</v>
+        <v>1.12037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.990066</v>
+        <v>1.00295</v>
       </c>
       <c r="D121" t="n">
-        <v>5.12898</v>
+        <v>5.10924</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10799</v>
+        <v>1.14149</v>
       </c>
       <c r="C122" t="n">
-        <v>0.994452</v>
+        <v>0.9939170000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>4.94098</v>
+        <v>4.98995</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10675</v>
+        <v>1.11206</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31451</v>
+        <v>1.34279</v>
       </c>
       <c r="D123" t="n">
-        <v>4.89569</v>
+        <v>4.8999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44805</v>
+        <v>1.44005</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33404</v>
+        <v>1.34517</v>
       </c>
       <c r="D124" t="n">
-        <v>4.81273</v>
+        <v>4.86868</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41765</v>
+        <v>1.47353</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3052</v>
+        <v>1.32047</v>
       </c>
       <c r="D125" t="n">
-        <v>4.72571</v>
+        <v>4.73916</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42029</v>
+        <v>1.42863</v>
       </c>
       <c r="C126" t="n">
-        <v>1.29894</v>
+        <v>1.3352</v>
       </c>
       <c r="D126" t="n">
-        <v>4.67237</v>
+        <v>4.72287</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41281</v>
+        <v>1.43549</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31574</v>
+        <v>1.31153</v>
       </c>
       <c r="D127" t="n">
-        <v>4.56007</v>
+        <v>4.61829</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40767</v>
+        <v>1.42167</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29629</v>
+        <v>1.29545</v>
       </c>
       <c r="D128" t="n">
-        <v>4.51812</v>
+        <v>4.58647</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.45427</v>
+        <v>1.42341</v>
       </c>
       <c r="C129" t="n">
-        <v>1.28114</v>
+        <v>1.29525</v>
       </c>
       <c r="D129" t="n">
-        <v>4.44748</v>
+        <v>4.46587</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39949</v>
+        <v>1.41214</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29421</v>
+        <v>1.30029</v>
       </c>
       <c r="D130" t="n">
-        <v>4.44949</v>
+        <v>4.44428</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41475</v>
+        <v>1.42199</v>
       </c>
       <c r="C131" t="n">
-        <v>1.26704</v>
+        <v>1.29255</v>
       </c>
       <c r="D131" t="n">
-        <v>4.36487</v>
+        <v>4.42086</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42757</v>
+        <v>1.42386</v>
       </c>
       <c r="C132" t="n">
-        <v>1.29964</v>
+        <v>1.27564</v>
       </c>
       <c r="D132" t="n">
-        <v>4.37209</v>
+        <v>4.38167</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42379</v>
+        <v>1.40138</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27409</v>
+        <v>1.27833</v>
       </c>
       <c r="D133" t="n">
-        <v>4.30975</v>
+        <v>4.30158</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39705</v>
+        <v>1.40111</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29245</v>
+        <v>1.28777</v>
       </c>
       <c r="D134" t="n">
-        <v>4.2728</v>
+        <v>4.28839</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40328</v>
+        <v>1.40623</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28529</v>
+        <v>1.27796</v>
       </c>
       <c r="D135" t="n">
-        <v>5.88444</v>
+        <v>5.88661</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39585</v>
+        <v>1.40725</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27962</v>
+        <v>1.29441</v>
       </c>
       <c r="D136" t="n">
-        <v>5.78753</v>
+        <v>5.79243</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3996</v>
+        <v>1.41665</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60078</v>
+        <v>1.62289</v>
       </c>
       <c r="D137" t="n">
-        <v>5.67752</v>
+        <v>5.69288</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74056</v>
+        <v>1.74798</v>
       </c>
       <c r="C138" t="n">
-        <v>1.60547</v>
+        <v>1.6019</v>
       </c>
       <c r="D138" t="n">
-        <v>5.58557</v>
+        <v>5.59561</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73148</v>
+        <v>1.74458</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59927</v>
+        <v>1.6249</v>
       </c>
       <c r="D139" t="n">
-        <v>5.51584</v>
+        <v>5.51156</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73983</v>
+        <v>1.75337</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59249</v>
+        <v>1.59747</v>
       </c>
       <c r="D140" t="n">
-        <v>5.44233</v>
+        <v>5.42517</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71006</v>
+        <v>1.7398</v>
       </c>
       <c r="C141" t="n">
-        <v>1.56988</v>
+        <v>1.60475</v>
       </c>
       <c r="D141" t="n">
-        <v>5.32991</v>
+        <v>5.32283</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.69831</v>
+        <v>1.72722</v>
       </c>
       <c r="C142" t="n">
-        <v>1.57543</v>
+        <v>1.59284</v>
       </c>
       <c r="D142" t="n">
-        <v>5.20688</v>
+        <v>5.27755</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70097</v>
+        <v>1.70677</v>
       </c>
       <c r="C143" t="n">
-        <v>1.59869</v>
+        <v>1.59479</v>
       </c>
       <c r="D143" t="n">
-        <v>5.20187</v>
+        <v>5.21684</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.598974</v>
+        <v>0.574112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.478269</v>
+        <v>0.968585</v>
       </c>
       <c r="D2" t="n">
-        <v>1.00315</v>
+        <v>0.314654</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.761614</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.345518</v>
+        <v>0.330398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315953</v>
+        <v>0.963297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.958351</v>
+        <v>0.308732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.758504</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.335218</v>
+        <v>0.332945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.31448</v>
+        <v>0.965219</v>
       </c>
       <c r="D4" t="n">
-        <v>1.01612</v>
+        <v>0.30122</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.747288</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.336383</v>
+        <v>0.316146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.312276</v>
+        <v>0.936063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.956823</v>
+        <v>0.296801</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.746346</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335581</v>
+        <v>0.313494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.306016</v>
+        <v>0.929128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.967843</v>
+        <v>0.29192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.737822</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.319451</v>
+        <v>0.310376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.310623</v>
+        <v>1.12035</v>
       </c>
       <c r="D7" t="n">
-        <v>1.20661</v>
+        <v>0.286137</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.74998</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.319683</v>
+        <v>0.305268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304903</v>
+        <v>1.11304</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18071</v>
+        <v>0.288348</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.73889</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.316471</v>
+        <v>0.304231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.586561</v>
+        <v>1.09389</v>
       </c>
       <c r="D9" t="n">
-        <v>1.13682</v>
+        <v>0.5575</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.851769</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.578711</v>
+        <v>0.564409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.545168</v>
+        <v>1.08156</v>
       </c>
       <c r="D10" t="n">
-        <v>1.12358</v>
+        <v>0.527273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.83962</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.565846</v>
+        <v>0.5317730000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.53137</v>
+        <v>1.06429</v>
       </c>
       <c r="D11" t="n">
-        <v>1.08676</v>
+        <v>0.520182</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.834717</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.542432</v>
+        <v>0.525879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5137930000000001</v>
+        <v>1.05074</v>
       </c>
       <c r="D12" t="n">
-        <v>1.09728</v>
+        <v>0.491557</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.824999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.526597</v>
+        <v>0.503277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.51381</v>
+        <v>1.03845</v>
       </c>
       <c r="D13" t="n">
-        <v>1.09262</v>
+        <v>0.475334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.811243</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505672</v>
+        <v>0.491246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.473179</v>
+        <v>1.02575</v>
       </c>
       <c r="D14" t="n">
-        <v>1.07389</v>
+        <v>0.461364</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.81912</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.498378</v>
+        <v>0.472616</v>
       </c>
       <c r="C15" t="n">
-        <v>0.458939</v>
+        <v>1.01978</v>
       </c>
       <c r="D15" t="n">
-        <v>1.05728</v>
+        <v>0.444741</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.793335</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.480844</v>
+        <v>0.462592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.471426</v>
+        <v>1.01079</v>
       </c>
       <c r="D16" t="n">
-        <v>1.067</v>
+        <v>0.433784</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.788192</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.465877</v>
+        <v>0.455543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.430537</v>
+        <v>0.999597</v>
       </c>
       <c r="D17" t="n">
-        <v>1.04499</v>
+        <v>0.42098</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.779749</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.46181</v>
+        <v>0.44115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.42676</v>
+        <v>1.0014</v>
       </c>
       <c r="D18" t="n">
-        <v>1.03168</v>
+        <v>0.426386</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.779454</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451811</v>
+        <v>0.442637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.415959</v>
+        <v>0.994418</v>
       </c>
       <c r="D19" t="n">
-        <v>1.068</v>
+        <v>0.414481</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.774131</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.437637</v>
+        <v>0.430297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.406851</v>
+        <v>0.97922</v>
       </c>
       <c r="D20" t="n">
-        <v>1.04043</v>
+        <v>0.393704</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.764197</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.430033</v>
+        <v>0.408364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.395283</v>
+        <v>1.18157</v>
       </c>
       <c r="D21" t="n">
-        <v>1.24753</v>
+        <v>0.390392</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.765493</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.423327</v>
+        <v>0.402748</v>
       </c>
       <c r="C22" t="n">
-        <v>0.394842</v>
+        <v>1.16589</v>
       </c>
       <c r="D22" t="n">
-        <v>1.21157</v>
+        <v>0.388702</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.760339</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.423049</v>
+        <v>0.401603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6530589999999999</v>
+        <v>1.1444</v>
       </c>
       <c r="D23" t="n">
-        <v>1.19672</v>
+        <v>0.635634</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.88012</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.676077</v>
+        <v>0.680987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.643682</v>
+        <v>1.13463</v>
       </c>
       <c r="D24" t="n">
-        <v>1.19183</v>
+        <v>0.6497540000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.888524</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.664793</v>
+        <v>0.631982</v>
       </c>
       <c r="C25" t="n">
-        <v>0.620212</v>
+        <v>1.11985</v>
       </c>
       <c r="D25" t="n">
-        <v>1.14791</v>
+        <v>0.613684</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.874333</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6321870000000001</v>
+        <v>0.620293</v>
       </c>
       <c r="C26" t="n">
-        <v>0.61812</v>
+        <v>1.09834</v>
       </c>
       <c r="D26" t="n">
-        <v>1.14188</v>
+        <v>0.577439</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.847473</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.618297</v>
+        <v>0.5933389999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.58694</v>
+        <v>1.09182</v>
       </c>
       <c r="D27" t="n">
-        <v>1.14232</v>
+        <v>0.581211</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.838959</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608674</v>
+        <v>0.597293</v>
       </c>
       <c r="C28" t="n">
-        <v>0.566999</v>
+        <v>1.08846</v>
       </c>
       <c r="D28" t="n">
-        <v>1.10815</v>
+        <v>0.541605</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.851818</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591009</v>
+        <v>0.56003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.545046</v>
+        <v>1.0631</v>
       </c>
       <c r="D29" t="n">
-        <v>1.12166</v>
+        <v>0.524942</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.821963</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5739919999999999</v>
+        <v>0.540255</v>
       </c>
       <c r="C30" t="n">
-        <v>0.542744</v>
+        <v>1.05926</v>
       </c>
       <c r="D30" t="n">
-        <v>1.11392</v>
+        <v>0.509347</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.828292</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.562172</v>
+        <v>0.525831</v>
       </c>
       <c r="C31" t="n">
-        <v>0.518249</v>
+        <v>1.04256</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0933</v>
+        <v>0.491841</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8215789999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.54376</v>
+        <v>0.515521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.494343</v>
+        <v>1.05143</v>
       </c>
       <c r="D32" t="n">
-        <v>1.08914</v>
+        <v>0.497999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.802577</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.523328</v>
+        <v>0.497412</v>
       </c>
       <c r="C33" t="n">
-        <v>0.480167</v>
+        <v>1.03226</v>
       </c>
       <c r="D33" t="n">
-        <v>1.07824</v>
+        <v>0.466591</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.795181</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.516783</v>
+        <v>0.500152</v>
       </c>
       <c r="C34" t="n">
-        <v>0.46518</v>
+        <v>1.03105</v>
       </c>
       <c r="D34" t="n">
-        <v>1.08633</v>
+        <v>0.469306</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.788317</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.511279</v>
+        <v>0.479717</v>
       </c>
       <c r="C35" t="n">
-        <v>0.457783</v>
+        <v>1.27811</v>
       </c>
       <c r="D35" t="n">
-        <v>1.37809</v>
+        <v>0.441925</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.783321</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.472132</v>
+        <v>0.475866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.457142</v>
+        <v>1.27036</v>
       </c>
       <c r="D36" t="n">
-        <v>1.33783</v>
+        <v>0.442964</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.795398</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.475298</v>
+        <v>0.458089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.727625</v>
+        <v>1.24777</v>
       </c>
       <c r="D37" t="n">
-        <v>1.31228</v>
+        <v>0.723018</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.964311</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.727288</v>
+        <v>0.730426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6953240000000001</v>
+        <v>1.22983</v>
       </c>
       <c r="D38" t="n">
-        <v>1.28946</v>
+        <v>0.683831</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.960013</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704101</v>
+        <v>0.68827</v>
       </c>
       <c r="C39" t="n">
-        <v>0.675227</v>
+        <v>1.22234</v>
       </c>
       <c r="D39" t="n">
-        <v>1.30122</v>
+        <v>0.64747</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9414670000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7065</v>
+        <v>0.665071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.646116</v>
+        <v>1.20598</v>
       </c>
       <c r="D40" t="n">
-        <v>1.23443</v>
+        <v>0.626113</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.923894</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6840039999999999</v>
+        <v>0.642269</v>
       </c>
       <c r="C41" t="n">
-        <v>0.644617</v>
+        <v>1.18972</v>
       </c>
       <c r="D41" t="n">
-        <v>1.29226</v>
+        <v>0.609803</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.929189</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.643122</v>
+        <v>0.629327</v>
       </c>
       <c r="C42" t="n">
-        <v>0.614637</v>
+        <v>1.18779</v>
       </c>
       <c r="D42" t="n">
-        <v>1.23526</v>
+        <v>0.591274</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.923513</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6301600000000001</v>
+        <v>0.627075</v>
       </c>
       <c r="C43" t="n">
-        <v>0.601437</v>
+        <v>1.1898</v>
       </c>
       <c r="D43" t="n">
-        <v>1.24384</v>
+        <v>0.578677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.901563</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.604391</v>
+        <v>0.594601</v>
       </c>
       <c r="C44" t="n">
-        <v>0.56859</v>
+        <v>1.16384</v>
       </c>
       <c r="D44" t="n">
-        <v>1.22377</v>
+        <v>0.555899</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.914081</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.58753</v>
+        <v>0.583794</v>
       </c>
       <c r="C45" t="n">
-        <v>0.55239</v>
+        <v>1.17322</v>
       </c>
       <c r="D45" t="n">
-        <v>1.21656</v>
+        <v>0.5363059999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.885394</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5877599999999999</v>
+        <v>0.570827</v>
       </c>
       <c r="C46" t="n">
-        <v>0.555323</v>
+        <v>1.15251</v>
       </c>
       <c r="D46" t="n">
-        <v>1.18107</v>
+        <v>0.540033</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.870142</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.567642</v>
+        <v>0.542017</v>
       </c>
       <c r="C47" t="n">
-        <v>0.542559</v>
+        <v>1.14282</v>
       </c>
       <c r="D47" t="n">
-        <v>1.20515</v>
+        <v>0.528041</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.871787</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.558433</v>
+        <v>0.566526</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527409</v>
+        <v>1.15074</v>
       </c>
       <c r="D48" t="n">
-        <v>1.17782</v>
+        <v>0.49735</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.872101</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5544480000000001</v>
+        <v>0.525739</v>
       </c>
       <c r="C49" t="n">
-        <v>0.508186</v>
+        <v>1.17137</v>
       </c>
       <c r="D49" t="n">
-        <v>1.18275</v>
+        <v>0.5044459999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.865959</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.539913</v>
+        <v>0.5243989999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.494432</v>
+        <v>1.62263</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69484</v>
+        <v>0.481183</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.855804</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516208</v>
+        <v>0.505618</v>
       </c>
       <c r="C51" t="n">
-        <v>0.764545</v>
+        <v>1.59897</v>
       </c>
       <c r="D51" t="n">
-        <v>1.57261</v>
+        <v>0.779172</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.14187</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.518995</v>
+        <v>0.492901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.746323</v>
+        <v>1.58075</v>
       </c>
       <c r="D52" t="n">
-        <v>1.58915</v>
+        <v>0.723695</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.11831</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.793942</v>
+        <v>0.748409</v>
       </c>
       <c r="C53" t="n">
-        <v>0.720008</v>
+        <v>1.54902</v>
       </c>
       <c r="D53" t="n">
-        <v>1.57864</v>
+        <v>0.733221</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.09073</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.773735</v>
+        <v>0.75929</v>
       </c>
       <c r="C54" t="n">
-        <v>0.706324</v>
+        <v>1.52252</v>
       </c>
       <c r="D54" t="n">
-        <v>1.50578</v>
+        <v>0.71322</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.07773</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.766238</v>
+        <v>0.7430909999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6844980000000001</v>
+        <v>1.524</v>
       </c>
       <c r="D55" t="n">
-        <v>1.53674</v>
+        <v>0.695763</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.06732</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.736581</v>
+        <v>0.722284</v>
       </c>
       <c r="C56" t="n">
-        <v>0.678532</v>
+        <v>1.49794</v>
       </c>
       <c r="D56" t="n">
-        <v>1.52403</v>
+        <v>0.6472</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.04245</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.714888</v>
+        <v>0.671704</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6711780000000001</v>
+        <v>1.45511</v>
       </c>
       <c r="D57" t="n">
-        <v>1.47654</v>
+        <v>0.63826</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.02785</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.679935</v>
+        <v>0.66342</v>
       </c>
       <c r="C58" t="n">
-        <v>0.63745</v>
+        <v>1.4769</v>
       </c>
       <c r="D58" t="n">
-        <v>1.47894</v>
+        <v>0.6162570000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.0212</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6672439999999999</v>
+        <v>0.66005</v>
       </c>
       <c r="C59" t="n">
-        <v>0.614129</v>
+        <v>1.46222</v>
       </c>
       <c r="D59" t="n">
-        <v>1.44074</v>
+        <v>0.599232</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.986858</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.677347</v>
+        <v>0.628896</v>
       </c>
       <c r="C60" t="n">
-        <v>0.623561</v>
+        <v>1.43453</v>
       </c>
       <c r="D60" t="n">
-        <v>1.41232</v>
+        <v>0.607376</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.996099</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.639908</v>
+        <v>0.637522</v>
       </c>
       <c r="C61" t="n">
-        <v>0.591371</v>
+        <v>1.45608</v>
       </c>
       <c r="D61" t="n">
-        <v>1.43619</v>
+        <v>0.593173</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9805739999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.625804</v>
+        <v>0.6089290000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.583244</v>
+        <v>1.44526</v>
       </c>
       <c r="D62" t="n">
-        <v>1.40457</v>
+        <v>0.558836</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.971708</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.61343</v>
+        <v>0.594081</v>
       </c>
       <c r="C63" t="n">
-        <v>0.569881</v>
+        <v>1.427</v>
       </c>
       <c r="D63" t="n">
-        <v>1.45808</v>
+        <v>0.551004</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.953228</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.598576</v>
+        <v>0.573531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.573739</v>
+        <v>2.22944</v>
       </c>
       <c r="D64" t="n">
-        <v>2.3025</v>
+        <v>0.5375490000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.968554</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587525</v>
+        <v>0.5682</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5590850000000001</v>
+        <v>2.2019</v>
       </c>
       <c r="D65" t="n">
-        <v>2.2927</v>
+        <v>0.552657</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.94102</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.597921</v>
+        <v>0.565944</v>
       </c>
       <c r="C66" t="n">
-        <v>0.830854</v>
+        <v>2.21965</v>
       </c>
       <c r="D66" t="n">
-        <v>2.22724</v>
+        <v>0.834228</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.43453</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.881785</v>
+        <v>0.842917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.825044</v>
+        <v>2.21033</v>
       </c>
       <c r="D67" t="n">
-        <v>2.20624</v>
+        <v>0.800767</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.42108</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.896447</v>
+        <v>0.8277409999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.795588</v>
+        <v>2.16797</v>
       </c>
       <c r="D68" t="n">
-        <v>2.14767</v>
+        <v>0.792296</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.37779</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.860242</v>
+        <v>0.797449</v>
       </c>
       <c r="C69" t="n">
-        <v>0.787671</v>
+        <v>2.07985</v>
       </c>
       <c r="D69" t="n">
-        <v>2.14896</v>
+        <v>0.740723</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.36077</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.814396</v>
+        <v>0.798752</v>
       </c>
       <c r="C70" t="n">
-        <v>0.763801</v>
+        <v>2.07415</v>
       </c>
       <c r="D70" t="n">
-        <v>2.09117</v>
+        <v>0.735857</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.34982</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7971240000000001</v>
+        <v>0.783141</v>
       </c>
       <c r="C71" t="n">
-        <v>0.735845</v>
+        <v>2.09634</v>
       </c>
       <c r="D71" t="n">
-        <v>2.1124</v>
+        <v>0.748435</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.33674</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.799138</v>
+        <v>0.760549</v>
       </c>
       <c r="C72" t="n">
-        <v>0.71936</v>
+        <v>2.03988</v>
       </c>
       <c r="D72" t="n">
-        <v>2.05937</v>
+        <v>0.711968</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.32254</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.755167</v>
+        <v>0.731143</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7189449999999999</v>
+        <v>2.04462</v>
       </c>
       <c r="D73" t="n">
-        <v>2.06595</v>
+        <v>0.675424</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.26569</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.754538</v>
+        <v>0.715611</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689532</v>
+        <v>1.97969</v>
       </c>
       <c r="D74" t="n">
-        <v>2.02462</v>
+        <v>0.664345</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.24548</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.741299</v>
+        <v>0.704023</v>
       </c>
       <c r="C75" t="n">
-        <v>0.667106</v>
+        <v>1.95747</v>
       </c>
       <c r="D75" t="n">
-        <v>2.02866</v>
+        <v>0.676084</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.23609</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.705435</v>
+        <v>0.687445</v>
       </c>
       <c r="C76" t="n">
-        <v>0.645351</v>
+        <v>2.00115</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97945</v>
+        <v>0.637325</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.21896</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.709364</v>
+        <v>0.67328</v>
       </c>
       <c r="C77" t="n">
-        <v>0.648784</v>
+        <v>1.96699</v>
       </c>
       <c r="D77" t="n">
-        <v>1.94606</v>
+        <v>0.62438</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.2346</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.68519</v>
+        <v>0.6607189999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.62323</v>
+        <v>3.21732</v>
       </c>
       <c r="D78" t="n">
-        <v>3.1393</v>
+        <v>0.613042</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.18014</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.653535</v>
       </c>
       <c r="C79" t="n">
-        <v>0.618433</v>
+        <v>3.16926</v>
       </c>
       <c r="D79" t="n">
-        <v>3.09617</v>
+        <v>0.60332</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.17321</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.684909</v>
+        <v>0.643323</v>
       </c>
       <c r="C80" t="n">
-        <v>0.922979</v>
+        <v>3.11368</v>
       </c>
       <c r="D80" t="n">
-        <v>3.07054</v>
+        <v>0.93673</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.0002</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.982775</v>
+        <v>0.943507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.908959</v>
+        <v>2.99298</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00536</v>
+        <v>0.885897</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.97417</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.959743</v>
+        <v>0.926036</v>
       </c>
       <c r="C82" t="n">
-        <v>0.887005</v>
+        <v>2.91806</v>
       </c>
       <c r="D82" t="n">
-        <v>2.98221</v>
+        <v>0.864947</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.92556</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.949966</v>
+        <v>0.932713</v>
       </c>
       <c r="C83" t="n">
-        <v>0.859701</v>
+        <v>2.87283</v>
       </c>
       <c r="D83" t="n">
-        <v>2.87077</v>
+        <v>0.852874</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.8314</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.915295</v>
+        <v>0.933067</v>
       </c>
       <c r="C84" t="n">
-        <v>0.835685</v>
+        <v>2.82296</v>
       </c>
       <c r="D84" t="n">
-        <v>2.79589</v>
+        <v>0.834492</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.85963</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.918458</v>
+        <v>0.868437</v>
       </c>
       <c r="C85" t="n">
-        <v>0.833799</v>
+        <v>2.74867</v>
       </c>
       <c r="D85" t="n">
-        <v>2.8806</v>
+        <v>0.804945</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.77087</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.886052</v>
+        <v>0.907235</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8242429999999999</v>
+        <v>2.83378</v>
       </c>
       <c r="D86" t="n">
-        <v>2.75437</v>
+        <v>0.796218</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.71582</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8626740000000001</v>
+        <v>0.848119</v>
       </c>
       <c r="C87" t="n">
-        <v>0.807924</v>
+        <v>2.69087</v>
       </c>
       <c r="D87" t="n">
-        <v>2.72112</v>
+        <v>0.770881</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.67393</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855684</v>
+        <v>0.819462</v>
       </c>
       <c r="C88" t="n">
-        <v>0.781725</v>
+        <v>2.65118</v>
       </c>
       <c r="D88" t="n">
-        <v>2.67183</v>
+        <v>0.778843</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.65345</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.835501</v>
+        <v>0.828541</v>
       </c>
       <c r="C89" t="n">
-        <v>0.762025</v>
+        <v>2.62917</v>
       </c>
       <c r="D89" t="n">
-        <v>2.67783</v>
+        <v>0.7651520000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.61757</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.817071</v>
+        <v>0.81702</v>
       </c>
       <c r="C90" t="n">
-        <v>0.762694</v>
+        <v>2.65765</v>
       </c>
       <c r="D90" t="n">
-        <v>2.67012</v>
+        <v>0.754474</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.60834</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.808992</v>
+        <v>0.81855</v>
       </c>
       <c r="C91" t="n">
-        <v>0.747467</v>
+        <v>2.69915</v>
       </c>
       <c r="D91" t="n">
-        <v>2.6383</v>
+        <v>0.723027</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.62322</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8253509999999999</v>
+        <v>0.775115</v>
       </c>
       <c r="C92" t="n">
-        <v>0.744812</v>
+        <v>3.71</v>
       </c>
       <c r="D92" t="n">
-        <v>3.84107</v>
+        <v>0.718421</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.52192</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.809082</v>
+        <v>0.779516</v>
       </c>
       <c r="C93" t="n">
-        <v>0.730055</v>
+        <v>3.61624</v>
       </c>
       <c r="D93" t="n">
-        <v>3.67828</v>
+        <v>0.738657</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.50364</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.767848</v>
+        <v>0.760226</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03084</v>
+        <v>3.53896</v>
       </c>
       <c r="D94" t="n">
-        <v>3.63077</v>
+        <v>1.02729</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.46999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10751</v>
+        <v>1.08503</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00385</v>
+        <v>3.49434</v>
       </c>
       <c r="D95" t="n">
-        <v>3.59438</v>
+        <v>0.981308</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.40856</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.073</v>
+        <v>1.0462</v>
       </c>
       <c r="C96" t="n">
-        <v>0.979034</v>
+        <v>3.39569</v>
       </c>
       <c r="D96" t="n">
-        <v>3.49885</v>
+        <v>0.991953</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.36062</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04244</v>
+        <v>1.06218</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9495440000000001</v>
+        <v>3.36358</v>
       </c>
       <c r="D97" t="n">
-        <v>3.38278</v>
+        <v>0.9712730000000001</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.45764</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0322</v>
+        <v>1.02324</v>
       </c>
       <c r="C98" t="n">
-        <v>0.959212</v>
+        <v>3.37056</v>
       </c>
       <c r="D98" t="n">
-        <v>3.4632</v>
+        <v>0.943097</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.32525</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00634</v>
+        <v>1.0074</v>
       </c>
       <c r="C99" t="n">
-        <v>0.945341</v>
+        <v>3.38365</v>
       </c>
       <c r="D99" t="n">
-        <v>3.30983</v>
+        <v>0.914501</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.26094</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.990355</v>
+        <v>1.02648</v>
       </c>
       <c r="C100" t="n">
-        <v>0.923582</v>
+        <v>3.29861</v>
       </c>
       <c r="D100" t="n">
-        <v>3.29704</v>
+        <v>0.879978</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.23662</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.983208</v>
+        <v>0.9427759999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.893307</v>
+        <v>3.18783</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27498</v>
+        <v>0.881016</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.15312</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.984949</v>
+        <v>0.943321</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8869010000000001</v>
+        <v>3.1685</v>
       </c>
       <c r="D102" t="n">
-        <v>3.2549</v>
+        <v>0.889795</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.10371</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.979426</v>
+        <v>0.934213</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8833259999999999</v>
+        <v>3.2226</v>
       </c>
       <c r="D103" t="n">
-        <v>3.18541</v>
+        <v>0.8548</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.06551</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.954792</v>
+        <v>0.963085</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8744</v>
+        <v>3.18325</v>
       </c>
       <c r="D104" t="n">
-        <v>3.16421</v>
+        <v>0.852566</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.02321</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.948314</v>
+        <v>0.92131</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8427789999999999</v>
+        <v>3.15451</v>
       </c>
       <c r="D105" t="n">
-        <v>3.18166</v>
+        <v>0.836004</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.9809</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.944448</v>
+        <v>0.893077</v>
       </c>
       <c r="C106" t="n">
-        <v>0.845992</v>
+        <v>3.13828</v>
       </c>
       <c r="D106" t="n">
-        <v>3.08919</v>
+        <v>0.8180730000000001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.94317</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.948601</v>
+        <v>0.897443</v>
       </c>
       <c r="C107" t="n">
-        <v>0.818522</v>
+        <v>4.21324</v>
       </c>
       <c r="D107" t="n">
-        <v>4.30349</v>
+        <v>0.814756</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.90938</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.907016</v>
+        <v>0.887892</v>
       </c>
       <c r="C108" t="n">
-        <v>1.14852</v>
+        <v>4.16968</v>
       </c>
       <c r="D108" t="n">
-        <v>4.26634</v>
+        <v>1.16972</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.04029</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.904558</v>
+        <v>0.876152</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12615</v>
+        <v>4.14537</v>
       </c>
       <c r="D109" t="n">
-        <v>4.18368</v>
+        <v>1.14146</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.94995</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24944</v>
+        <v>1.18428</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08965</v>
+        <v>4.03696</v>
       </c>
       <c r="D110" t="n">
-        <v>4.15096</v>
+        <v>1.08487</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.84502</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22445</v>
+        <v>1.18308</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1245</v>
+        <v>3.9875</v>
       </c>
       <c r="D111" t="n">
-        <v>4.04269</v>
+        <v>1.0547</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.785</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21008</v>
+        <v>1.14864</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08865</v>
+        <v>3.9732</v>
       </c>
       <c r="D112" t="n">
-        <v>3.96789</v>
+        <v>1.07697</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.73255</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18111</v>
+        <v>1.1437</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07149</v>
+        <v>3.96955</v>
       </c>
       <c r="D113" t="n">
-        <v>3.90903</v>
+        <v>1.07547</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.70255</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1898</v>
+        <v>1.16504</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07437</v>
+        <v>3.90744</v>
       </c>
       <c r="D114" t="n">
-        <v>3.89269</v>
+        <v>1.05069</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.63218</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18728</v>
+        <v>1.1344</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04552</v>
+        <v>3.8009</v>
       </c>
       <c r="D115" t="n">
-        <v>3.85843</v>
+        <v>1.06246</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.58669</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16731</v>
+        <v>1.13772</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0611</v>
+        <v>3.77852</v>
       </c>
       <c r="D116" t="n">
-        <v>3.74931</v>
+        <v>1.00691</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.50773</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14483</v>
+        <v>1.11538</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04409</v>
+        <v>3.73234</v>
       </c>
       <c r="D117" t="n">
-        <v>3.78789</v>
+        <v>1.03561</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.45259</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13778</v>
+        <v>1.12188</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03417</v>
+        <v>3.68851</v>
       </c>
       <c r="D118" t="n">
-        <v>3.78945</v>
+        <v>0.992228</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.41287</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1481</v>
+        <v>1.08592</v>
       </c>
       <c r="C119" t="n">
-        <v>1.00059</v>
+        <v>3.64767</v>
       </c>
       <c r="D119" t="n">
-        <v>3.71606</v>
+        <v>0.982291</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.39386</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.1467</v>
+        <v>1.10803</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9910910000000001</v>
+        <v>3.66171</v>
       </c>
       <c r="D120" t="n">
-        <v>3.74557</v>
+        <v>0.956329</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.36141</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.12037</v>
+        <v>1.1005</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00295</v>
+        <v>5.00822</v>
       </c>
       <c r="D121" t="n">
-        <v>5.10924</v>
+        <v>1.01005</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.34664</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.14149</v>
+        <v>1.05333</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9939170000000001</v>
+        <v>4.82749</v>
       </c>
       <c r="D122" t="n">
-        <v>4.98995</v>
+        <v>0.978651</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.30548</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11206</v>
+        <v>1.04854</v>
       </c>
       <c r="C123" t="n">
-        <v>1.34279</v>
+        <v>4.82529</v>
       </c>
       <c r="D123" t="n">
-        <v>4.8999</v>
+        <v>1.29183</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.46698</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44005</v>
+        <v>1.3911</v>
       </c>
       <c r="C124" t="n">
-        <v>1.34517</v>
+        <v>4.70281</v>
       </c>
       <c r="D124" t="n">
-        <v>4.86868</v>
+        <v>1.28683</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.39026</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.47353</v>
+        <v>1.44227</v>
       </c>
       <c r="C125" t="n">
-        <v>1.32047</v>
+        <v>4.64284</v>
       </c>
       <c r="D125" t="n">
-        <v>4.73916</v>
+        <v>1.28664</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.27772</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42863</v>
+        <v>1.36449</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3352</v>
+        <v>4.61059</v>
       </c>
       <c r="D126" t="n">
-        <v>4.72287</v>
+        <v>1.26944</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.22392</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43549</v>
+        <v>1.38408</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31153</v>
+        <v>4.48486</v>
       </c>
       <c r="D127" t="n">
-        <v>4.61829</v>
+        <v>1.27619</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.15166</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42167</v>
+        <v>1.38694</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29545</v>
+        <v>4.42984</v>
       </c>
       <c r="D128" t="n">
-        <v>4.58647</v>
+        <v>1.27117</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.09343</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42341</v>
+        <v>1.34596</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29525</v>
+        <v>4.35215</v>
       </c>
       <c r="D129" t="n">
-        <v>4.46587</v>
+        <v>1.24984</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.02414</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41214</v>
+        <v>1.33479</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30029</v>
+        <v>4.28177</v>
       </c>
       <c r="D130" t="n">
-        <v>4.44428</v>
+        <v>1.24531</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.96167</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42199</v>
+        <v>1.39297</v>
       </c>
       <c r="C131" t="n">
-        <v>1.29255</v>
+        <v>4.30649</v>
       </c>
       <c r="D131" t="n">
-        <v>4.42086</v>
+        <v>1.22543</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.92323</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42386</v>
+        <v>1.32883</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27564</v>
+        <v>4.22397</v>
       </c>
       <c r="D132" t="n">
-        <v>4.38167</v>
+        <v>1.2249</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.85821</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40138</v>
+        <v>1.34026</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27833</v>
+        <v>4.20061</v>
       </c>
       <c r="D133" t="n">
-        <v>4.30158</v>
+        <v>1.25621</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.86435</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40111</v>
+        <v>1.35962</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28777</v>
+        <v>4.16038</v>
       </c>
       <c r="D134" t="n">
-        <v>4.28839</v>
+        <v>1.21869</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.81429</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40623</v>
+        <v>1.34014</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27796</v>
+        <v>5.68183</v>
       </c>
       <c r="D135" t="n">
-        <v>5.88661</v>
+        <v>1.22614</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.75148</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40725</v>
+        <v>1.34108</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29441</v>
+        <v>5.61373</v>
       </c>
       <c r="D136" t="n">
-        <v>5.79243</v>
+        <v>1.20598</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.71162</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41665</v>
+        <v>1.32733</v>
       </c>
       <c r="C137" t="n">
-        <v>1.62289</v>
+        <v>5.51557</v>
       </c>
       <c r="D137" t="n">
-        <v>5.69288</v>
+        <v>1.57936</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.98736</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74798</v>
+        <v>1.65507</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6019</v>
+        <v>5.41471</v>
       </c>
       <c r="D138" t="n">
-        <v>5.59561</v>
+        <v>1.56738</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.85945</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74458</v>
+        <v>1.63891</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6249</v>
+        <v>5.29149</v>
       </c>
       <c r="D139" t="n">
-        <v>5.51156</v>
+        <v>1.56251</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.77636</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.75337</v>
+        <v>1.64385</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59747</v>
+        <v>5.20477</v>
       </c>
       <c r="D140" t="n">
-        <v>5.42517</v>
+        <v>1.54028</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.71493</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.7398</v>
+        <v>1.66064</v>
       </c>
       <c r="C141" t="n">
-        <v>1.60475</v>
+        <v>5.09846</v>
       </c>
       <c r="D141" t="n">
-        <v>5.32283</v>
+        <v>1.53121</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.64444</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72722</v>
+        <v>1.66267</v>
       </c>
       <c r="C142" t="n">
-        <v>1.59284</v>
+        <v>5.05985</v>
       </c>
       <c r="D142" t="n">
-        <v>5.27755</v>
+        <v>1.51192</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.59223</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70677</v>
+        <v>1.62954</v>
       </c>
       <c r="C143" t="n">
-        <v>1.59479</v>
+        <v>5.00398</v>
       </c>
       <c r="D143" t="n">
-        <v>5.21684</v>
+        <v>1.51411</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.51312</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574112</v>
+        <v>0.60364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.968585</v>
+        <v>0.833253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314654</v>
+        <v>0.326977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.761614</v>
+        <v>0.80892</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.330398</v>
+        <v>0.3491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.963297</v>
+        <v>0.855934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.308732</v>
+        <v>0.323492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.758504</v>
+        <v>0.785068</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.332945</v>
+        <v>0.343988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.965219</v>
+        <v>0.8417480000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.30122</v>
+        <v>0.318354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.747288</v>
+        <v>0.783174</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316146</v>
+        <v>0.33715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.936063</v>
+        <v>0.827001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296801</v>
+        <v>0.312976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.746346</v>
+        <v>0.783822</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313494</v>
+        <v>0.327497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.929128</v>
+        <v>0.7874640000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29192</v>
+        <v>0.307171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.737822</v>
+        <v>0.7745880000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.310376</v>
+        <v>0.325065</v>
       </c>
       <c r="C7" t="n">
-        <v>1.12035</v>
+        <v>0.80967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286137</v>
+        <v>0.304415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74998</v>
+        <v>0.771624</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.305268</v>
+        <v>0.319274</v>
       </c>
       <c r="C8" t="n">
-        <v>1.11304</v>
+        <v>0.794849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288348</v>
+        <v>0.2983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.73889</v>
+        <v>0.75948</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.304231</v>
+        <v>0.312575</v>
       </c>
       <c r="C9" t="n">
-        <v>1.09389</v>
+        <v>0.787606</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5575</v>
+        <v>0.558447</v>
       </c>
       <c r="E9" t="n">
-        <v>0.851769</v>
+        <v>0.875363</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564409</v>
+        <v>0.633556</v>
       </c>
       <c r="C10" t="n">
-        <v>1.08156</v>
+        <v>0.925485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.527273</v>
+        <v>0.541418</v>
       </c>
       <c r="E10" t="n">
-        <v>0.83962</v>
+        <v>0.8637629999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5317730000000001</v>
+        <v>0.553818</v>
       </c>
       <c r="C11" t="n">
-        <v>1.06429</v>
+        <v>0.931146</v>
       </c>
       <c r="D11" t="n">
-        <v>0.520182</v>
+        <v>0.527469</v>
       </c>
       <c r="E11" t="n">
-        <v>0.834717</v>
+        <v>0.845336</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525879</v>
+        <v>0.542252</v>
       </c>
       <c r="C12" t="n">
-        <v>1.05074</v>
+        <v>0.873766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.491557</v>
+        <v>0.537984</v>
       </c>
       <c r="E12" t="n">
-        <v>0.824999</v>
+        <v>0.830195</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.503277</v>
+        <v>0.523298</v>
       </c>
       <c r="C13" t="n">
-        <v>1.03845</v>
+        <v>0.855304</v>
       </c>
       <c r="D13" t="n">
-        <v>0.475334</v>
+        <v>0.474592</v>
       </c>
       <c r="E13" t="n">
-        <v>0.811243</v>
+        <v>0.864359</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491246</v>
+        <v>0.495649</v>
       </c>
       <c r="C14" t="n">
-        <v>1.02575</v>
+        <v>0.851357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.461364</v>
+        <v>0.470648</v>
       </c>
       <c r="E14" t="n">
-        <v>0.81912</v>
+        <v>0.835269</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.472616</v>
+        <v>0.49415</v>
       </c>
       <c r="C15" t="n">
-        <v>1.01978</v>
+        <v>0.86504</v>
       </c>
       <c r="D15" t="n">
-        <v>0.444741</v>
+        <v>0.469025</v>
       </c>
       <c r="E15" t="n">
-        <v>0.793335</v>
+        <v>0.794527</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.462592</v>
+        <v>0.465085</v>
       </c>
       <c r="C16" t="n">
-        <v>1.01079</v>
+        <v>0.8252389999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.433784</v>
+        <v>0.433467</v>
       </c>
       <c r="E16" t="n">
-        <v>0.788192</v>
+        <v>0.789211</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455543</v>
+        <v>0.451685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999597</v>
+        <v>0.816046</v>
       </c>
       <c r="D17" t="n">
-        <v>0.42098</v>
+        <v>0.42046</v>
       </c>
       <c r="E17" t="n">
-        <v>0.779749</v>
+        <v>0.776025</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44115</v>
+        <v>0.440479</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0014</v>
+        <v>0.807074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426386</v>
+        <v>0.410639</v>
       </c>
       <c r="E18" t="n">
-        <v>0.779454</v>
+        <v>0.771353</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.442637</v>
+        <v>0.427559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.994418</v>
+        <v>0.798083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.414481</v>
+        <v>0.39832</v>
       </c>
       <c r="E19" t="n">
-        <v>0.774131</v>
+        <v>0.7639010000000001</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.430297</v>
+        <v>0.416454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.97922</v>
+        <v>0.794834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.393704</v>
+        <v>0.389435</v>
       </c>
       <c r="E20" t="n">
-        <v>0.764197</v>
+        <v>0.756695</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.408364</v>
+        <v>0.417986</v>
       </c>
       <c r="C21" t="n">
-        <v>1.18157</v>
+        <v>0.801918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.390392</v>
+        <v>0.38387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.765493</v>
+        <v>0.758709</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402748</v>
+        <v>0.401084</v>
       </c>
       <c r="C22" t="n">
-        <v>1.16589</v>
+        <v>0.788958</v>
       </c>
       <c r="D22" t="n">
-        <v>0.388702</v>
+        <v>0.378486</v>
       </c>
       <c r="E22" t="n">
-        <v>0.760339</v>
+        <v>0.756857</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.401603</v>
+        <v>0.410928</v>
       </c>
       <c r="C23" t="n">
-        <v>1.1444</v>
+        <v>0.790797</v>
       </c>
       <c r="D23" t="n">
-        <v>0.635634</v>
+        <v>0.649297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.88012</v>
+        <v>0.894721</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.680987</v>
+        <v>0.660669</v>
       </c>
       <c r="C24" t="n">
-        <v>1.13463</v>
+        <v>0.90878</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6497540000000001</v>
+        <v>0.620767</v>
       </c>
       <c r="E24" t="n">
-        <v>0.888524</v>
+        <v>0.865547</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631982</v>
+        <v>0.632344</v>
       </c>
       <c r="C25" t="n">
-        <v>1.11985</v>
+        <v>0.900191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.613684</v>
+        <v>0.590666</v>
       </c>
       <c r="E25" t="n">
-        <v>0.874333</v>
+        <v>0.858703</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.620293</v>
+        <v>0.626385</v>
       </c>
       <c r="C26" t="n">
-        <v>1.09834</v>
+        <v>0.890534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.577439</v>
+        <v>0.574782</v>
       </c>
       <c r="E26" t="n">
-        <v>0.847473</v>
+        <v>0.850532</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5933389999999999</v>
+        <v>0.585932</v>
       </c>
       <c r="C27" t="n">
-        <v>1.09182</v>
+        <v>0.8830480000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.581211</v>
+        <v>0.557788</v>
       </c>
       <c r="E27" t="n">
-        <v>0.838959</v>
+        <v>0.842535</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.597293</v>
+        <v>0.57209</v>
       </c>
       <c r="C28" t="n">
-        <v>1.08846</v>
+        <v>0.867726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.541605</v>
+        <v>0.535389</v>
       </c>
       <c r="E28" t="n">
-        <v>0.851818</v>
+        <v>0.825499</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.56003</v>
+        <v>0.553807</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0631</v>
+        <v>0.859388</v>
       </c>
       <c r="D29" t="n">
-        <v>0.524942</v>
+        <v>0.523217</v>
       </c>
       <c r="E29" t="n">
-        <v>0.821963</v>
+        <v>0.819735</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.540255</v>
+        <v>0.540895</v>
       </c>
       <c r="C30" t="n">
-        <v>1.05926</v>
+        <v>0.865468</v>
       </c>
       <c r="D30" t="n">
-        <v>0.509347</v>
+        <v>0.503752</v>
       </c>
       <c r="E30" t="n">
-        <v>0.828292</v>
+        <v>0.809407</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.525831</v>
+        <v>0.523285</v>
       </c>
       <c r="C31" t="n">
-        <v>1.04256</v>
+        <v>0.838489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.491841</v>
+        <v>0.488318</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8215789999999999</v>
+        <v>0.80318</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.515521</v>
+        <v>0.507171</v>
       </c>
       <c r="C32" t="n">
-        <v>1.05143</v>
+        <v>0.831745</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497999</v>
+        <v>0.474341</v>
       </c>
       <c r="E32" t="n">
-        <v>0.802577</v>
+        <v>0.799646</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.497412</v>
+        <v>0.496375</v>
       </c>
       <c r="C33" t="n">
-        <v>1.03226</v>
+        <v>0.8267409999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.466591</v>
+        <v>0.462431</v>
       </c>
       <c r="E33" t="n">
-        <v>0.795181</v>
+        <v>0.793112</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.500152</v>
+        <v>0.490855</v>
       </c>
       <c r="C34" t="n">
-        <v>1.03105</v>
+        <v>0.8201079999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.469306</v>
+        <v>0.451356</v>
       </c>
       <c r="E34" t="n">
-        <v>0.788317</v>
+        <v>0.8086410000000001</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479717</v>
+        <v>0.473936</v>
       </c>
       <c r="C35" t="n">
-        <v>1.27811</v>
+        <v>0.82513</v>
       </c>
       <c r="D35" t="n">
-        <v>0.441925</v>
+        <v>0.455645</v>
       </c>
       <c r="E35" t="n">
-        <v>0.783321</v>
+        <v>0.79545</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.475866</v>
+        <v>0.463038</v>
       </c>
       <c r="C36" t="n">
-        <v>1.27036</v>
+        <v>0.815461</v>
       </c>
       <c r="D36" t="n">
-        <v>0.442964</v>
+        <v>0.43357</v>
       </c>
       <c r="E36" t="n">
-        <v>0.795398</v>
+        <v>0.78385</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458089</v>
+        <v>0.458939</v>
       </c>
       <c r="C37" t="n">
-        <v>1.24777</v>
+        <v>0.812056</v>
       </c>
       <c r="D37" t="n">
-        <v>0.723018</v>
+        <v>0.686571</v>
       </c>
       <c r="E37" t="n">
-        <v>0.964311</v>
+        <v>0.9704390000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.730426</v>
+        <v>0.707803</v>
       </c>
       <c r="C38" t="n">
-        <v>1.22983</v>
+        <v>1.0029</v>
       </c>
       <c r="D38" t="n">
-        <v>0.683831</v>
+        <v>0.664496</v>
       </c>
       <c r="E38" t="n">
-        <v>0.960013</v>
+        <v>0.959105</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.68827</v>
+        <v>0.708341</v>
       </c>
       <c r="C39" t="n">
-        <v>1.22234</v>
+        <v>0.984146</v>
       </c>
       <c r="D39" t="n">
-        <v>0.64747</v>
+        <v>0.6427580000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9414670000000001</v>
+        <v>0.9492390000000001</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.665071</v>
+        <v>0.670077</v>
       </c>
       <c r="C40" t="n">
-        <v>1.20598</v>
+        <v>0.973297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.626113</v>
+        <v>0.625238</v>
       </c>
       <c r="E40" t="n">
-        <v>0.923894</v>
+        <v>0.933102</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.642269</v>
+        <v>0.6471</v>
       </c>
       <c r="C41" t="n">
-        <v>1.18972</v>
+        <v>0.968327</v>
       </c>
       <c r="D41" t="n">
-        <v>0.609803</v>
+        <v>0.606386</v>
       </c>
       <c r="E41" t="n">
-        <v>0.929189</v>
+        <v>0.913115</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.629327</v>
+        <v>0.6283300000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>1.18779</v>
+        <v>0.9419729999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.591274</v>
+        <v>0.582747</v>
       </c>
       <c r="E42" t="n">
-        <v>0.923513</v>
+        <v>0.902817</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.627075</v>
+        <v>0.610056</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1898</v>
+        <v>0.929725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.578677</v>
+        <v>0.56259</v>
       </c>
       <c r="E43" t="n">
-        <v>0.901563</v>
+        <v>0.896736</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.594601</v>
+        <v>0.594629</v>
       </c>
       <c r="C44" t="n">
-        <v>1.16384</v>
+        <v>0.920104</v>
       </c>
       <c r="D44" t="n">
-        <v>0.555899</v>
+        <v>0.54878</v>
       </c>
       <c r="E44" t="n">
-        <v>0.914081</v>
+        <v>0.881396</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.583794</v>
+        <v>0.573357</v>
       </c>
       <c r="C45" t="n">
-        <v>1.17322</v>
+        <v>0.917949</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5363059999999999</v>
+        <v>0.5288040000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.885394</v>
+        <v>0.878091</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.570827</v>
+        <v>0.554342</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15251</v>
+        <v>0.914483</v>
       </c>
       <c r="D46" t="n">
-        <v>0.540033</v>
+        <v>0.514944</v>
       </c>
       <c r="E46" t="n">
-        <v>0.870142</v>
+        <v>0.868241</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.542017</v>
+        <v>0.5440120000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1.14282</v>
+        <v>0.91262</v>
       </c>
       <c r="D47" t="n">
-        <v>0.528041</v>
+        <v>0.50553</v>
       </c>
       <c r="E47" t="n">
-        <v>0.871787</v>
+        <v>0.874918</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.566526</v>
+        <v>0.539767</v>
       </c>
       <c r="C48" t="n">
-        <v>1.15074</v>
+        <v>0.890299</v>
       </c>
       <c r="D48" t="n">
-        <v>0.49735</v>
+        <v>0.487528</v>
       </c>
       <c r="E48" t="n">
-        <v>0.872101</v>
+        <v>0.86108</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.525739</v>
+        <v>0.515145</v>
       </c>
       <c r="C49" t="n">
-        <v>1.17137</v>
+        <v>0.879678</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5044459999999999</v>
+        <v>0.478698</v>
       </c>
       <c r="E49" t="n">
-        <v>0.865959</v>
+        <v>0.8558789999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5243989999999999</v>
+        <v>0.503992</v>
       </c>
       <c r="C50" t="n">
-        <v>1.62263</v>
+        <v>0.878358</v>
       </c>
       <c r="D50" t="n">
-        <v>0.481183</v>
+        <v>0.48585</v>
       </c>
       <c r="E50" t="n">
-        <v>0.855804</v>
+        <v>0.8471109999999999</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.505618</v>
+        <v>0.491565</v>
       </c>
       <c r="C51" t="n">
-        <v>1.59897</v>
+        <v>0.870162</v>
       </c>
       <c r="D51" t="n">
-        <v>0.779172</v>
+        <v>0.73705</v>
       </c>
       <c r="E51" t="n">
-        <v>1.14187</v>
+        <v>1.14378</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.492901</v>
+        <v>0.481071</v>
       </c>
       <c r="C52" t="n">
-        <v>1.58075</v>
+        <v>0.8681990000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.723695</v>
+        <v>0.712817</v>
       </c>
       <c r="E52" t="n">
-        <v>1.11831</v>
+        <v>1.10135</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.748409</v>
+        <v>0.738961</v>
       </c>
       <c r="C53" t="n">
-        <v>1.54902</v>
+        <v>1.15721</v>
       </c>
       <c r="D53" t="n">
-        <v>0.733221</v>
+        <v>0.694336</v>
       </c>
       <c r="E53" t="n">
-        <v>1.09073</v>
+        <v>1.1028</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75929</v>
+        <v>0.729973</v>
       </c>
       <c r="C54" t="n">
-        <v>1.52252</v>
+        <v>1.15609</v>
       </c>
       <c r="D54" t="n">
-        <v>0.71322</v>
+        <v>0.675292</v>
       </c>
       <c r="E54" t="n">
-        <v>1.07773</v>
+        <v>1.08966</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7430909999999999</v>
+        <v>0.705738</v>
       </c>
       <c r="C55" t="n">
-        <v>1.524</v>
+        <v>1.12961</v>
       </c>
       <c r="D55" t="n">
-        <v>0.695763</v>
+        <v>0.6552789999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>1.06732</v>
+        <v>1.07712</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.722284</v>
+        <v>0.686544</v>
       </c>
       <c r="C56" t="n">
-        <v>1.49794</v>
+        <v>1.10089</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6472</v>
+        <v>0.636846</v>
       </c>
       <c r="E56" t="n">
-        <v>1.04245</v>
+        <v>1.08143</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.671704</v>
+        <v>0.682219</v>
       </c>
       <c r="C57" t="n">
-        <v>1.45511</v>
+        <v>1.11153</v>
       </c>
       <c r="D57" t="n">
-        <v>0.63826</v>
+        <v>0.6231950000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>1.02785</v>
+        <v>1.06923</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.66342</v>
+        <v>0.660398</v>
       </c>
       <c r="C58" t="n">
-        <v>1.4769</v>
+        <v>1.08385</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6162570000000001</v>
+        <v>0.6090680000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0212</v>
+        <v>1.06184</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.66005</v>
+        <v>0.658525</v>
       </c>
       <c r="C59" t="n">
-        <v>1.46222</v>
+        <v>1.08139</v>
       </c>
       <c r="D59" t="n">
-        <v>0.599232</v>
+        <v>0.594791</v>
       </c>
       <c r="E59" t="n">
-        <v>0.986858</v>
+        <v>1.04584</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.628896</v>
+        <v>0.628378</v>
       </c>
       <c r="C60" t="n">
-        <v>1.43453</v>
+        <v>1.04713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.607376</v>
+        <v>0.605077</v>
       </c>
       <c r="E60" t="n">
-        <v>0.996099</v>
+        <v>1.03661</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.637522</v>
+        <v>0.615721</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45608</v>
+        <v>1.04719</v>
       </c>
       <c r="D61" t="n">
-        <v>0.593173</v>
+        <v>0.576327</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9805739999999999</v>
+        <v>1.02841</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6089290000000001</v>
+        <v>0.604512</v>
       </c>
       <c r="C62" t="n">
-        <v>1.44526</v>
+        <v>1.01951</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558836</v>
+        <v>0.5525870000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.971708</v>
+        <v>1.00061</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.594081</v>
+        <v>0.59122</v>
       </c>
       <c r="C63" t="n">
-        <v>1.427</v>
+        <v>1.02432</v>
       </c>
       <c r="D63" t="n">
-        <v>0.551004</v>
+        <v>0.549818</v>
       </c>
       <c r="E63" t="n">
-        <v>0.953228</v>
+        <v>1.01284</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.573531</v>
+        <v>0.581708</v>
       </c>
       <c r="C64" t="n">
-        <v>2.22944</v>
+        <v>0.995516</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5375490000000001</v>
+        <v>0.536162</v>
       </c>
       <c r="E64" t="n">
-        <v>0.968554</v>
+        <v>1.00976</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5682</v>
+        <v>0.584434</v>
       </c>
       <c r="C65" t="n">
-        <v>2.2019</v>
+        <v>1.002</v>
       </c>
       <c r="D65" t="n">
-        <v>0.552657</v>
+        <v>0.528058</v>
       </c>
       <c r="E65" t="n">
-        <v>0.94102</v>
+        <v>1.01246</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.565944</v>
+        <v>0.581802</v>
       </c>
       <c r="C66" t="n">
-        <v>2.21965</v>
+        <v>0.980871</v>
       </c>
       <c r="D66" t="n">
-        <v>0.834228</v>
+        <v>0.802348</v>
       </c>
       <c r="E66" t="n">
-        <v>1.43453</v>
+        <v>1.5043</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.842917</v>
+        <v>0.8347830000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>2.21033</v>
+        <v>1.58265</v>
       </c>
       <c r="D67" t="n">
-        <v>0.800767</v>
+        <v>0.778266</v>
       </c>
       <c r="E67" t="n">
-        <v>1.42108</v>
+        <v>1.48558</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8277409999999999</v>
+        <v>0.821625</v>
       </c>
       <c r="C68" t="n">
-        <v>2.16797</v>
+        <v>1.53784</v>
       </c>
       <c r="D68" t="n">
-        <v>0.792296</v>
+        <v>0.752474</v>
       </c>
       <c r="E68" t="n">
-        <v>1.37779</v>
+        <v>1.44587</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.797449</v>
+        <v>0.815439</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07985</v>
+        <v>1.49856</v>
       </c>
       <c r="D69" t="n">
-        <v>0.740723</v>
+        <v>0.735412</v>
       </c>
       <c r="E69" t="n">
-        <v>1.36077</v>
+        <v>1.41733</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.798752</v>
+        <v>0.79882</v>
       </c>
       <c r="C70" t="n">
-        <v>2.07415</v>
+        <v>1.50506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.735857</v>
+        <v>0.722592</v>
       </c>
       <c r="E70" t="n">
-        <v>1.34982</v>
+        <v>1.40403</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.783141</v>
+        <v>0.76651</v>
       </c>
       <c r="C71" t="n">
-        <v>2.09634</v>
+        <v>1.46813</v>
       </c>
       <c r="D71" t="n">
-        <v>0.748435</v>
+        <v>0.70222</v>
       </c>
       <c r="E71" t="n">
-        <v>1.33674</v>
+        <v>1.35854</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.760549</v>
+        <v>0.7475619999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>2.03988</v>
+        <v>1.43955</v>
       </c>
       <c r="D72" t="n">
-        <v>0.711968</v>
+        <v>0.691876</v>
       </c>
       <c r="E72" t="n">
-        <v>1.32254</v>
+        <v>1.3637</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.731143</v>
+        <v>0.7363150000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>2.04462</v>
+        <v>1.39739</v>
       </c>
       <c r="D73" t="n">
-        <v>0.675424</v>
+        <v>0.678551</v>
       </c>
       <c r="E73" t="n">
-        <v>1.26569</v>
+        <v>1.34783</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.715611</v>
+        <v>0.736256</v>
       </c>
       <c r="C74" t="n">
-        <v>1.97969</v>
+        <v>1.35338</v>
       </c>
       <c r="D74" t="n">
-        <v>0.664345</v>
+        <v>0.653764</v>
       </c>
       <c r="E74" t="n">
-        <v>1.24548</v>
+        <v>1.30313</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.704023</v>
+        <v>0.705894</v>
       </c>
       <c r="C75" t="n">
-        <v>1.95747</v>
+        <v>1.3702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.676084</v>
+        <v>0.647084</v>
       </c>
       <c r="E75" t="n">
-        <v>1.23609</v>
+        <v>1.30061</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.687445</v>
+        <v>0.6935170000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2.00115</v>
+        <v>1.33775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.637325</v>
+        <v>0.633056</v>
       </c>
       <c r="E76" t="n">
-        <v>1.21896</v>
+        <v>1.28675</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.67328</v>
+        <v>0.684588</v>
       </c>
       <c r="C77" t="n">
-        <v>1.96699</v>
+        <v>1.32742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.62438</v>
+        <v>0.642333</v>
       </c>
       <c r="E77" t="n">
-        <v>1.2346</v>
+        <v>1.29276</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6607189999999999</v>
+        <v>0.665367</v>
       </c>
       <c r="C78" t="n">
-        <v>3.21732</v>
+        <v>1.31649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.613042</v>
+        <v>0.60709</v>
       </c>
       <c r="E78" t="n">
-        <v>1.18014</v>
+        <v>1.28805</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.653535</v>
+        <v>0.649888</v>
       </c>
       <c r="C79" t="n">
-        <v>3.16926</v>
+        <v>1.32725</v>
       </c>
       <c r="D79" t="n">
-        <v>0.60332</v>
+        <v>0.600005</v>
       </c>
       <c r="E79" t="n">
-        <v>1.17321</v>
+        <v>1.25823</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.643323</v>
+        <v>0.646421</v>
       </c>
       <c r="C80" t="n">
-        <v>3.11368</v>
+        <v>1.29409</v>
       </c>
       <c r="D80" t="n">
-        <v>0.93673</v>
+        <v>0.900599</v>
       </c>
       <c r="E80" t="n">
-        <v>2.0002</v>
+        <v>2.04484</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.943507</v>
+        <v>0.9415210000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>2.99298</v>
+        <v>2.13258</v>
       </c>
       <c r="D81" t="n">
-        <v>0.885897</v>
+        <v>0.880404</v>
       </c>
       <c r="E81" t="n">
-        <v>1.97417</v>
+        <v>2.02773</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.926036</v>
+        <v>0.946895</v>
       </c>
       <c r="C82" t="n">
-        <v>2.91806</v>
+        <v>2.12201</v>
       </c>
       <c r="D82" t="n">
-        <v>0.864947</v>
+        <v>0.864713</v>
       </c>
       <c r="E82" t="n">
-        <v>1.92556</v>
+        <v>1.98594</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.932713</v>
+        <v>0.935109</v>
       </c>
       <c r="C83" t="n">
-        <v>2.87283</v>
+        <v>2.05729</v>
       </c>
       <c r="D83" t="n">
-        <v>0.852874</v>
+        <v>0.841569</v>
       </c>
       <c r="E83" t="n">
-        <v>1.8314</v>
+        <v>1.94661</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.933067</v>
+        <v>0.901124</v>
       </c>
       <c r="C84" t="n">
-        <v>2.82296</v>
+        <v>2.00671</v>
       </c>
       <c r="D84" t="n">
-        <v>0.834492</v>
+        <v>0.819842</v>
       </c>
       <c r="E84" t="n">
-        <v>1.85963</v>
+        <v>1.88808</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.868437</v>
+        <v>0.87139</v>
       </c>
       <c r="C85" t="n">
-        <v>2.74867</v>
+        <v>1.97722</v>
       </c>
       <c r="D85" t="n">
-        <v>0.804945</v>
+        <v>0.805403</v>
       </c>
       <c r="E85" t="n">
-        <v>1.77087</v>
+        <v>1.84502</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.907235</v>
+        <v>0.885153</v>
       </c>
       <c r="C86" t="n">
-        <v>2.83378</v>
+        <v>1.92644</v>
       </c>
       <c r="D86" t="n">
-        <v>0.796218</v>
+        <v>0.811053</v>
       </c>
       <c r="E86" t="n">
-        <v>1.71582</v>
+        <v>1.79723</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.848119</v>
+        <v>0.83989</v>
       </c>
       <c r="C87" t="n">
-        <v>2.69087</v>
+        <v>1.888</v>
       </c>
       <c r="D87" t="n">
-        <v>0.770881</v>
+        <v>0.792996</v>
       </c>
       <c r="E87" t="n">
-        <v>1.67393</v>
+        <v>1.76713</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.819462</v>
+        <v>0.825622</v>
       </c>
       <c r="C88" t="n">
-        <v>2.65118</v>
+        <v>1.80737</v>
       </c>
       <c r="D88" t="n">
-        <v>0.778843</v>
+        <v>0.759122</v>
       </c>
       <c r="E88" t="n">
-        <v>1.65345</v>
+        <v>1.70411</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.828541</v>
+        <v>0.816137</v>
       </c>
       <c r="C89" t="n">
-        <v>2.62917</v>
+        <v>1.78467</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7651520000000001</v>
+        <v>0.754769</v>
       </c>
       <c r="E89" t="n">
-        <v>1.61757</v>
+        <v>1.7624</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81702</v>
+        <v>0.814335</v>
       </c>
       <c r="C90" t="n">
-        <v>2.65765</v>
+        <v>1.78994</v>
       </c>
       <c r="D90" t="n">
-        <v>0.754474</v>
+        <v>0.734892</v>
       </c>
       <c r="E90" t="n">
-        <v>1.60834</v>
+        <v>1.69031</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.81855</v>
+        <v>0.779924</v>
       </c>
       <c r="C91" t="n">
-        <v>2.69915</v>
+        <v>1.73206</v>
       </c>
       <c r="D91" t="n">
-        <v>0.723027</v>
+        <v>0.710789</v>
       </c>
       <c r="E91" t="n">
-        <v>1.62322</v>
+        <v>1.67226</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.775115</v>
+        <v>0.778377</v>
       </c>
       <c r="C92" t="n">
-        <v>3.71</v>
+        <v>1.7181</v>
       </c>
       <c r="D92" t="n">
-        <v>0.718421</v>
+        <v>0.704053</v>
       </c>
       <c r="E92" t="n">
-        <v>1.52192</v>
+        <v>1.63407</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.779516</v>
+        <v>0.753453</v>
       </c>
       <c r="C93" t="n">
-        <v>3.61624</v>
+        <v>1.69239</v>
       </c>
       <c r="D93" t="n">
-        <v>0.738657</v>
+        <v>0.69982</v>
       </c>
       <c r="E93" t="n">
-        <v>1.50364</v>
+        <v>1.63517</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.760226</v>
+        <v>0.7667620000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3.53896</v>
+        <v>1.69281</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02729</v>
+        <v>0.988997</v>
       </c>
       <c r="E94" t="n">
-        <v>2.46999</v>
+        <v>2.60063</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08503</v>
+        <v>1.04029</v>
       </c>
       <c r="C95" t="n">
-        <v>3.49434</v>
+        <v>2.6921</v>
       </c>
       <c r="D95" t="n">
-        <v>0.981308</v>
+        <v>0.968224</v>
       </c>
       <c r="E95" t="n">
-        <v>2.40856</v>
+        <v>2.53578</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0462</v>
+        <v>1.07005</v>
       </c>
       <c r="C96" t="n">
-        <v>3.39569</v>
+        <v>2.63864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.991953</v>
+        <v>0.983832</v>
       </c>
       <c r="E96" t="n">
-        <v>2.36062</v>
+        <v>2.46973</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06218</v>
+        <v>1.01816</v>
       </c>
       <c r="C97" t="n">
-        <v>3.36358</v>
+        <v>2.57879</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.975754</v>
       </c>
       <c r="E97" t="n">
-        <v>2.45764</v>
+        <v>2.45806</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02324</v>
+        <v>1.00324</v>
       </c>
       <c r="C98" t="n">
-        <v>3.37056</v>
+        <v>2.55068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.943097</v>
+        <v>0.939285</v>
       </c>
       <c r="E98" t="n">
-        <v>2.32525</v>
+        <v>2.35224</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0074</v>
+        <v>0.981029</v>
       </c>
       <c r="C99" t="n">
-        <v>3.38365</v>
+        <v>2.4421</v>
       </c>
       <c r="D99" t="n">
-        <v>0.914501</v>
+        <v>0.907589</v>
       </c>
       <c r="E99" t="n">
-        <v>2.26094</v>
+        <v>2.30226</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02648</v>
+        <v>0.9877939999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>3.29861</v>
+        <v>2.40361</v>
       </c>
       <c r="D100" t="n">
-        <v>0.879978</v>
+        <v>0.899074</v>
       </c>
       <c r="E100" t="n">
-        <v>2.23662</v>
+        <v>2.28277</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9427759999999999</v>
+        <v>0.947615</v>
       </c>
       <c r="C101" t="n">
-        <v>3.18783</v>
+        <v>2.34368</v>
       </c>
       <c r="D101" t="n">
-        <v>0.881016</v>
+        <v>0.879101</v>
       </c>
       <c r="E101" t="n">
-        <v>2.15312</v>
+        <v>2.21437</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.943321</v>
+        <v>0.9382</v>
       </c>
       <c r="C102" t="n">
-        <v>3.1685</v>
+        <v>2.29278</v>
       </c>
       <c r="D102" t="n">
-        <v>0.889795</v>
+        <v>0.846342</v>
       </c>
       <c r="E102" t="n">
-        <v>2.10371</v>
+        <v>2.15727</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.934213</v>
+        <v>0.933489</v>
       </c>
       <c r="C103" t="n">
-        <v>3.2226</v>
+        <v>2.31613</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8548</v>
+        <v>0.844911</v>
       </c>
       <c r="E103" t="n">
-        <v>2.06551</v>
+        <v>2.12033</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.963085</v>
+        <v>0.915707</v>
       </c>
       <c r="C104" t="n">
-        <v>3.18325</v>
+        <v>2.20847</v>
       </c>
       <c r="D104" t="n">
-        <v>0.852566</v>
+        <v>0.828828</v>
       </c>
       <c r="E104" t="n">
-        <v>2.02321</v>
+        <v>2.10329</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.92131</v>
+        <v>0.90102</v>
       </c>
       <c r="C105" t="n">
-        <v>3.15451</v>
+        <v>2.16377</v>
       </c>
       <c r="D105" t="n">
-        <v>0.836004</v>
+        <v>0.810759</v>
       </c>
       <c r="E105" t="n">
-        <v>1.9809</v>
+        <v>2.03201</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.893077</v>
+        <v>0.889926</v>
       </c>
       <c r="C106" t="n">
-        <v>3.13828</v>
+        <v>2.16485</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8180730000000001</v>
+        <v>0.839566</v>
       </c>
       <c r="E106" t="n">
-        <v>1.94317</v>
+        <v>2.01605</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.897443</v>
+        <v>0.882201</v>
       </c>
       <c r="C107" t="n">
-        <v>4.21324</v>
+        <v>2.11189</v>
       </c>
       <c r="D107" t="n">
-        <v>0.814756</v>
+        <v>0.800293</v>
       </c>
       <c r="E107" t="n">
-        <v>1.90938</v>
+        <v>1.99354</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.887892</v>
+        <v>0.895379</v>
       </c>
       <c r="C108" t="n">
-        <v>4.16968</v>
+        <v>2.10906</v>
       </c>
       <c r="D108" t="n">
-        <v>1.16972</v>
+        <v>1.14299</v>
       </c>
       <c r="E108" t="n">
-        <v>3.04029</v>
+        <v>3.11323</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.876152</v>
+        <v>0.876655</v>
       </c>
       <c r="C109" t="n">
-        <v>4.14537</v>
+        <v>2.08594</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14146</v>
+        <v>1.09117</v>
       </c>
       <c r="E109" t="n">
-        <v>2.94995</v>
+        <v>3.09008</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18428</v>
+        <v>1.2194</v>
       </c>
       <c r="C110" t="n">
-        <v>4.03696</v>
+        <v>3.21582</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08487</v>
+        <v>1.07347</v>
       </c>
       <c r="E110" t="n">
-        <v>2.84502</v>
+        <v>2.93303</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18308</v>
+        <v>1.16802</v>
       </c>
       <c r="C111" t="n">
-        <v>3.9875</v>
+        <v>3.11288</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0547</v>
+        <v>1.07882</v>
       </c>
       <c r="E111" t="n">
-        <v>2.785</v>
+        <v>2.90181</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14864</v>
+        <v>1.16585</v>
       </c>
       <c r="C112" t="n">
-        <v>3.9732</v>
+        <v>3.10492</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07697</v>
+        <v>1.04236</v>
       </c>
       <c r="E112" t="n">
-        <v>2.73255</v>
+        <v>2.78235</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1437</v>
+        <v>1.13113</v>
       </c>
       <c r="C113" t="n">
-        <v>3.96955</v>
+        <v>2.92994</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07547</v>
+        <v>1.03048</v>
       </c>
       <c r="E113" t="n">
-        <v>2.70255</v>
+        <v>2.7201</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.16504</v>
+        <v>1.14985</v>
       </c>
       <c r="C114" t="n">
-        <v>3.90744</v>
+        <v>2.91339</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05069</v>
+        <v>1.02981</v>
       </c>
       <c r="E114" t="n">
-        <v>2.63218</v>
+        <v>2.69866</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1344</v>
+        <v>1.12722</v>
       </c>
       <c r="C115" t="n">
-        <v>3.8009</v>
+        <v>2.86672</v>
       </c>
       <c r="D115" t="n">
-        <v>1.06246</v>
+        <v>1.00782</v>
       </c>
       <c r="E115" t="n">
-        <v>2.58669</v>
+        <v>2.61026</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13772</v>
+        <v>1.10157</v>
       </c>
       <c r="C116" t="n">
-        <v>3.77852</v>
+        <v>2.79547</v>
       </c>
       <c r="D116" t="n">
-        <v>1.00691</v>
+        <v>1.01956</v>
       </c>
       <c r="E116" t="n">
-        <v>2.50773</v>
+        <v>2.582</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11538</v>
+        <v>1.10252</v>
       </c>
       <c r="C117" t="n">
-        <v>3.73234</v>
+        <v>2.75392</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03561</v>
+        <v>1.01627</v>
       </c>
       <c r="E117" t="n">
-        <v>2.45259</v>
+        <v>2.58436</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12188</v>
+        <v>1.08946</v>
       </c>
       <c r="C118" t="n">
-        <v>3.68851</v>
+        <v>2.71227</v>
       </c>
       <c r="D118" t="n">
-        <v>0.992228</v>
+        <v>1.01422</v>
       </c>
       <c r="E118" t="n">
-        <v>2.41287</v>
+        <v>2.52973</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.08592</v>
+        <v>1.08657</v>
       </c>
       <c r="C119" t="n">
-        <v>3.64767</v>
+        <v>2.64177</v>
       </c>
       <c r="D119" t="n">
-        <v>0.982291</v>
+        <v>0.977253</v>
       </c>
       <c r="E119" t="n">
-        <v>2.39386</v>
+        <v>2.44225</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10803</v>
+        <v>1.07427</v>
       </c>
       <c r="C120" t="n">
-        <v>3.66171</v>
+        <v>2.63878</v>
       </c>
       <c r="D120" t="n">
-        <v>0.956329</v>
+        <v>0.98717</v>
       </c>
       <c r="E120" t="n">
-        <v>2.36141</v>
+        <v>2.43548</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1005</v>
+        <v>1.07829</v>
       </c>
       <c r="C121" t="n">
-        <v>5.00822</v>
+        <v>2.58281</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01005</v>
+        <v>0.9613660000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>2.34664</v>
+        <v>2.40819</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.05333</v>
+        <v>1.04921</v>
       </c>
       <c r="C122" t="n">
-        <v>4.82749</v>
+        <v>2.52914</v>
       </c>
       <c r="D122" t="n">
-        <v>0.978651</v>
+        <v>0.966569</v>
       </c>
       <c r="E122" t="n">
-        <v>2.30548</v>
+        <v>2.36119</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.04854</v>
+        <v>1.05995</v>
       </c>
       <c r="C123" t="n">
-        <v>4.82529</v>
+        <v>2.52022</v>
       </c>
       <c r="D123" t="n">
         <v>1.29183</v>
       </c>
       <c r="E123" t="n">
-        <v>3.46698</v>
+        <v>3.49586</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3911</v>
+        <v>1.41202</v>
       </c>
       <c r="C124" t="n">
-        <v>4.70281</v>
+        <v>3.75351</v>
       </c>
       <c r="D124" t="n">
-        <v>1.28683</v>
+        <v>1.28421</v>
       </c>
       <c r="E124" t="n">
-        <v>3.39026</v>
+        <v>3.44075</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44227</v>
+        <v>1.37877</v>
       </c>
       <c r="C125" t="n">
-        <v>4.64284</v>
+        <v>3.70295</v>
       </c>
       <c r="D125" t="n">
-        <v>1.28664</v>
+        <v>1.27613</v>
       </c>
       <c r="E125" t="n">
-        <v>3.27772</v>
+        <v>3.36669</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.36449</v>
+        <v>1.3731</v>
       </c>
       <c r="C126" t="n">
-        <v>4.61059</v>
+        <v>3.58348</v>
       </c>
       <c r="D126" t="n">
-        <v>1.26944</v>
+        <v>1.27231</v>
       </c>
       <c r="E126" t="n">
-        <v>3.22392</v>
+        <v>3.29348</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38408</v>
+        <v>1.39599</v>
       </c>
       <c r="C127" t="n">
-        <v>4.48486</v>
+        <v>3.51309</v>
       </c>
       <c r="D127" t="n">
-        <v>1.27619</v>
+        <v>1.27355</v>
       </c>
       <c r="E127" t="n">
-        <v>3.15166</v>
+        <v>3.21963</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38694</v>
+        <v>1.38305</v>
       </c>
       <c r="C128" t="n">
-        <v>4.42984</v>
+        <v>3.42584</v>
       </c>
       <c r="D128" t="n">
-        <v>1.27117</v>
+        <v>1.26638</v>
       </c>
       <c r="E128" t="n">
-        <v>3.09343</v>
+        <v>3.13063</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.34596</v>
+        <v>1.3367</v>
       </c>
       <c r="C129" t="n">
-        <v>4.35215</v>
+        <v>3.3287</v>
       </c>
       <c r="D129" t="n">
-        <v>1.24984</v>
+        <v>1.22628</v>
       </c>
       <c r="E129" t="n">
-        <v>3.02414</v>
+        <v>3.07047</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33479</v>
+        <v>1.35441</v>
       </c>
       <c r="C130" t="n">
-        <v>4.28177</v>
+        <v>3.30637</v>
       </c>
       <c r="D130" t="n">
-        <v>1.24531</v>
+        <v>1.22752</v>
       </c>
       <c r="E130" t="n">
-        <v>2.96167</v>
+        <v>3.06731</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39297</v>
+        <v>1.33725</v>
       </c>
       <c r="C131" t="n">
-        <v>4.30649</v>
+        <v>3.20713</v>
       </c>
       <c r="D131" t="n">
-        <v>1.22543</v>
+        <v>1.22323</v>
       </c>
       <c r="E131" t="n">
-        <v>2.92323</v>
+        <v>2.96461</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32883</v>
+        <v>1.3453</v>
       </c>
       <c r="C132" t="n">
-        <v>4.22397</v>
+        <v>3.19058</v>
       </c>
       <c r="D132" t="n">
-        <v>1.2249</v>
+        <v>1.23381</v>
       </c>
       <c r="E132" t="n">
-        <v>2.85821</v>
+        <v>2.91241</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34026</v>
+        <v>1.3274</v>
       </c>
       <c r="C133" t="n">
-        <v>4.20061</v>
+        <v>3.12846</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25621</v>
+        <v>1.2136</v>
       </c>
       <c r="E133" t="n">
-        <v>2.86435</v>
+        <v>2.85776</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35962</v>
+        <v>1.32553</v>
       </c>
       <c r="C134" t="n">
-        <v>4.16038</v>
+        <v>3.09385</v>
       </c>
       <c r="D134" t="n">
-        <v>1.21869</v>
+        <v>1.21316</v>
       </c>
       <c r="E134" t="n">
-        <v>2.81429</v>
+        <v>2.83149</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34014</v>
+        <v>1.33855</v>
       </c>
       <c r="C135" t="n">
-        <v>5.68183</v>
+        <v>3.04288</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22614</v>
+        <v>1.22825</v>
       </c>
       <c r="E135" t="n">
-        <v>2.75148</v>
+        <v>2.80046</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34108</v>
+        <v>1.37869</v>
       </c>
       <c r="C136" t="n">
-        <v>5.61373</v>
+        <v>3.01816</v>
       </c>
       <c r="D136" t="n">
-        <v>1.20598</v>
+        <v>1.19949</v>
       </c>
       <c r="E136" t="n">
-        <v>2.71162</v>
+        <v>2.76576</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32733</v>
+        <v>1.33546</v>
       </c>
       <c r="C137" t="n">
-        <v>5.51557</v>
+        <v>2.98087</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57936</v>
+        <v>1.54283</v>
       </c>
       <c r="E137" t="n">
-        <v>3.98736</v>
+        <v>4.02015</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.65507</v>
+        <v>1.66182</v>
       </c>
       <c r="C138" t="n">
-        <v>5.41471</v>
+        <v>4.28934</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56738</v>
+        <v>1.54625</v>
       </c>
       <c r="E138" t="n">
-        <v>3.85945</v>
+        <v>3.9204</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63891</v>
+        <v>1.66378</v>
       </c>
       <c r="C139" t="n">
-        <v>5.29149</v>
+        <v>4.20703</v>
       </c>
       <c r="D139" t="n">
-        <v>1.56251</v>
+        <v>1.53335</v>
       </c>
       <c r="E139" t="n">
-        <v>3.77636</v>
+        <v>3.83761</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64385</v>
+        <v>1.63951</v>
       </c>
       <c r="C140" t="n">
-        <v>5.20477</v>
+        <v>4.10985</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54028</v>
+        <v>1.54502</v>
       </c>
       <c r="E140" t="n">
-        <v>3.71493</v>
+        <v>3.74453</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66064</v>
+        <v>1.65093</v>
       </c>
       <c r="C141" t="n">
-        <v>5.09846</v>
+        <v>4.01538</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53121</v>
+        <v>1.51042</v>
       </c>
       <c r="E141" t="n">
-        <v>3.64444</v>
+        <v>3.68813</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.66267</v>
+        <v>1.64812</v>
       </c>
       <c r="C142" t="n">
-        <v>5.05985</v>
+        <v>3.92761</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51192</v>
+        <v>1.51419</v>
       </c>
       <c r="E142" t="n">
-        <v>3.59223</v>
+        <v>3.59411</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62954</v>
+        <v>1.62409</v>
       </c>
       <c r="C143" t="n">
-        <v>5.00398</v>
+        <v>3.86179</v>
       </c>
       <c r="D143" t="n">
-        <v>1.51411</v>
+        <v>1.50301</v>
       </c>
       <c r="E143" t="n">
-        <v>3.51312</v>
+        <v>3.52539</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574112</v>
+        <v>0.630953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.968585</v>
+        <v>1.00025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314654</v>
+        <v>0.343407</v>
       </c>
       <c r="E2" t="n">
-        <v>0.761614</v>
+        <v>0.8417829999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.330398</v>
+        <v>0.365602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.963297</v>
+        <v>1.00672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.308732</v>
+        <v>0.319955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.758504</v>
+        <v>0.774603</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.332945</v>
+        <v>0.359075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.965219</v>
+        <v>0.9996620000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.30122</v>
+        <v>0.313505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.747288</v>
+        <v>0.839168</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316146</v>
+        <v>0.331406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.936063</v>
+        <v>0.975111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296801</v>
+        <v>0.31535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.746346</v>
+        <v>0.768738</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313494</v>
+        <v>0.324581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.929128</v>
+        <v>0.938632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29192</v>
+        <v>0.301884</v>
       </c>
       <c r="E6" t="n">
-        <v>0.737822</v>
+        <v>0.75076</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.310376</v>
+        <v>0.323232</v>
       </c>
       <c r="C7" t="n">
-        <v>1.12035</v>
+        <v>1.16999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286137</v>
+        <v>0.297224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74998</v>
+        <v>0.743273</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.305268</v>
+        <v>0.321494</v>
       </c>
       <c r="C8" t="n">
-        <v>1.11304</v>
+        <v>1.16009</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288348</v>
+        <v>0.319903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.73889</v>
+        <v>0.7801</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.304231</v>
+        <v>0.335983</v>
       </c>
       <c r="C9" t="n">
-        <v>1.09389</v>
+        <v>1.15033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5575</v>
+        <v>0.568917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.851769</v>
+        <v>0.871678</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564409</v>
+        <v>0.5704979999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.08156</v>
+        <v>1.13403</v>
       </c>
       <c r="D10" t="n">
-        <v>0.527273</v>
+        <v>0.540299</v>
       </c>
       <c r="E10" t="n">
-        <v>0.83962</v>
+        <v>0.89136</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5317730000000001</v>
+        <v>0.593268</v>
       </c>
       <c r="C11" t="n">
-        <v>1.06429</v>
+        <v>1.11678</v>
       </c>
       <c r="D11" t="n">
-        <v>0.520182</v>
+        <v>0.526049</v>
       </c>
       <c r="E11" t="n">
-        <v>0.834717</v>
+        <v>0.865904</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525879</v>
+        <v>0.536449</v>
       </c>
       <c r="C12" t="n">
-        <v>1.05074</v>
+        <v>1.11671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.491557</v>
+        <v>0.512109</v>
       </c>
       <c r="E12" t="n">
-        <v>0.824999</v>
+        <v>0.845062</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.503277</v>
+        <v>0.554697</v>
       </c>
       <c r="C13" t="n">
-        <v>1.03845</v>
+        <v>1.12109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.475334</v>
+        <v>0.511374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.811243</v>
+        <v>0.842868</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491246</v>
+        <v>0.516165</v>
       </c>
       <c r="C14" t="n">
-        <v>1.02575</v>
+        <v>1.0754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.461364</v>
+        <v>0.481335</v>
       </c>
       <c r="E14" t="n">
-        <v>0.81912</v>
+        <v>0.843298</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.472616</v>
+        <v>0.513307</v>
       </c>
       <c r="C15" t="n">
-        <v>1.01978</v>
+        <v>1.10026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.444741</v>
+        <v>0.461858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.793335</v>
+        <v>0.809767</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.462592</v>
+        <v>0.484542</v>
       </c>
       <c r="C16" t="n">
-        <v>1.01079</v>
+        <v>1.04145</v>
       </c>
       <c r="D16" t="n">
-        <v>0.433784</v>
+        <v>0.440579</v>
       </c>
       <c r="E16" t="n">
-        <v>0.788192</v>
+        <v>0.792708</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455543</v>
+        <v>0.450298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999597</v>
+        <v>1.02054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.42098</v>
+        <v>0.422116</v>
       </c>
       <c r="E17" t="n">
-        <v>0.779749</v>
+        <v>0.783291</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44115</v>
+        <v>0.440035</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0014</v>
+        <v>1.00989</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426386</v>
+        <v>0.423463</v>
       </c>
       <c r="E18" t="n">
-        <v>0.779454</v>
+        <v>0.7793060000000001</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.442637</v>
+        <v>0.439899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.994418</v>
+        <v>1.00246</v>
       </c>
       <c r="D19" t="n">
-        <v>0.414481</v>
+        <v>0.400793</v>
       </c>
       <c r="E19" t="n">
-        <v>0.774131</v>
+        <v>0.77222</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.430297</v>
+        <v>0.425426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.97922</v>
+        <v>0.993758</v>
       </c>
       <c r="D20" t="n">
-        <v>0.393704</v>
+        <v>0.409765</v>
       </c>
       <c r="E20" t="n">
-        <v>0.764197</v>
+        <v>0.763961</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.408364</v>
+        <v>0.42587</v>
       </c>
       <c r="C21" t="n">
-        <v>1.18157</v>
+        <v>1.20948</v>
       </c>
       <c r="D21" t="n">
-        <v>0.390392</v>
+        <v>0.400397</v>
       </c>
       <c r="E21" t="n">
-        <v>0.765493</v>
+        <v>0.766922</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402748</v>
+        <v>0.409263</v>
       </c>
       <c r="C22" t="n">
-        <v>1.16589</v>
+        <v>1.17997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.388702</v>
+        <v>0.378044</v>
       </c>
       <c r="E22" t="n">
-        <v>0.760339</v>
+        <v>0.761832</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.401603</v>
+        <v>0.407543</v>
       </c>
       <c r="C23" t="n">
-        <v>1.1444</v>
+        <v>1.14049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.635634</v>
+        <v>0.666682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.88012</v>
+        <v>0.863468</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.680987</v>
+        <v>0.679548</v>
       </c>
       <c r="C24" t="n">
-        <v>1.13463</v>
+        <v>1.1388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6497540000000001</v>
+        <v>0.639683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.888524</v>
+        <v>0.862592</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631982</v>
+        <v>0.669307</v>
       </c>
       <c r="C25" t="n">
-        <v>1.11985</v>
+        <v>1.13969</v>
       </c>
       <c r="D25" t="n">
-        <v>0.613684</v>
+        <v>0.610542</v>
       </c>
       <c r="E25" t="n">
-        <v>0.874333</v>
+        <v>0.857829</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.620293</v>
+        <v>0.644795</v>
       </c>
       <c r="C26" t="n">
-        <v>1.09834</v>
+        <v>1.13029</v>
       </c>
       <c r="D26" t="n">
-        <v>0.577439</v>
+        <v>0.584546</v>
       </c>
       <c r="E26" t="n">
-        <v>0.847473</v>
+        <v>0.851389</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5933389999999999</v>
+        <v>0.590058</v>
       </c>
       <c r="C27" t="n">
-        <v>1.09182</v>
+        <v>1.08171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.581211</v>
+        <v>0.5577490000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.838959</v>
+        <v>0.845791</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.597293</v>
+        <v>0.580778</v>
       </c>
       <c r="C28" t="n">
-        <v>1.08846</v>
+        <v>1.06761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.541605</v>
+        <v>0.549408</v>
       </c>
       <c r="E28" t="n">
-        <v>0.851818</v>
+        <v>0.822314</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.56003</v>
+        <v>0.559392</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0631</v>
+        <v>1.09532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.524942</v>
+        <v>0.526164</v>
       </c>
       <c r="E29" t="n">
-        <v>0.821963</v>
+        <v>0.82644</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.540255</v>
+        <v>0.5507030000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>1.05926</v>
+        <v>1.07683</v>
       </c>
       <c r="D30" t="n">
-        <v>0.509347</v>
+        <v>0.507204</v>
       </c>
       <c r="E30" t="n">
-        <v>0.828292</v>
+        <v>0.816921</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.525831</v>
+        <v>0.538252</v>
       </c>
       <c r="C31" t="n">
-        <v>1.04256</v>
+        <v>1.08723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.491841</v>
+        <v>0.494746</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8215789999999999</v>
+        <v>0.803123</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.515521</v>
+        <v>0.525147</v>
       </c>
       <c r="C32" t="n">
-        <v>1.05143</v>
+        <v>1.03457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497999</v>
+        <v>0.502551</v>
       </c>
       <c r="E32" t="n">
-        <v>0.802577</v>
+        <v>0.80258</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.497412</v>
+        <v>0.499889</v>
       </c>
       <c r="C33" t="n">
-        <v>1.03226</v>
+        <v>1.03724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.466591</v>
+        <v>0.469973</v>
       </c>
       <c r="E33" t="n">
-        <v>0.795181</v>
+        <v>0.813434</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.500152</v>
+        <v>0.482767</v>
       </c>
       <c r="C34" t="n">
-        <v>1.03105</v>
+        <v>1.03041</v>
       </c>
       <c r="D34" t="n">
-        <v>0.469306</v>
+        <v>0.461607</v>
       </c>
       <c r="E34" t="n">
-        <v>0.788317</v>
+        <v>0.786207</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479717</v>
+        <v>0.478109</v>
       </c>
       <c r="C35" t="n">
-        <v>1.27811</v>
+        <v>1.2909</v>
       </c>
       <c r="D35" t="n">
-        <v>0.441925</v>
+        <v>0.44259</v>
       </c>
       <c r="E35" t="n">
-        <v>0.783321</v>
+        <v>0.776209</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.475866</v>
+        <v>0.463857</v>
       </c>
       <c r="C36" t="n">
-        <v>1.27036</v>
+        <v>1.26298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.442964</v>
+        <v>0.435797</v>
       </c>
       <c r="E36" t="n">
-        <v>0.795398</v>
+        <v>0.785618</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458089</v>
+        <v>0.464582</v>
       </c>
       <c r="C37" t="n">
-        <v>1.24777</v>
+        <v>1.29257</v>
       </c>
       <c r="D37" t="n">
-        <v>0.723018</v>
+        <v>0.714358</v>
       </c>
       <c r="E37" t="n">
-        <v>0.964311</v>
+        <v>1.00751</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.730426</v>
+        <v>0.745241</v>
       </c>
       <c r="C38" t="n">
-        <v>1.22983</v>
+        <v>1.26962</v>
       </c>
       <c r="D38" t="n">
-        <v>0.683831</v>
+        <v>0.682304</v>
       </c>
       <c r="E38" t="n">
-        <v>0.960013</v>
+        <v>0.946078</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.68827</v>
+        <v>0.716719</v>
       </c>
       <c r="C39" t="n">
-        <v>1.22234</v>
+        <v>1.23516</v>
       </c>
       <c r="D39" t="n">
-        <v>0.64747</v>
+        <v>0.674215</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9414670000000001</v>
+        <v>0.938088</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.665071</v>
+        <v>0.669275</v>
       </c>
       <c r="C40" t="n">
-        <v>1.20598</v>
+        <v>1.22441</v>
       </c>
       <c r="D40" t="n">
-        <v>0.626113</v>
+        <v>0.662425</v>
       </c>
       <c r="E40" t="n">
-        <v>0.923894</v>
+        <v>0.954152</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.642269</v>
+        <v>0.654088</v>
       </c>
       <c r="C41" t="n">
-        <v>1.18972</v>
+        <v>1.20504</v>
       </c>
       <c r="D41" t="n">
-        <v>0.609803</v>
+        <v>0.610585</v>
       </c>
       <c r="E41" t="n">
-        <v>0.929189</v>
+        <v>0.909895</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.629327</v>
+        <v>0.634582</v>
       </c>
       <c r="C42" t="n">
-        <v>1.18779</v>
+        <v>1.22868</v>
       </c>
       <c r="D42" t="n">
-        <v>0.591274</v>
+        <v>0.590499</v>
       </c>
       <c r="E42" t="n">
-        <v>0.923513</v>
+        <v>0.9037269999999999</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.627075</v>
+        <v>0.619189</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1898</v>
+        <v>1.19421</v>
       </c>
       <c r="D43" t="n">
-        <v>0.578677</v>
+        <v>0.57475</v>
       </c>
       <c r="E43" t="n">
-        <v>0.901563</v>
+        <v>0.924324</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.594601</v>
+        <v>0.601627</v>
       </c>
       <c r="C44" t="n">
-        <v>1.16384</v>
+        <v>1.20751</v>
       </c>
       <c r="D44" t="n">
-        <v>0.555899</v>
+        <v>0.570504</v>
       </c>
       <c r="E44" t="n">
-        <v>0.914081</v>
+        <v>0.88207</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.583794</v>
+        <v>0.585673</v>
       </c>
       <c r="C45" t="n">
-        <v>1.17322</v>
+        <v>1.17652</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5363059999999999</v>
+        <v>0.541736</v>
       </c>
       <c r="E45" t="n">
-        <v>0.885394</v>
+        <v>0.871018</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.570827</v>
+        <v>0.560422</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15251</v>
+        <v>1.15641</v>
       </c>
       <c r="D46" t="n">
-        <v>0.540033</v>
+        <v>0.522724</v>
       </c>
       <c r="E46" t="n">
-        <v>0.870142</v>
+        <v>0.880806</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.542017</v>
+        <v>0.541627</v>
       </c>
       <c r="C47" t="n">
-        <v>1.14282</v>
+        <v>1.19921</v>
       </c>
       <c r="D47" t="n">
-        <v>0.528041</v>
+        <v>0.5110749999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.871787</v>
+        <v>0.881665</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.566526</v>
+        <v>0.532618</v>
       </c>
       <c r="C48" t="n">
-        <v>1.15074</v>
+        <v>1.14443</v>
       </c>
       <c r="D48" t="n">
-        <v>0.49735</v>
+        <v>0.490523</v>
       </c>
       <c r="E48" t="n">
-        <v>0.872101</v>
+        <v>0.867695</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.525739</v>
+        <v>0.521963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.17137</v>
+        <v>1.15981</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5044459999999999</v>
+        <v>0.479028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.865959</v>
+        <v>0.84452</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5243989999999999</v>
+        <v>0.517173</v>
       </c>
       <c r="C50" t="n">
-        <v>1.62263</v>
+        <v>1.62391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.481183</v>
+        <v>0.471159</v>
       </c>
       <c r="E50" t="n">
-        <v>0.855804</v>
+        <v>0.85823</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.505618</v>
+        <v>0.502081</v>
       </c>
       <c r="C51" t="n">
-        <v>1.59897</v>
+        <v>1.59613</v>
       </c>
       <c r="D51" t="n">
-        <v>0.779172</v>
+        <v>0.73793</v>
       </c>
       <c r="E51" t="n">
-        <v>1.14187</v>
+        <v>1.10553</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.492901</v>
+        <v>0.493475</v>
       </c>
       <c r="C52" t="n">
-        <v>1.58075</v>
+        <v>1.56319</v>
       </c>
       <c r="D52" t="n">
-        <v>0.723695</v>
+        <v>0.736894</v>
       </c>
       <c r="E52" t="n">
-        <v>1.11831</v>
+        <v>1.09476</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.748409</v>
+        <v>0.738422</v>
       </c>
       <c r="C53" t="n">
-        <v>1.54902</v>
+        <v>1.53635</v>
       </c>
       <c r="D53" t="n">
-        <v>0.733221</v>
+        <v>0.702744</v>
       </c>
       <c r="E53" t="n">
-        <v>1.09073</v>
+        <v>1.07577</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75929</v>
+        <v>0.726411</v>
       </c>
       <c r="C54" t="n">
-        <v>1.52252</v>
+        <v>1.52583</v>
       </c>
       <c r="D54" t="n">
-        <v>0.71322</v>
+        <v>0.673003</v>
       </c>
       <c r="E54" t="n">
-        <v>1.07773</v>
+        <v>1.07179</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7430909999999999</v>
+        <v>0.708317</v>
       </c>
       <c r="C55" t="n">
-        <v>1.524</v>
+        <v>1.49455</v>
       </c>
       <c r="D55" t="n">
-        <v>0.695763</v>
+        <v>0.671135</v>
       </c>
       <c r="E55" t="n">
-        <v>1.06732</v>
+        <v>1.05396</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.722284</v>
+        <v>0.7094549999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.49794</v>
+        <v>1.50721</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6472</v>
+        <v>0.6704290000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>1.04245</v>
+        <v>1.03127</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.671704</v>
+        <v>0.67586</v>
       </c>
       <c r="C57" t="n">
-        <v>1.45511</v>
+        <v>1.49222</v>
       </c>
       <c r="D57" t="n">
-        <v>0.63826</v>
+        <v>0.6326929999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>1.02785</v>
+        <v>1.02454</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.66342</v>
+        <v>0.658982</v>
       </c>
       <c r="C58" t="n">
-        <v>1.4769</v>
+        <v>1.49032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6162570000000001</v>
+        <v>0.612453</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0212</v>
+        <v>1.00898</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.66005</v>
+        <v>0.641479</v>
       </c>
       <c r="C59" t="n">
-        <v>1.46222</v>
+        <v>1.44262</v>
       </c>
       <c r="D59" t="n">
-        <v>0.599232</v>
+        <v>0.617416</v>
       </c>
       <c r="E59" t="n">
-        <v>0.986858</v>
+        <v>1.03115</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.628896</v>
+        <v>0.6379</v>
       </c>
       <c r="C60" t="n">
-        <v>1.43453</v>
+        <v>1.46479</v>
       </c>
       <c r="D60" t="n">
-        <v>0.607376</v>
+        <v>0.615798</v>
       </c>
       <c r="E60" t="n">
-        <v>0.996099</v>
+        <v>0.979505</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.637522</v>
+        <v>0.638637</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45608</v>
+        <v>1.52377</v>
       </c>
       <c r="D61" t="n">
-        <v>0.593173</v>
+        <v>0.576355</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9805739999999999</v>
+        <v>0.9834349999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6089290000000001</v>
+        <v>0.608173</v>
       </c>
       <c r="C62" t="n">
-        <v>1.44526</v>
+        <v>1.43961</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558836</v>
+        <v>0.584181</v>
       </c>
       <c r="E62" t="n">
-        <v>0.971708</v>
+        <v>0.969949</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.594081</v>
+        <v>0.587359</v>
       </c>
       <c r="C63" t="n">
-        <v>1.427</v>
+        <v>1.54069</v>
       </c>
       <c r="D63" t="n">
-        <v>0.551004</v>
+        <v>0.549762</v>
       </c>
       <c r="E63" t="n">
-        <v>0.953228</v>
+        <v>0.938569</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.573531</v>
+        <v>0.5733279999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>2.22944</v>
+        <v>2.30925</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5375490000000001</v>
+        <v>0.537341</v>
       </c>
       <c r="E64" t="n">
-        <v>0.968554</v>
+        <v>0.974807</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5682</v>
+        <v>0.579409</v>
       </c>
       <c r="C65" t="n">
-        <v>2.2019</v>
+        <v>2.20938</v>
       </c>
       <c r="D65" t="n">
-        <v>0.552657</v>
+        <v>0.557265</v>
       </c>
       <c r="E65" t="n">
-        <v>0.94102</v>
+        <v>0.954619</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.565944</v>
+        <v>0.568149</v>
       </c>
       <c r="C66" t="n">
-        <v>2.21965</v>
+        <v>2.18587</v>
       </c>
       <c r="D66" t="n">
-        <v>0.834228</v>
+        <v>0.801956</v>
       </c>
       <c r="E66" t="n">
-        <v>1.43453</v>
+        <v>1.4312</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.842917</v>
+        <v>0.84526</v>
       </c>
       <c r="C67" t="n">
-        <v>2.21033</v>
+        <v>2.15193</v>
       </c>
       <c r="D67" t="n">
-        <v>0.800767</v>
+        <v>0.790733</v>
       </c>
       <c r="E67" t="n">
-        <v>1.42108</v>
+        <v>1.42146</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8277409999999999</v>
+        <v>0.875503</v>
       </c>
       <c r="C68" t="n">
-        <v>2.16797</v>
+        <v>2.14422</v>
       </c>
       <c r="D68" t="n">
-        <v>0.792296</v>
+        <v>0.767509</v>
       </c>
       <c r="E68" t="n">
-        <v>1.37779</v>
+        <v>1.39311</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.797449</v>
+        <v>0.8052049999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07985</v>
+        <v>2.08034</v>
       </c>
       <c r="D69" t="n">
-        <v>0.740723</v>
+        <v>0.743513</v>
       </c>
       <c r="E69" t="n">
-        <v>1.36077</v>
+        <v>1.36015</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.798752</v>
+        <v>0.780439</v>
       </c>
       <c r="C70" t="n">
-        <v>2.07415</v>
+        <v>2.16021</v>
       </c>
       <c r="D70" t="n">
-        <v>0.735857</v>
+        <v>0.73573</v>
       </c>
       <c r="E70" t="n">
-        <v>1.34982</v>
+        <v>1.32198</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.783141</v>
+        <v>0.770109</v>
       </c>
       <c r="C71" t="n">
-        <v>2.09634</v>
+        <v>2.07111</v>
       </c>
       <c r="D71" t="n">
-        <v>0.748435</v>
+        <v>0.749992</v>
       </c>
       <c r="E71" t="n">
-        <v>1.33674</v>
+        <v>1.33103</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.760549</v>
+        <v>0.745144</v>
       </c>
       <c r="C72" t="n">
-        <v>2.03988</v>
+        <v>2.04669</v>
       </c>
       <c r="D72" t="n">
-        <v>0.711968</v>
+        <v>0.697041</v>
       </c>
       <c r="E72" t="n">
-        <v>1.32254</v>
+        <v>1.32772</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.731143</v>
+        <v>0.739618</v>
       </c>
       <c r="C73" t="n">
-        <v>2.04462</v>
+        <v>2.10445</v>
       </c>
       <c r="D73" t="n">
-        <v>0.675424</v>
+        <v>0.67275</v>
       </c>
       <c r="E73" t="n">
-        <v>1.26569</v>
+        <v>1.34593</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.715611</v>
+        <v>0.724538</v>
       </c>
       <c r="C74" t="n">
-        <v>1.97969</v>
+        <v>2.00313</v>
       </c>
       <c r="D74" t="n">
-        <v>0.664345</v>
+        <v>0.666357</v>
       </c>
       <c r="E74" t="n">
-        <v>1.24548</v>
+        <v>1.24619</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.704023</v>
+        <v>0.702178</v>
       </c>
       <c r="C75" t="n">
-        <v>1.95747</v>
+        <v>1.9584</v>
       </c>
       <c r="D75" t="n">
-        <v>0.676084</v>
+        <v>0.642462</v>
       </c>
       <c r="E75" t="n">
-        <v>1.23609</v>
+        <v>1.22623</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.687445</v>
+        <v>0.715785</v>
       </c>
       <c r="C76" t="n">
-        <v>2.00115</v>
+        <v>2.00543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.637325</v>
+        <v>0.635343</v>
       </c>
       <c r="E76" t="n">
-        <v>1.21896</v>
+        <v>1.20726</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.67328</v>
+        <v>0.67689</v>
       </c>
       <c r="C77" t="n">
-        <v>1.96699</v>
+        <v>1.96354</v>
       </c>
       <c r="D77" t="n">
-        <v>0.62438</v>
+        <v>0.618135</v>
       </c>
       <c r="E77" t="n">
-        <v>1.2346</v>
+        <v>1.18651</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6607189999999999</v>
+        <v>0.708896</v>
       </c>
       <c r="C78" t="n">
-        <v>3.21732</v>
+        <v>3.27354</v>
       </c>
       <c r="D78" t="n">
-        <v>0.613042</v>
+        <v>0.618038</v>
       </c>
       <c r="E78" t="n">
-        <v>1.18014</v>
+        <v>1.21805</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.653535</v>
+        <v>0.67244</v>
       </c>
       <c r="C79" t="n">
-        <v>3.16926</v>
+        <v>3.21676</v>
       </c>
       <c r="D79" t="n">
-        <v>0.60332</v>
+        <v>0.599019</v>
       </c>
       <c r="E79" t="n">
-        <v>1.17321</v>
+        <v>1.15229</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.643323</v>
+        <v>0.679051</v>
       </c>
       <c r="C80" t="n">
-        <v>3.11368</v>
+        <v>3.0642</v>
       </c>
       <c r="D80" t="n">
-        <v>0.93673</v>
+        <v>0.90091</v>
       </c>
       <c r="E80" t="n">
-        <v>2.0002</v>
+        <v>2.01227</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.943507</v>
+        <v>0.938306</v>
       </c>
       <c r="C81" t="n">
-        <v>2.99298</v>
+        <v>3.03238</v>
       </c>
       <c r="D81" t="n">
-        <v>0.885897</v>
+        <v>0.884282</v>
       </c>
       <c r="E81" t="n">
-        <v>1.97417</v>
+        <v>1.92018</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.926036</v>
+        <v>0.967101</v>
       </c>
       <c r="C82" t="n">
-        <v>2.91806</v>
+        <v>2.91472</v>
       </c>
       <c r="D82" t="n">
-        <v>0.864947</v>
+        <v>0.872657</v>
       </c>
       <c r="E82" t="n">
-        <v>1.92556</v>
+        <v>1.95993</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.932713</v>
+        <v>0.942677</v>
       </c>
       <c r="C83" t="n">
-        <v>2.87283</v>
+        <v>2.92662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.852874</v>
+        <v>0.847089</v>
       </c>
       <c r="E83" t="n">
-        <v>1.8314</v>
+        <v>1.88532</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.933067</v>
+        <v>0.909223</v>
       </c>
       <c r="C84" t="n">
-        <v>2.82296</v>
+        <v>2.84143</v>
       </c>
       <c r="D84" t="n">
-        <v>0.834492</v>
+        <v>0.836493</v>
       </c>
       <c r="E84" t="n">
-        <v>1.85963</v>
+        <v>1.84992</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.868437</v>
+        <v>0.880232</v>
       </c>
       <c r="C85" t="n">
-        <v>2.74867</v>
+        <v>2.82029</v>
       </c>
       <c r="D85" t="n">
-        <v>0.804945</v>
+        <v>0.842498</v>
       </c>
       <c r="E85" t="n">
-        <v>1.77087</v>
+        <v>1.79021</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.907235</v>
+        <v>0.851746</v>
       </c>
       <c r="C86" t="n">
-        <v>2.83378</v>
+        <v>2.76542</v>
       </c>
       <c r="D86" t="n">
-        <v>0.796218</v>
+        <v>0.795442</v>
       </c>
       <c r="E86" t="n">
-        <v>1.71582</v>
+        <v>1.75438</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.848119</v>
+        <v>0.854452</v>
       </c>
       <c r="C87" t="n">
-        <v>2.69087</v>
+        <v>2.73892</v>
       </c>
       <c r="D87" t="n">
-        <v>0.770881</v>
+        <v>0.805045</v>
       </c>
       <c r="E87" t="n">
-        <v>1.67393</v>
+        <v>1.70519</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.819462</v>
+        <v>0.850224</v>
       </c>
       <c r="C88" t="n">
-        <v>2.65118</v>
+        <v>2.72864</v>
       </c>
       <c r="D88" t="n">
-        <v>0.778843</v>
+        <v>0.765706</v>
       </c>
       <c r="E88" t="n">
-        <v>1.65345</v>
+        <v>1.80004</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.828541</v>
+        <v>0.827879</v>
       </c>
       <c r="C89" t="n">
-        <v>2.62917</v>
+        <v>2.76444</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7651520000000001</v>
+        <v>0.778325</v>
       </c>
       <c r="E89" t="n">
-        <v>1.61757</v>
+        <v>1.65781</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81702</v>
+        <v>0.802348</v>
       </c>
       <c r="C90" t="n">
-        <v>2.65765</v>
+        <v>2.68707</v>
       </c>
       <c r="D90" t="n">
-        <v>0.754474</v>
+        <v>0.7325</v>
       </c>
       <c r="E90" t="n">
-        <v>1.60834</v>
+        <v>1.62388</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.81855</v>
+        <v>0.7901629999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>2.69915</v>
+        <v>2.72168</v>
       </c>
       <c r="D91" t="n">
-        <v>0.723027</v>
+        <v>0.720907</v>
       </c>
       <c r="E91" t="n">
-        <v>1.62322</v>
+        <v>1.6272</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.775115</v>
+        <v>0.778343</v>
       </c>
       <c r="C92" t="n">
-        <v>3.71</v>
+        <v>3.80125</v>
       </c>
       <c r="D92" t="n">
-        <v>0.718421</v>
+        <v>0.724773</v>
       </c>
       <c r="E92" t="n">
-        <v>1.52192</v>
+        <v>1.56872</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.779516</v>
+        <v>0.78965</v>
       </c>
       <c r="C93" t="n">
-        <v>3.61624</v>
+        <v>3.62583</v>
       </c>
       <c r="D93" t="n">
-        <v>0.738657</v>
+        <v>0.715186</v>
       </c>
       <c r="E93" t="n">
-        <v>1.50364</v>
+        <v>1.52982</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.760226</v>
+        <v>0.75913</v>
       </c>
       <c r="C94" t="n">
-        <v>3.53896</v>
+        <v>3.74144</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02729</v>
+        <v>1.01113</v>
       </c>
       <c r="E94" t="n">
-        <v>2.46999</v>
+        <v>2.52934</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08503</v>
+        <v>1.08276</v>
       </c>
       <c r="C95" t="n">
-        <v>3.49434</v>
+        <v>3.57471</v>
       </c>
       <c r="D95" t="n">
-        <v>0.981308</v>
+        <v>0.985491</v>
       </c>
       <c r="E95" t="n">
-        <v>2.40856</v>
+        <v>2.46578</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0462</v>
+        <v>1.09212</v>
       </c>
       <c r="C96" t="n">
-        <v>3.39569</v>
+        <v>3.46318</v>
       </c>
       <c r="D96" t="n">
-        <v>0.991953</v>
+        <v>0.981808</v>
       </c>
       <c r="E96" t="n">
-        <v>2.36062</v>
+        <v>2.49227</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06218</v>
+        <v>1.0191</v>
       </c>
       <c r="C97" t="n">
-        <v>3.36358</v>
+        <v>3.4574</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.94741</v>
       </c>
       <c r="E97" t="n">
-        <v>2.45764</v>
+        <v>2.42618</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02324</v>
+        <v>1.01622</v>
       </c>
       <c r="C98" t="n">
-        <v>3.37056</v>
+        <v>3.3653</v>
       </c>
       <c r="D98" t="n">
-        <v>0.943097</v>
+        <v>0.917309</v>
       </c>
       <c r="E98" t="n">
-        <v>2.32525</v>
+        <v>2.36601</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0074</v>
+        <v>1.00638</v>
       </c>
       <c r="C99" t="n">
-        <v>3.38365</v>
+        <v>3.31837</v>
       </c>
       <c r="D99" t="n">
-        <v>0.914501</v>
+        <v>0.944363</v>
       </c>
       <c r="E99" t="n">
-        <v>2.26094</v>
+        <v>2.366</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02648</v>
+        <v>1.00123</v>
       </c>
       <c r="C100" t="n">
-        <v>3.29861</v>
+        <v>3.29701</v>
       </c>
       <c r="D100" t="n">
-        <v>0.879978</v>
+        <v>0.928534</v>
       </c>
       <c r="E100" t="n">
-        <v>2.23662</v>
+        <v>2.21666</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9427759999999999</v>
+        <v>0.971647</v>
       </c>
       <c r="C101" t="n">
-        <v>3.18783</v>
+        <v>3.25688</v>
       </c>
       <c r="D101" t="n">
-        <v>0.881016</v>
+        <v>0.88856</v>
       </c>
       <c r="E101" t="n">
-        <v>2.15312</v>
+        <v>2.1361</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.943321</v>
+        <v>0.9471309999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>3.1685</v>
+        <v>3.29636</v>
       </c>
       <c r="D102" t="n">
-        <v>0.889795</v>
+        <v>0.865326</v>
       </c>
       <c r="E102" t="n">
-        <v>2.10371</v>
+        <v>2.12047</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.934213</v>
+        <v>0.939169</v>
       </c>
       <c r="C103" t="n">
-        <v>3.2226</v>
+        <v>3.24438</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8548</v>
+        <v>0.872206</v>
       </c>
       <c r="E103" t="n">
-        <v>2.06551</v>
+        <v>2.1064</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.963085</v>
+        <v>0.941084</v>
       </c>
       <c r="C104" t="n">
-        <v>3.18325</v>
+        <v>3.26972</v>
       </c>
       <c r="D104" t="n">
-        <v>0.852566</v>
+        <v>0.82412</v>
       </c>
       <c r="E104" t="n">
-        <v>2.02321</v>
+        <v>2.10217</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.92131</v>
+        <v>0.906908</v>
       </c>
       <c r="C105" t="n">
-        <v>3.15451</v>
+        <v>3.16763</v>
       </c>
       <c r="D105" t="n">
-        <v>0.836004</v>
+        <v>0.823045</v>
       </c>
       <c r="E105" t="n">
-        <v>1.9809</v>
+        <v>1.99231</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.893077</v>
+        <v>0.907327</v>
       </c>
       <c r="C106" t="n">
-        <v>3.13828</v>
+        <v>3.16367</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8180730000000001</v>
+        <v>0.820709</v>
       </c>
       <c r="E106" t="n">
-        <v>1.94317</v>
+        <v>1.97871</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.897443</v>
+        <v>0.902462</v>
       </c>
       <c r="C107" t="n">
-        <v>4.21324</v>
+        <v>4.26768</v>
       </c>
       <c r="D107" t="n">
-        <v>0.814756</v>
+        <v>0.809743</v>
       </c>
       <c r="E107" t="n">
-        <v>1.90938</v>
+        <v>1.94408</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.887892</v>
+        <v>0.878561</v>
       </c>
       <c r="C108" t="n">
-        <v>4.16968</v>
+        <v>4.24922</v>
       </c>
       <c r="D108" t="n">
-        <v>1.16972</v>
+        <v>1.17405</v>
       </c>
       <c r="E108" t="n">
-        <v>3.04029</v>
+        <v>3.03615</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.876152</v>
+        <v>0.878681</v>
       </c>
       <c r="C109" t="n">
-        <v>4.14537</v>
+        <v>4.20327</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14146</v>
+        <v>1.12344</v>
       </c>
       <c r="E109" t="n">
-        <v>2.94995</v>
+        <v>2.97721</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18428</v>
+        <v>1.20755</v>
       </c>
       <c r="C110" t="n">
-        <v>4.03696</v>
+        <v>4.09381</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08487</v>
+        <v>1.0696</v>
       </c>
       <c r="E110" t="n">
-        <v>2.84502</v>
+        <v>2.87794</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18308</v>
+        <v>1.16072</v>
       </c>
       <c r="C111" t="n">
-        <v>3.9875</v>
+        <v>3.98928</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0547</v>
+        <v>1.08191</v>
       </c>
       <c r="E111" t="n">
-        <v>2.785</v>
+        <v>2.80833</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14864</v>
+        <v>1.15096</v>
       </c>
       <c r="C112" t="n">
-        <v>3.9732</v>
+        <v>3.96874</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07697</v>
+        <v>1.0616</v>
       </c>
       <c r="E112" t="n">
-        <v>2.73255</v>
+        <v>2.77139</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1437</v>
+        <v>1.17672</v>
       </c>
       <c r="C113" t="n">
-        <v>3.96955</v>
+        <v>3.90033</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07547</v>
+        <v>1.05074</v>
       </c>
       <c r="E113" t="n">
-        <v>2.70255</v>
+        <v>2.71738</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.16504</v>
+        <v>1.14867</v>
       </c>
       <c r="C114" t="n">
-        <v>3.90744</v>
+        <v>3.93215</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05069</v>
+        <v>1.05287</v>
       </c>
       <c r="E114" t="n">
-        <v>2.63218</v>
+        <v>2.62408</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1344</v>
+        <v>1.13521</v>
       </c>
       <c r="C115" t="n">
-        <v>3.8009</v>
+        <v>3.82264</v>
       </c>
       <c r="D115" t="n">
-        <v>1.06246</v>
+        <v>1.04604</v>
       </c>
       <c r="E115" t="n">
-        <v>2.58669</v>
+        <v>2.5895</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13772</v>
+        <v>1.12393</v>
       </c>
       <c r="C116" t="n">
-        <v>3.77852</v>
+        <v>3.77439</v>
       </c>
       <c r="D116" t="n">
-        <v>1.00691</v>
+        <v>1.01132</v>
       </c>
       <c r="E116" t="n">
-        <v>2.50773</v>
+        <v>2.53468</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11538</v>
+        <v>1.16471</v>
       </c>
       <c r="C117" t="n">
-        <v>3.73234</v>
+        <v>3.77969</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03561</v>
+        <v>1.00314</v>
       </c>
       <c r="E117" t="n">
-        <v>2.45259</v>
+        <v>2.5258</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12188</v>
+        <v>1.12109</v>
       </c>
       <c r="C118" t="n">
-        <v>3.68851</v>
+        <v>3.78357</v>
       </c>
       <c r="D118" t="n">
-        <v>0.992228</v>
+        <v>0.99181</v>
       </c>
       <c r="E118" t="n">
-        <v>2.41287</v>
+        <v>2.50897</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.08592</v>
+        <v>1.1053</v>
       </c>
       <c r="C119" t="n">
-        <v>3.64767</v>
+        <v>3.73823</v>
       </c>
       <c r="D119" t="n">
-        <v>0.982291</v>
+        <v>0.991035</v>
       </c>
       <c r="E119" t="n">
-        <v>2.39386</v>
+        <v>2.44768</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10803</v>
+        <v>1.11621</v>
       </c>
       <c r="C120" t="n">
-        <v>3.66171</v>
+        <v>3.71115</v>
       </c>
       <c r="D120" t="n">
-        <v>0.956329</v>
+        <v>0.983034</v>
       </c>
       <c r="E120" t="n">
-        <v>2.36141</v>
+        <v>2.36622</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1005</v>
+        <v>1.08936</v>
       </c>
       <c r="C121" t="n">
-        <v>5.00822</v>
+        <v>5.05371</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01005</v>
+        <v>0.997788</v>
       </c>
       <c r="E121" t="n">
-        <v>2.34664</v>
+        <v>2.37686</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.05333</v>
+        <v>1.08815</v>
       </c>
       <c r="C122" t="n">
-        <v>4.82749</v>
+        <v>4.98475</v>
       </c>
       <c r="D122" t="n">
-        <v>0.978651</v>
+        <v>0.992438</v>
       </c>
       <c r="E122" t="n">
-        <v>2.30548</v>
+        <v>2.38458</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.04854</v>
+        <v>1.11065</v>
       </c>
       <c r="C123" t="n">
-        <v>4.82529</v>
+        <v>4.87574</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29183</v>
+        <v>1.27526</v>
       </c>
       <c r="E123" t="n">
-        <v>3.46698</v>
+        <v>3.48141</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3911</v>
+        <v>1.3797</v>
       </c>
       <c r="C124" t="n">
-        <v>4.70281</v>
+        <v>4.76882</v>
       </c>
       <c r="D124" t="n">
-        <v>1.28683</v>
+        <v>1.27089</v>
       </c>
       <c r="E124" t="n">
-        <v>3.39026</v>
+        <v>3.40119</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44227</v>
+        <v>1.41239</v>
       </c>
       <c r="C125" t="n">
-        <v>4.64284</v>
+        <v>4.67674</v>
       </c>
       <c r="D125" t="n">
-        <v>1.28664</v>
+        <v>1.29539</v>
       </c>
       <c r="E125" t="n">
-        <v>3.27772</v>
+        <v>3.29871</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.36449</v>
+        <v>1.40403</v>
       </c>
       <c r="C126" t="n">
-        <v>4.61059</v>
+        <v>4.62867</v>
       </c>
       <c r="D126" t="n">
-        <v>1.26944</v>
+        <v>1.29089</v>
       </c>
       <c r="E126" t="n">
-        <v>3.22392</v>
+        <v>3.2601</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38408</v>
+        <v>1.39233</v>
       </c>
       <c r="C127" t="n">
-        <v>4.48486</v>
+        <v>4.54985</v>
       </c>
       <c r="D127" t="n">
-        <v>1.27619</v>
+        <v>1.2631</v>
       </c>
       <c r="E127" t="n">
-        <v>3.15166</v>
+        <v>3.21687</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38694</v>
+        <v>1.40826</v>
       </c>
       <c r="C128" t="n">
-        <v>4.42984</v>
+        <v>4.51856</v>
       </c>
       <c r="D128" t="n">
-        <v>1.27117</v>
+        <v>1.26542</v>
       </c>
       <c r="E128" t="n">
-        <v>3.09343</v>
+        <v>3.14637</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.34596</v>
+        <v>1.358</v>
       </c>
       <c r="C129" t="n">
-        <v>4.35215</v>
+        <v>4.43304</v>
       </c>
       <c r="D129" t="n">
-        <v>1.24984</v>
+        <v>1.26767</v>
       </c>
       <c r="E129" t="n">
-        <v>3.02414</v>
+        <v>3.06513</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33479</v>
+        <v>1.36808</v>
       </c>
       <c r="C130" t="n">
-        <v>4.28177</v>
+        <v>4.38943</v>
       </c>
       <c r="D130" t="n">
-        <v>1.24531</v>
+        <v>1.2705</v>
       </c>
       <c r="E130" t="n">
-        <v>2.96167</v>
+        <v>3.01194</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39297</v>
+        <v>1.36092</v>
       </c>
       <c r="C131" t="n">
-        <v>4.30649</v>
+        <v>4.33096</v>
       </c>
       <c r="D131" t="n">
-        <v>1.22543</v>
+        <v>1.25593</v>
       </c>
       <c r="E131" t="n">
-        <v>2.92323</v>
+        <v>2.97668</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32883</v>
+        <v>1.37487</v>
       </c>
       <c r="C132" t="n">
-        <v>4.22397</v>
+        <v>4.32195</v>
       </c>
       <c r="D132" t="n">
-        <v>1.2249</v>
+        <v>1.23495</v>
       </c>
       <c r="E132" t="n">
-        <v>2.85821</v>
+        <v>2.90318</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34026</v>
+        <v>1.36353</v>
       </c>
       <c r="C133" t="n">
-        <v>4.20061</v>
+        <v>4.28467</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25621</v>
+        <v>1.22575</v>
       </c>
       <c r="E133" t="n">
-        <v>2.86435</v>
+        <v>2.85899</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35962</v>
+        <v>1.36652</v>
       </c>
       <c r="C134" t="n">
-        <v>4.16038</v>
+        <v>4.24862</v>
       </c>
       <c r="D134" t="n">
-        <v>1.21869</v>
+        <v>1.22952</v>
       </c>
       <c r="E134" t="n">
-        <v>2.81429</v>
+        <v>2.8151</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34014</v>
+        <v>1.35246</v>
       </c>
       <c r="C135" t="n">
-        <v>5.68183</v>
+        <v>5.83538</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22614</v>
+        <v>1.24375</v>
       </c>
       <c r="E135" t="n">
-        <v>2.75148</v>
+        <v>2.79579</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34108</v>
+        <v>1.3857</v>
       </c>
       <c r="C136" t="n">
-        <v>5.61373</v>
+        <v>5.73301</v>
       </c>
       <c r="D136" t="n">
-        <v>1.20598</v>
+        <v>1.22112</v>
       </c>
       <c r="E136" t="n">
-        <v>2.71162</v>
+        <v>2.77615</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32733</v>
+        <v>1.40365</v>
       </c>
       <c r="C137" t="n">
-        <v>5.51557</v>
+        <v>5.56373</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57936</v>
+        <v>1.56785</v>
       </c>
       <c r="E137" t="n">
-        <v>3.98736</v>
+        <v>3.98981</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.65507</v>
+        <v>1.6851</v>
       </c>
       <c r="C138" t="n">
-        <v>5.41471</v>
+        <v>5.45278</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56738</v>
+        <v>1.54805</v>
       </c>
       <c r="E138" t="n">
-        <v>3.85945</v>
+        <v>3.93624</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63891</v>
+        <v>1.70205</v>
       </c>
       <c r="C139" t="n">
-        <v>5.29149</v>
+        <v>5.43855</v>
       </c>
       <c r="D139" t="n">
-        <v>1.56251</v>
+        <v>1.55712</v>
       </c>
       <c r="E139" t="n">
-        <v>3.77636</v>
+        <v>3.88142</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64385</v>
+        <v>1.66857</v>
       </c>
       <c r="C140" t="n">
-        <v>5.20477</v>
+        <v>5.28586</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54028</v>
+        <v>1.5597</v>
       </c>
       <c r="E140" t="n">
-        <v>3.71493</v>
+        <v>3.76129</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66064</v>
+        <v>1.66794</v>
       </c>
       <c r="C141" t="n">
-        <v>5.09846</v>
+        <v>5.24271</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53121</v>
+        <v>1.56081</v>
       </c>
       <c r="E141" t="n">
-        <v>3.64444</v>
+        <v>3.70876</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.66267</v>
+        <v>1.6692</v>
       </c>
       <c r="C142" t="n">
-        <v>5.05985</v>
+        <v>5.1491</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51192</v>
+        <v>1.55371</v>
       </c>
       <c r="E142" t="n">
-        <v>3.59223</v>
+        <v>3.61576</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62954</v>
+        <v>1.65628</v>
       </c>
       <c r="C143" t="n">
-        <v>5.00398</v>
+        <v>5.06046</v>
       </c>
       <c r="D143" t="n">
-        <v>1.51411</v>
+        <v>1.52739</v>
       </c>
       <c r="E143" t="n">
-        <v>3.51312</v>
+        <v>3.53368</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.630953</v>
+        <v>0.57358</v>
       </c>
       <c r="C2" t="n">
-        <v>1.00025</v>
+        <v>0.783541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343407</v>
+        <v>0.96422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8417829999999999</v>
+        <v>0.331143</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.813175</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.365602</v>
+        <v>0.347615</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00672</v>
+        <v>0.939977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319955</v>
+        <v>1.01833</v>
       </c>
       <c r="E3" t="n">
-        <v>0.774603</v>
+        <v>0.320918</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.813372</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359075</v>
+        <v>0.381248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996620000000001</v>
+        <v>0.823566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313505</v>
+        <v>0.996175</v>
       </c>
       <c r="E4" t="n">
-        <v>0.839168</v>
+        <v>0.322772</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.788532</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.331406</v>
+        <v>0.352272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.975111</v>
+        <v>0.814866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31535</v>
+        <v>1.01038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.768738</v>
+        <v>0.341214</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.803578</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.324581</v>
+        <v>0.332081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.938632</v>
+        <v>0.834516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.301884</v>
+        <v>1.001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75076</v>
+        <v>0.317857</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.779231</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323232</v>
+        <v>0.324997</v>
       </c>
       <c r="C7" t="n">
-        <v>1.16999</v>
+        <v>0.790476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.297224</v>
+        <v>1.17796</v>
       </c>
       <c r="E7" t="n">
-        <v>0.743273</v>
+        <v>0.304098</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.800226</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.321494</v>
+        <v>0.322333</v>
       </c>
       <c r="C8" t="n">
-        <v>1.16009</v>
+        <v>0.803786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.319903</v>
+        <v>1.16481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7801</v>
+        <v>0.305682</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.780359</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335983</v>
+        <v>0.322701</v>
       </c>
       <c r="C9" t="n">
-        <v>1.15033</v>
+        <v>0.812293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.568917</v>
+        <v>1.14057</v>
       </c>
       <c r="E9" t="n">
-        <v>0.871678</v>
+        <v>0.567102</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.893536</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5704979999999999</v>
+        <v>0.610695</v>
       </c>
       <c r="C10" t="n">
-        <v>1.13403</v>
+        <v>0.909817</v>
       </c>
       <c r="D10" t="n">
-        <v>0.540299</v>
+        <v>1.15268</v>
       </c>
       <c r="E10" t="n">
-        <v>0.89136</v>
+        <v>0.552166</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.879783</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.593268</v>
+        <v>0.558538</v>
       </c>
       <c r="C11" t="n">
-        <v>1.11678</v>
+        <v>0.899752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.526049</v>
+        <v>1.10277</v>
       </c>
       <c r="E11" t="n">
-        <v>0.865904</v>
+        <v>0.534404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.876672</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.536449</v>
+        <v>0.556166</v>
       </c>
       <c r="C12" t="n">
-        <v>1.11671</v>
+        <v>0.902101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.512109</v>
+        <v>1.06621</v>
       </c>
       <c r="E12" t="n">
-        <v>0.845062</v>
+        <v>0.503219</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8915960000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.554697</v>
+        <v>0.518984</v>
       </c>
       <c r="C13" t="n">
-        <v>1.12109</v>
+        <v>0.862858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.511374</v>
+        <v>1.04368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.842868</v>
+        <v>0.482849</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.832989</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.516165</v>
+        <v>0.487713</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0754</v>
+        <v>0.8379760000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.481335</v>
+        <v>1.05895</v>
       </c>
       <c r="E14" t="n">
-        <v>0.843298</v>
+        <v>0.460649</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.812897</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.513307</v>
+        <v>0.486967</v>
       </c>
       <c r="C15" t="n">
-        <v>1.10026</v>
+        <v>0.846045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.461858</v>
+        <v>1.05794</v>
       </c>
       <c r="E15" t="n">
-        <v>0.809767</v>
+        <v>0.476363</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8271770000000001</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.484542</v>
+        <v>0.474048</v>
       </c>
       <c r="C16" t="n">
-        <v>1.04145</v>
+        <v>0.85728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.440579</v>
+        <v>1.01429</v>
       </c>
       <c r="E16" t="n">
-        <v>0.792708</v>
+        <v>0.452585</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.810196</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.450298</v>
+        <v>0.450839</v>
       </c>
       <c r="C17" t="n">
-        <v>1.02054</v>
+        <v>0.813159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422116</v>
+        <v>1.02076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.783291</v>
+        <v>0.467456</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.793778</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.440035</v>
+        <v>0.438318</v>
       </c>
       <c r="C18" t="n">
-        <v>1.00989</v>
+        <v>0.828139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423463</v>
+        <v>1.02507</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7793060000000001</v>
+        <v>0.422955</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.817151</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439899</v>
+        <v>0.42838</v>
       </c>
       <c r="C19" t="n">
-        <v>1.00246</v>
+        <v>0.82342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.400793</v>
+        <v>0.995363</v>
       </c>
       <c r="E19" t="n">
-        <v>0.77222</v>
+        <v>0.403662</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.764701</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.425426</v>
+        <v>0.41961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.993758</v>
+        <v>0.792283</v>
       </c>
       <c r="D20" t="n">
-        <v>0.409765</v>
+        <v>1.00586</v>
       </c>
       <c r="E20" t="n">
-        <v>0.763961</v>
+        <v>0.394233</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.796364</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42587</v>
+        <v>0.415704</v>
       </c>
       <c r="C21" t="n">
-        <v>1.20948</v>
+        <v>0.796587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400397</v>
+        <v>1.18532</v>
       </c>
       <c r="E21" t="n">
-        <v>0.766922</v>
+        <v>0.386742</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.775475</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409263</v>
+        <v>0.404083</v>
       </c>
       <c r="C22" t="n">
-        <v>1.17997</v>
+        <v>0.783314</v>
       </c>
       <c r="D22" t="n">
-        <v>0.378044</v>
+        <v>1.17241</v>
       </c>
       <c r="E22" t="n">
-        <v>0.761832</v>
+        <v>0.385734</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.766676</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407543</v>
+        <v>0.396452</v>
       </c>
       <c r="C23" t="n">
-        <v>1.14049</v>
+        <v>0.791702</v>
       </c>
       <c r="D23" t="n">
-        <v>0.666682</v>
+        <v>1.18309</v>
       </c>
       <c r="E23" t="n">
-        <v>0.863468</v>
+        <v>0.65191</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.889456</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.679548</v>
+        <v>0.65578</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1388</v>
+        <v>0.898961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.639683</v>
+        <v>1.13711</v>
       </c>
       <c r="E24" t="n">
-        <v>0.862592</v>
+        <v>0.614641</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.887363</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.669307</v>
+        <v>0.632518</v>
       </c>
       <c r="C25" t="n">
-        <v>1.13969</v>
+        <v>0.915403</v>
       </c>
       <c r="D25" t="n">
-        <v>0.610542</v>
+        <v>1.11884</v>
       </c>
       <c r="E25" t="n">
-        <v>0.857829</v>
+        <v>0.608687</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.875628</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.644795</v>
+        <v>0.620214</v>
       </c>
       <c r="C26" t="n">
-        <v>1.13029</v>
+        <v>0.880782</v>
       </c>
       <c r="D26" t="n">
-        <v>0.584546</v>
+        <v>1.08977</v>
       </c>
       <c r="E26" t="n">
-        <v>0.851389</v>
+        <v>0.578379</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.854065</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.590058</v>
+        <v>0.598647</v>
       </c>
       <c r="C27" t="n">
-        <v>1.08171</v>
+        <v>0.867853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5577490000000001</v>
+        <v>1.07673</v>
       </c>
       <c r="E27" t="n">
-        <v>0.845791</v>
+        <v>0.591486</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.853374</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.580778</v>
+        <v>0.576457</v>
       </c>
       <c r="C28" t="n">
-        <v>1.06761</v>
+        <v>0.893967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.549408</v>
+        <v>1.09556</v>
       </c>
       <c r="E28" t="n">
-        <v>0.822314</v>
+        <v>0.552101</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.825072</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.559392</v>
+        <v>0.553607</v>
       </c>
       <c r="C29" t="n">
-        <v>1.09532</v>
+        <v>0.870644</v>
       </c>
       <c r="D29" t="n">
-        <v>0.526164</v>
+        <v>1.10747</v>
       </c>
       <c r="E29" t="n">
-        <v>0.82644</v>
+        <v>0.526462</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.822748</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5507030000000001</v>
+        <v>0.546292</v>
       </c>
       <c r="C30" t="n">
-        <v>1.07683</v>
+        <v>0.859572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.507204</v>
+        <v>1.04685</v>
       </c>
       <c r="E30" t="n">
-        <v>0.816921</v>
+        <v>0.505282</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.822829</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.538252</v>
+        <v>0.537128</v>
       </c>
       <c r="C31" t="n">
-        <v>1.08723</v>
+        <v>0.836514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.494746</v>
+        <v>1.03444</v>
       </c>
       <c r="E31" t="n">
-        <v>0.803123</v>
+        <v>0.49465</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.824583</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.525147</v>
+        <v>0.518307</v>
       </c>
       <c r="C32" t="n">
-        <v>1.03457</v>
+        <v>0.842137</v>
       </c>
       <c r="D32" t="n">
-        <v>0.502551</v>
+        <v>1.03883</v>
       </c>
       <c r="E32" t="n">
-        <v>0.80258</v>
+        <v>0.480459</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.80099</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.499889</v>
+        <v>0.521024</v>
       </c>
       <c r="C33" t="n">
-        <v>1.03724</v>
+        <v>0.819208</v>
       </c>
       <c r="D33" t="n">
-        <v>0.469973</v>
+        <v>1.02307</v>
       </c>
       <c r="E33" t="n">
-        <v>0.813434</v>
+        <v>0.466957</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.818236</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.482767</v>
+        <v>0.487848</v>
       </c>
       <c r="C34" t="n">
-        <v>1.03041</v>
+        <v>0.81269</v>
       </c>
       <c r="D34" t="n">
-        <v>0.461607</v>
+        <v>1.01802</v>
       </c>
       <c r="E34" t="n">
-        <v>0.786207</v>
+        <v>0.469682</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7861900000000001</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.478109</v>
+        <v>0.474867</v>
       </c>
       <c r="C35" t="n">
-        <v>1.2909</v>
+        <v>0.804323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.44259</v>
+        <v>1.26913</v>
       </c>
       <c r="E35" t="n">
-        <v>0.776209</v>
+        <v>0.442805</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.781945</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.463857</v>
+        <v>0.467569</v>
       </c>
       <c r="C36" t="n">
-        <v>1.26298</v>
+        <v>0.801841</v>
       </c>
       <c r="D36" t="n">
-        <v>0.435797</v>
+        <v>1.2586</v>
       </c>
       <c r="E36" t="n">
-        <v>0.785618</v>
+        <v>0.461863</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.780243</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.464582</v>
+        <v>0.46167</v>
       </c>
       <c r="C37" t="n">
-        <v>1.29257</v>
+        <v>0.812557</v>
       </c>
       <c r="D37" t="n">
-        <v>0.714358</v>
+        <v>1.23915</v>
       </c>
       <c r="E37" t="n">
-        <v>1.00751</v>
+        <v>0.687978</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.968297</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.745241</v>
+        <v>0.715166</v>
       </c>
       <c r="C38" t="n">
-        <v>1.26962</v>
+        <v>1.00982</v>
       </c>
       <c r="D38" t="n">
-        <v>0.682304</v>
+        <v>1.21709</v>
       </c>
       <c r="E38" t="n">
-        <v>0.946078</v>
+        <v>0.676159</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.965677</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.716719</v>
+        <v>0.68541</v>
       </c>
       <c r="C39" t="n">
-        <v>1.23516</v>
+        <v>0.97695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.674215</v>
+        <v>1.2086</v>
       </c>
       <c r="E39" t="n">
-        <v>0.938088</v>
+        <v>0.65423</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.934176</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.669275</v>
+        <v>0.664062</v>
       </c>
       <c r="C40" t="n">
-        <v>1.22441</v>
+        <v>0.959662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.662425</v>
+        <v>1.19005</v>
       </c>
       <c r="E40" t="n">
-        <v>0.954152</v>
+        <v>0.624816</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.937986</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.654088</v>
+        <v>0.662833</v>
       </c>
       <c r="C41" t="n">
-        <v>1.20504</v>
+        <v>0.966225</v>
       </c>
       <c r="D41" t="n">
-        <v>0.610585</v>
+        <v>1.16557</v>
       </c>
       <c r="E41" t="n">
-        <v>0.909895</v>
+        <v>0.627675</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.930252</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.634582</v>
+        <v>0.632111</v>
       </c>
       <c r="C42" t="n">
-        <v>1.22868</v>
+        <v>0.95123</v>
       </c>
       <c r="D42" t="n">
-        <v>0.590499</v>
+        <v>1.17247</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9037269999999999</v>
+        <v>0.595702</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.91957</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.619189</v>
+        <v>0.606888</v>
       </c>
       <c r="C43" t="n">
-        <v>1.19421</v>
+        <v>0.942705</v>
       </c>
       <c r="D43" t="n">
-        <v>0.57475</v>
+        <v>1.15687</v>
       </c>
       <c r="E43" t="n">
-        <v>0.924324</v>
+        <v>0.570883</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.897042</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.601627</v>
+        <v>0.597908</v>
       </c>
       <c r="C44" t="n">
-        <v>1.20751</v>
+        <v>0.929348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.570504</v>
+        <v>1.16294</v>
       </c>
       <c r="E44" t="n">
-        <v>0.88207</v>
+        <v>0.551439</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.887306</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.585673</v>
+        <v>0.574976</v>
       </c>
       <c r="C45" t="n">
-        <v>1.17652</v>
+        <v>0.9188460000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.541736</v>
+        <v>1.13601</v>
       </c>
       <c r="E45" t="n">
-        <v>0.871018</v>
+        <v>0.544659</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.877235</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.560422</v>
+        <v>0.571375</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15641</v>
+        <v>0.904119</v>
       </c>
       <c r="D46" t="n">
-        <v>0.522724</v>
+        <v>1.13444</v>
       </c>
       <c r="E46" t="n">
-        <v>0.880806</v>
+        <v>0.522966</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.874133</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.541627</v>
+        <v>0.554719</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19921</v>
+        <v>0.885239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5110749999999999</v>
+        <v>1.11411</v>
       </c>
       <c r="E47" t="n">
-        <v>0.881665</v>
+        <v>0.5087970000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.859378</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.532618</v>
+        <v>0.5466800000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>1.14443</v>
+        <v>0.915257</v>
       </c>
       <c r="D48" t="n">
-        <v>0.490523</v>
+        <v>1.10856</v>
       </c>
       <c r="E48" t="n">
-        <v>0.867695</v>
+        <v>0.493783</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.902043</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.521963</v>
+        <v>0.519526</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15981</v>
+        <v>0.885594</v>
       </c>
       <c r="D49" t="n">
-        <v>0.479028</v>
+        <v>1.13465</v>
       </c>
       <c r="E49" t="n">
-        <v>0.84452</v>
+        <v>0.476991</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.853746</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.517173</v>
+        <v>0.507296</v>
       </c>
       <c r="C50" t="n">
-        <v>1.62391</v>
+        <v>0.890772</v>
       </c>
       <c r="D50" t="n">
-        <v>0.471159</v>
+        <v>1.5996</v>
       </c>
       <c r="E50" t="n">
-        <v>0.85823</v>
+        <v>0.476906</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.852582</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.502081</v>
+        <v>0.501304</v>
       </c>
       <c r="C51" t="n">
-        <v>1.59613</v>
+        <v>0.870735</v>
       </c>
       <c r="D51" t="n">
-        <v>0.73793</v>
+        <v>1.54399</v>
       </c>
       <c r="E51" t="n">
-        <v>1.10553</v>
+        <v>0.745792</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.14413</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.493475</v>
+        <v>0.491379</v>
       </c>
       <c r="C52" t="n">
-        <v>1.56319</v>
+        <v>0.871605</v>
       </c>
       <c r="D52" t="n">
-        <v>0.736894</v>
+        <v>1.50163</v>
       </c>
       <c r="E52" t="n">
-        <v>1.09476</v>
+        <v>0.719495</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.11503</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.738422</v>
+        <v>0.787569</v>
       </c>
       <c r="C53" t="n">
-        <v>1.53635</v>
+        <v>1.18304</v>
       </c>
       <c r="D53" t="n">
-        <v>0.702744</v>
+        <v>1.47843</v>
       </c>
       <c r="E53" t="n">
-        <v>1.07577</v>
+        <v>0.694831</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.09317</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.726411</v>
+        <v>0.726221</v>
       </c>
       <c r="C54" t="n">
-        <v>1.52583</v>
+        <v>1.14807</v>
       </c>
       <c r="D54" t="n">
-        <v>0.673003</v>
+        <v>1.47507</v>
       </c>
       <c r="E54" t="n">
-        <v>1.07179</v>
+        <v>0.6808380000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.07207</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.708317</v>
+        <v>0.708754</v>
       </c>
       <c r="C55" t="n">
-        <v>1.49455</v>
+        <v>1.12171</v>
       </c>
       <c r="D55" t="n">
-        <v>0.671135</v>
+        <v>1.45088</v>
       </c>
       <c r="E55" t="n">
-        <v>1.05396</v>
+        <v>0.65584</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0603</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7094549999999999</v>
+        <v>0.724201</v>
       </c>
       <c r="C56" t="n">
-        <v>1.50721</v>
+        <v>1.15459</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6704290000000001</v>
+        <v>1.43795</v>
       </c>
       <c r="E56" t="n">
-        <v>1.03127</v>
+        <v>0.648472</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.04627</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.67586</v>
+        <v>0.672749</v>
       </c>
       <c r="C57" t="n">
-        <v>1.49222</v>
+        <v>1.12075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6326929999999999</v>
+        <v>1.43625</v>
       </c>
       <c r="E57" t="n">
-        <v>1.02454</v>
+        <v>0.623399</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.06782</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.658982</v>
+        <v>0.673735</v>
       </c>
       <c r="C58" t="n">
-        <v>1.49032</v>
+        <v>1.07318</v>
       </c>
       <c r="D58" t="n">
-        <v>0.612453</v>
+        <v>1.45163</v>
       </c>
       <c r="E58" t="n">
-        <v>1.00898</v>
+        <v>0.638015</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.00167</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.641479</v>
+        <v>0.6482290000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>1.44262</v>
+        <v>1.08235</v>
       </c>
       <c r="D59" t="n">
-        <v>0.617416</v>
+        <v>1.42798</v>
       </c>
       <c r="E59" t="n">
-        <v>1.03115</v>
+        <v>0.603467</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.04159</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6379</v>
+        <v>0.628108</v>
       </c>
       <c r="C60" t="n">
-        <v>1.46479</v>
+        <v>1.06892</v>
       </c>
       <c r="D60" t="n">
-        <v>0.615798</v>
+        <v>1.38355</v>
       </c>
       <c r="E60" t="n">
-        <v>0.979505</v>
+        <v>0.582803</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.98981</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.638637</v>
+        <v>0.65027</v>
       </c>
       <c r="C61" t="n">
-        <v>1.52377</v>
+        <v>1.04769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.576355</v>
+        <v>1.40507</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9834349999999999</v>
+        <v>0.5659920000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9675240000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608173</v>
+        <v>0.600827</v>
       </c>
       <c r="C62" t="n">
-        <v>1.43961</v>
+        <v>1.02082</v>
       </c>
       <c r="D62" t="n">
-        <v>0.584181</v>
+        <v>1.36532</v>
       </c>
       <c r="E62" t="n">
-        <v>0.969949</v>
+        <v>0.566372</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.981145</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.587359</v>
+        <v>0.594679</v>
       </c>
       <c r="C63" t="n">
-        <v>1.54069</v>
+        <v>1.03875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.549762</v>
+        <v>1.41995</v>
       </c>
       <c r="E63" t="n">
-        <v>0.938569</v>
+        <v>0.558774</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.969228</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5733279999999999</v>
+        <v>0.587391</v>
       </c>
       <c r="C64" t="n">
-        <v>2.30925</v>
+        <v>1.00999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.537341</v>
+        <v>2.24374</v>
       </c>
       <c r="E64" t="n">
-        <v>0.974807</v>
+        <v>0.547894</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9614239999999999</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.579409</v>
+        <v>0.5846</v>
       </c>
       <c r="C65" t="n">
-        <v>2.20938</v>
+        <v>1.03298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.557265</v>
+        <v>2.23598</v>
       </c>
       <c r="E65" t="n">
-        <v>0.954619</v>
+        <v>0.53009</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.953372</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.568149</v>
+        <v>0.576025</v>
       </c>
       <c r="C66" t="n">
-        <v>2.18587</v>
+        <v>1.01045</v>
       </c>
       <c r="D66" t="n">
-        <v>0.801956</v>
+        <v>2.17204</v>
       </c>
       <c r="E66" t="n">
-        <v>1.4312</v>
+        <v>0.814329</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.4911</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.84526</v>
+        <v>0.839767</v>
       </c>
       <c r="C67" t="n">
-        <v>2.15193</v>
+        <v>1.62236</v>
       </c>
       <c r="D67" t="n">
-        <v>0.790733</v>
+        <v>2.14309</v>
       </c>
       <c r="E67" t="n">
-        <v>1.42146</v>
+        <v>0.786042</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.42864</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.875503</v>
+        <v>0.825237</v>
       </c>
       <c r="C68" t="n">
-        <v>2.14422</v>
+        <v>1.54974</v>
       </c>
       <c r="D68" t="n">
-        <v>0.767509</v>
+        <v>2.13595</v>
       </c>
       <c r="E68" t="n">
-        <v>1.39311</v>
+        <v>0.775397</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.38454</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8052049999999999</v>
+        <v>0.7989039999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08034</v>
+        <v>1.51779</v>
       </c>
       <c r="D69" t="n">
-        <v>0.743513</v>
+        <v>2.06344</v>
       </c>
       <c r="E69" t="n">
-        <v>1.36015</v>
+        <v>0.739989</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.36949</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.780439</v>
+        <v>0.804809</v>
       </c>
       <c r="C70" t="n">
-        <v>2.16021</v>
+        <v>1.53382</v>
       </c>
       <c r="D70" t="n">
-        <v>0.73573</v>
+        <v>1.96755</v>
       </c>
       <c r="E70" t="n">
-        <v>1.32198</v>
+        <v>0.732588</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.34325</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.770109</v>
+        <v>0.7658160000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>2.07111</v>
+        <v>1.44574</v>
       </c>
       <c r="D71" t="n">
-        <v>0.749992</v>
+        <v>1.99876</v>
       </c>
       <c r="E71" t="n">
-        <v>1.33103</v>
+        <v>0.711709</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.3271</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.745144</v>
+        <v>0.7527470000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>2.04669</v>
+        <v>1.44989</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697041</v>
+        <v>1.99386</v>
       </c>
       <c r="E72" t="n">
-        <v>1.32772</v>
+        <v>0.708047</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.30032</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739618</v>
+        <v>0.75449</v>
       </c>
       <c r="C73" t="n">
-        <v>2.10445</v>
+        <v>1.4429</v>
       </c>
       <c r="D73" t="n">
-        <v>0.67275</v>
+        <v>1.97107</v>
       </c>
       <c r="E73" t="n">
-        <v>1.34593</v>
+        <v>0.677934</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.26428</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.724538</v>
+        <v>0.713792</v>
       </c>
       <c r="C74" t="n">
-        <v>2.00313</v>
+        <v>1.38283</v>
       </c>
       <c r="D74" t="n">
-        <v>0.666357</v>
+        <v>1.93322</v>
       </c>
       <c r="E74" t="n">
-        <v>1.24619</v>
+        <v>0.655202</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.25679</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.702178</v>
+        <v>0.700277</v>
       </c>
       <c r="C75" t="n">
-        <v>1.9584</v>
+        <v>1.37113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.642462</v>
+        <v>1.926</v>
       </c>
       <c r="E75" t="n">
-        <v>1.22623</v>
+        <v>0.6877450000000001</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.25646</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.715785</v>
+        <v>0.693184</v>
       </c>
       <c r="C76" t="n">
-        <v>2.00543</v>
+        <v>1.32632</v>
       </c>
       <c r="D76" t="n">
-        <v>0.635343</v>
+        <v>1.90567</v>
       </c>
       <c r="E76" t="n">
-        <v>1.20726</v>
+        <v>0.636601</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.22243</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.67689</v>
+        <v>0.67657</v>
       </c>
       <c r="C77" t="n">
-        <v>1.96354</v>
+        <v>1.32903</v>
       </c>
       <c r="D77" t="n">
-        <v>0.618135</v>
+        <v>1.92352</v>
       </c>
       <c r="E77" t="n">
-        <v>1.18651</v>
+        <v>0.618537</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.22986</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.708896</v>
+        <v>0.66403</v>
       </c>
       <c r="C78" t="n">
-        <v>3.27354</v>
+        <v>1.29853</v>
       </c>
       <c r="D78" t="n">
-        <v>0.618038</v>
+        <v>3.21364</v>
       </c>
       <c r="E78" t="n">
-        <v>1.21805</v>
+        <v>0.6235270000000001</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.18205</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.67244</v>
+        <v>0.662803</v>
       </c>
       <c r="C79" t="n">
-        <v>3.21676</v>
+        <v>1.28509</v>
       </c>
       <c r="D79" t="n">
-        <v>0.599019</v>
+        <v>3.10471</v>
       </c>
       <c r="E79" t="n">
-        <v>1.15229</v>
+        <v>0.605209</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.18733</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.679051</v>
+        <v>0.65207</v>
       </c>
       <c r="C80" t="n">
-        <v>3.0642</v>
+        <v>1.25268</v>
       </c>
       <c r="D80" t="n">
-        <v>0.90091</v>
+        <v>3.09446</v>
       </c>
       <c r="E80" t="n">
-        <v>2.01227</v>
+        <v>0.9088310000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.99067</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.938306</v>
+        <v>0.952666</v>
       </c>
       <c r="C81" t="n">
-        <v>3.03238</v>
+        <v>2.16419</v>
       </c>
       <c r="D81" t="n">
-        <v>0.884282</v>
+        <v>3.00484</v>
       </c>
       <c r="E81" t="n">
-        <v>1.92018</v>
+        <v>0.89041</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.93819</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.967101</v>
+        <v>0.943311</v>
       </c>
       <c r="C82" t="n">
-        <v>2.91472</v>
+        <v>2.10752</v>
       </c>
       <c r="D82" t="n">
-        <v>0.872657</v>
+        <v>2.98255</v>
       </c>
       <c r="E82" t="n">
-        <v>1.95993</v>
+        <v>0.8746390000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.89934</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.942677</v>
+        <v>0.939623</v>
       </c>
       <c r="C83" t="n">
-        <v>2.92662</v>
+        <v>2.18957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.847089</v>
+        <v>2.8894</v>
       </c>
       <c r="E83" t="n">
-        <v>1.88532</v>
+        <v>0.88959</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.87883</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.909223</v>
+        <v>0.9373590000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>2.84143</v>
+        <v>1.9802</v>
       </c>
       <c r="D84" t="n">
-        <v>0.836493</v>
+        <v>2.86036</v>
       </c>
       <c r="E84" t="n">
-        <v>1.84992</v>
+        <v>0.862347</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.83248</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.880232</v>
+        <v>0.907408</v>
       </c>
       <c r="C85" t="n">
-        <v>2.82029</v>
+        <v>2.00706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.842498</v>
+        <v>2.8634</v>
       </c>
       <c r="E85" t="n">
-        <v>1.79021</v>
+        <v>0.820252</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.78894</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851746</v>
+        <v>0.867361</v>
       </c>
       <c r="C86" t="n">
-        <v>2.76542</v>
+        <v>1.92155</v>
       </c>
       <c r="D86" t="n">
-        <v>0.795442</v>
+        <v>2.73739</v>
       </c>
       <c r="E86" t="n">
-        <v>1.75438</v>
+        <v>0.820595</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.73894</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.854452</v>
+        <v>0.845132</v>
       </c>
       <c r="C87" t="n">
-        <v>2.73892</v>
+        <v>1.91335</v>
       </c>
       <c r="D87" t="n">
-        <v>0.805045</v>
+        <v>2.69506</v>
       </c>
       <c r="E87" t="n">
-        <v>1.70519</v>
+        <v>0.781017</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.70232</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.850224</v>
+        <v>0.8380649999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>2.72864</v>
+        <v>1.8599</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765706</v>
+        <v>2.60388</v>
       </c>
       <c r="E88" t="n">
-        <v>1.80004</v>
+        <v>0.760042</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.69917</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.827879</v>
+        <v>0.815292</v>
       </c>
       <c r="C89" t="n">
-        <v>2.76444</v>
+        <v>1.78979</v>
       </c>
       <c r="D89" t="n">
-        <v>0.778325</v>
+        <v>2.64758</v>
       </c>
       <c r="E89" t="n">
-        <v>1.65781</v>
+        <v>0.799162</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.64433</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802348</v>
+        <v>0.820306</v>
       </c>
       <c r="C90" t="n">
-        <v>2.68707</v>
+        <v>1.80514</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7325</v>
+        <v>2.64978</v>
       </c>
       <c r="E90" t="n">
-        <v>1.62388</v>
+        <v>0.726978</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.60528</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7901629999999999</v>
+        <v>0.786648</v>
       </c>
       <c r="C91" t="n">
-        <v>2.72168</v>
+        <v>1.8593</v>
       </c>
       <c r="D91" t="n">
-        <v>0.720907</v>
+        <v>2.66222</v>
       </c>
       <c r="E91" t="n">
-        <v>1.6272</v>
+        <v>0.7240529999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.58025</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.778343</v>
+        <v>0.778834</v>
       </c>
       <c r="C92" t="n">
-        <v>3.80125</v>
+        <v>1.74801</v>
       </c>
       <c r="D92" t="n">
-        <v>0.724773</v>
+        <v>3.81901</v>
       </c>
       <c r="E92" t="n">
-        <v>1.56872</v>
+        <v>0.712099</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.60947</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.78965</v>
+        <v>0.765282</v>
       </c>
       <c r="C93" t="n">
-        <v>3.62583</v>
+        <v>1.75159</v>
       </c>
       <c r="D93" t="n">
-        <v>0.715186</v>
+        <v>3.69542</v>
       </c>
       <c r="E93" t="n">
-        <v>1.52982</v>
+        <v>0.7035670000000001</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.55489</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.75913</v>
+        <v>0.7630710000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3.74144</v>
+        <v>1.68586</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01113</v>
+        <v>3.66766</v>
       </c>
       <c r="E94" t="n">
-        <v>2.52934</v>
+        <v>1.02351</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.54961</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08276</v>
+        <v>1.06905</v>
       </c>
       <c r="C95" t="n">
-        <v>3.57471</v>
+        <v>2.7107</v>
       </c>
       <c r="D95" t="n">
-        <v>0.985491</v>
+        <v>3.49112</v>
       </c>
       <c r="E95" t="n">
-        <v>2.46578</v>
+        <v>0.987448</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.50407</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09212</v>
+        <v>1.05507</v>
       </c>
       <c r="C96" t="n">
-        <v>3.46318</v>
+        <v>2.69742</v>
       </c>
       <c r="D96" t="n">
-        <v>0.981808</v>
+        <v>3.61886</v>
       </c>
       <c r="E96" t="n">
-        <v>2.49227</v>
+        <v>0.966365</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.47421</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0191</v>
+        <v>1.02955</v>
       </c>
       <c r="C97" t="n">
-        <v>3.4574</v>
+        <v>2.62817</v>
       </c>
       <c r="D97" t="n">
-        <v>0.94741</v>
+        <v>3.46986</v>
       </c>
       <c r="E97" t="n">
-        <v>2.42618</v>
+        <v>0.971714</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.38715</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01622</v>
+        <v>1.01522</v>
       </c>
       <c r="C98" t="n">
-        <v>3.3653</v>
+        <v>2.53008</v>
       </c>
       <c r="D98" t="n">
-        <v>0.917309</v>
+        <v>3.325</v>
       </c>
       <c r="E98" t="n">
-        <v>2.36601</v>
+        <v>0.933428</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.2818</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00638</v>
+        <v>0.999937</v>
       </c>
       <c r="C99" t="n">
-        <v>3.31837</v>
+        <v>2.4528</v>
       </c>
       <c r="D99" t="n">
-        <v>0.944363</v>
+        <v>3.28763</v>
       </c>
       <c r="E99" t="n">
-        <v>2.366</v>
+        <v>0.921159</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.27515</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00123</v>
+        <v>1.01153</v>
       </c>
       <c r="C100" t="n">
-        <v>3.29701</v>
+        <v>2.43455</v>
       </c>
       <c r="D100" t="n">
-        <v>0.928534</v>
+        <v>3.27668</v>
       </c>
       <c r="E100" t="n">
-        <v>2.21666</v>
+        <v>0.912921</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.20189</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971647</v>
+        <v>0.976612</v>
       </c>
       <c r="C101" t="n">
-        <v>3.25688</v>
+        <v>2.39971</v>
       </c>
       <c r="D101" t="n">
-        <v>0.88856</v>
+        <v>3.33115</v>
       </c>
       <c r="E101" t="n">
-        <v>2.1361</v>
+        <v>0.876152</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.1789</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9471309999999999</v>
+        <v>0.949947</v>
       </c>
       <c r="C102" t="n">
-        <v>3.29636</v>
+        <v>2.41711</v>
       </c>
       <c r="D102" t="n">
-        <v>0.865326</v>
+        <v>3.2145</v>
       </c>
       <c r="E102" t="n">
-        <v>2.12047</v>
+        <v>0.8745230000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.13448</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.939169</v>
+        <v>0.9486560000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>3.24438</v>
+        <v>2.29037</v>
       </c>
       <c r="D103" t="n">
-        <v>0.872206</v>
+        <v>3.18751</v>
       </c>
       <c r="E103" t="n">
-        <v>2.1064</v>
+        <v>0.851097</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.07829</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.941084</v>
+        <v>0.92993</v>
       </c>
       <c r="C104" t="n">
-        <v>3.26972</v>
+        <v>2.27336</v>
       </c>
       <c r="D104" t="n">
-        <v>0.82412</v>
+        <v>3.0901</v>
       </c>
       <c r="E104" t="n">
-        <v>2.10217</v>
+        <v>0.830105</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.99185</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.906908</v>
+        <v>0.920907</v>
       </c>
       <c r="C105" t="n">
-        <v>3.16763</v>
+        <v>2.21412</v>
       </c>
       <c r="D105" t="n">
-        <v>0.823045</v>
+        <v>3.15484</v>
       </c>
       <c r="E105" t="n">
-        <v>1.99231</v>
+        <v>0.8220420000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.04008</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.907327</v>
+        <v>0.896479</v>
       </c>
       <c r="C106" t="n">
-        <v>3.16367</v>
+        <v>2.17402</v>
       </c>
       <c r="D106" t="n">
-        <v>0.820709</v>
+        <v>3.09251</v>
       </c>
       <c r="E106" t="n">
-        <v>1.97871</v>
+        <v>0.807839</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.96162</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.902462</v>
+        <v>0.890379</v>
       </c>
       <c r="C107" t="n">
-        <v>4.26768</v>
+        <v>2.13818</v>
       </c>
       <c r="D107" t="n">
-        <v>0.809743</v>
+        <v>4.25192</v>
       </c>
       <c r="E107" t="n">
-        <v>1.94408</v>
+        <v>0.811649</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.95314</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.878561</v>
+        <v>0.893105</v>
       </c>
       <c r="C108" t="n">
-        <v>4.24922</v>
+        <v>2.08922</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17405</v>
+        <v>4.22862</v>
       </c>
       <c r="E108" t="n">
-        <v>3.03615</v>
+        <v>1.113</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.03113</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.878681</v>
+        <v>0.891478</v>
       </c>
       <c r="C109" t="n">
-        <v>4.20327</v>
+        <v>2.07368</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12344</v>
+        <v>4.04892</v>
       </c>
       <c r="E109" t="n">
-        <v>2.97721</v>
+        <v>1.11344</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.9941</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.20755</v>
+        <v>1.21052</v>
       </c>
       <c r="C110" t="n">
-        <v>4.09381</v>
+        <v>3.17339</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0696</v>
+        <v>3.96782</v>
       </c>
       <c r="E110" t="n">
-        <v>2.87794</v>
+        <v>1.10654</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.87509</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16072</v>
+        <v>1.18743</v>
       </c>
       <c r="C111" t="n">
-        <v>3.98928</v>
+        <v>3.1238</v>
       </c>
       <c r="D111" t="n">
-        <v>1.08191</v>
+        <v>3.93186</v>
       </c>
       <c r="E111" t="n">
-        <v>2.80833</v>
+        <v>1.09742</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.80733</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15096</v>
+        <v>1.15326</v>
       </c>
       <c r="C112" t="n">
-        <v>3.96874</v>
+        <v>3.0658</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0616</v>
+        <v>3.9217</v>
       </c>
       <c r="E112" t="n">
-        <v>2.77139</v>
+        <v>1.07062</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.74678</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17672</v>
+        <v>1.15028</v>
       </c>
       <c r="C113" t="n">
-        <v>3.90033</v>
+        <v>2.95643</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05074</v>
+        <v>3.91838</v>
       </c>
       <c r="E113" t="n">
-        <v>2.71738</v>
+        <v>1.03322</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.682</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14867</v>
+        <v>1.13718</v>
       </c>
       <c r="C114" t="n">
-        <v>3.93215</v>
+        <v>2.91419</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05287</v>
+        <v>3.78394</v>
       </c>
       <c r="E114" t="n">
-        <v>2.62408</v>
+        <v>1.04042</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.66194</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13521</v>
+        <v>1.142</v>
       </c>
       <c r="C115" t="n">
-        <v>3.82264</v>
+        <v>2.86654</v>
       </c>
       <c r="D115" t="n">
-        <v>1.04604</v>
+        <v>3.77421</v>
       </c>
       <c r="E115" t="n">
-        <v>2.5895</v>
+        <v>1.02977</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.56743</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12393</v>
+        <v>1.13162</v>
       </c>
       <c r="C116" t="n">
-        <v>3.77439</v>
+        <v>2.80362</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01132</v>
+        <v>3.73821</v>
       </c>
       <c r="E116" t="n">
-        <v>2.53468</v>
+        <v>1.01877</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.54143</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16471</v>
+        <v>1.10392</v>
       </c>
       <c r="C117" t="n">
-        <v>3.77969</v>
+        <v>2.75735</v>
       </c>
       <c r="D117" t="n">
-        <v>1.00314</v>
+        <v>3.6865</v>
       </c>
       <c r="E117" t="n">
-        <v>2.5258</v>
+        <v>1.01325</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.48317</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12109</v>
+        <v>1.11576</v>
       </c>
       <c r="C118" t="n">
-        <v>3.78357</v>
+        <v>2.71546</v>
       </c>
       <c r="D118" t="n">
-        <v>0.99181</v>
+        <v>3.65301</v>
       </c>
       <c r="E118" t="n">
-        <v>2.50897</v>
+        <v>0.98994</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.43943</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1053</v>
+        <v>1.09336</v>
       </c>
       <c r="C119" t="n">
-        <v>3.73823</v>
+        <v>2.71854</v>
       </c>
       <c r="D119" t="n">
-        <v>0.991035</v>
+        <v>3.6277</v>
       </c>
       <c r="E119" t="n">
-        <v>2.44768</v>
+        <v>0.986473</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.39648</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11621</v>
+        <v>1.08391</v>
       </c>
       <c r="C120" t="n">
-        <v>3.71115</v>
+        <v>2.60332</v>
       </c>
       <c r="D120" t="n">
-        <v>0.983034</v>
+        <v>3.66305</v>
       </c>
       <c r="E120" t="n">
-        <v>2.36622</v>
+        <v>0.999189</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.38601</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08936</v>
+        <v>1.09294</v>
       </c>
       <c r="C121" t="n">
-        <v>5.05371</v>
+        <v>2.59829</v>
       </c>
       <c r="D121" t="n">
-        <v>0.997788</v>
+        <v>4.95799</v>
       </c>
       <c r="E121" t="n">
-        <v>2.37686</v>
+        <v>0.978067</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.33204</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08815</v>
+        <v>1.07024</v>
       </c>
       <c r="C122" t="n">
-        <v>4.98475</v>
+        <v>2.62505</v>
       </c>
       <c r="D122" t="n">
-        <v>0.992438</v>
+        <v>4.89335</v>
       </c>
       <c r="E122" t="n">
-        <v>2.38458</v>
+        <v>0.993666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.30598</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11065</v>
+        <v>1.05045</v>
       </c>
       <c r="C123" t="n">
-        <v>4.87574</v>
+        <v>2.59972</v>
       </c>
       <c r="D123" t="n">
-        <v>1.27526</v>
+        <v>4.78797</v>
       </c>
       <c r="E123" t="n">
-        <v>3.48141</v>
+        <v>1.31104</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.49121</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3797</v>
+        <v>1.39856</v>
       </c>
       <c r="C124" t="n">
-        <v>4.76882</v>
+        <v>3.82053</v>
       </c>
       <c r="D124" t="n">
-        <v>1.27089</v>
+        <v>4.69376</v>
       </c>
       <c r="E124" t="n">
-        <v>3.40119</v>
+        <v>1.318</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.42209</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41239</v>
+        <v>1.38856</v>
       </c>
       <c r="C125" t="n">
-        <v>4.67674</v>
+        <v>3.76179</v>
       </c>
       <c r="D125" t="n">
-        <v>1.29539</v>
+        <v>4.66205</v>
       </c>
       <c r="E125" t="n">
-        <v>3.29871</v>
+        <v>1.29191</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.33298</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.40403</v>
+        <v>1.3722</v>
       </c>
       <c r="C126" t="n">
-        <v>4.62867</v>
+        <v>3.65192</v>
       </c>
       <c r="D126" t="n">
-        <v>1.29089</v>
+        <v>4.57484</v>
       </c>
       <c r="E126" t="n">
-        <v>3.2601</v>
+        <v>1.30948</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.27083</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39233</v>
+        <v>1.3791</v>
       </c>
       <c r="C127" t="n">
-        <v>4.54985</v>
+        <v>3.56723</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2631</v>
+        <v>4.51751</v>
       </c>
       <c r="E127" t="n">
-        <v>3.21687</v>
+        <v>1.29226</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.19611</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40826</v>
+        <v>1.38156</v>
       </c>
       <c r="C128" t="n">
-        <v>4.51856</v>
+        <v>3.44242</v>
       </c>
       <c r="D128" t="n">
-        <v>1.26542</v>
+        <v>4.40186</v>
       </c>
       <c r="E128" t="n">
-        <v>3.14637</v>
+        <v>1.2561</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.12306</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.358</v>
+        <v>1.37116</v>
       </c>
       <c r="C129" t="n">
-        <v>4.43304</v>
+        <v>3.40639</v>
       </c>
       <c r="D129" t="n">
-        <v>1.26767</v>
+        <v>4.36206</v>
       </c>
       <c r="E129" t="n">
-        <v>3.06513</v>
+        <v>1.24271</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36808</v>
+        <v>1.35138</v>
       </c>
       <c r="C130" t="n">
-        <v>4.38943</v>
+        <v>3.35412</v>
       </c>
       <c r="D130" t="n">
-        <v>1.2705</v>
+        <v>4.34375</v>
       </c>
       <c r="E130" t="n">
-        <v>3.01194</v>
+        <v>1.24935</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.01097</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.36092</v>
+        <v>1.33999</v>
       </c>
       <c r="C131" t="n">
-        <v>4.33096</v>
+        <v>3.28589</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25593</v>
+        <v>4.24801</v>
       </c>
       <c r="E131" t="n">
-        <v>2.97668</v>
+        <v>1.26035</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.94931</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37487</v>
+        <v>1.35292</v>
       </c>
       <c r="C132" t="n">
-        <v>4.32195</v>
+        <v>3.23732</v>
       </c>
       <c r="D132" t="n">
-        <v>1.23495</v>
+        <v>4.23315</v>
       </c>
       <c r="E132" t="n">
-        <v>2.90318</v>
+        <v>1.24444</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.91511</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.36353</v>
+        <v>1.35352</v>
       </c>
       <c r="C133" t="n">
-        <v>4.28467</v>
+        <v>3.18599</v>
       </c>
       <c r="D133" t="n">
-        <v>1.22575</v>
+        <v>4.23181</v>
       </c>
       <c r="E133" t="n">
-        <v>2.85899</v>
+        <v>1.23444</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.83477</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.36652</v>
+        <v>1.3371</v>
       </c>
       <c r="C134" t="n">
-        <v>4.24862</v>
+        <v>3.16637</v>
       </c>
       <c r="D134" t="n">
-        <v>1.22952</v>
+        <v>4.2379</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8151</v>
+        <v>1.26289</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.84556</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35246</v>
+        <v>1.35324</v>
       </c>
       <c r="C135" t="n">
-        <v>5.83538</v>
+        <v>3.1156</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24375</v>
+        <v>5.75343</v>
       </c>
       <c r="E135" t="n">
-        <v>2.79579</v>
+        <v>1.23069</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.75253</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.3857</v>
+        <v>1.35365</v>
       </c>
       <c r="C136" t="n">
-        <v>5.73301</v>
+        <v>3.03587</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22112</v>
+        <v>5.60677</v>
       </c>
       <c r="E136" t="n">
-        <v>2.77615</v>
+        <v>1.23758</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.74909</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40365</v>
+        <v>1.36492</v>
       </c>
       <c r="C137" t="n">
-        <v>5.56373</v>
+        <v>3.03454</v>
       </c>
       <c r="D137" t="n">
-        <v>1.56785</v>
+        <v>5.5039</v>
       </c>
       <c r="E137" t="n">
-        <v>3.98981</v>
+        <v>1.59207</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.00565</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.6851</v>
+        <v>1.69116</v>
       </c>
       <c r="C138" t="n">
-        <v>5.45278</v>
+        <v>4.40088</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54805</v>
+        <v>5.4248</v>
       </c>
       <c r="E138" t="n">
-        <v>3.93624</v>
+        <v>1.55648</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.90788</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.70205</v>
+        <v>1.67094</v>
       </c>
       <c r="C139" t="n">
-        <v>5.43855</v>
+        <v>4.30723</v>
       </c>
       <c r="D139" t="n">
-        <v>1.55712</v>
+        <v>5.33911</v>
       </c>
       <c r="E139" t="n">
-        <v>3.88142</v>
+        <v>1.58535</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.85061</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.66857</v>
+        <v>1.6774</v>
       </c>
       <c r="C140" t="n">
-        <v>5.28586</v>
+        <v>4.1653</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5597</v>
+        <v>5.2289</v>
       </c>
       <c r="E140" t="n">
-        <v>3.76129</v>
+        <v>1.5443</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.75279</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66794</v>
+        <v>1.65177</v>
       </c>
       <c r="C141" t="n">
-        <v>5.24271</v>
+        <v>4.09558</v>
       </c>
       <c r="D141" t="n">
-        <v>1.56081</v>
+        <v>5.16364</v>
       </c>
       <c r="E141" t="n">
-        <v>3.70876</v>
+        <v>1.55619</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.6756</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6692</v>
+        <v>1.6553</v>
       </c>
       <c r="C142" t="n">
-        <v>5.1491</v>
+        <v>4.01675</v>
       </c>
       <c r="D142" t="n">
-        <v>1.55371</v>
+        <v>5.08363</v>
       </c>
       <c r="E142" t="n">
-        <v>3.61576</v>
+        <v>1.53457</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.61947</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.65628</v>
+        <v>1.66088</v>
       </c>
       <c r="C143" t="n">
-        <v>5.06046</v>
+        <v>3.92284</v>
       </c>
       <c r="D143" t="n">
-        <v>1.52739</v>
+        <v>5.03113</v>
       </c>
       <c r="E143" t="n">
-        <v>3.53368</v>
+        <v>1.53533</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.54968</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.57358</v>
+        <v>0.575522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.783541</v>
+        <v>0.8053630000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96422</v>
+        <v>0.969652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.331143</v>
+        <v>0.317156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813175</v>
+        <v>0.799504</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.347615</v>
+        <v>0.331523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.939977</v>
+        <v>0.792357</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01833</v>
+        <v>0.95972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.320918</v>
+        <v>0.5283870000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813372</v>
+        <v>0.762614</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.381248</v>
+        <v>0.325093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.823566</v>
+        <v>0.789855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.996175</v>
+        <v>0.980649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.322772</v>
+        <v>0.308835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.788532</v>
+        <v>0.754483</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352272</v>
+        <v>0.32818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.814866</v>
+        <v>0.786763</v>
       </c>
       <c r="D5" t="n">
-        <v>1.01038</v>
+        <v>0.941376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.341214</v>
+        <v>0.307744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.803578</v>
+        <v>0.789703</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.332081</v>
+        <v>0.335133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.834516</v>
+        <v>0.798776</v>
       </c>
       <c r="D6" t="n">
-        <v>1.001</v>
+        <v>0.985724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.317857</v>
+        <v>0.305344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.779231</v>
+        <v>0.749701</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.324997</v>
+        <v>0.322629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.790476</v>
+        <v>0.784904</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17796</v>
+        <v>1.16528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304098</v>
+        <v>0.304815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.800226</v>
+        <v>0.744746</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.322333</v>
+        <v>0.30831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.803786</v>
+        <v>0.770539</v>
       </c>
       <c r="D8" t="n">
-        <v>1.16481</v>
+        <v>1.12202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.305682</v>
+        <v>0.290588</v>
       </c>
       <c r="F8" t="n">
-        <v>0.780359</v>
+        <v>0.749251</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.322701</v>
+        <v>0.307094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.812293</v>
+        <v>0.772613</v>
       </c>
       <c r="D9" t="n">
-        <v>1.14057</v>
+        <v>1.09185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.567102</v>
+        <v>0.543091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.893536</v>
+        <v>0.855966</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.610695</v>
+        <v>0.556223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.909817</v>
+        <v>0.902688</v>
       </c>
       <c r="D10" t="n">
-        <v>1.15268</v>
+        <v>1.07887</v>
       </c>
       <c r="E10" t="n">
-        <v>0.552166</v>
+        <v>0.525743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.879783</v>
+        <v>0.847444</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.558538</v>
+        <v>0.553473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.899752</v>
+        <v>0.900881</v>
       </c>
       <c r="D11" t="n">
-        <v>1.10277</v>
+        <v>1.06591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.534404</v>
+        <v>0.510518</v>
       </c>
       <c r="F11" t="n">
-        <v>0.876672</v>
+        <v>0.837014</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.556166</v>
+        <v>0.525643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.902101</v>
+        <v>0.871667</v>
       </c>
       <c r="D12" t="n">
-        <v>1.06621</v>
+        <v>1.04819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.503219</v>
+        <v>0.493574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8915960000000001</v>
+        <v>0.838848</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518984</v>
+        <v>0.508463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.862858</v>
+        <v>0.854847</v>
       </c>
       <c r="D13" t="n">
-        <v>1.04368</v>
+        <v>1.0537</v>
       </c>
       <c r="E13" t="n">
-        <v>0.482849</v>
+        <v>0.490285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.832989</v>
+        <v>0.813659</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.487713</v>
+        <v>0.493829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8379760000000001</v>
+        <v>0.84234</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05895</v>
+        <v>1.02761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.460649</v>
+        <v>0.464033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.812897</v>
+        <v>0.80908</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.486967</v>
+        <v>0.479674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.846045</v>
+        <v>0.836435</v>
       </c>
       <c r="D15" t="n">
-        <v>1.05794</v>
+        <v>1.01782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.476363</v>
+        <v>0.447319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8271770000000001</v>
+        <v>0.79615</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.474048</v>
+        <v>0.467952</v>
       </c>
       <c r="C16" t="n">
-        <v>0.85728</v>
+        <v>0.822427</v>
       </c>
       <c r="D16" t="n">
-        <v>1.01429</v>
+        <v>1.03369</v>
       </c>
       <c r="E16" t="n">
-        <v>0.452585</v>
+        <v>0.435864</v>
       </c>
       <c r="F16" t="n">
-        <v>0.810196</v>
+        <v>0.794716</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.450839</v>
+        <v>0.46037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.813159</v>
+        <v>0.824414</v>
       </c>
       <c r="D17" t="n">
-        <v>1.02076</v>
+        <v>1.03949</v>
       </c>
       <c r="E17" t="n">
-        <v>0.467456</v>
+        <v>0.426453</v>
       </c>
       <c r="F17" t="n">
-        <v>0.793778</v>
+        <v>0.787167</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.438318</v>
+        <v>0.459607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828139</v>
+        <v>0.811786</v>
       </c>
       <c r="D18" t="n">
-        <v>1.02507</v>
+        <v>0.992486</v>
       </c>
       <c r="E18" t="n">
-        <v>0.422955</v>
+        <v>0.415591</v>
       </c>
       <c r="F18" t="n">
-        <v>0.817151</v>
+        <v>0.7799700000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.42838</v>
+        <v>0.434457</v>
       </c>
       <c r="C19" t="n">
-        <v>0.82342</v>
+        <v>0.807883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.995363</v>
+        <v>0.988259</v>
       </c>
       <c r="E19" t="n">
-        <v>0.403662</v>
+        <v>0.414061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.764701</v>
+        <v>0.789147</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.41961</v>
+        <v>0.42632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.792283</v>
+        <v>0.803764</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00586</v>
+        <v>1.00131</v>
       </c>
       <c r="E20" t="n">
-        <v>0.394233</v>
+        <v>0.403929</v>
       </c>
       <c r="F20" t="n">
-        <v>0.796364</v>
+        <v>0.774707</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415704</v>
+        <v>0.418046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.796587</v>
+        <v>0.799251</v>
       </c>
       <c r="D21" t="n">
-        <v>1.18532</v>
+        <v>1.19295</v>
       </c>
       <c r="E21" t="n">
-        <v>0.386742</v>
+        <v>0.387986</v>
       </c>
       <c r="F21" t="n">
-        <v>0.775475</v>
+        <v>0.767618</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404083</v>
+        <v>0.407915</v>
       </c>
       <c r="C22" t="n">
-        <v>0.783314</v>
+        <v>0.795204</v>
       </c>
       <c r="D22" t="n">
-        <v>1.17241</v>
+        <v>1.16209</v>
       </c>
       <c r="E22" t="n">
-        <v>0.385734</v>
+        <v>0.381444</v>
       </c>
       <c r="F22" t="n">
-        <v>0.766676</v>
+        <v>0.763447</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.396452</v>
+        <v>0.409988</v>
       </c>
       <c r="C23" t="n">
-        <v>0.791702</v>
+        <v>0.786917</v>
       </c>
       <c r="D23" t="n">
-        <v>1.18309</v>
+        <v>1.14185</v>
       </c>
       <c r="E23" t="n">
-        <v>0.65191</v>
+        <v>0.641595</v>
       </c>
       <c r="F23" t="n">
-        <v>0.889456</v>
+        <v>0.903034</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65578</v>
+        <v>0.65785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.898961</v>
+        <v>0.916601</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13711</v>
+        <v>1.13616</v>
       </c>
       <c r="E24" t="n">
-        <v>0.614641</v>
+        <v>0.622939</v>
       </c>
       <c r="F24" t="n">
-        <v>0.887363</v>
+        <v>0.872999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.632518</v>
+        <v>0.641939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.915403</v>
+        <v>0.9161280000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1.11884</v>
+        <v>1.12062</v>
       </c>
       <c r="E25" t="n">
-        <v>0.608687</v>
+        <v>0.603781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.875628</v>
+        <v>0.8642339999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.620214</v>
+        <v>0.621707</v>
       </c>
       <c r="C26" t="n">
-        <v>0.880782</v>
+        <v>0.894818</v>
       </c>
       <c r="D26" t="n">
-        <v>1.08977</v>
+        <v>1.09479</v>
       </c>
       <c r="E26" t="n">
-        <v>0.578379</v>
+        <v>0.585918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.854065</v>
+        <v>0.853728</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.598647</v>
+        <v>0.606362</v>
       </c>
       <c r="C27" t="n">
-        <v>0.867853</v>
+        <v>0.894883</v>
       </c>
       <c r="D27" t="n">
-        <v>1.07673</v>
+        <v>1.08143</v>
       </c>
       <c r="E27" t="n">
-        <v>0.591486</v>
+        <v>0.569053</v>
       </c>
       <c r="F27" t="n">
-        <v>0.853374</v>
+        <v>0.843792</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.576457</v>
+        <v>0.585933</v>
       </c>
       <c r="C28" t="n">
-        <v>0.893967</v>
+        <v>0.905092</v>
       </c>
       <c r="D28" t="n">
-        <v>1.09556</v>
+        <v>1.07484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.552101</v>
+        <v>0.550386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.825072</v>
+        <v>0.83812</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.553607</v>
+        <v>0.569434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.870644</v>
+        <v>0.8822680000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>1.10747</v>
+        <v>1.0797</v>
       </c>
       <c r="E29" t="n">
-        <v>0.526462</v>
+        <v>0.555153</v>
       </c>
       <c r="F29" t="n">
-        <v>0.822748</v>
+        <v>0.831658</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.546292</v>
+        <v>0.549855</v>
       </c>
       <c r="C30" t="n">
-        <v>0.859572</v>
+        <v>0.861896</v>
       </c>
       <c r="D30" t="n">
-        <v>1.04685</v>
+        <v>1.06346</v>
       </c>
       <c r="E30" t="n">
-        <v>0.505282</v>
+        <v>0.524822</v>
       </c>
       <c r="F30" t="n">
-        <v>0.822829</v>
+        <v>0.8310340000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.537128</v>
+        <v>0.533342</v>
       </c>
       <c r="C31" t="n">
-        <v>0.836514</v>
+        <v>0.846967</v>
       </c>
       <c r="D31" t="n">
-        <v>1.03444</v>
+        <v>1.0502</v>
       </c>
       <c r="E31" t="n">
-        <v>0.49465</v>
+        <v>0.4989</v>
       </c>
       <c r="F31" t="n">
-        <v>0.824583</v>
+        <v>0.816196</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.518307</v>
+        <v>0.517628</v>
       </c>
       <c r="C32" t="n">
-        <v>0.842137</v>
+        <v>0.839171</v>
       </c>
       <c r="D32" t="n">
-        <v>1.03883</v>
+        <v>1.04283</v>
       </c>
       <c r="E32" t="n">
-        <v>0.480459</v>
+        <v>0.482435</v>
       </c>
       <c r="F32" t="n">
-        <v>0.80099</v>
+        <v>0.8086</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.521024</v>
+        <v>0.502485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.819208</v>
+        <v>0.8315940000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02307</v>
+        <v>1.02947</v>
       </c>
       <c r="E33" t="n">
-        <v>0.466957</v>
+        <v>0.477698</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818236</v>
+        <v>0.818264</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487848</v>
+        <v>0.5064650000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.81269</v>
+        <v>0.822991</v>
       </c>
       <c r="D34" t="n">
-        <v>1.01802</v>
+        <v>1.0304</v>
       </c>
       <c r="E34" t="n">
-        <v>0.469682</v>
+        <v>0.474283</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7861900000000001</v>
+        <v>0.799172</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.474867</v>
+        <v>0.494042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.804323</v>
+        <v>0.845793</v>
       </c>
       <c r="D35" t="n">
-        <v>1.26913</v>
+        <v>1.33836</v>
       </c>
       <c r="E35" t="n">
-        <v>0.442805</v>
+        <v>0.447169</v>
       </c>
       <c r="F35" t="n">
-        <v>0.781945</v>
+        <v>0.786601</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.467569</v>
+        <v>0.462297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.801841</v>
+        <v>0.812798</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2586</v>
+        <v>1.31541</v>
       </c>
       <c r="E36" t="n">
-        <v>0.461863</v>
+        <v>0.435134</v>
       </c>
       <c r="F36" t="n">
-        <v>0.780243</v>
+        <v>0.784529</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.46167</v>
+        <v>0.453812</v>
       </c>
       <c r="C37" t="n">
-        <v>0.812557</v>
+        <v>0.810837</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23915</v>
+        <v>1.23223</v>
       </c>
       <c r="E37" t="n">
-        <v>0.687978</v>
+        <v>0.694879</v>
       </c>
       <c r="F37" t="n">
-        <v>0.968297</v>
+        <v>0.96505</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.715166</v>
+        <v>0.717845</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00982</v>
+        <v>1.01755</v>
       </c>
       <c r="D38" t="n">
-        <v>1.21709</v>
+        <v>1.25114</v>
       </c>
       <c r="E38" t="n">
-        <v>0.676159</v>
+        <v>0.672512</v>
       </c>
       <c r="F38" t="n">
-        <v>0.965677</v>
+        <v>0.958387</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.68541</v>
+        <v>0.698846</v>
       </c>
       <c r="C39" t="n">
-        <v>0.97695</v>
+        <v>0.98744</v>
       </c>
       <c r="D39" t="n">
-        <v>1.2086</v>
+        <v>1.18862</v>
       </c>
       <c r="E39" t="n">
-        <v>0.65423</v>
+        <v>0.6549199999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.934176</v>
+        <v>0.940918</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.664062</v>
+        <v>0.668726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.959662</v>
+        <v>0.973736</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19005</v>
+        <v>1.19747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.624816</v>
+        <v>0.628024</v>
       </c>
       <c r="F40" t="n">
-        <v>0.937986</v>
+        <v>0.932982</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.662833</v>
+        <v>0.6589390000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.966225</v>
+        <v>0.964974</v>
       </c>
       <c r="D41" t="n">
-        <v>1.16557</v>
+        <v>1.17228</v>
       </c>
       <c r="E41" t="n">
-        <v>0.627675</v>
+        <v>0.608797</v>
       </c>
       <c r="F41" t="n">
-        <v>0.930252</v>
+        <v>0.92378</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.632111</v>
+        <v>0.663308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.95123</v>
+        <v>0.971606</v>
       </c>
       <c r="D42" t="n">
-        <v>1.17247</v>
+        <v>1.16154</v>
       </c>
       <c r="E42" t="n">
-        <v>0.595702</v>
+        <v>0.594526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.91957</v>
+        <v>0.932104</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.606888</v>
+        <v>0.6348009999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.942705</v>
+        <v>0.96251</v>
       </c>
       <c r="D43" t="n">
-        <v>1.15687</v>
+        <v>1.19951</v>
       </c>
       <c r="E43" t="n">
-        <v>0.570883</v>
+        <v>0.584045</v>
       </c>
       <c r="F43" t="n">
-        <v>0.897042</v>
+        <v>0.914353</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.597908</v>
+        <v>0.622929</v>
       </c>
       <c r="C44" t="n">
-        <v>0.929348</v>
+        <v>0.934897</v>
       </c>
       <c r="D44" t="n">
-        <v>1.16294</v>
+        <v>1.1691</v>
       </c>
       <c r="E44" t="n">
-        <v>0.551439</v>
+        <v>0.559534</v>
       </c>
       <c r="F44" t="n">
-        <v>0.887306</v>
+        <v>0.916623</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.574976</v>
+        <v>0.584052</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9188460000000001</v>
+        <v>0.937145</v>
       </c>
       <c r="D45" t="n">
-        <v>1.13601</v>
+        <v>1.1278</v>
       </c>
       <c r="E45" t="n">
-        <v>0.544659</v>
+        <v>0.534959</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877235</v>
+        <v>0.877298</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.571375</v>
+        <v>0.562038</v>
       </c>
       <c r="C46" t="n">
-        <v>0.904119</v>
+        <v>0.901967</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13444</v>
+        <v>1.13678</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522966</v>
+        <v>0.522519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.874133</v>
+        <v>0.871634</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.554719</v>
+        <v>0.547866</v>
       </c>
       <c r="C47" t="n">
-        <v>0.885239</v>
+        <v>0.896132</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11411</v>
+        <v>1.11638</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5087970000000001</v>
+        <v>0.5099900000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.859378</v>
+        <v>0.8663380000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5466800000000001</v>
+        <v>0.533868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.915257</v>
+        <v>0.952105</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10856</v>
+        <v>1.14935</v>
       </c>
       <c r="E48" t="n">
-        <v>0.493783</v>
+        <v>0.492952</v>
       </c>
       <c r="F48" t="n">
-        <v>0.902043</v>
+        <v>0.853775</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.519526</v>
+        <v>0.550705</v>
       </c>
       <c r="C49" t="n">
-        <v>0.885594</v>
+        <v>0.881059</v>
       </c>
       <c r="D49" t="n">
-        <v>1.13465</v>
+        <v>1.14003</v>
       </c>
       <c r="E49" t="n">
-        <v>0.476991</v>
+        <v>0.492992</v>
       </c>
       <c r="F49" t="n">
-        <v>0.853746</v>
+        <v>0.848229</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.507296</v>
+        <v>0.510656</v>
       </c>
       <c r="C50" t="n">
-        <v>0.890772</v>
+        <v>0.8820249999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>1.5996</v>
+        <v>1.55129</v>
       </c>
       <c r="E50" t="n">
-        <v>0.476906</v>
+        <v>0.473988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.852582</v>
+        <v>0.858786</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.501304</v>
+        <v>0.496193</v>
       </c>
       <c r="C51" t="n">
-        <v>0.870735</v>
+        <v>0.873503</v>
       </c>
       <c r="D51" t="n">
-        <v>1.54399</v>
+        <v>1.52641</v>
       </c>
       <c r="E51" t="n">
-        <v>0.745792</v>
+        <v>0.738909</v>
       </c>
       <c r="F51" t="n">
-        <v>1.14413</v>
+        <v>1.12309</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.491379</v>
+        <v>0.502169</v>
       </c>
       <c r="C52" t="n">
-        <v>0.871605</v>
+        <v>0.8796349999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50163</v>
+        <v>1.50367</v>
       </c>
       <c r="E52" t="n">
-        <v>0.719495</v>
+        <v>0.755392</v>
       </c>
       <c r="F52" t="n">
-        <v>1.11503</v>
+        <v>1.14047</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.787569</v>
+        <v>0.750716</v>
       </c>
       <c r="C53" t="n">
-        <v>1.18304</v>
+        <v>1.16143</v>
       </c>
       <c r="D53" t="n">
-        <v>1.47843</v>
+        <v>1.48263</v>
       </c>
       <c r="E53" t="n">
-        <v>0.694831</v>
+        <v>0.696551</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09317</v>
+        <v>1.09033</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.726221</v>
+        <v>0.743347</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14807</v>
+        <v>1.14398</v>
       </c>
       <c r="D54" t="n">
-        <v>1.47507</v>
+        <v>1.45998</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6808380000000001</v>
+        <v>0.685972</v>
       </c>
       <c r="F54" t="n">
-        <v>1.07207</v>
+        <v>1.05898</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.708754</v>
+        <v>0.728923</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12171</v>
+        <v>1.12406</v>
       </c>
       <c r="D55" t="n">
-        <v>1.45088</v>
+        <v>1.43352</v>
       </c>
       <c r="E55" t="n">
-        <v>0.65584</v>
+        <v>0.661216</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0603</v>
+        <v>1.10186</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.724201</v>
+        <v>0.732407</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15459</v>
+        <v>1.10659</v>
       </c>
       <c r="D56" t="n">
-        <v>1.43795</v>
+        <v>1.47073</v>
       </c>
       <c r="E56" t="n">
-        <v>0.648472</v>
+        <v>0.6419550000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04627</v>
+        <v>1.04177</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.672749</v>
+        <v>0.705487</v>
       </c>
       <c r="C57" t="n">
-        <v>1.12075</v>
+        <v>1.09715</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43625</v>
+        <v>1.41985</v>
       </c>
       <c r="E57" t="n">
-        <v>0.623399</v>
+        <v>0.629614</v>
       </c>
       <c r="F57" t="n">
-        <v>1.06782</v>
+        <v>1.07522</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.673735</v>
+        <v>0.662017</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07318</v>
+        <v>1.08735</v>
       </c>
       <c r="D58" t="n">
-        <v>1.45163</v>
+        <v>1.43967</v>
       </c>
       <c r="E58" t="n">
-        <v>0.638015</v>
+        <v>0.636605</v>
       </c>
       <c r="F58" t="n">
-        <v>1.00167</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6482290000000001</v>
+        <v>0.651039</v>
       </c>
       <c r="C59" t="n">
-        <v>1.08235</v>
+        <v>1.11752</v>
       </c>
       <c r="D59" t="n">
-        <v>1.42798</v>
+        <v>1.4007</v>
       </c>
       <c r="E59" t="n">
-        <v>0.603467</v>
+        <v>0.595773</v>
       </c>
       <c r="F59" t="n">
-        <v>1.04159</v>
+        <v>0.9978939999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.628108</v>
+        <v>0.63121</v>
       </c>
       <c r="C60" t="n">
-        <v>1.06892</v>
+        <v>1.04912</v>
       </c>
       <c r="D60" t="n">
-        <v>1.38355</v>
+        <v>1.40098</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582803</v>
+        <v>0.582719</v>
       </c>
       <c r="F60" t="n">
-        <v>0.98981</v>
+        <v>0.986106</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.65027</v>
+        <v>0.622231</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04769</v>
+        <v>1.04913</v>
       </c>
       <c r="D61" t="n">
-        <v>1.40507</v>
+        <v>1.37008</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5659920000000001</v>
+        <v>0.575585</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9675240000000001</v>
+        <v>0.96883</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.600827</v>
+        <v>0.616518</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02082</v>
+        <v>1.04271</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36532</v>
+        <v>1.36427</v>
       </c>
       <c r="E62" t="n">
-        <v>0.566372</v>
+        <v>0.5587839999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.981145</v>
+        <v>0.979374</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.594679</v>
+        <v>0.6027979999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.03875</v>
+        <v>1.02824</v>
       </c>
       <c r="D63" t="n">
-        <v>1.41995</v>
+        <v>1.39039</v>
       </c>
       <c r="E63" t="n">
-        <v>0.558774</v>
+        <v>0.55386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.969228</v>
+        <v>0.964228</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.587391</v>
+        <v>0.588021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00999</v>
+        <v>1.00914</v>
       </c>
       <c r="D64" t="n">
-        <v>2.24374</v>
+        <v>2.18386</v>
       </c>
       <c r="E64" t="n">
-        <v>0.547894</v>
+        <v>0.539924</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9614239999999999</v>
+        <v>0.9560419999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5846</v>
+        <v>0.600253</v>
       </c>
       <c r="C65" t="n">
-        <v>1.03298</v>
+        <v>1.00606</v>
       </c>
       <c r="D65" t="n">
-        <v>2.23598</v>
+        <v>2.17801</v>
       </c>
       <c r="E65" t="n">
-        <v>0.53009</v>
+        <v>0.545217</v>
       </c>
       <c r="F65" t="n">
-        <v>0.953372</v>
+        <v>0.94783</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.576025</v>
+        <v>0.566568</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01045</v>
+        <v>0.985808</v>
       </c>
       <c r="D66" t="n">
-        <v>2.17204</v>
+        <v>2.11281</v>
       </c>
       <c r="E66" t="n">
-        <v>0.814329</v>
+        <v>0.81885</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4911</v>
+        <v>1.44796</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.839767</v>
+        <v>0.855712</v>
       </c>
       <c r="C67" t="n">
-        <v>1.62236</v>
+        <v>1.61993</v>
       </c>
       <c r="D67" t="n">
-        <v>2.14309</v>
+        <v>2.07961</v>
       </c>
       <c r="E67" t="n">
-        <v>0.786042</v>
+        <v>0.7895</v>
       </c>
       <c r="F67" t="n">
-        <v>1.42864</v>
+        <v>1.44435</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.825237</v>
+        <v>0.826321</v>
       </c>
       <c r="C68" t="n">
-        <v>1.54974</v>
+        <v>1.53753</v>
       </c>
       <c r="D68" t="n">
-        <v>2.13595</v>
+        <v>2.01927</v>
       </c>
       <c r="E68" t="n">
-        <v>0.775397</v>
+        <v>0.761539</v>
       </c>
       <c r="F68" t="n">
-        <v>1.38454</v>
+        <v>1.3906</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7989039999999999</v>
+        <v>0.820931</v>
       </c>
       <c r="C69" t="n">
-        <v>1.51779</v>
+        <v>1.50333</v>
       </c>
       <c r="D69" t="n">
-        <v>2.06344</v>
+        <v>1.98744</v>
       </c>
       <c r="E69" t="n">
-        <v>0.739989</v>
+        <v>0.750139</v>
       </c>
       <c r="F69" t="n">
-        <v>1.36949</v>
+        <v>1.45568</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.804809</v>
+        <v>0.785488</v>
       </c>
       <c r="C70" t="n">
-        <v>1.53382</v>
+        <v>1.48528</v>
       </c>
       <c r="D70" t="n">
-        <v>1.96755</v>
+        <v>1.95407</v>
       </c>
       <c r="E70" t="n">
-        <v>0.732588</v>
+        <v>0.755919</v>
       </c>
       <c r="F70" t="n">
-        <v>1.34325</v>
+        <v>1.36953</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7658160000000001</v>
+        <v>0.767582</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44574</v>
+        <v>1.47593</v>
       </c>
       <c r="D71" t="n">
-        <v>1.99876</v>
+        <v>1.89446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.711709</v>
+        <v>0.725338</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3271</v>
+        <v>1.39244</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7527470000000001</v>
+        <v>0.754706</v>
       </c>
       <c r="C72" t="n">
-        <v>1.44989</v>
+        <v>1.42182</v>
       </c>
       <c r="D72" t="n">
-        <v>1.99386</v>
+        <v>1.90082</v>
       </c>
       <c r="E72" t="n">
-        <v>0.708047</v>
+        <v>0.711277</v>
       </c>
       <c r="F72" t="n">
-        <v>1.30032</v>
+        <v>1.29699</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75449</v>
+        <v>0.739498</v>
       </c>
       <c r="C73" t="n">
-        <v>1.4429</v>
+        <v>1.3781</v>
       </c>
       <c r="D73" t="n">
-        <v>1.97107</v>
+        <v>1.88725</v>
       </c>
       <c r="E73" t="n">
-        <v>0.677934</v>
+        <v>0.69472</v>
       </c>
       <c r="F73" t="n">
-        <v>1.26428</v>
+        <v>1.28711</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.713792</v>
+        <v>0.719116</v>
       </c>
       <c r="C74" t="n">
-        <v>1.38283</v>
+        <v>1.37769</v>
       </c>
       <c r="D74" t="n">
-        <v>1.93322</v>
+        <v>1.94243</v>
       </c>
       <c r="E74" t="n">
-        <v>0.655202</v>
+        <v>0.709723</v>
       </c>
       <c r="F74" t="n">
-        <v>1.25679</v>
+        <v>1.24653</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.700277</v>
+        <v>0.709191</v>
       </c>
       <c r="C75" t="n">
-        <v>1.37113</v>
+        <v>1.3371</v>
       </c>
       <c r="D75" t="n">
-        <v>1.926</v>
+        <v>1.89602</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6877450000000001</v>
+        <v>0.650394</v>
       </c>
       <c r="F75" t="n">
-        <v>1.25646</v>
+        <v>1.23326</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.693184</v>
+        <v>0.723523</v>
       </c>
       <c r="C76" t="n">
-        <v>1.32632</v>
+        <v>1.33242</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90567</v>
+        <v>1.90883</v>
       </c>
       <c r="E76" t="n">
-        <v>0.636601</v>
+        <v>0.633501</v>
       </c>
       <c r="F76" t="n">
-        <v>1.22243</v>
+        <v>1.21796</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.67657</v>
+        <v>0.678826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.32903</v>
+        <v>1.28752</v>
       </c>
       <c r="D77" t="n">
-        <v>1.92352</v>
+        <v>1.83466</v>
       </c>
       <c r="E77" t="n">
-        <v>0.618537</v>
+        <v>0.625237</v>
       </c>
       <c r="F77" t="n">
-        <v>1.22986</v>
+        <v>1.20719</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.66403</v>
+        <v>0.677021</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29853</v>
+        <v>1.29882</v>
       </c>
       <c r="D78" t="n">
-        <v>3.21364</v>
+        <v>3.0562</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6235270000000001</v>
+        <v>0.618597</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18205</v>
+        <v>1.18868</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.662803</v>
+        <v>0.6711279999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>1.28509</v>
+        <v>1.27231</v>
       </c>
       <c r="D79" t="n">
-        <v>3.10471</v>
+        <v>2.94618</v>
       </c>
       <c r="E79" t="n">
-        <v>0.605209</v>
+        <v>0.611275</v>
       </c>
       <c r="F79" t="n">
-        <v>1.18733</v>
+        <v>1.17615</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.65207</v>
+        <v>0.653607</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25268</v>
+        <v>1.25454</v>
       </c>
       <c r="D80" t="n">
-        <v>3.09446</v>
+        <v>2.90944</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9088310000000001</v>
+        <v>0.915427</v>
       </c>
       <c r="F80" t="n">
-        <v>1.99067</v>
+        <v>1.98089</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.952666</v>
+        <v>0.968063</v>
       </c>
       <c r="C81" t="n">
-        <v>2.16419</v>
+        <v>2.14213</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00484</v>
+        <v>3.00928</v>
       </c>
       <c r="E81" t="n">
-        <v>0.89041</v>
+        <v>0.8984839999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1.93819</v>
+        <v>1.94384</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943311</v>
+        <v>0.943176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.10752</v>
+        <v>2.07147</v>
       </c>
       <c r="D82" t="n">
-        <v>2.98255</v>
+        <v>2.91159</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8746390000000001</v>
+        <v>0.8666160000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1.89934</v>
+        <v>1.90613</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.939623</v>
+        <v>0.965661</v>
       </c>
       <c r="C83" t="n">
-        <v>2.18957</v>
+        <v>2.04059</v>
       </c>
       <c r="D83" t="n">
-        <v>2.8894</v>
+        <v>2.7523</v>
       </c>
       <c r="E83" t="n">
-        <v>0.88959</v>
+        <v>0.852823</v>
       </c>
       <c r="F83" t="n">
-        <v>1.87883</v>
+        <v>1.85847</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9373590000000001</v>
+        <v>0.912673</v>
       </c>
       <c r="C84" t="n">
-        <v>1.9802</v>
+        <v>1.96099</v>
       </c>
       <c r="D84" t="n">
-        <v>2.86036</v>
+        <v>2.75311</v>
       </c>
       <c r="E84" t="n">
-        <v>0.862347</v>
+        <v>0.828427</v>
       </c>
       <c r="F84" t="n">
-        <v>1.83248</v>
+        <v>1.82706</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.907408</v>
+        <v>0.914069</v>
       </c>
       <c r="C85" t="n">
-        <v>2.00706</v>
+        <v>1.96364</v>
       </c>
       <c r="D85" t="n">
-        <v>2.8634</v>
+        <v>2.66794</v>
       </c>
       <c r="E85" t="n">
-        <v>0.820252</v>
+        <v>0.812127</v>
       </c>
       <c r="F85" t="n">
-        <v>1.78894</v>
+        <v>1.75396</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.867361</v>
+        <v>0.873924</v>
       </c>
       <c r="C86" t="n">
-        <v>1.92155</v>
+        <v>1.89425</v>
       </c>
       <c r="D86" t="n">
-        <v>2.73739</v>
+        <v>2.7381</v>
       </c>
       <c r="E86" t="n">
-        <v>0.820595</v>
+        <v>0.792926</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73894</v>
+        <v>1.73693</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.845132</v>
+        <v>0.851912</v>
       </c>
       <c r="C87" t="n">
-        <v>1.91335</v>
+        <v>1.90181</v>
       </c>
       <c r="D87" t="n">
-        <v>2.69506</v>
+        <v>2.60488</v>
       </c>
       <c r="E87" t="n">
-        <v>0.781017</v>
+        <v>0.774383</v>
       </c>
       <c r="F87" t="n">
-        <v>1.70232</v>
+        <v>1.67721</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8380649999999999</v>
+        <v>0.839299</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8599</v>
+        <v>1.81521</v>
       </c>
       <c r="D88" t="n">
-        <v>2.60388</v>
+        <v>2.5833</v>
       </c>
       <c r="E88" t="n">
-        <v>0.760042</v>
+        <v>0.776703</v>
       </c>
       <c r="F88" t="n">
-        <v>1.69917</v>
+        <v>1.68596</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.815292</v>
+        <v>0.833472</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78979</v>
+        <v>1.79135</v>
       </c>
       <c r="D89" t="n">
-        <v>2.64758</v>
+        <v>2.61921</v>
       </c>
       <c r="E89" t="n">
-        <v>0.799162</v>
+        <v>0.74326</v>
       </c>
       <c r="F89" t="n">
-        <v>1.64433</v>
+        <v>1.60696</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.820306</v>
+        <v>0.813693</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80514</v>
+        <v>1.76818</v>
       </c>
       <c r="D90" t="n">
-        <v>2.64978</v>
+        <v>2.60431</v>
       </c>
       <c r="E90" t="n">
-        <v>0.726978</v>
+        <v>0.73038</v>
       </c>
       <c r="F90" t="n">
-        <v>1.60528</v>
+        <v>1.59092</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.786648</v>
+        <v>0.795088</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8593</v>
+        <v>1.72242</v>
       </c>
       <c r="D91" t="n">
-        <v>2.66222</v>
+        <v>2.59823</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7240529999999999</v>
+        <v>0.733428</v>
       </c>
       <c r="F91" t="n">
-        <v>1.58025</v>
+        <v>1.57273</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.778834</v>
+        <v>0.768605</v>
       </c>
       <c r="C92" t="n">
-        <v>1.74801</v>
+        <v>1.67462</v>
       </c>
       <c r="D92" t="n">
-        <v>3.81901</v>
+        <v>3.57596</v>
       </c>
       <c r="E92" t="n">
-        <v>0.712099</v>
+        <v>0.71538</v>
       </c>
       <c r="F92" t="n">
-        <v>1.60947</v>
+        <v>1.52747</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.765282</v>
+        <v>0.769192</v>
       </c>
       <c r="C93" t="n">
-        <v>1.75159</v>
+        <v>1.65008</v>
       </c>
       <c r="D93" t="n">
-        <v>3.69542</v>
+        <v>3.53769</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7035670000000001</v>
+        <v>0.726693</v>
       </c>
       <c r="F93" t="n">
-        <v>1.55489</v>
+        <v>1.54553</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7630710000000001</v>
+        <v>0.771715</v>
       </c>
       <c r="C94" t="n">
-        <v>1.68586</v>
+        <v>1.62698</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66766</v>
+        <v>3.5332</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02351</v>
+        <v>1.02169</v>
       </c>
       <c r="F94" t="n">
-        <v>2.54961</v>
+        <v>2.50487</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.06905</v>
+        <v>1.08418</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7107</v>
+        <v>2.74023</v>
       </c>
       <c r="D95" t="n">
-        <v>3.49112</v>
+        <v>3.5124</v>
       </c>
       <c r="E95" t="n">
-        <v>0.987448</v>
+        <v>1.00679</v>
       </c>
       <c r="F95" t="n">
-        <v>2.50407</v>
+        <v>2.48916</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.05507</v>
+        <v>1.06575</v>
       </c>
       <c r="C96" t="n">
-        <v>2.69742</v>
+        <v>2.74851</v>
       </c>
       <c r="D96" t="n">
-        <v>3.61886</v>
+        <v>3.31612</v>
       </c>
       <c r="E96" t="n">
-        <v>0.966365</v>
+        <v>0.989348</v>
       </c>
       <c r="F96" t="n">
-        <v>2.47421</v>
+        <v>2.35096</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02955</v>
+        <v>1.04285</v>
       </c>
       <c r="C97" t="n">
-        <v>2.62817</v>
+        <v>2.55837</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46986</v>
+        <v>3.32588</v>
       </c>
       <c r="E97" t="n">
-        <v>0.971714</v>
+        <v>0.975986</v>
       </c>
       <c r="F97" t="n">
-        <v>2.38715</v>
+        <v>2.37816</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01522</v>
+        <v>1.00602</v>
       </c>
       <c r="C98" t="n">
-        <v>2.53008</v>
+        <v>2.49865</v>
       </c>
       <c r="D98" t="n">
-        <v>3.325</v>
+        <v>3.39154</v>
       </c>
       <c r="E98" t="n">
-        <v>0.933428</v>
+        <v>0.931532</v>
       </c>
       <c r="F98" t="n">
-        <v>2.2818</v>
+        <v>2.30082</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.999937</v>
+        <v>1.01178</v>
       </c>
       <c r="C99" t="n">
-        <v>2.4528</v>
+        <v>2.46171</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28763</v>
+        <v>3.28686</v>
       </c>
       <c r="E99" t="n">
-        <v>0.921159</v>
+        <v>0.928202</v>
       </c>
       <c r="F99" t="n">
-        <v>2.27515</v>
+        <v>2.20199</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01153</v>
+        <v>1.00205</v>
       </c>
       <c r="C100" t="n">
-        <v>2.43455</v>
+        <v>2.40753</v>
       </c>
       <c r="D100" t="n">
-        <v>3.27668</v>
+        <v>3.14925</v>
       </c>
       <c r="E100" t="n">
-        <v>0.912921</v>
+        <v>0.896126</v>
       </c>
       <c r="F100" t="n">
-        <v>2.20189</v>
+        <v>2.18158</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.976612</v>
+        <v>0.971307</v>
       </c>
       <c r="C101" t="n">
-        <v>2.39971</v>
+        <v>2.33332</v>
       </c>
       <c r="D101" t="n">
-        <v>3.33115</v>
+        <v>3.27451</v>
       </c>
       <c r="E101" t="n">
-        <v>0.876152</v>
+        <v>0.8850170000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>2.1789</v>
+        <v>2.11107</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.949947</v>
+        <v>0.953824</v>
       </c>
       <c r="C102" t="n">
-        <v>2.41711</v>
+        <v>2.29159</v>
       </c>
       <c r="D102" t="n">
-        <v>3.2145</v>
+        <v>3.1488</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8745230000000001</v>
+        <v>0.851868</v>
       </c>
       <c r="F102" t="n">
-        <v>2.13448</v>
+        <v>2.06372</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9486560000000001</v>
+        <v>0.932949</v>
       </c>
       <c r="C103" t="n">
-        <v>2.29037</v>
+        <v>2.21041</v>
       </c>
       <c r="D103" t="n">
-        <v>3.18751</v>
+        <v>3.05602</v>
       </c>
       <c r="E103" t="n">
-        <v>0.851097</v>
+        <v>0.867088</v>
       </c>
       <c r="F103" t="n">
-        <v>2.07829</v>
+        <v>2.01796</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.92993</v>
+        <v>0.9299809999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.27336</v>
+        <v>2.161</v>
       </c>
       <c r="D104" t="n">
-        <v>3.0901</v>
+        <v>3.06156</v>
       </c>
       <c r="E104" t="n">
-        <v>0.830105</v>
+        <v>0.843205</v>
       </c>
       <c r="F104" t="n">
-        <v>1.99185</v>
+        <v>1.9756</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.920907</v>
+        <v>0.93072</v>
       </c>
       <c r="C105" t="n">
-        <v>2.21412</v>
+        <v>2.14861</v>
       </c>
       <c r="D105" t="n">
-        <v>3.15484</v>
+        <v>3.05091</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8220420000000001</v>
+        <v>0.841862</v>
       </c>
       <c r="F105" t="n">
-        <v>2.04008</v>
+        <v>1.95348</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.896479</v>
+        <v>0.90806</v>
       </c>
       <c r="C106" t="n">
-        <v>2.17402</v>
+        <v>2.08289</v>
       </c>
       <c r="D106" t="n">
-        <v>3.09251</v>
+        <v>3.06286</v>
       </c>
       <c r="E106" t="n">
-        <v>0.807839</v>
+        <v>0.809347</v>
       </c>
       <c r="F106" t="n">
-        <v>1.96162</v>
+        <v>1.95531</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.890379</v>
+        <v>0.923753</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13818</v>
+        <v>2.13231</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25192</v>
+        <v>4.25392</v>
       </c>
       <c r="E107" t="n">
-        <v>0.811649</v>
+        <v>0.823731</v>
       </c>
       <c r="F107" t="n">
-        <v>1.95314</v>
+        <v>1.94767</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.893105</v>
+        <v>0.900423</v>
       </c>
       <c r="C108" t="n">
-        <v>2.08922</v>
+        <v>2.09289</v>
       </c>
       <c r="D108" t="n">
-        <v>4.22862</v>
+        <v>4.10799</v>
       </c>
       <c r="E108" t="n">
-        <v>1.113</v>
+        <v>1.14817</v>
       </c>
       <c r="F108" t="n">
-        <v>3.03113</v>
+        <v>3.04966</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.891478</v>
+        <v>0.872599</v>
       </c>
       <c r="C109" t="n">
-        <v>2.07368</v>
+        <v>2.05056</v>
       </c>
       <c r="D109" t="n">
-        <v>4.04892</v>
+        <v>4.01272</v>
       </c>
       <c r="E109" t="n">
-        <v>1.11344</v>
+        <v>1.12126</v>
       </c>
       <c r="F109" t="n">
-        <v>2.9941</v>
+        <v>2.96604</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21052</v>
+        <v>1.19757</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17339</v>
+        <v>3.17492</v>
       </c>
       <c r="D110" t="n">
-        <v>3.96782</v>
+        <v>3.97299</v>
       </c>
       <c r="E110" t="n">
-        <v>1.10654</v>
+        <v>1.08534</v>
       </c>
       <c r="F110" t="n">
-        <v>2.87509</v>
+        <v>2.869</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18743</v>
+        <v>1.16604</v>
       </c>
       <c r="C111" t="n">
-        <v>3.1238</v>
+        <v>3.13645</v>
       </c>
       <c r="D111" t="n">
-        <v>3.93186</v>
+        <v>3.95988</v>
       </c>
       <c r="E111" t="n">
-        <v>1.09742</v>
+        <v>1.12159</v>
       </c>
       <c r="F111" t="n">
-        <v>2.80733</v>
+        <v>2.83422</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15326</v>
+        <v>1.14753</v>
       </c>
       <c r="C112" t="n">
-        <v>3.0658</v>
+        <v>3.03503</v>
       </c>
       <c r="D112" t="n">
-        <v>3.9217</v>
+        <v>3.93714</v>
       </c>
       <c r="E112" t="n">
-        <v>1.07062</v>
+        <v>1.11134</v>
       </c>
       <c r="F112" t="n">
-        <v>2.74678</v>
+        <v>2.82322</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15028</v>
+        <v>1.15598</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95643</v>
+        <v>3.00706</v>
       </c>
       <c r="D113" t="n">
-        <v>3.91838</v>
+        <v>3.81217</v>
       </c>
       <c r="E113" t="n">
-        <v>1.03322</v>
+        <v>1.06255</v>
       </c>
       <c r="F113" t="n">
-        <v>2.682</v>
+        <v>2.72726</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13718</v>
+        <v>1.14981</v>
       </c>
       <c r="C114" t="n">
-        <v>2.91419</v>
+        <v>2.97442</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78394</v>
+        <v>3.83608</v>
       </c>
       <c r="E114" t="n">
-        <v>1.04042</v>
+        <v>1.07588</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66194</v>
+        <v>2.68609</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.142</v>
+        <v>1.13566</v>
       </c>
       <c r="C115" t="n">
-        <v>2.86654</v>
+        <v>2.91551</v>
       </c>
       <c r="D115" t="n">
-        <v>3.77421</v>
+        <v>3.79197</v>
       </c>
       <c r="E115" t="n">
-        <v>1.02977</v>
+        <v>1.05717</v>
       </c>
       <c r="F115" t="n">
-        <v>2.56743</v>
+        <v>2.60336</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13162</v>
+        <v>1.14858</v>
       </c>
       <c r="C116" t="n">
-        <v>2.80362</v>
+        <v>2.81258</v>
       </c>
       <c r="D116" t="n">
-        <v>3.73821</v>
+        <v>3.70405</v>
       </c>
       <c r="E116" t="n">
-        <v>1.01877</v>
+        <v>1.02575</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54143</v>
+        <v>2.54748</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10392</v>
+        <v>1.1213</v>
       </c>
       <c r="C117" t="n">
-        <v>2.75735</v>
+        <v>2.78248</v>
       </c>
       <c r="D117" t="n">
-        <v>3.6865</v>
+        <v>3.69834</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01325</v>
+        <v>1.00789</v>
       </c>
       <c r="F117" t="n">
-        <v>2.48317</v>
+        <v>2.47251</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11576</v>
+        <v>1.09157</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71546</v>
+        <v>2.76407</v>
       </c>
       <c r="D118" t="n">
-        <v>3.65301</v>
+        <v>3.6886</v>
       </c>
       <c r="E118" t="n">
-        <v>0.98994</v>
+        <v>1.00685</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43943</v>
+        <v>2.43947</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09336</v>
+        <v>1.10224</v>
       </c>
       <c r="C119" t="n">
-        <v>2.71854</v>
+        <v>2.68266</v>
       </c>
       <c r="D119" t="n">
-        <v>3.6277</v>
+        <v>3.64735</v>
       </c>
       <c r="E119" t="n">
-        <v>0.986473</v>
+        <v>1.00353</v>
       </c>
       <c r="F119" t="n">
-        <v>2.39648</v>
+        <v>2.40417</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08391</v>
+        <v>1.08016</v>
       </c>
       <c r="C120" t="n">
-        <v>2.60332</v>
+        <v>2.59859</v>
       </c>
       <c r="D120" t="n">
-        <v>3.66305</v>
+        <v>3.60918</v>
       </c>
       <c r="E120" t="n">
-        <v>0.999189</v>
+        <v>0.984764</v>
       </c>
       <c r="F120" t="n">
-        <v>2.38601</v>
+        <v>2.36724</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09294</v>
+        <v>1.08303</v>
       </c>
       <c r="C121" t="n">
-        <v>2.59829</v>
+        <v>2.55278</v>
       </c>
       <c r="D121" t="n">
-        <v>4.95799</v>
+        <v>4.93811</v>
       </c>
       <c r="E121" t="n">
-        <v>0.978067</v>
+        <v>0.9731919999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33204</v>
+        <v>2.33548</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07024</v>
+        <v>1.07829</v>
       </c>
       <c r="C122" t="n">
-        <v>2.62505</v>
+        <v>2.55719</v>
       </c>
       <c r="D122" t="n">
-        <v>4.89335</v>
+        <v>4.80853</v>
       </c>
       <c r="E122" t="n">
-        <v>0.993666</v>
+        <v>0.958604</v>
       </c>
       <c r="F122" t="n">
-        <v>2.30598</v>
+        <v>2.33322</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.05045</v>
+        <v>1.0742</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59972</v>
+        <v>2.52484</v>
       </c>
       <c r="D123" t="n">
-        <v>4.78797</v>
+        <v>4.7414</v>
       </c>
       <c r="E123" t="n">
-        <v>1.31104</v>
+        <v>1.29905</v>
       </c>
       <c r="F123" t="n">
-        <v>3.49121</v>
+        <v>3.51166</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.39856</v>
+        <v>1.37985</v>
       </c>
       <c r="C124" t="n">
-        <v>3.82053</v>
+        <v>3.75171</v>
       </c>
       <c r="D124" t="n">
-        <v>4.69376</v>
+        <v>4.71081</v>
       </c>
       <c r="E124" t="n">
-        <v>1.318</v>
+        <v>1.3021</v>
       </c>
       <c r="F124" t="n">
-        <v>3.42209</v>
+        <v>3.38121</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38856</v>
+        <v>1.38717</v>
       </c>
       <c r="C125" t="n">
-        <v>3.76179</v>
+        <v>3.63345</v>
       </c>
       <c r="D125" t="n">
-        <v>4.66205</v>
+        <v>4.56309</v>
       </c>
       <c r="E125" t="n">
-        <v>1.29191</v>
+        <v>1.28362</v>
       </c>
       <c r="F125" t="n">
-        <v>3.33298</v>
+        <v>3.29702</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3722</v>
+        <v>1.38422</v>
       </c>
       <c r="C126" t="n">
-        <v>3.65192</v>
+        <v>3.63492</v>
       </c>
       <c r="D126" t="n">
-        <v>4.57484</v>
+        <v>4.55072</v>
       </c>
       <c r="E126" t="n">
-        <v>1.30948</v>
+        <v>1.28218</v>
       </c>
       <c r="F126" t="n">
-        <v>3.27083</v>
+        <v>3.26696</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3791</v>
+        <v>1.39177</v>
       </c>
       <c r="C127" t="n">
-        <v>3.56723</v>
+        <v>3.52019</v>
       </c>
       <c r="D127" t="n">
-        <v>4.51751</v>
+        <v>4.47824</v>
       </c>
       <c r="E127" t="n">
-        <v>1.29226</v>
+        <v>1.2695</v>
       </c>
       <c r="F127" t="n">
-        <v>3.19611</v>
+        <v>3.18236</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38156</v>
+        <v>1.34421</v>
       </c>
       <c r="C128" t="n">
-        <v>3.44242</v>
+        <v>3.41867</v>
       </c>
       <c r="D128" t="n">
-        <v>4.40186</v>
+        <v>4.41536</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2561</v>
+        <v>1.27759</v>
       </c>
       <c r="F128" t="n">
-        <v>3.12306</v>
+        <v>3.11321</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.37116</v>
+        <v>1.35125</v>
       </c>
       <c r="C129" t="n">
-        <v>3.40639</v>
+        <v>3.38055</v>
       </c>
       <c r="D129" t="n">
-        <v>4.36206</v>
+        <v>4.35577</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24271</v>
+        <v>1.23558</v>
       </c>
       <c r="F129" t="n">
-        <v>3.05</v>
+        <v>3.04803</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.35138</v>
+        <v>1.36445</v>
       </c>
       <c r="C130" t="n">
-        <v>3.35412</v>
+        <v>3.30338</v>
       </c>
       <c r="D130" t="n">
-        <v>4.34375</v>
+        <v>4.2794</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24935</v>
+        <v>1.241</v>
       </c>
       <c r="F130" t="n">
-        <v>3.01097</v>
+        <v>3.00293</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33999</v>
+        <v>1.3557</v>
       </c>
       <c r="C131" t="n">
-        <v>3.28589</v>
+        <v>3.30477</v>
       </c>
       <c r="D131" t="n">
-        <v>4.24801</v>
+        <v>4.25215</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26035</v>
+        <v>1.256</v>
       </c>
       <c r="F131" t="n">
-        <v>2.94931</v>
+        <v>2.98108</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35292</v>
+        <v>1.35459</v>
       </c>
       <c r="C132" t="n">
-        <v>3.23732</v>
+        <v>3.21955</v>
       </c>
       <c r="D132" t="n">
-        <v>4.23315</v>
+        <v>4.22341</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24444</v>
+        <v>1.24739</v>
       </c>
       <c r="F132" t="n">
-        <v>2.91511</v>
+        <v>2.88349</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35352</v>
+        <v>1.32891</v>
       </c>
       <c r="C133" t="n">
-        <v>3.18599</v>
+        <v>3.15426</v>
       </c>
       <c r="D133" t="n">
-        <v>4.23181</v>
+        <v>4.2413</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23444</v>
+        <v>1.23362</v>
       </c>
       <c r="F133" t="n">
-        <v>2.83477</v>
+        <v>2.84003</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3371</v>
+        <v>1.31717</v>
       </c>
       <c r="C134" t="n">
-        <v>3.16637</v>
+        <v>3.13424</v>
       </c>
       <c r="D134" t="n">
-        <v>4.2379</v>
+        <v>4.18816</v>
       </c>
       <c r="E134" t="n">
-        <v>1.26289</v>
+        <v>1.22683</v>
       </c>
       <c r="F134" t="n">
-        <v>2.84556</v>
+        <v>2.81872</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35324</v>
+        <v>1.39006</v>
       </c>
       <c r="C135" t="n">
-        <v>3.1156</v>
+        <v>3.08058</v>
       </c>
       <c r="D135" t="n">
-        <v>5.75343</v>
+        <v>5.67468</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23069</v>
+        <v>1.25035</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75253</v>
+        <v>2.75636</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35365</v>
+        <v>1.32544</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03587</v>
+        <v>3.06988</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60677</v>
+        <v>5.60148</v>
       </c>
       <c r="E136" t="n">
-        <v>1.23758</v>
+        <v>1.21942</v>
       </c>
       <c r="F136" t="n">
-        <v>2.74909</v>
+        <v>2.72918</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36492</v>
+        <v>1.35621</v>
       </c>
       <c r="C137" t="n">
-        <v>3.03454</v>
+        <v>3.00577</v>
       </c>
       <c r="D137" t="n">
-        <v>5.5039</v>
+        <v>5.44151</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59207</v>
+        <v>1.57894</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00565</v>
+        <v>4.00985</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.69116</v>
+        <v>1.67963</v>
       </c>
       <c r="C138" t="n">
-        <v>4.40088</v>
+        <v>4.34988</v>
       </c>
       <c r="D138" t="n">
-        <v>5.4248</v>
+        <v>5.3562</v>
       </c>
       <c r="E138" t="n">
-        <v>1.55648</v>
+        <v>1.57405</v>
       </c>
       <c r="F138" t="n">
-        <v>3.90788</v>
+        <v>3.89679</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.67094</v>
+        <v>1.64808</v>
       </c>
       <c r="C139" t="n">
-        <v>4.30723</v>
+        <v>4.25406</v>
       </c>
       <c r="D139" t="n">
-        <v>5.33911</v>
+        <v>5.26764</v>
       </c>
       <c r="E139" t="n">
-        <v>1.58535</v>
+        <v>1.55706</v>
       </c>
       <c r="F139" t="n">
-        <v>3.85061</v>
+        <v>3.83266</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6774</v>
+        <v>1.67247</v>
       </c>
       <c r="C140" t="n">
-        <v>4.1653</v>
+        <v>4.18962</v>
       </c>
       <c r="D140" t="n">
-        <v>5.2289</v>
+        <v>5.16642</v>
       </c>
       <c r="E140" t="n">
-        <v>1.5443</v>
+        <v>1.53212</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75279</v>
+        <v>3.75824</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.65177</v>
+        <v>1.63474</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09558</v>
+        <v>4.09438</v>
       </c>
       <c r="D141" t="n">
-        <v>5.16364</v>
+        <v>5.06514</v>
       </c>
       <c r="E141" t="n">
-        <v>1.55619</v>
+        <v>1.53172</v>
       </c>
       <c r="F141" t="n">
-        <v>3.6756</v>
+        <v>3.63691</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6553</v>
+        <v>1.65906</v>
       </c>
       <c r="C142" t="n">
-        <v>4.01675</v>
+        <v>3.98981</v>
       </c>
       <c r="D142" t="n">
-        <v>5.08363</v>
+        <v>5.0716</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53457</v>
+        <v>1.53279</v>
       </c>
       <c r="F142" t="n">
-        <v>3.61947</v>
+        <v>3.60441</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.66088</v>
+        <v>1.64625</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92284</v>
+        <v>3.92156</v>
       </c>
       <c r="D143" t="n">
-        <v>5.03113</v>
+        <v>4.91479</v>
       </c>
       <c r="E143" t="n">
-        <v>1.53533</v>
+        <v>1.52123</v>
       </c>
       <c r="F143" t="n">
-        <v>3.54968</v>
+        <v>3.49577</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575522</v>
+        <v>0.597712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053630000000001</v>
+        <v>0.807233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969652</v>
+        <v>0.987032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317156</v>
+        <v>0.323981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.799504</v>
+        <v>0.794685</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331523</v>
+        <v>0.369492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792357</v>
+        <v>0.829206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95972</v>
+        <v>1.00291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5283870000000001</v>
+        <v>0.314371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.762614</v>
+        <v>0.792013</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.325093</v>
+        <v>0.333993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789855</v>
+        <v>0.811951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980649</v>
+        <v>0.9683079999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308835</v>
+        <v>0.306414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754483</v>
+        <v>0.763162</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32818</v>
+        <v>0.318936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786763</v>
+        <v>0.791699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.941376</v>
+        <v>0.972344</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307744</v>
+        <v>0.293128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.789703</v>
+        <v>0.7442</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335133</v>
+        <v>0.313352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.798776</v>
+        <v>0.760015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985724</v>
+        <v>0.935921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.305344</v>
+        <v>0.311648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749701</v>
+        <v>0.76467</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322629</v>
+        <v>0.318443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784904</v>
+        <v>0.781197</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16528</v>
+        <v>1.15824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304815</v>
+        <v>0.29191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.744746</v>
+        <v>0.764969</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30831</v>
+        <v>0.315953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770539</v>
+        <v>0.781043</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12202</v>
+        <v>1.14252</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290588</v>
+        <v>0.294368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749251</v>
+        <v>0.767577</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307094</v>
+        <v>0.315445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772613</v>
+        <v>0.776579</v>
       </c>
       <c r="D9" t="n">
-        <v>1.09185</v>
+        <v>1.13513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543091</v>
+        <v>0.55847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.855966</v>
+        <v>0.879177</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556223</v>
+        <v>0.586278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902688</v>
+        <v>0.901215</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07887</v>
+        <v>1.10963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525743</v>
+        <v>0.529952</v>
       </c>
       <c r="F10" t="n">
-        <v>0.847444</v>
+        <v>0.845301</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553473</v>
+        <v>0.537956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.900881</v>
+        <v>0.863232</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06591</v>
+        <v>1.06379</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510518</v>
+        <v>0.507754</v>
       </c>
       <c r="F11" t="n">
-        <v>0.837014</v>
+        <v>0.833939</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525643</v>
+        <v>0.517636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.871667</v>
+        <v>0.8564580000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04819</v>
+        <v>1.03868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.493574</v>
+        <v>0.488038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.838848</v>
+        <v>0.815798</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508463</v>
+        <v>0.505436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854847</v>
+        <v>0.864735</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0537</v>
+        <v>1.02601</v>
       </c>
       <c r="E13" t="n">
-        <v>0.490285</v>
+        <v>0.469221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.813659</v>
+        <v>0.80576</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493829</v>
+        <v>0.487299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.84234</v>
+        <v>0.823928</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02761</v>
+        <v>1.01304</v>
       </c>
       <c r="E14" t="n">
-        <v>0.464033</v>
+        <v>0.453737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.80908</v>
+        <v>0.840953</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479674</v>
+        <v>0.482132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.836435</v>
+        <v>0.812617</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01782</v>
+        <v>1.00171</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447319</v>
+        <v>0.440584</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79615</v>
+        <v>0.789512</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467952</v>
+        <v>0.464388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.822427</v>
+        <v>0.809992</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03369</v>
+        <v>0.998435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.435864</v>
+        <v>0.433074</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794716</v>
+        <v>0.788459</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46037</v>
+        <v>0.461097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.824414</v>
+        <v>0.8178299999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03949</v>
+        <v>1.00605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426453</v>
+        <v>0.433671</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787167</v>
+        <v>0.776248</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459607</v>
+        <v>0.445276</v>
       </c>
       <c r="C18" t="n">
-        <v>0.811786</v>
+        <v>0.792086</v>
       </c>
       <c r="D18" t="n">
-        <v>0.992486</v>
+        <v>0.98132</v>
       </c>
       <c r="E18" t="n">
-        <v>0.415591</v>
+        <v>0.407471</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7799700000000001</v>
+        <v>0.767234</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434457</v>
+        <v>0.440955</v>
       </c>
       <c r="C19" t="n">
-        <v>0.807883</v>
+        <v>0.786062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988259</v>
+        <v>0.971401</v>
       </c>
       <c r="E19" t="n">
-        <v>0.414061</v>
+        <v>0.410931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.789147</v>
+        <v>0.766243</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42632</v>
+        <v>0.430155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803764</v>
+        <v>0.774682</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00131</v>
+        <v>0.959692</v>
       </c>
       <c r="E20" t="n">
-        <v>0.403929</v>
+        <v>0.394749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.774707</v>
+        <v>0.764035</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418046</v>
+        <v>0.409798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.799251</v>
+        <v>0.775404</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19295</v>
+        <v>1.1714</v>
       </c>
       <c r="E21" t="n">
-        <v>0.387986</v>
+        <v>0.382109</v>
       </c>
       <c r="F21" t="n">
-        <v>0.767618</v>
+        <v>0.764441</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407915</v>
+        <v>0.403973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.795204</v>
+        <v>0.7664570000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16209</v>
+        <v>1.17263</v>
       </c>
       <c r="E22" t="n">
-        <v>0.381444</v>
+        <v>0.386323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.763447</v>
+        <v>0.759795</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409988</v>
+        <v>0.396771</v>
       </c>
       <c r="C23" t="n">
-        <v>0.786917</v>
+        <v>0.767401</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14185</v>
+        <v>1.13195</v>
       </c>
       <c r="E23" t="n">
-        <v>0.641595</v>
+        <v>0.633802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.903034</v>
+        <v>0.873671</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65785</v>
+        <v>0.649409</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916601</v>
+        <v>0.890994</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13616</v>
+        <v>1.10953</v>
       </c>
       <c r="E24" t="n">
-        <v>0.622939</v>
+        <v>0.6096200000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.872999</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641939</v>
+        <v>0.627763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9161280000000001</v>
+        <v>0.885769</v>
       </c>
       <c r="D25" t="n">
-        <v>1.12062</v>
+        <v>1.09845</v>
       </c>
       <c r="E25" t="n">
-        <v>0.603781</v>
+        <v>0.592028</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8642339999999999</v>
+        <v>0.849469</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621707</v>
+        <v>0.610834</v>
       </c>
       <c r="C26" t="n">
-        <v>0.894818</v>
+        <v>0.871564</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09479</v>
+        <v>1.11427</v>
       </c>
       <c r="E26" t="n">
-        <v>0.585918</v>
+        <v>0.584306</v>
       </c>
       <c r="F26" t="n">
-        <v>0.853728</v>
+        <v>0.863268</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606362</v>
+        <v>0.606263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.894883</v>
+        <v>0.865846</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08143</v>
+        <v>1.08855</v>
       </c>
       <c r="E27" t="n">
-        <v>0.569053</v>
+        <v>0.556162</v>
       </c>
       <c r="F27" t="n">
-        <v>0.843792</v>
+        <v>0.838361</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585933</v>
+        <v>0.580449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.905092</v>
+        <v>0.8553809999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07484</v>
+        <v>1.06283</v>
       </c>
       <c r="E28" t="n">
-        <v>0.550386</v>
+        <v>0.5338000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83812</v>
+        <v>0.824669</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569434</v>
+        <v>0.554166</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8822680000000001</v>
+        <v>0.842849</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0797</v>
+        <v>1.04132</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555153</v>
+        <v>0.516914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.831658</v>
+        <v>0.8137</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.549855</v>
+        <v>0.539422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.861896</v>
+        <v>0.830016</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06346</v>
+        <v>1.04909</v>
       </c>
       <c r="E30" t="n">
-        <v>0.524822</v>
+        <v>0.505321</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310340000000001</v>
+        <v>0.804306</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533342</v>
+        <v>0.526627</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846967</v>
+        <v>0.824995</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>1.02725</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4989</v>
+        <v>0.490323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.816196</v>
+        <v>0.800583</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517628</v>
+        <v>0.5105730000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839171</v>
+        <v>0.815571</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04283</v>
+        <v>1.02002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.482435</v>
+        <v>0.475062</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8086</v>
+        <v>0.794648</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502485</v>
+        <v>0.49726</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.810007</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02947</v>
+        <v>1.01475</v>
       </c>
       <c r="E33" t="n">
-        <v>0.477698</v>
+        <v>0.459639</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818264</v>
+        <v>0.789587</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5064650000000001</v>
+        <v>0.483207</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822991</v>
+        <v>0.813719</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0304</v>
+        <v>1.01462</v>
       </c>
       <c r="E34" t="n">
-        <v>0.474283</v>
+        <v>0.447627</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799172</v>
+        <v>0.782047</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494042</v>
+        <v>0.469748</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845793</v>
+        <v>0.841696</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33836</v>
+        <v>1.3274</v>
       </c>
       <c r="E35" t="n">
-        <v>0.447169</v>
+        <v>0.437858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.786601</v>
+        <v>0.7803290000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462297</v>
+        <v>0.462214</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812798</v>
+        <v>0.794988</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31541</v>
+        <v>1.26522</v>
       </c>
       <c r="E36" t="n">
-        <v>0.435134</v>
+        <v>0.429356</v>
       </c>
       <c r="F36" t="n">
-        <v>0.784529</v>
+        <v>0.8053900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453812</v>
+        <v>0.450131</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810837</v>
+        <v>0.7894910000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23223</v>
+        <v>1.22938</v>
       </c>
       <c r="E37" t="n">
-        <v>0.694879</v>
+        <v>0.683476</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96505</v>
+        <v>0.9546249999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.717845</v>
+        <v>0.708016</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01755</v>
+        <v>0.986158</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25114</v>
+        <v>1.20692</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672512</v>
+        <v>0.663724</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958387</v>
+        <v>0.948856</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.698846</v>
+        <v>0.687002</v>
       </c>
       <c r="C39" t="n">
-        <v>0.98744</v>
+        <v>0.974705</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18862</v>
+        <v>1.19115</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.643277</v>
       </c>
       <c r="F39" t="n">
-        <v>0.940918</v>
+        <v>0.941793</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668726</v>
+        <v>0.66748</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973736</v>
+        <v>0.960633</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19747</v>
+        <v>1.18135</v>
       </c>
       <c r="E40" t="n">
-        <v>0.628024</v>
+        <v>0.624594</v>
       </c>
       <c r="F40" t="n">
-        <v>0.932982</v>
+        <v>0.927799</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589390000000001</v>
+        <v>0.65174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.964974</v>
+        <v>0.970353</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17228</v>
+        <v>1.27082</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608797</v>
+        <v>0.62568</v>
       </c>
       <c r="F41" t="n">
-        <v>0.92378</v>
+        <v>0.91677</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663308</v>
+        <v>0.644454</v>
       </c>
       <c r="C42" t="n">
-        <v>0.971606</v>
+        <v>0.940035</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16154</v>
+        <v>1.16498</v>
       </c>
       <c r="E42" t="n">
-        <v>0.594526</v>
+        <v>0.581874</v>
       </c>
       <c r="F42" t="n">
-        <v>0.932104</v>
+        <v>0.897037</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.637359</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96251</v>
+        <v>0.928455</v>
       </c>
       <c r="D43" t="n">
-        <v>1.19951</v>
+        <v>1.146</v>
       </c>
       <c r="E43" t="n">
-        <v>0.584045</v>
+        <v>0.562989</v>
       </c>
       <c r="F43" t="n">
-        <v>0.914353</v>
+        <v>0.89347</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622929</v>
+        <v>0.590677</v>
       </c>
       <c r="C44" t="n">
-        <v>0.934897</v>
+        <v>0.91284</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1691</v>
+        <v>1.1347</v>
       </c>
       <c r="E44" t="n">
-        <v>0.559534</v>
+        <v>0.548034</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916623</v>
+        <v>0.88197</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584052</v>
+        <v>0.572116</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937145</v>
+        <v>0.9002329999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1278</v>
+        <v>1.14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534959</v>
+        <v>0.537385</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877298</v>
+        <v>0.874586</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562038</v>
+        <v>0.558858</v>
       </c>
       <c r="C46" t="n">
-        <v>0.901967</v>
+        <v>0.892567</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13678</v>
+        <v>1.11338</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522519</v>
+        <v>0.513536</v>
       </c>
       <c r="F46" t="n">
-        <v>0.871634</v>
+        <v>0.859293</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.547866</v>
+        <v>0.541596</v>
       </c>
       <c r="C47" t="n">
-        <v>0.896132</v>
+        <v>0.890663</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11638</v>
+        <v>1.1168</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.499822</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8663380000000001</v>
+        <v>0.8519139999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.533868</v>
+        <v>0.528226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.952105</v>
+        <v>0.875013</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14935</v>
+        <v>1.11107</v>
       </c>
       <c r="E48" t="n">
-        <v>0.492952</v>
+        <v>0.487225</v>
       </c>
       <c r="F48" t="n">
-        <v>0.853775</v>
+        <v>0.850873</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550705</v>
+        <v>0.517471</v>
       </c>
       <c r="C49" t="n">
-        <v>0.881059</v>
+        <v>0.865283</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14003</v>
+        <v>1.10694</v>
       </c>
       <c r="E49" t="n">
-        <v>0.492992</v>
+        <v>0.49701</v>
       </c>
       <c r="F49" t="n">
-        <v>0.848229</v>
+        <v>0.846458</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510656</v>
+        <v>0.531841</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8820249999999999</v>
+        <v>0.88391</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55129</v>
+        <v>1.53929</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473988</v>
+        <v>0.480776</v>
       </c>
       <c r="F50" t="n">
-        <v>0.858786</v>
+        <v>0.837023</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.496193</v>
+        <v>0.498098</v>
       </c>
       <c r="C51" t="n">
-        <v>0.873503</v>
+        <v>0.861594</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52641</v>
+        <v>1.49599</v>
       </c>
       <c r="E51" t="n">
-        <v>0.738909</v>
+        <v>0.728091</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12309</v>
+        <v>1.11388</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502169</v>
+        <v>0.487518</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8796349999999999</v>
+        <v>0.859069</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50367</v>
+        <v>1.4805</v>
       </c>
       <c r="E52" t="n">
-        <v>0.755392</v>
+        <v>0.724762</v>
       </c>
       <c r="F52" t="n">
-        <v>1.14047</v>
+        <v>1.10953</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.750716</v>
+        <v>0.743314</v>
       </c>
       <c r="C53" t="n">
-        <v>1.16143</v>
+        <v>1.15585</v>
       </c>
       <c r="D53" t="n">
-        <v>1.48263</v>
+        <v>1.45723</v>
       </c>
       <c r="E53" t="n">
-        <v>0.696551</v>
+        <v>0.692817</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09033</v>
+        <v>1.07311</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743347</v>
+        <v>0.722924</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14398</v>
+        <v>1.13617</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45998</v>
+        <v>1.4995</v>
       </c>
       <c r="E54" t="n">
-        <v>0.685972</v>
+        <v>0.69197</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05898</v>
+        <v>1.08243</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.728923</v>
+        <v>0.707663</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12406</v>
+        <v>1.12361</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43352</v>
+        <v>1.45998</v>
       </c>
       <c r="E55" t="n">
-        <v>0.661216</v>
+        <v>0.659325</v>
       </c>
       <c r="F55" t="n">
-        <v>1.10186</v>
+        <v>1.04273</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732407</v>
+        <v>0.686171</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10659</v>
+        <v>1.10117</v>
       </c>
       <c r="D56" t="n">
-        <v>1.47073</v>
+        <v>1.42403</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6419550000000001</v>
+        <v>0.642072</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04177</v>
+        <v>1.03659</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705487</v>
+        <v>0.673218</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09715</v>
+        <v>1.06721</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41985</v>
+        <v>1.3804</v>
       </c>
       <c r="E57" t="n">
-        <v>0.629614</v>
+        <v>0.631791</v>
       </c>
       <c r="F57" t="n">
-        <v>1.07522</v>
+        <v>1.02944</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662017</v>
+        <v>0.661</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08735</v>
+        <v>1.06318</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43967</v>
+        <v>1.37974</v>
       </c>
       <c r="E58" t="n">
-        <v>0.636605</v>
+        <v>0.604586</v>
       </c>
       <c r="F58" t="n">
-        <v>1.018</v>
+        <v>1.01067</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651039</v>
+        <v>0.6537500000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11752</v>
+        <v>1.0664</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4007</v>
+        <v>1.39075</v>
       </c>
       <c r="E59" t="n">
-        <v>0.595773</v>
+        <v>0.597136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978939999999999</v>
+        <v>1.00403</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63121</v>
+        <v>0.630707</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04912</v>
+        <v>1.04505</v>
       </c>
       <c r="D60" t="n">
-        <v>1.40098</v>
+        <v>1.36472</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582719</v>
+        <v>0.578014</v>
       </c>
       <c r="F60" t="n">
-        <v>0.986106</v>
+        <v>1.01082</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622231</v>
+        <v>0.615476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04913</v>
+        <v>1.03069</v>
       </c>
       <c r="D61" t="n">
-        <v>1.37008</v>
+        <v>1.35819</v>
       </c>
       <c r="E61" t="n">
-        <v>0.575585</v>
+        <v>0.5668840000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.96883</v>
+        <v>0.976122</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616518</v>
+        <v>0.624561</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04271</v>
+        <v>1.01887</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36427</v>
+        <v>1.36256</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5587839999999999</v>
+        <v>0.552894</v>
       </c>
       <c r="F62" t="n">
-        <v>0.979374</v>
+        <v>0.985928</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.592683</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02824</v>
+        <v>1.0091</v>
       </c>
       <c r="D63" t="n">
-        <v>1.39039</v>
+        <v>1.36616</v>
       </c>
       <c r="E63" t="n">
-        <v>0.55386</v>
+        <v>0.545001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.964228</v>
+        <v>0.956131</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588021</v>
+        <v>0.580201</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00914</v>
+        <v>0.993761</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18386</v>
+        <v>2.22815</v>
       </c>
       <c r="E64" t="n">
-        <v>0.539924</v>
+        <v>0.537946</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9560419999999999</v>
+        <v>0.952396</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600253</v>
+        <v>0.569101</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00606</v>
+        <v>0.978088</v>
       </c>
       <c r="D65" t="n">
-        <v>2.17801</v>
+        <v>2.11552</v>
       </c>
       <c r="E65" t="n">
-        <v>0.545217</v>
+        <v>0.526954</v>
       </c>
       <c r="F65" t="n">
-        <v>0.94783</v>
+        <v>0.939506</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.566568</v>
+        <v>0.560941</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985808</v>
+        <v>0.987012</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11281</v>
+        <v>2.09757</v>
       </c>
       <c r="E66" t="n">
-        <v>0.81885</v>
+        <v>0.828665</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44796</v>
+        <v>1.43487</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.855712</v>
+        <v>0.845584</v>
       </c>
       <c r="C67" t="n">
-        <v>1.61993</v>
+        <v>1.60939</v>
       </c>
       <c r="D67" t="n">
-        <v>2.07961</v>
+        <v>2.11697</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7895</v>
+        <v>0.7774489999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>1.44435</v>
+        <v>1.4163</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.826321</v>
+        <v>0.819481</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53753</v>
+        <v>1.51877</v>
       </c>
       <c r="D68" t="n">
-        <v>2.01927</v>
+        <v>2.05503</v>
       </c>
       <c r="E68" t="n">
-        <v>0.761539</v>
+        <v>0.753619</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3906</v>
+        <v>1.378</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820931</v>
+        <v>0.803119</v>
       </c>
       <c r="C69" t="n">
-        <v>1.50333</v>
+        <v>1.49928</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98744</v>
+        <v>1.98285</v>
       </c>
       <c r="E69" t="n">
-        <v>0.750139</v>
+        <v>0.737405</v>
       </c>
       <c r="F69" t="n">
-        <v>1.45568</v>
+        <v>1.35884</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785488</v>
+        <v>0.818097</v>
       </c>
       <c r="C70" t="n">
-        <v>1.48528</v>
+        <v>1.46168</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95407</v>
+        <v>1.98657</v>
       </c>
       <c r="E70" t="n">
-        <v>0.755919</v>
+        <v>0.719013</v>
       </c>
       <c r="F70" t="n">
-        <v>1.36953</v>
+        <v>1.33552</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767582</v>
+        <v>0.768977</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47593</v>
+        <v>1.44234</v>
       </c>
       <c r="D71" t="n">
-        <v>1.89446</v>
+        <v>2.0281</v>
       </c>
       <c r="E71" t="n">
-        <v>0.725338</v>
+        <v>0.730444</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39244</v>
+        <v>1.3486</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.754706</v>
+        <v>0.773957</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42182</v>
+        <v>1.41591</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90082</v>
+        <v>1.95441</v>
       </c>
       <c r="E72" t="n">
-        <v>0.711277</v>
+        <v>0.690806</v>
       </c>
       <c r="F72" t="n">
-        <v>1.29699</v>
+        <v>1.30429</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739498</v>
+        <v>0.756572</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3781</v>
+        <v>1.39428</v>
       </c>
       <c r="D73" t="n">
-        <v>1.88725</v>
+        <v>1.92806</v>
       </c>
       <c r="E73" t="n">
-        <v>0.69472</v>
+        <v>0.672394</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28711</v>
+        <v>1.26741</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.719116</v>
+        <v>0.716773</v>
       </c>
       <c r="C74" t="n">
-        <v>1.37769</v>
+        <v>1.39114</v>
       </c>
       <c r="D74" t="n">
-        <v>1.94243</v>
+        <v>1.96071</v>
       </c>
       <c r="E74" t="n">
-        <v>0.709723</v>
+        <v>0.690755</v>
       </c>
       <c r="F74" t="n">
-        <v>1.24653</v>
+        <v>1.26779</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.709191</v>
+        <v>0.707072</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3371</v>
+        <v>1.37942</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89602</v>
+        <v>1.94872</v>
       </c>
       <c r="E75" t="n">
-        <v>0.650394</v>
+        <v>0.641804</v>
       </c>
       <c r="F75" t="n">
-        <v>1.23326</v>
+        <v>1.29015</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723523</v>
+        <v>0.694798</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33242</v>
+        <v>1.34758</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90883</v>
+        <v>1.91572</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633501</v>
+        <v>0.633862</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21796</v>
+        <v>1.23055</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678826</v>
+        <v>0.677575</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28752</v>
+        <v>1.30014</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83466</v>
+        <v>1.89903</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625237</v>
+        <v>0.620634</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20719</v>
+        <v>1.19412</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677021</v>
+        <v>0.662891</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29882</v>
+        <v>1.28807</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0562</v>
+        <v>3.08801</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618597</v>
+        <v>0.614908</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18868</v>
+        <v>1.17062</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6711279999999999</v>
+        <v>0.651935</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27231</v>
+        <v>1.26194</v>
       </c>
       <c r="D79" t="n">
-        <v>2.94618</v>
+        <v>3.07228</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611275</v>
+        <v>0.597861</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17615</v>
+        <v>1.20631</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653607</v>
+        <v>0.663161</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25454</v>
+        <v>1.27178</v>
       </c>
       <c r="D80" t="n">
-        <v>2.90944</v>
+        <v>2.94674</v>
       </c>
       <c r="E80" t="n">
-        <v>0.915427</v>
+        <v>0.897523</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98089</v>
+        <v>1.98617</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.968063</v>
+        <v>0.944265</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14213</v>
+        <v>2.14908</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00928</v>
+        <v>2.8949</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8984839999999999</v>
+        <v>0.880648</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94384</v>
+        <v>1.93036</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943176</v>
+        <v>0.932015</v>
       </c>
       <c r="C82" t="n">
-        <v>2.07147</v>
+        <v>2.10777</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91159</v>
+        <v>2.87737</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.856015</v>
       </c>
       <c r="F82" t="n">
-        <v>1.90613</v>
+        <v>1.91216</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.965661</v>
+        <v>0.926404</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04059</v>
+        <v>2.08469</v>
       </c>
       <c r="D83" t="n">
-        <v>2.7523</v>
+        <v>2.8393</v>
       </c>
       <c r="E83" t="n">
-        <v>0.852823</v>
+        <v>0.838817</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85847</v>
+        <v>1.8389</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.912673</v>
+        <v>0.89592</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96099</v>
+        <v>1.96711</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75311</v>
+        <v>2.75643</v>
       </c>
       <c r="E84" t="n">
-        <v>0.828427</v>
+        <v>0.831748</v>
       </c>
       <c r="F84" t="n">
-        <v>1.82706</v>
+        <v>1.81698</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914069</v>
+        <v>0.867939</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96364</v>
+        <v>1.93658</v>
       </c>
       <c r="D85" t="n">
-        <v>2.66794</v>
+        <v>2.69674</v>
       </c>
       <c r="E85" t="n">
-        <v>0.812127</v>
+        <v>0.805606</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75396</v>
+        <v>1.75961</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873924</v>
+        <v>0.888303</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89425</v>
+        <v>1.92548</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7381</v>
+        <v>2.75032</v>
       </c>
       <c r="E86" t="n">
-        <v>0.792926</v>
+        <v>0.785663</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73693</v>
+        <v>1.71207</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851912</v>
+        <v>0.835442</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90181</v>
+        <v>1.85454</v>
       </c>
       <c r="D87" t="n">
-        <v>2.60488</v>
+        <v>2.64078</v>
       </c>
       <c r="E87" t="n">
-        <v>0.774383</v>
+        <v>0.766651</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67721</v>
+        <v>1.67645</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.839299</v>
+        <v>0.828573</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81521</v>
+        <v>1.79558</v>
       </c>
       <c r="D88" t="n">
-        <v>2.5833</v>
+        <v>2.62869</v>
       </c>
       <c r="E88" t="n">
-        <v>0.776703</v>
+        <v>0.749869</v>
       </c>
       <c r="F88" t="n">
-        <v>1.68596</v>
+        <v>1.70204</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833472</v>
+        <v>0.812099</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79135</v>
+        <v>1.78951</v>
       </c>
       <c r="D89" t="n">
-        <v>2.61921</v>
+        <v>2.57221</v>
       </c>
       <c r="E89" t="n">
-        <v>0.74326</v>
+        <v>0.735961</v>
       </c>
       <c r="F89" t="n">
-        <v>1.60696</v>
+        <v>1.62192</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813693</v>
+        <v>0.7905990000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76818</v>
+        <v>1.73356</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60431</v>
+        <v>2.54259</v>
       </c>
       <c r="E90" t="n">
-        <v>0.73038</v>
+        <v>0.72282</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59092</v>
+        <v>1.59699</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795088</v>
+        <v>0.78208</v>
       </c>
       <c r="C91" t="n">
-        <v>1.72242</v>
+        <v>1.71619</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59823</v>
+        <v>2.53653</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733428</v>
+        <v>0.70911</v>
       </c>
       <c r="F91" t="n">
-        <v>1.57273</v>
+        <v>1.56145</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.768605</v>
+        <v>0.783865</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67462</v>
+        <v>1.67632</v>
       </c>
       <c r="D92" t="n">
-        <v>3.57596</v>
+        <v>3.61463</v>
       </c>
       <c r="E92" t="n">
-        <v>0.71538</v>
+        <v>0.7179</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52747</v>
+        <v>1.54426</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769192</v>
+        <v>0.777106</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65008</v>
+        <v>1.66516</v>
       </c>
       <c r="D93" t="n">
-        <v>3.53769</v>
+        <v>3.5532</v>
       </c>
       <c r="E93" t="n">
-        <v>0.726693</v>
+        <v>0.688644</v>
       </c>
       <c r="F93" t="n">
-        <v>1.54553</v>
+        <v>1.5093</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771715</v>
+        <v>0.750692</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62698</v>
+        <v>1.624</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5332</v>
+        <v>3.49171</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02169</v>
+        <v>1.01539</v>
       </c>
       <c r="F94" t="n">
-        <v>2.50487</v>
+        <v>2.5059</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08418</v>
+        <v>1.05111</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74023</v>
+        <v>2.67228</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5124</v>
+        <v>3.51808</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00679</v>
+        <v>1.01548</v>
       </c>
       <c r="F95" t="n">
-        <v>2.48916</v>
+        <v>2.46741</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06575</v>
+        <v>1.04403</v>
       </c>
       <c r="C96" t="n">
-        <v>2.74851</v>
+        <v>2.64391</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31612</v>
+        <v>3.38197</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989348</v>
+        <v>0.9793230000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>2.35096</v>
+        <v>2.39026</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04285</v>
+        <v>1.02381</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55837</v>
+        <v>2.54105</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32588</v>
+        <v>3.30323</v>
       </c>
       <c r="E97" t="n">
-        <v>0.975986</v>
+        <v>0.9370889999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37816</v>
+        <v>2.328</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00602</v>
+        <v>1.0106</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49865</v>
+        <v>2.52076</v>
       </c>
       <c r="D98" t="n">
-        <v>3.39154</v>
+        <v>3.28314</v>
       </c>
       <c r="E98" t="n">
-        <v>0.931532</v>
+        <v>0.91453</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30082</v>
+        <v>2.31311</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01178</v>
+        <v>0.983891</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46171</v>
+        <v>2.42863</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28686</v>
+        <v>3.19051</v>
       </c>
       <c r="E99" t="n">
-        <v>0.928202</v>
+        <v>0.918736</v>
       </c>
       <c r="F99" t="n">
-        <v>2.20199</v>
+        <v>2.21377</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00205</v>
+        <v>0.988249</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40753</v>
+        <v>2.38124</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14925</v>
+        <v>3.1834</v>
       </c>
       <c r="E100" t="n">
-        <v>0.896126</v>
+        <v>0.905369</v>
       </c>
       <c r="F100" t="n">
-        <v>2.18158</v>
+        <v>2.17772</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971307</v>
+        <v>0.962693</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33332</v>
+        <v>2.31028</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27451</v>
+        <v>3.09386</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.8819630000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11107</v>
+        <v>2.13013</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953824</v>
+        <v>0.949757</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29159</v>
+        <v>2.28099</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1488</v>
+        <v>3.0779</v>
       </c>
       <c r="E102" t="n">
-        <v>0.851868</v>
+        <v>0.8707</v>
       </c>
       <c r="F102" t="n">
-        <v>2.06372</v>
+        <v>2.07776</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932949</v>
+        <v>0.955672</v>
       </c>
       <c r="C103" t="n">
-        <v>2.21041</v>
+        <v>2.23162</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05602</v>
+        <v>3.07015</v>
       </c>
       <c r="E103" t="n">
-        <v>0.867088</v>
+        <v>0.859486</v>
       </c>
       <c r="F103" t="n">
-        <v>2.01796</v>
+        <v>2.04225</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9299809999999999</v>
+        <v>0.924099</v>
       </c>
       <c r="C104" t="n">
-        <v>2.161</v>
+        <v>2.18923</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06156</v>
+        <v>3.04814</v>
       </c>
       <c r="E104" t="n">
-        <v>0.843205</v>
+        <v>0.839547</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9756</v>
+        <v>2.00463</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.93072</v>
+        <v>0.896338</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14861</v>
+        <v>2.16854</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05091</v>
+        <v>3.05905</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841862</v>
+        <v>0.808906</v>
       </c>
       <c r="F105" t="n">
-        <v>1.95348</v>
+        <v>1.9693</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90806</v>
+        <v>0.891231</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08289</v>
+        <v>2.1206</v>
       </c>
       <c r="D106" t="n">
-        <v>3.06286</v>
+        <v>3.02042</v>
       </c>
       <c r="E106" t="n">
-        <v>0.809347</v>
+        <v>0.815209</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95531</v>
+        <v>1.93419</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923753</v>
+        <v>0.9348379999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13231</v>
+        <v>2.11333</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25392</v>
+        <v>4.15108</v>
       </c>
       <c r="E107" t="n">
-        <v>0.823731</v>
+        <v>0.803679</v>
       </c>
       <c r="F107" t="n">
-        <v>1.94767</v>
+        <v>1.89439</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.900423</v>
+        <v>0.875734</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09289</v>
+        <v>2.05127</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10799</v>
+        <v>4.05507</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14817</v>
+        <v>1.14474</v>
       </c>
       <c r="F108" t="n">
-        <v>3.04966</v>
+        <v>2.98789</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872599</v>
+        <v>0.876713</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05056</v>
+        <v>2.05701</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01272</v>
+        <v>4.02624</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12126</v>
+        <v>1.11882</v>
       </c>
       <c r="F109" t="n">
-        <v>2.96604</v>
+        <v>2.93109</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19757</v>
+        <v>1.20066</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17492</v>
+        <v>3.14276</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97299</v>
+        <v>3.95331</v>
       </c>
       <c r="E110" t="n">
-        <v>1.08534</v>
+        <v>1.06944</v>
       </c>
       <c r="F110" t="n">
-        <v>2.869</v>
+        <v>2.8691</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16604</v>
+        <v>1.18886</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13645</v>
+        <v>3.03464</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95988</v>
+        <v>3.87408</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12159</v>
+        <v>1.05128</v>
       </c>
       <c r="F111" t="n">
-        <v>2.83422</v>
+        <v>2.76885</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14753</v>
+        <v>1.15492</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03503</v>
+        <v>2.98715</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93714</v>
+        <v>3.82119</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11134</v>
+        <v>1.08421</v>
       </c>
       <c r="F112" t="n">
-        <v>2.82322</v>
+        <v>2.70925</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15598</v>
+        <v>1.14833</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00706</v>
+        <v>2.95066</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81217</v>
+        <v>3.8702</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06255</v>
+        <v>1.07367</v>
       </c>
       <c r="F113" t="n">
-        <v>2.72726</v>
+        <v>2.70746</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14981</v>
+        <v>1.1642</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97442</v>
+        <v>2.87011</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83608</v>
+        <v>3.75391</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07588</v>
+        <v>1.04002</v>
       </c>
       <c r="F114" t="n">
-        <v>2.68609</v>
+        <v>2.62198</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13566</v>
+        <v>1.14417</v>
       </c>
       <c r="C115" t="n">
-        <v>2.91551</v>
+        <v>2.81486</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79197</v>
+        <v>3.6815</v>
       </c>
       <c r="E115" t="n">
-        <v>1.05717</v>
+        <v>1.02877</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60336</v>
+        <v>2.56285</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14858</v>
+        <v>1.11318</v>
       </c>
       <c r="C116" t="n">
-        <v>2.81258</v>
+        <v>2.79382</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70405</v>
+        <v>3.62575</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02575</v>
+        <v>1.02137</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54748</v>
+        <v>2.53398</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1213</v>
+        <v>1.10262</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78248</v>
+        <v>2.68898</v>
       </c>
       <c r="D117" t="n">
-        <v>3.69834</v>
+        <v>3.60456</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00789</v>
+        <v>1.0028</v>
       </c>
       <c r="F117" t="n">
-        <v>2.47251</v>
+        <v>2.45646</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09157</v>
+        <v>1.11708</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76407</v>
+        <v>2.6872</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6886</v>
+        <v>3.59499</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00685</v>
+        <v>0.9792110000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43947</v>
+        <v>2.39916</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10224</v>
+        <v>1.11581</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68266</v>
+        <v>2.68621</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64735</v>
+        <v>3.61385</v>
       </c>
       <c r="E119" t="n">
-        <v>1.00353</v>
+        <v>0.986904</v>
       </c>
       <c r="F119" t="n">
-        <v>2.40417</v>
+        <v>2.35916</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08016</v>
+        <v>1.06859</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59859</v>
+        <v>2.56323</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60918</v>
+        <v>3.5603</v>
       </c>
       <c r="E120" t="n">
-        <v>0.984764</v>
+        <v>0.978695</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36724</v>
+        <v>2.32736</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08303</v>
+        <v>1.09272</v>
       </c>
       <c r="C121" t="n">
-        <v>2.55278</v>
+        <v>2.57785</v>
       </c>
       <c r="D121" t="n">
-        <v>4.93811</v>
+        <v>4.90879</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9731919999999999</v>
+        <v>0.968216</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33548</v>
+        <v>2.3195</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07829</v>
+        <v>1.06982</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55719</v>
+        <v>2.51555</v>
       </c>
       <c r="D122" t="n">
-        <v>4.80853</v>
+        <v>4.83893</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958604</v>
+        <v>0.963701</v>
       </c>
       <c r="F122" t="n">
-        <v>2.33322</v>
+        <v>2.27359</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0742</v>
+        <v>1.06075</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52484</v>
+        <v>2.50908</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7414</v>
+        <v>4.76747</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29905</v>
+        <v>1.29608</v>
       </c>
       <c r="F123" t="n">
-        <v>3.51166</v>
+        <v>3.41934</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37985</v>
+        <v>1.39666</v>
       </c>
       <c r="C124" t="n">
-        <v>3.75171</v>
+        <v>3.71846</v>
       </c>
       <c r="D124" t="n">
-        <v>4.71081</v>
+        <v>4.63296</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3021</v>
+        <v>1.2821</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38121</v>
+        <v>3.37635</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38717</v>
+        <v>1.36335</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63345</v>
+        <v>3.6453</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56309</v>
+        <v>4.53189</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28362</v>
+        <v>1.23589</v>
       </c>
       <c r="F125" t="n">
-        <v>3.29702</v>
+        <v>3.25493</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38422</v>
+        <v>1.35042</v>
       </c>
       <c r="C126" t="n">
-        <v>3.63492</v>
+        <v>3.55981</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55072</v>
+        <v>4.44303</v>
       </c>
       <c r="E126" t="n">
-        <v>1.28218</v>
+        <v>1.25876</v>
       </c>
       <c r="F126" t="n">
-        <v>3.26696</v>
+        <v>3.2486</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39177</v>
+        <v>1.3515</v>
       </c>
       <c r="C127" t="n">
-        <v>3.52019</v>
+        <v>3.47411</v>
       </c>
       <c r="D127" t="n">
-        <v>4.47824</v>
+        <v>4.40117</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2695</v>
+        <v>1.25008</v>
       </c>
       <c r="F127" t="n">
-        <v>3.18236</v>
+        <v>3.12623</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34421</v>
+        <v>1.37389</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41867</v>
+        <v>3.44485</v>
       </c>
       <c r="D128" t="n">
-        <v>4.41536</v>
+        <v>4.33355</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27759</v>
+        <v>1.25914</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11321</v>
+        <v>3.08668</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35125</v>
+        <v>1.35967</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38055</v>
+        <v>3.36293</v>
       </c>
       <c r="D129" t="n">
-        <v>4.35577</v>
+        <v>4.31839</v>
       </c>
       <c r="E129" t="n">
-        <v>1.23558</v>
+        <v>1.25287</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04803</v>
+        <v>3.01762</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36445</v>
+        <v>1.36304</v>
       </c>
       <c r="C130" t="n">
-        <v>3.30338</v>
+        <v>3.28407</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2794</v>
+        <v>4.26079</v>
       </c>
       <c r="E130" t="n">
-        <v>1.241</v>
+        <v>1.24215</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00293</v>
+        <v>2.954</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3557</v>
+        <v>1.34929</v>
       </c>
       <c r="C131" t="n">
-        <v>3.30477</v>
+        <v>3.22109</v>
       </c>
       <c r="D131" t="n">
-        <v>4.25215</v>
+        <v>4.21642</v>
       </c>
       <c r="E131" t="n">
-        <v>1.256</v>
+        <v>1.22871</v>
       </c>
       <c r="F131" t="n">
-        <v>2.98108</v>
+        <v>2.88909</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35459</v>
+        <v>1.33516</v>
       </c>
       <c r="C132" t="n">
-        <v>3.21955</v>
+        <v>3.16522</v>
       </c>
       <c r="D132" t="n">
-        <v>4.22341</v>
+        <v>4.19014</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24739</v>
+        <v>1.21501</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88349</v>
+        <v>2.88013</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32891</v>
+        <v>1.34098</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15426</v>
+        <v>3.10548</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2413</v>
+        <v>4.16368</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23362</v>
+        <v>1.22484</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84003</v>
+        <v>2.81374</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31717</v>
+        <v>1.3321</v>
       </c>
       <c r="C134" t="n">
-        <v>3.13424</v>
+        <v>3.09838</v>
       </c>
       <c r="D134" t="n">
-        <v>4.18816</v>
+        <v>4.10579</v>
       </c>
       <c r="E134" t="n">
-        <v>1.22683</v>
+        <v>1.19685</v>
       </c>
       <c r="F134" t="n">
-        <v>2.81872</v>
+        <v>2.77852</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39006</v>
+        <v>1.32662</v>
       </c>
       <c r="C135" t="n">
-        <v>3.08058</v>
+        <v>3.04111</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67468</v>
+        <v>5.61856</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25035</v>
+        <v>1.20782</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75636</v>
+        <v>2.75597</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32544</v>
+        <v>1.32931</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06988</v>
+        <v>3.01962</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60148</v>
+        <v>5.48568</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21942</v>
+        <v>1.19988</v>
       </c>
       <c r="F136" t="n">
-        <v>2.72918</v>
+        <v>2.68432</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35621</v>
+        <v>1.32904</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00577</v>
+        <v>2.97044</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44151</v>
+        <v>5.41397</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57894</v>
+        <v>1.54305</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00985</v>
+        <v>3.97856</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.67963</v>
+        <v>1.66637</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34988</v>
+        <v>4.32123</v>
       </c>
       <c r="D138" t="n">
-        <v>5.3562</v>
+        <v>5.32658</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57405</v>
+        <v>1.53998</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89679</v>
+        <v>3.89686</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64808</v>
+        <v>1.65664</v>
       </c>
       <c r="C139" t="n">
-        <v>4.25406</v>
+        <v>4.19984</v>
       </c>
       <c r="D139" t="n">
-        <v>5.26764</v>
+        <v>5.22478</v>
       </c>
       <c r="E139" t="n">
-        <v>1.55706</v>
+        <v>1.53686</v>
       </c>
       <c r="F139" t="n">
-        <v>3.83266</v>
+        <v>3.79318</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.67247</v>
+        <v>1.64329</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18962</v>
+        <v>4.10535</v>
       </c>
       <c r="D140" t="n">
-        <v>5.16642</v>
+        <v>5.12371</v>
       </c>
       <c r="E140" t="n">
-        <v>1.53212</v>
+        <v>1.49229</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75824</v>
+        <v>3.69533</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63474</v>
+        <v>1.65413</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09438</v>
+        <v>4.06177</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06514</v>
+        <v>5.04095</v>
       </c>
       <c r="E141" t="n">
-        <v>1.53172</v>
+        <v>1.514</v>
       </c>
       <c r="F141" t="n">
-        <v>3.63691</v>
+        <v>3.61111</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65906</v>
+        <v>1.63034</v>
       </c>
       <c r="C142" t="n">
-        <v>3.98981</v>
+        <v>3.97944</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0716</v>
+        <v>4.97802</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53279</v>
+        <v>1.50425</v>
       </c>
       <c r="F142" t="n">
-        <v>3.60441</v>
+        <v>3.57519</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64625</v>
+        <v>1.63041</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92156</v>
+        <v>3.88472</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91479</v>
+        <v>4.91574</v>
       </c>
       <c r="E143" t="n">
-        <v>1.52123</v>
+        <v>1.49654</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49577</v>
+        <v>3.50287</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.597712</v>
+        <v>0.569459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.807233</v>
+        <v>0.813365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.987032</v>
+        <v>0.990364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.323981</v>
+        <v>0.326603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.794685</v>
+        <v>0.786924</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.369492</v>
+        <v>0.360405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.829206</v>
+        <v>0.798001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.00291</v>
+        <v>0.985333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.314371</v>
+        <v>0.310575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.792013</v>
+        <v>0.756785</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.333993</v>
+        <v>0.321876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.811951</v>
+        <v>0.773871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9683079999999999</v>
+        <v>0.942233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.306414</v>
+        <v>0.302949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763162</v>
+        <v>0.759198</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318936</v>
+        <v>0.363718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.791699</v>
+        <v>0.799884</v>
       </c>
       <c r="D5" t="n">
-        <v>0.972344</v>
+        <v>0.9787169999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.293128</v>
+        <v>0.311105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7442</v>
+        <v>0.772772</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313352</v>
+        <v>0.325501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.760015</v>
+        <v>0.793158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.935921</v>
+        <v>0.964269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.311648</v>
+        <v>0.303351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.76467</v>
+        <v>0.78687</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.318443</v>
+        <v>0.328948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.781197</v>
+        <v>0.808879</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15824</v>
+        <v>1.19677</v>
       </c>
       <c r="E7" t="n">
-        <v>0.29191</v>
+        <v>0.304478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.764969</v>
+        <v>0.772567</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.315953</v>
+        <v>0.315674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.781043</v>
+        <v>0.775123</v>
       </c>
       <c r="D8" t="n">
-        <v>1.14252</v>
+        <v>1.15447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.294368</v>
+        <v>0.299721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.767577</v>
+        <v>0.7799970000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.315445</v>
+        <v>0.313328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.776579</v>
+        <v>0.777335</v>
       </c>
       <c r="D9" t="n">
-        <v>1.13513</v>
+        <v>1.11836</v>
       </c>
       <c r="E9" t="n">
-        <v>0.55847</v>
+        <v>0.560105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.879177</v>
+        <v>0.8621490000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.586278</v>
+        <v>0.559916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.901215</v>
+        <v>0.898088</v>
       </c>
       <c r="D10" t="n">
-        <v>1.10963</v>
+        <v>1.11227</v>
       </c>
       <c r="E10" t="n">
-        <v>0.529952</v>
+        <v>0.543462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.845301</v>
+        <v>0.867711</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537956</v>
+        <v>0.556188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.863232</v>
+        <v>0.893095</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06379</v>
+        <v>1.09393</v>
       </c>
       <c r="E11" t="n">
-        <v>0.507754</v>
+        <v>0.522535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.833939</v>
+        <v>0.869684</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.517636</v>
+        <v>0.54478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8564580000000001</v>
+        <v>0.879513</v>
       </c>
       <c r="D12" t="n">
-        <v>1.03868</v>
+        <v>1.07102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.488038</v>
+        <v>0.496631</v>
       </c>
       <c r="F12" t="n">
-        <v>0.815798</v>
+        <v>0.826878</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.505436</v>
+        <v>0.515458</v>
       </c>
       <c r="C13" t="n">
-        <v>0.864735</v>
+        <v>0.83751</v>
       </c>
       <c r="D13" t="n">
-        <v>1.02601</v>
+        <v>1.02591</v>
       </c>
       <c r="E13" t="n">
-        <v>0.469221</v>
+        <v>0.472238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.80576</v>
+        <v>0.8273509999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.487299</v>
+        <v>0.489711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.823928</v>
+        <v>0.828224</v>
       </c>
       <c r="D14" t="n">
-        <v>1.01304</v>
+        <v>1.01158</v>
       </c>
       <c r="E14" t="n">
-        <v>0.453737</v>
+        <v>0.460563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.840953</v>
+        <v>0.796331</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482132</v>
+        <v>0.477665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.812617</v>
+        <v>0.811667</v>
       </c>
       <c r="D15" t="n">
-        <v>1.00171</v>
+        <v>1.00288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.440584</v>
+        <v>0.445777</v>
       </c>
       <c r="F15" t="n">
-        <v>0.789512</v>
+        <v>0.78917</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464388</v>
+        <v>0.462445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.809992</v>
+        <v>0.806101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.998435</v>
+        <v>0.995486</v>
       </c>
       <c r="E16" t="n">
-        <v>0.433074</v>
+        <v>0.467577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.788459</v>
+        <v>0.787727</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.461097</v>
+        <v>0.452629</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8178299999999999</v>
+        <v>0.799134</v>
       </c>
       <c r="D17" t="n">
-        <v>1.00605</v>
+        <v>0.990909</v>
       </c>
       <c r="E17" t="n">
-        <v>0.433671</v>
+        <v>0.421723</v>
       </c>
       <c r="F17" t="n">
-        <v>0.776248</v>
+        <v>0.774714</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445276</v>
+        <v>0.439973</v>
       </c>
       <c r="C18" t="n">
-        <v>0.792086</v>
+        <v>0.791566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.98132</v>
+        <v>0.980526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.407471</v>
+        <v>0.411831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.767234</v>
+        <v>0.772846</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440955</v>
+        <v>0.435741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.786062</v>
+        <v>0.78405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.971401</v>
+        <v>0.972124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.410931</v>
+        <v>0.400685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.766243</v>
+        <v>0.7661</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.430155</v>
+        <v>0.419732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.774682</v>
+        <v>0.779675</v>
       </c>
       <c r="D20" t="n">
-        <v>0.959692</v>
+        <v>0.978648</v>
       </c>
       <c r="E20" t="n">
-        <v>0.394749</v>
+        <v>0.39573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.764035</v>
+        <v>0.76072</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.409798</v>
+        <v>0.416823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.775404</v>
+        <v>0.774352</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1714</v>
+        <v>1.17604</v>
       </c>
       <c r="E21" t="n">
-        <v>0.382109</v>
+        <v>0.382459</v>
       </c>
       <c r="F21" t="n">
-        <v>0.764441</v>
+        <v>0.766128</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.403973</v>
+        <v>0.40164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7664570000000001</v>
+        <v>0.773307</v>
       </c>
       <c r="D22" t="n">
-        <v>1.17263</v>
+        <v>1.14899</v>
       </c>
       <c r="E22" t="n">
-        <v>0.386323</v>
+        <v>0.378521</v>
       </c>
       <c r="F22" t="n">
-        <v>0.759795</v>
+        <v>0.75948</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.396771</v>
+        <v>0.395096</v>
       </c>
       <c r="C23" t="n">
-        <v>0.767401</v>
+        <v>0.762148</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13195</v>
+        <v>1.12216</v>
       </c>
       <c r="E23" t="n">
-        <v>0.633802</v>
+        <v>0.63283</v>
       </c>
       <c r="F23" t="n">
-        <v>0.873671</v>
+        <v>0.872614</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.649409</v>
+        <v>0.648433</v>
       </c>
       <c r="C24" t="n">
-        <v>0.890994</v>
+        <v>0.899925</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10953</v>
+        <v>1.12501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6096200000000001</v>
+        <v>0.6207240000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8592</v>
+        <v>0.868942</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.627763</v>
+        <v>0.632644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.885769</v>
+        <v>0.887277</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09845</v>
+        <v>1.1087</v>
       </c>
       <c r="E25" t="n">
-        <v>0.592028</v>
+        <v>0.595098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.849469</v>
+        <v>0.857669</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.610834</v>
+        <v>0.637106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.871564</v>
+        <v>0.880076</v>
       </c>
       <c r="D26" t="n">
-        <v>1.11427</v>
+        <v>1.0894</v>
       </c>
       <c r="E26" t="n">
-        <v>0.584306</v>
+        <v>0.575718</v>
       </c>
       <c r="F26" t="n">
-        <v>0.863268</v>
+        <v>0.841603</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606263</v>
+        <v>0.589915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.865846</v>
+        <v>0.864558</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08855</v>
+        <v>1.09229</v>
       </c>
       <c r="E27" t="n">
-        <v>0.556162</v>
+        <v>0.5604710000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.838361</v>
+        <v>0.837925</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.580449</v>
+        <v>0.57333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8553809999999999</v>
+        <v>0.848732</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06283</v>
+        <v>1.06365</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.541439</v>
       </c>
       <c r="F28" t="n">
-        <v>0.824669</v>
+        <v>0.826391</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.554166</v>
+        <v>0.55966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.842849</v>
+        <v>0.844642</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04132</v>
+        <v>1.0478</v>
       </c>
       <c r="E29" t="n">
-        <v>0.516914</v>
+        <v>0.5227540000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8137</v>
+        <v>0.818226</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.539422</v>
+        <v>0.544479</v>
       </c>
       <c r="C30" t="n">
-        <v>0.830016</v>
+        <v>0.8361150000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>1.04909</v>
+        <v>1.04376</v>
       </c>
       <c r="E30" t="n">
-        <v>0.505321</v>
+        <v>0.507234</v>
       </c>
       <c r="F30" t="n">
-        <v>0.804306</v>
+        <v>0.834506</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.526627</v>
+        <v>0.5359159999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.824995</v>
+        <v>0.825985</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02725</v>
+        <v>1.0321</v>
       </c>
       <c r="E31" t="n">
-        <v>0.490323</v>
+        <v>0.491402</v>
       </c>
       <c r="F31" t="n">
-        <v>0.800583</v>
+        <v>0.805294</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5105730000000001</v>
+        <v>0.507555</v>
       </c>
       <c r="C32" t="n">
-        <v>0.815571</v>
+        <v>0.812337</v>
       </c>
       <c r="D32" t="n">
-        <v>1.02002</v>
+        <v>1.02014</v>
       </c>
       <c r="E32" t="n">
-        <v>0.475062</v>
+        <v>0.474831</v>
       </c>
       <c r="F32" t="n">
-        <v>0.794648</v>
+        <v>0.79267</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.49726</v>
+        <v>0.493072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.810007</v>
+        <v>0.806436</v>
       </c>
       <c r="D33" t="n">
-        <v>1.01475</v>
+        <v>1.00983</v>
       </c>
       <c r="E33" t="n">
-        <v>0.459639</v>
+        <v>0.46197</v>
       </c>
       <c r="F33" t="n">
-        <v>0.789587</v>
+        <v>0.786177</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.483207</v>
+        <v>0.480602</v>
       </c>
       <c r="C34" t="n">
-        <v>0.813719</v>
+        <v>0.809893</v>
       </c>
       <c r="D34" t="n">
-        <v>1.01462</v>
+        <v>1.01357</v>
       </c>
       <c r="E34" t="n">
-        <v>0.447627</v>
+        <v>0.466727</v>
       </c>
       <c r="F34" t="n">
-        <v>0.782047</v>
+        <v>0.818852</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.469748</v>
+        <v>0.473265</v>
       </c>
       <c r="C35" t="n">
-        <v>0.841696</v>
+        <v>0.815747</v>
       </c>
       <c r="D35" t="n">
-        <v>1.3274</v>
+        <v>1.27752</v>
       </c>
       <c r="E35" t="n">
-        <v>0.437858</v>
+        <v>0.457181</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7803290000000001</v>
+        <v>0.799417</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462214</v>
+        <v>0.462648</v>
       </c>
       <c r="C36" t="n">
-        <v>0.794988</v>
+        <v>0.80104</v>
       </c>
       <c r="D36" t="n">
-        <v>1.26522</v>
+        <v>1.23536</v>
       </c>
       <c r="E36" t="n">
-        <v>0.429356</v>
+        <v>0.432261</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8053900000000001</v>
+        <v>0.782587</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.450131</v>
+        <v>0.454068</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7894910000000001</v>
+        <v>0.801661</v>
       </c>
       <c r="D37" t="n">
-        <v>1.22938</v>
+        <v>1.22422</v>
       </c>
       <c r="E37" t="n">
-        <v>0.683476</v>
+        <v>0.6948220000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9546249999999999</v>
+        <v>0.958372</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.708016</v>
+        <v>0.70364</v>
       </c>
       <c r="C38" t="n">
-        <v>0.986158</v>
+        <v>0.980218</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20692</v>
+        <v>1.19865</v>
       </c>
       <c r="E38" t="n">
-        <v>0.663724</v>
+        <v>0.662231</v>
       </c>
       <c r="F38" t="n">
-        <v>0.948856</v>
+        <v>0.941571</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.687002</v>
+        <v>0.681472</v>
       </c>
       <c r="C39" t="n">
-        <v>0.974705</v>
+        <v>0.970395</v>
       </c>
       <c r="D39" t="n">
-        <v>1.19115</v>
+        <v>1.17197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.643277</v>
+        <v>0.641624</v>
       </c>
       <c r="F39" t="n">
-        <v>0.941793</v>
+        <v>0.945809</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.66748</v>
+        <v>0.665355</v>
       </c>
       <c r="C40" t="n">
-        <v>0.960633</v>
+        <v>0.9684700000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>1.18135</v>
+        <v>1.18575</v>
       </c>
       <c r="E40" t="n">
-        <v>0.624594</v>
+        <v>0.628476</v>
       </c>
       <c r="F40" t="n">
-        <v>0.927799</v>
+        <v>0.936372</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.65174</v>
+        <v>0.644005</v>
       </c>
       <c r="C41" t="n">
-        <v>0.970353</v>
+        <v>0.955095</v>
       </c>
       <c r="D41" t="n">
-        <v>1.27082</v>
+        <v>1.17092</v>
       </c>
       <c r="E41" t="n">
-        <v>0.62568</v>
+        <v>0.6027979999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.91677</v>
+        <v>0.909241</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.644454</v>
+        <v>0.626818</v>
       </c>
       <c r="C42" t="n">
-        <v>0.940035</v>
+        <v>0.933351</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16498</v>
+        <v>1.16344</v>
       </c>
       <c r="E42" t="n">
-        <v>0.581874</v>
+        <v>0.58687</v>
       </c>
       <c r="F42" t="n">
-        <v>0.897037</v>
+        <v>0.908467</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.637359</v>
+        <v>0.612488</v>
       </c>
       <c r="C43" t="n">
-        <v>0.928455</v>
+        <v>0.927082</v>
       </c>
       <c r="D43" t="n">
-        <v>1.146</v>
+        <v>1.14371</v>
       </c>
       <c r="E43" t="n">
-        <v>0.562989</v>
+        <v>0.568227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.89347</v>
+        <v>0.925042</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.590677</v>
+        <v>0.589326</v>
       </c>
       <c r="C44" t="n">
-        <v>0.91284</v>
+        <v>0.9122440000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1347</v>
+        <v>1.13711</v>
       </c>
       <c r="E44" t="n">
-        <v>0.548034</v>
+        <v>0.551059</v>
       </c>
       <c r="F44" t="n">
-        <v>0.88197</v>
+        <v>0.887962</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.572116</v>
+        <v>0.574209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9002329999999999</v>
+        <v>0.911779</v>
       </c>
       <c r="D45" t="n">
-        <v>1.14</v>
+        <v>1.12634</v>
       </c>
       <c r="E45" t="n">
-        <v>0.537385</v>
+        <v>0.5353599999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.874586</v>
+        <v>0.89175</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.558858</v>
+        <v>0.560972</v>
       </c>
       <c r="C46" t="n">
-        <v>0.892567</v>
+        <v>0.9050550000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>1.11338</v>
+        <v>1.12672</v>
       </c>
       <c r="E46" t="n">
-        <v>0.513536</v>
+        <v>0.521863</v>
       </c>
       <c r="F46" t="n">
-        <v>0.859293</v>
+        <v>0.890448</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.541596</v>
+        <v>0.565364</v>
       </c>
       <c r="C47" t="n">
-        <v>0.890663</v>
+        <v>0.901446</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1168</v>
+        <v>1.1208</v>
       </c>
       <c r="E47" t="n">
-        <v>0.499822</v>
+        <v>0.506099</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8519139999999999</v>
+        <v>0.866457</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.528226</v>
+        <v>0.5328000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.875013</v>
+        <v>0.884143</v>
       </c>
       <c r="D48" t="n">
-        <v>1.11107</v>
+        <v>1.10867</v>
       </c>
       <c r="E48" t="n">
-        <v>0.487225</v>
+        <v>0.490842</v>
       </c>
       <c r="F48" t="n">
-        <v>0.850873</v>
+        <v>0.858129</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.517471</v>
+        <v>0.520143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.865283</v>
+        <v>0.881766</v>
       </c>
       <c r="D49" t="n">
-        <v>1.10694</v>
+        <v>1.11225</v>
       </c>
       <c r="E49" t="n">
-        <v>0.49701</v>
+        <v>0.480376</v>
       </c>
       <c r="F49" t="n">
-        <v>0.846458</v>
+        <v>0.858818</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.531841</v>
+        <v>0.512452</v>
       </c>
       <c r="C50" t="n">
-        <v>0.88391</v>
+        <v>0.871544</v>
       </c>
       <c r="D50" t="n">
-        <v>1.53929</v>
+        <v>1.54766</v>
       </c>
       <c r="E50" t="n">
-        <v>0.480776</v>
+        <v>0.468981</v>
       </c>
       <c r="F50" t="n">
-        <v>0.837023</v>
+        <v>0.843069</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.498098</v>
+        <v>0.497233</v>
       </c>
       <c r="C51" t="n">
-        <v>0.861594</v>
+        <v>0.862948</v>
       </c>
       <c r="D51" t="n">
-        <v>1.49599</v>
+        <v>1.51047</v>
       </c>
       <c r="E51" t="n">
-        <v>0.728091</v>
+        <v>0.7296049999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1.11388</v>
+        <v>1.11846</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.487518</v>
+        <v>0.489454</v>
       </c>
       <c r="C52" t="n">
-        <v>0.859069</v>
+        <v>0.871068</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4805</v>
+        <v>1.50526</v>
       </c>
       <c r="E52" t="n">
-        <v>0.724762</v>
+        <v>0.7121690000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>1.10953</v>
+        <v>1.10076</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.743314</v>
+        <v>0.744445</v>
       </c>
       <c r="C53" t="n">
-        <v>1.15585</v>
+        <v>1.15356</v>
       </c>
       <c r="D53" t="n">
-        <v>1.45723</v>
+        <v>1.45762</v>
       </c>
       <c r="E53" t="n">
-        <v>0.692817</v>
+        <v>0.690405</v>
       </c>
       <c r="F53" t="n">
-        <v>1.07311</v>
+        <v>1.08293</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.722924</v>
+        <v>0.73541</v>
       </c>
       <c r="C54" t="n">
-        <v>1.13617</v>
+        <v>1.13997</v>
       </c>
       <c r="D54" t="n">
-        <v>1.4995</v>
+        <v>1.46067</v>
       </c>
       <c r="E54" t="n">
-        <v>0.69197</v>
+        <v>0.67334</v>
       </c>
       <c r="F54" t="n">
-        <v>1.08243</v>
+        <v>1.06458</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.707663</v>
+        <v>0.707217</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12361</v>
+        <v>1.1168</v>
       </c>
       <c r="D55" t="n">
-        <v>1.45998</v>
+        <v>1.42718</v>
       </c>
       <c r="E55" t="n">
-        <v>0.659325</v>
+        <v>0.667727</v>
       </c>
       <c r="F55" t="n">
-        <v>1.04273</v>
+        <v>1.06658</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.686171</v>
+        <v>0.691033</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10117</v>
+        <v>1.08843</v>
       </c>
       <c r="D56" t="n">
-        <v>1.42403</v>
+        <v>1.4162</v>
       </c>
       <c r="E56" t="n">
-        <v>0.642072</v>
+        <v>0.663323</v>
       </c>
       <c r="F56" t="n">
-        <v>1.03659</v>
+        <v>1.02952</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.673218</v>
+        <v>0.6719349999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>1.06721</v>
+        <v>1.08208</v>
       </c>
       <c r="D57" t="n">
-        <v>1.3804</v>
+        <v>1.40376</v>
       </c>
       <c r="E57" t="n">
-        <v>0.631791</v>
+        <v>0.624171</v>
       </c>
       <c r="F57" t="n">
-        <v>1.02944</v>
+        <v>1.01737</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.661</v>
+        <v>0.683306</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06318</v>
+        <v>1.08064</v>
       </c>
       <c r="D58" t="n">
-        <v>1.37974</v>
+        <v>1.43358</v>
       </c>
       <c r="E58" t="n">
-        <v>0.604586</v>
+        <v>0.620706</v>
       </c>
       <c r="F58" t="n">
-        <v>1.01067</v>
+        <v>1.01106</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6537500000000001</v>
+        <v>0.644563</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0664</v>
+        <v>1.05414</v>
       </c>
       <c r="D59" t="n">
-        <v>1.39075</v>
+        <v>1.37578</v>
       </c>
       <c r="E59" t="n">
-        <v>0.597136</v>
+        <v>0.593316</v>
       </c>
       <c r="F59" t="n">
-        <v>1.00403</v>
+        <v>1.02574</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630707</v>
+        <v>0.623068</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04505</v>
+        <v>1.03383</v>
       </c>
       <c r="D60" t="n">
-        <v>1.36472</v>
+        <v>1.3881</v>
       </c>
       <c r="E60" t="n">
-        <v>0.578014</v>
+        <v>0.580622</v>
       </c>
       <c r="F60" t="n">
-        <v>1.01082</v>
+        <v>0.975787</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.615476</v>
+        <v>0.635442</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03069</v>
+        <v>1.02618</v>
       </c>
       <c r="D61" t="n">
-        <v>1.35819</v>
+        <v>1.36003</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5668840000000001</v>
+        <v>0.569871</v>
       </c>
       <c r="F61" t="n">
-        <v>0.976122</v>
+        <v>0.981759</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.624561</v>
+        <v>0.608295</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01887</v>
+        <v>1.02118</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36256</v>
+        <v>1.36028</v>
       </c>
       <c r="E62" t="n">
-        <v>0.552894</v>
+        <v>0.5557299999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.985928</v>
+        <v>0.969541</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.592683</v>
+        <v>0.596032</v>
       </c>
       <c r="C63" t="n">
-        <v>1.0091</v>
+        <v>1.00553</v>
       </c>
       <c r="D63" t="n">
-        <v>1.36616</v>
+        <v>1.35126</v>
       </c>
       <c r="E63" t="n">
-        <v>0.545001</v>
+        <v>0.544481</v>
       </c>
       <c r="F63" t="n">
-        <v>0.956131</v>
+        <v>0.962069</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.580201</v>
+        <v>0.580986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.993761</v>
+        <v>1.0165</v>
       </c>
       <c r="D64" t="n">
-        <v>2.22815</v>
+        <v>2.22954</v>
       </c>
       <c r="E64" t="n">
-        <v>0.537946</v>
+        <v>0.539736</v>
       </c>
       <c r="F64" t="n">
-        <v>0.952396</v>
+        <v>0.9612039999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.569101</v>
+        <v>0.5756520000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.978088</v>
+        <v>0.988684</v>
       </c>
       <c r="D65" t="n">
-        <v>2.11552</v>
+        <v>2.15831</v>
       </c>
       <c r="E65" t="n">
-        <v>0.526954</v>
+        <v>0.529797</v>
       </c>
       <c r="F65" t="n">
-        <v>0.939506</v>
+        <v>0.951577</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.560941</v>
+        <v>0.567672</v>
       </c>
       <c r="C66" t="n">
-        <v>0.987012</v>
+        <v>0.980801</v>
       </c>
       <c r="D66" t="n">
-        <v>2.09757</v>
+        <v>2.14318</v>
       </c>
       <c r="E66" t="n">
-        <v>0.828665</v>
+        <v>0.796637</v>
       </c>
       <c r="F66" t="n">
-        <v>1.43487</v>
+        <v>1.46829</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.845584</v>
+        <v>0.8525239999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>1.60939</v>
+        <v>1.55482</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11697</v>
+        <v>2.09809</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7774489999999999</v>
+        <v>0.778261</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4163</v>
+        <v>1.39831</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.819481</v>
+        <v>0.818486</v>
       </c>
       <c r="C68" t="n">
-        <v>1.51877</v>
+        <v>1.52244</v>
       </c>
       <c r="D68" t="n">
-        <v>2.05503</v>
+        <v>2.02578</v>
       </c>
       <c r="E68" t="n">
-        <v>0.753619</v>
+        <v>0.759248</v>
       </c>
       <c r="F68" t="n">
-        <v>1.378</v>
+        <v>1.38979</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.803119</v>
+        <v>0.815374</v>
       </c>
       <c r="C69" t="n">
-        <v>1.49928</v>
+        <v>1.50842</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98285</v>
+        <v>2.03608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.737405</v>
+        <v>0.761731</v>
       </c>
       <c r="F69" t="n">
-        <v>1.35884</v>
+        <v>1.38482</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.818097</v>
+        <v>0.794312</v>
       </c>
       <c r="C70" t="n">
-        <v>1.46168</v>
+        <v>1.48683</v>
       </c>
       <c r="D70" t="n">
-        <v>1.98657</v>
+        <v>1.98531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.719013</v>
+        <v>0.725707</v>
       </c>
       <c r="F70" t="n">
-        <v>1.33552</v>
+        <v>1.37005</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.768977</v>
+        <v>0.770346</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44234</v>
+        <v>1.47018</v>
       </c>
       <c r="D71" t="n">
-        <v>2.0281</v>
+        <v>2.0824</v>
       </c>
       <c r="E71" t="n">
-        <v>0.730444</v>
+        <v>0.736164</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3486</v>
+        <v>1.3376</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.773957</v>
+        <v>0.748854</v>
       </c>
       <c r="C72" t="n">
-        <v>1.41591</v>
+        <v>1.42025</v>
       </c>
       <c r="D72" t="n">
-        <v>1.95441</v>
+        <v>1.94176</v>
       </c>
       <c r="E72" t="n">
-        <v>0.690806</v>
+        <v>0.687988</v>
       </c>
       <c r="F72" t="n">
-        <v>1.30429</v>
+        <v>1.31111</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.756572</v>
+        <v>0.731266</v>
       </c>
       <c r="C73" t="n">
-        <v>1.39428</v>
+        <v>1.40366</v>
       </c>
       <c r="D73" t="n">
-        <v>1.92806</v>
+        <v>1.96026</v>
       </c>
       <c r="E73" t="n">
-        <v>0.672394</v>
+        <v>0.670596</v>
       </c>
       <c r="F73" t="n">
-        <v>1.26741</v>
+        <v>1.32104</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.716773</v>
+        <v>0.717828</v>
       </c>
       <c r="C74" t="n">
-        <v>1.39114</v>
+        <v>1.39553</v>
       </c>
       <c r="D74" t="n">
-        <v>1.96071</v>
+        <v>1.94596</v>
       </c>
       <c r="E74" t="n">
-        <v>0.690755</v>
+        <v>0.659963</v>
       </c>
       <c r="F74" t="n">
-        <v>1.26779</v>
+        <v>1.25128</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.707072</v>
+        <v>0.7031579999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.37942</v>
+        <v>1.36274</v>
       </c>
       <c r="D75" t="n">
-        <v>1.94872</v>
+        <v>1.86405</v>
       </c>
       <c r="E75" t="n">
-        <v>0.641804</v>
+        <v>0.6442329999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29015</v>
+        <v>1.22778</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.694798</v>
+        <v>0.6891659999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>1.34758</v>
+        <v>1.32822</v>
       </c>
       <c r="D76" t="n">
-        <v>1.91572</v>
+        <v>1.91946</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633862</v>
+        <v>0.630921</v>
       </c>
       <c r="F76" t="n">
-        <v>1.23055</v>
+        <v>1.22073</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.677575</v>
+        <v>0.681055</v>
       </c>
       <c r="C77" t="n">
-        <v>1.30014</v>
+        <v>1.30605</v>
       </c>
       <c r="D77" t="n">
-        <v>1.89903</v>
+        <v>1.90822</v>
       </c>
       <c r="E77" t="n">
-        <v>0.620634</v>
+        <v>0.62114</v>
       </c>
       <c r="F77" t="n">
-        <v>1.19412</v>
+        <v>1.1923</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.662891</v>
+        <v>0.663046</v>
       </c>
       <c r="C78" t="n">
-        <v>1.28807</v>
+        <v>1.27013</v>
       </c>
       <c r="D78" t="n">
-        <v>3.08801</v>
+        <v>3.09647</v>
       </c>
       <c r="E78" t="n">
-        <v>0.614908</v>
+        <v>0.613334</v>
       </c>
       <c r="F78" t="n">
-        <v>1.17062</v>
+        <v>1.22838</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.651935</v>
+        <v>0.651136</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26194</v>
+        <v>1.28231</v>
       </c>
       <c r="D79" t="n">
-        <v>3.07228</v>
+        <v>3.04382</v>
       </c>
       <c r="E79" t="n">
-        <v>0.597861</v>
+        <v>0.603876</v>
       </c>
       <c r="F79" t="n">
-        <v>1.20631</v>
+        <v>1.19399</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.663161</v>
+        <v>0.647377</v>
       </c>
       <c r="C80" t="n">
-        <v>1.27178</v>
+        <v>1.27793</v>
       </c>
       <c r="D80" t="n">
-        <v>2.94674</v>
+        <v>2.94542</v>
       </c>
       <c r="E80" t="n">
-        <v>0.897523</v>
+        <v>0.893949</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98617</v>
+        <v>2.01077</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.944265</v>
+        <v>0.9427720000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14908</v>
+        <v>2.1482</v>
       </c>
       <c r="D81" t="n">
-        <v>2.8949</v>
+        <v>2.94178</v>
       </c>
       <c r="E81" t="n">
-        <v>0.880648</v>
+        <v>0.878787</v>
       </c>
       <c r="F81" t="n">
-        <v>1.93036</v>
+        <v>1.94689</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.932015</v>
+        <v>0.930647</v>
       </c>
       <c r="C82" t="n">
-        <v>2.10777</v>
+        <v>2.08047</v>
       </c>
       <c r="D82" t="n">
-        <v>2.87737</v>
+        <v>2.83624</v>
       </c>
       <c r="E82" t="n">
-        <v>0.856015</v>
+        <v>0.866673</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91216</v>
+        <v>1.89421</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.926404</v>
+        <v>0.917569</v>
       </c>
       <c r="C83" t="n">
-        <v>2.08469</v>
+        <v>2.02111</v>
       </c>
       <c r="D83" t="n">
-        <v>2.8393</v>
+        <v>2.7865</v>
       </c>
       <c r="E83" t="n">
-        <v>0.838817</v>
+        <v>0.841049</v>
       </c>
       <c r="F83" t="n">
-        <v>1.8389</v>
+        <v>1.86096</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.89592</v>
+        <v>0.8981749999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96711</v>
+        <v>2.00655</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75643</v>
+        <v>2.7572</v>
       </c>
       <c r="E84" t="n">
-        <v>0.831748</v>
+        <v>0.82701</v>
       </c>
       <c r="F84" t="n">
-        <v>1.81698</v>
+        <v>1.79945</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.867939</v>
+        <v>0.913501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.93658</v>
+        <v>1.90926</v>
       </c>
       <c r="D85" t="n">
-        <v>2.69674</v>
+        <v>2.68821</v>
       </c>
       <c r="E85" t="n">
-        <v>0.805606</v>
+        <v>0.810044</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75961</v>
+        <v>1.77977</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.888303</v>
+        <v>0.861769</v>
       </c>
       <c r="C86" t="n">
-        <v>1.92548</v>
+        <v>1.89249</v>
       </c>
       <c r="D86" t="n">
-        <v>2.75032</v>
+        <v>2.65504</v>
       </c>
       <c r="E86" t="n">
-        <v>0.785663</v>
+        <v>0.785204</v>
       </c>
       <c r="F86" t="n">
-        <v>1.71207</v>
+        <v>1.7145</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.835442</v>
+        <v>0.84462</v>
       </c>
       <c r="C87" t="n">
-        <v>1.85454</v>
+        <v>1.85274</v>
       </c>
       <c r="D87" t="n">
-        <v>2.64078</v>
+        <v>2.68326</v>
       </c>
       <c r="E87" t="n">
-        <v>0.766651</v>
+        <v>0.770221</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67645</v>
+        <v>1.68777</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.828573</v>
+        <v>0.832244</v>
       </c>
       <c r="C88" t="n">
-        <v>1.79558</v>
+        <v>1.82506</v>
       </c>
       <c r="D88" t="n">
-        <v>2.62869</v>
+        <v>2.59985</v>
       </c>
       <c r="E88" t="n">
-        <v>0.749869</v>
+        <v>0.755697</v>
       </c>
       <c r="F88" t="n">
-        <v>1.70204</v>
+        <v>1.66091</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.812099</v>
+        <v>0.814298</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78951</v>
+        <v>1.8045</v>
       </c>
       <c r="D89" t="n">
-        <v>2.57221</v>
+        <v>2.57382</v>
       </c>
       <c r="E89" t="n">
-        <v>0.735961</v>
+        <v>0.761951</v>
       </c>
       <c r="F89" t="n">
-        <v>1.62192</v>
+        <v>1.61574</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7905990000000001</v>
+        <v>0.799696</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73356</v>
+        <v>1.74934</v>
       </c>
       <c r="D90" t="n">
-        <v>2.54259</v>
+        <v>2.55903</v>
       </c>
       <c r="E90" t="n">
-        <v>0.72282</v>
+        <v>0.738158</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59699</v>
+        <v>1.5887</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.78208</v>
+        <v>0.790541</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71619</v>
+        <v>1.69954</v>
       </c>
       <c r="D91" t="n">
-        <v>2.53653</v>
+        <v>2.54989</v>
       </c>
       <c r="E91" t="n">
-        <v>0.70911</v>
+        <v>0.714435</v>
       </c>
       <c r="F91" t="n">
-        <v>1.56145</v>
+        <v>1.56046</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.783865</v>
+        <v>0.769544</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67632</v>
+        <v>1.70655</v>
       </c>
       <c r="D92" t="n">
-        <v>3.61463</v>
+        <v>3.64313</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7179</v>
+        <v>0.720118</v>
       </c>
       <c r="F92" t="n">
-        <v>1.54426</v>
+        <v>1.57794</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.777106</v>
+        <v>0.776372</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66516</v>
+        <v>1.67185</v>
       </c>
       <c r="D93" t="n">
-        <v>3.5532</v>
+        <v>3.60322</v>
       </c>
       <c r="E93" t="n">
-        <v>0.688644</v>
+        <v>0.7150919999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5093</v>
+        <v>1.5632</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.750692</v>
+        <v>0.74396</v>
       </c>
       <c r="C94" t="n">
-        <v>1.624</v>
+        <v>1.6415</v>
       </c>
       <c r="D94" t="n">
-        <v>3.49171</v>
+        <v>3.56452</v>
       </c>
       <c r="E94" t="n">
-        <v>1.01539</v>
+        <v>0.995356</v>
       </c>
       <c r="F94" t="n">
-        <v>2.5059</v>
+        <v>2.53611</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05111</v>
+        <v>1.08094</v>
       </c>
       <c r="C95" t="n">
-        <v>2.67228</v>
+        <v>2.70755</v>
       </c>
       <c r="D95" t="n">
-        <v>3.51808</v>
+        <v>3.47858</v>
       </c>
       <c r="E95" t="n">
-        <v>1.01548</v>
+        <v>0.968494</v>
       </c>
       <c r="F95" t="n">
-        <v>2.46741</v>
+        <v>2.45318</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04403</v>
+        <v>1.06643</v>
       </c>
       <c r="C96" t="n">
-        <v>2.64391</v>
+        <v>2.64415</v>
       </c>
       <c r="D96" t="n">
-        <v>3.38197</v>
+        <v>3.37443</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9793230000000001</v>
+        <v>0.954352</v>
       </c>
       <c r="F96" t="n">
-        <v>2.39026</v>
+        <v>2.40146</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02381</v>
+        <v>1.02835</v>
       </c>
       <c r="C97" t="n">
-        <v>2.54105</v>
+        <v>2.54831</v>
       </c>
       <c r="D97" t="n">
-        <v>3.30323</v>
+        <v>3.31241</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9370889999999999</v>
+        <v>0.948563</v>
       </c>
       <c r="F97" t="n">
-        <v>2.328</v>
+        <v>2.31518</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0106</v>
+        <v>1.01311</v>
       </c>
       <c r="C98" t="n">
-        <v>2.52076</v>
+        <v>2.47223</v>
       </c>
       <c r="D98" t="n">
-        <v>3.28314</v>
+        <v>3.19857</v>
       </c>
       <c r="E98" t="n">
-        <v>0.91453</v>
+        <v>0.910539</v>
       </c>
       <c r="F98" t="n">
-        <v>2.31311</v>
+        <v>2.23391</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.983891</v>
+        <v>1.02935</v>
       </c>
       <c r="C99" t="n">
-        <v>2.42863</v>
+        <v>2.41798</v>
       </c>
       <c r="D99" t="n">
-        <v>3.19051</v>
+        <v>3.2244</v>
       </c>
       <c r="E99" t="n">
-        <v>0.918736</v>
+        <v>0.925505</v>
       </c>
       <c r="F99" t="n">
-        <v>2.21377</v>
+        <v>2.23372</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.988249</v>
+        <v>0.977133</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38124</v>
+        <v>2.37703</v>
       </c>
       <c r="D100" t="n">
-        <v>3.1834</v>
+        <v>3.15908</v>
       </c>
       <c r="E100" t="n">
-        <v>0.905369</v>
+        <v>0.902596</v>
       </c>
       <c r="F100" t="n">
-        <v>2.17772</v>
+        <v>2.1617</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.962693</v>
+        <v>0.978285</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31028</v>
+        <v>2.32053</v>
       </c>
       <c r="D101" t="n">
-        <v>3.09386</v>
+        <v>3.11741</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8819630000000001</v>
+        <v>0.860836</v>
       </c>
       <c r="F101" t="n">
-        <v>2.13013</v>
+        <v>2.11395</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.949757</v>
+        <v>0.950311</v>
       </c>
       <c r="C102" t="n">
-        <v>2.28099</v>
+        <v>2.26323</v>
       </c>
       <c r="D102" t="n">
-        <v>3.0779</v>
+        <v>3.08673</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8707</v>
+        <v>0.855786</v>
       </c>
       <c r="F102" t="n">
-        <v>2.07776</v>
+        <v>2.0889</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.955672</v>
+        <v>0.954895</v>
       </c>
       <c r="C103" t="n">
-        <v>2.23162</v>
+        <v>2.23925</v>
       </c>
       <c r="D103" t="n">
-        <v>3.07015</v>
+        <v>3.056</v>
       </c>
       <c r="E103" t="n">
-        <v>0.859486</v>
+        <v>0.855865</v>
       </c>
       <c r="F103" t="n">
-        <v>2.04225</v>
+        <v>2.03945</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.924099</v>
+        <v>0.912672</v>
       </c>
       <c r="C104" t="n">
-        <v>2.18923</v>
+        <v>2.18341</v>
       </c>
       <c r="D104" t="n">
-        <v>3.04814</v>
+        <v>3.03745</v>
       </c>
       <c r="E104" t="n">
-        <v>0.839547</v>
+        <v>0.834073</v>
       </c>
       <c r="F104" t="n">
-        <v>2.00463</v>
+        <v>2.00977</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.896338</v>
+        <v>0.905759</v>
       </c>
       <c r="C105" t="n">
-        <v>2.16854</v>
+        <v>2.14954</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05905</v>
+        <v>3.02582</v>
       </c>
       <c r="E105" t="n">
-        <v>0.808906</v>
+        <v>0.824013</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9693</v>
+        <v>1.98466</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.891231</v>
+        <v>0.90287</v>
       </c>
       <c r="C106" t="n">
-        <v>2.1206</v>
+        <v>2.14788</v>
       </c>
       <c r="D106" t="n">
-        <v>3.02042</v>
+        <v>3.13768</v>
       </c>
       <c r="E106" t="n">
-        <v>0.815209</v>
+        <v>0.8041160000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>1.93419</v>
+        <v>1.96306</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9348379999999999</v>
+        <v>0.880498</v>
       </c>
       <c r="C107" t="n">
-        <v>2.11333</v>
+        <v>2.10319</v>
       </c>
       <c r="D107" t="n">
-        <v>4.15108</v>
+        <v>4.17594</v>
       </c>
       <c r="E107" t="n">
-        <v>0.803679</v>
+        <v>0.818657</v>
       </c>
       <c r="F107" t="n">
-        <v>1.89439</v>
+        <v>1.98897</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.875734</v>
+        <v>0.91584</v>
       </c>
       <c r="C108" t="n">
-        <v>2.05127</v>
+        <v>2.09639</v>
       </c>
       <c r="D108" t="n">
-        <v>4.05507</v>
+        <v>4.13552</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14474</v>
+        <v>1.13797</v>
       </c>
       <c r="F108" t="n">
-        <v>2.98789</v>
+        <v>2.9644</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.876713</v>
+        <v>0.885142</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05701</v>
+        <v>2.02987</v>
       </c>
       <c r="D109" t="n">
-        <v>4.02624</v>
+        <v>3.96975</v>
       </c>
       <c r="E109" t="n">
-        <v>1.11882</v>
+        <v>1.08396</v>
       </c>
       <c r="F109" t="n">
-        <v>2.93109</v>
+        <v>2.96482</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.20066</v>
+        <v>1.17611</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14276</v>
+        <v>3.11363</v>
       </c>
       <c r="D110" t="n">
-        <v>3.95331</v>
+        <v>3.91846</v>
       </c>
       <c r="E110" t="n">
-        <v>1.06944</v>
+        <v>1.07533</v>
       </c>
       <c r="F110" t="n">
-        <v>2.8691</v>
+        <v>2.8617</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18886</v>
+        <v>1.16813</v>
       </c>
       <c r="C111" t="n">
-        <v>3.03464</v>
+        <v>3.09482</v>
       </c>
       <c r="D111" t="n">
-        <v>3.87408</v>
+        <v>3.92633</v>
       </c>
       <c r="E111" t="n">
-        <v>1.05128</v>
+        <v>1.07911</v>
       </c>
       <c r="F111" t="n">
-        <v>2.76885</v>
+        <v>2.78737</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15492</v>
+        <v>1.15684</v>
       </c>
       <c r="C112" t="n">
-        <v>2.98715</v>
+        <v>3.01703</v>
       </c>
       <c r="D112" t="n">
-        <v>3.82119</v>
+        <v>3.88815</v>
       </c>
       <c r="E112" t="n">
-        <v>1.08421</v>
+        <v>1.07518</v>
       </c>
       <c r="F112" t="n">
-        <v>2.70925</v>
+        <v>2.74329</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14833</v>
+        <v>1.17628</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95066</v>
+        <v>2.92958</v>
       </c>
       <c r="D113" t="n">
-        <v>3.8702</v>
+        <v>3.7871</v>
       </c>
       <c r="E113" t="n">
-        <v>1.07367</v>
+        <v>1.06046</v>
       </c>
       <c r="F113" t="n">
-        <v>2.70746</v>
+        <v>2.64079</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1642</v>
+        <v>1.15681</v>
       </c>
       <c r="C114" t="n">
-        <v>2.87011</v>
+        <v>2.87685</v>
       </c>
       <c r="D114" t="n">
-        <v>3.75391</v>
+        <v>3.78151</v>
       </c>
       <c r="E114" t="n">
-        <v>1.04002</v>
+        <v>1.06352</v>
       </c>
       <c r="F114" t="n">
-        <v>2.62198</v>
+        <v>2.5918</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14417</v>
+        <v>1.14467</v>
       </c>
       <c r="C115" t="n">
-        <v>2.81486</v>
+        <v>2.8659</v>
       </c>
       <c r="D115" t="n">
-        <v>3.6815</v>
+        <v>3.73413</v>
       </c>
       <c r="E115" t="n">
-        <v>1.02877</v>
+        <v>1.03501</v>
       </c>
       <c r="F115" t="n">
-        <v>2.56285</v>
+        <v>2.60124</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11318</v>
+        <v>1.12756</v>
       </c>
       <c r="C116" t="n">
-        <v>2.79382</v>
+        <v>2.8085</v>
       </c>
       <c r="D116" t="n">
-        <v>3.62575</v>
+        <v>3.73398</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02137</v>
+        <v>1.02361</v>
       </c>
       <c r="F116" t="n">
-        <v>2.53398</v>
+        <v>2.5666</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10262</v>
+        <v>1.10093</v>
       </c>
       <c r="C117" t="n">
-        <v>2.68898</v>
+        <v>2.75069</v>
       </c>
       <c r="D117" t="n">
-        <v>3.60456</v>
+        <v>3.67898</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0028</v>
+        <v>1.00702</v>
       </c>
       <c r="F117" t="n">
-        <v>2.45646</v>
+        <v>2.47161</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11708</v>
+        <v>1.09214</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6872</v>
+        <v>2.67855</v>
       </c>
       <c r="D118" t="n">
-        <v>3.59499</v>
+        <v>3.62713</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9792110000000001</v>
+        <v>0.997283</v>
       </c>
       <c r="F118" t="n">
-        <v>2.39916</v>
+        <v>2.44237</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11581</v>
+        <v>1.10752</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68621</v>
+        <v>2.68204</v>
       </c>
       <c r="D119" t="n">
-        <v>3.61385</v>
+        <v>3.64952</v>
       </c>
       <c r="E119" t="n">
-        <v>0.986904</v>
+        <v>0.972183</v>
       </c>
       <c r="F119" t="n">
-        <v>2.35916</v>
+        <v>2.38244</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06859</v>
+        <v>1.08754</v>
       </c>
       <c r="C120" t="n">
-        <v>2.56323</v>
+        <v>2.6415</v>
       </c>
       <c r="D120" t="n">
-        <v>3.5603</v>
+        <v>3.56094</v>
       </c>
       <c r="E120" t="n">
-        <v>0.978695</v>
+        <v>0.9549260000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>2.32736</v>
+        <v>2.37925</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09272</v>
+        <v>1.08245</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57785</v>
+        <v>2.55026</v>
       </c>
       <c r="D121" t="n">
-        <v>4.90879</v>
+        <v>4.89718</v>
       </c>
       <c r="E121" t="n">
-        <v>0.968216</v>
+        <v>0.962933</v>
       </c>
       <c r="F121" t="n">
-        <v>2.3195</v>
+        <v>2.3107</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06982</v>
+        <v>1.05471</v>
       </c>
       <c r="C122" t="n">
-        <v>2.51555</v>
+        <v>2.50353</v>
       </c>
       <c r="D122" t="n">
-        <v>4.83893</v>
+        <v>4.77873</v>
       </c>
       <c r="E122" t="n">
-        <v>0.963701</v>
+        <v>0.9418570000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>2.27359</v>
+        <v>2.26225</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06075</v>
+        <v>1.03834</v>
       </c>
       <c r="C123" t="n">
-        <v>2.50908</v>
+        <v>2.49882</v>
       </c>
       <c r="D123" t="n">
-        <v>4.76747</v>
+        <v>4.69457</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29608</v>
+        <v>1.25372</v>
       </c>
       <c r="F123" t="n">
-        <v>3.41934</v>
+        <v>3.41341</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.39666</v>
+        <v>1.36841</v>
       </c>
       <c r="C124" t="n">
-        <v>3.71846</v>
+        <v>3.72616</v>
       </c>
       <c r="D124" t="n">
-        <v>4.63296</v>
+        <v>4.62141</v>
       </c>
       <c r="E124" t="n">
-        <v>1.2821</v>
+        <v>1.28311</v>
       </c>
       <c r="F124" t="n">
-        <v>3.37635</v>
+        <v>3.36802</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.36335</v>
+        <v>1.36368</v>
       </c>
       <c r="C125" t="n">
-        <v>3.6453</v>
+        <v>3.62491</v>
       </c>
       <c r="D125" t="n">
-        <v>4.53189</v>
+        <v>4.51822</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23589</v>
+        <v>1.28191</v>
       </c>
       <c r="F125" t="n">
-        <v>3.25493</v>
+        <v>3.30096</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.35042</v>
+        <v>1.37362</v>
       </c>
       <c r="C126" t="n">
-        <v>3.55981</v>
+        <v>3.5529</v>
       </c>
       <c r="D126" t="n">
-        <v>4.44303</v>
+        <v>4.50303</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25876</v>
+        <v>1.25939</v>
       </c>
       <c r="F126" t="n">
-        <v>3.2486</v>
+        <v>3.21677</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3515</v>
+        <v>1.36649</v>
       </c>
       <c r="C127" t="n">
-        <v>3.47411</v>
+        <v>3.5184</v>
       </c>
       <c r="D127" t="n">
-        <v>4.40117</v>
+        <v>4.4304</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25008</v>
+        <v>1.25287</v>
       </c>
       <c r="F127" t="n">
-        <v>3.12623</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37389</v>
+        <v>1.37005</v>
       </c>
       <c r="C128" t="n">
-        <v>3.44485</v>
+        <v>3.4164</v>
       </c>
       <c r="D128" t="n">
-        <v>4.33355</v>
+        <v>4.36159</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25914</v>
+        <v>1.22211</v>
       </c>
       <c r="F128" t="n">
-        <v>3.08668</v>
+        <v>3.08896</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35967</v>
+        <v>1.36136</v>
       </c>
       <c r="C129" t="n">
-        <v>3.36293</v>
+        <v>3.33284</v>
       </c>
       <c r="D129" t="n">
-        <v>4.31839</v>
+        <v>4.28639</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25287</v>
+        <v>1.22136</v>
       </c>
       <c r="F129" t="n">
-        <v>3.01762</v>
+        <v>3.0395</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36304</v>
+        <v>1.36194</v>
       </c>
       <c r="C130" t="n">
-        <v>3.28407</v>
+        <v>3.27952</v>
       </c>
       <c r="D130" t="n">
-        <v>4.26079</v>
+        <v>4.26097</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24215</v>
+        <v>1.23087</v>
       </c>
       <c r="F130" t="n">
-        <v>2.954</v>
+        <v>2.96151</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.34929</v>
+        <v>1.36104</v>
       </c>
       <c r="C131" t="n">
-        <v>3.22109</v>
+        <v>3.23965</v>
       </c>
       <c r="D131" t="n">
-        <v>4.21642</v>
+        <v>4.22616</v>
       </c>
       <c r="E131" t="n">
-        <v>1.22871</v>
+        <v>1.22389</v>
       </c>
       <c r="F131" t="n">
-        <v>2.88909</v>
+        <v>2.91888</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33516</v>
+        <v>1.34275</v>
       </c>
       <c r="C132" t="n">
-        <v>3.16522</v>
+        <v>3.21822</v>
       </c>
       <c r="D132" t="n">
-        <v>4.19014</v>
+        <v>4.20239</v>
       </c>
       <c r="E132" t="n">
-        <v>1.21501</v>
+        <v>1.2314</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88013</v>
+        <v>2.8794</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34098</v>
+        <v>1.34205</v>
       </c>
       <c r="C133" t="n">
-        <v>3.10548</v>
+        <v>3.14969</v>
       </c>
       <c r="D133" t="n">
-        <v>4.16368</v>
+        <v>4.13413</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22484</v>
+        <v>1.21736</v>
       </c>
       <c r="F133" t="n">
-        <v>2.81374</v>
+        <v>2.82058</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3321</v>
+        <v>1.32519</v>
       </c>
       <c r="C134" t="n">
-        <v>3.09838</v>
+        <v>3.09036</v>
       </c>
       <c r="D134" t="n">
-        <v>4.10579</v>
+        <v>4.13997</v>
       </c>
       <c r="E134" t="n">
-        <v>1.19685</v>
+        <v>1.20515</v>
       </c>
       <c r="F134" t="n">
-        <v>2.77852</v>
+        <v>2.77136</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32662</v>
+        <v>1.33539</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04111</v>
+        <v>3.02809</v>
       </c>
       <c r="D135" t="n">
-        <v>5.61856</v>
+        <v>5.61022</v>
       </c>
       <c r="E135" t="n">
-        <v>1.20782</v>
+        <v>1.22487</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75597</v>
+        <v>2.77061</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32931</v>
+        <v>1.33073</v>
       </c>
       <c r="C136" t="n">
-        <v>3.01962</v>
+        <v>3.00947</v>
       </c>
       <c r="D136" t="n">
-        <v>5.48568</v>
+        <v>5.49498</v>
       </c>
       <c r="E136" t="n">
-        <v>1.19988</v>
+        <v>1.20349</v>
       </c>
       <c r="F136" t="n">
-        <v>2.68432</v>
+        <v>2.72519</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32904</v>
+        <v>1.3224</v>
       </c>
       <c r="C137" t="n">
-        <v>2.97044</v>
+        <v>2.97412</v>
       </c>
       <c r="D137" t="n">
-        <v>5.41397</v>
+        <v>5.39051</v>
       </c>
       <c r="E137" t="n">
-        <v>1.54305</v>
+        <v>1.55084</v>
       </c>
       <c r="F137" t="n">
-        <v>3.97856</v>
+        <v>3.98968</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.66637</v>
+        <v>1.68132</v>
       </c>
       <c r="C138" t="n">
-        <v>4.32123</v>
+        <v>4.32998</v>
       </c>
       <c r="D138" t="n">
-        <v>5.32658</v>
+        <v>5.33403</v>
       </c>
       <c r="E138" t="n">
-        <v>1.53998</v>
+        <v>1.54412</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89686</v>
+        <v>3.90694</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.65664</v>
+        <v>1.62146</v>
       </c>
       <c r="C139" t="n">
-        <v>4.19984</v>
+        <v>4.19085</v>
       </c>
       <c r="D139" t="n">
-        <v>5.22478</v>
+        <v>5.23441</v>
       </c>
       <c r="E139" t="n">
-        <v>1.53686</v>
+        <v>1.52565</v>
       </c>
       <c r="F139" t="n">
-        <v>3.79318</v>
+        <v>3.81943</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64329</v>
+        <v>1.64112</v>
       </c>
       <c r="C140" t="n">
-        <v>4.10535</v>
+        <v>4.13791</v>
       </c>
       <c r="D140" t="n">
-        <v>5.12371</v>
+        <v>5.13776</v>
       </c>
       <c r="E140" t="n">
-        <v>1.49229</v>
+        <v>1.51668</v>
       </c>
       <c r="F140" t="n">
-        <v>3.69533</v>
+        <v>3.70138</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.65413</v>
+        <v>1.62296</v>
       </c>
       <c r="C141" t="n">
-        <v>4.06177</v>
+        <v>4.00497</v>
       </c>
       <c r="D141" t="n">
-        <v>5.04095</v>
+        <v>5.05847</v>
       </c>
       <c r="E141" t="n">
-        <v>1.514</v>
+        <v>1.52491</v>
       </c>
       <c r="F141" t="n">
-        <v>3.61111</v>
+        <v>3.65356</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63034</v>
+        <v>1.62505</v>
       </c>
       <c r="C142" t="n">
-        <v>3.97944</v>
+        <v>3.95932</v>
       </c>
       <c r="D142" t="n">
-        <v>4.97802</v>
+        <v>4.97911</v>
       </c>
       <c r="E142" t="n">
-        <v>1.50425</v>
+        <v>1.52327</v>
       </c>
       <c r="F142" t="n">
-        <v>3.57519</v>
+        <v>3.5512</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63041</v>
+        <v>1.65854</v>
       </c>
       <c r="C143" t="n">
-        <v>3.88472</v>
+        <v>3.86558</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91574</v>
+        <v>4.94529</v>
       </c>
       <c r="E143" t="n">
-        <v>1.49654</v>
+        <v>1.50685</v>
       </c>
       <c r="F143" t="n">
-        <v>3.50287</v>
+        <v>3.48726</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575522</v>
+        <v>0.591998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053630000000001</v>
+        <v>0.895713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969652</v>
+        <v>0.996316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317156</v>
+        <v>0.364789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.799504</v>
+        <v>0.800601</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331523</v>
+        <v>0.341738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792357</v>
+        <v>0.811107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95972</v>
+        <v>0.994388</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5283870000000001</v>
+        <v>0.317715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.762614</v>
+        <v>0.781016</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.325093</v>
+        <v>0.33489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789855</v>
+        <v>0.822247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980649</v>
+        <v>0.976216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308835</v>
+        <v>0.318426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754483</v>
+        <v>0.773055</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32818</v>
+        <v>0.32819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786763</v>
+        <v>0.791523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.941376</v>
+        <v>0.959883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307744</v>
+        <v>0.306828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.789703</v>
+        <v>0.762894</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335133</v>
+        <v>0.320703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.798776</v>
+        <v>0.780739</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985724</v>
+        <v>0.946383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.305344</v>
+        <v>0.29998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749701</v>
+        <v>0.756646</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322629</v>
+        <v>0.315171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784904</v>
+        <v>0.787323</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16528</v>
+        <v>1.1557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304815</v>
+        <v>0.298483</v>
       </c>
       <c r="F7" t="n">
-        <v>0.744746</v>
+        <v>0.7661249999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30831</v>
+        <v>0.312417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770539</v>
+        <v>0.756096</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12202</v>
+        <v>1.11104</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290588</v>
+        <v>0.289728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749251</v>
+        <v>0.741471</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307094</v>
+        <v>0.306388</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772613</v>
+        <v>0.76237</v>
       </c>
       <c r="D9" t="n">
-        <v>1.09185</v>
+        <v>1.12816</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543091</v>
+        <v>0.53531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.855966</v>
+        <v>0.842882</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556223</v>
+        <v>0.5492899999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902688</v>
+        <v>0.876192</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07887</v>
+        <v>1.11242</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525743</v>
+        <v>0.547067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.847444</v>
+        <v>0.831749</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553473</v>
+        <v>0.528483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.900881</v>
+        <v>0.856866</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06591</v>
+        <v>1.04853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510518</v>
+        <v>0.518531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.837014</v>
+        <v>0.827766</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525643</v>
+        <v>0.521719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.871667</v>
+        <v>0.845589</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04819</v>
+        <v>1.08631</v>
       </c>
       <c r="E12" t="n">
-        <v>0.493574</v>
+        <v>0.516061</v>
       </c>
       <c r="F12" t="n">
-        <v>0.838848</v>
+        <v>0.810186</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508463</v>
+        <v>0.49898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854847</v>
+        <v>0.837817</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0537</v>
+        <v>1.03218</v>
       </c>
       <c r="E13" t="n">
-        <v>0.490285</v>
+        <v>0.483992</v>
       </c>
       <c r="F13" t="n">
-        <v>0.813659</v>
+        <v>0.824224</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493829</v>
+        <v>0.507532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.84234</v>
+        <v>0.829202</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02761</v>
+        <v>1.01671</v>
       </c>
       <c r="E14" t="n">
-        <v>0.464033</v>
+        <v>0.455181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.80908</v>
+        <v>0.790914</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479674</v>
+        <v>0.471547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.836435</v>
+        <v>0.814859</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01782</v>
+        <v>1.01213</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447319</v>
+        <v>0.444042</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79615</v>
+        <v>0.786795</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467952</v>
+        <v>0.459161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.822427</v>
+        <v>0.830815</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03369</v>
+        <v>1.0075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.435864</v>
+        <v>0.430348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794716</v>
+        <v>0.7758890000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46037</v>
+        <v>0.445101</v>
       </c>
       <c r="C17" t="n">
-        <v>0.824414</v>
+        <v>0.79606</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03949</v>
+        <v>0.982826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426453</v>
+        <v>0.417512</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787167</v>
+        <v>0.769754</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459607</v>
+        <v>0.435361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.811786</v>
+        <v>0.789734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.992486</v>
+        <v>1.00419</v>
       </c>
       <c r="E18" t="n">
-        <v>0.415591</v>
+        <v>0.419957</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7799700000000001</v>
+        <v>0.764561</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434457</v>
+        <v>0.432537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.807883</v>
+        <v>0.798814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988259</v>
+        <v>0.984331</v>
       </c>
       <c r="E19" t="n">
-        <v>0.414061</v>
+        <v>0.401421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.789147</v>
+        <v>0.767172</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42632</v>
+        <v>0.421941</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803764</v>
+        <v>0.7780049999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00131</v>
+        <v>0.962122</v>
       </c>
       <c r="E20" t="n">
-        <v>0.403929</v>
+        <v>0.388776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.774707</v>
+        <v>0.759687</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418046</v>
+        <v>0.416641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.799251</v>
+        <v>0.775353</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19295</v>
+        <v>1.1685</v>
       </c>
       <c r="E21" t="n">
-        <v>0.387986</v>
+        <v>0.381384</v>
       </c>
       <c r="F21" t="n">
-        <v>0.767618</v>
+        <v>0.761657</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407915</v>
+        <v>0.394596</v>
       </c>
       <c r="C22" t="n">
-        <v>0.795204</v>
+        <v>0.769602</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16209</v>
+        <v>1.15067</v>
       </c>
       <c r="E22" t="n">
-        <v>0.381444</v>
+        <v>0.376559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.763447</v>
+        <v>0.750673</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409988</v>
+        <v>0.393546</v>
       </c>
       <c r="C23" t="n">
-        <v>0.786917</v>
+        <v>0.787972</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14185</v>
+        <v>1.1291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.641595</v>
+        <v>0.628338</v>
       </c>
       <c r="F23" t="n">
-        <v>0.903034</v>
+        <v>0.870255</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65785</v>
+        <v>0.6412409999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916601</v>
+        <v>0.890763</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13616</v>
+        <v>1.13732</v>
       </c>
       <c r="E24" t="n">
-        <v>0.622939</v>
+        <v>0.617294</v>
       </c>
       <c r="F24" t="n">
-        <v>0.872999</v>
+        <v>0.861653</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641939</v>
+        <v>0.636973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9161280000000001</v>
+        <v>0.881387</v>
       </c>
       <c r="D25" t="n">
-        <v>1.12062</v>
+        <v>1.099</v>
       </c>
       <c r="E25" t="n">
-        <v>0.603781</v>
+        <v>0.588316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8642339999999999</v>
+        <v>0.848429</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621707</v>
+        <v>0.614435</v>
       </c>
       <c r="C26" t="n">
-        <v>0.894818</v>
+        <v>0.87259</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09479</v>
+        <v>1.09369</v>
       </c>
       <c r="E26" t="n">
-        <v>0.585918</v>
+        <v>0.569123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.853728</v>
+        <v>0.8381690000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606362</v>
+        <v>0.58719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.894883</v>
+        <v>0.884578</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08143</v>
+        <v>1.07674</v>
       </c>
       <c r="E27" t="n">
-        <v>0.569053</v>
+        <v>0.550865</v>
       </c>
       <c r="F27" t="n">
-        <v>0.843792</v>
+        <v>0.833936</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585933</v>
+        <v>0.571182</v>
       </c>
       <c r="C28" t="n">
-        <v>0.905092</v>
+        <v>0.853992</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07484</v>
+        <v>1.06209</v>
       </c>
       <c r="E28" t="n">
-        <v>0.550386</v>
+        <v>0.533097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83812</v>
+        <v>0.825603</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569434</v>
+        <v>0.557713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8822680000000001</v>
+        <v>0.8406090000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0797</v>
+        <v>1.04939</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555153</v>
+        <v>0.5165419999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.831658</v>
+        <v>0.815916</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.549855</v>
+        <v>0.5340819999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.861896</v>
+        <v>0.833605</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06346</v>
+        <v>1.041</v>
       </c>
       <c r="E30" t="n">
-        <v>0.524822</v>
+        <v>0.501968</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310340000000001</v>
+        <v>0.803361</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533342</v>
+        <v>0.522159</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846967</v>
+        <v>0.825944</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>1.0282</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4989</v>
+        <v>0.487806</v>
       </c>
       <c r="F31" t="n">
-        <v>0.816196</v>
+        <v>0.796436</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517628</v>
+        <v>0.503242</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839171</v>
+        <v>0.819257</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04283</v>
+        <v>1.02491</v>
       </c>
       <c r="E32" t="n">
-        <v>0.482435</v>
+        <v>0.474053</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8086</v>
+        <v>0.796084</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502485</v>
+        <v>0.502271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.811841</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02947</v>
+        <v>1.03207</v>
       </c>
       <c r="E33" t="n">
-        <v>0.477698</v>
+        <v>0.460387</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818264</v>
+        <v>0.7833020000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5064650000000001</v>
+        <v>0.480407</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822991</v>
+        <v>0.807714</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0304</v>
+        <v>1.00989</v>
       </c>
       <c r="E34" t="n">
-        <v>0.474283</v>
+        <v>0.454897</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799172</v>
+        <v>0.782619</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494042</v>
+        <v>0.477597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845793</v>
+        <v>0.800068</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33836</v>
+        <v>1.27368</v>
       </c>
       <c r="E35" t="n">
-        <v>0.447169</v>
+        <v>0.439729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.786601</v>
+        <v>0.780814</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462297</v>
+        <v>0.45727</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812798</v>
+        <v>0.801153</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31541</v>
+        <v>1.32648</v>
       </c>
       <c r="E36" t="n">
-        <v>0.435134</v>
+        <v>0.433421</v>
       </c>
       <c r="F36" t="n">
-        <v>0.784529</v>
+        <v>0.781985</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453812</v>
+        <v>0.447887</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810837</v>
+        <v>0.795669</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23223</v>
+        <v>1.23198</v>
       </c>
       <c r="E37" t="n">
-        <v>0.694879</v>
+        <v>0.687802</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96505</v>
+        <v>0.969483</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.717845</v>
+        <v>0.7019919999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01755</v>
+        <v>0.992707</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25114</v>
+        <v>1.2115</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672512</v>
+        <v>0.6708499999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958387</v>
+        <v>0.966197</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.698846</v>
+        <v>0.687902</v>
       </c>
       <c r="C39" t="n">
-        <v>0.98744</v>
+        <v>0.996568</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18862</v>
+        <v>1.19211</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.667467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.940918</v>
+        <v>0.94006</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668726</v>
+        <v>0.66253</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973736</v>
+        <v>0.96356</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19747</v>
+        <v>1.17208</v>
       </c>
       <c r="E40" t="n">
-        <v>0.628024</v>
+        <v>0.624017</v>
       </c>
       <c r="F40" t="n">
-        <v>0.932982</v>
+        <v>0.9158579999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589390000000001</v>
+        <v>0.669322</v>
       </c>
       <c r="C41" t="n">
-        <v>0.964974</v>
+        <v>0.945695</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17228</v>
+        <v>1.15373</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608797</v>
+        <v>0.623263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.92378</v>
+        <v>0.9118230000000001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663308</v>
+        <v>0.622584</v>
       </c>
       <c r="C42" t="n">
-        <v>0.971606</v>
+        <v>0.93711</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16154</v>
+        <v>1.15644</v>
       </c>
       <c r="E42" t="n">
-        <v>0.594526</v>
+        <v>0.5937480000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.932104</v>
+        <v>0.892167</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.606647</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96251</v>
+        <v>0.93449</v>
       </c>
       <c r="D43" t="n">
-        <v>1.19951</v>
+        <v>1.13792</v>
       </c>
       <c r="E43" t="n">
-        <v>0.584045</v>
+        <v>0.562994</v>
       </c>
       <c r="F43" t="n">
-        <v>0.914353</v>
+        <v>0.885103</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622929</v>
+        <v>0.583277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.934897</v>
+        <v>0.914249</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1691</v>
+        <v>1.18271</v>
       </c>
       <c r="E44" t="n">
-        <v>0.559534</v>
+        <v>0.544787</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916623</v>
+        <v>0.872954</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584052</v>
+        <v>0.568059</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937145</v>
+        <v>0.8964</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1278</v>
+        <v>1.12453</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534959</v>
+        <v>0.5326959999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877298</v>
+        <v>0.869078</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562038</v>
+        <v>0.559167</v>
       </c>
       <c r="C46" t="n">
-        <v>0.901967</v>
+        <v>0.895998</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13678</v>
+        <v>1.16181</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522519</v>
+        <v>0.533758</v>
       </c>
       <c r="F46" t="n">
-        <v>0.871634</v>
+        <v>0.874713</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.547866</v>
+        <v>0.541951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.896132</v>
+        <v>0.888357</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11638</v>
+        <v>1.1102</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.50884</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8663380000000001</v>
+        <v>0.852741</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.533868</v>
+        <v>0.5386339999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.952105</v>
+        <v>0.878893</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14935</v>
+        <v>1.10993</v>
       </c>
       <c r="E48" t="n">
-        <v>0.492952</v>
+        <v>0.487792</v>
       </c>
       <c r="F48" t="n">
-        <v>0.853775</v>
+        <v>0.843464</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550705</v>
+        <v>0.514368</v>
       </c>
       <c r="C49" t="n">
-        <v>0.881059</v>
+        <v>0.86873</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14003</v>
+        <v>1.1094</v>
       </c>
       <c r="E49" t="n">
-        <v>0.492992</v>
+        <v>0.482186</v>
       </c>
       <c r="F49" t="n">
-        <v>0.848229</v>
+        <v>0.842286</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510656</v>
+        <v>0.505789</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8820249999999999</v>
+        <v>0.871617</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55129</v>
+        <v>1.55752</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473988</v>
+        <v>0.465472</v>
       </c>
       <c r="F50" t="n">
-        <v>0.858786</v>
+        <v>0.836589</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.496193</v>
+        <v>0.494502</v>
       </c>
       <c r="C51" t="n">
-        <v>0.873503</v>
+        <v>0.867816</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52641</v>
+        <v>1.51746</v>
       </c>
       <c r="E51" t="n">
-        <v>0.738909</v>
+        <v>0.759077</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12309</v>
+        <v>1.10374</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502169</v>
+        <v>0.490225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8796349999999999</v>
+        <v>0.867993</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50367</v>
+        <v>1.49591</v>
       </c>
       <c r="E52" t="n">
-        <v>0.755392</v>
+        <v>0.71517</v>
       </c>
       <c r="F52" t="n">
-        <v>1.14047</v>
+        <v>1.10334</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.750716</v>
+        <v>0.74014</v>
       </c>
       <c r="C53" t="n">
-        <v>1.16143</v>
+        <v>1.15488</v>
       </c>
       <c r="D53" t="n">
-        <v>1.48263</v>
+        <v>1.44842</v>
       </c>
       <c r="E53" t="n">
-        <v>0.696551</v>
+        <v>0.690165</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09033</v>
+        <v>1.06614</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743347</v>
+        <v>0.7188099999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14398</v>
+        <v>1.13747</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45998</v>
+        <v>1.46822</v>
       </c>
       <c r="E54" t="n">
-        <v>0.685972</v>
+        <v>0.704094</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05898</v>
+        <v>1.05636</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.728923</v>
+        <v>0.703739</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12406</v>
+        <v>1.11855</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43352</v>
+        <v>1.43211</v>
       </c>
       <c r="E55" t="n">
-        <v>0.661216</v>
+        <v>0.653988</v>
       </c>
       <c r="F55" t="n">
-        <v>1.10186</v>
+        <v>1.04213</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732407</v>
+        <v>0.692851</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10659</v>
+        <v>1.08427</v>
       </c>
       <c r="D56" t="n">
-        <v>1.47073</v>
+        <v>1.39026</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6419550000000001</v>
+        <v>0.6431249999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04177</v>
+        <v>1.02489</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705487</v>
+        <v>0.682057</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09715</v>
+        <v>1.06758</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41985</v>
+        <v>1.39141</v>
       </c>
       <c r="E57" t="n">
-        <v>0.629614</v>
+        <v>0.618743</v>
       </c>
       <c r="F57" t="n">
-        <v>1.07522</v>
+        <v>1.01495</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662017</v>
+        <v>0.679809</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08735</v>
+        <v>1.06652</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43967</v>
+        <v>1.36613</v>
       </c>
       <c r="E58" t="n">
-        <v>0.636605</v>
+        <v>0.60445</v>
       </c>
       <c r="F58" t="n">
-        <v>1.018</v>
+        <v>0.98773</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651039</v>
+        <v>0.63689</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11752</v>
+        <v>1.05044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4007</v>
+        <v>1.36732</v>
       </c>
       <c r="E59" t="n">
-        <v>0.595773</v>
+        <v>0.594342</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978939999999999</v>
+        <v>0.98848</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63121</v>
+        <v>0.637711</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04912</v>
+        <v>1.06342</v>
       </c>
       <c r="D60" t="n">
-        <v>1.40098</v>
+        <v>1.42139</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582719</v>
+        <v>0.589266</v>
       </c>
       <c r="F60" t="n">
-        <v>0.986106</v>
+        <v>0.997798</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622231</v>
+        <v>0.617299</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04913</v>
+        <v>1.03787</v>
       </c>
       <c r="D61" t="n">
-        <v>1.37008</v>
+        <v>1.35988</v>
       </c>
       <c r="E61" t="n">
-        <v>0.575585</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.96883</v>
+        <v>0.978307</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616518</v>
+        <v>0.5987440000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04271</v>
+        <v>1.01642</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36427</v>
+        <v>1.35749</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5587839999999999</v>
+        <v>0.552098</v>
       </c>
       <c r="F62" t="n">
-        <v>0.979374</v>
+        <v>0.95157</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.585519</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02824</v>
+        <v>0.994581</v>
       </c>
       <c r="D63" t="n">
-        <v>1.39039</v>
+        <v>1.36323</v>
       </c>
       <c r="E63" t="n">
-        <v>0.55386</v>
+        <v>0.551701</v>
       </c>
       <c r="F63" t="n">
-        <v>0.964228</v>
+        <v>0.95549</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588021</v>
+        <v>0.583206</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00914</v>
+        <v>0.9968360000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18386</v>
+        <v>2.2341</v>
       </c>
       <c r="E64" t="n">
-        <v>0.539924</v>
+        <v>0.545147</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9560419999999999</v>
+        <v>0.957184</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600253</v>
+        <v>0.567601</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00606</v>
+        <v>0.996301</v>
       </c>
       <c r="D65" t="n">
-        <v>2.17801</v>
+        <v>2.12229</v>
       </c>
       <c r="E65" t="n">
-        <v>0.545217</v>
+        <v>0.528998</v>
       </c>
       <c r="F65" t="n">
-        <v>0.94783</v>
+        <v>0.937183</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.566568</v>
+        <v>0.567255</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985808</v>
+        <v>0.991437</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11281</v>
+        <v>2.07654</v>
       </c>
       <c r="E66" t="n">
-        <v>0.81885</v>
+        <v>0.798449</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44796</v>
+        <v>1.4365</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.855712</v>
+        <v>0.842547</v>
       </c>
       <c r="C67" t="n">
-        <v>1.61993</v>
+        <v>1.55595</v>
       </c>
       <c r="D67" t="n">
-        <v>2.07961</v>
+        <v>2.0182</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7895</v>
+        <v>0.775985</v>
       </c>
       <c r="F67" t="n">
-        <v>1.44435</v>
+        <v>1.40807</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.826321</v>
+        <v>0.818974</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53753</v>
+        <v>1.54125</v>
       </c>
       <c r="D68" t="n">
-        <v>2.01927</v>
+        <v>2.09932</v>
       </c>
       <c r="E68" t="n">
-        <v>0.761539</v>
+        <v>0.839491</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3906</v>
+        <v>1.38922</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820931</v>
+        <v>0.814766</v>
       </c>
       <c r="C69" t="n">
-        <v>1.50333</v>
+        <v>1.49545</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98744</v>
+        <v>1.98533</v>
       </c>
       <c r="E69" t="n">
-        <v>0.750139</v>
+        <v>0.744826</v>
       </c>
       <c r="F69" t="n">
-        <v>1.45568</v>
+        <v>1.35149</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785488</v>
+        <v>0.781316</v>
       </c>
       <c r="C70" t="n">
-        <v>1.48528</v>
+        <v>1.45909</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95407</v>
+        <v>1.95139</v>
       </c>
       <c r="E70" t="n">
-        <v>0.755919</v>
+        <v>0.751088</v>
       </c>
       <c r="F70" t="n">
-        <v>1.36953</v>
+        <v>1.34184</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767582</v>
+        <v>0.785139</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47593</v>
+        <v>1.44003</v>
       </c>
       <c r="D71" t="n">
-        <v>1.89446</v>
+        <v>1.91804</v>
       </c>
       <c r="E71" t="n">
-        <v>0.725338</v>
+        <v>0.704553</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39244</v>
+        <v>1.31177</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.754706</v>
+        <v>0.741903</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42182</v>
+        <v>1.42134</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90082</v>
+        <v>1.90551</v>
       </c>
       <c r="E72" t="n">
-        <v>0.711277</v>
+        <v>0.714188</v>
       </c>
       <c r="F72" t="n">
-        <v>1.29699</v>
+        <v>1.31939</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739498</v>
+        <v>0.782463</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3781</v>
+        <v>1.42899</v>
       </c>
       <c r="D73" t="n">
-        <v>1.88725</v>
+        <v>1.96615</v>
       </c>
       <c r="E73" t="n">
-        <v>0.69472</v>
+        <v>0.672021</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28711</v>
+        <v>1.26696</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.719116</v>
+        <v>0.733354</v>
       </c>
       <c r="C74" t="n">
-        <v>1.37769</v>
+        <v>1.36999</v>
       </c>
       <c r="D74" t="n">
-        <v>1.94243</v>
+        <v>1.91503</v>
       </c>
       <c r="E74" t="n">
-        <v>0.709723</v>
+        <v>0.664195</v>
       </c>
       <c r="F74" t="n">
-        <v>1.24653</v>
+        <v>1.25303</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.709191</v>
+        <v>0.706297</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3371</v>
+        <v>1.35009</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89602</v>
+        <v>1.98087</v>
       </c>
       <c r="E75" t="n">
-        <v>0.650394</v>
+        <v>0.6765370000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.23326</v>
+        <v>1.22008</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723523</v>
+        <v>0.688261</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33242</v>
+        <v>1.31926</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90883</v>
+        <v>1.92875</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633501</v>
+        <v>0.673357</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21796</v>
+        <v>1.21653</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678826</v>
+        <v>0.670718</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28752</v>
+        <v>1.33257</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83466</v>
+        <v>1.84513</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625237</v>
+        <v>0.620429</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20719</v>
+        <v>1.19907</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677021</v>
+        <v>0.6584100000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29882</v>
+        <v>1.27257</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0562</v>
+        <v>3.04944</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618597</v>
+        <v>0.605998</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18868</v>
+        <v>1.16759</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6711279999999999</v>
+        <v>0.656349</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27231</v>
+        <v>1.2784</v>
       </c>
       <c r="D79" t="n">
-        <v>2.94618</v>
+        <v>2.97566</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611275</v>
+        <v>0.602552</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17615</v>
+        <v>1.16329</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653607</v>
+        <v>0.6404339999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25454</v>
+        <v>1.25754</v>
       </c>
       <c r="D80" t="n">
-        <v>2.90944</v>
+        <v>2.92798</v>
       </c>
       <c r="E80" t="n">
-        <v>0.915427</v>
+        <v>0.923797</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98089</v>
+        <v>1.97121</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.968063</v>
+        <v>0.940035</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14213</v>
+        <v>2.11278</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00928</v>
+        <v>2.87698</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8984839999999999</v>
+        <v>0.926922</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94384</v>
+        <v>1.91075</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943176</v>
+        <v>0.923018</v>
       </c>
       <c r="C82" t="n">
-        <v>2.07147</v>
+        <v>2.05559</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91159</v>
+        <v>2.78823</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.8644230000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1.90613</v>
+        <v>1.88347</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.965661</v>
+        <v>0.906567</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04059</v>
+        <v>2.00685</v>
       </c>
       <c r="D83" t="n">
-        <v>2.7523</v>
+        <v>2.74447</v>
       </c>
       <c r="E83" t="n">
-        <v>0.852823</v>
+        <v>0.871312</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85847</v>
+        <v>1.84507</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.912673</v>
+        <v>0.957477</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96099</v>
+        <v>1.96871</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75311</v>
+        <v>2.71112</v>
       </c>
       <c r="E84" t="n">
-        <v>0.828427</v>
+        <v>0.822306</v>
       </c>
       <c r="F84" t="n">
-        <v>1.82706</v>
+        <v>1.78529</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914069</v>
+        <v>0.867769</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96364</v>
+        <v>1.91603</v>
       </c>
       <c r="D85" t="n">
-        <v>2.66794</v>
+        <v>2.7075</v>
       </c>
       <c r="E85" t="n">
-        <v>0.812127</v>
+        <v>0.827743</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75396</v>
+        <v>1.76205</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873924</v>
+        <v>0.8579290000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89425</v>
+        <v>1.87362</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7381</v>
+        <v>2.71836</v>
       </c>
       <c r="E86" t="n">
-        <v>0.792926</v>
+        <v>0.787459</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73693</v>
+        <v>1.69394</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851912</v>
+        <v>0.831279</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90181</v>
+        <v>1.89012</v>
       </c>
       <c r="D87" t="n">
-        <v>2.60488</v>
+        <v>2.67438</v>
       </c>
       <c r="E87" t="n">
-        <v>0.774383</v>
+        <v>0.769001</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67721</v>
+        <v>1.71266</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.839299</v>
+        <v>0.820224</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81521</v>
+        <v>1.81766</v>
       </c>
       <c r="D88" t="n">
-        <v>2.5833</v>
+        <v>2.60085</v>
       </c>
       <c r="E88" t="n">
-        <v>0.776703</v>
+        <v>0.753051</v>
       </c>
       <c r="F88" t="n">
-        <v>1.68596</v>
+        <v>1.65523</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833472</v>
+        <v>0.8022</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79135</v>
+        <v>1.76765</v>
       </c>
       <c r="D89" t="n">
-        <v>2.61921</v>
+        <v>2.56421</v>
       </c>
       <c r="E89" t="n">
-        <v>0.74326</v>
+        <v>0.739527</v>
       </c>
       <c r="F89" t="n">
-        <v>1.60696</v>
+        <v>1.61035</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813693</v>
+        <v>0.797326</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76818</v>
+        <v>1.72213</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60431</v>
+        <v>2.59566</v>
       </c>
       <c r="E90" t="n">
-        <v>0.73038</v>
+        <v>0.726228</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59092</v>
+        <v>1.59892</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795088</v>
+        <v>0.786994</v>
       </c>
       <c r="C91" t="n">
-        <v>1.72242</v>
+        <v>1.71802</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59823</v>
+        <v>2.60538</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733428</v>
+        <v>0.716287</v>
       </c>
       <c r="F91" t="n">
-        <v>1.57273</v>
+        <v>1.56899</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.768605</v>
+        <v>0.772418</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67462</v>
+        <v>1.69741</v>
       </c>
       <c r="D92" t="n">
-        <v>3.57596</v>
+        <v>3.60643</v>
       </c>
       <c r="E92" t="n">
-        <v>0.71538</v>
+        <v>0.700792</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52747</v>
+        <v>1.53371</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769192</v>
+        <v>0.769926</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65008</v>
+        <v>1.66847</v>
       </c>
       <c r="D93" t="n">
-        <v>3.53769</v>
+        <v>3.59465</v>
       </c>
       <c r="E93" t="n">
-        <v>0.726693</v>
+        <v>0.692964</v>
       </c>
       <c r="F93" t="n">
-        <v>1.54553</v>
+        <v>1.53082</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771715</v>
+        <v>0.742466</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62698</v>
+        <v>1.66796</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5332</v>
+        <v>3.50129</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02169</v>
+        <v>1.02269</v>
       </c>
       <c r="F94" t="n">
-        <v>2.50487</v>
+        <v>2.55495</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08418</v>
+        <v>1.10247</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74023</v>
+        <v>2.69616</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5124</v>
+        <v>3.43945</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00679</v>
+        <v>1.00471</v>
       </c>
       <c r="F95" t="n">
-        <v>2.48916</v>
+        <v>2.46607</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06575</v>
+        <v>1.09043</v>
       </c>
       <c r="C96" t="n">
-        <v>2.74851</v>
+        <v>2.65422</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31612</v>
+        <v>3.34095</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989348</v>
+        <v>0.992393</v>
       </c>
       <c r="F96" t="n">
-        <v>2.35096</v>
+        <v>2.40273</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04285</v>
+        <v>1.06728</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55837</v>
+        <v>2.60182</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32588</v>
+        <v>3.42557</v>
       </c>
       <c r="E97" t="n">
-        <v>0.975986</v>
+        <v>0.938432</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37816</v>
+        <v>2.37822</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00602</v>
+        <v>1.06034</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49865</v>
+        <v>2.62189</v>
       </c>
       <c r="D98" t="n">
-        <v>3.39154</v>
+        <v>3.3535</v>
       </c>
       <c r="E98" t="n">
-        <v>0.931532</v>
+        <v>0.9404709999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30082</v>
+        <v>2.31253</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01178</v>
+        <v>1.00261</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46171</v>
+        <v>2.47219</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28686</v>
+        <v>3.28352</v>
       </c>
       <c r="E99" t="n">
-        <v>0.928202</v>
+        <v>0.900541</v>
       </c>
       <c r="F99" t="n">
-        <v>2.20199</v>
+        <v>2.23077</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00205</v>
+        <v>1.0015</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40753</v>
+        <v>2.42635</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14925</v>
+        <v>3.26084</v>
       </c>
       <c r="E100" t="n">
-        <v>0.896126</v>
+        <v>0.924431</v>
       </c>
       <c r="F100" t="n">
-        <v>2.18158</v>
+        <v>2.16975</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971307</v>
+        <v>0.969484</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33332</v>
+        <v>2.41055</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27451</v>
+        <v>3.17431</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.872403</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11107</v>
+        <v>2.11897</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953824</v>
+        <v>0.94883</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29159</v>
+        <v>2.32692</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1488</v>
+        <v>3.1714</v>
       </c>
       <c r="E102" t="n">
-        <v>0.851868</v>
+        <v>0.862547</v>
       </c>
       <c r="F102" t="n">
-        <v>2.06372</v>
+        <v>2.11288</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932949</v>
+        <v>0.93896</v>
       </c>
       <c r="C103" t="n">
-        <v>2.21041</v>
+        <v>2.28384</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05602</v>
+        <v>3.10807</v>
       </c>
       <c r="E103" t="n">
-        <v>0.867088</v>
+        <v>0.842627</v>
       </c>
       <c r="F103" t="n">
-        <v>2.01796</v>
+        <v>2.04094</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9299809999999999</v>
+        <v>0.9601189999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.161</v>
+        <v>2.20538</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06156</v>
+        <v>3.10801</v>
       </c>
       <c r="E104" t="n">
-        <v>0.843205</v>
+        <v>0.833156</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9756</v>
+        <v>1.99451</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.93072</v>
+        <v>0.920372</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14861</v>
+        <v>2.19065</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05091</v>
+        <v>3.1235</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841862</v>
+        <v>0.819474</v>
       </c>
       <c r="F105" t="n">
-        <v>1.95348</v>
+        <v>1.96127</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90806</v>
+        <v>0.920534</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08289</v>
+        <v>2.15819</v>
       </c>
       <c r="D106" t="n">
-        <v>3.06286</v>
+        <v>3.04168</v>
       </c>
       <c r="E106" t="n">
-        <v>0.809347</v>
+        <v>0.829606</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95531</v>
+        <v>1.95983</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923753</v>
+        <v>0.8892139999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13231</v>
+        <v>2.12407</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25392</v>
+        <v>4.21368</v>
       </c>
       <c r="E107" t="n">
-        <v>0.823731</v>
+        <v>0.815291</v>
       </c>
       <c r="F107" t="n">
-        <v>1.94767</v>
+        <v>1.9216</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.900423</v>
+        <v>0.898958</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09289</v>
+        <v>2.05928</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10799</v>
+        <v>4.08891</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14817</v>
+        <v>1.09665</v>
       </c>
       <c r="F108" t="n">
-        <v>3.04966</v>
+        <v>3.02139</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872599</v>
+        <v>0.869858</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05056</v>
+        <v>2.03655</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01272</v>
+        <v>4.00731</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12126</v>
+        <v>1.11251</v>
       </c>
       <c r="F109" t="n">
-        <v>2.96604</v>
+        <v>2.91587</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19757</v>
+        <v>1.19168</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17492</v>
+        <v>3.11568</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97299</v>
+        <v>3.96116</v>
       </c>
       <c r="E110" t="n">
-        <v>1.08534</v>
+        <v>1.07563</v>
       </c>
       <c r="F110" t="n">
-        <v>2.869</v>
+        <v>2.84889</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16604</v>
+        <v>1.20393</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13645</v>
+        <v>3.08408</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95988</v>
+        <v>3.909</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12159</v>
+        <v>1.09854</v>
       </c>
       <c r="F111" t="n">
-        <v>2.83422</v>
+        <v>2.79933</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14753</v>
+        <v>1.18528</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03503</v>
+        <v>3.05176</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93714</v>
+        <v>3.8977</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11134</v>
+        <v>1.07937</v>
       </c>
       <c r="F112" t="n">
-        <v>2.82322</v>
+        <v>2.71756</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15598</v>
+        <v>1.13812</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00706</v>
+        <v>2.95923</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81217</v>
+        <v>3.81627</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06255</v>
+        <v>1.05932</v>
       </c>
       <c r="F113" t="n">
-        <v>2.72726</v>
+        <v>2.75388</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14981</v>
+        <v>1.15435</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97442</v>
+        <v>2.93454</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83608</v>
+        <v>3.80531</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07588</v>
+        <v>1.04067</v>
       </c>
       <c r="F114" t="n">
-        <v>2.68609</v>
+        <v>2.60589</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13566</v>
+        <v>1.11105</v>
       </c>
       <c r="C115" t="n">
-        <v>2.91551</v>
+        <v>2.83277</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79197</v>
+        <v>3.77815</v>
       </c>
       <c r="E115" t="n">
-        <v>1.05717</v>
+        <v>1.04293</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60336</v>
+        <v>2.60492</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14858</v>
+        <v>1.10933</v>
       </c>
       <c r="C116" t="n">
-        <v>2.81258</v>
+        <v>2.77673</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70405</v>
+        <v>3.70324</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02575</v>
+        <v>1.05465</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54748</v>
+        <v>2.53313</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1213</v>
+        <v>1.12997</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78248</v>
+        <v>2.73783</v>
       </c>
       <c r="D117" t="n">
-        <v>3.69834</v>
+        <v>3.65526</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00789</v>
+        <v>1.00113</v>
       </c>
       <c r="F117" t="n">
-        <v>2.47251</v>
+        <v>2.50079</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09157</v>
+        <v>1.10663</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76407</v>
+        <v>2.71126</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6886</v>
+        <v>3.62586</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00685</v>
+        <v>0.978207</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43947</v>
+        <v>2.40644</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10224</v>
+        <v>1.08772</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68266</v>
+        <v>2.6792</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64735</v>
+        <v>3.65998</v>
       </c>
       <c r="E119" t="n">
-        <v>1.00353</v>
+        <v>0.982463</v>
       </c>
       <c r="F119" t="n">
-        <v>2.40417</v>
+        <v>2.37673</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08016</v>
+        <v>1.12193</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59859</v>
+        <v>2.61092</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60918</v>
+        <v>3.5807</v>
       </c>
       <c r="E120" t="n">
-        <v>0.984764</v>
+        <v>0.970803</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36724</v>
+        <v>2.34792</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08303</v>
+        <v>1.09013</v>
       </c>
       <c r="C121" t="n">
-        <v>2.55278</v>
+        <v>2.56883</v>
       </c>
       <c r="D121" t="n">
-        <v>4.93811</v>
+        <v>4.85056</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9731919999999999</v>
+        <v>0.967868</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33548</v>
+        <v>2.30778</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07829</v>
+        <v>1.08192</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55719</v>
+        <v>2.55615</v>
       </c>
       <c r="D122" t="n">
-        <v>4.80853</v>
+        <v>4.83171</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958604</v>
+        <v>0.958107</v>
       </c>
       <c r="F122" t="n">
-        <v>2.33322</v>
+        <v>2.28839</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0742</v>
+        <v>1.08286</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52484</v>
+        <v>2.53032</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7414</v>
+        <v>4.70441</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29905</v>
+        <v>1.27088</v>
       </c>
       <c r="F123" t="n">
-        <v>3.51166</v>
+        <v>3.43362</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37985</v>
+        <v>1.39218</v>
       </c>
       <c r="C124" t="n">
-        <v>3.75171</v>
+        <v>3.7305</v>
       </c>
       <c r="D124" t="n">
-        <v>4.71081</v>
+        <v>4.63173</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3021</v>
+        <v>1.28927</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38121</v>
+        <v>3.35451</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38717</v>
+        <v>1.36168</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63345</v>
+        <v>3.63965</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56309</v>
+        <v>4.57661</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28362</v>
+        <v>1.27735</v>
       </c>
       <c r="F125" t="n">
-        <v>3.29702</v>
+        <v>3.27159</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38422</v>
+        <v>1.37543</v>
       </c>
       <c r="C126" t="n">
-        <v>3.63492</v>
+        <v>3.59432</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55072</v>
+        <v>4.48791</v>
       </c>
       <c r="E126" t="n">
-        <v>1.28218</v>
+        <v>1.25466</v>
       </c>
       <c r="F126" t="n">
-        <v>3.26696</v>
+        <v>3.19333</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39177</v>
+        <v>1.36579</v>
       </c>
       <c r="C127" t="n">
-        <v>3.52019</v>
+        <v>3.49275</v>
       </c>
       <c r="D127" t="n">
-        <v>4.47824</v>
+        <v>4.43789</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2695</v>
+        <v>1.23963</v>
       </c>
       <c r="F127" t="n">
-        <v>3.18236</v>
+        <v>3.16606</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34421</v>
+        <v>1.34416</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41867</v>
+        <v>3.41659</v>
       </c>
       <c r="D128" t="n">
-        <v>4.41536</v>
+        <v>4.38971</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27759</v>
+        <v>1.24707</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11321</v>
+        <v>3.09983</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35125</v>
+        <v>1.35854</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38055</v>
+        <v>3.36122</v>
       </c>
       <c r="D129" t="n">
-        <v>4.35577</v>
+        <v>4.33286</v>
       </c>
       <c r="E129" t="n">
-        <v>1.23558</v>
+        <v>1.24628</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04803</v>
+        <v>3.04094</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36445</v>
+        <v>1.36042</v>
       </c>
       <c r="C130" t="n">
-        <v>3.30338</v>
+        <v>3.29821</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2794</v>
+        <v>4.26252</v>
       </c>
       <c r="E130" t="n">
-        <v>1.241</v>
+        <v>1.24889</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00293</v>
+        <v>2.99407</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3557</v>
+        <v>1.35117</v>
       </c>
       <c r="C131" t="n">
-        <v>3.30477</v>
+        <v>3.25777</v>
       </c>
       <c r="D131" t="n">
-        <v>4.25215</v>
+        <v>4.23771</v>
       </c>
       <c r="E131" t="n">
-        <v>1.256</v>
+        <v>1.22649</v>
       </c>
       <c r="F131" t="n">
-        <v>2.98108</v>
+        <v>2.92056</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35459</v>
+        <v>1.33776</v>
       </c>
       <c r="C132" t="n">
-        <v>3.21955</v>
+        <v>3.18765</v>
       </c>
       <c r="D132" t="n">
-        <v>4.22341</v>
+        <v>4.18486</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24739</v>
+        <v>1.23612</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88349</v>
+        <v>2.87647</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32891</v>
+        <v>1.34767</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15426</v>
+        <v>3.15967</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2413</v>
+        <v>4.15847</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23362</v>
+        <v>1.21226</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84003</v>
+        <v>2.82437</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31717</v>
+        <v>1.33751</v>
       </c>
       <c r="C134" t="n">
-        <v>3.13424</v>
+        <v>3.10905</v>
       </c>
       <c r="D134" t="n">
-        <v>4.18816</v>
+        <v>4.16924</v>
       </c>
       <c r="E134" t="n">
-        <v>1.22683</v>
+        <v>1.21288</v>
       </c>
       <c r="F134" t="n">
-        <v>2.81872</v>
+        <v>2.79464</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39006</v>
+        <v>1.32527</v>
       </c>
       <c r="C135" t="n">
-        <v>3.08058</v>
+        <v>3.06795</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67468</v>
+        <v>5.63915</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25035</v>
+        <v>1.22149</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75636</v>
+        <v>2.72939</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32544</v>
+        <v>1.34638</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06988</v>
+        <v>3.01626</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60148</v>
+        <v>5.5468</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21942</v>
+        <v>1.21337</v>
       </c>
       <c r="F136" t="n">
-        <v>2.72918</v>
+        <v>2.69771</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35621</v>
+        <v>1.35991</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00577</v>
+        <v>2.99747</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44151</v>
+        <v>5.45324</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57894</v>
+        <v>1.55467</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00985</v>
+        <v>3.96077</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.67963</v>
+        <v>1.64256</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34988</v>
+        <v>4.3375</v>
       </c>
       <c r="D138" t="n">
-        <v>5.3562</v>
+        <v>5.31909</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57405</v>
+        <v>1.54705</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89679</v>
+        <v>3.8884</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64808</v>
+        <v>1.66037</v>
       </c>
       <c r="C139" t="n">
-        <v>4.25406</v>
+        <v>4.21644</v>
       </c>
       <c r="D139" t="n">
-        <v>5.26764</v>
+        <v>5.25821</v>
       </c>
       <c r="E139" t="n">
-        <v>1.55706</v>
+        <v>1.58001</v>
       </c>
       <c r="F139" t="n">
-        <v>3.83266</v>
+        <v>3.81101</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.67247</v>
+        <v>1.6675</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18962</v>
+        <v>4.11484</v>
       </c>
       <c r="D140" t="n">
-        <v>5.16642</v>
+        <v>5.15875</v>
       </c>
       <c r="E140" t="n">
-        <v>1.53212</v>
+        <v>1.52346</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75824</v>
+        <v>3.71644</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63474</v>
+        <v>1.66961</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09438</v>
+        <v>4.03057</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06514</v>
+        <v>5.07448</v>
       </c>
       <c r="E141" t="n">
-        <v>1.53172</v>
+        <v>1.54602</v>
       </c>
       <c r="F141" t="n">
-        <v>3.63691</v>
+        <v>3.6361</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65906</v>
+        <v>1.65584</v>
       </c>
       <c r="C142" t="n">
-        <v>3.98981</v>
+        <v>3.96349</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0716</v>
+        <v>5.01733</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53279</v>
+        <v>1.53081</v>
       </c>
       <c r="F142" t="n">
-        <v>3.60441</v>
+        <v>3.58511</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64625</v>
+        <v>1.6512</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92156</v>
+        <v>3.87923</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91479</v>
+        <v>4.95165</v>
       </c>
       <c r="E143" t="n">
-        <v>1.52123</v>
+        <v>1.51089</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49577</v>
+        <v>3.49505</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591998</v>
+        <v>0.5920029999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.895713</v>
+        <v>0.808108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.996316</v>
+        <v>1.05052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.364789</v>
+        <v>0.339327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.800601</v>
+        <v>0.788851</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.341738</v>
+        <v>0.340512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.811107</v>
+        <v>0.806926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.994388</v>
+        <v>0.999241</v>
       </c>
       <c r="E3" t="n">
-        <v>0.317715</v>
+        <v>0.320319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.781016</v>
+        <v>0.78169</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.33489</v>
+        <v>0.332827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.822247</v>
+        <v>0.795567</v>
       </c>
       <c r="D4" t="n">
-        <v>0.976216</v>
+        <v>0.988039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.318426</v>
+        <v>0.316156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.773055</v>
+        <v>0.798584</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32819</v>
+        <v>0.331222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.791523</v>
+        <v>0.797973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.959883</v>
+        <v>0.950072</v>
       </c>
       <c r="E5" t="n">
-        <v>0.306828</v>
+        <v>0.301734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762894</v>
+        <v>0.768173</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.320703</v>
+        <v>0.323885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.780739</v>
+        <v>0.781455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.946383</v>
+        <v>0.958325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.29998</v>
+        <v>0.303341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.756646</v>
+        <v>0.764161</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.315171</v>
+        <v>0.316823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.787323</v>
+        <v>0.789794</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1557</v>
+        <v>1.17059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.298483</v>
+        <v>0.30151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7661249999999999</v>
+        <v>0.758494</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.312417</v>
+        <v>0.332191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.756096</v>
+        <v>0.763108</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11104</v>
+        <v>1.13766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.289728</v>
+        <v>0.325823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.741471</v>
+        <v>0.755807</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306388</v>
+        <v>0.310474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.76237</v>
+        <v>0.766764</v>
       </c>
       <c r="D9" t="n">
-        <v>1.12816</v>
+        <v>1.11315</v>
       </c>
       <c r="E9" t="n">
-        <v>0.53531</v>
+        <v>0.5520659999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.842882</v>
+        <v>0.867223</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5492899999999999</v>
+        <v>0.559477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.876192</v>
+        <v>0.8756</v>
       </c>
       <c r="D10" t="n">
-        <v>1.11242</v>
+        <v>1.07969</v>
       </c>
       <c r="E10" t="n">
-        <v>0.547067</v>
+        <v>0.519949</v>
       </c>
       <c r="F10" t="n">
-        <v>0.831749</v>
+        <v>0.836812</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.528483</v>
+        <v>0.533081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.856866</v>
+        <v>0.857389</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04853</v>
+        <v>1.10847</v>
       </c>
       <c r="E11" t="n">
-        <v>0.518531</v>
+        <v>0.50295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.827766</v>
+        <v>0.822581</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.521719</v>
+        <v>0.527431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.845589</v>
+        <v>0.842575</v>
       </c>
       <c r="D12" t="n">
-        <v>1.08631</v>
+        <v>1.03795</v>
       </c>
       <c r="E12" t="n">
-        <v>0.516061</v>
+        <v>0.489135</v>
       </c>
       <c r="F12" t="n">
-        <v>0.810186</v>
+        <v>0.812176</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.49898</v>
+        <v>0.551086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.837817</v>
+        <v>0.875416</v>
       </c>
       <c r="D13" t="n">
-        <v>1.03218</v>
+        <v>1.02469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.483992</v>
+        <v>0.471525</v>
       </c>
       <c r="F13" t="n">
-        <v>0.824224</v>
+        <v>0.803655</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.507532</v>
+        <v>0.485495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.829202</v>
+        <v>0.816623</v>
       </c>
       <c r="D14" t="n">
-        <v>1.01671</v>
+        <v>1.0136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.455181</v>
+        <v>0.46763</v>
       </c>
       <c r="F14" t="n">
-        <v>0.790914</v>
+        <v>0.7935410000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.471547</v>
+        <v>0.478409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.814859</v>
+        <v>0.810065</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01213</v>
+        <v>1.00314</v>
       </c>
       <c r="E15" t="n">
-        <v>0.444042</v>
+        <v>0.444899</v>
       </c>
       <c r="F15" t="n">
-        <v>0.786795</v>
+        <v>0.78579</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.459161</v>
+        <v>0.46299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.830815</v>
+        <v>0.80646</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0075</v>
+        <v>1.00006</v>
       </c>
       <c r="E16" t="n">
-        <v>0.430348</v>
+        <v>0.443866</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7758890000000001</v>
+        <v>0.805377</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.445101</v>
+        <v>0.448598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.79606</v>
+        <v>0.795225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.982826</v>
+        <v>0.989655</v>
       </c>
       <c r="E17" t="n">
-        <v>0.417512</v>
+        <v>0.422529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.769754</v>
+        <v>0.77262</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.435361</v>
+        <v>0.447174</v>
       </c>
       <c r="C18" t="n">
-        <v>0.789734</v>
+        <v>0.7861399999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>1.00419</v>
+        <v>0.976544</v>
       </c>
       <c r="E18" t="n">
-        <v>0.419957</v>
+        <v>0.418317</v>
       </c>
       <c r="F18" t="n">
-        <v>0.764561</v>
+        <v>0.766502</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.432537</v>
+        <v>0.427713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.798814</v>
+        <v>0.7970739999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.984331</v>
+        <v>0.970742</v>
       </c>
       <c r="E19" t="n">
-        <v>0.401421</v>
+        <v>0.400774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.767172</v>
+        <v>0.760166</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.421941</v>
+        <v>0.416255</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7780049999999999</v>
+        <v>0.774693</v>
       </c>
       <c r="D20" t="n">
-        <v>0.962122</v>
+        <v>0.965715</v>
       </c>
       <c r="E20" t="n">
-        <v>0.388776</v>
+        <v>0.400163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.759687</v>
+        <v>0.75742</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.416641</v>
+        <v>0.408046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.775353</v>
+        <v>0.7751209999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1685</v>
+        <v>1.17587</v>
       </c>
       <c r="E21" t="n">
-        <v>0.381384</v>
+        <v>0.390054</v>
       </c>
       <c r="F21" t="n">
-        <v>0.761657</v>
+        <v>0.754166</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.394596</v>
+        <v>0.398247</v>
       </c>
       <c r="C22" t="n">
-        <v>0.769602</v>
+        <v>0.764552</v>
       </c>
       <c r="D22" t="n">
-        <v>1.15067</v>
+        <v>1.14928</v>
       </c>
       <c r="E22" t="n">
-        <v>0.376559</v>
+        <v>0.377504</v>
       </c>
       <c r="F22" t="n">
-        <v>0.750673</v>
+        <v>0.7503880000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.393546</v>
+        <v>0.394926</v>
       </c>
       <c r="C23" t="n">
-        <v>0.787972</v>
+        <v>0.785242</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1291</v>
+        <v>1.13205</v>
       </c>
       <c r="E23" t="n">
-        <v>0.628338</v>
+        <v>0.66483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.870255</v>
+        <v>0.873984</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6412409999999999</v>
+        <v>0.65465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.890763</v>
+        <v>0.890219</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13732</v>
+        <v>1.10898</v>
       </c>
       <c r="E24" t="n">
-        <v>0.617294</v>
+        <v>0.626076</v>
       </c>
       <c r="F24" t="n">
-        <v>0.861653</v>
+        <v>0.8545430000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.636973</v>
+        <v>0.629396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.881387</v>
+        <v>0.8766620000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1.099</v>
+        <v>1.09813</v>
       </c>
       <c r="E25" t="n">
-        <v>0.588316</v>
+        <v>0.631402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.848429</v>
+        <v>0.858785</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.614435</v>
+        <v>0.611793</v>
       </c>
       <c r="C26" t="n">
-        <v>0.87259</v>
+        <v>0.872596</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09369</v>
+        <v>1.09043</v>
       </c>
       <c r="E26" t="n">
-        <v>0.569123</v>
+        <v>0.5801500000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8381690000000001</v>
+        <v>0.838114</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.58719</v>
+        <v>0.593399</v>
       </c>
       <c r="C27" t="n">
-        <v>0.884578</v>
+        <v>0.855603</v>
       </c>
       <c r="D27" t="n">
-        <v>1.07674</v>
+        <v>1.07821</v>
       </c>
       <c r="E27" t="n">
-        <v>0.550865</v>
+        <v>0.55882</v>
       </c>
       <c r="F27" t="n">
-        <v>0.833936</v>
+        <v>0.83013</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.571182</v>
+        <v>0.5750729999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.853992</v>
+        <v>0.847287</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06209</v>
+        <v>1.05937</v>
       </c>
       <c r="E28" t="n">
-        <v>0.533097</v>
+        <v>0.539327</v>
       </c>
       <c r="F28" t="n">
-        <v>0.825603</v>
+        <v>0.822682</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.557713</v>
+        <v>0.558194</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8406090000000001</v>
+        <v>0.851668</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04939</v>
+        <v>1.0428</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5165419999999999</v>
+        <v>0.525154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.815916</v>
+        <v>0.813742</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5340819999999999</v>
+        <v>0.540107</v>
       </c>
       <c r="C30" t="n">
-        <v>0.833605</v>
+        <v>0.833211</v>
       </c>
       <c r="D30" t="n">
-        <v>1.041</v>
+        <v>1.04384</v>
       </c>
       <c r="E30" t="n">
-        <v>0.501968</v>
+        <v>0.509046</v>
       </c>
       <c r="F30" t="n">
-        <v>0.803361</v>
+        <v>0.821622</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.522159</v>
+        <v>0.535821</v>
       </c>
       <c r="C31" t="n">
-        <v>0.825944</v>
+        <v>0.823533</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0282</v>
+        <v>1.02244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.487806</v>
+        <v>0.492292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.796436</v>
+        <v>0.797555</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.503242</v>
+        <v>0.508231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.819257</v>
+        <v>0.817539</v>
       </c>
       <c r="D32" t="n">
-        <v>1.02491</v>
+        <v>1.01703</v>
       </c>
       <c r="E32" t="n">
-        <v>0.474053</v>
+        <v>0.475907</v>
       </c>
       <c r="F32" t="n">
-        <v>0.796084</v>
+        <v>0.789801</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502271</v>
+        <v>0.49638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.811841</v>
+        <v>0.803688</v>
       </c>
       <c r="D33" t="n">
-        <v>1.03207</v>
+        <v>1.01152</v>
       </c>
       <c r="E33" t="n">
-        <v>0.460387</v>
+        <v>0.46415</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7833020000000001</v>
+        <v>0.784226</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.480407</v>
+        <v>0.48429</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807714</v>
+        <v>0.799175</v>
       </c>
       <c r="D34" t="n">
-        <v>1.00989</v>
+        <v>1.00679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.454897</v>
+        <v>0.453827</v>
       </c>
       <c r="F34" t="n">
-        <v>0.782619</v>
+        <v>0.780519</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.477597</v>
+        <v>0.470338</v>
       </c>
       <c r="C35" t="n">
-        <v>0.800068</v>
+        <v>0.801891</v>
       </c>
       <c r="D35" t="n">
-        <v>1.27368</v>
+        <v>1.27607</v>
       </c>
       <c r="E35" t="n">
-        <v>0.439729</v>
+        <v>0.444148</v>
       </c>
       <c r="F35" t="n">
-        <v>0.780814</v>
+        <v>0.783552</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.45727</v>
+        <v>0.468465</v>
       </c>
       <c r="C36" t="n">
-        <v>0.801153</v>
+        <v>0.806296</v>
       </c>
       <c r="D36" t="n">
-        <v>1.32648</v>
+        <v>1.23448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.433421</v>
+        <v>0.434041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.781985</v>
+        <v>0.775338</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447887</v>
+        <v>0.452855</v>
       </c>
       <c r="C37" t="n">
-        <v>0.795669</v>
+        <v>0.788457</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23198</v>
+        <v>1.2206</v>
       </c>
       <c r="E37" t="n">
-        <v>0.687802</v>
+        <v>0.692306</v>
       </c>
       <c r="F37" t="n">
-        <v>0.969483</v>
+        <v>0.958357</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7019919999999999</v>
+        <v>0.707325</v>
       </c>
       <c r="C38" t="n">
-        <v>0.992707</v>
+        <v>0.980915</v>
       </c>
       <c r="D38" t="n">
-        <v>1.2115</v>
+        <v>1.19618</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6708499999999999</v>
+        <v>0.666786</v>
       </c>
       <c r="F38" t="n">
-        <v>0.966197</v>
+        <v>0.945125</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.687902</v>
+        <v>0.68806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996568</v>
+        <v>0.971878</v>
       </c>
       <c r="D39" t="n">
-        <v>1.19211</v>
+        <v>1.19172</v>
       </c>
       <c r="E39" t="n">
-        <v>0.667467</v>
+        <v>0.64533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.94006</v>
+        <v>0.9353</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.66253</v>
+        <v>0.665577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.96356</v>
+        <v>0.952101</v>
       </c>
       <c r="D40" t="n">
-        <v>1.17208</v>
+        <v>1.17103</v>
       </c>
       <c r="E40" t="n">
-        <v>0.624017</v>
+        <v>0.625169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9158579999999999</v>
+        <v>0.924029</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669322</v>
+        <v>0.650012</v>
       </c>
       <c r="C41" t="n">
-        <v>0.945695</v>
+        <v>0.943616</v>
       </c>
       <c r="D41" t="n">
-        <v>1.15373</v>
+        <v>1.15169</v>
       </c>
       <c r="E41" t="n">
-        <v>0.623263</v>
+        <v>0.604314</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9118230000000001</v>
+        <v>0.904346</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.622584</v>
+        <v>0.627722</v>
       </c>
       <c r="C42" t="n">
-        <v>0.93711</v>
+        <v>0.9272049999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1.15644</v>
+        <v>1.13566</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5937480000000001</v>
+        <v>0.5865899999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.892167</v>
+        <v>0.902693</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.606647</v>
+        <v>0.60695</v>
       </c>
       <c r="C43" t="n">
-        <v>0.93449</v>
+        <v>0.913722</v>
       </c>
       <c r="D43" t="n">
-        <v>1.13792</v>
+        <v>1.15016</v>
       </c>
       <c r="E43" t="n">
-        <v>0.562994</v>
+        <v>0.569447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.885103</v>
+        <v>0.894456</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.583277</v>
+        <v>0.596075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.914249</v>
+        <v>0.911076</v>
       </c>
       <c r="D44" t="n">
-        <v>1.18271</v>
+        <v>1.1344</v>
       </c>
       <c r="E44" t="n">
-        <v>0.544787</v>
+        <v>0.553354</v>
       </c>
       <c r="F44" t="n">
-        <v>0.872954</v>
+        <v>0.886061</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.568059</v>
+        <v>0.580005</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8964</v>
+        <v>0.908061</v>
       </c>
       <c r="D45" t="n">
-        <v>1.12453</v>
+        <v>1.13071</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5326959999999999</v>
+        <v>0.536075</v>
       </c>
       <c r="F45" t="n">
-        <v>0.869078</v>
+        <v>0.871291</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.559167</v>
+        <v>0.565213</v>
       </c>
       <c r="C46" t="n">
-        <v>0.895998</v>
+        <v>0.895207</v>
       </c>
       <c r="D46" t="n">
-        <v>1.16181</v>
+        <v>1.12339</v>
       </c>
       <c r="E46" t="n">
-        <v>0.533758</v>
+        <v>0.518935</v>
       </c>
       <c r="F46" t="n">
-        <v>0.874713</v>
+        <v>0.865519</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.541951</v>
+        <v>0.547522</v>
       </c>
       <c r="C47" t="n">
-        <v>0.888357</v>
+        <v>0.89533</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1102</v>
+        <v>1.1123</v>
       </c>
       <c r="E47" t="n">
-        <v>0.50884</v>
+        <v>0.508259</v>
       </c>
       <c r="F47" t="n">
-        <v>0.852741</v>
+        <v>0.8549909999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5386339999999999</v>
+        <v>0.528715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.878893</v>
+        <v>0.914086</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10993</v>
+        <v>1.09585</v>
       </c>
       <c r="E48" t="n">
-        <v>0.487792</v>
+        <v>0.5117159999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.843464</v>
+        <v>0.8576549999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.514368</v>
+        <v>0.518145</v>
       </c>
       <c r="C49" t="n">
-        <v>0.86873</v>
+        <v>0.878933</v>
       </c>
       <c r="D49" t="n">
-        <v>1.1094</v>
+        <v>1.10521</v>
       </c>
       <c r="E49" t="n">
-        <v>0.482186</v>
+        <v>0.482976</v>
       </c>
       <c r="F49" t="n">
-        <v>0.842286</v>
+        <v>0.849395</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.505789</v>
+        <v>0.505304</v>
       </c>
       <c r="C50" t="n">
-        <v>0.871617</v>
+        <v>0.870761</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55752</v>
+        <v>1.55677</v>
       </c>
       <c r="E50" t="n">
-        <v>0.465472</v>
+        <v>0.489482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.836589</v>
+        <v>0.844302</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.494502</v>
+        <v>0.500417</v>
       </c>
       <c r="C51" t="n">
-        <v>0.867816</v>
+        <v>0.862831</v>
       </c>
       <c r="D51" t="n">
-        <v>1.51746</v>
+        <v>1.52682</v>
       </c>
       <c r="E51" t="n">
-        <v>0.759077</v>
+        <v>0.733658</v>
       </c>
       <c r="F51" t="n">
-        <v>1.10374</v>
+        <v>1.14153</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.490225</v>
+        <v>0.504876</v>
       </c>
       <c r="C52" t="n">
-        <v>0.867993</v>
+        <v>0.865618</v>
       </c>
       <c r="D52" t="n">
-        <v>1.49591</v>
+        <v>1.48059</v>
       </c>
       <c r="E52" t="n">
-        <v>0.71517</v>
+        <v>0.738534</v>
       </c>
       <c r="F52" t="n">
-        <v>1.10334</v>
+        <v>1.09215</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.74014</v>
+        <v>0.746593</v>
       </c>
       <c r="C53" t="n">
-        <v>1.15488</v>
+        <v>1.14463</v>
       </c>
       <c r="D53" t="n">
-        <v>1.44842</v>
+        <v>1.46559</v>
       </c>
       <c r="E53" t="n">
-        <v>0.690165</v>
+        <v>0.735775</v>
       </c>
       <c r="F53" t="n">
-        <v>1.06614</v>
+        <v>1.07994</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7188099999999999</v>
+        <v>0.732382</v>
       </c>
       <c r="C54" t="n">
-        <v>1.13747</v>
+        <v>1.12766</v>
       </c>
       <c r="D54" t="n">
-        <v>1.46822</v>
+        <v>1.47003</v>
       </c>
       <c r="E54" t="n">
-        <v>0.704094</v>
+        <v>0.677181</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05636</v>
+        <v>1.05347</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.703739</v>
+        <v>0.724455</v>
       </c>
       <c r="C55" t="n">
-        <v>1.11855</v>
+        <v>1.10205</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43211</v>
+        <v>1.41597</v>
       </c>
       <c r="E55" t="n">
-        <v>0.653988</v>
+        <v>0.661806</v>
       </c>
       <c r="F55" t="n">
-        <v>1.04213</v>
+        <v>1.04542</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692851</v>
+        <v>0.702966</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08427</v>
+        <v>1.08845</v>
       </c>
       <c r="D56" t="n">
-        <v>1.39026</v>
+        <v>1.40435</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6431249999999999</v>
+        <v>0.642294</v>
       </c>
       <c r="F56" t="n">
-        <v>1.02489</v>
+        <v>1.03276</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.682057</v>
+        <v>0.676859</v>
       </c>
       <c r="C57" t="n">
-        <v>1.06758</v>
+        <v>1.0698</v>
       </c>
       <c r="D57" t="n">
-        <v>1.39141</v>
+        <v>1.41665</v>
       </c>
       <c r="E57" t="n">
-        <v>0.618743</v>
+        <v>0.626078</v>
       </c>
       <c r="F57" t="n">
-        <v>1.01495</v>
+        <v>1.05716</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.679809</v>
+        <v>0.66206</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06652</v>
+        <v>1.06133</v>
       </c>
       <c r="D58" t="n">
-        <v>1.36613</v>
+        <v>1.40185</v>
       </c>
       <c r="E58" t="n">
-        <v>0.60445</v>
+        <v>0.618489</v>
       </c>
       <c r="F58" t="n">
-        <v>0.98773</v>
+        <v>0.995395</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.63689</v>
+        <v>0.657034</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05044</v>
+        <v>1.04178</v>
       </c>
       <c r="D59" t="n">
-        <v>1.36732</v>
+        <v>1.36509</v>
       </c>
       <c r="E59" t="n">
-        <v>0.594342</v>
+        <v>0.594858</v>
       </c>
       <c r="F59" t="n">
-        <v>0.98848</v>
+        <v>0.9882649999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.637711</v>
+        <v>0.626516</v>
       </c>
       <c r="C60" t="n">
-        <v>1.06342</v>
+        <v>1.02939</v>
       </c>
       <c r="D60" t="n">
-        <v>1.42139</v>
+        <v>1.39023</v>
       </c>
       <c r="E60" t="n">
-        <v>0.589266</v>
+        <v>0.581692</v>
       </c>
       <c r="F60" t="n">
-        <v>0.997798</v>
+        <v>0.968855</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.617299</v>
+        <v>0.612165</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03787</v>
+        <v>1.0351</v>
       </c>
       <c r="D61" t="n">
-        <v>1.35988</v>
+        <v>1.3542</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.571171</v>
       </c>
       <c r="F61" t="n">
-        <v>0.978307</v>
+        <v>0.969835</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5987440000000001</v>
+        <v>0.6035970000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01642</v>
+        <v>1.01117</v>
       </c>
       <c r="D62" t="n">
-        <v>1.35749</v>
+        <v>1.37372</v>
       </c>
       <c r="E62" t="n">
-        <v>0.552098</v>
+        <v>0.583053</v>
       </c>
       <c r="F62" t="n">
-        <v>0.95157</v>
+        <v>0.954861</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.585519</v>
+        <v>0.5901690000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.994581</v>
+        <v>0.992014</v>
       </c>
       <c r="D63" t="n">
-        <v>1.36323</v>
+        <v>1.36474</v>
       </c>
       <c r="E63" t="n">
-        <v>0.551701</v>
+        <v>0.550458</v>
       </c>
       <c r="F63" t="n">
-        <v>0.95549</v>
+        <v>0.963126</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.583206</v>
+        <v>0.598407</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9968360000000001</v>
+        <v>0.986383</v>
       </c>
       <c r="D64" t="n">
-        <v>2.2341</v>
+        <v>2.16483</v>
       </c>
       <c r="E64" t="n">
-        <v>0.545147</v>
+        <v>0.539567</v>
       </c>
       <c r="F64" t="n">
-        <v>0.957184</v>
+        <v>0.949053</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.567601</v>
+        <v>0.568059</v>
       </c>
       <c r="C65" t="n">
-        <v>0.996301</v>
+        <v>0.992559</v>
       </c>
       <c r="D65" t="n">
-        <v>2.12229</v>
+        <v>2.18209</v>
       </c>
       <c r="E65" t="n">
-        <v>0.528998</v>
+        <v>0.534002</v>
       </c>
       <c r="F65" t="n">
-        <v>0.937183</v>
+        <v>0.948871</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.567255</v>
+        <v>0.584826</v>
       </c>
       <c r="C66" t="n">
-        <v>0.991437</v>
+        <v>1.02109</v>
       </c>
       <c r="D66" t="n">
-        <v>2.07654</v>
+        <v>2.07102</v>
       </c>
       <c r="E66" t="n">
-        <v>0.798449</v>
+        <v>0.805024</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4365</v>
+        <v>1.45798</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.842547</v>
+        <v>0.880429</v>
       </c>
       <c r="C67" t="n">
-        <v>1.55595</v>
+        <v>1.56758</v>
       </c>
       <c r="D67" t="n">
-        <v>2.0182</v>
+        <v>2.09346</v>
       </c>
       <c r="E67" t="n">
-        <v>0.775985</v>
+        <v>0.793863</v>
       </c>
       <c r="F67" t="n">
-        <v>1.40807</v>
+        <v>1.42824</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.818974</v>
+        <v>0.83163</v>
       </c>
       <c r="C68" t="n">
-        <v>1.54125</v>
+        <v>1.54588</v>
       </c>
       <c r="D68" t="n">
-        <v>2.09932</v>
+        <v>2.07123</v>
       </c>
       <c r="E68" t="n">
-        <v>0.839491</v>
+        <v>0.795292</v>
       </c>
       <c r="F68" t="n">
-        <v>1.38922</v>
+        <v>1.45374</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.814766</v>
+        <v>0.808938</v>
       </c>
       <c r="C69" t="n">
-        <v>1.49545</v>
+        <v>1.49028</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98533</v>
+        <v>2.06127</v>
       </c>
       <c r="E69" t="n">
-        <v>0.744826</v>
+        <v>0.7407589999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1.35149</v>
+        <v>1.41227</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.781316</v>
+        <v>0.785377</v>
       </c>
       <c r="C70" t="n">
-        <v>1.45909</v>
+        <v>1.45623</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95139</v>
+        <v>1.94019</v>
       </c>
       <c r="E70" t="n">
-        <v>0.751088</v>
+        <v>0.725918</v>
       </c>
       <c r="F70" t="n">
-        <v>1.34184</v>
+        <v>1.33476</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.785139</v>
+        <v>0.766198</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44003</v>
+        <v>1.47476</v>
       </c>
       <c r="D71" t="n">
-        <v>1.91804</v>
+        <v>1.98151</v>
       </c>
       <c r="E71" t="n">
-        <v>0.704553</v>
+        <v>0.737286</v>
       </c>
       <c r="F71" t="n">
-        <v>1.31177</v>
+        <v>1.3231</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.741903</v>
+        <v>0.749641</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42134</v>
+        <v>1.40338</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90551</v>
+        <v>1.91442</v>
       </c>
       <c r="E72" t="n">
-        <v>0.714188</v>
+        <v>0.695317</v>
       </c>
       <c r="F72" t="n">
-        <v>1.31939</v>
+        <v>1.32127</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.782463</v>
+        <v>0.761027</v>
       </c>
       <c r="C73" t="n">
-        <v>1.42899</v>
+        <v>1.38773</v>
       </c>
       <c r="D73" t="n">
-        <v>1.96615</v>
+        <v>1.91096</v>
       </c>
       <c r="E73" t="n">
-        <v>0.672021</v>
+        <v>0.673339</v>
       </c>
       <c r="F73" t="n">
-        <v>1.26696</v>
+        <v>1.27488</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.733354</v>
+        <v>0.729182</v>
       </c>
       <c r="C74" t="n">
-        <v>1.36999</v>
+        <v>1.34229</v>
       </c>
       <c r="D74" t="n">
-        <v>1.91503</v>
+        <v>1.86949</v>
       </c>
       <c r="E74" t="n">
-        <v>0.664195</v>
+        <v>0.66095</v>
       </c>
       <c r="F74" t="n">
-        <v>1.25303</v>
+        <v>1.23332</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.706297</v>
+        <v>0.701454</v>
       </c>
       <c r="C75" t="n">
-        <v>1.35009</v>
+        <v>1.39448</v>
       </c>
       <c r="D75" t="n">
-        <v>1.98087</v>
+        <v>1.92346</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6765370000000001</v>
+        <v>0.6478080000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.22008</v>
+        <v>1.23815</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.688261</v>
+        <v>0.703386</v>
       </c>
       <c r="C76" t="n">
-        <v>1.31926</v>
+        <v>1.32868</v>
       </c>
       <c r="D76" t="n">
-        <v>1.92875</v>
+        <v>1.91954</v>
       </c>
       <c r="E76" t="n">
-        <v>0.673357</v>
+        <v>0.650371</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21653</v>
+        <v>1.24775</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.670718</v>
+        <v>0.677086</v>
       </c>
       <c r="C77" t="n">
-        <v>1.33257</v>
+        <v>1.31492</v>
       </c>
       <c r="D77" t="n">
-        <v>1.84513</v>
+        <v>1.8681</v>
       </c>
       <c r="E77" t="n">
-        <v>0.620429</v>
+        <v>0.626252</v>
       </c>
       <c r="F77" t="n">
-        <v>1.19907</v>
+        <v>1.20733</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6584100000000001</v>
+        <v>0.677127</v>
       </c>
       <c r="C78" t="n">
-        <v>1.27257</v>
+        <v>1.28923</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04944</v>
+        <v>3.06319</v>
       </c>
       <c r="E78" t="n">
-        <v>0.605998</v>
+        <v>0.631633</v>
       </c>
       <c r="F78" t="n">
-        <v>1.16759</v>
+        <v>1.17963</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.656349</v>
+        <v>0.657034</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2784</v>
+        <v>1.24939</v>
       </c>
       <c r="D79" t="n">
-        <v>2.97566</v>
+        <v>2.96517</v>
       </c>
       <c r="E79" t="n">
-        <v>0.602552</v>
+        <v>0.608241</v>
       </c>
       <c r="F79" t="n">
-        <v>1.16329</v>
+        <v>1.15698</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6404339999999999</v>
+        <v>0.641276</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25754</v>
+        <v>1.23936</v>
       </c>
       <c r="D80" t="n">
-        <v>2.92798</v>
+        <v>2.91418</v>
       </c>
       <c r="E80" t="n">
-        <v>0.923797</v>
+        <v>0.906128</v>
       </c>
       <c r="F80" t="n">
-        <v>1.97121</v>
+        <v>1.95957</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.940035</v>
+        <v>0.946075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.11278</v>
+        <v>2.12035</v>
       </c>
       <c r="D81" t="n">
-        <v>2.87698</v>
+        <v>2.96553</v>
       </c>
       <c r="E81" t="n">
-        <v>0.926922</v>
+        <v>0.906595</v>
       </c>
       <c r="F81" t="n">
-        <v>1.91075</v>
+        <v>1.9146</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.923018</v>
+        <v>0.957495</v>
       </c>
       <c r="C82" t="n">
-        <v>2.05559</v>
+        <v>2.05728</v>
       </c>
       <c r="D82" t="n">
-        <v>2.78823</v>
+        <v>2.87616</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8644230000000001</v>
+        <v>0.864931</v>
       </c>
       <c r="F82" t="n">
-        <v>1.88347</v>
+        <v>1.87121</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.906567</v>
+        <v>0.956512</v>
       </c>
       <c r="C83" t="n">
-        <v>2.00685</v>
+        <v>2.00366</v>
       </c>
       <c r="D83" t="n">
-        <v>2.74447</v>
+        <v>2.76584</v>
       </c>
       <c r="E83" t="n">
-        <v>0.871312</v>
+        <v>0.839271</v>
       </c>
       <c r="F83" t="n">
-        <v>1.84507</v>
+        <v>1.8239</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.957477</v>
+        <v>0.907338</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96871</v>
+        <v>1.98957</v>
       </c>
       <c r="D84" t="n">
-        <v>2.71112</v>
+        <v>2.77417</v>
       </c>
       <c r="E84" t="n">
-        <v>0.822306</v>
+        <v>0.827229</v>
       </c>
       <c r="F84" t="n">
-        <v>1.78529</v>
+        <v>1.79731</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.867769</v>
+        <v>0.872511</v>
       </c>
       <c r="C85" t="n">
-        <v>1.91603</v>
+        <v>1.97083</v>
       </c>
       <c r="D85" t="n">
-        <v>2.7075</v>
+        <v>2.80852</v>
       </c>
       <c r="E85" t="n">
-        <v>0.827743</v>
+        <v>0.80507</v>
       </c>
       <c r="F85" t="n">
-        <v>1.76205</v>
+        <v>1.77721</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8579290000000001</v>
+        <v>0.869434</v>
       </c>
       <c r="C86" t="n">
-        <v>1.87362</v>
+        <v>1.95655</v>
       </c>
       <c r="D86" t="n">
-        <v>2.71836</v>
+        <v>2.76058</v>
       </c>
       <c r="E86" t="n">
-        <v>0.787459</v>
+        <v>0.817177</v>
       </c>
       <c r="F86" t="n">
-        <v>1.69394</v>
+        <v>1.7456</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.831279</v>
+        <v>0.8330070000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>1.89012</v>
+        <v>1.8735</v>
       </c>
       <c r="D87" t="n">
-        <v>2.67438</v>
+        <v>2.63691</v>
       </c>
       <c r="E87" t="n">
-        <v>0.769001</v>
+        <v>0.774494</v>
       </c>
       <c r="F87" t="n">
-        <v>1.71266</v>
+        <v>1.69808</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820224</v>
+        <v>0.823474</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81766</v>
+        <v>1.8075</v>
       </c>
       <c r="D88" t="n">
-        <v>2.60085</v>
+        <v>2.69255</v>
       </c>
       <c r="E88" t="n">
-        <v>0.753051</v>
+        <v>0.75752</v>
       </c>
       <c r="F88" t="n">
-        <v>1.65523</v>
+        <v>1.65756</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8022</v>
+        <v>0.8122549999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76765</v>
+        <v>1.8036</v>
       </c>
       <c r="D89" t="n">
-        <v>2.56421</v>
+        <v>2.64584</v>
       </c>
       <c r="E89" t="n">
-        <v>0.739527</v>
+        <v>0.750609</v>
       </c>
       <c r="F89" t="n">
-        <v>1.61035</v>
+        <v>1.62819</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.797326</v>
+        <v>0.794366</v>
       </c>
       <c r="C90" t="n">
-        <v>1.72213</v>
+        <v>1.75221</v>
       </c>
       <c r="D90" t="n">
-        <v>2.59566</v>
+        <v>2.63395</v>
       </c>
       <c r="E90" t="n">
-        <v>0.726228</v>
+        <v>0.7415929999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59892</v>
+        <v>1.61725</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.786994</v>
+        <v>0.785793</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71802</v>
+        <v>1.72459</v>
       </c>
       <c r="D91" t="n">
-        <v>2.60538</v>
+        <v>2.54584</v>
       </c>
       <c r="E91" t="n">
-        <v>0.716287</v>
+        <v>0.71227</v>
       </c>
       <c r="F91" t="n">
-        <v>1.56899</v>
+        <v>1.5822</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.772418</v>
+        <v>0.785821</v>
       </c>
       <c r="C92" t="n">
-        <v>1.69741</v>
+        <v>1.70421</v>
       </c>
       <c r="D92" t="n">
-        <v>3.60643</v>
+        <v>3.63361</v>
       </c>
       <c r="E92" t="n">
-        <v>0.700792</v>
+        <v>0.71147</v>
       </c>
       <c r="F92" t="n">
-        <v>1.53371</v>
+        <v>1.58801</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769926</v>
+        <v>0.767207</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66847</v>
+        <v>1.66291</v>
       </c>
       <c r="D93" t="n">
-        <v>3.59465</v>
+        <v>3.55127</v>
       </c>
       <c r="E93" t="n">
-        <v>0.692964</v>
+        <v>0.695932</v>
       </c>
       <c r="F93" t="n">
-        <v>1.53082</v>
+        <v>1.53495</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.742466</v>
+        <v>0.772018</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66796</v>
+        <v>1.64772</v>
       </c>
       <c r="D94" t="n">
-        <v>3.50129</v>
+        <v>3.4863</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02269</v>
+        <v>1.0177</v>
       </c>
       <c r="F94" t="n">
-        <v>2.55495</v>
+        <v>2.50674</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10247</v>
+        <v>1.0454</v>
       </c>
       <c r="C95" t="n">
-        <v>2.69616</v>
+        <v>2.71261</v>
       </c>
       <c r="D95" t="n">
-        <v>3.43945</v>
+        <v>3.50281</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00471</v>
+        <v>1.00675</v>
       </c>
       <c r="F95" t="n">
-        <v>2.46607</v>
+        <v>2.47548</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09043</v>
+        <v>1.13483</v>
       </c>
       <c r="C96" t="n">
-        <v>2.65422</v>
+        <v>2.63057</v>
       </c>
       <c r="D96" t="n">
-        <v>3.34095</v>
+        <v>3.37466</v>
       </c>
       <c r="E96" t="n">
-        <v>0.992393</v>
+        <v>0.983294</v>
       </c>
       <c r="F96" t="n">
-        <v>2.40273</v>
+        <v>2.411</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06728</v>
+        <v>1.05088</v>
       </c>
       <c r="C97" t="n">
-        <v>2.60182</v>
+        <v>2.59926</v>
       </c>
       <c r="D97" t="n">
-        <v>3.42557</v>
+        <v>3.32239</v>
       </c>
       <c r="E97" t="n">
-        <v>0.938432</v>
+        <v>0.94967</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37822</v>
+        <v>2.37186</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06034</v>
+        <v>1.01516</v>
       </c>
       <c r="C98" t="n">
-        <v>2.62189</v>
+        <v>2.5051</v>
       </c>
       <c r="D98" t="n">
-        <v>3.3535</v>
+        <v>3.32337</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9404709999999999</v>
+        <v>0.949873</v>
       </c>
       <c r="F98" t="n">
-        <v>2.31253</v>
+        <v>2.34825</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00261</v>
+        <v>0.982249</v>
       </c>
       <c r="C99" t="n">
-        <v>2.47219</v>
+        <v>2.43805</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28352</v>
+        <v>3.19916</v>
       </c>
       <c r="E99" t="n">
-        <v>0.900541</v>
+        <v>0.914949</v>
       </c>
       <c r="F99" t="n">
-        <v>2.23077</v>
+        <v>2.22288</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0015</v>
+        <v>0.996364</v>
       </c>
       <c r="C100" t="n">
-        <v>2.42635</v>
+        <v>2.41095</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26084</v>
+        <v>3.16499</v>
       </c>
       <c r="E100" t="n">
-        <v>0.924431</v>
+        <v>0.912726</v>
       </c>
       <c r="F100" t="n">
-        <v>2.16975</v>
+        <v>2.16493</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.969484</v>
+        <v>0.952821</v>
       </c>
       <c r="C101" t="n">
-        <v>2.41055</v>
+        <v>2.31215</v>
       </c>
       <c r="D101" t="n">
-        <v>3.17431</v>
+        <v>3.13498</v>
       </c>
       <c r="E101" t="n">
-        <v>0.872403</v>
+        <v>0.896116</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11897</v>
+        <v>2.13837</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.94883</v>
+        <v>0.954716</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32692</v>
+        <v>2.27162</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1714</v>
+        <v>3.11343</v>
       </c>
       <c r="E102" t="n">
-        <v>0.862547</v>
+        <v>0.874367</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11288</v>
+        <v>2.12441</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.93896</v>
+        <v>0.920915</v>
       </c>
       <c r="C103" t="n">
-        <v>2.28384</v>
+        <v>2.24386</v>
       </c>
       <c r="D103" t="n">
-        <v>3.10807</v>
+        <v>3.10048</v>
       </c>
       <c r="E103" t="n">
-        <v>0.842627</v>
+        <v>0.8420029999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>2.04094</v>
+        <v>2.03882</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9601189999999999</v>
+        <v>0.9078040000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>2.20538</v>
+        <v>2.18308</v>
       </c>
       <c r="D104" t="n">
-        <v>3.10801</v>
+        <v>3.03595</v>
       </c>
       <c r="E104" t="n">
-        <v>0.833156</v>
+        <v>0.839822</v>
       </c>
       <c r="F104" t="n">
-        <v>1.99451</v>
+        <v>1.98986</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.920372</v>
+        <v>0.918588</v>
       </c>
       <c r="C105" t="n">
-        <v>2.19065</v>
+        <v>2.15299</v>
       </c>
       <c r="D105" t="n">
-        <v>3.1235</v>
+        <v>3.06828</v>
       </c>
       <c r="E105" t="n">
-        <v>0.819474</v>
+        <v>0.842011</v>
       </c>
       <c r="F105" t="n">
-        <v>1.96127</v>
+        <v>1.97707</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.920534</v>
+        <v>0.897668</v>
       </c>
       <c r="C106" t="n">
-        <v>2.15819</v>
+        <v>2.12108</v>
       </c>
       <c r="D106" t="n">
-        <v>3.04168</v>
+        <v>3.0331</v>
       </c>
       <c r="E106" t="n">
-        <v>0.829606</v>
+        <v>0.831965</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95983</v>
+        <v>1.93567</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8892139999999999</v>
+        <v>0.881421</v>
       </c>
       <c r="C107" t="n">
-        <v>2.12407</v>
+        <v>2.07208</v>
       </c>
       <c r="D107" t="n">
-        <v>4.21368</v>
+        <v>4.1387</v>
       </c>
       <c r="E107" t="n">
-        <v>0.815291</v>
+        <v>0.804019</v>
       </c>
       <c r="F107" t="n">
-        <v>1.9216</v>
+        <v>1.90707</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.898958</v>
+        <v>0.873339</v>
       </c>
       <c r="C108" t="n">
-        <v>2.05928</v>
+        <v>2.04387</v>
       </c>
       <c r="D108" t="n">
-        <v>4.08891</v>
+        <v>4.06009</v>
       </c>
       <c r="E108" t="n">
-        <v>1.09665</v>
+        <v>1.17654</v>
       </c>
       <c r="F108" t="n">
-        <v>3.02139</v>
+        <v>2.99325</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.869858</v>
+        <v>0.887827</v>
       </c>
       <c r="C109" t="n">
-        <v>2.03655</v>
+        <v>2.01564</v>
       </c>
       <c r="D109" t="n">
-        <v>4.00731</v>
+        <v>4.00064</v>
       </c>
       <c r="E109" t="n">
-        <v>1.11251</v>
+        <v>1.12337</v>
       </c>
       <c r="F109" t="n">
-        <v>2.91587</v>
+        <v>2.95893</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19168</v>
+        <v>1.21318</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11568</v>
+        <v>3.12745</v>
       </c>
       <c r="D110" t="n">
-        <v>3.96116</v>
+        <v>3.92893</v>
       </c>
       <c r="E110" t="n">
-        <v>1.07563</v>
+        <v>1.13173</v>
       </c>
       <c r="F110" t="n">
-        <v>2.84889</v>
+        <v>2.85869</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20393</v>
+        <v>1.19309</v>
       </c>
       <c r="C111" t="n">
-        <v>3.08408</v>
+        <v>3.0559</v>
       </c>
       <c r="D111" t="n">
-        <v>3.909</v>
+        <v>3.88701</v>
       </c>
       <c r="E111" t="n">
-        <v>1.09854</v>
+        <v>1.06512</v>
       </c>
       <c r="F111" t="n">
-        <v>2.79933</v>
+        <v>2.78663</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18528</v>
+        <v>1.18036</v>
       </c>
       <c r="C112" t="n">
-        <v>3.05176</v>
+        <v>3.02944</v>
       </c>
       <c r="D112" t="n">
-        <v>3.8977</v>
+        <v>3.8488</v>
       </c>
       <c r="E112" t="n">
-        <v>1.07937</v>
+        <v>1.08285</v>
       </c>
       <c r="F112" t="n">
-        <v>2.71756</v>
+        <v>2.72391</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13812</v>
+        <v>1.16461</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95923</v>
+        <v>2.9498</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81627</v>
+        <v>3.79727</v>
       </c>
       <c r="E113" t="n">
-        <v>1.05932</v>
+        <v>1.06896</v>
       </c>
       <c r="F113" t="n">
-        <v>2.75388</v>
+        <v>2.67253</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15435</v>
+        <v>1.14402</v>
       </c>
       <c r="C114" t="n">
-        <v>2.93454</v>
+        <v>2.89005</v>
       </c>
       <c r="D114" t="n">
-        <v>3.80531</v>
+        <v>3.73338</v>
       </c>
       <c r="E114" t="n">
-        <v>1.04067</v>
+        <v>1.05426</v>
       </c>
       <c r="F114" t="n">
-        <v>2.60589</v>
+        <v>2.62798</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11105</v>
+        <v>1.17732</v>
       </c>
       <c r="C115" t="n">
-        <v>2.83277</v>
+        <v>2.83851</v>
       </c>
       <c r="D115" t="n">
-        <v>3.77815</v>
+        <v>3.737</v>
       </c>
       <c r="E115" t="n">
-        <v>1.04293</v>
+        <v>1.03258</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60492</v>
+        <v>2.54655</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10933</v>
+        <v>1.14497</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77673</v>
+        <v>2.75882</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70324</v>
+        <v>3.67663</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05465</v>
+        <v>1.01965</v>
       </c>
       <c r="F116" t="n">
-        <v>2.53313</v>
+        <v>2.49333</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12997</v>
+        <v>1.12691</v>
       </c>
       <c r="C117" t="n">
-        <v>2.73783</v>
+        <v>2.68739</v>
       </c>
       <c r="D117" t="n">
-        <v>3.65526</v>
+        <v>3.60962</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00113</v>
+        <v>1.03595</v>
       </c>
       <c r="F117" t="n">
-        <v>2.50079</v>
+        <v>2.45485</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10663</v>
+        <v>1.11958</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71126</v>
+        <v>2.66811</v>
       </c>
       <c r="D118" t="n">
-        <v>3.62586</v>
+        <v>3.62744</v>
       </c>
       <c r="E118" t="n">
-        <v>0.978207</v>
+        <v>0.994283</v>
       </c>
       <c r="F118" t="n">
-        <v>2.40644</v>
+        <v>2.40738</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.08772</v>
+        <v>1.09729</v>
       </c>
       <c r="C119" t="n">
-        <v>2.6792</v>
+        <v>2.61145</v>
       </c>
       <c r="D119" t="n">
-        <v>3.65998</v>
+        <v>3.56937</v>
       </c>
       <c r="E119" t="n">
-        <v>0.982463</v>
+        <v>1.00258</v>
       </c>
       <c r="F119" t="n">
-        <v>2.37673</v>
+        <v>2.36228</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12193</v>
+        <v>1.07294</v>
       </c>
       <c r="C120" t="n">
-        <v>2.61092</v>
+        <v>2.55662</v>
       </c>
       <c r="D120" t="n">
-        <v>3.5807</v>
+        <v>3.56658</v>
       </c>
       <c r="E120" t="n">
-        <v>0.970803</v>
+        <v>0.994471</v>
       </c>
       <c r="F120" t="n">
-        <v>2.34792</v>
+        <v>2.33214</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09013</v>
+        <v>1.08916</v>
       </c>
       <c r="C121" t="n">
-        <v>2.56883</v>
+        <v>2.55754</v>
       </c>
       <c r="D121" t="n">
-        <v>4.85056</v>
+        <v>4.86721</v>
       </c>
       <c r="E121" t="n">
-        <v>0.967868</v>
+        <v>0.973516</v>
       </c>
       <c r="F121" t="n">
-        <v>2.30778</v>
+        <v>2.29634</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08192</v>
+        <v>1.08108</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55615</v>
+        <v>2.532</v>
       </c>
       <c r="D122" t="n">
-        <v>4.83171</v>
+        <v>4.84704</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958107</v>
+        <v>0.983236</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28839</v>
+        <v>2.29754</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08286</v>
+        <v>1.06128</v>
       </c>
       <c r="C123" t="n">
-        <v>2.53032</v>
+        <v>2.47539</v>
       </c>
       <c r="D123" t="n">
-        <v>4.70441</v>
+        <v>4.69718</v>
       </c>
       <c r="E123" t="n">
-        <v>1.27088</v>
+        <v>1.29903</v>
       </c>
       <c r="F123" t="n">
-        <v>3.43362</v>
+        <v>3.46752</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.39218</v>
+        <v>1.41707</v>
       </c>
       <c r="C124" t="n">
-        <v>3.7305</v>
+        <v>3.77117</v>
       </c>
       <c r="D124" t="n">
-        <v>4.63173</v>
+        <v>4.62834</v>
       </c>
       <c r="E124" t="n">
-        <v>1.28927</v>
+        <v>1.28752</v>
       </c>
       <c r="F124" t="n">
-        <v>3.35451</v>
+        <v>3.35123</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.36168</v>
+        <v>1.38557</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63965</v>
+        <v>3.63481</v>
       </c>
       <c r="D125" t="n">
-        <v>4.57661</v>
+        <v>4.5416</v>
       </c>
       <c r="E125" t="n">
-        <v>1.27735</v>
+        <v>1.29606</v>
       </c>
       <c r="F125" t="n">
-        <v>3.27159</v>
+        <v>3.29826</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37543</v>
+        <v>1.37914</v>
       </c>
       <c r="C126" t="n">
-        <v>3.59432</v>
+        <v>3.57104</v>
       </c>
       <c r="D126" t="n">
-        <v>4.48791</v>
+        <v>4.51112</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25466</v>
+        <v>1.27294</v>
       </c>
       <c r="F126" t="n">
-        <v>3.19333</v>
+        <v>3.20093</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.36579</v>
+        <v>1.3709</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49275</v>
+        <v>3.48746</v>
       </c>
       <c r="D127" t="n">
-        <v>4.43789</v>
+        <v>4.41986</v>
       </c>
       <c r="E127" t="n">
-        <v>1.23963</v>
+        <v>1.27983</v>
       </c>
       <c r="F127" t="n">
-        <v>3.16606</v>
+        <v>3.17461</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34416</v>
+        <v>1.38223</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41659</v>
+        <v>3.43034</v>
       </c>
       <c r="D128" t="n">
-        <v>4.38971</v>
+        <v>4.36495</v>
       </c>
       <c r="E128" t="n">
-        <v>1.24707</v>
+        <v>1.23838</v>
       </c>
       <c r="F128" t="n">
-        <v>3.09983</v>
+        <v>3.05923</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35854</v>
+        <v>1.35934</v>
       </c>
       <c r="C129" t="n">
-        <v>3.36122</v>
+        <v>3.34842</v>
       </c>
       <c r="D129" t="n">
-        <v>4.33286</v>
+        <v>4.33346</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24628</v>
+        <v>1.24853</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04094</v>
+        <v>3.05953</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36042</v>
+        <v>1.37179</v>
       </c>
       <c r="C130" t="n">
-        <v>3.29821</v>
+        <v>3.30791</v>
       </c>
       <c r="D130" t="n">
-        <v>4.26252</v>
+        <v>4.27628</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24889</v>
+        <v>1.25465</v>
       </c>
       <c r="F130" t="n">
-        <v>2.99407</v>
+        <v>2.99949</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35117</v>
+        <v>1.3553</v>
       </c>
       <c r="C131" t="n">
-        <v>3.25777</v>
+        <v>3.2401</v>
       </c>
       <c r="D131" t="n">
-        <v>4.23771</v>
+        <v>4.21569</v>
       </c>
       <c r="E131" t="n">
-        <v>1.22649</v>
+        <v>1.23044</v>
       </c>
       <c r="F131" t="n">
-        <v>2.92056</v>
+        <v>2.92281</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33776</v>
+        <v>1.33257</v>
       </c>
       <c r="C132" t="n">
-        <v>3.18765</v>
+        <v>3.17795</v>
       </c>
       <c r="D132" t="n">
-        <v>4.18486</v>
+        <v>4.18293</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23612</v>
+        <v>1.234</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87647</v>
+        <v>2.86874</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34767</v>
+        <v>1.35225</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15967</v>
+        <v>3.15196</v>
       </c>
       <c r="D133" t="n">
-        <v>4.15847</v>
+        <v>4.15462</v>
       </c>
       <c r="E133" t="n">
-        <v>1.21226</v>
+        <v>1.21988</v>
       </c>
       <c r="F133" t="n">
-        <v>2.82437</v>
+        <v>2.81943</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.33751</v>
+        <v>1.31948</v>
       </c>
       <c r="C134" t="n">
-        <v>3.10905</v>
+        <v>3.07395</v>
       </c>
       <c r="D134" t="n">
-        <v>4.16924</v>
+        <v>4.11738</v>
       </c>
       <c r="E134" t="n">
-        <v>1.21288</v>
+        <v>1.22129</v>
       </c>
       <c r="F134" t="n">
-        <v>2.79464</v>
+        <v>2.79204</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32527</v>
+        <v>1.33425</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06795</v>
+        <v>3.02525</v>
       </c>
       <c r="D135" t="n">
-        <v>5.63915</v>
+        <v>5.62617</v>
       </c>
       <c r="E135" t="n">
-        <v>1.22149</v>
+        <v>1.23826</v>
       </c>
       <c r="F135" t="n">
-        <v>2.72939</v>
+        <v>2.76815</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34638</v>
+        <v>1.32534</v>
       </c>
       <c r="C136" t="n">
-        <v>3.01626</v>
+        <v>2.98167</v>
       </c>
       <c r="D136" t="n">
-        <v>5.5468</v>
+        <v>5.5121</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21337</v>
+        <v>1.22447</v>
       </c>
       <c r="F136" t="n">
-        <v>2.69771</v>
+        <v>2.72498</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35991</v>
+        <v>1.34235</v>
       </c>
       <c r="C137" t="n">
-        <v>2.99747</v>
+        <v>2.98393</v>
       </c>
       <c r="D137" t="n">
-        <v>5.45324</v>
+        <v>5.46359</v>
       </c>
       <c r="E137" t="n">
-        <v>1.55467</v>
+        <v>1.57324</v>
       </c>
       <c r="F137" t="n">
-        <v>3.96077</v>
+        <v>3.96623</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64256</v>
+        <v>1.65065</v>
       </c>
       <c r="C138" t="n">
-        <v>4.3375</v>
+        <v>4.30279</v>
       </c>
       <c r="D138" t="n">
-        <v>5.31909</v>
+        <v>5.33086</v>
       </c>
       <c r="E138" t="n">
-        <v>1.54705</v>
+        <v>1.53963</v>
       </c>
       <c r="F138" t="n">
-        <v>3.8884</v>
+        <v>3.89402</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.66037</v>
+        <v>1.6627</v>
       </c>
       <c r="C139" t="n">
-        <v>4.21644</v>
+        <v>4.20405</v>
       </c>
       <c r="D139" t="n">
-        <v>5.25821</v>
+        <v>5.24239</v>
       </c>
       <c r="E139" t="n">
-        <v>1.58001</v>
+        <v>1.54632</v>
       </c>
       <c r="F139" t="n">
-        <v>3.81101</v>
+        <v>3.78647</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6675</v>
+        <v>1.64769</v>
       </c>
       <c r="C140" t="n">
-        <v>4.11484</v>
+        <v>4.11867</v>
       </c>
       <c r="D140" t="n">
-        <v>5.15875</v>
+        <v>5.17874</v>
       </c>
       <c r="E140" t="n">
-        <v>1.52346</v>
+        <v>1.53482</v>
       </c>
       <c r="F140" t="n">
-        <v>3.71644</v>
+        <v>3.70086</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66961</v>
+        <v>1.68408</v>
       </c>
       <c r="C141" t="n">
-        <v>4.03057</v>
+        <v>4.07462</v>
       </c>
       <c r="D141" t="n">
-        <v>5.07448</v>
+        <v>5.0569</v>
       </c>
       <c r="E141" t="n">
-        <v>1.54602</v>
+        <v>1.52631</v>
       </c>
       <c r="F141" t="n">
-        <v>3.6361</v>
+        <v>3.60662</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65584</v>
+        <v>1.63513</v>
       </c>
       <c r="C142" t="n">
-        <v>3.96349</v>
+        <v>3.98345</v>
       </c>
       <c r="D142" t="n">
-        <v>5.01733</v>
+        <v>5.02</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53081</v>
+        <v>1.53788</v>
       </c>
       <c r="F142" t="n">
-        <v>3.58511</v>
+        <v>3.57717</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.6512</v>
+        <v>1.64932</v>
       </c>
       <c r="C143" t="n">
-        <v>3.87923</v>
+        <v>3.85555</v>
       </c>
       <c r="D143" t="n">
-        <v>4.95165</v>
+        <v>4.91173</v>
       </c>
       <c r="E143" t="n">
-        <v>1.51089</v>
+        <v>1.5002</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49505</v>
+        <v>3.47504</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575522</v>
+        <v>0.606284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053630000000001</v>
+        <v>0.829287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969652</v>
+        <v>1.04215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317156</v>
+        <v>0.331211</v>
       </c>
       <c r="F2" t="n">
-        <v>0.799504</v>
+        <v>0.796536</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331523</v>
+        <v>0.337294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792357</v>
+        <v>0.806173</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95972</v>
+        <v>0.993106</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5283870000000001</v>
+        <v>0.309978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.762614</v>
+        <v>0.766525</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.325093</v>
+        <v>0.33522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789855</v>
+        <v>0.796154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980649</v>
+        <v>0.9902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308835</v>
+        <v>0.306363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754483</v>
+        <v>0.76674</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32818</v>
+        <v>0.330794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786763</v>
+        <v>0.792725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.941376</v>
+        <v>1.01174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307744</v>
+        <v>0.302166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.789703</v>
+        <v>0.771562</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335133</v>
+        <v>0.351167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.798776</v>
+        <v>0.784465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985724</v>
+        <v>0.959528</v>
       </c>
       <c r="E6" t="n">
-        <v>0.305344</v>
+        <v>0.295532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749701</v>
+        <v>0.7605499999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322629</v>
+        <v>0.314061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784904</v>
+        <v>0.765097</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16528</v>
+        <v>1.16762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304815</v>
+        <v>0.402013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.744746</v>
+        <v>0.889726</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30831</v>
+        <v>0.316374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770539</v>
+        <v>0.77693</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12202</v>
+        <v>1.16126</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290588</v>
+        <v>0.389068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749251</v>
+        <v>0.865549</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307094</v>
+        <v>0.316663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772613</v>
+        <v>0.766937</v>
       </c>
       <c r="D9" t="n">
-        <v>1.09185</v>
+        <v>1.12514</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543091</v>
+        <v>0.37418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.855966</v>
+        <v>0.851346</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556223</v>
+        <v>0.59534</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902688</v>
+        <v>0.923446</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07887</v>
+        <v>1.07572</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525743</v>
+        <v>0.368313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.847444</v>
+        <v>0.82753</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553473</v>
+        <v>0.554756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.900881</v>
+        <v>0.858954</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06591</v>
+        <v>1.05246</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510518</v>
+        <v>0.348567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.837014</v>
+        <v>0.807955</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525643</v>
+        <v>0.5236229999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.871667</v>
+        <v>0.877692</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04819</v>
+        <v>1.04143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.493574</v>
+        <v>0.338158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.838848</v>
+        <v>0.8014289999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508463</v>
+        <v>0.505838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854847</v>
+        <v>0.831735</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0537</v>
+        <v>1.02716</v>
       </c>
       <c r="E13" t="n">
-        <v>0.490285</v>
+        <v>0.329295</v>
       </c>
       <c r="F13" t="n">
-        <v>0.813659</v>
+        <v>0.788956</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493829</v>
+        <v>0.490836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.84234</v>
+        <v>0.827001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02761</v>
+        <v>1.02059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.464033</v>
+        <v>0.322029</v>
       </c>
       <c r="F14" t="n">
-        <v>0.80908</v>
+        <v>0.7796650000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479674</v>
+        <v>0.474651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.836435</v>
+        <v>0.814615</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01782</v>
+        <v>1.03442</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447319</v>
+        <v>0.316658</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79615</v>
+        <v>0.7808</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467952</v>
+        <v>0.491982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.822427</v>
+        <v>0.814241</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03369</v>
+        <v>1.00376</v>
       </c>
       <c r="E16" t="n">
-        <v>0.435864</v>
+        <v>0.309786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794716</v>
+        <v>0.770006</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46037</v>
+        <v>0.450544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.824414</v>
+        <v>0.79558</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03949</v>
+        <v>0.9925040000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426453</v>
+        <v>0.304101</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787167</v>
+        <v>0.7624379999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459607</v>
+        <v>0.450017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.811786</v>
+        <v>0.796166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.992486</v>
+        <v>0.986111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.415591</v>
+        <v>0.29894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7799700000000001</v>
+        <v>0.756754</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434457</v>
+        <v>0.428179</v>
       </c>
       <c r="C19" t="n">
-        <v>0.807883</v>
+        <v>0.783792</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988259</v>
+        <v>0.977803</v>
       </c>
       <c r="E19" t="n">
-        <v>0.414061</v>
+        <v>0.294998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.789147</v>
+        <v>0.755911</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42632</v>
+        <v>0.427342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803764</v>
+        <v>0.779784</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00131</v>
+        <v>0.972903</v>
       </c>
       <c r="E20" t="n">
-        <v>0.403929</v>
+        <v>0.292611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.774707</v>
+        <v>0.755022</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418046</v>
+        <v>0.422131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.799251</v>
+        <v>0.768443</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19295</v>
+        <v>1.17034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.387986</v>
+        <v>0.550646</v>
       </c>
       <c r="F21" t="n">
-        <v>0.767618</v>
+        <v>0.879655</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407915</v>
+        <v>0.400879</v>
       </c>
       <c r="C22" t="n">
-        <v>0.795204</v>
+        <v>0.763647</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16209</v>
+        <v>1.14554</v>
       </c>
       <c r="E22" t="n">
-        <v>0.381444</v>
+        <v>0.536422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.763447</v>
+        <v>0.8712490000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409988</v>
+        <v>0.396848</v>
       </c>
       <c r="C23" t="n">
-        <v>0.786917</v>
+        <v>0.762939</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14185</v>
+        <v>1.1356</v>
       </c>
       <c r="E23" t="n">
-        <v>0.641595</v>
+        <v>0.516244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.903034</v>
+        <v>0.861301</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65785</v>
+        <v>0.650292</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916601</v>
+        <v>0.8901559999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13616</v>
+        <v>1.12465</v>
       </c>
       <c r="E24" t="n">
-        <v>0.622939</v>
+        <v>0.500337</v>
       </c>
       <c r="F24" t="n">
-        <v>0.872999</v>
+        <v>0.8663960000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641939</v>
+        <v>0.646667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9161280000000001</v>
+        <v>0.892429</v>
       </c>
       <c r="D25" t="n">
-        <v>1.12062</v>
+        <v>1.12802</v>
       </c>
       <c r="E25" t="n">
-        <v>0.603781</v>
+        <v>0.487246</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8642339999999999</v>
+        <v>0.83611</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621707</v>
+        <v>0.612497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.894818</v>
+        <v>0.866768</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09479</v>
+        <v>1.08377</v>
       </c>
       <c r="E26" t="n">
-        <v>0.585918</v>
+        <v>0.624262</v>
       </c>
       <c r="F26" t="n">
-        <v>0.853728</v>
+        <v>0.824831</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606362</v>
+        <v>0.594171</v>
       </c>
       <c r="C27" t="n">
-        <v>0.894883</v>
+        <v>0.85676</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08143</v>
+        <v>1.07116</v>
       </c>
       <c r="E27" t="n">
-        <v>0.569053</v>
+        <v>0.459316</v>
       </c>
       <c r="F27" t="n">
-        <v>0.843792</v>
+        <v>0.8168339999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585933</v>
+        <v>0.576786</v>
       </c>
       <c r="C28" t="n">
-        <v>0.905092</v>
+        <v>0.852121</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07484</v>
+        <v>1.0611</v>
       </c>
       <c r="E28" t="n">
-        <v>0.550386</v>
+        <v>0.442365</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83812</v>
+        <v>0.8090540000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569434</v>
+        <v>0.558628</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8822680000000001</v>
+        <v>0.843573</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0797</v>
+        <v>1.05506</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555153</v>
+        <v>0.443536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.831658</v>
+        <v>0.805312</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.549855</v>
+        <v>0.541363</v>
       </c>
       <c r="C30" t="n">
-        <v>0.861896</v>
+        <v>0.831528</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06346</v>
+        <v>1.04004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.524822</v>
+        <v>0.41886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310340000000001</v>
+        <v>0.794112</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533342</v>
+        <v>0.556403</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846967</v>
+        <v>0.819372</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>1.03004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4989</v>
+        <v>0.424837</v>
       </c>
       <c r="F31" t="n">
-        <v>0.816196</v>
+        <v>0.78671</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517628</v>
+        <v>0.508894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839171</v>
+        <v>0.815643</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04283</v>
+        <v>1.0291</v>
       </c>
       <c r="E32" t="n">
-        <v>0.482435</v>
+        <v>0.399238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8086</v>
+        <v>0.7857769999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502485</v>
+        <v>0.496878</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.805957</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02947</v>
+        <v>1.01677</v>
       </c>
       <c r="E33" t="n">
-        <v>0.477698</v>
+        <v>0.389321</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818264</v>
+        <v>0.779655</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5064650000000001</v>
+        <v>0.49104</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822991</v>
+        <v>0.803304</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0304</v>
+        <v>1.01369</v>
       </c>
       <c r="E34" t="n">
-        <v>0.474283</v>
+        <v>0.383416</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799172</v>
+        <v>0.776129</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494042</v>
+        <v>0.472749</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845793</v>
+        <v>0.7999810000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33836</v>
+        <v>1.25966</v>
       </c>
       <c r="E35" t="n">
-        <v>0.447169</v>
+        <v>0.377319</v>
       </c>
       <c r="F35" t="n">
-        <v>0.786601</v>
+        <v>0.777963</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462297</v>
+        <v>0.461598</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812798</v>
+        <v>0.795867</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31541</v>
+        <v>1.24485</v>
       </c>
       <c r="E36" t="n">
-        <v>0.435134</v>
+        <v>0.658382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.784529</v>
+        <v>0.961819</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453812</v>
+        <v>0.449757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810837</v>
+        <v>0.784837</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23223</v>
+        <v>1.21579</v>
       </c>
       <c r="E37" t="n">
-        <v>0.694879</v>
+        <v>0.631938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96505</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.717845</v>
+        <v>0.712954</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01755</v>
+        <v>0.9846549999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25114</v>
+        <v>1.21129</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672512</v>
+        <v>0.615019</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958387</v>
+        <v>0.935084</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.698846</v>
+        <v>0.722078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.98744</v>
+        <v>0.973916</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18862</v>
+        <v>1.29394</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.615381</v>
       </c>
       <c r="F39" t="n">
-        <v>0.940918</v>
+        <v>0.918793</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668726</v>
+        <v>0.6703249999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973736</v>
+        <v>0.957035</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19747</v>
+        <v>1.17168</v>
       </c>
       <c r="E40" t="n">
-        <v>0.628024</v>
+        <v>0.554763</v>
       </c>
       <c r="F40" t="n">
-        <v>0.932982</v>
+        <v>0.909754</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589390000000001</v>
+        <v>0.650164</v>
       </c>
       <c r="C41" t="n">
-        <v>0.964974</v>
+        <v>0.9433510000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17228</v>
+        <v>1.15224</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608797</v>
+        <v>0.561592</v>
       </c>
       <c r="F41" t="n">
-        <v>0.92378</v>
+        <v>0.883555</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663308</v>
+        <v>0.626263</v>
       </c>
       <c r="C42" t="n">
-        <v>0.971606</v>
+        <v>0.931373</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16154</v>
+        <v>1.16215</v>
       </c>
       <c r="E42" t="n">
-        <v>0.594526</v>
+        <v>0.540205</v>
       </c>
       <c r="F42" t="n">
-        <v>0.932104</v>
+        <v>0.897093</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.614022</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96251</v>
+        <v>0.923473</v>
       </c>
       <c r="D43" t="n">
-        <v>1.19951</v>
+        <v>1.23292</v>
       </c>
       <c r="E43" t="n">
-        <v>0.584045</v>
+        <v>0.568222</v>
       </c>
       <c r="F43" t="n">
-        <v>0.914353</v>
+        <v>1.08829</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622929</v>
+        <v>0.667033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.934897</v>
+        <v>1.08237</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1691</v>
+        <v>1.30061</v>
       </c>
       <c r="E44" t="n">
-        <v>0.559534</v>
+        <v>0.573936</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916623</v>
+        <v>1.23862</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584052</v>
+        <v>2.45381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937145</v>
+        <v>0.971512</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1278</v>
+        <v>1.21433</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534959</v>
+        <v>0.489171</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877298</v>
+        <v>0.870834</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562038</v>
+        <v>0.569855</v>
       </c>
       <c r="C46" t="n">
-        <v>0.901967</v>
+        <v>0.911135</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13678</v>
+        <v>1.23163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522519</v>
+        <v>0.513397</v>
       </c>
       <c r="F46" t="n">
-        <v>0.871634</v>
+        <v>0.858982</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.547866</v>
+        <v>0.547892</v>
       </c>
       <c r="C47" t="n">
-        <v>0.896132</v>
+        <v>0.8937580000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11638</v>
+        <v>1.13235</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.45189</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8663380000000001</v>
+        <v>0.851006</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.533868</v>
+        <v>0.536509</v>
       </c>
       <c r="C48" t="n">
-        <v>0.952105</v>
+        <v>0.89242</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14935</v>
+        <v>1.12486</v>
       </c>
       <c r="E48" t="n">
-        <v>0.492952</v>
+        <v>0.445996</v>
       </c>
       <c r="F48" t="n">
-        <v>0.853775</v>
+        <v>0.8466939999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550705</v>
+        <v>0.519672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.881059</v>
+        <v>0.870121</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14003</v>
+        <v>1.11569</v>
       </c>
       <c r="E49" t="n">
-        <v>0.492992</v>
+        <v>0.436681</v>
       </c>
       <c r="F49" t="n">
-        <v>0.848229</v>
+        <v>0.87176</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510656</v>
+        <v>0.510405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8820249999999999</v>
+        <v>0.869627</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55129</v>
+        <v>1.56117</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473988</v>
+        <v>0.6973279999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.858786</v>
+        <v>1.08944</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.496193</v>
+        <v>0.496389</v>
       </c>
       <c r="C51" t="n">
-        <v>0.873503</v>
+        <v>0.860555</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52641</v>
+        <v>1.51274</v>
       </c>
       <c r="E51" t="n">
-        <v>0.738909</v>
+        <v>0.6768690000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12309</v>
+        <v>1.07602</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502169</v>
+        <v>0.49218</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8796349999999999</v>
+        <v>0.86056</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50367</v>
+        <v>1.50394</v>
       </c>
       <c r="E52" t="n">
-        <v>0.755392</v>
+        <v>0.668901</v>
       </c>
       <c r="F52" t="n">
-        <v>1.14047</v>
+        <v>1.06168</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.750716</v>
+        <v>0.751427</v>
       </c>
       <c r="C53" t="n">
-        <v>1.16143</v>
+        <v>1.17192</v>
       </c>
       <c r="D53" t="n">
-        <v>1.48263</v>
+        <v>1.48778</v>
       </c>
       <c r="E53" t="n">
-        <v>0.696551</v>
+        <v>0.668678</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09033</v>
+        <v>1.04871</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743347</v>
+        <v>0.724963</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14398</v>
+        <v>1.12816</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45998</v>
+        <v>1.47225</v>
       </c>
       <c r="E54" t="n">
-        <v>0.685972</v>
+        <v>0.62793</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05898</v>
+        <v>1.0281</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.728923</v>
+        <v>0.711896</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12406</v>
+        <v>1.1079</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43352</v>
+        <v>1.4552</v>
       </c>
       <c r="E55" t="n">
-        <v>0.661216</v>
+        <v>0.612795</v>
       </c>
       <c r="F55" t="n">
-        <v>1.10186</v>
+        <v>1.02903</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732407</v>
+        <v>0.699198</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10659</v>
+        <v>1.1126</v>
       </c>
       <c r="D56" t="n">
-        <v>1.47073</v>
+        <v>1.40887</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6419550000000001</v>
+        <v>0.597</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04177</v>
+        <v>1.00567</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705487</v>
+        <v>0.680602</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09715</v>
+        <v>1.08605</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41985</v>
+        <v>1.40925</v>
       </c>
       <c r="E57" t="n">
-        <v>0.629614</v>
+        <v>0.603341</v>
       </c>
       <c r="F57" t="n">
-        <v>1.07522</v>
+        <v>1.00825</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662017</v>
+        <v>0.661416</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08735</v>
+        <v>1.06845</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43967</v>
+        <v>1.39683</v>
       </c>
       <c r="E58" t="n">
-        <v>0.636605</v>
+        <v>0.566298</v>
       </c>
       <c r="F58" t="n">
-        <v>1.018</v>
+        <v>0.979467</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651039</v>
+        <v>0.645194</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11752</v>
+        <v>1.04876</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4007</v>
+        <v>1.36631</v>
       </c>
       <c r="E59" t="n">
-        <v>0.595773</v>
+        <v>0.550454</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978939999999999</v>
+        <v>0.962876</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63121</v>
+        <v>0.6338510000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04912</v>
+        <v>1.04198</v>
       </c>
       <c r="D60" t="n">
-        <v>1.40098</v>
+        <v>1.36774</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582719</v>
+        <v>0.539157</v>
       </c>
       <c r="F60" t="n">
-        <v>0.986106</v>
+        <v>0.96576</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622231</v>
+        <v>0.616051</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04913</v>
+        <v>1.03783</v>
       </c>
       <c r="D61" t="n">
-        <v>1.37008</v>
+        <v>1.4034</v>
       </c>
       <c r="E61" t="n">
-        <v>0.575585</v>
+        <v>0.546459</v>
       </c>
       <c r="F61" t="n">
-        <v>0.96883</v>
+        <v>0.980181</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616518</v>
+        <v>0.609958</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04271</v>
+        <v>1.00674</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36427</v>
+        <v>1.34805</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5587839999999999</v>
+        <v>0.545022</v>
       </c>
       <c r="F62" t="n">
-        <v>0.979374</v>
+        <v>0.953285</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.590924</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02824</v>
+        <v>1.00154</v>
       </c>
       <c r="D63" t="n">
-        <v>1.39039</v>
+        <v>1.37</v>
       </c>
       <c r="E63" t="n">
-        <v>0.55386</v>
+        <v>0.520505</v>
       </c>
       <c r="F63" t="n">
-        <v>0.964228</v>
+        <v>0.949569</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588021</v>
+        <v>0.580837</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00914</v>
+        <v>1.00521</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18386</v>
+        <v>2.20259</v>
       </c>
       <c r="E64" t="n">
-        <v>0.539924</v>
+        <v>0.796134</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9560419999999999</v>
+        <v>1.44691</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600253</v>
+        <v>0.593742</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00606</v>
+        <v>1.01816</v>
       </c>
       <c r="D65" t="n">
-        <v>2.17801</v>
+        <v>2.16367</v>
       </c>
       <c r="E65" t="n">
-        <v>0.545217</v>
+        <v>0.772458</v>
       </c>
       <c r="F65" t="n">
-        <v>0.94783</v>
+        <v>1.40965</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.566568</v>
+        <v>0.56858</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985808</v>
+        <v>1.00282</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11281</v>
+        <v>2.15851</v>
       </c>
       <c r="E66" t="n">
-        <v>0.81885</v>
+        <v>0.763701</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44796</v>
+        <v>1.40056</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.855712</v>
+        <v>0.8457170000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.61993</v>
+        <v>1.5905</v>
       </c>
       <c r="D67" t="n">
-        <v>2.07961</v>
+        <v>2.10872</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7895</v>
+        <v>0.738392</v>
       </c>
       <c r="F67" t="n">
-        <v>1.44435</v>
+        <v>1.3476</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.826321</v>
+        <v>0.82504</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53753</v>
+        <v>1.52807</v>
       </c>
       <c r="D68" t="n">
-        <v>2.01927</v>
+        <v>2.0713</v>
       </c>
       <c r="E68" t="n">
-        <v>0.761539</v>
+        <v>0.714742</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3906</v>
+        <v>1.33903</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820931</v>
+        <v>0.807348</v>
       </c>
       <c r="C69" t="n">
-        <v>1.50333</v>
+        <v>1.51645</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98744</v>
+        <v>2.03579</v>
       </c>
       <c r="E69" t="n">
-        <v>0.750139</v>
+        <v>0.699491</v>
       </c>
       <c r="F69" t="n">
-        <v>1.45568</v>
+        <v>1.30436</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785488</v>
+        <v>0.79944</v>
       </c>
       <c r="C70" t="n">
-        <v>1.48528</v>
+        <v>1.4904</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95407</v>
+        <v>2.00769</v>
       </c>
       <c r="E70" t="n">
-        <v>0.755919</v>
+        <v>0.681193</v>
       </c>
       <c r="F70" t="n">
-        <v>1.36953</v>
+        <v>1.27544</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767582</v>
+        <v>0.767823</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47593</v>
+        <v>1.45227</v>
       </c>
       <c r="D71" t="n">
-        <v>1.89446</v>
+        <v>1.95618</v>
       </c>
       <c r="E71" t="n">
-        <v>0.725338</v>
+        <v>0.666263</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39244</v>
+        <v>1.24546</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.754706</v>
+        <v>0.747994</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42182</v>
+        <v>1.42003</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90082</v>
+        <v>1.96525</v>
       </c>
       <c r="E72" t="n">
-        <v>0.711277</v>
+        <v>0.6467309999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>1.29699</v>
+        <v>1.22997</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739498</v>
+        <v>0.731561</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3781</v>
+        <v>1.39222</v>
       </c>
       <c r="D73" t="n">
-        <v>1.88725</v>
+        <v>1.92909</v>
       </c>
       <c r="E73" t="n">
-        <v>0.69472</v>
+        <v>0.6490939999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28711</v>
+        <v>1.22802</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.719116</v>
+        <v>0.732732</v>
       </c>
       <c r="C74" t="n">
-        <v>1.37769</v>
+        <v>1.3857</v>
       </c>
       <c r="D74" t="n">
-        <v>1.94243</v>
+        <v>1.95035</v>
       </c>
       <c r="E74" t="n">
-        <v>0.709723</v>
+        <v>0.625611</v>
       </c>
       <c r="F74" t="n">
-        <v>1.24653</v>
+        <v>1.20171</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.709191</v>
+        <v>0.703983</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3371</v>
+        <v>1.34788</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89602</v>
+        <v>1.88399</v>
       </c>
       <c r="E75" t="n">
-        <v>0.650394</v>
+        <v>0.606416</v>
       </c>
       <c r="F75" t="n">
-        <v>1.23326</v>
+        <v>1.18003</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723523</v>
+        <v>0.694339</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33242</v>
+        <v>1.31892</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90883</v>
+        <v>1.92813</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633501</v>
+        <v>0.599762</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21796</v>
+        <v>1.16151</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678826</v>
+        <v>0.6772010000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28752</v>
+        <v>1.32803</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83466</v>
+        <v>1.90046</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625237</v>
+        <v>0.5885550000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20719</v>
+        <v>1.17122</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677021</v>
+        <v>0.677098</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29882</v>
+        <v>1.30649</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0562</v>
+        <v>3.18646</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618597</v>
+        <v>0.583125</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18868</v>
+        <v>1.14767</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6711279999999999</v>
+        <v>0.650209</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27231</v>
+        <v>1.26008</v>
       </c>
       <c r="D79" t="n">
-        <v>2.94618</v>
+        <v>3.07796</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611275</v>
+        <v>0.885773</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17615</v>
+        <v>1.91032</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653607</v>
+        <v>0.64922</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25454</v>
+        <v>1.26457</v>
       </c>
       <c r="D80" t="n">
-        <v>2.90944</v>
+        <v>2.95227</v>
       </c>
       <c r="E80" t="n">
-        <v>0.915427</v>
+        <v>0.892192</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98089</v>
+        <v>1.89462</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.968063</v>
+        <v>0.944047</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14213</v>
+        <v>2.24191</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00928</v>
+        <v>2.94746</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8984839999999999</v>
+        <v>0.841279</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94384</v>
+        <v>1.85778</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943176</v>
+        <v>0.925835</v>
       </c>
       <c r="C82" t="n">
-        <v>2.07147</v>
+        <v>2.10124</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91159</v>
+        <v>2.86197</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.819621</v>
       </c>
       <c r="F82" t="n">
-        <v>1.90613</v>
+        <v>1.82814</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.965661</v>
+        <v>0.911153</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04059</v>
+        <v>2.0324</v>
       </c>
       <c r="D83" t="n">
-        <v>2.7523</v>
+        <v>2.81141</v>
       </c>
       <c r="E83" t="n">
-        <v>0.852823</v>
+        <v>0.803133</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85847</v>
+        <v>1.76569</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.912673</v>
+        <v>0.894299</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96099</v>
+        <v>2.00487</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75311</v>
+        <v>2.75553</v>
       </c>
       <c r="E84" t="n">
-        <v>0.828427</v>
+        <v>0.788642</v>
       </c>
       <c r="F84" t="n">
-        <v>1.82706</v>
+        <v>1.74147</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914069</v>
+        <v>0.8781870000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96364</v>
+        <v>1.92894</v>
       </c>
       <c r="D85" t="n">
-        <v>2.66794</v>
+        <v>2.70257</v>
       </c>
       <c r="E85" t="n">
-        <v>0.812127</v>
+        <v>0.768465</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75396</v>
+        <v>1.69497</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873924</v>
+        <v>0.8519600000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89425</v>
+        <v>1.86402</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7381</v>
+        <v>2.68295</v>
       </c>
       <c r="E86" t="n">
-        <v>0.792926</v>
+        <v>0.752298</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73693</v>
+        <v>1.64508</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851912</v>
+        <v>0.83323</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90181</v>
+        <v>1.84478</v>
       </c>
       <c r="D87" t="n">
-        <v>2.60488</v>
+        <v>2.62768</v>
       </c>
       <c r="E87" t="n">
-        <v>0.774383</v>
+        <v>0.733052</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67721</v>
+        <v>1.61328</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.839299</v>
+        <v>0.827632</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81521</v>
+        <v>1.78957</v>
       </c>
       <c r="D88" t="n">
-        <v>2.5833</v>
+        <v>2.57858</v>
       </c>
       <c r="E88" t="n">
-        <v>0.776703</v>
+        <v>0.722209</v>
       </c>
       <c r="F88" t="n">
-        <v>1.68596</v>
+        <v>1.57452</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833472</v>
+        <v>0.807831</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79135</v>
+        <v>1.75794</v>
       </c>
       <c r="D89" t="n">
-        <v>2.61921</v>
+        <v>2.59962</v>
       </c>
       <c r="E89" t="n">
-        <v>0.74326</v>
+        <v>0.70723</v>
       </c>
       <c r="F89" t="n">
-        <v>1.60696</v>
+        <v>1.56628</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813693</v>
+        <v>0.7871939999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76818</v>
+        <v>1.75622</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60431</v>
+        <v>2.55463</v>
       </c>
       <c r="E90" t="n">
-        <v>0.73038</v>
+        <v>0.696786</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59092</v>
+        <v>1.54306</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795088</v>
+        <v>0.77481</v>
       </c>
       <c r="C91" t="n">
-        <v>1.72242</v>
+        <v>1.72113</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59823</v>
+        <v>2.55293</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733428</v>
+        <v>0.705906</v>
       </c>
       <c r="F91" t="n">
-        <v>1.57273</v>
+        <v>1.58327</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.768605</v>
+        <v>0.770766</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67462</v>
+        <v>1.72395</v>
       </c>
       <c r="D92" t="n">
-        <v>3.57596</v>
+        <v>3.70807</v>
       </c>
       <c r="E92" t="n">
-        <v>0.71538</v>
+        <v>0.680616</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52747</v>
+        <v>1.50431</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769192</v>
+        <v>0.754505</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65008</v>
+        <v>1.6508</v>
       </c>
       <c r="D93" t="n">
-        <v>3.53769</v>
+        <v>3.56466</v>
       </c>
       <c r="E93" t="n">
-        <v>0.726693</v>
+        <v>0.986589</v>
       </c>
       <c r="F93" t="n">
-        <v>1.54553</v>
+        <v>2.43903</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771715</v>
+        <v>0.745218</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62698</v>
+        <v>1.65315</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5332</v>
+        <v>3.45937</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02169</v>
+        <v>0.981185</v>
       </c>
       <c r="F94" t="n">
-        <v>2.50487</v>
+        <v>2.35061</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08418</v>
+        <v>1.03831</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74023</v>
+        <v>2.65654</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5124</v>
+        <v>3.48129</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00679</v>
+        <v>0.975186</v>
       </c>
       <c r="F95" t="n">
-        <v>2.48916</v>
+        <v>2.33658</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06575</v>
+        <v>1.0651</v>
       </c>
       <c r="C96" t="n">
-        <v>2.74851</v>
+        <v>2.72114</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31612</v>
+        <v>3.4032</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989348</v>
+        <v>0.926583</v>
       </c>
       <c r="F96" t="n">
-        <v>2.35096</v>
+        <v>2.25222</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04285</v>
+        <v>1.02315</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55837</v>
+        <v>2.56606</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32588</v>
+        <v>3.34472</v>
       </c>
       <c r="E97" t="n">
-        <v>0.975986</v>
+        <v>0.928437</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37816</v>
+        <v>2.22129</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00602</v>
+        <v>0.99436</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49865</v>
+        <v>2.49301</v>
       </c>
       <c r="D98" t="n">
-        <v>3.39154</v>
+        <v>3.26604</v>
       </c>
       <c r="E98" t="n">
-        <v>0.931532</v>
+        <v>0.884392</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30082</v>
+        <v>2.16618</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01178</v>
+        <v>1.01073</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46171</v>
+        <v>2.42391</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28686</v>
+        <v>3.23633</v>
       </c>
       <c r="E99" t="n">
-        <v>0.928202</v>
+        <v>0.899472</v>
       </c>
       <c r="F99" t="n">
-        <v>2.20199</v>
+        <v>2.13105</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00205</v>
+        <v>0.974908</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40753</v>
+        <v>2.40819</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14925</v>
+        <v>3.18628</v>
       </c>
       <c r="E100" t="n">
-        <v>0.896126</v>
+        <v>0.879367</v>
       </c>
       <c r="F100" t="n">
-        <v>2.18158</v>
+        <v>2.09236</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971307</v>
+        <v>0.982506</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33332</v>
+        <v>2.33763</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27451</v>
+        <v>3.13375</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.86143</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11107</v>
+        <v>2.05508</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953824</v>
+        <v>0.938029</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29159</v>
+        <v>2.27427</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1488</v>
+        <v>3.09454</v>
       </c>
       <c r="E102" t="n">
-        <v>0.851868</v>
+        <v>0.824265</v>
       </c>
       <c r="F102" t="n">
-        <v>2.06372</v>
+        <v>1.98944</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932949</v>
+        <v>0.935963</v>
       </c>
       <c r="C103" t="n">
-        <v>2.21041</v>
+        <v>2.23652</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05602</v>
+        <v>3.0834</v>
       </c>
       <c r="E103" t="n">
-        <v>0.867088</v>
+        <v>0.818147</v>
       </c>
       <c r="F103" t="n">
-        <v>2.01796</v>
+        <v>1.95056</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9299809999999999</v>
+        <v>0.931012</v>
       </c>
       <c r="C104" t="n">
-        <v>2.161</v>
+        <v>2.17632</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06156</v>
+        <v>3.06026</v>
       </c>
       <c r="E104" t="n">
-        <v>0.843205</v>
+        <v>0.808352</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9756</v>
+        <v>1.96269</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.93072</v>
+        <v>0.953919</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14861</v>
+        <v>2.19023</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05091</v>
+        <v>3.06006</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841862</v>
+        <v>0.793776</v>
       </c>
       <c r="F105" t="n">
-        <v>1.95348</v>
+        <v>1.88753</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90806</v>
+        <v>0.893387</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08289</v>
+        <v>2.11274</v>
       </c>
       <c r="D106" t="n">
-        <v>3.06286</v>
+        <v>3.00009</v>
       </c>
       <c r="E106" t="n">
-        <v>0.809347</v>
+        <v>0.7797809999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95531</v>
+        <v>1.85383</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923753</v>
+        <v>0.885097</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13231</v>
+        <v>2.09079</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25392</v>
+        <v>4.26806</v>
       </c>
       <c r="E107" t="n">
-        <v>0.823731</v>
+        <v>1.0972</v>
       </c>
       <c r="F107" t="n">
-        <v>1.94767</v>
+        <v>2.95828</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.900423</v>
+        <v>0.874084</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09289</v>
+        <v>2.07722</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10799</v>
+        <v>4.06195</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14817</v>
+        <v>1.07464</v>
       </c>
       <c r="F108" t="n">
-        <v>3.04966</v>
+        <v>2.82535</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872599</v>
+        <v>0.867877</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05056</v>
+        <v>2.02887</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01272</v>
+        <v>3.95722</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12126</v>
+        <v>1.07337</v>
       </c>
       <c r="F109" t="n">
-        <v>2.96604</v>
+        <v>2.75334</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19757</v>
+        <v>1.17629</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17492</v>
+        <v>3.15337</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97299</v>
+        <v>3.92694</v>
       </c>
       <c r="E110" t="n">
-        <v>1.08534</v>
+        <v>1.08554</v>
       </c>
       <c r="F110" t="n">
-        <v>2.869</v>
+        <v>2.71231</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16604</v>
+        <v>1.16351</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13645</v>
+        <v>3.05766</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95988</v>
+        <v>3.8863</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12159</v>
+        <v>1.07283</v>
       </c>
       <c r="F111" t="n">
-        <v>2.83422</v>
+        <v>2.66849</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14753</v>
+        <v>1.18607</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03503</v>
+        <v>3.00728</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93714</v>
+        <v>3.85541</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11134</v>
+        <v>1.02213</v>
       </c>
       <c r="F112" t="n">
-        <v>2.82322</v>
+        <v>2.61162</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15598</v>
+        <v>1.16789</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00706</v>
+        <v>2.93742</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81217</v>
+        <v>3.84042</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06255</v>
+        <v>1.04202</v>
       </c>
       <c r="F113" t="n">
-        <v>2.72726</v>
+        <v>2.55254</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14981</v>
+        <v>1.16323</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97442</v>
+        <v>2.87074</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83608</v>
+        <v>3.82845</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07588</v>
+        <v>1.04082</v>
       </c>
       <c r="F114" t="n">
-        <v>2.68609</v>
+        <v>2.52787</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13566</v>
+        <v>1.13249</v>
       </c>
       <c r="C115" t="n">
-        <v>2.91551</v>
+        <v>2.8157</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79197</v>
+        <v>3.69651</v>
       </c>
       <c r="E115" t="n">
-        <v>1.05717</v>
+        <v>1.02053</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60336</v>
+        <v>2.45591</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14858</v>
+        <v>1.16098</v>
       </c>
       <c r="C116" t="n">
-        <v>2.81258</v>
+        <v>2.75663</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70405</v>
+        <v>3.6649</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02575</v>
+        <v>1.01895</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54748</v>
+        <v>2.42745</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1213</v>
+        <v>1.10959</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78248</v>
+        <v>2.69184</v>
       </c>
       <c r="D117" t="n">
-        <v>3.69834</v>
+        <v>3.65518</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00789</v>
+        <v>0.998299</v>
       </c>
       <c r="F117" t="n">
-        <v>2.47251</v>
+        <v>2.35219</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09157</v>
+        <v>1.09912</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76407</v>
+        <v>2.65161</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6886</v>
+        <v>3.57437</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00685</v>
+        <v>0.99491</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43947</v>
+        <v>2.32092</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10224</v>
+        <v>1.09568</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68266</v>
+        <v>2.62471</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64735</v>
+        <v>3.58887</v>
       </c>
       <c r="E119" t="n">
-        <v>1.00353</v>
+        <v>0.994466</v>
       </c>
       <c r="F119" t="n">
-        <v>2.40417</v>
+        <v>2.29383</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08016</v>
+        <v>1.10943</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59859</v>
+        <v>2.58762</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60918</v>
+        <v>3.60157</v>
       </c>
       <c r="E120" t="n">
-        <v>0.984764</v>
+        <v>0.964348</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36724</v>
+        <v>2.23247</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08303</v>
+        <v>1.09032</v>
       </c>
       <c r="C121" t="n">
-        <v>2.55278</v>
+        <v>2.54291</v>
       </c>
       <c r="D121" t="n">
-        <v>4.93811</v>
+        <v>4.92648</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9731919999999999</v>
+        <v>1.29809</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33548</v>
+        <v>3.41389</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07829</v>
+        <v>1.07446</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55719</v>
+        <v>2.52516</v>
       </c>
       <c r="D122" t="n">
-        <v>4.80853</v>
+        <v>4.78368</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958604</v>
+        <v>1.27619</v>
       </c>
       <c r="F122" t="n">
-        <v>2.33322</v>
+        <v>3.37241</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0742</v>
+        <v>1.04983</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52484</v>
+        <v>2.4833</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7414</v>
+        <v>4.73095</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29905</v>
+        <v>1.29496</v>
       </c>
       <c r="F123" t="n">
-        <v>3.51166</v>
+        <v>3.29762</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37985</v>
+        <v>1.39517</v>
       </c>
       <c r="C124" t="n">
-        <v>3.75171</v>
+        <v>3.73034</v>
       </c>
       <c r="D124" t="n">
-        <v>4.71081</v>
+        <v>4.68635</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3021</v>
+        <v>1.29582</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38121</v>
+        <v>3.2041</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38717</v>
+        <v>1.3778</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63345</v>
+        <v>3.62473</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56309</v>
+        <v>4.56204</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28362</v>
+        <v>1.29709</v>
       </c>
       <c r="F125" t="n">
-        <v>3.29702</v>
+        <v>3.12393</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38422</v>
+        <v>1.40071</v>
       </c>
       <c r="C126" t="n">
-        <v>3.63492</v>
+        <v>3.52913</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55072</v>
+        <v>4.50256</v>
       </c>
       <c r="E126" t="n">
-        <v>1.28218</v>
+        <v>1.2783</v>
       </c>
       <c r="F126" t="n">
-        <v>3.26696</v>
+        <v>3.08117</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39177</v>
+        <v>1.39064</v>
       </c>
       <c r="C127" t="n">
-        <v>3.52019</v>
+        <v>3.49355</v>
       </c>
       <c r="D127" t="n">
-        <v>4.47824</v>
+        <v>4.40208</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2695</v>
+        <v>1.28439</v>
       </c>
       <c r="F127" t="n">
-        <v>3.18236</v>
+        <v>3.043</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34421</v>
+        <v>1.38127</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41867</v>
+        <v>3.43181</v>
       </c>
       <c r="D128" t="n">
-        <v>4.41536</v>
+        <v>4.3666</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27759</v>
+        <v>1.29429</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11321</v>
+        <v>2.94014</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35125</v>
+        <v>1.36118</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38055</v>
+        <v>3.35689</v>
       </c>
       <c r="D129" t="n">
-        <v>4.35577</v>
+        <v>4.30214</v>
       </c>
       <c r="E129" t="n">
-        <v>1.23558</v>
+        <v>1.24942</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04803</v>
+        <v>2.91129</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36445</v>
+        <v>1.37719</v>
       </c>
       <c r="C130" t="n">
-        <v>3.30338</v>
+        <v>3.26896</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2794</v>
+        <v>4.26763</v>
       </c>
       <c r="E130" t="n">
-        <v>1.241</v>
+        <v>1.25871</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00293</v>
+        <v>2.86428</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3557</v>
+        <v>1.36731</v>
       </c>
       <c r="C131" t="n">
-        <v>3.30477</v>
+        <v>3.22191</v>
       </c>
       <c r="D131" t="n">
-        <v>4.25215</v>
+        <v>4.23527</v>
       </c>
       <c r="E131" t="n">
-        <v>1.256</v>
+        <v>1.87477</v>
       </c>
       <c r="F131" t="n">
-        <v>2.98108</v>
+        <v>3.00538</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35459</v>
+        <v>1.3542</v>
       </c>
       <c r="C132" t="n">
-        <v>3.21955</v>
+        <v>3.21472</v>
       </c>
       <c r="D132" t="n">
-        <v>4.22341</v>
+        <v>4.20229</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24739</v>
+        <v>1.25147</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88349</v>
+        <v>2.79688</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32891</v>
+        <v>1.33949</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15426</v>
+        <v>3.13869</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2413</v>
+        <v>4.15374</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23362</v>
+        <v>1.24612</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84003</v>
+        <v>2.72895</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31717</v>
+        <v>1.32965</v>
       </c>
       <c r="C134" t="n">
-        <v>3.13424</v>
+        <v>3.11994</v>
       </c>
       <c r="D134" t="n">
-        <v>4.18816</v>
+        <v>4.12274</v>
       </c>
       <c r="E134" t="n">
-        <v>1.22683</v>
+        <v>1.2547</v>
       </c>
       <c r="F134" t="n">
-        <v>2.81872</v>
+        <v>2.71453</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39006</v>
+        <v>1.33351</v>
       </c>
       <c r="C135" t="n">
-        <v>3.08058</v>
+        <v>3.02458</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67468</v>
+        <v>5.63663</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25035</v>
+        <v>1.58491</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75636</v>
+        <v>3.9687</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32544</v>
+        <v>1.3376</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06988</v>
+        <v>3.02015</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60148</v>
+        <v>5.54172</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21942</v>
+        <v>1.57565</v>
       </c>
       <c r="F136" t="n">
-        <v>2.72918</v>
+        <v>3.9185</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35621</v>
+        <v>1.35642</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00577</v>
+        <v>2.95462</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44151</v>
+        <v>5.44508</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57894</v>
+        <v>1.58908</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00985</v>
+        <v>3.77916</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.67963</v>
+        <v>1.6642</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34988</v>
+        <v>4.28625</v>
       </c>
       <c r="D138" t="n">
-        <v>5.3562</v>
+        <v>5.3433</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57405</v>
+        <v>1.5649</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89679</v>
+        <v>3.69338</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64808</v>
+        <v>1.643</v>
       </c>
       <c r="C139" t="n">
-        <v>4.25406</v>
+        <v>4.19373</v>
       </c>
       <c r="D139" t="n">
-        <v>5.26764</v>
+        <v>5.22836</v>
       </c>
       <c r="E139" t="n">
-        <v>1.55706</v>
+        <v>1.56753</v>
       </c>
       <c r="F139" t="n">
-        <v>3.83266</v>
+        <v>3.64391</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.67247</v>
+        <v>1.6756</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18962</v>
+        <v>4.11796</v>
       </c>
       <c r="D140" t="n">
-        <v>5.16642</v>
+        <v>5.146</v>
       </c>
       <c r="E140" t="n">
-        <v>1.53212</v>
+        <v>1.56185</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75824</v>
+        <v>3.578</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63474</v>
+        <v>1.64599</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09438</v>
+        <v>4.0013</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06514</v>
+        <v>5.05436</v>
       </c>
       <c r="E141" t="n">
-        <v>1.53172</v>
+        <v>1.55251</v>
       </c>
       <c r="F141" t="n">
-        <v>3.63691</v>
+        <v>3.49356</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65906</v>
+        <v>1.65471</v>
       </c>
       <c r="C142" t="n">
-        <v>3.98981</v>
+        <v>3.93517</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0716</v>
+        <v>5.01149</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53279</v>
+        <v>1.57482</v>
       </c>
       <c r="F142" t="n">
-        <v>3.60441</v>
+        <v>3.40898</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64625</v>
+        <v>1.64771</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92156</v>
+        <v>3.85105</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91479</v>
+        <v>4.9018</v>
       </c>
       <c r="E143" t="n">
-        <v>1.52123</v>
+        <v>1.55798</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49577</v>
+        <v>3.36747</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575522</v>
+        <v>0.6101490000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053630000000001</v>
+        <v>0.793925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969652</v>
+        <v>0.957657</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317156</v>
+        <v>0.310693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.799504</v>
+        <v>0.780037</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331523</v>
+        <v>0.332106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792357</v>
+        <v>0.778752</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95972</v>
+        <v>0.953863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5283870000000001</v>
+        <v>0.30192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.762614</v>
+        <v>0.773134</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.325093</v>
+        <v>0.323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789855</v>
+        <v>0.774562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980649</v>
+        <v>0.938848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308835</v>
+        <v>0.295495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754483</v>
+        <v>0.760904</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32818</v>
+        <v>0.316429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786763</v>
+        <v>0.771803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.941376</v>
+        <v>0.938642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307744</v>
+        <v>0.291955</v>
       </c>
       <c r="F5" t="n">
-        <v>0.789703</v>
+        <v>0.760961</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335133</v>
+        <v>0.317765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.798776</v>
+        <v>0.7735649999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985724</v>
+        <v>0.931213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.305344</v>
+        <v>0.287711</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749701</v>
+        <v>0.755305</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322629</v>
+        <v>0.309723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784904</v>
+        <v>0.757142</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16528</v>
+        <v>1.11412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304815</v>
+        <v>0.281476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.744746</v>
+        <v>0.751506</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30831</v>
+        <v>0.304196</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770539</v>
+        <v>0.753095</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12202</v>
+        <v>1.10177</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290588</v>
+        <v>0.282241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749251</v>
+        <v>0.749383</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307094</v>
+        <v>0.303111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772613</v>
+        <v>0.749575</v>
       </c>
       <c r="D9" t="n">
-        <v>1.09185</v>
+        <v>1.07352</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543091</v>
+        <v>0.568599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.855966</v>
+        <v>0.904239</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556223</v>
+        <v>0.558229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902688</v>
+        <v>0.874956</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07887</v>
+        <v>1.06647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525743</v>
+        <v>0.518929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.847444</v>
+        <v>0.862308</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553473</v>
+        <v>0.538825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.900881</v>
+        <v>0.869539</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06591</v>
+        <v>1.05548</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510518</v>
+        <v>0.500699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.837014</v>
+        <v>0.854518</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525643</v>
+        <v>0.521975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.871667</v>
+        <v>0.846879</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04819</v>
+        <v>1.03989</v>
       </c>
       <c r="E12" t="n">
-        <v>0.493574</v>
+        <v>0.486748</v>
       </c>
       <c r="F12" t="n">
-        <v>0.838848</v>
+        <v>0.842153</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508463</v>
+        <v>0.5078859999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854847</v>
+        <v>0.837463</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0537</v>
+        <v>1.02968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.490285</v>
+        <v>0.472245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.813659</v>
+        <v>0.833448</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493829</v>
+        <v>0.491847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.84234</v>
+        <v>0.8292890000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02761</v>
+        <v>1.0186</v>
       </c>
       <c r="E14" t="n">
-        <v>0.464033</v>
+        <v>0.457177</v>
       </c>
       <c r="F14" t="n">
-        <v>0.80908</v>
+        <v>0.826644</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479674</v>
+        <v>0.481586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.836435</v>
+        <v>0.824098</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01782</v>
+        <v>1.01924</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447319</v>
+        <v>0.446031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79615</v>
+        <v>0.816619</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467952</v>
+        <v>0.468188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.822427</v>
+        <v>0.815206</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03369</v>
+        <v>1.00578</v>
       </c>
       <c r="E16" t="n">
-        <v>0.435864</v>
+        <v>0.437526</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794716</v>
+        <v>0.805014</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46037</v>
+        <v>0.452727</v>
       </c>
       <c r="C17" t="n">
-        <v>0.824414</v>
+        <v>0.798555</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03949</v>
+        <v>0.990052</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426453</v>
+        <v>0.418507</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787167</v>
+        <v>0.79528</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459607</v>
+        <v>0.439673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.811786</v>
+        <v>0.7910970000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.992486</v>
+        <v>0.9801530000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.415591</v>
+        <v>0.40518</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7799700000000001</v>
+        <v>0.788986</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434457</v>
+        <v>0.429546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.807883</v>
+        <v>0.78161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988259</v>
+        <v>0.969888</v>
       </c>
       <c r="E19" t="n">
-        <v>0.414061</v>
+        <v>0.41392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.789147</v>
+        <v>0.784872</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42632</v>
+        <v>0.426073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803764</v>
+        <v>0.781373</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00131</v>
+        <v>0.965113</v>
       </c>
       <c r="E20" t="n">
-        <v>0.403929</v>
+        <v>0.393793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.774707</v>
+        <v>0.77436</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418046</v>
+        <v>0.413866</v>
       </c>
       <c r="C21" t="n">
-        <v>0.799251</v>
+        <v>0.779485</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19295</v>
+        <v>1.16889</v>
       </c>
       <c r="E21" t="n">
-        <v>0.387986</v>
+        <v>0.37877</v>
       </c>
       <c r="F21" t="n">
-        <v>0.767618</v>
+        <v>0.769464</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407915</v>
+        <v>0.402157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.795204</v>
+        <v>0.771418</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16209</v>
+        <v>1.14979</v>
       </c>
       <c r="E22" t="n">
-        <v>0.381444</v>
+        <v>0.373859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.763447</v>
+        <v>0.767849</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409988</v>
+        <v>0.409458</v>
       </c>
       <c r="C23" t="n">
-        <v>0.786917</v>
+        <v>0.770869</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14185</v>
+        <v>1.13585</v>
       </c>
       <c r="E23" t="n">
-        <v>0.641595</v>
+        <v>0.636028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.903034</v>
+        <v>0.90044</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65785</v>
+        <v>0.658904</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916601</v>
+        <v>0.912268</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13616</v>
+        <v>1.13979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.622939</v>
+        <v>0.635651</v>
       </c>
       <c r="F24" t="n">
-        <v>0.872999</v>
+        <v>0.905106</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641939</v>
+        <v>0.6482059999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9161280000000001</v>
+        <v>0.889506</v>
       </c>
       <c r="D25" t="n">
-        <v>1.12062</v>
+        <v>1.09937</v>
       </c>
       <c r="E25" t="n">
-        <v>0.603781</v>
+        <v>0.602414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8642339999999999</v>
+        <v>0.888211</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621707</v>
+        <v>0.625116</v>
       </c>
       <c r="C26" t="n">
-        <v>0.894818</v>
+        <v>0.883598</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09479</v>
+        <v>1.11664</v>
       </c>
       <c r="E26" t="n">
-        <v>0.585918</v>
+        <v>0.583032</v>
       </c>
       <c r="F26" t="n">
-        <v>0.853728</v>
+        <v>0.877578</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606362</v>
+        <v>0.618385</v>
       </c>
       <c r="C27" t="n">
-        <v>0.894883</v>
+        <v>0.879558</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08143</v>
+        <v>1.09145</v>
       </c>
       <c r="E27" t="n">
-        <v>0.569053</v>
+        <v>0.5631350000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.843792</v>
+        <v>0.86907</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585933</v>
+        <v>0.584026</v>
       </c>
       <c r="C28" t="n">
-        <v>0.905092</v>
+        <v>0.865781</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07484</v>
+        <v>1.07869</v>
       </c>
       <c r="E28" t="n">
-        <v>0.550386</v>
+        <v>0.559589</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83812</v>
+        <v>0.860706</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569434</v>
+        <v>0.581058</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8822680000000001</v>
+        <v>0.87531</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0797</v>
+        <v>1.08899</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555153</v>
+        <v>0.544992</v>
       </c>
       <c r="F29" t="n">
-        <v>0.831658</v>
+        <v>0.842398</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.549855</v>
+        <v>0.552069</v>
       </c>
       <c r="C30" t="n">
-        <v>0.861896</v>
+        <v>0.871532</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06346</v>
+        <v>1.06365</v>
       </c>
       <c r="E30" t="n">
-        <v>0.524822</v>
+        <v>0.51296</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310340000000001</v>
+        <v>0.841765</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533342</v>
+        <v>0.5372209999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846967</v>
+        <v>0.8446129999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>1.04503</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4989</v>
+        <v>0.498254</v>
       </c>
       <c r="F31" t="n">
-        <v>0.816196</v>
+        <v>0.82503</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517628</v>
+        <v>0.518656</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839171</v>
+        <v>0.8348680000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04283</v>
+        <v>1.04806</v>
       </c>
       <c r="E32" t="n">
-        <v>0.482435</v>
+        <v>0.490256</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8086</v>
+        <v>0.826842</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502485</v>
+        <v>0.5077700000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.826452</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02947</v>
+        <v>1.02608</v>
       </c>
       <c r="E33" t="n">
-        <v>0.477698</v>
+        <v>0.467594</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818264</v>
+        <v>0.816993</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5064650000000001</v>
+        <v>0.493195</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822991</v>
+        <v>0.8193820000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0304</v>
+        <v>1.02864</v>
       </c>
       <c r="E34" t="n">
-        <v>0.474283</v>
+        <v>0.456446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799172</v>
+        <v>0.808494</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494042</v>
+        <v>0.483258</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845793</v>
+        <v>0.817592</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33836</v>
+        <v>1.28406</v>
       </c>
       <c r="E35" t="n">
-        <v>0.447169</v>
+        <v>0.45274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.786601</v>
+        <v>0.811263</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462297</v>
+        <v>0.472986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812798</v>
+        <v>0.810246</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31541</v>
+        <v>1.2545</v>
       </c>
       <c r="E36" t="n">
-        <v>0.435134</v>
+        <v>0.436024</v>
       </c>
       <c r="F36" t="n">
-        <v>0.784529</v>
+        <v>0.79819</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453812</v>
+        <v>0.460329</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810837</v>
+        <v>0.806937</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23223</v>
+        <v>1.23474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.694879</v>
+        <v>0.6962159999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96505</v>
+        <v>1.0063</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.717845</v>
+        <v>0.723614</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01755</v>
+        <v>1.00489</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25114</v>
+        <v>1.2159</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672512</v>
+        <v>0.6964590000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958387</v>
+        <v>0.988741</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.698846</v>
+        <v>0.705125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.98744</v>
+        <v>1.00228</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18862</v>
+        <v>1.21838</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.658456</v>
       </c>
       <c r="F39" t="n">
-        <v>0.940918</v>
+        <v>0.987055</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668726</v>
+        <v>0.680966</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973736</v>
+        <v>0.994548</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19747</v>
+        <v>1.19792</v>
       </c>
       <c r="E40" t="n">
-        <v>0.628024</v>
+        <v>0.633134</v>
       </c>
       <c r="F40" t="n">
-        <v>0.932982</v>
+        <v>0.965946</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589390000000001</v>
+        <v>0.658656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.964974</v>
+        <v>0.966971</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17228</v>
+        <v>1.18111</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608797</v>
+        <v>0.61346</v>
       </c>
       <c r="F41" t="n">
-        <v>0.92378</v>
+        <v>0.957039</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663308</v>
+        <v>0.637987</v>
       </c>
       <c r="C42" t="n">
-        <v>0.971606</v>
+        <v>0.9522659999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16154</v>
+        <v>1.18878</v>
       </c>
       <c r="E42" t="n">
-        <v>0.594526</v>
+        <v>0.59275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.932104</v>
+        <v>0.9321430000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.623739</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96251</v>
+        <v>0.961556</v>
       </c>
       <c r="D43" t="n">
-        <v>1.19951</v>
+        <v>1.16057</v>
       </c>
       <c r="E43" t="n">
-        <v>0.584045</v>
+        <v>0.5715980000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.914353</v>
+        <v>0.92654</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622929</v>
+        <v>0.642517</v>
       </c>
       <c r="C44" t="n">
-        <v>0.934897</v>
+        <v>0.932122</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1691</v>
+        <v>1.16546</v>
       </c>
       <c r="E44" t="n">
-        <v>0.559534</v>
+        <v>0.603656</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916623</v>
+        <v>0.941781</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584052</v>
+        <v>0.582882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937145</v>
+        <v>0.924053</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1278</v>
+        <v>1.12589</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534959</v>
+        <v>0.532228</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877298</v>
+        <v>0.88872</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562038</v>
+        <v>0.60181</v>
       </c>
       <c r="C46" t="n">
-        <v>0.901967</v>
+        <v>0.896031</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13678</v>
+        <v>1.12089</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522519</v>
+        <v>0.519042</v>
       </c>
       <c r="F46" t="n">
-        <v>0.871634</v>
+        <v>0.891207</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.547866</v>
+        <v>0.548471</v>
       </c>
       <c r="C47" t="n">
-        <v>0.896132</v>
+        <v>0.901936</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11638</v>
+        <v>1.1188</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.505103</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8663380000000001</v>
+        <v>0.883736</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.533868</v>
+        <v>0.540807</v>
       </c>
       <c r="C48" t="n">
-        <v>0.952105</v>
+        <v>0.891895</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14935</v>
+        <v>1.11515</v>
       </c>
       <c r="E48" t="n">
-        <v>0.492952</v>
+        <v>0.490001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.853775</v>
+        <v>0.870969</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550705</v>
+        <v>0.522499</v>
       </c>
       <c r="C49" t="n">
-        <v>0.881059</v>
+        <v>0.878008</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14003</v>
+        <v>1.12348</v>
       </c>
       <c r="E49" t="n">
-        <v>0.492992</v>
+        <v>0.488554</v>
       </c>
       <c r="F49" t="n">
-        <v>0.848229</v>
+        <v>0.8612069999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510656</v>
+        <v>0.510606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8820249999999999</v>
+        <v>0.876946</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55129</v>
+        <v>1.5638</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473988</v>
+        <v>0.484536</v>
       </c>
       <c r="F50" t="n">
-        <v>0.858786</v>
+        <v>0.860124</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.496193</v>
+        <v>0.518885</v>
       </c>
       <c r="C51" t="n">
-        <v>0.873503</v>
+        <v>0.869539</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52641</v>
+        <v>1.58794</v>
       </c>
       <c r="E51" t="n">
-        <v>0.738909</v>
+        <v>0.757984</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12309</v>
+        <v>1.12878</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502169</v>
+        <v>0.490304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8796349999999999</v>
+        <v>0.870931</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50367</v>
+        <v>1.51739</v>
       </c>
       <c r="E52" t="n">
-        <v>0.755392</v>
+        <v>0.720547</v>
       </c>
       <c r="F52" t="n">
-        <v>1.14047</v>
+        <v>1.12533</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.750716</v>
+        <v>0.765438</v>
       </c>
       <c r="C53" t="n">
-        <v>1.16143</v>
+        <v>1.15917</v>
       </c>
       <c r="D53" t="n">
-        <v>1.48263</v>
+        <v>1.47569</v>
       </c>
       <c r="E53" t="n">
-        <v>0.696551</v>
+        <v>0.7034049999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09033</v>
+        <v>1.10091</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743347</v>
+        <v>0.732483</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14398</v>
+        <v>1.12938</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45998</v>
+        <v>1.46262</v>
       </c>
       <c r="E54" t="n">
-        <v>0.685972</v>
+        <v>0.677036</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05898</v>
+        <v>1.08735</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.728923</v>
+        <v>0.707973</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12406</v>
+        <v>1.11926</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43352</v>
+        <v>1.43883</v>
       </c>
       <c r="E55" t="n">
-        <v>0.661216</v>
+        <v>0.6651589999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>1.10186</v>
+        <v>1.07571</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732407</v>
+        <v>0.71263</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10659</v>
+        <v>1.09503</v>
       </c>
       <c r="D56" t="n">
-        <v>1.47073</v>
+        <v>1.42174</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6419550000000001</v>
+        <v>0.654146</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04177</v>
+        <v>1.08864</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705487</v>
+        <v>0.698864</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09715</v>
+        <v>1.10146</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41985</v>
+        <v>1.41716</v>
       </c>
       <c r="E57" t="n">
-        <v>0.629614</v>
+        <v>0.635198</v>
       </c>
       <c r="F57" t="n">
-        <v>1.07522</v>
+        <v>1.05022</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662017</v>
+        <v>0.6737300000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08735</v>
+        <v>1.0821</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43967</v>
+        <v>1.41332</v>
       </c>
       <c r="E58" t="n">
-        <v>0.636605</v>
+        <v>0.6164809999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>1.018</v>
+        <v>1.02606</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651039</v>
+        <v>0.649766</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11752</v>
+        <v>1.08197</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4007</v>
+        <v>1.38381</v>
       </c>
       <c r="E59" t="n">
-        <v>0.595773</v>
+        <v>0.600746</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978939999999999</v>
+        <v>1.01444</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63121</v>
+        <v>0.63497</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04912</v>
+        <v>1.04355</v>
       </c>
       <c r="D60" t="n">
-        <v>1.40098</v>
+        <v>1.35729</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582719</v>
+        <v>0.582925</v>
       </c>
       <c r="F60" t="n">
-        <v>0.986106</v>
+        <v>1.00683</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622231</v>
+        <v>0.650315</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04913</v>
+        <v>1.07847</v>
       </c>
       <c r="D61" t="n">
-        <v>1.37008</v>
+        <v>1.41935</v>
       </c>
       <c r="E61" t="n">
-        <v>0.575585</v>
+        <v>0.606444</v>
       </c>
       <c r="F61" t="n">
-        <v>0.96883</v>
+        <v>1.01775</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616518</v>
+        <v>0.604978</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04271</v>
+        <v>1.01786</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36427</v>
+        <v>1.35374</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5587839999999999</v>
+        <v>0.5594980000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.979374</v>
+        <v>0.982134</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.594051</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02824</v>
+        <v>1.08361</v>
       </c>
       <c r="D63" t="n">
-        <v>1.39039</v>
+        <v>1.36073</v>
       </c>
       <c r="E63" t="n">
-        <v>0.55386</v>
+        <v>0.559682</v>
       </c>
       <c r="F63" t="n">
-        <v>0.964228</v>
+        <v>0.9783849999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588021</v>
+        <v>0.598747</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00914</v>
+        <v>1.00942</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18386</v>
+        <v>2.17137</v>
       </c>
       <c r="E64" t="n">
-        <v>0.539924</v>
+        <v>0.542496</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9560419999999999</v>
+        <v>0.956171</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600253</v>
+        <v>0.572103</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00606</v>
+        <v>1.0242</v>
       </c>
       <c r="D65" t="n">
-        <v>2.17801</v>
+        <v>2.15563</v>
       </c>
       <c r="E65" t="n">
-        <v>0.545217</v>
+        <v>0.5361669999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.94783</v>
+        <v>0.956999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.566568</v>
+        <v>0.5716599999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985808</v>
+        <v>0.985478</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11281</v>
+        <v>2.07548</v>
       </c>
       <c r="E66" t="n">
-        <v>0.81885</v>
+        <v>0.796964</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44796</v>
+        <v>1.4436</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.855712</v>
+        <v>0.871164</v>
       </c>
       <c r="C67" t="n">
-        <v>1.61993</v>
+        <v>1.55903</v>
       </c>
       <c r="D67" t="n">
-        <v>2.07961</v>
+        <v>2.04256</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7895</v>
+        <v>0.80825</v>
       </c>
       <c r="F67" t="n">
-        <v>1.44435</v>
+        <v>1.43643</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.826321</v>
+        <v>0.822179</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53753</v>
+        <v>1.5177</v>
       </c>
       <c r="D68" t="n">
-        <v>2.01927</v>
+        <v>2.04358</v>
       </c>
       <c r="E68" t="n">
-        <v>0.761539</v>
+        <v>0.758131</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3906</v>
+        <v>1.40654</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820931</v>
+        <v>0.803276</v>
       </c>
       <c r="C69" t="n">
-        <v>1.50333</v>
+        <v>1.52046</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98744</v>
+        <v>2.00715</v>
       </c>
       <c r="E69" t="n">
-        <v>0.750139</v>
+        <v>0.7644300000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1.45568</v>
+        <v>1.42054</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785488</v>
+        <v>0.814545</v>
       </c>
       <c r="C70" t="n">
-        <v>1.48528</v>
+        <v>1.47153</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95407</v>
+        <v>1.96742</v>
       </c>
       <c r="E70" t="n">
-        <v>0.755919</v>
+        <v>0.729086</v>
       </c>
       <c r="F70" t="n">
-        <v>1.36953</v>
+        <v>1.34853</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767582</v>
+        <v>0.765642</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47593</v>
+        <v>1.44039</v>
       </c>
       <c r="D71" t="n">
-        <v>1.89446</v>
+        <v>1.98676</v>
       </c>
       <c r="E71" t="n">
-        <v>0.725338</v>
+        <v>0.71165</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39244</v>
+        <v>1.34098</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.754706</v>
+        <v>0.792414</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42182</v>
+        <v>1.41354</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90082</v>
+        <v>1.95189</v>
       </c>
       <c r="E72" t="n">
-        <v>0.711277</v>
+        <v>0.691351</v>
       </c>
       <c r="F72" t="n">
-        <v>1.29699</v>
+        <v>1.30181</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739498</v>
+        <v>0.732222</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3781</v>
+        <v>1.39309</v>
       </c>
       <c r="D73" t="n">
-        <v>1.88725</v>
+        <v>1.8918</v>
       </c>
       <c r="E73" t="n">
-        <v>0.69472</v>
+        <v>0.675593</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28711</v>
+        <v>1.28588</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.719116</v>
+        <v>0.726415</v>
       </c>
       <c r="C74" t="n">
-        <v>1.37769</v>
+        <v>1.3768</v>
       </c>
       <c r="D74" t="n">
-        <v>1.94243</v>
+        <v>1.86265</v>
       </c>
       <c r="E74" t="n">
-        <v>0.709723</v>
+        <v>0.6559120000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1.24653</v>
+        <v>1.26264</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.709191</v>
+        <v>0.70187</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3371</v>
+        <v>1.3446</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89602</v>
+        <v>1.84923</v>
       </c>
       <c r="E75" t="n">
-        <v>0.650394</v>
+        <v>0.648174</v>
       </c>
       <c r="F75" t="n">
-        <v>1.23326</v>
+        <v>1.24398</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723523</v>
+        <v>0.696066</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33242</v>
+        <v>1.30558</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90883</v>
+        <v>1.84012</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633501</v>
+        <v>0.627525</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21796</v>
+        <v>1.21121</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678826</v>
+        <v>0.671413</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28752</v>
+        <v>1.30332</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83466</v>
+        <v>1.85614</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625237</v>
+        <v>0.625295</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20719</v>
+        <v>1.20764</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677021</v>
+        <v>0.666647</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29882</v>
+        <v>1.2805</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0562</v>
+        <v>3.03476</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618597</v>
+        <v>0.61137</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18868</v>
+        <v>1.18311</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6711279999999999</v>
+        <v>0.653312</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27231</v>
+        <v>1.26842</v>
       </c>
       <c r="D79" t="n">
-        <v>2.94618</v>
+        <v>2.98187</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611275</v>
+        <v>0.602887</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17615</v>
+        <v>1.18001</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653607</v>
+        <v>0.651834</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25454</v>
+        <v>1.25076</v>
       </c>
       <c r="D80" t="n">
-        <v>2.90944</v>
+        <v>2.89919</v>
       </c>
       <c r="E80" t="n">
-        <v>0.915427</v>
+        <v>0.903737</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98089</v>
+        <v>2.08505</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.968063</v>
+        <v>0.953978</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14213</v>
+        <v>2.1264</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00928</v>
+        <v>2.92438</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8984839999999999</v>
+        <v>0.884562</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94384</v>
+        <v>1.91238</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943176</v>
+        <v>0.934052</v>
       </c>
       <c r="C82" t="n">
-        <v>2.07147</v>
+        <v>2.09352</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91159</v>
+        <v>2.81438</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.864673</v>
       </c>
       <c r="F82" t="n">
-        <v>1.90613</v>
+        <v>1.87421</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.965661</v>
+        <v>0.9197380000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04059</v>
+        <v>2.00575</v>
       </c>
       <c r="D83" t="n">
-        <v>2.7523</v>
+        <v>2.78319</v>
       </c>
       <c r="E83" t="n">
-        <v>0.852823</v>
+        <v>0.846683</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85847</v>
+        <v>1.8255</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.912673</v>
+        <v>0.904042</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96099</v>
+        <v>1.96289</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75311</v>
+        <v>2.71636</v>
       </c>
       <c r="E84" t="n">
-        <v>0.828427</v>
+        <v>0.825365</v>
       </c>
       <c r="F84" t="n">
-        <v>1.82706</v>
+        <v>1.81308</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914069</v>
+        <v>0.886402</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96364</v>
+        <v>1.96653</v>
       </c>
       <c r="D85" t="n">
-        <v>2.66794</v>
+        <v>2.70216</v>
       </c>
       <c r="E85" t="n">
-        <v>0.812127</v>
+        <v>0.811748</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75396</v>
+        <v>1.80552</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873924</v>
+        <v>0.879239</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89425</v>
+        <v>1.88151</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7381</v>
+        <v>2.67083</v>
       </c>
       <c r="E86" t="n">
-        <v>0.792926</v>
+        <v>0.797133</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73693</v>
+        <v>1.7232</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851912</v>
+        <v>0.848954</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90181</v>
+        <v>1.88217</v>
       </c>
       <c r="D87" t="n">
-        <v>2.60488</v>
+        <v>2.71518</v>
       </c>
       <c r="E87" t="n">
-        <v>0.774383</v>
+        <v>0.794589</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67721</v>
+        <v>1.7322</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.839299</v>
+        <v>0.8443580000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81521</v>
+        <v>1.85654</v>
       </c>
       <c r="D88" t="n">
-        <v>2.5833</v>
+        <v>2.77785</v>
       </c>
       <c r="E88" t="n">
-        <v>0.776703</v>
+        <v>0.799129</v>
       </c>
       <c r="F88" t="n">
-        <v>1.68596</v>
+        <v>1.73926</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833472</v>
+        <v>0.823892</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79135</v>
+        <v>1.815</v>
       </c>
       <c r="D89" t="n">
-        <v>2.61921</v>
+        <v>2.60445</v>
       </c>
       <c r="E89" t="n">
-        <v>0.74326</v>
+        <v>0.743127</v>
       </c>
       <c r="F89" t="n">
-        <v>1.60696</v>
+        <v>1.6652</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813693</v>
+        <v>0.805252</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76818</v>
+        <v>1.75999</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60431</v>
+        <v>2.60977</v>
       </c>
       <c r="E90" t="n">
-        <v>0.73038</v>
+        <v>0.726594</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59092</v>
+        <v>1.60737</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795088</v>
+        <v>0.789944</v>
       </c>
       <c r="C91" t="n">
-        <v>1.72242</v>
+        <v>1.77151</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59823</v>
+        <v>2.60997</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733428</v>
+        <v>0.734924</v>
       </c>
       <c r="F91" t="n">
-        <v>1.57273</v>
+        <v>1.64884</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.768605</v>
+        <v>0.795818</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67462</v>
+        <v>1.69415</v>
       </c>
       <c r="D92" t="n">
-        <v>3.57596</v>
+        <v>3.68664</v>
       </c>
       <c r="E92" t="n">
-        <v>0.71538</v>
+        <v>0.719674</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52747</v>
+        <v>1.55611</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769192</v>
+        <v>0.776481</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65008</v>
+        <v>1.66032</v>
       </c>
       <c r="D93" t="n">
-        <v>3.53769</v>
+        <v>3.6048</v>
       </c>
       <c r="E93" t="n">
-        <v>0.726693</v>
+        <v>0.698541</v>
       </c>
       <c r="F93" t="n">
-        <v>1.54553</v>
+        <v>1.5293</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771715</v>
+        <v>0.78893</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62698</v>
+        <v>1.66213</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5332</v>
+        <v>3.54793</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02169</v>
+        <v>1.00827</v>
       </c>
       <c r="F94" t="n">
-        <v>2.50487</v>
+        <v>2.48746</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08418</v>
+        <v>1.09069</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74023</v>
+        <v>2.71395</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5124</v>
+        <v>3.52219</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00679</v>
+        <v>1.00647</v>
       </c>
       <c r="F95" t="n">
-        <v>2.48916</v>
+        <v>2.45962</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06575</v>
+        <v>1.04288</v>
       </c>
       <c r="C96" t="n">
-        <v>2.74851</v>
+        <v>2.64187</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31612</v>
+        <v>3.40364</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989348</v>
+        <v>0.981917</v>
       </c>
       <c r="F96" t="n">
-        <v>2.35096</v>
+        <v>2.39514</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04285</v>
+        <v>1.04529</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55837</v>
+        <v>2.55924</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32588</v>
+        <v>3.32969</v>
       </c>
       <c r="E97" t="n">
-        <v>0.975986</v>
+        <v>0.936018</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37816</v>
+        <v>2.35113</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00602</v>
+        <v>1.02714</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49865</v>
+        <v>2.53739</v>
       </c>
       <c r="D98" t="n">
-        <v>3.39154</v>
+        <v>3.3578</v>
       </c>
       <c r="E98" t="n">
-        <v>0.931532</v>
+        <v>0.9574009999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30082</v>
+        <v>2.30228</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01178</v>
+        <v>1.04198</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46171</v>
+        <v>2.47627</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28686</v>
+        <v>3.32873</v>
       </c>
       <c r="E99" t="n">
-        <v>0.928202</v>
+        <v>0.941615</v>
       </c>
       <c r="F99" t="n">
-        <v>2.20199</v>
+        <v>2.25564</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00205</v>
+        <v>1.00343</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40753</v>
+        <v>2.44027</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14925</v>
+        <v>3.27537</v>
       </c>
       <c r="E100" t="n">
-        <v>0.896126</v>
+        <v>0.895586</v>
       </c>
       <c r="F100" t="n">
-        <v>2.18158</v>
+        <v>2.19976</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971307</v>
+        <v>0.980673</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33332</v>
+        <v>2.38508</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27451</v>
+        <v>3.23084</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.871393</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11107</v>
+        <v>2.11813</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953824</v>
+        <v>0.952761</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29159</v>
+        <v>2.32901</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1488</v>
+        <v>3.19235</v>
       </c>
       <c r="E102" t="n">
-        <v>0.851868</v>
+        <v>0.848692</v>
       </c>
       <c r="F102" t="n">
-        <v>2.06372</v>
+        <v>2.12051</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932949</v>
+        <v>0.951198</v>
       </c>
       <c r="C103" t="n">
-        <v>2.21041</v>
+        <v>2.26368</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05602</v>
+        <v>3.16505</v>
       </c>
       <c r="E103" t="n">
-        <v>0.867088</v>
+        <v>0.866201</v>
       </c>
       <c r="F103" t="n">
-        <v>2.01796</v>
+        <v>2.04901</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9299809999999999</v>
+        <v>0.9394439999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.161</v>
+        <v>2.23419</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06156</v>
+        <v>3.14215</v>
       </c>
       <c r="E104" t="n">
-        <v>0.843205</v>
+        <v>0.836191</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9756</v>
+        <v>2.05283</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.93072</v>
+        <v>0.9257880000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14861</v>
+        <v>2.20111</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05091</v>
+        <v>3.05125</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841862</v>
+        <v>0.8299029999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>1.95348</v>
+        <v>1.96767</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90806</v>
+        <v>0.915123</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08289</v>
+        <v>2.13231</v>
       </c>
       <c r="D106" t="n">
-        <v>3.06286</v>
+        <v>3.08531</v>
       </c>
       <c r="E106" t="n">
-        <v>0.809347</v>
+        <v>0.815339</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95531</v>
+        <v>1.96105</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923753</v>
+        <v>0.89572</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13231</v>
+        <v>2.11323</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25392</v>
+        <v>4.23157</v>
       </c>
       <c r="E107" t="n">
-        <v>0.823731</v>
+        <v>0.817603</v>
       </c>
       <c r="F107" t="n">
-        <v>1.94767</v>
+        <v>1.90429</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.900423</v>
+        <v>0.874908</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09289</v>
+        <v>2.10529</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10799</v>
+        <v>4.1401</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14817</v>
+        <v>1.1349</v>
       </c>
       <c r="F108" t="n">
-        <v>3.04966</v>
+        <v>2.99497</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872599</v>
+        <v>0.918553</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05056</v>
+        <v>2.10873</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01272</v>
+        <v>4.0516</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12126</v>
+        <v>1.12942</v>
       </c>
       <c r="F109" t="n">
-        <v>2.96604</v>
+        <v>2.92359</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19757</v>
+        <v>1.21731</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17492</v>
+        <v>3.14949</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97299</v>
+        <v>3.96936</v>
       </c>
       <c r="E110" t="n">
-        <v>1.08534</v>
+        <v>1.09743</v>
       </c>
       <c r="F110" t="n">
-        <v>2.869</v>
+        <v>2.82355</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16604</v>
+        <v>1.20306</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13645</v>
+        <v>3.1128</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95988</v>
+        <v>3.95052</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12159</v>
+        <v>1.08769</v>
       </c>
       <c r="F111" t="n">
-        <v>2.83422</v>
+        <v>2.79264</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14753</v>
+        <v>1.17938</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03503</v>
+        <v>3.05676</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93714</v>
+        <v>3.9128</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11134</v>
+        <v>1.063</v>
       </c>
       <c r="F112" t="n">
-        <v>2.82322</v>
+        <v>2.71299</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15598</v>
+        <v>1.18695</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00706</v>
+        <v>3.00383</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81217</v>
+        <v>3.78365</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06255</v>
+        <v>1.06483</v>
       </c>
       <c r="F113" t="n">
-        <v>2.72726</v>
+        <v>2.67405</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14981</v>
+        <v>1.14627</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97442</v>
+        <v>2.97861</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83608</v>
+        <v>3.83534</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07588</v>
+        <v>1.04887</v>
       </c>
       <c r="F114" t="n">
-        <v>2.68609</v>
+        <v>2.63269</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13566</v>
+        <v>1.1536</v>
       </c>
       <c r="C115" t="n">
-        <v>2.91551</v>
+        <v>2.83929</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79197</v>
+        <v>3.76431</v>
       </c>
       <c r="E115" t="n">
-        <v>1.05717</v>
+        <v>1.03746</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60336</v>
+        <v>2.57356</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14858</v>
+        <v>1.14021</v>
       </c>
       <c r="C116" t="n">
-        <v>2.81258</v>
+        <v>2.79825</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70405</v>
+        <v>3.71195</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02575</v>
+        <v>1.03006</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54748</v>
+        <v>2.52497</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1213</v>
+        <v>1.12533</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78248</v>
+        <v>2.74798</v>
       </c>
       <c r="D117" t="n">
-        <v>3.69834</v>
+        <v>3.66158</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00789</v>
+        <v>1.00265</v>
       </c>
       <c r="F117" t="n">
-        <v>2.47251</v>
+        <v>2.46964</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09157</v>
+        <v>1.1035</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76407</v>
+        <v>2.72529</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6886</v>
+        <v>3.71022</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00685</v>
+        <v>0.99176</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43947</v>
+        <v>2.3979</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10224</v>
+        <v>1.10498</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68266</v>
+        <v>2.65198</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64735</v>
+        <v>3.56128</v>
       </c>
       <c r="E119" t="n">
-        <v>1.00353</v>
+        <v>0.96207</v>
       </c>
       <c r="F119" t="n">
-        <v>2.40417</v>
+        <v>2.37213</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08016</v>
+        <v>1.08888</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59859</v>
+        <v>2.60862</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60918</v>
+        <v>3.60773</v>
       </c>
       <c r="E120" t="n">
-        <v>0.984764</v>
+        <v>0.974051</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36724</v>
+        <v>2.35504</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08303</v>
+        <v>1.07445</v>
       </c>
       <c r="C121" t="n">
-        <v>2.55278</v>
+        <v>2.58279</v>
       </c>
       <c r="D121" t="n">
-        <v>4.93811</v>
+        <v>4.83776</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9731919999999999</v>
+        <v>0.959896</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33548</v>
+        <v>2.3293</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07829</v>
+        <v>1.07108</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55719</v>
+        <v>2.54851</v>
       </c>
       <c r="D122" t="n">
-        <v>4.80853</v>
+        <v>4.76527</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958604</v>
+        <v>0.9489919999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>2.33322</v>
+        <v>2.26342</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0742</v>
+        <v>1.05348</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52484</v>
+        <v>2.52051</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7414</v>
+        <v>4.71964</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29905</v>
+        <v>1.28218</v>
       </c>
       <c r="F123" t="n">
-        <v>3.51166</v>
+        <v>3.40743</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37985</v>
+        <v>1.38256</v>
       </c>
       <c r="C124" t="n">
-        <v>3.75171</v>
+        <v>3.71914</v>
       </c>
       <c r="D124" t="n">
-        <v>4.71081</v>
+        <v>4.61669</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3021</v>
+        <v>1.2648</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38121</v>
+        <v>3.34245</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38717</v>
+        <v>1.36623</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63345</v>
+        <v>3.63612</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56309</v>
+        <v>4.52779</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28362</v>
+        <v>1.25187</v>
       </c>
       <c r="F125" t="n">
-        <v>3.29702</v>
+        <v>3.28207</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38422</v>
+        <v>1.36943</v>
       </c>
       <c r="C126" t="n">
-        <v>3.63492</v>
+        <v>3.60642</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55072</v>
+        <v>4.477</v>
       </c>
       <c r="E126" t="n">
-        <v>1.28218</v>
+        <v>1.25614</v>
       </c>
       <c r="F126" t="n">
-        <v>3.26696</v>
+        <v>3.2101</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39177</v>
+        <v>1.38134</v>
       </c>
       <c r="C127" t="n">
-        <v>3.52019</v>
+        <v>3.48335</v>
       </c>
       <c r="D127" t="n">
-        <v>4.47824</v>
+        <v>4.3891</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2695</v>
+        <v>1.24356</v>
       </c>
       <c r="F127" t="n">
-        <v>3.18236</v>
+        <v>3.13473</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34421</v>
+        <v>1.36894</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41867</v>
+        <v>3.40792</v>
       </c>
       <c r="D128" t="n">
-        <v>4.41536</v>
+        <v>4.33035</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27759</v>
+        <v>1.24303</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11321</v>
+        <v>3.10665</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35125</v>
+        <v>1.38166</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38055</v>
+        <v>3.35738</v>
       </c>
       <c r="D129" t="n">
-        <v>4.35577</v>
+        <v>4.30198</v>
       </c>
       <c r="E129" t="n">
-        <v>1.23558</v>
+        <v>1.24033</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04803</v>
+        <v>3.01566</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36445</v>
+        <v>1.35863</v>
       </c>
       <c r="C130" t="n">
-        <v>3.30338</v>
+        <v>3.31518</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2794</v>
+        <v>4.26952</v>
       </c>
       <c r="E130" t="n">
-        <v>1.241</v>
+        <v>1.23802</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00293</v>
+        <v>2.99198</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3557</v>
+        <v>1.35699</v>
       </c>
       <c r="C131" t="n">
-        <v>3.30477</v>
+        <v>3.26348</v>
       </c>
       <c r="D131" t="n">
-        <v>4.25215</v>
+        <v>4.21987</v>
       </c>
       <c r="E131" t="n">
-        <v>1.256</v>
+        <v>1.21421</v>
       </c>
       <c r="F131" t="n">
-        <v>2.98108</v>
+        <v>2.90702</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35459</v>
+        <v>1.33365</v>
       </c>
       <c r="C132" t="n">
-        <v>3.21955</v>
+        <v>3.17021</v>
       </c>
       <c r="D132" t="n">
-        <v>4.22341</v>
+        <v>4.17725</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24739</v>
+        <v>1.21259</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88349</v>
+        <v>2.85082</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32891</v>
+        <v>1.32654</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15426</v>
+        <v>3.16808</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2413</v>
+        <v>4.13927</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23362</v>
+        <v>1.19315</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84003</v>
+        <v>2.78571</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31717</v>
+        <v>1.34086</v>
       </c>
       <c r="C134" t="n">
-        <v>3.13424</v>
+        <v>3.09005</v>
       </c>
       <c r="D134" t="n">
-        <v>4.18816</v>
+        <v>4.12487</v>
       </c>
       <c r="E134" t="n">
-        <v>1.22683</v>
+        <v>1.20492</v>
       </c>
       <c r="F134" t="n">
-        <v>2.81872</v>
+        <v>2.7719</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39006</v>
+        <v>1.33647</v>
       </c>
       <c r="C135" t="n">
-        <v>3.08058</v>
+        <v>3.03646</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67468</v>
+        <v>5.60525</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25035</v>
+        <v>1.20488</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75636</v>
+        <v>2.71121</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32544</v>
+        <v>1.33064</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06988</v>
+        <v>3.05445</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60148</v>
+        <v>5.54768</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21942</v>
+        <v>1.21263</v>
       </c>
       <c r="F136" t="n">
-        <v>2.72918</v>
+        <v>2.69088</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35621</v>
+        <v>1.32978</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00577</v>
+        <v>3.00398</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44151</v>
+        <v>5.38856</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57894</v>
+        <v>1.54432</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00985</v>
+        <v>3.93451</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.67963</v>
+        <v>1.63465</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34988</v>
+        <v>4.34113</v>
       </c>
       <c r="D138" t="n">
-        <v>5.3562</v>
+        <v>5.29169</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57405</v>
+        <v>1.53677</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89679</v>
+        <v>3.8712</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64808</v>
+        <v>1.65788</v>
       </c>
       <c r="C139" t="n">
-        <v>4.25406</v>
+        <v>4.23412</v>
       </c>
       <c r="D139" t="n">
-        <v>5.26764</v>
+        <v>5.20618</v>
       </c>
       <c r="E139" t="n">
-        <v>1.55706</v>
+        <v>1.53679</v>
       </c>
       <c r="F139" t="n">
-        <v>3.83266</v>
+        <v>3.77638</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.67247</v>
+        <v>1.65808</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18962</v>
+        <v>4.11926</v>
       </c>
       <c r="D140" t="n">
-        <v>5.16642</v>
+        <v>5.11861</v>
       </c>
       <c r="E140" t="n">
-        <v>1.53212</v>
+        <v>1.52784</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75824</v>
+        <v>3.6322</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63474</v>
+        <v>1.65061</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09438</v>
+        <v>4.01621</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06514</v>
+        <v>5.08117</v>
       </c>
       <c r="E141" t="n">
-        <v>1.53172</v>
+        <v>1.51101</v>
       </c>
       <c r="F141" t="n">
-        <v>3.63691</v>
+        <v>3.64092</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65906</v>
+        <v>1.66434</v>
       </c>
       <c r="C142" t="n">
-        <v>3.98981</v>
+        <v>3.93192</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0716</v>
+        <v>5.01622</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53279</v>
+        <v>1.50393</v>
       </c>
       <c r="F142" t="n">
-        <v>3.60441</v>
+        <v>3.5155</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64625</v>
+        <v>1.6275</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92156</v>
+        <v>3.86552</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91479</v>
+        <v>4.86137</v>
       </c>
       <c r="E143" t="n">
-        <v>1.52123</v>
+        <v>1.53188</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49577</v>
+        <v>3.45564</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6101490000000001</v>
+        <v>0.593428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793925</v>
+        <v>0.796575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.957657</v>
+        <v>0.951453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.310693</v>
+        <v>0.317551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.780037</v>
+        <v>0.8070929999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.332106</v>
+        <v>0.33947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.778752</v>
+        <v>0.793851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.953863</v>
+        <v>0.961853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30192</v>
+        <v>0.308556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.773134</v>
+        <v>0.80233</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.323</v>
+        <v>0.326403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.774562</v>
+        <v>0.793698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.938848</v>
+        <v>0.9376949999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.295495</v>
+        <v>0.298848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760904</v>
+        <v>0.789813</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316429</v>
+        <v>0.319843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.771803</v>
+        <v>0.77384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.938642</v>
+        <v>0.931747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.291955</v>
+        <v>0.300183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.760961</v>
+        <v>0.78859</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.317765</v>
+        <v>0.315693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7735649999999999</v>
+        <v>0.769405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.931213</v>
+        <v>0.9183519999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.287711</v>
+        <v>0.289734</v>
       </c>
       <c r="F6" t="n">
-        <v>0.755305</v>
+        <v>0.788009</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.309723</v>
+        <v>0.316303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.757142</v>
+        <v>0.7667929999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1.11412</v>
+        <v>1.11394</v>
       </c>
       <c r="E7" t="n">
-        <v>0.281476</v>
+        <v>0.286789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.751506</v>
+        <v>0.776874</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.304196</v>
+        <v>0.309608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.753095</v>
+        <v>0.771246</v>
       </c>
       <c r="D8" t="n">
-        <v>1.10177</v>
+        <v>1.12832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.282241</v>
+        <v>0.293024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749383</v>
+        <v>0.7737039999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.303111</v>
+        <v>0.306214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.749575</v>
+        <v>0.762358</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07352</v>
+        <v>1.08378</v>
       </c>
       <c r="E9" t="n">
-        <v>0.568599</v>
+        <v>0.537538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.904239</v>
+        <v>0.9025260000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.558229</v>
+        <v>0.555302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.874956</v>
+        <v>0.892056</v>
       </c>
       <c r="D10" t="n">
-        <v>1.06647</v>
+        <v>1.06738</v>
       </c>
       <c r="E10" t="n">
-        <v>0.518929</v>
+        <v>0.521546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.862308</v>
+        <v>0.895533</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.538825</v>
+        <v>0.5350240000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.869539</v>
+        <v>0.86817</v>
       </c>
       <c r="D11" t="n">
-        <v>1.05548</v>
+        <v>1.05329</v>
       </c>
       <c r="E11" t="n">
-        <v>0.500699</v>
+        <v>0.504668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.854518</v>
+        <v>0.8804</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.521975</v>
+        <v>0.5201789999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.846879</v>
+        <v>0.8638479999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>1.03989</v>
+        <v>1.03916</v>
       </c>
       <c r="E12" t="n">
-        <v>0.486748</v>
+        <v>0.488581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.842153</v>
+        <v>0.86816</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5078859999999999</v>
+        <v>0.512543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.837463</v>
+        <v>0.871354</v>
       </c>
       <c r="D13" t="n">
-        <v>1.02968</v>
+        <v>1.04284</v>
       </c>
       <c r="E13" t="n">
-        <v>0.472245</v>
+        <v>0.481107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.833448</v>
+        <v>0.866274</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491847</v>
+        <v>0.495367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8292890000000001</v>
+        <v>0.852105</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0186</v>
+        <v>1.01712</v>
       </c>
       <c r="E14" t="n">
-        <v>0.457177</v>
+        <v>0.473111</v>
       </c>
       <c r="F14" t="n">
-        <v>0.826644</v>
+        <v>0.838607</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.481586</v>
+        <v>0.473985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.824098</v>
+        <v>0.825341</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01924</v>
+        <v>1.01082</v>
       </c>
       <c r="E15" t="n">
-        <v>0.446031</v>
+        <v>0.445466</v>
       </c>
       <c r="F15" t="n">
-        <v>0.816619</v>
+        <v>0.838882</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.468188</v>
+        <v>0.464582</v>
       </c>
       <c r="C16" t="n">
-        <v>0.815206</v>
+        <v>0.851716</v>
       </c>
       <c r="D16" t="n">
-        <v>1.00578</v>
+        <v>0.997599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.437526</v>
+        <v>0.433977</v>
       </c>
       <c r="F16" t="n">
-        <v>0.805014</v>
+        <v>0.8285</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.452727</v>
+        <v>0.450601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.798555</v>
+        <v>0.823074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.990052</v>
+        <v>0.994323</v>
       </c>
       <c r="E17" t="n">
-        <v>0.418507</v>
+        <v>0.420733</v>
       </c>
       <c r="F17" t="n">
-        <v>0.79528</v>
+        <v>0.819034</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.439673</v>
+        <v>0.442097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7910970000000001</v>
+        <v>0.818881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9801530000000001</v>
+        <v>0.9989980000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.40518</v>
+        <v>0.414146</v>
       </c>
       <c r="F18" t="n">
-        <v>0.788986</v>
+        <v>0.822549</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.429546</v>
+        <v>0.42964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.78161</v>
+        <v>0.797492</v>
       </c>
       <c r="D19" t="n">
-        <v>0.969888</v>
+        <v>0.972862</v>
       </c>
       <c r="E19" t="n">
-        <v>0.41392</v>
+        <v>0.399055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.784872</v>
+        <v>0.806679</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.426073</v>
+        <v>0.41873</v>
       </c>
       <c r="C20" t="n">
-        <v>0.781373</v>
+        <v>0.802172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.965113</v>
+        <v>0.965525</v>
       </c>
       <c r="E20" t="n">
-        <v>0.393793</v>
+        <v>0.39094</v>
       </c>
       <c r="F20" t="n">
-        <v>0.77436</v>
+        <v>0.795814</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.413866</v>
+        <v>0.414509</v>
       </c>
       <c r="C21" t="n">
-        <v>0.779485</v>
+        <v>0.801517</v>
       </c>
       <c r="D21" t="n">
-        <v>1.16889</v>
+        <v>1.19117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.37877</v>
+        <v>0.390024</v>
       </c>
       <c r="F21" t="n">
-        <v>0.769464</v>
+        <v>0.8014250000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402157</v>
+        <v>0.404558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.771418</v>
+        <v>0.787346</v>
       </c>
       <c r="D22" t="n">
-        <v>1.14979</v>
+        <v>1.1704</v>
       </c>
       <c r="E22" t="n">
-        <v>0.373859</v>
+        <v>0.382983</v>
       </c>
       <c r="F22" t="n">
-        <v>0.767849</v>
+        <v>0.823219</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409458</v>
+        <v>0.406651</v>
       </c>
       <c r="C23" t="n">
-        <v>0.770869</v>
+        <v>0.800007</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13585</v>
+        <v>1.15558</v>
       </c>
       <c r="E23" t="n">
-        <v>0.636028</v>
+        <v>0.63741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.90044</v>
+        <v>0.938679</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.658904</v>
+        <v>0.651831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.912268</v>
+        <v>0.931791</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13979</v>
+        <v>1.10382</v>
       </c>
       <c r="E24" t="n">
-        <v>0.635651</v>
+        <v>0.610584</v>
       </c>
       <c r="F24" t="n">
-        <v>0.905106</v>
+        <v>0.903327</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6482059999999999</v>
+        <v>0.630893</v>
       </c>
       <c r="C25" t="n">
-        <v>0.889506</v>
+        <v>0.894767</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09937</v>
+        <v>1.09247</v>
       </c>
       <c r="E25" t="n">
-        <v>0.602414</v>
+        <v>0.589792</v>
       </c>
       <c r="F25" t="n">
-        <v>0.888211</v>
+        <v>0.899328</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.625116</v>
+        <v>0.606065</v>
       </c>
       <c r="C26" t="n">
-        <v>0.883598</v>
+        <v>0.8807120000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>1.11664</v>
+        <v>1.07831</v>
       </c>
       <c r="E26" t="n">
-        <v>0.583032</v>
+        <v>0.572327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.877578</v>
+        <v>0.8909899999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.618385</v>
+        <v>0.591159</v>
       </c>
       <c r="C27" t="n">
-        <v>0.879558</v>
+        <v>0.885235</v>
       </c>
       <c r="D27" t="n">
-        <v>1.09145</v>
+        <v>1.08395</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5631350000000001</v>
+        <v>0.558683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.86907</v>
+        <v>0.8855499999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.584026</v>
+        <v>0.580388</v>
       </c>
       <c r="C28" t="n">
-        <v>0.865781</v>
+        <v>0.876537</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07869</v>
+        <v>1.07782</v>
       </c>
       <c r="E28" t="n">
-        <v>0.559589</v>
+        <v>0.539683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.860706</v>
+        <v>0.873426</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.581058</v>
+        <v>0.557288</v>
       </c>
       <c r="C29" t="n">
-        <v>0.87531</v>
+        <v>0.857924</v>
       </c>
       <c r="D29" t="n">
-        <v>1.08899</v>
+        <v>1.05199</v>
       </c>
       <c r="E29" t="n">
-        <v>0.544992</v>
+        <v>0.523703</v>
       </c>
       <c r="F29" t="n">
-        <v>0.842398</v>
+        <v>0.861012</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.552069</v>
+        <v>0.545115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.871532</v>
+        <v>0.845222</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06365</v>
+        <v>1.04236</v>
       </c>
       <c r="E30" t="n">
-        <v>0.51296</v>
+        <v>0.505253</v>
       </c>
       <c r="F30" t="n">
-        <v>0.841765</v>
+        <v>0.850389</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5372209999999999</v>
+        <v>0.532844</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8446129999999999</v>
+        <v>0.837855</v>
       </c>
       <c r="D31" t="n">
-        <v>1.04503</v>
+        <v>1.03984</v>
       </c>
       <c r="E31" t="n">
-        <v>0.498254</v>
+        <v>0.493261</v>
       </c>
       <c r="F31" t="n">
-        <v>0.82503</v>
+        <v>0.849359</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.518656</v>
+        <v>0.511171</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8348680000000001</v>
+        <v>0.8707279999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04806</v>
+        <v>1.06735</v>
       </c>
       <c r="E32" t="n">
-        <v>0.490256</v>
+        <v>0.491074</v>
       </c>
       <c r="F32" t="n">
-        <v>0.826842</v>
+        <v>0.854932</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5077700000000001</v>
+        <v>0.512365</v>
       </c>
       <c r="C33" t="n">
-        <v>0.826452</v>
+        <v>0.838346</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02608</v>
+        <v>1.04148</v>
       </c>
       <c r="E33" t="n">
-        <v>0.467594</v>
+        <v>0.466831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.816993</v>
+        <v>0.833663</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.493195</v>
+        <v>0.485685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8193820000000001</v>
+        <v>0.822619</v>
       </c>
       <c r="D34" t="n">
-        <v>1.02864</v>
+        <v>1.03582</v>
       </c>
       <c r="E34" t="n">
-        <v>0.456446</v>
+        <v>0.461696</v>
       </c>
       <c r="F34" t="n">
-        <v>0.808494</v>
+        <v>0.836533</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.483258</v>
+        <v>0.473401</v>
       </c>
       <c r="C35" t="n">
-        <v>0.817592</v>
+        <v>0.811005</v>
       </c>
       <c r="D35" t="n">
-        <v>1.28406</v>
+        <v>1.27013</v>
       </c>
       <c r="E35" t="n">
-        <v>0.45274</v>
+        <v>0.443464</v>
       </c>
       <c r="F35" t="n">
-        <v>0.811263</v>
+        <v>0.822348</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.472986</v>
+        <v>0.463086</v>
       </c>
       <c r="C36" t="n">
-        <v>0.810246</v>
+        <v>0.818858</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2545</v>
+        <v>1.2698</v>
       </c>
       <c r="E36" t="n">
-        <v>0.436024</v>
+        <v>0.438075</v>
       </c>
       <c r="F36" t="n">
-        <v>0.79819</v>
+        <v>0.83078</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.460329</v>
+        <v>0.470644</v>
       </c>
       <c r="C37" t="n">
-        <v>0.806937</v>
+        <v>0.8326480000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23474</v>
+        <v>1.31309</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6962159999999999</v>
+        <v>0.696426</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0063</v>
+        <v>1.0237</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.723614</v>
+        <v>0.711776</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00489</v>
+        <v>1.00738</v>
       </c>
       <c r="D38" t="n">
-        <v>1.2159</v>
+        <v>1.249</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6964590000000001</v>
+        <v>0.672565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.988741</v>
+        <v>1.01026</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.705125</v>
+        <v>0.693582</v>
       </c>
       <c r="C39" t="n">
-        <v>1.00228</v>
+        <v>0.999193</v>
       </c>
       <c r="D39" t="n">
-        <v>1.21838</v>
+        <v>1.26203</v>
       </c>
       <c r="E39" t="n">
-        <v>0.658456</v>
+        <v>0.678493</v>
       </c>
       <c r="F39" t="n">
-        <v>0.987055</v>
+        <v>0.997514</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.680966</v>
+        <v>0.679245</v>
       </c>
       <c r="C40" t="n">
-        <v>0.994548</v>
+        <v>0.989221</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19792</v>
+        <v>1.20522</v>
       </c>
       <c r="E40" t="n">
-        <v>0.633134</v>
+        <v>0.637709</v>
       </c>
       <c r="F40" t="n">
-        <v>0.965946</v>
+        <v>0.979351</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.658656</v>
+        <v>0.672311</v>
       </c>
       <c r="C41" t="n">
-        <v>0.966971</v>
+        <v>0.959253</v>
       </c>
       <c r="D41" t="n">
-        <v>1.18111</v>
+        <v>1.17229</v>
       </c>
       <c r="E41" t="n">
-        <v>0.61346</v>
+        <v>0.610727</v>
       </c>
       <c r="F41" t="n">
-        <v>0.957039</v>
+        <v>0.980046</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.637987</v>
+        <v>0.642899</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9522659999999999</v>
+        <v>1.00139</v>
       </c>
       <c r="D42" t="n">
-        <v>1.18878</v>
+        <v>1.18013</v>
       </c>
       <c r="E42" t="n">
-        <v>0.59275</v>
+        <v>0.591706</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9321430000000001</v>
+        <v>0.9631</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.623739</v>
+        <v>0.616367</v>
       </c>
       <c r="C43" t="n">
-        <v>0.961556</v>
+        <v>0.95722</v>
       </c>
       <c r="D43" t="n">
-        <v>1.16057</v>
+        <v>1.16825</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5715980000000001</v>
+        <v>0.571863</v>
       </c>
       <c r="F43" t="n">
-        <v>0.92654</v>
+        <v>0.956196</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.642517</v>
+        <v>0.6028</v>
       </c>
       <c r="C44" t="n">
-        <v>0.932122</v>
+        <v>0.948951</v>
       </c>
       <c r="D44" t="n">
-        <v>1.16546</v>
+        <v>1.15222</v>
       </c>
       <c r="E44" t="n">
-        <v>0.603656</v>
+        <v>0.5552049999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.941781</v>
+        <v>0.944006</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.582882</v>
+        <v>0.580955</v>
       </c>
       <c r="C45" t="n">
-        <v>0.924053</v>
+        <v>0.929659</v>
       </c>
       <c r="D45" t="n">
-        <v>1.12589</v>
+        <v>1.12497</v>
       </c>
       <c r="E45" t="n">
-        <v>0.532228</v>
+        <v>0.534007</v>
       </c>
       <c r="F45" t="n">
-        <v>0.88872</v>
+        <v>0.919907</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.60181</v>
+        <v>0.5613359999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.896031</v>
+        <v>0.9084100000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12089</v>
+        <v>1.13079</v>
       </c>
       <c r="E46" t="n">
-        <v>0.519042</v>
+        <v>0.533072</v>
       </c>
       <c r="F46" t="n">
-        <v>0.891207</v>
+        <v>0.91737</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.548471</v>
+        <v>0.545928</v>
       </c>
       <c r="C47" t="n">
-        <v>0.901936</v>
+        <v>0.902587</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1188</v>
+        <v>1.10615</v>
       </c>
       <c r="E47" t="n">
-        <v>0.505103</v>
+        <v>0.503806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.883736</v>
+        <v>0.902865</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.540807</v>
+        <v>0.550689</v>
       </c>
       <c r="C48" t="n">
-        <v>0.891895</v>
+        <v>0.886965</v>
       </c>
       <c r="D48" t="n">
-        <v>1.11515</v>
+        <v>1.10502</v>
       </c>
       <c r="E48" t="n">
-        <v>0.490001</v>
+        <v>0.5006969999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.870969</v>
+        <v>0.902345</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.522499</v>
+        <v>0.516224</v>
       </c>
       <c r="C49" t="n">
-        <v>0.878008</v>
+        <v>0.882671</v>
       </c>
       <c r="D49" t="n">
-        <v>1.12348</v>
+        <v>1.09589</v>
       </c>
       <c r="E49" t="n">
-        <v>0.488554</v>
+        <v>0.478111</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8612069999999999</v>
+        <v>0.892663</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510606</v>
+        <v>0.501645</v>
       </c>
       <c r="C50" t="n">
-        <v>0.876946</v>
+        <v>0.869731</v>
       </c>
       <c r="D50" t="n">
-        <v>1.5638</v>
+        <v>1.55156</v>
       </c>
       <c r="E50" t="n">
-        <v>0.484536</v>
+        <v>0.469136</v>
       </c>
       <c r="F50" t="n">
-        <v>0.860124</v>
+        <v>0.89168</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.518885</v>
+        <v>0.495601</v>
       </c>
       <c r="C51" t="n">
-        <v>0.869539</v>
+        <v>0.876258</v>
       </c>
       <c r="D51" t="n">
-        <v>1.58794</v>
+        <v>1.53386</v>
       </c>
       <c r="E51" t="n">
-        <v>0.757984</v>
+        <v>0.733061</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12878</v>
+        <v>1.18123</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.490304</v>
+        <v>0.49123</v>
       </c>
       <c r="C52" t="n">
-        <v>0.870931</v>
+        <v>0.879487</v>
       </c>
       <c r="D52" t="n">
-        <v>1.51739</v>
+        <v>1.50289</v>
       </c>
       <c r="E52" t="n">
-        <v>0.720547</v>
+        <v>0.719897</v>
       </c>
       <c r="F52" t="n">
-        <v>1.12533</v>
+        <v>1.17035</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.765438</v>
+        <v>0.7449</v>
       </c>
       <c r="C53" t="n">
-        <v>1.15917</v>
+        <v>1.17417</v>
       </c>
       <c r="D53" t="n">
-        <v>1.47569</v>
+        <v>1.49471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7034049999999999</v>
+        <v>0.730927</v>
       </c>
       <c r="F53" t="n">
-        <v>1.10091</v>
+        <v>1.18623</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.732483</v>
+        <v>0.728312</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12938</v>
+        <v>1.14663</v>
       </c>
       <c r="D54" t="n">
-        <v>1.46262</v>
+        <v>1.47637</v>
       </c>
       <c r="E54" t="n">
-        <v>0.677036</v>
+        <v>0.680103</v>
       </c>
       <c r="F54" t="n">
-        <v>1.08735</v>
+        <v>1.13997</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.707973</v>
+        <v>0.708793</v>
       </c>
       <c r="C55" t="n">
-        <v>1.11926</v>
+        <v>1.10715</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43883</v>
+        <v>1.4345</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6651589999999999</v>
+        <v>0.657771</v>
       </c>
       <c r="F55" t="n">
-        <v>1.07571</v>
+        <v>1.11113</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.71263</v>
+        <v>0.698263</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09503</v>
+        <v>1.10923</v>
       </c>
       <c r="D56" t="n">
-        <v>1.42174</v>
+        <v>1.43304</v>
       </c>
       <c r="E56" t="n">
-        <v>0.654146</v>
+        <v>0.6451789999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1.08864</v>
+        <v>1.1041</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.698864</v>
+        <v>0.674874</v>
       </c>
       <c r="C57" t="n">
-        <v>1.10146</v>
+        <v>1.0904</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41716</v>
+        <v>1.39249</v>
       </c>
       <c r="E57" t="n">
-        <v>0.635198</v>
+        <v>0.622865</v>
       </c>
       <c r="F57" t="n">
-        <v>1.05022</v>
+        <v>1.08788</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6737300000000001</v>
+        <v>0.657758</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0821</v>
+        <v>1.0811</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41332</v>
+        <v>1.41974</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6164809999999999</v>
+        <v>0.618161</v>
       </c>
       <c r="F58" t="n">
-        <v>1.02606</v>
+        <v>1.0952</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.649766</v>
+        <v>0.639416</v>
       </c>
       <c r="C59" t="n">
-        <v>1.08197</v>
+        <v>1.09434</v>
       </c>
       <c r="D59" t="n">
-        <v>1.38381</v>
+        <v>1.38598</v>
       </c>
       <c r="E59" t="n">
-        <v>0.600746</v>
+        <v>0.602033</v>
       </c>
       <c r="F59" t="n">
-        <v>1.01444</v>
+        <v>1.07654</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63497</v>
+        <v>0.628117</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04355</v>
+        <v>1.05051</v>
       </c>
       <c r="D60" t="n">
-        <v>1.35729</v>
+        <v>1.38531</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582925</v>
+        <v>0.6002110000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>1.00683</v>
+        <v>1.08481</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.650315</v>
+        <v>0.615713</v>
       </c>
       <c r="C61" t="n">
-        <v>1.07847</v>
+        <v>1.04954</v>
       </c>
       <c r="D61" t="n">
-        <v>1.41935</v>
+        <v>1.35272</v>
       </c>
       <c r="E61" t="n">
-        <v>0.606444</v>
+        <v>0.568465</v>
       </c>
       <c r="F61" t="n">
-        <v>1.01775</v>
+        <v>1.04999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.604978</v>
+        <v>0.599811</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01786</v>
+        <v>1.03054</v>
       </c>
       <c r="D62" t="n">
-        <v>1.35374</v>
+        <v>1.34774</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5594980000000001</v>
+        <v>0.555619</v>
       </c>
       <c r="F62" t="n">
-        <v>0.982134</v>
+        <v>1.05047</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.594051</v>
+        <v>0.58767</v>
       </c>
       <c r="C63" t="n">
-        <v>1.08361</v>
+        <v>1.01753</v>
       </c>
       <c r="D63" t="n">
-        <v>1.36073</v>
+        <v>1.35718</v>
       </c>
       <c r="E63" t="n">
-        <v>0.559682</v>
+        <v>0.547138</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9783849999999999</v>
+        <v>1.04702</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.598747</v>
+        <v>0.576816</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00942</v>
+        <v>1.02019</v>
       </c>
       <c r="D64" t="n">
-        <v>2.17137</v>
+        <v>2.17591</v>
       </c>
       <c r="E64" t="n">
-        <v>0.542496</v>
+        <v>0.54096</v>
       </c>
       <c r="F64" t="n">
-        <v>0.956171</v>
+        <v>1.04032</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.572103</v>
+        <v>0.572715</v>
       </c>
       <c r="C65" t="n">
-        <v>1.0242</v>
+        <v>1.00958</v>
       </c>
       <c r="D65" t="n">
-        <v>2.15563</v>
+        <v>2.16277</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5361669999999999</v>
+        <v>0.536006</v>
       </c>
       <c r="F65" t="n">
-        <v>0.956999</v>
+        <v>1.03954</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5716599999999999</v>
+        <v>0.559171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985478</v>
+        <v>0.992227</v>
       </c>
       <c r="D66" t="n">
-        <v>2.07548</v>
+        <v>2.07975</v>
       </c>
       <c r="E66" t="n">
-        <v>0.796964</v>
+        <v>0.799208</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4436</v>
+        <v>1.53816</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.871164</v>
+        <v>0.839985</v>
       </c>
       <c r="C67" t="n">
-        <v>1.55903</v>
+        <v>1.58282</v>
       </c>
       <c r="D67" t="n">
-        <v>2.04256</v>
+        <v>2.06623</v>
       </c>
       <c r="E67" t="n">
-        <v>0.80825</v>
+        <v>0.784886</v>
       </c>
       <c r="F67" t="n">
-        <v>1.43643</v>
+        <v>1.56528</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.822179</v>
+        <v>0.820877</v>
       </c>
       <c r="C68" t="n">
-        <v>1.5177</v>
+        <v>1.52991</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04358</v>
+        <v>2.05179</v>
       </c>
       <c r="E68" t="n">
-        <v>0.758131</v>
+        <v>0.799434</v>
       </c>
       <c r="F68" t="n">
-        <v>1.40654</v>
+        <v>1.51831</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.803276</v>
+        <v>0.81051</v>
       </c>
       <c r="C69" t="n">
-        <v>1.52046</v>
+        <v>1.53397</v>
       </c>
       <c r="D69" t="n">
-        <v>2.00715</v>
+        <v>2.00811</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7644300000000001</v>
+        <v>0.7777849999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1.42054</v>
+        <v>1.48359</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.814545</v>
+        <v>0.801916</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47153</v>
+        <v>1.46275</v>
       </c>
       <c r="D70" t="n">
-        <v>1.96742</v>
+        <v>1.92348</v>
       </c>
       <c r="E70" t="n">
-        <v>0.729086</v>
+        <v>0.717602</v>
       </c>
       <c r="F70" t="n">
-        <v>1.34853</v>
+        <v>1.41252</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.765642</v>
+        <v>0.759747</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44039</v>
+        <v>1.45972</v>
       </c>
       <c r="D71" t="n">
-        <v>1.98676</v>
+        <v>1.9588</v>
       </c>
       <c r="E71" t="n">
-        <v>0.71165</v>
+        <v>0.704871</v>
       </c>
       <c r="F71" t="n">
-        <v>1.34098</v>
+        <v>1.39295</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.792414</v>
+        <v>0.744188</v>
       </c>
       <c r="C72" t="n">
-        <v>1.41354</v>
+        <v>1.40974</v>
       </c>
       <c r="D72" t="n">
-        <v>1.95189</v>
+        <v>1.93114</v>
       </c>
       <c r="E72" t="n">
-        <v>0.691351</v>
+        <v>0.692435</v>
       </c>
       <c r="F72" t="n">
-        <v>1.30181</v>
+        <v>1.38927</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.732222</v>
+        <v>0.732954</v>
       </c>
       <c r="C73" t="n">
-        <v>1.39309</v>
+        <v>1.41008</v>
       </c>
       <c r="D73" t="n">
-        <v>1.8918</v>
+        <v>1.89067</v>
       </c>
       <c r="E73" t="n">
-        <v>0.675593</v>
+        <v>0.672358</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28588</v>
+        <v>1.36108</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.726415</v>
+        <v>0.71163</v>
       </c>
       <c r="C74" t="n">
-        <v>1.3768</v>
+        <v>1.36905</v>
       </c>
       <c r="D74" t="n">
-        <v>1.86265</v>
+        <v>1.86558</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6559120000000001</v>
+        <v>0.65542</v>
       </c>
       <c r="F74" t="n">
-        <v>1.26264</v>
+        <v>1.3333</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.70187</v>
+        <v>0.708857</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3446</v>
+        <v>1.34694</v>
       </c>
       <c r="D75" t="n">
-        <v>1.84923</v>
+        <v>1.88416</v>
       </c>
       <c r="E75" t="n">
-        <v>0.648174</v>
+        <v>0.655285</v>
       </c>
       <c r="F75" t="n">
-        <v>1.24398</v>
+        <v>1.32858</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.696066</v>
+        <v>0.705043</v>
       </c>
       <c r="C76" t="n">
-        <v>1.30558</v>
+        <v>1.32378</v>
       </c>
       <c r="D76" t="n">
-        <v>1.84012</v>
+        <v>1.8661</v>
       </c>
       <c r="E76" t="n">
-        <v>0.627525</v>
+        <v>0.63379</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21121</v>
+        <v>1.30446</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.671413</v>
+        <v>0.677603</v>
       </c>
       <c r="C77" t="n">
-        <v>1.30332</v>
+        <v>1.31469</v>
       </c>
       <c r="D77" t="n">
-        <v>1.85614</v>
+        <v>1.86569</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625295</v>
+        <v>0.623186</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20764</v>
+        <v>1.29379</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.666647</v>
+        <v>0.664115</v>
       </c>
       <c r="C78" t="n">
-        <v>1.2805</v>
+        <v>1.2952</v>
       </c>
       <c r="D78" t="n">
-        <v>3.03476</v>
+        <v>3.09631</v>
       </c>
       <c r="E78" t="n">
-        <v>0.61137</v>
+        <v>0.623831</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18311</v>
+        <v>1.27659</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.653312</v>
+        <v>0.658693</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26842</v>
+        <v>1.27121</v>
       </c>
       <c r="D79" t="n">
-        <v>2.98187</v>
+        <v>3.1102</v>
       </c>
       <c r="E79" t="n">
-        <v>0.602887</v>
+        <v>0.607695</v>
       </c>
       <c r="F79" t="n">
-        <v>1.18001</v>
+        <v>1.26202</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651834</v>
+        <v>0.643081</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25076</v>
+        <v>1.26554</v>
       </c>
       <c r="D80" t="n">
-        <v>2.89919</v>
+        <v>3.03104</v>
       </c>
       <c r="E80" t="n">
-        <v>0.903737</v>
+        <v>0.926448</v>
       </c>
       <c r="F80" t="n">
-        <v>2.08505</v>
+        <v>2.07375</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.953978</v>
+        <v>0.949976</v>
       </c>
       <c r="C81" t="n">
-        <v>2.1264</v>
+        <v>2.15464</v>
       </c>
       <c r="D81" t="n">
-        <v>2.92438</v>
+        <v>2.98552</v>
       </c>
       <c r="E81" t="n">
-        <v>0.884562</v>
+        <v>0.880045</v>
       </c>
       <c r="F81" t="n">
-        <v>1.91238</v>
+        <v>2.02604</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.934052</v>
+        <v>0.949866</v>
       </c>
       <c r="C82" t="n">
-        <v>2.09352</v>
+        <v>2.15122</v>
       </c>
       <c r="D82" t="n">
-        <v>2.81438</v>
+        <v>2.94771</v>
       </c>
       <c r="E82" t="n">
-        <v>0.864673</v>
+        <v>0.897763</v>
       </c>
       <c r="F82" t="n">
-        <v>1.87421</v>
+        <v>2.0269</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9197380000000001</v>
+        <v>0.945001</v>
       </c>
       <c r="C83" t="n">
-        <v>2.00575</v>
+        <v>2.09044</v>
       </c>
       <c r="D83" t="n">
-        <v>2.78319</v>
+        <v>2.86089</v>
       </c>
       <c r="E83" t="n">
-        <v>0.846683</v>
+        <v>0.844746</v>
       </c>
       <c r="F83" t="n">
-        <v>1.8255</v>
+        <v>1.99427</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.904042</v>
+        <v>0.901206</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96289</v>
+        <v>2.03419</v>
       </c>
       <c r="D84" t="n">
-        <v>2.71636</v>
+        <v>2.77161</v>
       </c>
       <c r="E84" t="n">
-        <v>0.825365</v>
+        <v>0.82973</v>
       </c>
       <c r="F84" t="n">
-        <v>1.81308</v>
+        <v>1.93531</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.886402</v>
+        <v>0.892975</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96653</v>
+        <v>1.98808</v>
       </c>
       <c r="D85" t="n">
-        <v>2.70216</v>
+        <v>2.72233</v>
       </c>
       <c r="E85" t="n">
-        <v>0.811748</v>
+        <v>0.832357</v>
       </c>
       <c r="F85" t="n">
-        <v>1.80552</v>
+        <v>1.87883</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.879239</v>
+        <v>0.853722</v>
       </c>
       <c r="C86" t="n">
-        <v>1.88151</v>
+        <v>1.94086</v>
       </c>
       <c r="D86" t="n">
-        <v>2.67083</v>
+        <v>2.7097</v>
       </c>
       <c r="E86" t="n">
-        <v>0.797133</v>
+        <v>0.796077</v>
       </c>
       <c r="F86" t="n">
-        <v>1.7232</v>
+        <v>1.8626</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.848954</v>
+        <v>0.84683</v>
       </c>
       <c r="C87" t="n">
-        <v>1.88217</v>
+        <v>1.92333</v>
       </c>
       <c r="D87" t="n">
-        <v>2.71518</v>
+        <v>2.69087</v>
       </c>
       <c r="E87" t="n">
-        <v>0.794589</v>
+        <v>0.772559</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7322</v>
+        <v>1.81298</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8443580000000001</v>
+        <v>0.826585</v>
       </c>
       <c r="C88" t="n">
-        <v>1.85654</v>
+        <v>1.87296</v>
       </c>
       <c r="D88" t="n">
-        <v>2.77785</v>
+        <v>2.67879</v>
       </c>
       <c r="E88" t="n">
-        <v>0.799129</v>
+        <v>0.757857</v>
       </c>
       <c r="F88" t="n">
-        <v>1.73926</v>
+        <v>1.77711</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.823892</v>
+        <v>0.806583</v>
       </c>
       <c r="C89" t="n">
-        <v>1.815</v>
+        <v>1.83479</v>
       </c>
       <c r="D89" t="n">
-        <v>2.60445</v>
+        <v>2.67214</v>
       </c>
       <c r="E89" t="n">
-        <v>0.743127</v>
+        <v>0.743569</v>
       </c>
       <c r="F89" t="n">
-        <v>1.6652</v>
+        <v>1.76718</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.805252</v>
+        <v>0.795886</v>
       </c>
       <c r="C90" t="n">
-        <v>1.75999</v>
+        <v>1.78567</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60977</v>
+        <v>2.61365</v>
       </c>
       <c r="E90" t="n">
-        <v>0.726594</v>
+        <v>0.723495</v>
       </c>
       <c r="F90" t="n">
-        <v>1.60737</v>
+        <v>1.72119</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.789944</v>
+        <v>0.777732</v>
       </c>
       <c r="C91" t="n">
-        <v>1.77151</v>
+        <v>1.74374</v>
       </c>
       <c r="D91" t="n">
-        <v>2.60997</v>
+        <v>2.56125</v>
       </c>
       <c r="E91" t="n">
-        <v>0.734924</v>
+        <v>0.71693</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64884</v>
+        <v>1.69288</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.795818</v>
+        <v>0.776535</v>
       </c>
       <c r="C92" t="n">
-        <v>1.69415</v>
+        <v>1.72249</v>
       </c>
       <c r="D92" t="n">
-        <v>3.68664</v>
+        <v>3.64343</v>
       </c>
       <c r="E92" t="n">
-        <v>0.719674</v>
+        <v>0.705016</v>
       </c>
       <c r="F92" t="n">
-        <v>1.55611</v>
+        <v>1.65472</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776481</v>
+        <v>0.761218</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66032</v>
+        <v>1.70156</v>
       </c>
       <c r="D93" t="n">
-        <v>3.6048</v>
+        <v>3.57396</v>
       </c>
       <c r="E93" t="n">
-        <v>0.698541</v>
+        <v>0.688465</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5293</v>
+        <v>1.66861</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.78893</v>
+        <v>0.745754</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66213</v>
+        <v>1.67317</v>
       </c>
       <c r="D94" t="n">
-        <v>3.54793</v>
+        <v>3.48226</v>
       </c>
       <c r="E94" t="n">
-        <v>1.00827</v>
+        <v>1.02484</v>
       </c>
       <c r="F94" t="n">
-        <v>2.48746</v>
+        <v>2.59673</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09069</v>
+        <v>1.07545</v>
       </c>
       <c r="C95" t="n">
-        <v>2.71395</v>
+        <v>2.75024</v>
       </c>
       <c r="D95" t="n">
-        <v>3.52219</v>
+        <v>3.46843</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00647</v>
+        <v>1.00942</v>
       </c>
       <c r="F95" t="n">
-        <v>2.45962</v>
+        <v>2.55552</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04288</v>
+        <v>1.06344</v>
       </c>
       <c r="C96" t="n">
-        <v>2.64187</v>
+        <v>2.62006</v>
       </c>
       <c r="D96" t="n">
-        <v>3.40364</v>
+        <v>3.36249</v>
       </c>
       <c r="E96" t="n">
-        <v>0.981917</v>
+        <v>0.954098</v>
       </c>
       <c r="F96" t="n">
-        <v>2.39514</v>
+        <v>2.47168</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04529</v>
+        <v>1.0168</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55924</v>
+        <v>2.59685</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32969</v>
+        <v>3.44581</v>
       </c>
       <c r="E97" t="n">
-        <v>0.936018</v>
+        <v>0.943491</v>
       </c>
       <c r="F97" t="n">
-        <v>2.35113</v>
+        <v>2.43546</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02714</v>
+        <v>1.03156</v>
       </c>
       <c r="C98" t="n">
-        <v>2.53739</v>
+        <v>2.51682</v>
       </c>
       <c r="D98" t="n">
-        <v>3.3578</v>
+        <v>3.27566</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9574009999999999</v>
+        <v>0.93755</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30228</v>
+        <v>2.38168</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04198</v>
+        <v>0.993386</v>
       </c>
       <c r="C99" t="n">
-        <v>2.47627</v>
+        <v>2.46918</v>
       </c>
       <c r="D99" t="n">
-        <v>3.32873</v>
+        <v>3.2482</v>
       </c>
       <c r="E99" t="n">
-        <v>0.941615</v>
+        <v>0.926162</v>
       </c>
       <c r="F99" t="n">
-        <v>2.25564</v>
+        <v>2.31746</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00343</v>
+        <v>0.967504</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44027</v>
+        <v>2.43268</v>
       </c>
       <c r="D100" t="n">
-        <v>3.27537</v>
+        <v>3.32915</v>
       </c>
       <c r="E100" t="n">
-        <v>0.895586</v>
+        <v>0.946808</v>
       </c>
       <c r="F100" t="n">
-        <v>2.19976</v>
+        <v>2.31845</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.980673</v>
+        <v>0.964179</v>
       </c>
       <c r="C101" t="n">
-        <v>2.38508</v>
+        <v>2.38993</v>
       </c>
       <c r="D101" t="n">
-        <v>3.23084</v>
+        <v>3.22285</v>
       </c>
       <c r="E101" t="n">
-        <v>0.871393</v>
+        <v>0.904854</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11813</v>
+        <v>2.25454</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.952761</v>
+        <v>0.964205</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32901</v>
+        <v>2.30384</v>
       </c>
       <c r="D102" t="n">
-        <v>3.19235</v>
+        <v>3.12035</v>
       </c>
       <c r="E102" t="n">
-        <v>0.848692</v>
+        <v>0.848333</v>
       </c>
       <c r="F102" t="n">
-        <v>2.12051</v>
+        <v>2.14859</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.951198</v>
+        <v>0.931616</v>
       </c>
       <c r="C103" t="n">
-        <v>2.26368</v>
+        <v>2.27567</v>
       </c>
       <c r="D103" t="n">
-        <v>3.16505</v>
+        <v>3.05769</v>
       </c>
       <c r="E103" t="n">
-        <v>0.866201</v>
+        <v>0.84336</v>
       </c>
       <c r="F103" t="n">
-        <v>2.04901</v>
+        <v>2.11982</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9394439999999999</v>
+        <v>0.94897</v>
       </c>
       <c r="C104" t="n">
-        <v>2.23419</v>
+        <v>2.24514</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14215</v>
+        <v>3.09271</v>
       </c>
       <c r="E104" t="n">
-        <v>0.836191</v>
+        <v>0.8261500000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>2.05283</v>
+        <v>2.13231</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9257880000000001</v>
+        <v>0.9155720000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>2.20111</v>
+        <v>2.18494</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05125</v>
+        <v>3.04372</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8299029999999999</v>
+        <v>0.835062</v>
       </c>
       <c r="F105" t="n">
-        <v>1.96767</v>
+        <v>2.0505</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.915123</v>
+        <v>0.90202</v>
       </c>
       <c r="C106" t="n">
-        <v>2.13231</v>
+        <v>2.17334</v>
       </c>
       <c r="D106" t="n">
-        <v>3.08531</v>
+        <v>3.0638</v>
       </c>
       <c r="E106" t="n">
-        <v>0.815339</v>
+        <v>0.812661</v>
       </c>
       <c r="F106" t="n">
-        <v>1.96105</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.89572</v>
+        <v>0.9041090000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>2.11323</v>
+        <v>2.12828</v>
       </c>
       <c r="D107" t="n">
-        <v>4.23157</v>
+        <v>4.17107</v>
       </c>
       <c r="E107" t="n">
-        <v>0.817603</v>
+        <v>0.825313</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90429</v>
+        <v>2.00642</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.874908</v>
+        <v>0.894665</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10529</v>
+        <v>2.10948</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1401</v>
+        <v>4.2048</v>
       </c>
       <c r="E108" t="n">
-        <v>1.1349</v>
+        <v>1.10757</v>
       </c>
       <c r="F108" t="n">
-        <v>2.99497</v>
+        <v>3.11272</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.918553</v>
+        <v>0.896741</v>
       </c>
       <c r="C109" t="n">
-        <v>2.10873</v>
+        <v>2.09066</v>
       </c>
       <c r="D109" t="n">
-        <v>4.0516</v>
+        <v>4.10071</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12942</v>
+        <v>1.11041</v>
       </c>
       <c r="F109" t="n">
-        <v>2.92359</v>
+        <v>3.02352</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21731</v>
+        <v>1.19891</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14949</v>
+        <v>3.16637</v>
       </c>
       <c r="D110" t="n">
-        <v>3.96936</v>
+        <v>4.03394</v>
       </c>
       <c r="E110" t="n">
-        <v>1.09743</v>
+        <v>1.07671</v>
       </c>
       <c r="F110" t="n">
-        <v>2.82355</v>
+        <v>2.95671</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20306</v>
+        <v>1.15885</v>
       </c>
       <c r="C111" t="n">
-        <v>3.1128</v>
+        <v>3.12119</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95052</v>
+        <v>3.97346</v>
       </c>
       <c r="E111" t="n">
-        <v>1.08769</v>
+        <v>1.07828</v>
       </c>
       <c r="F111" t="n">
-        <v>2.79264</v>
+        <v>2.88383</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17938</v>
+        <v>1.21287</v>
       </c>
       <c r="C112" t="n">
-        <v>3.05676</v>
+        <v>3.03577</v>
       </c>
       <c r="D112" t="n">
-        <v>3.9128</v>
+        <v>3.81776</v>
       </c>
       <c r="E112" t="n">
-        <v>1.063</v>
+        <v>1.03821</v>
       </c>
       <c r="F112" t="n">
-        <v>2.71299</v>
+        <v>2.80237</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18695</v>
+        <v>1.15452</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00383</v>
+        <v>2.92887</v>
       </c>
       <c r="D113" t="n">
-        <v>3.78365</v>
+        <v>3.82217</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06483</v>
+        <v>1.06014</v>
       </c>
       <c r="F113" t="n">
-        <v>2.67405</v>
+        <v>2.77718</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14627</v>
+        <v>1.13338</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97861</v>
+        <v>2.89287</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83534</v>
+        <v>3.75241</v>
       </c>
       <c r="E114" t="n">
-        <v>1.04887</v>
+        <v>1.03657</v>
       </c>
       <c r="F114" t="n">
-        <v>2.63269</v>
+        <v>2.70805</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1536</v>
+        <v>1.13146</v>
       </c>
       <c r="C115" t="n">
-        <v>2.83929</v>
+        <v>2.84718</v>
       </c>
       <c r="D115" t="n">
-        <v>3.76431</v>
+        <v>3.79704</v>
       </c>
       <c r="E115" t="n">
-        <v>1.03746</v>
+        <v>1.02092</v>
       </c>
       <c r="F115" t="n">
-        <v>2.57356</v>
+        <v>2.6271</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14021</v>
+        <v>1.12971</v>
       </c>
       <c r="C116" t="n">
-        <v>2.79825</v>
+        <v>2.77786</v>
       </c>
       <c r="D116" t="n">
-        <v>3.71195</v>
+        <v>3.69168</v>
       </c>
       <c r="E116" t="n">
-        <v>1.03006</v>
+        <v>1.03554</v>
       </c>
       <c r="F116" t="n">
-        <v>2.52497</v>
+        <v>2.6361</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12533</v>
+        <v>1.12339</v>
       </c>
       <c r="C117" t="n">
-        <v>2.74798</v>
+        <v>2.79024</v>
       </c>
       <c r="D117" t="n">
-        <v>3.66158</v>
+        <v>3.71367</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00265</v>
+        <v>0.9954809999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>2.46964</v>
+        <v>2.58099</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1035</v>
+        <v>1.11776</v>
       </c>
       <c r="C118" t="n">
-        <v>2.72529</v>
+        <v>2.71686</v>
       </c>
       <c r="D118" t="n">
-        <v>3.71022</v>
+        <v>3.69283</v>
       </c>
       <c r="E118" t="n">
-        <v>0.99176</v>
+        <v>0.992196</v>
       </c>
       <c r="F118" t="n">
-        <v>2.3979</v>
+        <v>2.54711</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10498</v>
+        <v>1.09338</v>
       </c>
       <c r="C119" t="n">
-        <v>2.65198</v>
+        <v>2.68757</v>
       </c>
       <c r="D119" t="n">
-        <v>3.56128</v>
+        <v>3.6269</v>
       </c>
       <c r="E119" t="n">
-        <v>0.96207</v>
+        <v>0.972967</v>
       </c>
       <c r="F119" t="n">
-        <v>2.37213</v>
+        <v>2.49096</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08888</v>
+        <v>1.09256</v>
       </c>
       <c r="C120" t="n">
-        <v>2.60862</v>
+        <v>2.68033</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60773</v>
+        <v>3.66707</v>
       </c>
       <c r="E120" t="n">
-        <v>0.974051</v>
+        <v>0.955819</v>
       </c>
       <c r="F120" t="n">
-        <v>2.35504</v>
+        <v>2.43905</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.07445</v>
+        <v>1.06892</v>
       </c>
       <c r="C121" t="n">
-        <v>2.58279</v>
+        <v>2.58317</v>
       </c>
       <c r="D121" t="n">
-        <v>4.83776</v>
+        <v>4.92</v>
       </c>
       <c r="E121" t="n">
-        <v>0.959896</v>
+        <v>0.942338</v>
       </c>
       <c r="F121" t="n">
-        <v>2.3293</v>
+        <v>2.38479</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07108</v>
+        <v>1.068</v>
       </c>
       <c r="C122" t="n">
-        <v>2.54851</v>
+        <v>2.53764</v>
       </c>
       <c r="D122" t="n">
-        <v>4.76527</v>
+        <v>4.86322</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9489919999999999</v>
+        <v>0.966857</v>
       </c>
       <c r="F122" t="n">
-        <v>2.26342</v>
+        <v>2.37191</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.05348</v>
+        <v>1.04968</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52051</v>
+        <v>2.54877</v>
       </c>
       <c r="D123" t="n">
-        <v>4.71964</v>
+        <v>4.7213</v>
       </c>
       <c r="E123" t="n">
-        <v>1.28218</v>
+        <v>1.30887</v>
       </c>
       <c r="F123" t="n">
-        <v>3.40743</v>
+        <v>3.50769</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.38256</v>
+        <v>1.35818</v>
       </c>
       <c r="C124" t="n">
-        <v>3.71914</v>
+        <v>3.73677</v>
       </c>
       <c r="D124" t="n">
-        <v>4.61669</v>
+        <v>4.64294</v>
       </c>
       <c r="E124" t="n">
-        <v>1.2648</v>
+        <v>1.27566</v>
       </c>
       <c r="F124" t="n">
-        <v>3.34245</v>
+        <v>3.43201</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.36623</v>
+        <v>1.37653</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63612</v>
+        <v>3.67137</v>
       </c>
       <c r="D125" t="n">
-        <v>4.52779</v>
+        <v>4.56331</v>
       </c>
       <c r="E125" t="n">
-        <v>1.25187</v>
+        <v>1.27347</v>
       </c>
       <c r="F125" t="n">
-        <v>3.28207</v>
+        <v>3.38642</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.36943</v>
+        <v>1.38882</v>
       </c>
       <c r="C126" t="n">
-        <v>3.60642</v>
+        <v>3.59996</v>
       </c>
       <c r="D126" t="n">
-        <v>4.477</v>
+        <v>4.47915</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25614</v>
+        <v>1.26625</v>
       </c>
       <c r="F126" t="n">
-        <v>3.2101</v>
+        <v>3.30791</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38134</v>
+        <v>1.36163</v>
       </c>
       <c r="C127" t="n">
-        <v>3.48335</v>
+        <v>3.5239</v>
       </c>
       <c r="D127" t="n">
-        <v>4.3891</v>
+        <v>4.44651</v>
       </c>
       <c r="E127" t="n">
-        <v>1.24356</v>
+        <v>1.27958</v>
       </c>
       <c r="F127" t="n">
-        <v>3.13473</v>
+        <v>3.2665</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.36894</v>
+        <v>1.3884</v>
       </c>
       <c r="C128" t="n">
-        <v>3.40792</v>
+        <v>3.45135</v>
       </c>
       <c r="D128" t="n">
-        <v>4.33035</v>
+        <v>4.33958</v>
       </c>
       <c r="E128" t="n">
-        <v>1.24303</v>
+        <v>1.25306</v>
       </c>
       <c r="F128" t="n">
-        <v>3.10665</v>
+        <v>3.14297</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38166</v>
+        <v>1.33782</v>
       </c>
       <c r="C129" t="n">
-        <v>3.35738</v>
+        <v>3.38374</v>
       </c>
       <c r="D129" t="n">
-        <v>4.30198</v>
+        <v>4.34619</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24033</v>
+        <v>1.22692</v>
       </c>
       <c r="F129" t="n">
-        <v>3.01566</v>
+        <v>3.11412</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.35863</v>
+        <v>1.34255</v>
       </c>
       <c r="C130" t="n">
-        <v>3.31518</v>
+        <v>3.32682</v>
       </c>
       <c r="D130" t="n">
-        <v>4.26952</v>
+        <v>4.26369</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23802</v>
+        <v>1.23029</v>
       </c>
       <c r="F130" t="n">
-        <v>2.99198</v>
+        <v>3.05407</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35699</v>
+        <v>1.34705</v>
       </c>
       <c r="C131" t="n">
-        <v>3.26348</v>
+        <v>3.24149</v>
       </c>
       <c r="D131" t="n">
-        <v>4.21987</v>
+        <v>4.21328</v>
       </c>
       <c r="E131" t="n">
-        <v>1.21421</v>
+        <v>1.22486</v>
       </c>
       <c r="F131" t="n">
-        <v>2.90702</v>
+        <v>3.00662</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33365</v>
+        <v>1.34786</v>
       </c>
       <c r="C132" t="n">
-        <v>3.17021</v>
+        <v>3.19002</v>
       </c>
       <c r="D132" t="n">
-        <v>4.17725</v>
+        <v>4.17346</v>
       </c>
       <c r="E132" t="n">
-        <v>1.21259</v>
+        <v>1.22998</v>
       </c>
       <c r="F132" t="n">
-        <v>2.85082</v>
+        <v>2.9342</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32654</v>
+        <v>1.35573</v>
       </c>
       <c r="C133" t="n">
-        <v>3.16808</v>
+        <v>3.19156</v>
       </c>
       <c r="D133" t="n">
-        <v>4.13927</v>
+        <v>4.12318</v>
       </c>
       <c r="E133" t="n">
-        <v>1.19315</v>
+        <v>1.22168</v>
       </c>
       <c r="F133" t="n">
-        <v>2.78571</v>
+        <v>2.88114</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.34086</v>
+        <v>1.32763</v>
       </c>
       <c r="C134" t="n">
-        <v>3.09005</v>
+        <v>3.06469</v>
       </c>
       <c r="D134" t="n">
-        <v>4.12487</v>
+        <v>4.10213</v>
       </c>
       <c r="E134" t="n">
-        <v>1.20492</v>
+        <v>1.19963</v>
       </c>
       <c r="F134" t="n">
-        <v>2.7719</v>
+        <v>2.87471</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33647</v>
+        <v>1.3329</v>
       </c>
       <c r="C135" t="n">
-        <v>3.03646</v>
+        <v>3.07472</v>
       </c>
       <c r="D135" t="n">
-        <v>5.60525</v>
+        <v>5.62742</v>
       </c>
       <c r="E135" t="n">
-        <v>1.20488</v>
+        <v>1.20226</v>
       </c>
       <c r="F135" t="n">
-        <v>2.71121</v>
+        <v>2.84179</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33064</v>
+        <v>1.33046</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05445</v>
+        <v>3.02955</v>
       </c>
       <c r="D136" t="n">
-        <v>5.54768</v>
+        <v>5.51455</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21263</v>
+        <v>1.21176</v>
       </c>
       <c r="F136" t="n">
-        <v>2.69088</v>
+        <v>2.80574</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32978</v>
+        <v>1.33612</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00398</v>
+        <v>2.975</v>
       </c>
       <c r="D137" t="n">
-        <v>5.38856</v>
+        <v>5.42485</v>
       </c>
       <c r="E137" t="n">
-        <v>1.54432</v>
+        <v>1.54483</v>
       </c>
       <c r="F137" t="n">
-        <v>3.93451</v>
+        <v>4.02145</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63465</v>
+        <v>1.65707</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34113</v>
+        <v>4.31265</v>
       </c>
       <c r="D138" t="n">
-        <v>5.29169</v>
+        <v>5.30807</v>
       </c>
       <c r="E138" t="n">
-        <v>1.53677</v>
+        <v>1.53946</v>
       </c>
       <c r="F138" t="n">
-        <v>3.8712</v>
+        <v>4.00042</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.65788</v>
+        <v>1.67828</v>
       </c>
       <c r="C139" t="n">
-        <v>4.23412</v>
+        <v>4.23184</v>
       </c>
       <c r="D139" t="n">
-        <v>5.20618</v>
+        <v>5.24287</v>
       </c>
       <c r="E139" t="n">
-        <v>1.53679</v>
+        <v>1.52853</v>
       </c>
       <c r="F139" t="n">
-        <v>3.77638</v>
+        <v>3.84974</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.65808</v>
+        <v>1.65671</v>
       </c>
       <c r="C140" t="n">
-        <v>4.11926</v>
+        <v>4.16214</v>
       </c>
       <c r="D140" t="n">
-        <v>5.11861</v>
+        <v>5.1398</v>
       </c>
       <c r="E140" t="n">
-        <v>1.52784</v>
+        <v>1.52128</v>
       </c>
       <c r="F140" t="n">
-        <v>3.6322</v>
+        <v>3.75682</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.65061</v>
+        <v>1.66088</v>
       </c>
       <c r="C141" t="n">
-        <v>4.01621</v>
+        <v>4.03287</v>
       </c>
       <c r="D141" t="n">
-        <v>5.08117</v>
+        <v>5.07288</v>
       </c>
       <c r="E141" t="n">
-        <v>1.51101</v>
+        <v>1.52574</v>
       </c>
       <c r="F141" t="n">
-        <v>3.64092</v>
+        <v>3.73907</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.66434</v>
+        <v>1.6712</v>
       </c>
       <c r="C142" t="n">
-        <v>3.93192</v>
+        <v>4.00306</v>
       </c>
       <c r="D142" t="n">
-        <v>5.01622</v>
+        <v>4.99523</v>
       </c>
       <c r="E142" t="n">
-        <v>1.50393</v>
+        <v>1.51279</v>
       </c>
       <c r="F142" t="n">
-        <v>3.5155</v>
+        <v>3.63299</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.6275</v>
+        <v>1.62617</v>
       </c>
       <c r="C143" t="n">
-        <v>3.86552</v>
+        <v>3.87165</v>
       </c>
       <c r="D143" t="n">
-        <v>4.86137</v>
+        <v>4.89271</v>
       </c>
       <c r="E143" t="n">
-        <v>1.53188</v>
+        <v>1.49163</v>
       </c>
       <c r="F143" t="n">
-        <v>3.45564</v>
+        <v>3.5679</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593428</v>
+        <v>0.59912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.796575</v>
+        <v>0.836186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.951453</v>
+        <v>1.00194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317551</v>
+        <v>0.323375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8070929999999999</v>
+        <v>0.807244</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.33947</v>
+        <v>0.358584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.793851</v>
+        <v>0.803979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.961853</v>
+        <v>1.01059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.308556</v>
+        <v>0.311374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.80233</v>
+        <v>0.7960120000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.326403</v>
+        <v>0.340486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793698</v>
+        <v>0.7901820000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9376949999999999</v>
+        <v>0.957189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.298848</v>
+        <v>0.311728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.789813</v>
+        <v>0.846998</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.319843</v>
+        <v>0.33136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.77384</v>
+        <v>0.800605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.931747</v>
+        <v>0.980637</v>
       </c>
       <c r="E5" t="n">
-        <v>0.300183</v>
+        <v>0.303885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.78859</v>
+        <v>0.804669</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.315693</v>
+        <v>0.326474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.769405</v>
+        <v>0.80987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9183519999999999</v>
+        <v>0.984178</v>
       </c>
       <c r="E6" t="n">
-        <v>0.289734</v>
+        <v>0.304243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.788009</v>
+        <v>0.790895</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.316303</v>
+        <v>0.31931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7667929999999999</v>
+        <v>0.783077</v>
       </c>
       <c r="D7" t="n">
-        <v>1.11394</v>
+        <v>1.18882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.286789</v>
+        <v>0.296329</v>
       </c>
       <c r="F7" t="n">
-        <v>0.776874</v>
+        <v>0.804404</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.309608</v>
+        <v>0.317867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.771246</v>
+        <v>0.786974</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12832</v>
+        <v>1.18966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.293024</v>
+        <v>0.294779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7737039999999999</v>
+        <v>0.79279</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306214</v>
+        <v>0.320639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.762358</v>
+        <v>0.79254</v>
       </c>
       <c r="D9" t="n">
-        <v>1.08378</v>
+        <v>1.13476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.537538</v>
+        <v>0.562069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9025260000000001</v>
+        <v>0.959271</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.555302</v>
+        <v>0.613479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.892056</v>
+        <v>0.901631</v>
       </c>
       <c r="D10" t="n">
-        <v>1.06738</v>
+        <v>1.16661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.521546</v>
+        <v>0.559289</v>
       </c>
       <c r="F10" t="n">
-        <v>0.895533</v>
+        <v>0.928588</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5350240000000001</v>
+        <v>0.5804319999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.86817</v>
+        <v>0.974186</v>
       </c>
       <c r="D11" t="n">
-        <v>1.05329</v>
+        <v>1.06684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.504668</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8804</v>
+        <v>0.868598</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5201789999999999</v>
+        <v>0.529841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8638479999999999</v>
+        <v>0.891302</v>
       </c>
       <c r="D12" t="n">
-        <v>1.03916</v>
+        <v>1.08443</v>
       </c>
       <c r="E12" t="n">
-        <v>0.488581</v>
+        <v>0.510051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.86816</v>
+        <v>0.883564</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512543</v>
+        <v>0.535574</v>
       </c>
       <c r="C13" t="n">
-        <v>0.871354</v>
+        <v>0.860058</v>
       </c>
       <c r="D13" t="n">
-        <v>1.04284</v>
+        <v>1.06103</v>
       </c>
       <c r="E13" t="n">
-        <v>0.481107</v>
+        <v>0.498229</v>
       </c>
       <c r="F13" t="n">
-        <v>0.866274</v>
+        <v>0.8433389999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.495367</v>
+        <v>0.498014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.852105</v>
+        <v>0.833638</v>
       </c>
       <c r="D14" t="n">
-        <v>1.01712</v>
+        <v>1.05632</v>
       </c>
       <c r="E14" t="n">
-        <v>0.473111</v>
+        <v>0.471756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.838607</v>
+        <v>0.838048</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.473985</v>
+        <v>0.480826</v>
       </c>
       <c r="C15" t="n">
-        <v>0.825341</v>
+        <v>0.8217140000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01082</v>
+        <v>1.05513</v>
       </c>
       <c r="E15" t="n">
-        <v>0.445466</v>
+        <v>0.443973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.838882</v>
+        <v>0.836539</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464582</v>
+        <v>0.471674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.851716</v>
+        <v>0.809536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.997599</v>
+        <v>0.990456</v>
       </c>
       <c r="E16" t="n">
-        <v>0.433977</v>
+        <v>0.431324</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8285</v>
+        <v>0.819892</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.450601</v>
+        <v>0.456341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.823074</v>
+        <v>0.810802</v>
       </c>
       <c r="D17" t="n">
-        <v>0.994323</v>
+        <v>0.99113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.420733</v>
+        <v>0.423383</v>
       </c>
       <c r="F17" t="n">
-        <v>0.819034</v>
+        <v>0.842048</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442097</v>
+        <v>0.462941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818881</v>
+        <v>0.825223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989980000000001</v>
+        <v>0.990657</v>
       </c>
       <c r="E18" t="n">
-        <v>0.414146</v>
+        <v>0.422493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.822549</v>
+        <v>0.7986760000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.42964</v>
+        <v>0.431612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.797492</v>
+        <v>0.787907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.972862</v>
+        <v>0.998939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.399055</v>
+        <v>0.396729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.806679</v>
+        <v>0.787683</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.41873</v>
+        <v>0.453844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.802172</v>
+        <v>0.800933</v>
       </c>
       <c r="D20" t="n">
-        <v>0.965525</v>
+        <v>0.981805</v>
       </c>
       <c r="E20" t="n">
-        <v>0.39094</v>
+        <v>0.387546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.795814</v>
+        <v>0.78368</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.414509</v>
+        <v>0.409728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.801517</v>
+        <v>0.787336</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19117</v>
+        <v>1.25004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.390024</v>
+        <v>0.400901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8014250000000001</v>
+        <v>0.776778</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404558</v>
+        <v>0.408038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.787346</v>
+        <v>0.7755570000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>1.1704</v>
+        <v>1.15669</v>
       </c>
       <c r="E22" t="n">
-        <v>0.382983</v>
+        <v>0.379877</v>
       </c>
       <c r="F22" t="n">
-        <v>0.823219</v>
+        <v>0.785058</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406651</v>
+        <v>0.400592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.800007</v>
+        <v>0.773415</v>
       </c>
       <c r="D23" t="n">
-        <v>1.15558</v>
+        <v>1.13236</v>
       </c>
       <c r="E23" t="n">
-        <v>0.63741</v>
+        <v>0.633418</v>
       </c>
       <c r="F23" t="n">
-        <v>0.938679</v>
+        <v>0.908875</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.651831</v>
+        <v>0.6466499999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.931791</v>
+        <v>0.9191279999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10382</v>
+        <v>1.15329</v>
       </c>
       <c r="E24" t="n">
-        <v>0.610584</v>
+        <v>0.611606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.903327</v>
+        <v>0.89966</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.630893</v>
+        <v>0.656575</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894767</v>
+        <v>0.9453780000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09247</v>
+        <v>1.10099</v>
       </c>
       <c r="E25" t="n">
-        <v>0.589792</v>
+        <v>0.595355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.899328</v>
+        <v>0.887765</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.606065</v>
+        <v>0.629325</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8807120000000001</v>
+        <v>0.873547</v>
       </c>
       <c r="D26" t="n">
-        <v>1.07831</v>
+        <v>1.09079</v>
       </c>
       <c r="E26" t="n">
-        <v>0.572327</v>
+        <v>0.574475</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8909899999999999</v>
+        <v>0.896487</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.591159</v>
+        <v>0.60547</v>
       </c>
       <c r="C27" t="n">
-        <v>0.885235</v>
+        <v>0.87902</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08395</v>
+        <v>1.16234</v>
       </c>
       <c r="E27" t="n">
-        <v>0.558683</v>
+        <v>0.595664</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8855499999999999</v>
+        <v>0.8751910000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.580388</v>
+        <v>0.574662</v>
       </c>
       <c r="C28" t="n">
-        <v>0.876537</v>
+        <v>0.856487</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07782</v>
+        <v>1.06717</v>
       </c>
       <c r="E28" t="n">
-        <v>0.539683</v>
+        <v>0.542734</v>
       </c>
       <c r="F28" t="n">
-        <v>0.873426</v>
+        <v>0.860712</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.557288</v>
+        <v>0.560995</v>
       </c>
       <c r="C29" t="n">
-        <v>0.857924</v>
+        <v>0.849885</v>
       </c>
       <c r="D29" t="n">
-        <v>1.05199</v>
+        <v>1.04695</v>
       </c>
       <c r="E29" t="n">
-        <v>0.523703</v>
+        <v>0.5156539999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.861012</v>
+        <v>0.85303</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.545115</v>
+        <v>0.5360819999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.845222</v>
+        <v>0.839391</v>
       </c>
       <c r="D30" t="n">
-        <v>1.04236</v>
+        <v>1.03515</v>
       </c>
       <c r="E30" t="n">
-        <v>0.505253</v>
+        <v>0.503278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.850389</v>
+        <v>0.832945</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.532844</v>
+        <v>0.519194</v>
       </c>
       <c r="C31" t="n">
-        <v>0.837855</v>
+        <v>0.8387829999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>1.03984</v>
+        <v>1.07198</v>
       </c>
       <c r="E31" t="n">
-        <v>0.493261</v>
+        <v>0.513383</v>
       </c>
       <c r="F31" t="n">
-        <v>0.849359</v>
+        <v>0.850085</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.511171</v>
+        <v>0.521141</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8707279999999999</v>
+        <v>0.821159</v>
       </c>
       <c r="D32" t="n">
-        <v>1.06735</v>
+        <v>1.03618</v>
       </c>
       <c r="E32" t="n">
-        <v>0.491074</v>
+        <v>0.478462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.854932</v>
+        <v>0.838108</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.512365</v>
+        <v>0.518103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.838346</v>
+        <v>0.822954</v>
       </c>
       <c r="D33" t="n">
-        <v>1.04148</v>
+        <v>1.0631</v>
       </c>
       <c r="E33" t="n">
-        <v>0.466831</v>
+        <v>0.464678</v>
       </c>
       <c r="F33" t="n">
-        <v>0.833663</v>
+        <v>0.820004</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.485685</v>
+        <v>0.510786</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822619</v>
+        <v>0.818242</v>
       </c>
       <c r="D34" t="n">
-        <v>1.03582</v>
+        <v>1.01068</v>
       </c>
       <c r="E34" t="n">
-        <v>0.461696</v>
+        <v>0.452016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.836533</v>
+        <v>0.808056</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.473401</v>
+        <v>0.475528</v>
       </c>
       <c r="C35" t="n">
-        <v>0.811005</v>
+        <v>0.79764</v>
       </c>
       <c r="D35" t="n">
-        <v>1.27013</v>
+        <v>1.25961</v>
       </c>
       <c r="E35" t="n">
-        <v>0.443464</v>
+        <v>0.443224</v>
       </c>
       <c r="F35" t="n">
-        <v>0.822348</v>
+        <v>0.831414</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.463086</v>
+        <v>0.45909</v>
       </c>
       <c r="C36" t="n">
-        <v>0.818858</v>
+        <v>0.796743</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2698</v>
+        <v>1.23382</v>
       </c>
       <c r="E36" t="n">
-        <v>0.438075</v>
+        <v>0.445456</v>
       </c>
       <c r="F36" t="n">
-        <v>0.83078</v>
+        <v>0.808513</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.470644</v>
+        <v>0.455774</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8326480000000001</v>
+        <v>0.800624</v>
       </c>
       <c r="D37" t="n">
-        <v>1.31309</v>
+        <v>1.23816</v>
       </c>
       <c r="E37" t="n">
-        <v>0.696426</v>
+        <v>0.696488</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0237</v>
+        <v>1.02794</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.711776</v>
+        <v>0.70861</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00738</v>
+        <v>0.99377</v>
       </c>
       <c r="D38" t="n">
-        <v>1.249</v>
+        <v>1.21214</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672565</v>
+        <v>0.668698</v>
       </c>
       <c r="F38" t="n">
-        <v>1.01026</v>
+        <v>1.00263</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.693582</v>
+        <v>0.703729</v>
       </c>
       <c r="C39" t="n">
-        <v>0.999193</v>
+        <v>0.969398</v>
       </c>
       <c r="D39" t="n">
-        <v>1.26203</v>
+        <v>1.23604</v>
       </c>
       <c r="E39" t="n">
-        <v>0.678493</v>
+        <v>0.649666</v>
       </c>
       <c r="F39" t="n">
-        <v>0.997514</v>
+        <v>0.968198</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.679245</v>
+        <v>0.664636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.989221</v>
+        <v>0.979395</v>
       </c>
       <c r="D40" t="n">
-        <v>1.20522</v>
+        <v>1.18696</v>
       </c>
       <c r="E40" t="n">
-        <v>0.637709</v>
+        <v>0.62615</v>
       </c>
       <c r="F40" t="n">
-        <v>0.979351</v>
+        <v>0.996718</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672311</v>
+        <v>0.663198</v>
       </c>
       <c r="C41" t="n">
-        <v>0.959253</v>
+        <v>0.983617</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17229</v>
+        <v>1.17943</v>
       </c>
       <c r="E41" t="n">
-        <v>0.610727</v>
+        <v>0.604226</v>
       </c>
       <c r="F41" t="n">
-        <v>0.980046</v>
+        <v>0.950488</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.642899</v>
+        <v>0.6308</v>
       </c>
       <c r="C42" t="n">
-        <v>1.00139</v>
+        <v>0.935715</v>
       </c>
       <c r="D42" t="n">
-        <v>1.18013</v>
+        <v>1.20476</v>
       </c>
       <c r="E42" t="n">
-        <v>0.591706</v>
+        <v>0.642268</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631</v>
+        <v>0.940794</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616367</v>
+        <v>0.614383</v>
       </c>
       <c r="C43" t="n">
-        <v>0.95722</v>
+        <v>0.930239</v>
       </c>
       <c r="D43" t="n">
-        <v>1.16825</v>
+        <v>1.16955</v>
       </c>
       <c r="E43" t="n">
-        <v>0.571863</v>
+        <v>0.572451</v>
       </c>
       <c r="F43" t="n">
-        <v>0.956196</v>
+        <v>0.921382</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6028</v>
+        <v>0.612584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.948951</v>
+        <v>0.960461</v>
       </c>
       <c r="D44" t="n">
-        <v>1.15222</v>
+        <v>1.15704</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5552049999999999</v>
+        <v>0.555028</v>
       </c>
       <c r="F44" t="n">
-        <v>0.944006</v>
+        <v>0.9124719999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.580955</v>
+        <v>0.56743</v>
       </c>
       <c r="C45" t="n">
-        <v>0.929659</v>
+        <v>0.912303</v>
       </c>
       <c r="D45" t="n">
-        <v>1.12497</v>
+        <v>1.12197</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534007</v>
+        <v>0.54235</v>
       </c>
       <c r="F45" t="n">
-        <v>0.919907</v>
+        <v>0.903158</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5613359999999999</v>
+        <v>0.560098</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9084100000000001</v>
+        <v>0.91239</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13079</v>
+        <v>1.11304</v>
       </c>
       <c r="E46" t="n">
-        <v>0.533072</v>
+        <v>0.518741</v>
       </c>
       <c r="F46" t="n">
-        <v>0.91737</v>
+        <v>0.892741</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.545928</v>
+        <v>0.5494790000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.902587</v>
+        <v>0.891435</v>
       </c>
       <c r="D47" t="n">
-        <v>1.10615</v>
+        <v>1.1158</v>
       </c>
       <c r="E47" t="n">
-        <v>0.503806</v>
+        <v>0.510449</v>
       </c>
       <c r="F47" t="n">
-        <v>0.902865</v>
+        <v>0.889286</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.550689</v>
+        <v>0.529827</v>
       </c>
       <c r="C48" t="n">
-        <v>0.886965</v>
+        <v>0.8814340000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10502</v>
+        <v>1.10022</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5006969999999999</v>
+        <v>0.493642</v>
       </c>
       <c r="F48" t="n">
-        <v>0.902345</v>
+        <v>0.877224</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.516224</v>
+        <v>0.527726</v>
       </c>
       <c r="C49" t="n">
-        <v>0.882671</v>
+        <v>0.898128</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09589</v>
+        <v>1.12732</v>
       </c>
       <c r="E49" t="n">
-        <v>0.478111</v>
+        <v>0.498105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.892663</v>
+        <v>0.910208</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.501645</v>
+        <v>0.513517</v>
       </c>
       <c r="C50" t="n">
-        <v>0.869731</v>
+        <v>0.890743</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55156</v>
+        <v>1.57947</v>
       </c>
       <c r="E50" t="n">
-        <v>0.469136</v>
+        <v>0.473048</v>
       </c>
       <c r="F50" t="n">
-        <v>0.89168</v>
+        <v>0.914586</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.495601</v>
+        <v>0.4986</v>
       </c>
       <c r="C51" t="n">
-        <v>0.876258</v>
+        <v>0.872974</v>
       </c>
       <c r="D51" t="n">
-        <v>1.53386</v>
+        <v>1.52153</v>
       </c>
       <c r="E51" t="n">
-        <v>0.733061</v>
+        <v>0.7519</v>
       </c>
       <c r="F51" t="n">
-        <v>1.18123</v>
+        <v>1.14496</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.49123</v>
+        <v>0.5203449999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.879487</v>
+        <v>0.87242</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50289</v>
+        <v>1.50415</v>
       </c>
       <c r="E52" t="n">
-        <v>0.719897</v>
+        <v>0.7094</v>
       </c>
       <c r="F52" t="n">
-        <v>1.17035</v>
+        <v>1.11413</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7449</v>
+        <v>0.758382</v>
       </c>
       <c r="C53" t="n">
-        <v>1.17417</v>
+        <v>1.13791</v>
       </c>
       <c r="D53" t="n">
-        <v>1.49471</v>
+        <v>1.52244</v>
       </c>
       <c r="E53" t="n">
-        <v>0.730927</v>
+        <v>0.695706</v>
       </c>
       <c r="F53" t="n">
-        <v>1.18623</v>
+        <v>1.11451</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.728312</v>
+        <v>0.721756</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14663</v>
+        <v>1.13772</v>
       </c>
       <c r="D54" t="n">
-        <v>1.47637</v>
+        <v>1.48084</v>
       </c>
       <c r="E54" t="n">
-        <v>0.680103</v>
+        <v>0.699909</v>
       </c>
       <c r="F54" t="n">
-        <v>1.13997</v>
+        <v>1.07965</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.708793</v>
+        <v>0.706747</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10715</v>
+        <v>1.11071</v>
       </c>
       <c r="D55" t="n">
-        <v>1.4345</v>
+        <v>1.43599</v>
       </c>
       <c r="E55" t="n">
-        <v>0.657771</v>
+        <v>0.658534</v>
       </c>
       <c r="F55" t="n">
-        <v>1.11113</v>
+        <v>1.09255</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.698263</v>
+        <v>0.692178</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10923</v>
+        <v>1.13214</v>
       </c>
       <c r="D56" t="n">
-        <v>1.43304</v>
+        <v>1.39952</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6451789999999999</v>
+        <v>0.638505</v>
       </c>
       <c r="F56" t="n">
-        <v>1.1041</v>
+        <v>1.05667</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674874</v>
+        <v>0.676928</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0904</v>
+        <v>1.08563</v>
       </c>
       <c r="D57" t="n">
-        <v>1.39249</v>
+        <v>1.42924</v>
       </c>
       <c r="E57" t="n">
-        <v>0.622865</v>
+        <v>0.6236390000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1.08788</v>
+        <v>1.03841</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.657758</v>
+        <v>0.655908</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0811</v>
+        <v>1.05636</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41974</v>
+        <v>1.4576</v>
       </c>
       <c r="E58" t="n">
-        <v>0.618161</v>
+        <v>0.639084</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0952</v>
+        <v>1.04122</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.639416</v>
+        <v>0.633477</v>
       </c>
       <c r="C59" t="n">
-        <v>1.09434</v>
+        <v>1.08065</v>
       </c>
       <c r="D59" t="n">
-        <v>1.38598</v>
+        <v>1.41864</v>
       </c>
       <c r="E59" t="n">
-        <v>0.602033</v>
+        <v>0.598345</v>
       </c>
       <c r="F59" t="n">
-        <v>1.07654</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.628117</v>
+        <v>0.634045</v>
       </c>
       <c r="C60" t="n">
-        <v>1.05051</v>
+        <v>1.04096</v>
       </c>
       <c r="D60" t="n">
-        <v>1.38531</v>
+        <v>1.39657</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6002110000000001</v>
+        <v>0.586217</v>
       </c>
       <c r="F60" t="n">
-        <v>1.08481</v>
+        <v>0.99829</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.615713</v>
+        <v>0.61677</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04954</v>
+        <v>1.02933</v>
       </c>
       <c r="D61" t="n">
-        <v>1.35272</v>
+        <v>1.36795</v>
       </c>
       <c r="E61" t="n">
-        <v>0.568465</v>
+        <v>0.581568</v>
       </c>
       <c r="F61" t="n">
-        <v>1.04999</v>
+        <v>1.00379</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.599811</v>
+        <v>0.608476</v>
       </c>
       <c r="C62" t="n">
-        <v>1.03054</v>
+        <v>1.01559</v>
       </c>
       <c r="D62" t="n">
-        <v>1.34774</v>
+        <v>1.36554</v>
       </c>
       <c r="E62" t="n">
-        <v>0.555619</v>
+        <v>0.557481</v>
       </c>
       <c r="F62" t="n">
-        <v>1.05047</v>
+        <v>0.977611</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.58767</v>
+        <v>0.602908</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01753</v>
+        <v>1.00889</v>
       </c>
       <c r="D63" t="n">
-        <v>1.35718</v>
+        <v>1.37101</v>
       </c>
       <c r="E63" t="n">
-        <v>0.547138</v>
+        <v>0.564612</v>
       </c>
       <c r="F63" t="n">
-        <v>1.04702</v>
+        <v>0.990435</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.576816</v>
+        <v>0.585175</v>
       </c>
       <c r="C64" t="n">
-        <v>1.02019</v>
+        <v>0.996744</v>
       </c>
       <c r="D64" t="n">
-        <v>2.17591</v>
+        <v>2.16993</v>
       </c>
       <c r="E64" t="n">
-        <v>0.54096</v>
+        <v>0.533157</v>
       </c>
       <c r="F64" t="n">
-        <v>1.04032</v>
+        <v>0.950395</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.572715</v>
+        <v>0.562358</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00958</v>
+        <v>1.00339</v>
       </c>
       <c r="D65" t="n">
-        <v>2.16277</v>
+        <v>2.14093</v>
       </c>
       <c r="E65" t="n">
-        <v>0.536006</v>
+        <v>0.5435410000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>1.03954</v>
+        <v>0.960466</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.559171</v>
+        <v>0.5898640000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.992227</v>
+        <v>1.01952</v>
       </c>
       <c r="D66" t="n">
-        <v>2.07975</v>
+        <v>2.14141</v>
       </c>
       <c r="E66" t="n">
-        <v>0.799208</v>
+        <v>0.811825</v>
       </c>
       <c r="F66" t="n">
-        <v>1.53816</v>
+        <v>1.45117</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.839985</v>
+        <v>0.850954</v>
       </c>
       <c r="C67" t="n">
-        <v>1.58282</v>
+        <v>1.5838</v>
       </c>
       <c r="D67" t="n">
-        <v>2.06623</v>
+        <v>2.04827</v>
       </c>
       <c r="E67" t="n">
-        <v>0.784886</v>
+        <v>0.780471</v>
       </c>
       <c r="F67" t="n">
-        <v>1.56528</v>
+        <v>1.46502</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.820877</v>
+        <v>0.820688</v>
       </c>
       <c r="C68" t="n">
-        <v>1.52991</v>
+        <v>1.53659</v>
       </c>
       <c r="D68" t="n">
-        <v>2.05179</v>
+        <v>2.0433</v>
       </c>
       <c r="E68" t="n">
-        <v>0.799434</v>
+        <v>0.760762</v>
       </c>
       <c r="F68" t="n">
-        <v>1.51831</v>
+        <v>1.42256</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.81051</v>
+        <v>0.815055</v>
       </c>
       <c r="C69" t="n">
-        <v>1.53397</v>
+        <v>1.53574</v>
       </c>
       <c r="D69" t="n">
-        <v>2.00811</v>
+        <v>2.01309</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7777849999999999</v>
+        <v>0.749024</v>
       </c>
       <c r="F69" t="n">
-        <v>1.48359</v>
+        <v>1.38938</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.801916</v>
+        <v>0.781145</v>
       </c>
       <c r="C70" t="n">
-        <v>1.46275</v>
+        <v>1.47874</v>
       </c>
       <c r="D70" t="n">
-        <v>1.92348</v>
+        <v>1.97558</v>
       </c>
       <c r="E70" t="n">
-        <v>0.717602</v>
+        <v>0.727194</v>
       </c>
       <c r="F70" t="n">
-        <v>1.41252</v>
+        <v>1.35748</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.759747</v>
+        <v>0.762474</v>
       </c>
       <c r="C71" t="n">
-        <v>1.45972</v>
+        <v>1.44182</v>
       </c>
       <c r="D71" t="n">
-        <v>1.9588</v>
+        <v>1.94903</v>
       </c>
       <c r="E71" t="n">
-        <v>0.704871</v>
+        <v>0.708892</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39295</v>
+        <v>1.37683</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744188</v>
+        <v>0.7639899999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>1.40974</v>
+        <v>1.42401</v>
       </c>
       <c r="D72" t="n">
-        <v>1.93114</v>
+        <v>1.92002</v>
       </c>
       <c r="E72" t="n">
-        <v>0.692435</v>
+        <v>0.686999</v>
       </c>
       <c r="F72" t="n">
-        <v>1.38927</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.732954</v>
+        <v>0.729671</v>
       </c>
       <c r="C73" t="n">
-        <v>1.41008</v>
+        <v>1.39081</v>
       </c>
       <c r="D73" t="n">
-        <v>1.89067</v>
+        <v>1.91442</v>
       </c>
       <c r="E73" t="n">
-        <v>0.672358</v>
+        <v>0.673181</v>
       </c>
       <c r="F73" t="n">
-        <v>1.36108</v>
+        <v>1.2948</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.71163</v>
+        <v>0.75363</v>
       </c>
       <c r="C74" t="n">
-        <v>1.36905</v>
+        <v>1.36979</v>
       </c>
       <c r="D74" t="n">
-        <v>1.86558</v>
+        <v>1.90468</v>
       </c>
       <c r="E74" t="n">
-        <v>0.65542</v>
+        <v>0.670224</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3333</v>
+        <v>1.26422</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.708857</v>
+        <v>0.712298</v>
       </c>
       <c r="C75" t="n">
-        <v>1.34694</v>
+        <v>1.34833</v>
       </c>
       <c r="D75" t="n">
-        <v>1.88416</v>
+        <v>1.97566</v>
       </c>
       <c r="E75" t="n">
-        <v>0.655285</v>
+        <v>0.656359</v>
       </c>
       <c r="F75" t="n">
-        <v>1.32858</v>
+        <v>1.25357</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.705043</v>
+        <v>0.684073</v>
       </c>
       <c r="C76" t="n">
-        <v>1.32378</v>
+        <v>1.33475</v>
       </c>
       <c r="D76" t="n">
-        <v>1.8661</v>
+        <v>1.8855</v>
       </c>
       <c r="E76" t="n">
-        <v>0.63379</v>
+        <v>0.633039</v>
       </c>
       <c r="F76" t="n">
-        <v>1.30446</v>
+        <v>1.23373</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.677603</v>
+        <v>0.684381</v>
       </c>
       <c r="C77" t="n">
-        <v>1.31469</v>
+        <v>1.30336</v>
       </c>
       <c r="D77" t="n">
-        <v>1.86569</v>
+        <v>1.86382</v>
       </c>
       <c r="E77" t="n">
-        <v>0.623186</v>
+        <v>0.626476</v>
       </c>
       <c r="F77" t="n">
-        <v>1.29379</v>
+        <v>1.22728</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.664115</v>
+        <v>0.669249</v>
       </c>
       <c r="C78" t="n">
-        <v>1.2952</v>
+        <v>1.30406</v>
       </c>
       <c r="D78" t="n">
-        <v>3.09631</v>
+        <v>3.13004</v>
       </c>
       <c r="E78" t="n">
-        <v>0.623831</v>
+        <v>0.60876</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27659</v>
+        <v>1.20525</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.658693</v>
+        <v>0.650625</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27121</v>
+        <v>1.29693</v>
       </c>
       <c r="D79" t="n">
-        <v>3.1102</v>
+        <v>3.02457</v>
       </c>
       <c r="E79" t="n">
-        <v>0.607695</v>
+        <v>0.616575</v>
       </c>
       <c r="F79" t="n">
-        <v>1.26202</v>
+        <v>1.20007</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.643081</v>
+        <v>0.661214</v>
       </c>
       <c r="C80" t="n">
-        <v>1.26554</v>
+        <v>1.26436</v>
       </c>
       <c r="D80" t="n">
-        <v>3.03104</v>
+        <v>2.95441</v>
       </c>
       <c r="E80" t="n">
-        <v>0.926448</v>
+        <v>0.9180779999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>2.07375</v>
+        <v>2.03817</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.949976</v>
+        <v>0.971209</v>
       </c>
       <c r="C81" t="n">
-        <v>2.15464</v>
+        <v>2.15487</v>
       </c>
       <c r="D81" t="n">
-        <v>2.98552</v>
+        <v>2.91367</v>
       </c>
       <c r="E81" t="n">
-        <v>0.880045</v>
+        <v>0.8844649999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>2.02604</v>
+        <v>1.94306</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.949866</v>
+        <v>0.942883</v>
       </c>
       <c r="C82" t="n">
-        <v>2.15122</v>
+        <v>2.17441</v>
       </c>
       <c r="D82" t="n">
-        <v>2.94771</v>
+        <v>2.88155</v>
       </c>
       <c r="E82" t="n">
-        <v>0.897763</v>
+        <v>0.862641</v>
       </c>
       <c r="F82" t="n">
-        <v>2.0269</v>
+        <v>1.91803</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.945001</v>
+        <v>0.920703</v>
       </c>
       <c r="C83" t="n">
-        <v>2.09044</v>
+        <v>2.08665</v>
       </c>
       <c r="D83" t="n">
-        <v>2.86089</v>
+        <v>2.77266</v>
       </c>
       <c r="E83" t="n">
-        <v>0.844746</v>
+        <v>0.841524</v>
       </c>
       <c r="F83" t="n">
-        <v>1.99427</v>
+        <v>1.88955</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.901206</v>
+        <v>0.887363</v>
       </c>
       <c r="C84" t="n">
-        <v>2.03419</v>
+        <v>1.99493</v>
       </c>
       <c r="D84" t="n">
-        <v>2.77161</v>
+        <v>2.72857</v>
       </c>
       <c r="E84" t="n">
-        <v>0.82973</v>
+        <v>0.821129</v>
       </c>
       <c r="F84" t="n">
-        <v>1.93531</v>
+        <v>1.82275</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.892975</v>
+        <v>0.86956</v>
       </c>
       <c r="C85" t="n">
-        <v>1.98808</v>
+        <v>1.94821</v>
       </c>
       <c r="D85" t="n">
-        <v>2.72233</v>
+        <v>2.71314</v>
       </c>
       <c r="E85" t="n">
-        <v>0.832357</v>
+        <v>0.808897</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87883</v>
+        <v>1.8026</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.853722</v>
+        <v>0.888843</v>
       </c>
       <c r="C86" t="n">
-        <v>1.94086</v>
+        <v>1.87885</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7097</v>
+        <v>2.7311</v>
       </c>
       <c r="E86" t="n">
-        <v>0.796077</v>
+        <v>0.788276</v>
       </c>
       <c r="F86" t="n">
-        <v>1.8626</v>
+        <v>1.81325</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.84683</v>
+        <v>0.839238</v>
       </c>
       <c r="C87" t="n">
-        <v>1.92333</v>
+        <v>1.88963</v>
       </c>
       <c r="D87" t="n">
-        <v>2.69087</v>
+        <v>2.62982</v>
       </c>
       <c r="E87" t="n">
-        <v>0.772559</v>
+        <v>0.776698</v>
       </c>
       <c r="F87" t="n">
-        <v>1.81298</v>
+        <v>1.70734</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.826585</v>
+        <v>0.822319</v>
       </c>
       <c r="C88" t="n">
-        <v>1.87296</v>
+        <v>1.82555</v>
       </c>
       <c r="D88" t="n">
-        <v>2.67879</v>
+        <v>2.62855</v>
       </c>
       <c r="E88" t="n">
-        <v>0.757857</v>
+        <v>0.766346</v>
       </c>
       <c r="F88" t="n">
-        <v>1.77711</v>
+        <v>1.69675</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.806583</v>
+        <v>0.817707</v>
       </c>
       <c r="C89" t="n">
-        <v>1.83479</v>
+        <v>1.81067</v>
       </c>
       <c r="D89" t="n">
-        <v>2.67214</v>
+        <v>2.58853</v>
       </c>
       <c r="E89" t="n">
-        <v>0.743569</v>
+        <v>0.751736</v>
       </c>
       <c r="F89" t="n">
-        <v>1.76718</v>
+        <v>1.66411</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.795886</v>
+        <v>0.822908</v>
       </c>
       <c r="C90" t="n">
-        <v>1.78567</v>
+        <v>1.77956</v>
       </c>
       <c r="D90" t="n">
-        <v>2.61365</v>
+        <v>2.60337</v>
       </c>
       <c r="E90" t="n">
-        <v>0.723495</v>
+        <v>0.727569</v>
       </c>
       <c r="F90" t="n">
-        <v>1.72119</v>
+        <v>1.62768</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.777732</v>
+        <v>0.794814</v>
       </c>
       <c r="C91" t="n">
-        <v>1.74374</v>
+        <v>1.7297</v>
       </c>
       <c r="D91" t="n">
-        <v>2.56125</v>
+        <v>2.5748</v>
       </c>
       <c r="E91" t="n">
-        <v>0.71693</v>
+        <v>0.72175</v>
       </c>
       <c r="F91" t="n">
-        <v>1.69288</v>
+        <v>1.59757</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776535</v>
+        <v>0.78796</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72249</v>
+        <v>1.74627</v>
       </c>
       <c r="D92" t="n">
-        <v>3.64343</v>
+        <v>3.61878</v>
       </c>
       <c r="E92" t="n">
-        <v>0.705016</v>
+        <v>0.708137</v>
       </c>
       <c r="F92" t="n">
-        <v>1.65472</v>
+        <v>1.58622</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.761218</v>
+        <v>0.784906</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70156</v>
+        <v>1.71538</v>
       </c>
       <c r="D93" t="n">
-        <v>3.57396</v>
+        <v>3.6426</v>
       </c>
       <c r="E93" t="n">
-        <v>0.688465</v>
+        <v>0.705288</v>
       </c>
       <c r="F93" t="n">
-        <v>1.66861</v>
+        <v>1.60756</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.745754</v>
+        <v>0.76272</v>
       </c>
       <c r="C94" t="n">
-        <v>1.67317</v>
+        <v>1.67034</v>
       </c>
       <c r="D94" t="n">
-        <v>3.48226</v>
+        <v>3.58607</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02484</v>
+        <v>0.999844</v>
       </c>
       <c r="F94" t="n">
-        <v>2.59673</v>
+        <v>2.5282</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07545</v>
+        <v>1.06514</v>
       </c>
       <c r="C95" t="n">
-        <v>2.75024</v>
+        <v>2.68952</v>
       </c>
       <c r="D95" t="n">
-        <v>3.46843</v>
+        <v>3.44353</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00942</v>
+        <v>0.991112</v>
       </c>
       <c r="F95" t="n">
-        <v>2.55552</v>
+        <v>2.44447</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06344</v>
+        <v>1.03346</v>
       </c>
       <c r="C96" t="n">
-        <v>2.62006</v>
+        <v>2.68696</v>
       </c>
       <c r="D96" t="n">
-        <v>3.36249</v>
+        <v>3.44601</v>
       </c>
       <c r="E96" t="n">
-        <v>0.954098</v>
+        <v>0.953524</v>
       </c>
       <c r="F96" t="n">
-        <v>2.47168</v>
+        <v>2.44043</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0168</v>
+        <v>1.04515</v>
       </c>
       <c r="C97" t="n">
-        <v>2.59685</v>
+        <v>2.60994</v>
       </c>
       <c r="D97" t="n">
-        <v>3.44581</v>
+        <v>3.39261</v>
       </c>
       <c r="E97" t="n">
-        <v>0.943491</v>
+        <v>0.951222</v>
       </c>
       <c r="F97" t="n">
-        <v>2.43546</v>
+        <v>2.41713</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03156</v>
+        <v>1.00277</v>
       </c>
       <c r="C98" t="n">
-        <v>2.51682</v>
+        <v>2.54567</v>
       </c>
       <c r="D98" t="n">
-        <v>3.27566</v>
+        <v>3.3433</v>
       </c>
       <c r="E98" t="n">
-        <v>0.93755</v>
+        <v>0.960792</v>
       </c>
       <c r="F98" t="n">
-        <v>2.38168</v>
+        <v>2.34441</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993386</v>
+        <v>0.999933</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46918</v>
+        <v>2.48756</v>
       </c>
       <c r="D99" t="n">
-        <v>3.2482</v>
+        <v>3.2748</v>
       </c>
       <c r="E99" t="n">
-        <v>0.926162</v>
+        <v>0.906582</v>
       </c>
       <c r="F99" t="n">
-        <v>2.31746</v>
+        <v>2.24332</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.967504</v>
+        <v>1.0026</v>
       </c>
       <c r="C100" t="n">
-        <v>2.43268</v>
+        <v>2.39873</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32915</v>
+        <v>3.20482</v>
       </c>
       <c r="E100" t="n">
-        <v>0.946808</v>
+        <v>0.8818</v>
       </c>
       <c r="F100" t="n">
-        <v>2.31845</v>
+        <v>2.24365</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.964179</v>
+        <v>0.992998</v>
       </c>
       <c r="C101" t="n">
-        <v>2.38993</v>
+        <v>2.397</v>
       </c>
       <c r="D101" t="n">
-        <v>3.22285</v>
+        <v>3.19571</v>
       </c>
       <c r="E101" t="n">
-        <v>0.904854</v>
+        <v>0.873584</v>
       </c>
       <c r="F101" t="n">
-        <v>2.25454</v>
+        <v>2.17087</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.964205</v>
+        <v>0.972213</v>
       </c>
       <c r="C102" t="n">
-        <v>2.30384</v>
+        <v>2.38374</v>
       </c>
       <c r="D102" t="n">
-        <v>3.12035</v>
+        <v>3.22375</v>
       </c>
       <c r="E102" t="n">
-        <v>0.848333</v>
+        <v>0.88784</v>
       </c>
       <c r="F102" t="n">
-        <v>2.14859</v>
+        <v>2.15118</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.931616</v>
+        <v>0.969799</v>
       </c>
       <c r="C103" t="n">
-        <v>2.27567</v>
+        <v>2.28583</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05769</v>
+        <v>3.25537</v>
       </c>
       <c r="E103" t="n">
-        <v>0.84336</v>
+        <v>0.881289</v>
       </c>
       <c r="F103" t="n">
-        <v>2.11982</v>
+        <v>2.12242</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.94897</v>
+        <v>0.930208</v>
       </c>
       <c r="C104" t="n">
-        <v>2.24514</v>
+        <v>2.23413</v>
       </c>
       <c r="D104" t="n">
-        <v>3.09271</v>
+        <v>3.0773</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8261500000000001</v>
+        <v>0.841627</v>
       </c>
       <c r="F104" t="n">
-        <v>2.13231</v>
+        <v>2.05052</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9155720000000001</v>
+        <v>0.907484</v>
       </c>
       <c r="C105" t="n">
-        <v>2.18494</v>
+        <v>2.22053</v>
       </c>
       <c r="D105" t="n">
-        <v>3.04372</v>
+        <v>3.08253</v>
       </c>
       <c r="E105" t="n">
-        <v>0.835062</v>
+        <v>0.832942</v>
       </c>
       <c r="F105" t="n">
-        <v>2.0505</v>
+        <v>1.99091</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90202</v>
+        <v>0.907658</v>
       </c>
       <c r="C106" t="n">
-        <v>2.17334</v>
+        <v>2.16541</v>
       </c>
       <c r="D106" t="n">
-        <v>3.0638</v>
+        <v>3.12586</v>
       </c>
       <c r="E106" t="n">
-        <v>0.812661</v>
+        <v>0.814644</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05</v>
+        <v>1.98959</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9041090000000001</v>
+        <v>0.8910709999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>2.12828</v>
+        <v>2.1294</v>
       </c>
       <c r="D107" t="n">
-        <v>4.17107</v>
+        <v>4.23603</v>
       </c>
       <c r="E107" t="n">
-        <v>0.825313</v>
+        <v>0.800437</v>
       </c>
       <c r="F107" t="n">
-        <v>2.00642</v>
+        <v>1.94358</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.894665</v>
+        <v>0.894289</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10948</v>
+        <v>2.14442</v>
       </c>
       <c r="D108" t="n">
-        <v>4.2048</v>
+        <v>4.14068</v>
       </c>
       <c r="E108" t="n">
-        <v>1.10757</v>
+        <v>1.1442</v>
       </c>
       <c r="F108" t="n">
-        <v>3.11272</v>
+        <v>3.07607</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.896741</v>
+        <v>0.876896</v>
       </c>
       <c r="C109" t="n">
-        <v>2.09066</v>
+        <v>2.10382</v>
       </c>
       <c r="D109" t="n">
-        <v>4.10071</v>
+        <v>4.0965</v>
       </c>
       <c r="E109" t="n">
-        <v>1.11041</v>
+        <v>1.11024</v>
       </c>
       <c r="F109" t="n">
-        <v>3.02352</v>
+        <v>2.93933</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19891</v>
+        <v>1.18874</v>
       </c>
       <c r="C110" t="n">
-        <v>3.16637</v>
+        <v>3.18532</v>
       </c>
       <c r="D110" t="n">
-        <v>4.03394</v>
+        <v>4.03112</v>
       </c>
       <c r="E110" t="n">
-        <v>1.07671</v>
+        <v>1.07576</v>
       </c>
       <c r="F110" t="n">
-        <v>2.95671</v>
+        <v>2.8868</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.15885</v>
+        <v>1.16982</v>
       </c>
       <c r="C111" t="n">
-        <v>3.12119</v>
+        <v>3.07216</v>
       </c>
       <c r="D111" t="n">
-        <v>3.97346</v>
+        <v>3.98473</v>
       </c>
       <c r="E111" t="n">
-        <v>1.07828</v>
+        <v>1.08731</v>
       </c>
       <c r="F111" t="n">
-        <v>2.88383</v>
+        <v>2.82702</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21287</v>
+        <v>1.1826</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03577</v>
+        <v>3.05974</v>
       </c>
       <c r="D112" t="n">
-        <v>3.81776</v>
+        <v>3.92798</v>
       </c>
       <c r="E112" t="n">
-        <v>1.03821</v>
+        <v>1.05885</v>
       </c>
       <c r="F112" t="n">
-        <v>2.80237</v>
+        <v>2.82262</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15452</v>
+        <v>1.16853</v>
       </c>
       <c r="C113" t="n">
-        <v>2.92887</v>
+        <v>3.01833</v>
       </c>
       <c r="D113" t="n">
-        <v>3.82217</v>
+        <v>3.93205</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06014</v>
+        <v>1.05321</v>
       </c>
       <c r="F113" t="n">
-        <v>2.77718</v>
+        <v>2.73152</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13338</v>
+        <v>1.146</v>
       </c>
       <c r="C114" t="n">
-        <v>2.89287</v>
+        <v>2.94594</v>
       </c>
       <c r="D114" t="n">
-        <v>3.75241</v>
+        <v>3.81822</v>
       </c>
       <c r="E114" t="n">
-        <v>1.03657</v>
+        <v>1.03467</v>
       </c>
       <c r="F114" t="n">
-        <v>2.70805</v>
+        <v>2.63868</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13146</v>
+        <v>1.17967</v>
       </c>
       <c r="C115" t="n">
-        <v>2.84718</v>
+        <v>2.88236</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79704</v>
+        <v>3.84899</v>
       </c>
       <c r="E115" t="n">
-        <v>1.02092</v>
+        <v>1.03184</v>
       </c>
       <c r="F115" t="n">
-        <v>2.6271</v>
+        <v>2.58818</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12971</v>
+        <v>1.11917</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77786</v>
+        <v>2.81029</v>
       </c>
       <c r="D116" t="n">
-        <v>3.69168</v>
+        <v>3.74094</v>
       </c>
       <c r="E116" t="n">
-        <v>1.03554</v>
+        <v>1.04404</v>
       </c>
       <c r="F116" t="n">
-        <v>2.6361</v>
+        <v>2.57983</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12339</v>
+        <v>1.12979</v>
       </c>
       <c r="C117" t="n">
-        <v>2.79024</v>
+        <v>2.80737</v>
       </c>
       <c r="D117" t="n">
-        <v>3.71367</v>
+        <v>3.75949</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9954809999999999</v>
+        <v>1.01702</v>
       </c>
       <c r="F117" t="n">
-        <v>2.58099</v>
+        <v>2.47628</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11776</v>
+        <v>1.1218</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71686</v>
+        <v>2.74812</v>
       </c>
       <c r="D118" t="n">
-        <v>3.69283</v>
+        <v>3.73143</v>
       </c>
       <c r="E118" t="n">
-        <v>0.992196</v>
+        <v>0.991318</v>
       </c>
       <c r="F118" t="n">
-        <v>2.54711</v>
+        <v>2.4312</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09338</v>
+        <v>1.13265</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68757</v>
+        <v>2.68529</v>
       </c>
       <c r="D119" t="n">
-        <v>3.6269</v>
+        <v>3.66811</v>
       </c>
       <c r="E119" t="n">
-        <v>0.972967</v>
+        <v>0.968647</v>
       </c>
       <c r="F119" t="n">
-        <v>2.49096</v>
+        <v>2.43723</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09256</v>
+        <v>1.10289</v>
       </c>
       <c r="C120" t="n">
-        <v>2.68033</v>
+        <v>2.66773</v>
       </c>
       <c r="D120" t="n">
-        <v>3.66707</v>
+        <v>3.64242</v>
       </c>
       <c r="E120" t="n">
-        <v>0.955819</v>
+        <v>1.00592</v>
       </c>
       <c r="F120" t="n">
-        <v>2.43905</v>
+        <v>2.37326</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06892</v>
+        <v>1.10934</v>
       </c>
       <c r="C121" t="n">
-        <v>2.58317</v>
+        <v>2.61569</v>
       </c>
       <c r="D121" t="n">
-        <v>4.92</v>
+        <v>4.99003</v>
       </c>
       <c r="E121" t="n">
-        <v>0.942338</v>
+        <v>0.978549</v>
       </c>
       <c r="F121" t="n">
-        <v>2.38479</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.068</v>
+        <v>1.08514</v>
       </c>
       <c r="C122" t="n">
-        <v>2.53764</v>
+        <v>2.56385</v>
       </c>
       <c r="D122" t="n">
-        <v>4.86322</v>
+        <v>4.92098</v>
       </c>
       <c r="E122" t="n">
-        <v>0.966857</v>
+        <v>0.971723</v>
       </c>
       <c r="F122" t="n">
-        <v>2.37191</v>
+        <v>2.33547</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.04968</v>
+        <v>1.10456</v>
       </c>
       <c r="C123" t="n">
-        <v>2.54877</v>
+        <v>2.57121</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7213</v>
+        <v>4.87244</v>
       </c>
       <c r="E123" t="n">
-        <v>1.30887</v>
+        <v>1.30729</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50769</v>
+        <v>3.47615</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35818</v>
+        <v>1.38459</v>
       </c>
       <c r="C124" t="n">
-        <v>3.73677</v>
+        <v>3.76933</v>
       </c>
       <c r="D124" t="n">
-        <v>4.64294</v>
+        <v>4.71603</v>
       </c>
       <c r="E124" t="n">
-        <v>1.27566</v>
+        <v>1.2763</v>
       </c>
       <c r="F124" t="n">
-        <v>3.43201</v>
+        <v>3.41384</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37653</v>
+        <v>1.39308</v>
       </c>
       <c r="C125" t="n">
-        <v>3.67137</v>
+        <v>3.73969</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56331</v>
+        <v>4.664</v>
       </c>
       <c r="E125" t="n">
-        <v>1.27347</v>
+        <v>1.28587</v>
       </c>
       <c r="F125" t="n">
-        <v>3.38642</v>
+        <v>3.31597</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38882</v>
+        <v>1.40284</v>
       </c>
       <c r="C126" t="n">
-        <v>3.59996</v>
+        <v>3.64217</v>
       </c>
       <c r="D126" t="n">
-        <v>4.47915</v>
+        <v>4.5912</v>
       </c>
       <c r="E126" t="n">
-        <v>1.26625</v>
+        <v>1.27278</v>
       </c>
       <c r="F126" t="n">
-        <v>3.30791</v>
+        <v>3.24886</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.36163</v>
+        <v>1.38153</v>
       </c>
       <c r="C127" t="n">
-        <v>3.5239</v>
+        <v>3.57319</v>
       </c>
       <c r="D127" t="n">
-        <v>4.44651</v>
+        <v>4.51569</v>
       </c>
       <c r="E127" t="n">
-        <v>1.27958</v>
+        <v>1.29075</v>
       </c>
       <c r="F127" t="n">
-        <v>3.2665</v>
+        <v>3.20947</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3884</v>
+        <v>1.3821</v>
       </c>
       <c r="C128" t="n">
-        <v>3.45135</v>
+        <v>3.5017</v>
       </c>
       <c r="D128" t="n">
-        <v>4.33958</v>
+        <v>4.49125</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25306</v>
+        <v>1.25159</v>
       </c>
       <c r="F128" t="n">
-        <v>3.14297</v>
+        <v>3.11786</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33782</v>
+        <v>1.39004</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38374</v>
+        <v>3.41145</v>
       </c>
       <c r="D129" t="n">
-        <v>4.34619</v>
+        <v>4.41031</v>
       </c>
       <c r="E129" t="n">
-        <v>1.22692</v>
+        <v>1.2669</v>
       </c>
       <c r="F129" t="n">
-        <v>3.11412</v>
+        <v>3.0666</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34255</v>
+        <v>1.38909</v>
       </c>
       <c r="C130" t="n">
-        <v>3.32682</v>
+        <v>3.39314</v>
       </c>
       <c r="D130" t="n">
-        <v>4.26369</v>
+        <v>4.33329</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23029</v>
+        <v>1.26315</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05407</v>
+        <v>3.02063</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.34705</v>
+        <v>1.37364</v>
       </c>
       <c r="C131" t="n">
-        <v>3.24149</v>
+        <v>3.30318</v>
       </c>
       <c r="D131" t="n">
-        <v>4.21328</v>
+        <v>4.30122</v>
       </c>
       <c r="E131" t="n">
-        <v>1.22486</v>
+        <v>1.22739</v>
       </c>
       <c r="F131" t="n">
-        <v>3.00662</v>
+        <v>2.9655</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.34786</v>
+        <v>1.38619</v>
       </c>
       <c r="C132" t="n">
-        <v>3.19002</v>
+        <v>3.23748</v>
       </c>
       <c r="D132" t="n">
-        <v>4.17346</v>
+        <v>4.27379</v>
       </c>
       <c r="E132" t="n">
-        <v>1.22998</v>
+        <v>1.24207</v>
       </c>
       <c r="F132" t="n">
-        <v>2.9342</v>
+        <v>2.91172</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35573</v>
+        <v>1.3742</v>
       </c>
       <c r="C133" t="n">
-        <v>3.19156</v>
+        <v>3.19921</v>
       </c>
       <c r="D133" t="n">
-        <v>4.12318</v>
+        <v>4.23752</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22168</v>
+        <v>1.26903</v>
       </c>
       <c r="F133" t="n">
-        <v>2.88114</v>
+        <v>2.87665</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32763</v>
+        <v>1.36897</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06469</v>
+        <v>3.14762</v>
       </c>
       <c r="D134" t="n">
-        <v>4.10213</v>
+        <v>4.18611</v>
       </c>
       <c r="E134" t="n">
-        <v>1.19963</v>
+        <v>1.23874</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87471</v>
+        <v>2.81152</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3329</v>
+        <v>1.37054</v>
       </c>
       <c r="C135" t="n">
-        <v>3.07472</v>
+        <v>3.0809</v>
       </c>
       <c r="D135" t="n">
-        <v>5.62742</v>
+        <v>5.88446</v>
       </c>
       <c r="E135" t="n">
-        <v>1.20226</v>
+        <v>1.25533</v>
       </c>
       <c r="F135" t="n">
-        <v>2.84179</v>
+        <v>2.78665</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33046</v>
+        <v>1.3917</v>
       </c>
       <c r="C136" t="n">
-        <v>3.02955</v>
+        <v>3.10393</v>
       </c>
       <c r="D136" t="n">
-        <v>5.51455</v>
+        <v>5.75398</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21176</v>
+        <v>1.24024</v>
       </c>
       <c r="F136" t="n">
-        <v>2.80574</v>
+        <v>2.75155</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33612</v>
+        <v>1.40155</v>
       </c>
       <c r="C137" t="n">
-        <v>2.975</v>
+        <v>3.02826</v>
       </c>
       <c r="D137" t="n">
-        <v>5.42485</v>
+        <v>5.5462</v>
       </c>
       <c r="E137" t="n">
-        <v>1.54483</v>
+        <v>1.56886</v>
       </c>
       <c r="F137" t="n">
-        <v>4.02145</v>
+        <v>3.9984</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.65707</v>
+        <v>1.68173</v>
       </c>
       <c r="C138" t="n">
-        <v>4.31265</v>
+        <v>4.40389</v>
       </c>
       <c r="D138" t="n">
-        <v>5.30807</v>
+        <v>5.40892</v>
       </c>
       <c r="E138" t="n">
-        <v>1.53946</v>
+        <v>1.54567</v>
       </c>
       <c r="F138" t="n">
-        <v>4.00042</v>
+        <v>3.88709</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.67828</v>
+        <v>1.67422</v>
       </c>
       <c r="C139" t="n">
-        <v>4.23184</v>
+        <v>4.28332</v>
       </c>
       <c r="D139" t="n">
-        <v>5.24287</v>
+        <v>5.37643</v>
       </c>
       <c r="E139" t="n">
-        <v>1.52853</v>
+        <v>1.55023</v>
       </c>
       <c r="F139" t="n">
-        <v>3.84974</v>
+        <v>3.8448</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.65671</v>
+        <v>1.67229</v>
       </c>
       <c r="C140" t="n">
-        <v>4.16214</v>
+        <v>4.193</v>
       </c>
       <c r="D140" t="n">
-        <v>5.1398</v>
+        <v>5.21561</v>
       </c>
       <c r="E140" t="n">
-        <v>1.52128</v>
+        <v>1.54423</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75682</v>
+        <v>3.78006</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66088</v>
+        <v>1.65817</v>
       </c>
       <c r="C141" t="n">
-        <v>4.03287</v>
+        <v>4.11565</v>
       </c>
       <c r="D141" t="n">
-        <v>5.07288</v>
+        <v>5.15012</v>
       </c>
       <c r="E141" t="n">
-        <v>1.52574</v>
+        <v>1.52547</v>
       </c>
       <c r="F141" t="n">
-        <v>3.73907</v>
+        <v>3.66457</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6712</v>
+        <v>1.65085</v>
       </c>
       <c r="C142" t="n">
-        <v>4.00306</v>
+        <v>4.01809</v>
       </c>
       <c r="D142" t="n">
-        <v>4.99523</v>
+        <v>5.07816</v>
       </c>
       <c r="E142" t="n">
-        <v>1.51279</v>
+        <v>1.50546</v>
       </c>
       <c r="F142" t="n">
-        <v>3.63299</v>
+        <v>3.60425</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62617</v>
+        <v>1.64376</v>
       </c>
       <c r="C143" t="n">
-        <v>3.87165</v>
+        <v>3.91547</v>
       </c>
       <c r="D143" t="n">
-        <v>4.89271</v>
+        <v>4.97287</v>
       </c>
       <c r="E143" t="n">
-        <v>1.49163</v>
+        <v>1.53805</v>
       </c>
       <c r="F143" t="n">
-        <v>3.5679</v>
+        <v>3.52838</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575522</v>
+        <v>0.712284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053630000000001</v>
+        <v>1.102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969652</v>
+        <v>1.65845</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317156</v>
+        <v>0.402419</v>
       </c>
       <c r="F2" t="n">
-        <v>0.799504</v>
+        <v>0.807074</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331523</v>
+        <v>0.475407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792357</v>
+        <v>1.09338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95972</v>
+        <v>1.05031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5283870000000001</v>
+        <v>0.307964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.762614</v>
+        <v>0.897698</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.325093</v>
+        <v>0.278785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789855</v>
+        <v>0.853836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980649</v>
+        <v>0.917158</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308835</v>
+        <v>0.406606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754483</v>
+        <v>0.917969</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32818</v>
+        <v>0.478973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786763</v>
+        <v>1.05974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.941376</v>
+        <v>1.07322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307744</v>
+        <v>0.419654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.789703</v>
+        <v>1.08238</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335133</v>
+        <v>0.410288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.798776</v>
+        <v>1.06152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985724</v>
+        <v>0.915498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.305344</v>
+        <v>0.315248</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749701</v>
+        <v>0.747632</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322629</v>
+        <v>0.357167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784904</v>
+        <v>1.0188</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16528</v>
+        <v>1.04455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.304815</v>
+        <v>0.351913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.744746</v>
+        <v>0.760487</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30831</v>
+        <v>0.29622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770539</v>
+        <v>1.04055</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12202</v>
+        <v>1.18991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290588</v>
+        <v>0.424265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.749251</v>
+        <v>1.04498</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307094</v>
+        <v>0.380063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772613</v>
+        <v>1.20548</v>
       </c>
       <c r="D9" t="n">
-        <v>1.09185</v>
+        <v>1.60352</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543091</v>
+        <v>0.643934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.855966</v>
+        <v>0.76002</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556223</v>
+        <v>0.784718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902688</v>
+        <v>1.23506</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07887</v>
+        <v>1.13806</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525743</v>
+        <v>0.49354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.847444</v>
+        <v>1.42974</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553473</v>
+        <v>0.790897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.900881</v>
+        <v>1.38737</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06591</v>
+        <v>1.12656</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510518</v>
+        <v>0.748508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.837014</v>
+        <v>1.07708</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525643</v>
+        <v>0.825883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.871667</v>
+        <v>1.1408</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04819</v>
+        <v>1.29466</v>
       </c>
       <c r="E12" t="n">
-        <v>0.493574</v>
+        <v>0.59784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.838848</v>
+        <v>1.26305</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508463</v>
+        <v>0.64451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854847</v>
+        <v>1.3939</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0537</v>
+        <v>1.30347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.490285</v>
+        <v>0.630051</v>
       </c>
       <c r="F13" t="n">
-        <v>0.813659</v>
+        <v>1.07012</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493829</v>
+        <v>0.549157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.84234</v>
+        <v>0.9757479999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02761</v>
+        <v>1.20111</v>
       </c>
       <c r="E14" t="n">
-        <v>0.464033</v>
+        <v>0.499195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.80908</v>
+        <v>0.861246</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479674</v>
+        <v>0.657237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.836435</v>
+        <v>1.1636</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01782</v>
+        <v>1.53635</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447319</v>
+        <v>0.656982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79615</v>
+        <v>1.44457</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467952</v>
+        <v>0.662102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.822427</v>
+        <v>1.16531</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03369</v>
+        <v>1.19459</v>
       </c>
       <c r="E16" t="n">
-        <v>0.435864</v>
+        <v>0.589425</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794716</v>
+        <v>1.27768</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46037</v>
+        <v>0.69163</v>
       </c>
       <c r="C17" t="n">
-        <v>0.824414</v>
+        <v>0.979514</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03949</v>
+        <v>0.871842</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426453</v>
+        <v>0.392857</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787167</v>
+        <v>1.28533</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459607</v>
+        <v>0.588848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.811786</v>
+        <v>0.836411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.992486</v>
+        <v>0.912928</v>
       </c>
       <c r="E18" t="n">
-        <v>0.415591</v>
+        <v>0.492516</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7799700000000001</v>
+        <v>1.10935</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434457</v>
+        <v>0.598866</v>
       </c>
       <c r="C19" t="n">
-        <v>0.807883</v>
+        <v>1.13786</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988259</v>
+        <v>1.35186</v>
       </c>
       <c r="E19" t="n">
-        <v>0.414061</v>
+        <v>0.639317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.789147</v>
+        <v>0.988024</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42632</v>
+        <v>0.580209</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803764</v>
+        <v>0.953361</v>
       </c>
       <c r="D20" t="n">
-        <v>1.00131</v>
+        <v>1.32832</v>
       </c>
       <c r="E20" t="n">
-        <v>0.403929</v>
+        <v>0.523648</v>
       </c>
       <c r="F20" t="n">
-        <v>0.774707</v>
+        <v>1.17018</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418046</v>
+        <v>0.585861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.799251</v>
+        <v>1.17667</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19295</v>
+        <v>1.54129</v>
       </c>
       <c r="E21" t="n">
-        <v>0.387986</v>
+        <v>0.587277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.767618</v>
+        <v>1.09503</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407915</v>
+        <v>0.629599</v>
       </c>
       <c r="C22" t="n">
-        <v>0.795204</v>
+        <v>1.29234</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16209</v>
+        <v>1.02888</v>
       </c>
       <c r="E22" t="n">
-        <v>0.381444</v>
+        <v>0.5230359999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.763447</v>
+        <v>1.0022</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409988</v>
+        <v>0.648308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.786917</v>
+        <v>0.93096</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14185</v>
+        <v>1.82495</v>
       </c>
       <c r="E23" t="n">
-        <v>0.641595</v>
+        <v>0.664077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.903034</v>
+        <v>1.20122</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65785</v>
+        <v>0.815642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916601</v>
+        <v>1.42862</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13616</v>
+        <v>0.986397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.622939</v>
+        <v>0.742582</v>
       </c>
       <c r="F24" t="n">
-        <v>0.872999</v>
+        <v>1.50649</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641939</v>
+        <v>0.941035</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9161280000000001</v>
+        <v>1.57678</v>
       </c>
       <c r="D25" t="n">
-        <v>1.12062</v>
+        <v>1.05145</v>
       </c>
       <c r="E25" t="n">
-        <v>0.603781</v>
+        <v>0.740889</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8642339999999999</v>
+        <v>1.24449</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621707</v>
+        <v>0.781956</v>
       </c>
       <c r="C26" t="n">
-        <v>0.894818</v>
+        <v>1.55278</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09479</v>
+        <v>1.71931</v>
       </c>
       <c r="E26" t="n">
-        <v>0.585918</v>
+        <v>0.865036</v>
       </c>
       <c r="F26" t="n">
-        <v>0.853728</v>
+        <v>0.967203</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606362</v>
+        <v>0.877443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.894883</v>
+        <v>1.14718</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08143</v>
+        <v>1.53074</v>
       </c>
       <c r="E27" t="n">
-        <v>0.569053</v>
+        <v>0.814679</v>
       </c>
       <c r="F27" t="n">
-        <v>0.843792</v>
+        <v>1.19313</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585933</v>
+        <v>0.664645</v>
       </c>
       <c r="C28" t="n">
-        <v>0.905092</v>
+        <v>1.25581</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07484</v>
+        <v>1.57485</v>
       </c>
       <c r="E28" t="n">
-        <v>0.550386</v>
+        <v>0.641222</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83812</v>
+        <v>1.28644</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569434</v>
+        <v>0.798492</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8822680000000001</v>
+        <v>1.0456</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0797</v>
+        <v>1.25868</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555153</v>
+        <v>0.754647</v>
       </c>
       <c r="F29" t="n">
-        <v>0.831658</v>
+        <v>0.800183</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.549855</v>
+        <v>0.805901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.861896</v>
+        <v>1.33412</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06346</v>
+        <v>1.36762</v>
       </c>
       <c r="E30" t="n">
-        <v>0.524822</v>
+        <v>0.67191</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310340000000001</v>
+        <v>1.37527</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533342</v>
+        <v>0.563303</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846967</v>
+        <v>0.749151</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>0.921199</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4989</v>
+        <v>0.639921</v>
       </c>
       <c r="F31" t="n">
-        <v>0.816196</v>
+        <v>0.659781</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517628</v>
+        <v>0.540072</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839171</v>
+        <v>0.755897</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04283</v>
+        <v>0.854621</v>
       </c>
       <c r="E32" t="n">
-        <v>0.482435</v>
+        <v>0.605334</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8086</v>
+        <v>0.766499</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.502485</v>
+        <v>0.777618</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8315940000000001</v>
+        <v>1.18317</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02947</v>
+        <v>1.59002</v>
       </c>
       <c r="E33" t="n">
-        <v>0.477698</v>
+        <v>0.656017</v>
       </c>
       <c r="F33" t="n">
-        <v>0.818264</v>
+        <v>1.19525</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5064650000000001</v>
+        <v>0.675498</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822991</v>
+        <v>1.20426</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0304</v>
+        <v>1.04406</v>
       </c>
       <c r="E34" t="n">
-        <v>0.474283</v>
+        <v>0.687321</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799172</v>
+        <v>1.23853</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494042</v>
+        <v>0.659776</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845793</v>
+        <v>1.06312</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33836</v>
+        <v>1.63302</v>
       </c>
       <c r="E35" t="n">
-        <v>0.447169</v>
+        <v>0.619537</v>
       </c>
       <c r="F35" t="n">
-        <v>0.786601</v>
+        <v>1.20379</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462297</v>
+        <v>0.677754</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812798</v>
+        <v>1.18945</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31541</v>
+        <v>1.29707</v>
       </c>
       <c r="E36" t="n">
-        <v>0.435134</v>
+        <v>0.603389</v>
       </c>
       <c r="F36" t="n">
-        <v>0.784529</v>
+        <v>0.795785</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453812</v>
+        <v>0.703913</v>
       </c>
       <c r="C37" t="n">
-        <v>0.810837</v>
+        <v>1.27001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23223</v>
+        <v>1.94848</v>
       </c>
       <c r="E37" t="n">
-        <v>0.694879</v>
+        <v>0.99051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96505</v>
+        <v>1.25349</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.717845</v>
+        <v>1.0981</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01755</v>
+        <v>1.19414</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25114</v>
+        <v>1.50719</v>
       </c>
       <c r="E38" t="n">
-        <v>0.672512</v>
+        <v>0.941999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958387</v>
+        <v>1.5876</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.698846</v>
+        <v>1.06184</v>
       </c>
       <c r="C39" t="n">
-        <v>0.98744</v>
+        <v>1.38729</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18862</v>
+        <v>1.48514</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.561654</v>
       </c>
       <c r="F39" t="n">
-        <v>0.940918</v>
+        <v>1.54724</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.668726</v>
+        <v>1.05531</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973736</v>
+        <v>1.46028</v>
       </c>
       <c r="D40" t="n">
-        <v>1.19747</v>
+        <v>1.48655</v>
       </c>
       <c r="E40" t="n">
-        <v>0.628024</v>
+        <v>0.873781</v>
       </c>
       <c r="F40" t="n">
-        <v>0.932982</v>
+        <v>1.26213</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589390000000001</v>
+        <v>1.00148</v>
       </c>
       <c r="C41" t="n">
-        <v>0.964974</v>
+        <v>1.36077</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17228</v>
+        <v>1.77292</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608797</v>
+        <v>0.898393</v>
       </c>
       <c r="F41" t="n">
-        <v>0.92378</v>
+        <v>1.25594</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663308</v>
+        <v>0.851125</v>
       </c>
       <c r="C42" t="n">
-        <v>0.971606</v>
+        <v>1.51874</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16154</v>
+        <v>1.84879</v>
       </c>
       <c r="E42" t="n">
-        <v>0.594526</v>
+        <v>0.630761</v>
       </c>
       <c r="F42" t="n">
-        <v>0.932104</v>
+        <v>1.10059</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.7962129999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96251</v>
+        <v>1.51598</v>
       </c>
       <c r="D43" t="n">
-        <v>1.19951</v>
+        <v>1.771</v>
       </c>
       <c r="E43" t="n">
-        <v>0.584045</v>
+        <v>0.770048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.914353</v>
+        <v>1.40313</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622929</v>
+        <v>0.780215</v>
       </c>
       <c r="C44" t="n">
-        <v>0.934897</v>
+        <v>1.43286</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1691</v>
+        <v>1.72716</v>
       </c>
       <c r="E44" t="n">
-        <v>0.559534</v>
+        <v>0.730619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916623</v>
+        <v>1.43415</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584052</v>
+        <v>0.838314</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937145</v>
+        <v>1.47138</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1278</v>
+        <v>1.81391</v>
       </c>
       <c r="E45" t="n">
-        <v>0.534959</v>
+        <v>0.642942</v>
       </c>
       <c r="F45" t="n">
-        <v>0.877298</v>
+        <v>1.26528</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562038</v>
+        <v>0.81321</v>
       </c>
       <c r="C46" t="n">
-        <v>0.901967</v>
+        <v>1.42632</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13678</v>
+        <v>1.66191</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522519</v>
+        <v>0.679651</v>
       </c>
       <c r="F46" t="n">
-        <v>0.871634</v>
+        <v>1.3315</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.547866</v>
+        <v>0.7374039999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.896132</v>
+        <v>1.11315</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11638</v>
+        <v>1.57455</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.602189</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8663380000000001</v>
+        <v>1.4089</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.533868</v>
+        <v>0.795084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.952105</v>
+        <v>1.30678</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14935</v>
+        <v>1.67801</v>
       </c>
       <c r="E48" t="n">
-        <v>0.492952</v>
+        <v>0.702565</v>
       </c>
       <c r="F48" t="n">
-        <v>0.853775</v>
+        <v>1.35527</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550705</v>
+        <v>0.805985</v>
       </c>
       <c r="C49" t="n">
-        <v>0.881059</v>
+        <v>1.25221</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14003</v>
+        <v>1.43385</v>
       </c>
       <c r="E49" t="n">
-        <v>0.492992</v>
+        <v>0.561321</v>
       </c>
       <c r="F49" t="n">
-        <v>0.848229</v>
+        <v>1.28762</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.510656</v>
+        <v>0.658864</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8820249999999999</v>
+        <v>1.41045</v>
       </c>
       <c r="D50" t="n">
-        <v>1.55129</v>
+        <v>2.10409</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473988</v>
+        <v>0.701539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.858786</v>
+        <v>1.14796</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.496193</v>
+        <v>0.72948</v>
       </c>
       <c r="C51" t="n">
-        <v>0.873503</v>
+        <v>1.35723</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52641</v>
+        <v>1.99131</v>
       </c>
       <c r="E51" t="n">
-        <v>0.738909</v>
+        <v>0.692619</v>
       </c>
       <c r="F51" t="n">
-        <v>1.12309</v>
+        <v>1.62137</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502169</v>
+        <v>0.684259</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8796349999999999</v>
+        <v>1.39113</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50367</v>
+        <v>1.76067</v>
       </c>
       <c r="E52" t="n">
-        <v>0.755392</v>
+        <v>0.786386</v>
       </c>
       <c r="F52" t="n">
-        <v>1.14047</v>
+        <v>1.65479</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.750716</v>
+        <v>0.968562</v>
       </c>
       <c r="C53" t="n">
-        <v>1.16143</v>
+        <v>1.55316</v>
       </c>
       <c r="D53" t="n">
-        <v>1.48263</v>
+        <v>1.9009</v>
       </c>
       <c r="E53" t="n">
-        <v>0.696551</v>
+        <v>0.846594</v>
       </c>
       <c r="F53" t="n">
-        <v>1.09033</v>
+        <v>1.03652</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743347</v>
+        <v>1.05728</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14398</v>
+        <v>1.5953</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45998</v>
+        <v>1.6434</v>
       </c>
       <c r="E54" t="n">
-        <v>0.685972</v>
+        <v>0.872888</v>
       </c>
       <c r="F54" t="n">
-        <v>1.05898</v>
+        <v>1.50102</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.728923</v>
+        <v>0.849591</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12406</v>
+        <v>0.971115</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43352</v>
+        <v>1.72699</v>
       </c>
       <c r="E55" t="n">
-        <v>0.661216</v>
+        <v>0.905219</v>
       </c>
       <c r="F55" t="n">
-        <v>1.10186</v>
+        <v>1.06184</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732407</v>
+        <v>0.989184</v>
       </c>
       <c r="C56" t="n">
-        <v>1.10659</v>
+        <v>1.43154</v>
       </c>
       <c r="D56" t="n">
-        <v>1.47073</v>
+        <v>1.75236</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6419550000000001</v>
+        <v>0.651552</v>
       </c>
       <c r="F56" t="n">
-        <v>1.04177</v>
+        <v>1.50969</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705487</v>
+        <v>0.855575</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09715</v>
+        <v>1.45709</v>
       </c>
       <c r="D57" t="n">
-        <v>1.41985</v>
+        <v>1.82068</v>
       </c>
       <c r="E57" t="n">
-        <v>0.629614</v>
+        <v>0.648553</v>
       </c>
       <c r="F57" t="n">
-        <v>1.07522</v>
+        <v>1.45393</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662017</v>
+        <v>0.971622</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08735</v>
+        <v>1.29799</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43967</v>
+        <v>1.86975</v>
       </c>
       <c r="E58" t="n">
-        <v>0.636605</v>
+        <v>0.738466</v>
       </c>
       <c r="F58" t="n">
-        <v>1.018</v>
+        <v>1.48951</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651039</v>
+        <v>0.861136</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11752</v>
+        <v>1.24956</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4007</v>
+        <v>1.80744</v>
       </c>
       <c r="E59" t="n">
-        <v>0.595773</v>
+        <v>0.736116</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978939999999999</v>
+        <v>1.18751</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63121</v>
+        <v>0.89843</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04912</v>
+        <v>1.37104</v>
       </c>
       <c r="D60" t="n">
-        <v>1.40098</v>
+        <v>1.27626</v>
       </c>
       <c r="E60" t="n">
-        <v>0.582719</v>
+        <v>0.683601</v>
       </c>
       <c r="F60" t="n">
-        <v>0.986106</v>
+        <v>1.26144</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622231</v>
+        <v>0.787381</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04913</v>
+        <v>1.33946</v>
       </c>
       <c r="D61" t="n">
-        <v>1.37008</v>
+        <v>1.7005</v>
       </c>
       <c r="E61" t="n">
-        <v>0.575585</v>
+        <v>0.586348</v>
       </c>
       <c r="F61" t="n">
-        <v>0.96883</v>
+        <v>1.2672</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616518</v>
+        <v>0.65324</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04271</v>
+        <v>1.29378</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36427</v>
+        <v>1.17501</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5587839999999999</v>
+        <v>0.622086</v>
       </c>
       <c r="F62" t="n">
-        <v>0.979374</v>
+        <v>1.08628</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.820199</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02824</v>
+        <v>1.29589</v>
       </c>
       <c r="D63" t="n">
-        <v>1.39039</v>
+        <v>1.51775</v>
       </c>
       <c r="E63" t="n">
-        <v>0.55386</v>
+        <v>0.650446</v>
       </c>
       <c r="F63" t="n">
-        <v>0.964228</v>
+        <v>1.11612</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588021</v>
+        <v>0.850001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00914</v>
+        <v>1.20293</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18386</v>
+        <v>2.02896</v>
       </c>
       <c r="E64" t="n">
-        <v>0.539924</v>
+        <v>0.528172</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9560419999999999</v>
+        <v>1.11855</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.600253</v>
+        <v>0.782582</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00606</v>
+        <v>1.3239</v>
       </c>
       <c r="D65" t="n">
-        <v>2.17801</v>
+        <v>1.74742</v>
       </c>
       <c r="E65" t="n">
-        <v>0.545217</v>
+        <v>0.578427</v>
       </c>
       <c r="F65" t="n">
-        <v>0.94783</v>
+        <v>1.1805</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.566568</v>
+        <v>0.501271</v>
       </c>
       <c r="C66" t="n">
-        <v>0.985808</v>
+        <v>1.12909</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11281</v>
+        <v>1.81066</v>
       </c>
       <c r="E66" t="n">
-        <v>0.81885</v>
+        <v>1.04795</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44796</v>
+        <v>1.22025</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.855712</v>
+        <v>1.22607</v>
       </c>
       <c r="C67" t="n">
-        <v>1.61993</v>
+        <v>1.72688</v>
       </c>
       <c r="D67" t="n">
-        <v>2.07961</v>
+        <v>2.1763</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7895</v>
+        <v>0.985617</v>
       </c>
       <c r="F67" t="n">
-        <v>1.44435</v>
+        <v>1.66259</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.826321</v>
+        <v>1.09972</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53753</v>
+        <v>1.67264</v>
       </c>
       <c r="D68" t="n">
-        <v>2.01927</v>
+        <v>2.00635</v>
       </c>
       <c r="E68" t="n">
-        <v>0.761539</v>
+        <v>0.829942</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3906</v>
+        <v>1.06873</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820931</v>
+        <v>0.925929</v>
       </c>
       <c r="C69" t="n">
-        <v>1.50333</v>
+        <v>1.56738</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98744</v>
+        <v>2.08806</v>
       </c>
       <c r="E69" t="n">
-        <v>0.750139</v>
+        <v>0.921845</v>
       </c>
       <c r="F69" t="n">
-        <v>1.45568</v>
+        <v>1.65621</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785488</v>
+        <v>1.11127</v>
       </c>
       <c r="C70" t="n">
-        <v>1.48528</v>
+        <v>1.46955</v>
       </c>
       <c r="D70" t="n">
-        <v>1.95407</v>
+        <v>2.01693</v>
       </c>
       <c r="E70" t="n">
-        <v>0.755919</v>
+        <v>0.761335</v>
       </c>
       <c r="F70" t="n">
-        <v>1.36953</v>
+        <v>1.42327</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767582</v>
+        <v>1.02363</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47593</v>
+        <v>1.4387</v>
       </c>
       <c r="D71" t="n">
-        <v>1.89446</v>
+        <v>1.91492</v>
       </c>
       <c r="E71" t="n">
-        <v>0.725338</v>
+        <v>0.811302</v>
       </c>
       <c r="F71" t="n">
-        <v>1.39244</v>
+        <v>1.43116</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.754706</v>
+        <v>0.903314</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42182</v>
+        <v>1.43793</v>
       </c>
       <c r="D72" t="n">
-        <v>1.90082</v>
+        <v>1.72851</v>
       </c>
       <c r="E72" t="n">
-        <v>0.711277</v>
+        <v>0.83413</v>
       </c>
       <c r="F72" t="n">
-        <v>1.29699</v>
+        <v>1.45881</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.739498</v>
+        <v>0.9544240000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3781</v>
+        <v>1.20817</v>
       </c>
       <c r="D73" t="n">
-        <v>1.88725</v>
+        <v>1.72873</v>
       </c>
       <c r="E73" t="n">
-        <v>0.69472</v>
+        <v>0.705704</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28711</v>
+        <v>1.44737</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.719116</v>
+        <v>1.02662</v>
       </c>
       <c r="C74" t="n">
-        <v>1.37769</v>
+        <v>1.2662</v>
       </c>
       <c r="D74" t="n">
-        <v>1.94243</v>
+        <v>1.85923</v>
       </c>
       <c r="E74" t="n">
-        <v>0.709723</v>
+        <v>0.744648</v>
       </c>
       <c r="F74" t="n">
-        <v>1.24653</v>
+        <v>1.44404</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.709191</v>
+        <v>0.765637</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3371</v>
+        <v>1.37898</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89602</v>
+        <v>1.94083</v>
       </c>
       <c r="E75" t="n">
-        <v>0.650394</v>
+        <v>0.792959</v>
       </c>
       <c r="F75" t="n">
-        <v>1.23326</v>
+        <v>1.4238</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723523</v>
+        <v>0.904528</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33242</v>
+        <v>1.45851</v>
       </c>
       <c r="D76" t="n">
-        <v>1.90883</v>
+        <v>1.38275</v>
       </c>
       <c r="E76" t="n">
-        <v>0.633501</v>
+        <v>0.587345</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21796</v>
+        <v>1.33907</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678826</v>
+        <v>0.877633</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28752</v>
+        <v>1.21732</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83466</v>
+        <v>1.69555</v>
       </c>
       <c r="E77" t="n">
-        <v>0.625237</v>
+        <v>0.645585</v>
       </c>
       <c r="F77" t="n">
-        <v>1.20719</v>
+        <v>1.53221</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677021</v>
+        <v>0.888111</v>
       </c>
       <c r="C78" t="n">
-        <v>1.29882</v>
+        <v>1.36098</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0562</v>
+        <v>2.33261</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618597</v>
+        <v>0.5733200000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1.18868</v>
+        <v>1.24776</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6711279999999999</v>
+        <v>0.865035</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27231</v>
+        <v>1.43388</v>
       </c>
       <c r="D79" t="n">
-        <v>2.94618</v>
+        <v>2.28092</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611275</v>
+        <v>0.697488</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17615</v>
+        <v>1.21926</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653607</v>
+        <v>0.752884</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25454</v>
+        <v>1.52976</v>
       </c>
       <c r="D80" t="n">
-        <v>2.90944</v>
+        <v>2.53756</v>
       </c>
       <c r="E80" t="n">
-        <v>0.915427</v>
+        <v>0.866649</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98089</v>
+        <v>1.37981</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.968063</v>
+        <v>1.17553</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14213</v>
+        <v>1.71369</v>
       </c>
       <c r="D81" t="n">
-        <v>3.00928</v>
+        <v>2.44693</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8984839999999999</v>
+        <v>1.01227</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94384</v>
+        <v>1.52051</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943176</v>
+        <v>1.06199</v>
       </c>
       <c r="C82" t="n">
-        <v>2.07147</v>
+        <v>1.94459</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91159</v>
+        <v>1.69371</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.985532</v>
       </c>
       <c r="F82" t="n">
-        <v>1.90613</v>
+        <v>1.49473</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.965661</v>
+        <v>1.09381</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04059</v>
+        <v>1.72989</v>
       </c>
       <c r="D83" t="n">
-        <v>2.7523</v>
+        <v>2.19113</v>
       </c>
       <c r="E83" t="n">
-        <v>0.852823</v>
+        <v>0.896939</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85847</v>
+        <v>1.56192</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.912673</v>
+        <v>1.15299</v>
       </c>
       <c r="C84" t="n">
-        <v>1.96099</v>
+        <v>1.91557</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75311</v>
+        <v>2.24456</v>
       </c>
       <c r="E84" t="n">
-        <v>0.828427</v>
+        <v>0.845678</v>
       </c>
       <c r="F84" t="n">
-        <v>1.82706</v>
+        <v>1.5176</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914069</v>
+        <v>1.14847</v>
       </c>
       <c r="C85" t="n">
-        <v>1.96364</v>
+        <v>1.89491</v>
       </c>
       <c r="D85" t="n">
-        <v>2.66794</v>
+        <v>2.02069</v>
       </c>
       <c r="E85" t="n">
-        <v>0.812127</v>
+        <v>0.881027</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75396</v>
+        <v>1.41451</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873924</v>
+        <v>0.95586</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89425</v>
+        <v>1.75729</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7381</v>
+        <v>1.85463</v>
       </c>
       <c r="E86" t="n">
-        <v>0.792926</v>
+        <v>0.877903</v>
       </c>
       <c r="F86" t="n">
-        <v>1.73693</v>
+        <v>1.7867</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851912</v>
+        <v>1.06139</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90181</v>
+        <v>1.78295</v>
       </c>
       <c r="D87" t="n">
-        <v>2.60488</v>
+        <v>1.59175</v>
       </c>
       <c r="E87" t="n">
-        <v>0.774383</v>
+        <v>0.839777</v>
       </c>
       <c r="F87" t="n">
-        <v>1.67721</v>
+        <v>1.58341</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.839299</v>
+        <v>0.833934</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81521</v>
+        <v>1.477</v>
       </c>
       <c r="D88" t="n">
-        <v>2.5833</v>
+        <v>1.78955</v>
       </c>
       <c r="E88" t="n">
-        <v>0.776703</v>
+        <v>0.770586</v>
       </c>
       <c r="F88" t="n">
-        <v>1.68596</v>
+        <v>1.48433</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833472</v>
+        <v>0.771407</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79135</v>
+        <v>1.19469</v>
       </c>
       <c r="D89" t="n">
-        <v>2.61921</v>
+        <v>2.35915</v>
       </c>
       <c r="E89" t="n">
-        <v>0.74326</v>
+        <v>0.833735</v>
       </c>
       <c r="F89" t="n">
-        <v>1.60696</v>
+        <v>1.44832</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813693</v>
+        <v>1.05154</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76818</v>
+        <v>1.55965</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60431</v>
+        <v>1.90868</v>
       </c>
       <c r="E90" t="n">
-        <v>0.73038</v>
+        <v>0.727232</v>
       </c>
       <c r="F90" t="n">
-        <v>1.59092</v>
+        <v>1.44945</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795088</v>
+        <v>1.01525</v>
       </c>
       <c r="C91" t="n">
-        <v>1.72242</v>
+        <v>1.4903</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59823</v>
+        <v>2.03443</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733428</v>
+        <v>0.667426</v>
       </c>
       <c r="F91" t="n">
-        <v>1.57273</v>
+        <v>1.36151</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.768605</v>
+        <v>0.976554</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67462</v>
+        <v>1.42503</v>
       </c>
       <c r="D92" t="n">
-        <v>3.57596</v>
+        <v>2.86198</v>
       </c>
       <c r="E92" t="n">
-        <v>0.71538</v>
+        <v>0.587376</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52747</v>
+        <v>1.57041</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769192</v>
+        <v>0.879675</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65008</v>
+        <v>1.4544</v>
       </c>
       <c r="D93" t="n">
-        <v>3.53769</v>
+        <v>2.98262</v>
       </c>
       <c r="E93" t="n">
-        <v>0.726693</v>
+        <v>0.7434269999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>1.54553</v>
+        <v>1.56157</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771715</v>
+        <v>0.858768</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62698</v>
+        <v>1.48759</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5332</v>
+        <v>2.82997</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02169</v>
+        <v>0.800628</v>
       </c>
       <c r="F94" t="n">
-        <v>2.50487</v>
+        <v>2.05202</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08418</v>
+        <v>1.20888</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74023</v>
+        <v>2.02831</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5124</v>
+        <v>2.57809</v>
       </c>
       <c r="E95" t="n">
-        <v>1.00679</v>
+        <v>0.9441659999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>2.48916</v>
+        <v>1.64415</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06575</v>
+        <v>1.30298</v>
       </c>
       <c r="C96" t="n">
-        <v>2.74851</v>
+        <v>2.11475</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31612</v>
+        <v>2.97178</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989348</v>
+        <v>0.9919519999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>2.35096</v>
+        <v>1.93825</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04285</v>
+        <v>1.30434</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55837</v>
+        <v>2.16491</v>
       </c>
       <c r="D97" t="n">
-        <v>3.32588</v>
+        <v>2.75405</v>
       </c>
       <c r="E97" t="n">
-        <v>0.975986</v>
+        <v>0.9471580000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>2.37816</v>
+        <v>1.8439</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00602</v>
+        <v>1.17194</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49865</v>
+        <v>2.1285</v>
       </c>
       <c r="D98" t="n">
-        <v>3.39154</v>
+        <v>2.6342</v>
       </c>
       <c r="E98" t="n">
-        <v>0.931532</v>
+        <v>0.851074</v>
       </c>
       <c r="F98" t="n">
-        <v>2.30082</v>
+        <v>1.98369</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01178</v>
+        <v>1.28088</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46171</v>
+        <v>2.05712</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28686</v>
+        <v>2.62152</v>
       </c>
       <c r="E99" t="n">
-        <v>0.928202</v>
+        <v>0.887956</v>
       </c>
       <c r="F99" t="n">
-        <v>2.20199</v>
+        <v>1.67794</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00205</v>
+        <v>1.01894</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40753</v>
+        <v>2.00532</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14925</v>
+        <v>2.5932</v>
       </c>
       <c r="E100" t="n">
-        <v>0.896126</v>
+        <v>1.021</v>
       </c>
       <c r="F100" t="n">
-        <v>2.18158</v>
+        <v>1.77802</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971307</v>
+        <v>1.03331</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33332</v>
+        <v>2.13416</v>
       </c>
       <c r="D101" t="n">
-        <v>3.27451</v>
+        <v>2.65949</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.965494</v>
       </c>
       <c r="F101" t="n">
-        <v>2.11107</v>
+        <v>1.95879</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953824</v>
+        <v>0.830419</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29159</v>
+        <v>1.91465</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1488</v>
+        <v>2.34616</v>
       </c>
       <c r="E102" t="n">
-        <v>0.851868</v>
+        <v>0.86164</v>
       </c>
       <c r="F102" t="n">
-        <v>2.06372</v>
+        <v>1.70128</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932949</v>
+        <v>1.01899</v>
       </c>
       <c r="C103" t="n">
-        <v>2.21041</v>
+        <v>2.13508</v>
       </c>
       <c r="D103" t="n">
-        <v>3.05602</v>
+        <v>2.63691</v>
       </c>
       <c r="E103" t="n">
-        <v>0.867088</v>
+        <v>0.827685</v>
       </c>
       <c r="F103" t="n">
-        <v>2.01796</v>
+        <v>1.72018</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9299809999999999</v>
+        <v>1.07524</v>
       </c>
       <c r="C104" t="n">
-        <v>2.161</v>
+        <v>1.73055</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06156</v>
+        <v>2.59342</v>
       </c>
       <c r="E104" t="n">
-        <v>0.843205</v>
+        <v>0.883153</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9756</v>
+        <v>1.72443</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.93072</v>
+        <v>1.05234</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14861</v>
+        <v>1.79575</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05091</v>
+        <v>2.53143</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841862</v>
+        <v>0.88772</v>
       </c>
       <c r="F105" t="n">
-        <v>1.95348</v>
+        <v>1.92136</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90806</v>
+        <v>1.22173</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08289</v>
+        <v>1.79539</v>
       </c>
       <c r="D106" t="n">
-        <v>3.06286</v>
+        <v>2.54628</v>
       </c>
       <c r="E106" t="n">
-        <v>0.809347</v>
+        <v>0.718985</v>
       </c>
       <c r="F106" t="n">
-        <v>1.95531</v>
+        <v>1.54976</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923753</v>
+        <v>1.25351</v>
       </c>
       <c r="C107" t="n">
-        <v>2.13231</v>
+        <v>1.82054</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25392</v>
+        <v>3.48606</v>
       </c>
       <c r="E107" t="n">
-        <v>0.823731</v>
+        <v>0.768695</v>
       </c>
       <c r="F107" t="n">
-        <v>1.94767</v>
+        <v>1.65287</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.900423</v>
+        <v>1.18653</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09289</v>
+        <v>1.87954</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10799</v>
+        <v>3.23183</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14817</v>
+        <v>1.09836</v>
       </c>
       <c r="F108" t="n">
-        <v>3.04966</v>
+        <v>2.45563</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872599</v>
+        <v>1.11083</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05056</v>
+        <v>2.0046</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01272</v>
+        <v>3.03859</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12126</v>
+        <v>1.13276</v>
       </c>
       <c r="F109" t="n">
-        <v>2.96604</v>
+        <v>2.51178</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19757</v>
+        <v>1.46612</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17492</v>
+        <v>2.56933</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97299</v>
+        <v>2.93832</v>
       </c>
       <c r="E110" t="n">
-        <v>1.08534</v>
+        <v>1.21871</v>
       </c>
       <c r="F110" t="n">
-        <v>2.869</v>
+        <v>2.15064</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16604</v>
+        <v>1.34847</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13645</v>
+        <v>2.54098</v>
       </c>
       <c r="D111" t="n">
-        <v>3.95988</v>
+        <v>3.0051</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12159</v>
+        <v>1.05004</v>
       </c>
       <c r="F111" t="n">
-        <v>2.83422</v>
+        <v>2.18065</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14753</v>
+        <v>1.32653</v>
       </c>
       <c r="C112" t="n">
-        <v>3.03503</v>
+        <v>2.59942</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93714</v>
+        <v>3.14874</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11134</v>
+        <v>1.16337</v>
       </c>
       <c r="F112" t="n">
-        <v>2.82322</v>
+        <v>2.11074</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15598</v>
+        <v>1.24331</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00706</v>
+        <v>2.47979</v>
       </c>
       <c r="D113" t="n">
-        <v>3.81217</v>
+        <v>2.76114</v>
       </c>
       <c r="E113" t="n">
-        <v>1.06255</v>
+        <v>0.966955</v>
       </c>
       <c r="F113" t="n">
-        <v>2.72726</v>
+        <v>1.96594</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14981</v>
+        <v>1.21079</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97442</v>
+        <v>2.02207</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83608</v>
+        <v>2.83032</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07588</v>
+        <v>1.05903</v>
       </c>
       <c r="F114" t="n">
-        <v>2.68609</v>
+        <v>2.07544</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13566</v>
+        <v>1.28452</v>
       </c>
       <c r="C115" t="n">
-        <v>2.91551</v>
+        <v>2.51656</v>
       </c>
       <c r="D115" t="n">
-        <v>3.79197</v>
+        <v>3.28561</v>
       </c>
       <c r="E115" t="n">
-        <v>1.05717</v>
+        <v>1.09428</v>
       </c>
       <c r="F115" t="n">
-        <v>2.60336</v>
+        <v>1.95077</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14858</v>
+        <v>1.35131</v>
       </c>
       <c r="C116" t="n">
-        <v>2.81258</v>
+        <v>2.30691</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70405</v>
+        <v>3.11369</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02575</v>
+        <v>0.9883960000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>2.54748</v>
+        <v>1.99537</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1213</v>
+        <v>1.23272</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78248</v>
+        <v>2.11618</v>
       </c>
       <c r="D117" t="n">
-        <v>3.69834</v>
+        <v>3.01464</v>
       </c>
       <c r="E117" t="n">
-        <v>1.00789</v>
+        <v>1.03441</v>
       </c>
       <c r="F117" t="n">
-        <v>2.47251</v>
+        <v>2.04807</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09157</v>
+        <v>1.3194</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76407</v>
+        <v>2.00508</v>
       </c>
       <c r="D118" t="n">
-        <v>3.6886</v>
+        <v>2.69677</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00685</v>
+        <v>0.956894</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43947</v>
+        <v>1.83733</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10224</v>
+        <v>1.28363</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68266</v>
+        <v>2.3171</v>
       </c>
       <c r="D119" t="n">
-        <v>3.64735</v>
+        <v>3.04128</v>
       </c>
       <c r="E119" t="n">
-        <v>1.00353</v>
+        <v>1.1066</v>
       </c>
       <c r="F119" t="n">
-        <v>2.40417</v>
+        <v>1.924</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08016</v>
+        <v>1.32688</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59859</v>
+        <v>2.08851</v>
       </c>
       <c r="D120" t="n">
-        <v>3.60918</v>
+        <v>3.13844</v>
       </c>
       <c r="E120" t="n">
-        <v>0.984764</v>
+        <v>0.886544</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36724</v>
+        <v>1.92664</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08303</v>
+        <v>1.32958</v>
       </c>
       <c r="C121" t="n">
-        <v>2.55278</v>
+        <v>2.10941</v>
       </c>
       <c r="D121" t="n">
-        <v>4.93811</v>
+        <v>3.90451</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9731919999999999</v>
+        <v>0.918196</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33548</v>
+        <v>1.89588</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07829</v>
+        <v>1.15184</v>
       </c>
       <c r="C122" t="n">
-        <v>2.55719</v>
+        <v>2.08214</v>
       </c>
       <c r="D122" t="n">
-        <v>4.80853</v>
+        <v>3.89503</v>
       </c>
       <c r="E122" t="n">
-        <v>0.958604</v>
+        <v>1.02596</v>
       </c>
       <c r="F122" t="n">
-        <v>2.33322</v>
+        <v>1.92377</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0742</v>
+        <v>1.27974</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52484</v>
+        <v>2.07942</v>
       </c>
       <c r="D123" t="n">
-        <v>4.7414</v>
+        <v>3.73965</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29905</v>
+        <v>1.22864</v>
       </c>
       <c r="F123" t="n">
-        <v>3.51166</v>
+        <v>2.20433</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37985</v>
+        <v>1.52089</v>
       </c>
       <c r="C124" t="n">
-        <v>3.75171</v>
+        <v>2.81451</v>
       </c>
       <c r="D124" t="n">
-        <v>4.71081</v>
+        <v>3.92051</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3021</v>
+        <v>1.26037</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38121</v>
+        <v>2.58096</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38717</v>
+        <v>1.55149</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63345</v>
+        <v>2.74325</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56309</v>
+        <v>3.68923</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28362</v>
+        <v>1.33529</v>
       </c>
       <c r="F125" t="n">
-        <v>3.29702</v>
+        <v>2.62167</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38422</v>
+        <v>1.51559</v>
       </c>
       <c r="C126" t="n">
-        <v>3.63492</v>
+        <v>2.9236</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55072</v>
+        <v>3.64605</v>
       </c>
       <c r="E126" t="n">
-        <v>1.28218</v>
+        <v>1.21899</v>
       </c>
       <c r="F126" t="n">
-        <v>3.26696</v>
+        <v>2.24019</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39177</v>
+        <v>1.52143</v>
       </c>
       <c r="C127" t="n">
-        <v>3.52019</v>
+        <v>2.75773</v>
       </c>
       <c r="D127" t="n">
-        <v>4.47824</v>
+        <v>3.49928</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2695</v>
+        <v>1.245</v>
       </c>
       <c r="F127" t="n">
-        <v>3.18236</v>
+        <v>2.38281</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.34421</v>
+        <v>1.54899</v>
       </c>
       <c r="C128" t="n">
-        <v>3.41867</v>
+        <v>2.65016</v>
       </c>
       <c r="D128" t="n">
-        <v>4.41536</v>
+        <v>3.462</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27759</v>
+        <v>1.24164</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11321</v>
+        <v>2.2766</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35125</v>
+        <v>1.43234</v>
       </c>
       <c r="C129" t="n">
-        <v>3.38055</v>
+        <v>2.81024</v>
       </c>
       <c r="D129" t="n">
-        <v>4.35577</v>
+        <v>3.64291</v>
       </c>
       <c r="E129" t="n">
-        <v>1.23558</v>
+        <v>1.19988</v>
       </c>
       <c r="F129" t="n">
-        <v>3.04803</v>
+        <v>2.2944</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36445</v>
+        <v>1.49691</v>
       </c>
       <c r="C130" t="n">
-        <v>3.30338</v>
+        <v>2.64085</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2794</v>
+        <v>3.5574</v>
       </c>
       <c r="E130" t="n">
-        <v>1.241</v>
+        <v>1.09296</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00293</v>
+        <v>2.17178</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3557</v>
+        <v>1.54033</v>
       </c>
       <c r="C131" t="n">
-        <v>3.30477</v>
+        <v>2.66848</v>
       </c>
       <c r="D131" t="n">
-        <v>4.25215</v>
+        <v>3.48909</v>
       </c>
       <c r="E131" t="n">
-        <v>1.256</v>
+        <v>1.04445</v>
       </c>
       <c r="F131" t="n">
-        <v>2.98108</v>
+        <v>2.39055</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35459</v>
+        <v>1.47576</v>
       </c>
       <c r="C132" t="n">
-        <v>3.21955</v>
+        <v>2.44107</v>
       </c>
       <c r="D132" t="n">
-        <v>4.22341</v>
+        <v>3.19895</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24739</v>
+        <v>1.05675</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88349</v>
+        <v>2.24037</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32891</v>
+        <v>1.43747</v>
       </c>
       <c r="C133" t="n">
-        <v>3.15426</v>
+        <v>2.56293</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2413</v>
+        <v>3.48756</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23362</v>
+        <v>1.20951</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84003</v>
+        <v>2.31402</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31717</v>
+        <v>1.36016</v>
       </c>
       <c r="C134" t="n">
-        <v>3.13424</v>
+        <v>2.45346</v>
       </c>
       <c r="D134" t="n">
-        <v>4.18816</v>
+        <v>3.52301</v>
       </c>
       <c r="E134" t="n">
-        <v>1.22683</v>
+        <v>1.14659</v>
       </c>
       <c r="F134" t="n">
-        <v>2.81872</v>
+        <v>2.14854</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39006</v>
+        <v>1.3558</v>
       </c>
       <c r="C135" t="n">
-        <v>3.08058</v>
+        <v>2.55724</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67468</v>
+        <v>4.30474</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25035</v>
+        <v>1.20405</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75636</v>
+        <v>2.22613</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32544</v>
+        <v>1.45421</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06988</v>
+        <v>2.61631</v>
       </c>
       <c r="D136" t="n">
-        <v>5.60148</v>
+        <v>4.23546</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21942</v>
+        <v>1.17176</v>
       </c>
       <c r="F136" t="n">
-        <v>2.72918</v>
+        <v>2.15286</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35621</v>
+        <v>1.31771</v>
       </c>
       <c r="C137" t="n">
-        <v>3.00577</v>
+        <v>2.45278</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44151</v>
+        <v>3.93076</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57894</v>
+        <v>1.41465</v>
       </c>
       <c r="F137" t="n">
-        <v>4.00985</v>
+        <v>2.67901</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.67963</v>
+        <v>1.7536</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34988</v>
+        <v>3.24707</v>
       </c>
       <c r="D138" t="n">
-        <v>5.3562</v>
+        <v>3.97566</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57405</v>
+        <v>1.39994</v>
       </c>
       <c r="F138" t="n">
-        <v>3.89679</v>
+        <v>2.6885</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64808</v>
+        <v>1.73541</v>
       </c>
       <c r="C139" t="n">
-        <v>4.25406</v>
+        <v>3.10201</v>
       </c>
       <c r="D139" t="n">
-        <v>5.26764</v>
+        <v>3.70528</v>
       </c>
       <c r="E139" t="n">
-        <v>1.55706</v>
+        <v>1.34699</v>
       </c>
       <c r="F139" t="n">
-        <v>3.83266</v>
+        <v>2.79774</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.67247</v>
+        <v>1.6154</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18962</v>
+        <v>3.12131</v>
       </c>
       <c r="D140" t="n">
-        <v>5.16642</v>
+        <v>3.96809</v>
       </c>
       <c r="E140" t="n">
-        <v>1.53212</v>
+        <v>1.09983</v>
       </c>
       <c r="F140" t="n">
-        <v>3.75824</v>
+        <v>2.64334</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63474</v>
+        <v>1.67014</v>
       </c>
       <c r="C141" t="n">
-        <v>4.09438</v>
+        <v>3.18913</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06514</v>
+        <v>3.80638</v>
       </c>
       <c r="E141" t="n">
-        <v>1.53172</v>
+        <v>1.26069</v>
       </c>
       <c r="F141" t="n">
-        <v>3.63691</v>
+        <v>2.76695</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65906</v>
+        <v>1.49006</v>
       </c>
       <c r="C142" t="n">
-        <v>3.98981</v>
+        <v>3.1046</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0716</v>
+        <v>3.54975</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53279</v>
+        <v>1.33922</v>
       </c>
       <c r="F142" t="n">
-        <v>3.60441</v>
+        <v>2.77404</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64625</v>
+        <v>1.57685</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92156</v>
+        <v>2.69336</v>
       </c>
       <c r="D143" t="n">
-        <v>4.91479</v>
+        <v>3.88017</v>
       </c>
       <c r="E143" t="n">
-        <v>1.52123</v>
+        <v>1.39074</v>
       </c>
       <c r="F143" t="n">
-        <v>3.49577</v>
+        <v>2.73381</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.712284</v>
+        <v>0.797312</v>
       </c>
       <c r="C2" t="n">
-        <v>1.102</v>
+        <v>1.07208</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65845</v>
+        <v>0.710632</v>
       </c>
       <c r="E2" t="n">
-        <v>0.402419</v>
+        <v>0.246338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.807074</v>
+        <v>0.600084</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.475407</v>
+        <v>0.258803</v>
       </c>
       <c r="C3" t="n">
-        <v>1.09338</v>
+        <v>0.866757</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05031</v>
+        <v>1.20655</v>
       </c>
       <c r="E3" t="n">
-        <v>0.307964</v>
+        <v>0.6233610000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.897698</v>
+        <v>0.731195</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278785</v>
+        <v>0.553442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.853836</v>
+        <v>1.55678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.917158</v>
+        <v>1.66202</v>
       </c>
       <c r="E4" t="n">
-        <v>0.406606</v>
+        <v>0.455076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.917969</v>
+        <v>1.25466</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.478973</v>
+        <v>0.548391</v>
       </c>
       <c r="C5" t="n">
-        <v>1.05974</v>
+        <v>1.30906</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07322</v>
+        <v>1.19599</v>
       </c>
       <c r="E5" t="n">
-        <v>0.419654</v>
+        <v>0.488054</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08238</v>
+        <v>1.20358</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410288</v>
+        <v>0.480005</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06152</v>
+        <v>1.2007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.915498</v>
+        <v>1.38188</v>
       </c>
       <c r="E6" t="n">
-        <v>0.315248</v>
+        <v>0.400038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.747632</v>
+        <v>1.36579</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357167</v>
+        <v>0.505986</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0188</v>
+        <v>1.15801</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04455</v>
+        <v>1.63974</v>
       </c>
       <c r="E7" t="n">
-        <v>0.351913</v>
+        <v>0.492472</v>
       </c>
       <c r="F7" t="n">
-        <v>0.760487</v>
+        <v>1.05968</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.29622</v>
+        <v>0.5053029999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.04055</v>
+        <v>1.27724</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18991</v>
+        <v>1.46623</v>
       </c>
       <c r="E8" t="n">
-        <v>0.424265</v>
+        <v>0.477978</v>
       </c>
       <c r="F8" t="n">
-        <v>1.04498</v>
+        <v>1.27296</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.380063</v>
+        <v>0.429095</v>
       </c>
       <c r="C9" t="n">
-        <v>1.20548</v>
+        <v>1.26246</v>
       </c>
       <c r="D9" t="n">
-        <v>1.60352</v>
+        <v>1.70636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.643934</v>
+        <v>0.686034</v>
       </c>
       <c r="F9" t="n">
-        <v>0.76002</v>
+        <v>1.04285</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.784718</v>
+        <v>0.555651</v>
       </c>
       <c r="C10" t="n">
-        <v>1.23506</v>
+        <v>0.773643</v>
       </c>
       <c r="D10" t="n">
-        <v>1.13806</v>
+        <v>0.96656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.49354</v>
+        <v>0.7535770000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1.42974</v>
+        <v>1.55832</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.790897</v>
+        <v>0.739219</v>
       </c>
       <c r="C11" t="n">
-        <v>1.38737</v>
+        <v>1.41308</v>
       </c>
       <c r="D11" t="n">
-        <v>1.12656</v>
+        <v>1.60902</v>
       </c>
       <c r="E11" t="n">
-        <v>0.748508</v>
+        <v>0.777089</v>
       </c>
       <c r="F11" t="n">
-        <v>1.07708</v>
+        <v>0.6800119999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.825883</v>
+        <v>0.530704</v>
       </c>
       <c r="C12" t="n">
-        <v>1.1408</v>
+        <v>1.02931</v>
       </c>
       <c r="D12" t="n">
-        <v>1.29466</v>
+        <v>1.19446</v>
       </c>
       <c r="E12" t="n">
-        <v>0.59784</v>
+        <v>0.618496</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26305</v>
+        <v>0.865363</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.64451</v>
+        <v>0.583334</v>
       </c>
       <c r="C13" t="n">
-        <v>1.3939</v>
+        <v>1.2122</v>
       </c>
       <c r="D13" t="n">
-        <v>1.30347</v>
+        <v>0.857376</v>
       </c>
       <c r="E13" t="n">
-        <v>0.630051</v>
+        <v>0.576008</v>
       </c>
       <c r="F13" t="n">
-        <v>1.07012</v>
+        <v>0.744233</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.549157</v>
+        <v>0.5756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9757479999999999</v>
+        <v>0.908775</v>
       </c>
       <c r="D14" t="n">
-        <v>1.20111</v>
+        <v>1.26515</v>
       </c>
       <c r="E14" t="n">
-        <v>0.499195</v>
+        <v>0.535241</v>
       </c>
       <c r="F14" t="n">
-        <v>0.861246</v>
+        <v>1.3397</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.657237</v>
+        <v>0.634351</v>
       </c>
       <c r="C15" t="n">
-        <v>1.1636</v>
+        <v>1.29277</v>
       </c>
       <c r="D15" t="n">
-        <v>1.53635</v>
+        <v>1.11289</v>
       </c>
       <c r="E15" t="n">
-        <v>0.656982</v>
+        <v>0.500126</v>
       </c>
       <c r="F15" t="n">
-        <v>1.44457</v>
+        <v>0.8879899999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.662102</v>
+        <v>0.395904</v>
       </c>
       <c r="C16" t="n">
-        <v>1.16531</v>
+        <v>1.23978</v>
       </c>
       <c r="D16" t="n">
-        <v>1.19459</v>
+        <v>1.03122</v>
       </c>
       <c r="E16" t="n">
-        <v>0.589425</v>
+        <v>0.519719</v>
       </c>
       <c r="F16" t="n">
-        <v>1.27768</v>
+        <v>1.32636</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.69163</v>
+        <v>0.560144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.979514</v>
+        <v>1.0655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.871842</v>
+        <v>1.70991</v>
       </c>
       <c r="E17" t="n">
-        <v>0.392857</v>
+        <v>0.493768</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28533</v>
+        <v>0.843777</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.588848</v>
+        <v>0.547096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.836411</v>
+        <v>1.04763</v>
       </c>
       <c r="D18" t="n">
-        <v>0.912928</v>
+        <v>1.079</v>
       </c>
       <c r="E18" t="n">
-        <v>0.492516</v>
+        <v>0.516613</v>
       </c>
       <c r="F18" t="n">
-        <v>1.10935</v>
+        <v>1.07173</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.598866</v>
+        <v>0.689338</v>
       </c>
       <c r="C19" t="n">
-        <v>1.13786</v>
+        <v>1.02531</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35186</v>
+        <v>1.67506</v>
       </c>
       <c r="E19" t="n">
-        <v>0.639317</v>
+        <v>0.587111</v>
       </c>
       <c r="F19" t="n">
-        <v>0.988024</v>
+        <v>1.25986</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.580209</v>
+        <v>0.652838</v>
       </c>
       <c r="C20" t="n">
-        <v>0.953361</v>
+        <v>1.17538</v>
       </c>
       <c r="D20" t="n">
-        <v>1.32832</v>
+        <v>1.45937</v>
       </c>
       <c r="E20" t="n">
-        <v>0.523648</v>
+        <v>0.4713</v>
       </c>
       <c r="F20" t="n">
-        <v>1.17018</v>
+        <v>0.861545</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.585861</v>
+        <v>0.556119</v>
       </c>
       <c r="C21" t="n">
-        <v>1.17667</v>
+        <v>1.17988</v>
       </c>
       <c r="D21" t="n">
-        <v>1.54129</v>
+        <v>1.24586</v>
       </c>
       <c r="E21" t="n">
-        <v>0.587277</v>
+        <v>0.380096</v>
       </c>
       <c r="F21" t="n">
-        <v>1.09503</v>
+        <v>1.01882</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.629599</v>
+        <v>0.473576</v>
       </c>
       <c r="C22" t="n">
-        <v>1.29234</v>
+        <v>1.35137</v>
       </c>
       <c r="D22" t="n">
-        <v>1.02888</v>
+        <v>1.67119</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5230359999999999</v>
+        <v>0.602144</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0022</v>
+        <v>0.976199</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.648308</v>
+        <v>0.443054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.93096</v>
+        <v>0.938536</v>
       </c>
       <c r="D23" t="n">
-        <v>1.82495</v>
+        <v>1.02449</v>
       </c>
       <c r="E23" t="n">
-        <v>0.664077</v>
+        <v>0.817936</v>
       </c>
       <c r="F23" t="n">
-        <v>1.20122</v>
+        <v>1.26137</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.815642</v>
+        <v>0.981472</v>
       </c>
       <c r="C24" t="n">
-        <v>1.42862</v>
+        <v>1.28277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.986397</v>
+        <v>1.58223</v>
       </c>
       <c r="E24" t="n">
-        <v>0.742582</v>
+        <v>0.771915</v>
       </c>
       <c r="F24" t="n">
-        <v>1.50649</v>
+        <v>1.42848</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.941035</v>
+        <v>0.690845</v>
       </c>
       <c r="C25" t="n">
-        <v>1.57678</v>
+        <v>1.08933</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05145</v>
+        <v>1.12742</v>
       </c>
       <c r="E25" t="n">
-        <v>0.740889</v>
+        <v>0.8478250000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>1.24449</v>
+        <v>1.17474</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.781956</v>
+        <v>0.748256</v>
       </c>
       <c r="C26" t="n">
-        <v>1.55278</v>
+        <v>1.49964</v>
       </c>
       <c r="D26" t="n">
-        <v>1.71931</v>
+        <v>1.63852</v>
       </c>
       <c r="E26" t="n">
-        <v>0.865036</v>
+        <v>0.6516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.967203</v>
+        <v>1.11163</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.877443</v>
+        <v>0.70891</v>
       </c>
       <c r="C27" t="n">
-        <v>1.14718</v>
+        <v>1.2119</v>
       </c>
       <c r="D27" t="n">
-        <v>1.53074</v>
+        <v>1.46234</v>
       </c>
       <c r="E27" t="n">
-        <v>0.814679</v>
+        <v>0.715094</v>
       </c>
       <c r="F27" t="n">
-        <v>1.19313</v>
+        <v>1.34601</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.664645</v>
+        <v>0.7897729999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.25581</v>
+        <v>1.27272</v>
       </c>
       <c r="D28" t="n">
-        <v>1.57485</v>
+        <v>1.48037</v>
       </c>
       <c r="E28" t="n">
-        <v>0.641222</v>
+        <v>0.681122</v>
       </c>
       <c r="F28" t="n">
-        <v>1.28644</v>
+        <v>1.06427</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.798492</v>
+        <v>0.854063</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0456</v>
+        <v>1.13554</v>
       </c>
       <c r="D29" t="n">
-        <v>1.25868</v>
+        <v>1.317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.754647</v>
+        <v>0.646253</v>
       </c>
       <c r="F29" t="n">
-        <v>0.800183</v>
+        <v>0.947753</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.805901</v>
+        <v>0.83509</v>
       </c>
       <c r="C30" t="n">
-        <v>1.33412</v>
+        <v>1.19677</v>
       </c>
       <c r="D30" t="n">
-        <v>1.36762</v>
+        <v>1.46684</v>
       </c>
       <c r="E30" t="n">
-        <v>0.67191</v>
+        <v>0.712829</v>
       </c>
       <c r="F30" t="n">
-        <v>1.37527</v>
+        <v>1.23796</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.563303</v>
+        <v>0.582635</v>
       </c>
       <c r="C31" t="n">
-        <v>0.749151</v>
+        <v>0.926655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.921199</v>
+        <v>1.10995</v>
       </c>
       <c r="E31" t="n">
-        <v>0.639921</v>
+        <v>0.633281</v>
       </c>
       <c r="F31" t="n">
-        <v>0.659781</v>
+        <v>0.950387</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.540072</v>
+        <v>0.646912</v>
       </c>
       <c r="C32" t="n">
-        <v>0.755897</v>
+        <v>0.9775470000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.854621</v>
+        <v>1.11758</v>
       </c>
       <c r="E32" t="n">
-        <v>0.605334</v>
+        <v>0.522527</v>
       </c>
       <c r="F32" t="n">
-        <v>0.766499</v>
+        <v>1.13455</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.777618</v>
+        <v>0.7882940000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>1.18317</v>
+        <v>1.26049</v>
       </c>
       <c r="D33" t="n">
-        <v>1.59002</v>
+        <v>1.23873</v>
       </c>
       <c r="E33" t="n">
-        <v>0.656017</v>
+        <v>0.582143</v>
       </c>
       <c r="F33" t="n">
-        <v>1.19525</v>
+        <v>1.05264</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.675498</v>
+        <v>0.585045</v>
       </c>
       <c r="C34" t="n">
-        <v>1.20426</v>
+        <v>1.25207</v>
       </c>
       <c r="D34" t="n">
-        <v>1.04406</v>
+        <v>1.29482</v>
       </c>
       <c r="E34" t="n">
-        <v>0.687321</v>
+        <v>0.487032</v>
       </c>
       <c r="F34" t="n">
-        <v>1.23853</v>
+        <v>0.890832</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.659776</v>
+        <v>0.725463</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06312</v>
+        <v>0.982838</v>
       </c>
       <c r="D35" t="n">
-        <v>1.63302</v>
+        <v>1.46797</v>
       </c>
       <c r="E35" t="n">
-        <v>0.619537</v>
+        <v>0.415742</v>
       </c>
       <c r="F35" t="n">
-        <v>1.20379</v>
+        <v>1.08663</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.677754</v>
+        <v>0.675021</v>
       </c>
       <c r="C36" t="n">
-        <v>1.18945</v>
+        <v>1.22916</v>
       </c>
       <c r="D36" t="n">
-        <v>1.29707</v>
+        <v>1.48757</v>
       </c>
       <c r="E36" t="n">
-        <v>0.603389</v>
+        <v>0.570816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.795785</v>
+        <v>0.975747</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.703913</v>
+        <v>0.585402</v>
       </c>
       <c r="C37" t="n">
-        <v>1.27001</v>
+        <v>0.8534389999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.94848</v>
+        <v>1.52605</v>
       </c>
       <c r="E37" t="n">
-        <v>0.99051</v>
+        <v>0.65976</v>
       </c>
       <c r="F37" t="n">
-        <v>1.25349</v>
+        <v>1.45455</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0981</v>
+        <v>1.0683</v>
       </c>
       <c r="C38" t="n">
-        <v>1.19414</v>
+        <v>1.23152</v>
       </c>
       <c r="D38" t="n">
-        <v>1.50719</v>
+        <v>2.05214</v>
       </c>
       <c r="E38" t="n">
-        <v>0.941999</v>
+        <v>0.839473</v>
       </c>
       <c r="F38" t="n">
-        <v>1.5876</v>
+        <v>1.56274</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.06184</v>
+        <v>0.90025</v>
       </c>
       <c r="C39" t="n">
-        <v>1.38729</v>
+        <v>1.29911</v>
       </c>
       <c r="D39" t="n">
-        <v>1.48514</v>
+        <v>1.58987</v>
       </c>
       <c r="E39" t="n">
-        <v>0.561654</v>
+        <v>0.795763</v>
       </c>
       <c r="F39" t="n">
-        <v>1.54724</v>
+        <v>1.27972</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.05531</v>
+        <v>1.04976</v>
       </c>
       <c r="C40" t="n">
-        <v>1.46028</v>
+        <v>1.07217</v>
       </c>
       <c r="D40" t="n">
-        <v>1.48655</v>
+        <v>1.33888</v>
       </c>
       <c r="E40" t="n">
-        <v>0.873781</v>
+        <v>0.607115</v>
       </c>
       <c r="F40" t="n">
-        <v>1.26213</v>
+        <v>1.37293</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.00148</v>
+        <v>0.879035</v>
       </c>
       <c r="C41" t="n">
-        <v>1.36077</v>
+        <v>1.60169</v>
       </c>
       <c r="D41" t="n">
-        <v>1.77292</v>
+        <v>1.74659</v>
       </c>
       <c r="E41" t="n">
-        <v>0.898393</v>
+        <v>0.702457</v>
       </c>
       <c r="F41" t="n">
-        <v>1.25594</v>
+        <v>0.874156</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.851125</v>
+        <v>1.05584</v>
       </c>
       <c r="C42" t="n">
-        <v>1.51874</v>
+        <v>1.06717</v>
       </c>
       <c r="D42" t="n">
-        <v>1.84879</v>
+        <v>1.19525</v>
       </c>
       <c r="E42" t="n">
-        <v>0.630761</v>
+        <v>0.719807</v>
       </c>
       <c r="F42" t="n">
-        <v>1.10059</v>
+        <v>1.25811</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7962129999999999</v>
+        <v>0.814638</v>
       </c>
       <c r="C43" t="n">
-        <v>1.51598</v>
+        <v>1.21926</v>
       </c>
       <c r="D43" t="n">
-        <v>1.771</v>
+        <v>1.21197</v>
       </c>
       <c r="E43" t="n">
-        <v>0.770048</v>
+        <v>0.562924</v>
       </c>
       <c r="F43" t="n">
-        <v>1.40313</v>
+        <v>1.14054</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.780215</v>
+        <v>0.722317</v>
       </c>
       <c r="C44" t="n">
-        <v>1.43286</v>
+        <v>1.33705</v>
       </c>
       <c r="D44" t="n">
-        <v>1.72716</v>
+        <v>1.29281</v>
       </c>
       <c r="E44" t="n">
-        <v>0.730619</v>
+        <v>0.664157</v>
       </c>
       <c r="F44" t="n">
-        <v>1.43415</v>
+        <v>1.37446</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.838314</v>
+        <v>0.809237</v>
       </c>
       <c r="C45" t="n">
-        <v>1.47138</v>
+        <v>1.13527</v>
       </c>
       <c r="D45" t="n">
-        <v>1.81391</v>
+        <v>1.51541</v>
       </c>
       <c r="E45" t="n">
-        <v>0.642942</v>
+        <v>0.715844</v>
       </c>
       <c r="F45" t="n">
-        <v>1.26528</v>
+        <v>1.50235</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.81321</v>
+        <v>0.862115</v>
       </c>
       <c r="C46" t="n">
-        <v>1.42632</v>
+        <v>1.36481</v>
       </c>
       <c r="D46" t="n">
-        <v>1.66191</v>
+        <v>1.14898</v>
       </c>
       <c r="E46" t="n">
-        <v>0.679651</v>
+        <v>0.566154</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3315</v>
+        <v>1.42181</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7374039999999999</v>
+        <v>0.723305</v>
       </c>
       <c r="C47" t="n">
-        <v>1.11315</v>
+        <v>0.926283</v>
       </c>
       <c r="D47" t="n">
-        <v>1.57455</v>
+        <v>1.55645</v>
       </c>
       <c r="E47" t="n">
-        <v>0.602189</v>
+        <v>0.45423</v>
       </c>
       <c r="F47" t="n">
-        <v>1.4089</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.795084</v>
+        <v>0.7881</v>
       </c>
       <c r="C48" t="n">
-        <v>1.30678</v>
+        <v>1.36262</v>
       </c>
       <c r="D48" t="n">
-        <v>1.67801</v>
+        <v>1.51312</v>
       </c>
       <c r="E48" t="n">
-        <v>0.702565</v>
+        <v>0.5109590000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>1.35527</v>
+        <v>1.06894</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.805985</v>
+        <v>0.708431</v>
       </c>
       <c r="C49" t="n">
-        <v>1.25221</v>
+        <v>0.953504</v>
       </c>
       <c r="D49" t="n">
-        <v>1.43385</v>
+        <v>1.37189</v>
       </c>
       <c r="E49" t="n">
-        <v>0.561321</v>
+        <v>0.591623</v>
       </c>
       <c r="F49" t="n">
-        <v>1.28762</v>
+        <v>1.32236</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.658864</v>
+        <v>0.731913</v>
       </c>
       <c r="C50" t="n">
-        <v>1.41045</v>
+        <v>1.10218</v>
       </c>
       <c r="D50" t="n">
-        <v>2.10409</v>
+        <v>1.64794</v>
       </c>
       <c r="E50" t="n">
-        <v>0.701539</v>
+        <v>0.455642</v>
       </c>
       <c r="F50" t="n">
-        <v>1.14796</v>
+        <v>1.16525</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.72948</v>
+        <v>0.592496</v>
       </c>
       <c r="C51" t="n">
-        <v>1.35723</v>
+        <v>1.45889</v>
       </c>
       <c r="D51" t="n">
-        <v>1.99131</v>
+        <v>1.63423</v>
       </c>
       <c r="E51" t="n">
-        <v>0.692619</v>
+        <v>0.865227</v>
       </c>
       <c r="F51" t="n">
-        <v>1.62137</v>
+        <v>1.21061</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.684259</v>
+        <v>0.6838340000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.39113</v>
+        <v>1.1387</v>
       </c>
       <c r="D52" t="n">
-        <v>1.76067</v>
+        <v>1.7201</v>
       </c>
       <c r="E52" t="n">
-        <v>0.786386</v>
+        <v>0.869872</v>
       </c>
       <c r="F52" t="n">
-        <v>1.65479</v>
+        <v>1.41114</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.968562</v>
+        <v>1.05579</v>
       </c>
       <c r="C53" t="n">
-        <v>1.55316</v>
+        <v>1.04452</v>
       </c>
       <c r="D53" t="n">
-        <v>1.9009</v>
+        <v>1.14617</v>
       </c>
       <c r="E53" t="n">
-        <v>0.846594</v>
+        <v>0.624206</v>
       </c>
       <c r="F53" t="n">
-        <v>1.03652</v>
+        <v>1.45663</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.05728</v>
+        <v>0.989939</v>
       </c>
       <c r="C54" t="n">
-        <v>1.5953</v>
+        <v>1.51033</v>
       </c>
       <c r="D54" t="n">
-        <v>1.6434</v>
+        <v>1.42965</v>
       </c>
       <c r="E54" t="n">
-        <v>0.872888</v>
+        <v>0.799773</v>
       </c>
       <c r="F54" t="n">
-        <v>1.50102</v>
+        <v>1.37424</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.849591</v>
+        <v>0.742121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.971115</v>
+        <v>1.5394</v>
       </c>
       <c r="D55" t="n">
-        <v>1.72699</v>
+        <v>1.49577</v>
       </c>
       <c r="E55" t="n">
-        <v>0.905219</v>
+        <v>0.65728</v>
       </c>
       <c r="F55" t="n">
-        <v>1.06184</v>
+        <v>1.28221</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.989184</v>
+        <v>0.892599</v>
       </c>
       <c r="C56" t="n">
-        <v>1.43154</v>
+        <v>1.44063</v>
       </c>
       <c r="D56" t="n">
-        <v>1.75236</v>
+        <v>1.37079</v>
       </c>
       <c r="E56" t="n">
-        <v>0.651552</v>
+        <v>0.59066</v>
       </c>
       <c r="F56" t="n">
-        <v>1.50969</v>
+        <v>1.30172</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.855575</v>
+        <v>0.98353</v>
       </c>
       <c r="C57" t="n">
-        <v>1.45709</v>
+        <v>1.28536</v>
       </c>
       <c r="D57" t="n">
-        <v>1.82068</v>
+        <v>1.40408</v>
       </c>
       <c r="E57" t="n">
-        <v>0.648553</v>
+        <v>0.601938</v>
       </c>
       <c r="F57" t="n">
-        <v>1.45393</v>
+        <v>1.41273</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.971622</v>
+        <v>0.7696769999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>1.29799</v>
+        <v>1.39025</v>
       </c>
       <c r="D58" t="n">
-        <v>1.86975</v>
+        <v>1.51812</v>
       </c>
       <c r="E58" t="n">
-        <v>0.738466</v>
+        <v>0.556747</v>
       </c>
       <c r="F58" t="n">
-        <v>1.48951</v>
+        <v>1.39295</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.861136</v>
+        <v>0.627797</v>
       </c>
       <c r="C59" t="n">
-        <v>1.24956</v>
+        <v>1.32691</v>
       </c>
       <c r="D59" t="n">
-        <v>1.80744</v>
+        <v>1.71437</v>
       </c>
       <c r="E59" t="n">
-        <v>0.736116</v>
+        <v>0.474683</v>
       </c>
       <c r="F59" t="n">
-        <v>1.18751</v>
+        <v>1.33743</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89843</v>
+        <v>0.788113</v>
       </c>
       <c r="C60" t="n">
-        <v>1.37104</v>
+        <v>1.03013</v>
       </c>
       <c r="D60" t="n">
-        <v>1.27626</v>
+        <v>1.71662</v>
       </c>
       <c r="E60" t="n">
-        <v>0.683601</v>
+        <v>0.754101</v>
       </c>
       <c r="F60" t="n">
-        <v>1.26144</v>
+        <v>1.29187</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.787381</v>
+        <v>0.896362</v>
       </c>
       <c r="C61" t="n">
-        <v>1.33946</v>
+        <v>1.21405</v>
       </c>
       <c r="D61" t="n">
-        <v>1.7005</v>
+        <v>1.71807</v>
       </c>
       <c r="E61" t="n">
-        <v>0.586348</v>
+        <v>0.522294</v>
       </c>
       <c r="F61" t="n">
-        <v>1.2672</v>
+        <v>1.14254</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.65324</v>
+        <v>0.713475</v>
       </c>
       <c r="C62" t="n">
-        <v>1.29378</v>
+        <v>1.51523</v>
       </c>
       <c r="D62" t="n">
-        <v>1.17501</v>
+        <v>1.88877</v>
       </c>
       <c r="E62" t="n">
-        <v>0.622086</v>
+        <v>0.564122</v>
       </c>
       <c r="F62" t="n">
-        <v>1.08628</v>
+        <v>1.24782</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.820199</v>
+        <v>0.868798</v>
       </c>
       <c r="C63" t="n">
-        <v>1.29589</v>
+        <v>0.96288</v>
       </c>
       <c r="D63" t="n">
-        <v>1.51775</v>
+        <v>1.84088</v>
       </c>
       <c r="E63" t="n">
-        <v>0.650446</v>
+        <v>0.747644</v>
       </c>
       <c r="F63" t="n">
-        <v>1.11612</v>
+        <v>1.42076</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.850001</v>
+        <v>0.816217</v>
       </c>
       <c r="C64" t="n">
-        <v>1.20293</v>
+        <v>1.24512</v>
       </c>
       <c r="D64" t="n">
-        <v>2.02896</v>
+        <v>2.08274</v>
       </c>
       <c r="E64" t="n">
-        <v>0.528172</v>
+        <v>0.50312</v>
       </c>
       <c r="F64" t="n">
-        <v>1.11855</v>
+        <v>0.876345</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.782582</v>
+        <v>0.688064</v>
       </c>
       <c r="C65" t="n">
-        <v>1.3239</v>
+        <v>1.29888</v>
       </c>
       <c r="D65" t="n">
-        <v>1.74742</v>
+        <v>1.79566</v>
       </c>
       <c r="E65" t="n">
-        <v>0.578427</v>
+        <v>0.550859</v>
       </c>
       <c r="F65" t="n">
-        <v>1.1805</v>
+        <v>1.32071</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.501271</v>
+        <v>0.757912</v>
       </c>
       <c r="C66" t="n">
-        <v>1.12909</v>
+        <v>1.33963</v>
       </c>
       <c r="D66" t="n">
-        <v>1.81066</v>
+        <v>1.67845</v>
       </c>
       <c r="E66" t="n">
-        <v>1.04795</v>
+        <v>0.70372</v>
       </c>
       <c r="F66" t="n">
-        <v>1.22025</v>
+        <v>1.24966</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.22607</v>
+        <v>0.953115</v>
       </c>
       <c r="C67" t="n">
-        <v>1.72688</v>
+        <v>1.38138</v>
       </c>
       <c r="D67" t="n">
-        <v>2.1763</v>
+        <v>1.84894</v>
       </c>
       <c r="E67" t="n">
-        <v>0.985617</v>
+        <v>0.597063</v>
       </c>
       <c r="F67" t="n">
-        <v>1.66259</v>
+        <v>1.53908</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.09972</v>
+        <v>0.925621</v>
       </c>
       <c r="C68" t="n">
-        <v>1.67264</v>
+        <v>1.59484</v>
       </c>
       <c r="D68" t="n">
-        <v>2.00635</v>
+        <v>1.34831</v>
       </c>
       <c r="E68" t="n">
-        <v>0.829942</v>
+        <v>0.7115010000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1.06873</v>
+        <v>1.15233</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.925929</v>
+        <v>0.765845</v>
       </c>
       <c r="C69" t="n">
-        <v>1.56738</v>
+        <v>1.53816</v>
       </c>
       <c r="D69" t="n">
-        <v>2.08806</v>
+        <v>1.97511</v>
       </c>
       <c r="E69" t="n">
-        <v>0.921845</v>
+        <v>0.775888</v>
       </c>
       <c r="F69" t="n">
-        <v>1.65621</v>
+        <v>1.12817</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.11127</v>
+        <v>1.04372</v>
       </c>
       <c r="C70" t="n">
-        <v>1.46955</v>
+        <v>1.18179</v>
       </c>
       <c r="D70" t="n">
-        <v>2.01693</v>
+        <v>1.53538</v>
       </c>
       <c r="E70" t="n">
-        <v>0.761335</v>
+        <v>0.80257</v>
       </c>
       <c r="F70" t="n">
-        <v>1.42327</v>
+        <v>1.41908</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.02363</v>
+        <v>1.12252</v>
       </c>
       <c r="C71" t="n">
-        <v>1.4387</v>
+        <v>1.72193</v>
       </c>
       <c r="D71" t="n">
-        <v>1.91492</v>
+        <v>1.73248</v>
       </c>
       <c r="E71" t="n">
-        <v>0.811302</v>
+        <v>0.64669</v>
       </c>
       <c r="F71" t="n">
-        <v>1.43116</v>
+        <v>1.22957</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.903314</v>
+        <v>0.920564</v>
       </c>
       <c r="C72" t="n">
-        <v>1.43793</v>
+        <v>1.67297</v>
       </c>
       <c r="D72" t="n">
-        <v>1.72851</v>
+        <v>1.93848</v>
       </c>
       <c r="E72" t="n">
-        <v>0.83413</v>
+        <v>0.670062</v>
       </c>
       <c r="F72" t="n">
-        <v>1.45881</v>
+        <v>1.53732</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9544240000000001</v>
+        <v>0.76383</v>
       </c>
       <c r="C73" t="n">
-        <v>1.20817</v>
+        <v>1.37464</v>
       </c>
       <c r="D73" t="n">
-        <v>1.72873</v>
+        <v>1.66809</v>
       </c>
       <c r="E73" t="n">
-        <v>0.705704</v>
+        <v>0.665835</v>
       </c>
       <c r="F73" t="n">
-        <v>1.44737</v>
+        <v>1.45152</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.02662</v>
+        <v>0.830348</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2662</v>
+        <v>1.31904</v>
       </c>
       <c r="D74" t="n">
-        <v>1.85923</v>
+        <v>1.64903</v>
       </c>
       <c r="E74" t="n">
-        <v>0.744648</v>
+        <v>0.552833</v>
       </c>
       <c r="F74" t="n">
-        <v>1.44404</v>
+        <v>1.2959</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.765637</v>
+        <v>0.8578209999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.37898</v>
+        <v>1.03828</v>
       </c>
       <c r="D75" t="n">
-        <v>1.94083</v>
+        <v>1.69005</v>
       </c>
       <c r="E75" t="n">
-        <v>0.792959</v>
+        <v>0.730613</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4238</v>
+        <v>1.0521</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.904528</v>
+        <v>0.843271</v>
       </c>
       <c r="C76" t="n">
-        <v>1.45851</v>
+        <v>1.43449</v>
       </c>
       <c r="D76" t="n">
-        <v>1.38275</v>
+        <v>2.02351</v>
       </c>
       <c r="E76" t="n">
-        <v>0.587345</v>
+        <v>0.656735</v>
       </c>
       <c r="F76" t="n">
-        <v>1.33907</v>
+        <v>1.48904</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.877633</v>
+        <v>0.929249</v>
       </c>
       <c r="C77" t="n">
-        <v>1.21732</v>
+        <v>1.44611</v>
       </c>
       <c r="D77" t="n">
-        <v>1.69555</v>
+        <v>1.36028</v>
       </c>
       <c r="E77" t="n">
-        <v>0.645585</v>
+        <v>0.720783</v>
       </c>
       <c r="F77" t="n">
-        <v>1.53221</v>
+        <v>1.13755</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.888111</v>
+        <v>0.852797</v>
       </c>
       <c r="C78" t="n">
-        <v>1.36098</v>
+        <v>1.4357</v>
       </c>
       <c r="D78" t="n">
-        <v>2.33261</v>
+        <v>2.00716</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5733200000000001</v>
+        <v>0.568052</v>
       </c>
       <c r="F78" t="n">
-        <v>1.24776</v>
+        <v>1.30007</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.865035</v>
+        <v>0.776612</v>
       </c>
       <c r="C79" t="n">
-        <v>1.43388</v>
+        <v>1.22774</v>
       </c>
       <c r="D79" t="n">
-        <v>2.28092</v>
+        <v>1.8919</v>
       </c>
       <c r="E79" t="n">
-        <v>0.697488</v>
+        <v>0.616168</v>
       </c>
       <c r="F79" t="n">
-        <v>1.21926</v>
+        <v>1.04213</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.752884</v>
+        <v>0.769858</v>
       </c>
       <c r="C80" t="n">
-        <v>1.52976</v>
+        <v>1.21206</v>
       </c>
       <c r="D80" t="n">
-        <v>2.53756</v>
+        <v>2.15823</v>
       </c>
       <c r="E80" t="n">
-        <v>0.866649</v>
+        <v>0.871886</v>
       </c>
       <c r="F80" t="n">
-        <v>1.37981</v>
+        <v>1.41656</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.17553</v>
+        <v>1.06805</v>
       </c>
       <c r="C81" t="n">
-        <v>1.71369</v>
+        <v>1.39185</v>
       </c>
       <c r="D81" t="n">
-        <v>2.44693</v>
+        <v>2.27274</v>
       </c>
       <c r="E81" t="n">
-        <v>1.01227</v>
+        <v>0.907352</v>
       </c>
       <c r="F81" t="n">
-        <v>1.52051</v>
+        <v>1.42104</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06199</v>
+        <v>1.23769</v>
       </c>
       <c r="C82" t="n">
-        <v>1.94459</v>
+        <v>1.68968</v>
       </c>
       <c r="D82" t="n">
-        <v>1.69371</v>
+        <v>2.00593</v>
       </c>
       <c r="E82" t="n">
-        <v>0.985532</v>
+        <v>0.8612880000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1.49473</v>
+        <v>1.36371</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.09381</v>
+        <v>1.01513</v>
       </c>
       <c r="C83" t="n">
-        <v>1.72989</v>
+        <v>1.71761</v>
       </c>
       <c r="D83" t="n">
-        <v>2.19113</v>
+        <v>2.03419</v>
       </c>
       <c r="E83" t="n">
-        <v>0.896939</v>
+        <v>0.793023</v>
       </c>
       <c r="F83" t="n">
-        <v>1.56192</v>
+        <v>1.61134</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.15299</v>
+        <v>1.0142</v>
       </c>
       <c r="C84" t="n">
-        <v>1.91557</v>
+        <v>1.84387</v>
       </c>
       <c r="D84" t="n">
-        <v>2.24456</v>
+        <v>1.69954</v>
       </c>
       <c r="E84" t="n">
-        <v>0.845678</v>
+        <v>0.667006</v>
       </c>
       <c r="F84" t="n">
-        <v>1.5176</v>
+        <v>1.37445</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.14847</v>
+        <v>1.1305</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89491</v>
+        <v>1.65291</v>
       </c>
       <c r="D85" t="n">
-        <v>2.02069</v>
+        <v>1.78104</v>
       </c>
       <c r="E85" t="n">
-        <v>0.881027</v>
+        <v>0.778433</v>
       </c>
       <c r="F85" t="n">
-        <v>1.41451</v>
+        <v>1.40461</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.95586</v>
+        <v>1.06153</v>
       </c>
       <c r="C86" t="n">
-        <v>1.75729</v>
+        <v>1.39966</v>
       </c>
       <c r="D86" t="n">
-        <v>1.85463</v>
+        <v>1.95439</v>
       </c>
       <c r="E86" t="n">
-        <v>0.877903</v>
+        <v>0.6192800000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>1.7867</v>
+        <v>1.47893</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.06139</v>
+        <v>1.1076</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78295</v>
+        <v>1.57</v>
       </c>
       <c r="D87" t="n">
-        <v>1.59175</v>
+        <v>1.84887</v>
       </c>
       <c r="E87" t="n">
-        <v>0.839777</v>
+        <v>0.62321</v>
       </c>
       <c r="F87" t="n">
-        <v>1.58341</v>
+        <v>1.3045</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.833934</v>
+        <v>0.762151</v>
       </c>
       <c r="C88" t="n">
-        <v>1.477</v>
+        <v>1.51126</v>
       </c>
       <c r="D88" t="n">
-        <v>1.78955</v>
+        <v>1.70499</v>
       </c>
       <c r="E88" t="n">
-        <v>0.770586</v>
+        <v>0.614649</v>
       </c>
       <c r="F88" t="n">
-        <v>1.48433</v>
+        <v>1.11793</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.771407</v>
+        <v>1.08572</v>
       </c>
       <c r="C89" t="n">
-        <v>1.19469</v>
+        <v>1.59567</v>
       </c>
       <c r="D89" t="n">
-        <v>2.35915</v>
+        <v>1.5534</v>
       </c>
       <c r="E89" t="n">
-        <v>0.833735</v>
+        <v>0.583158</v>
       </c>
       <c r="F89" t="n">
-        <v>1.44832</v>
+        <v>1.66458</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05154</v>
+        <v>1.04708</v>
       </c>
       <c r="C90" t="n">
-        <v>1.55965</v>
+        <v>1.22047</v>
       </c>
       <c r="D90" t="n">
-        <v>1.90868</v>
+        <v>1.98039</v>
       </c>
       <c r="E90" t="n">
-        <v>0.727232</v>
+        <v>0.7588549999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.44945</v>
+        <v>1.36249</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01525</v>
+        <v>0.99324</v>
       </c>
       <c r="C91" t="n">
-        <v>1.4903</v>
+        <v>1.68422</v>
       </c>
       <c r="D91" t="n">
-        <v>2.03443</v>
+        <v>2.10316</v>
       </c>
       <c r="E91" t="n">
-        <v>0.667426</v>
+        <v>0.634597</v>
       </c>
       <c r="F91" t="n">
-        <v>1.36151</v>
+        <v>1.35477</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.976554</v>
+        <v>1.03982</v>
       </c>
       <c r="C92" t="n">
-        <v>1.42503</v>
+        <v>1.36601</v>
       </c>
       <c r="D92" t="n">
-        <v>2.86198</v>
+        <v>2.89284</v>
       </c>
       <c r="E92" t="n">
-        <v>0.587376</v>
+        <v>0.581684</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57041</v>
+        <v>1.39634</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.879675</v>
+        <v>0.724481</v>
       </c>
       <c r="C93" t="n">
-        <v>1.4544</v>
+        <v>1.30672</v>
       </c>
       <c r="D93" t="n">
-        <v>2.98262</v>
+        <v>2.89638</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7434269999999999</v>
+        <v>0.5416299999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>1.56157</v>
+        <v>1.36397</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.858768</v>
+        <v>0.873938</v>
       </c>
       <c r="C94" t="n">
-        <v>1.48759</v>
+        <v>1.46998</v>
       </c>
       <c r="D94" t="n">
-        <v>2.82997</v>
+        <v>2.98612</v>
       </c>
       <c r="E94" t="n">
-        <v>0.800628</v>
+        <v>0.954622</v>
       </c>
       <c r="F94" t="n">
-        <v>2.05202</v>
+        <v>1.81841</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20888</v>
+        <v>1.04543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.02831</v>
+        <v>2.33824</v>
       </c>
       <c r="D95" t="n">
-        <v>2.57809</v>
+        <v>2.71182</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9441659999999999</v>
+        <v>0.67183</v>
       </c>
       <c r="F95" t="n">
-        <v>1.64415</v>
+        <v>1.6826</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.30298</v>
+        <v>1.34041</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11475</v>
+        <v>2.03967</v>
       </c>
       <c r="D96" t="n">
-        <v>2.97178</v>
+        <v>2.60256</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9919519999999999</v>
+        <v>0.991038</v>
       </c>
       <c r="F96" t="n">
-        <v>1.93825</v>
+        <v>1.85399</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30434</v>
+        <v>0.9586519999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>2.16491</v>
+        <v>1.9112</v>
       </c>
       <c r="D97" t="n">
-        <v>2.75405</v>
+        <v>2.34941</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9471580000000001</v>
+        <v>0.672147</v>
       </c>
       <c r="F97" t="n">
-        <v>1.8439</v>
+        <v>1.65574</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17194</v>
+        <v>1.3562</v>
       </c>
       <c r="C98" t="n">
-        <v>2.1285</v>
+        <v>1.96466</v>
       </c>
       <c r="D98" t="n">
-        <v>2.6342</v>
+        <v>2.22311</v>
       </c>
       <c r="E98" t="n">
-        <v>0.851074</v>
+        <v>0.934927</v>
       </c>
       <c r="F98" t="n">
-        <v>1.98369</v>
+        <v>1.91636</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.28088</v>
+        <v>1.16396</v>
       </c>
       <c r="C99" t="n">
-        <v>2.05712</v>
+        <v>2.08698</v>
       </c>
       <c r="D99" t="n">
-        <v>2.62152</v>
+        <v>2.59408</v>
       </c>
       <c r="E99" t="n">
-        <v>0.887956</v>
+        <v>0.9463859999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>1.67794</v>
+        <v>1.88798</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01894</v>
+        <v>1.24917</v>
       </c>
       <c r="C100" t="n">
-        <v>2.00532</v>
+        <v>1.88003</v>
       </c>
       <c r="D100" t="n">
-        <v>2.5932</v>
+        <v>2.27382</v>
       </c>
       <c r="E100" t="n">
-        <v>1.021</v>
+        <v>0.890068</v>
       </c>
       <c r="F100" t="n">
-        <v>1.77802</v>
+        <v>1.93324</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.03331</v>
+        <v>1.24396</v>
       </c>
       <c r="C101" t="n">
-        <v>2.13416</v>
+        <v>2.12776</v>
       </c>
       <c r="D101" t="n">
-        <v>2.65949</v>
+        <v>2.27732</v>
       </c>
       <c r="E101" t="n">
-        <v>0.965494</v>
+        <v>0.7742250000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1.95879</v>
+        <v>1.6809</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.830419</v>
+        <v>1.22229</v>
       </c>
       <c r="C102" t="n">
-        <v>1.91465</v>
+        <v>1.88531</v>
       </c>
       <c r="D102" t="n">
-        <v>2.34616</v>
+        <v>2.24173</v>
       </c>
       <c r="E102" t="n">
-        <v>0.86164</v>
+        <v>0.8499100000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>1.70128</v>
+        <v>1.73608</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.01899</v>
+        <v>1.01326</v>
       </c>
       <c r="C103" t="n">
-        <v>2.13508</v>
+        <v>1.81381</v>
       </c>
       <c r="D103" t="n">
-        <v>2.63691</v>
+        <v>2.81783</v>
       </c>
       <c r="E103" t="n">
-        <v>0.827685</v>
+        <v>0.859639</v>
       </c>
       <c r="F103" t="n">
-        <v>1.72018</v>
+        <v>1.68775</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07524</v>
+        <v>1.1422</v>
       </c>
       <c r="C104" t="n">
-        <v>1.73055</v>
+        <v>1.92709</v>
       </c>
       <c r="D104" t="n">
-        <v>2.59342</v>
+        <v>2.56256</v>
       </c>
       <c r="E104" t="n">
-        <v>0.883153</v>
+        <v>0.630393</v>
       </c>
       <c r="F104" t="n">
-        <v>1.72443</v>
+        <v>1.75423</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05234</v>
+        <v>1.13729</v>
       </c>
       <c r="C105" t="n">
-        <v>1.79575</v>
+        <v>1.8505</v>
       </c>
       <c r="D105" t="n">
-        <v>2.53143</v>
+        <v>2.68881</v>
       </c>
       <c r="E105" t="n">
-        <v>0.88772</v>
+        <v>0.829958</v>
       </c>
       <c r="F105" t="n">
-        <v>1.92136</v>
+        <v>1.74519</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.22173</v>
+        <v>0.999877</v>
       </c>
       <c r="C106" t="n">
-        <v>1.79539</v>
+        <v>1.99395</v>
       </c>
       <c r="D106" t="n">
-        <v>2.54628</v>
+        <v>2.72777</v>
       </c>
       <c r="E106" t="n">
-        <v>0.718985</v>
+        <v>0.568454</v>
       </c>
       <c r="F106" t="n">
-        <v>1.54976</v>
+        <v>1.56786</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.25351</v>
+        <v>1.1341</v>
       </c>
       <c r="C107" t="n">
-        <v>1.82054</v>
+        <v>1.43085</v>
       </c>
       <c r="D107" t="n">
-        <v>3.48606</v>
+        <v>3.10612</v>
       </c>
       <c r="E107" t="n">
-        <v>0.768695</v>
+        <v>0.711282</v>
       </c>
       <c r="F107" t="n">
-        <v>1.65287</v>
+        <v>1.5599</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.18653</v>
+        <v>1.11883</v>
       </c>
       <c r="C108" t="n">
-        <v>1.87954</v>
+        <v>1.90689</v>
       </c>
       <c r="D108" t="n">
-        <v>3.23183</v>
+        <v>2.86187</v>
       </c>
       <c r="E108" t="n">
-        <v>1.09836</v>
+        <v>1.12634</v>
       </c>
       <c r="F108" t="n">
-        <v>2.45563</v>
+        <v>2.21445</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.11083</v>
+        <v>1.14681</v>
       </c>
       <c r="C109" t="n">
-        <v>2.0046</v>
+        <v>1.70965</v>
       </c>
       <c r="D109" t="n">
-        <v>3.03859</v>
+        <v>3.15815</v>
       </c>
       <c r="E109" t="n">
-        <v>1.13276</v>
+        <v>0.870359</v>
       </c>
       <c r="F109" t="n">
-        <v>2.51178</v>
+        <v>2.00342</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.46612</v>
+        <v>1.29848</v>
       </c>
       <c r="C110" t="n">
-        <v>2.56933</v>
+        <v>2.30925</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93832</v>
+        <v>3.11684</v>
       </c>
       <c r="E110" t="n">
-        <v>1.21871</v>
+        <v>1.06773</v>
       </c>
       <c r="F110" t="n">
-        <v>2.15064</v>
+        <v>2.08883</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34847</v>
+        <v>1.22011</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54098</v>
+        <v>2.32642</v>
       </c>
       <c r="D111" t="n">
-        <v>3.0051</v>
+        <v>2.80359</v>
       </c>
       <c r="E111" t="n">
-        <v>1.05004</v>
+        <v>0.97867</v>
       </c>
       <c r="F111" t="n">
-        <v>2.18065</v>
+        <v>2.049</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32653</v>
+        <v>1.25894</v>
       </c>
       <c r="C112" t="n">
-        <v>2.59942</v>
+        <v>2.31534</v>
       </c>
       <c r="D112" t="n">
-        <v>3.14874</v>
+        <v>2.92486</v>
       </c>
       <c r="E112" t="n">
-        <v>1.16337</v>
+        <v>1.08963</v>
       </c>
       <c r="F112" t="n">
-        <v>2.11074</v>
+        <v>1.96393</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.24331</v>
+        <v>1.43789</v>
       </c>
       <c r="C113" t="n">
-        <v>2.47979</v>
+        <v>2.43672</v>
       </c>
       <c r="D113" t="n">
-        <v>2.76114</v>
+        <v>3.10391</v>
       </c>
       <c r="E113" t="n">
-        <v>0.966955</v>
+        <v>1.05332</v>
       </c>
       <c r="F113" t="n">
-        <v>1.96594</v>
+        <v>2.11289</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21079</v>
+        <v>1.31927</v>
       </c>
       <c r="C114" t="n">
-        <v>2.02207</v>
+        <v>2.41641</v>
       </c>
       <c r="D114" t="n">
-        <v>2.83032</v>
+        <v>2.9383</v>
       </c>
       <c r="E114" t="n">
-        <v>1.05903</v>
+        <v>1.02331</v>
       </c>
       <c r="F114" t="n">
-        <v>2.07544</v>
+        <v>2.16486</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.28452</v>
+        <v>1.09703</v>
       </c>
       <c r="C115" t="n">
-        <v>2.51656</v>
+        <v>2.38789</v>
       </c>
       <c r="D115" t="n">
-        <v>3.28561</v>
+        <v>2.88003</v>
       </c>
       <c r="E115" t="n">
-        <v>1.09428</v>
+        <v>1.02314</v>
       </c>
       <c r="F115" t="n">
-        <v>1.95077</v>
+        <v>1.99364</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35131</v>
+        <v>1.3011</v>
       </c>
       <c r="C116" t="n">
-        <v>2.30691</v>
+        <v>2.07366</v>
       </c>
       <c r="D116" t="n">
-        <v>3.11369</v>
+        <v>3.06978</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9883960000000001</v>
+        <v>0.97045</v>
       </c>
       <c r="F116" t="n">
-        <v>1.99537</v>
+        <v>2.0429</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.23272</v>
+        <v>1.06879</v>
       </c>
       <c r="C117" t="n">
-        <v>2.11618</v>
+        <v>2.31151</v>
       </c>
       <c r="D117" t="n">
-        <v>3.01464</v>
+        <v>2.77736</v>
       </c>
       <c r="E117" t="n">
-        <v>1.03441</v>
+        <v>0.828522</v>
       </c>
       <c r="F117" t="n">
-        <v>2.04807</v>
+        <v>2.00704</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3194</v>
+        <v>1.32963</v>
       </c>
       <c r="C118" t="n">
-        <v>2.00508</v>
+        <v>2.22028</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69677</v>
+        <v>2.94092</v>
       </c>
       <c r="E118" t="n">
-        <v>0.956894</v>
+        <v>0.775054</v>
       </c>
       <c r="F118" t="n">
-        <v>1.83733</v>
+        <v>1.86399</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28363</v>
+        <v>1.21135</v>
       </c>
       <c r="C119" t="n">
-        <v>2.3171</v>
+        <v>2.02992</v>
       </c>
       <c r="D119" t="n">
-        <v>3.04128</v>
+        <v>2.67706</v>
       </c>
       <c r="E119" t="n">
-        <v>1.1066</v>
+        <v>0.794601</v>
       </c>
       <c r="F119" t="n">
-        <v>1.924</v>
+        <v>1.98227</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32688</v>
+        <v>1.25015</v>
       </c>
       <c r="C120" t="n">
-        <v>2.08851</v>
+        <v>2.09014</v>
       </c>
       <c r="D120" t="n">
-        <v>3.13844</v>
+        <v>2.86824</v>
       </c>
       <c r="E120" t="n">
-        <v>0.886544</v>
+        <v>1.0282</v>
       </c>
       <c r="F120" t="n">
-        <v>1.92664</v>
+        <v>1.84183</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.32958</v>
+        <v>1.07932</v>
       </c>
       <c r="C121" t="n">
-        <v>2.10941</v>
+        <v>2.02829</v>
       </c>
       <c r="D121" t="n">
-        <v>3.90451</v>
+        <v>3.74362</v>
       </c>
       <c r="E121" t="n">
-        <v>0.918196</v>
+        <v>0.912505</v>
       </c>
       <c r="F121" t="n">
-        <v>1.89588</v>
+        <v>1.917</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15184</v>
+        <v>1.18396</v>
       </c>
       <c r="C122" t="n">
-        <v>2.08214</v>
+        <v>2.06627</v>
       </c>
       <c r="D122" t="n">
-        <v>3.89503</v>
+        <v>3.36011</v>
       </c>
       <c r="E122" t="n">
-        <v>1.02596</v>
+        <v>0.840011</v>
       </c>
       <c r="F122" t="n">
-        <v>1.92377</v>
+        <v>1.63565</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27974</v>
+        <v>1.13666</v>
       </c>
       <c r="C123" t="n">
-        <v>2.07942</v>
+        <v>2.07728</v>
       </c>
       <c r="D123" t="n">
-        <v>3.73965</v>
+        <v>3.53179</v>
       </c>
       <c r="E123" t="n">
-        <v>1.22864</v>
+        <v>0.964776</v>
       </c>
       <c r="F123" t="n">
-        <v>2.20433</v>
+        <v>2.27142</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.52089</v>
+        <v>1.49505</v>
       </c>
       <c r="C124" t="n">
-        <v>2.81451</v>
+        <v>2.61554</v>
       </c>
       <c r="D124" t="n">
-        <v>3.92051</v>
+        <v>3.70219</v>
       </c>
       <c r="E124" t="n">
-        <v>1.26037</v>
+        <v>1.01354</v>
       </c>
       <c r="F124" t="n">
-        <v>2.58096</v>
+        <v>2.38959</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.55149</v>
+        <v>1.40245</v>
       </c>
       <c r="C125" t="n">
-        <v>2.74325</v>
+        <v>2.70852</v>
       </c>
       <c r="D125" t="n">
-        <v>3.68923</v>
+        <v>3.42111</v>
       </c>
       <c r="E125" t="n">
-        <v>1.33529</v>
+        <v>1.14452</v>
       </c>
       <c r="F125" t="n">
-        <v>2.62167</v>
+        <v>2.14221</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.51559</v>
+        <v>1.34398</v>
       </c>
       <c r="C126" t="n">
-        <v>2.9236</v>
+        <v>2.56498</v>
       </c>
       <c r="D126" t="n">
-        <v>3.64605</v>
+        <v>3.33645</v>
       </c>
       <c r="E126" t="n">
-        <v>1.21899</v>
+        <v>1.09131</v>
       </c>
       <c r="F126" t="n">
-        <v>2.24019</v>
+        <v>2.40557</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.52143</v>
+        <v>1.38487</v>
       </c>
       <c r="C127" t="n">
-        <v>2.75773</v>
+        <v>2.52742</v>
       </c>
       <c r="D127" t="n">
-        <v>3.49928</v>
+        <v>3.72066</v>
       </c>
       <c r="E127" t="n">
-        <v>1.245</v>
+        <v>1.22179</v>
       </c>
       <c r="F127" t="n">
-        <v>2.38281</v>
+        <v>2.35832</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54899</v>
+        <v>1.50371</v>
       </c>
       <c r="C128" t="n">
-        <v>2.65016</v>
+        <v>2.67964</v>
       </c>
       <c r="D128" t="n">
-        <v>3.462</v>
+        <v>3.54422</v>
       </c>
       <c r="E128" t="n">
-        <v>1.24164</v>
+        <v>1.09044</v>
       </c>
       <c r="F128" t="n">
-        <v>2.2766</v>
+        <v>2.2113</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43234</v>
+        <v>1.50213</v>
       </c>
       <c r="C129" t="n">
-        <v>2.81024</v>
+        <v>2.71127</v>
       </c>
       <c r="D129" t="n">
-        <v>3.64291</v>
+        <v>3.25697</v>
       </c>
       <c r="E129" t="n">
-        <v>1.19988</v>
+        <v>1.14026</v>
       </c>
       <c r="F129" t="n">
-        <v>2.2944</v>
+        <v>1.97779</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.49691</v>
+        <v>1.27206</v>
       </c>
       <c r="C130" t="n">
-        <v>2.64085</v>
+        <v>2.38487</v>
       </c>
       <c r="D130" t="n">
-        <v>3.5574</v>
+        <v>3.34141</v>
       </c>
       <c r="E130" t="n">
-        <v>1.09296</v>
+        <v>1.03297</v>
       </c>
       <c r="F130" t="n">
-        <v>2.17178</v>
+        <v>2.29293</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54033</v>
+        <v>1.25922</v>
       </c>
       <c r="C131" t="n">
-        <v>2.66848</v>
+        <v>2.55249</v>
       </c>
       <c r="D131" t="n">
-        <v>3.48909</v>
+        <v>3.42497</v>
       </c>
       <c r="E131" t="n">
-        <v>1.04445</v>
+        <v>1.13083</v>
       </c>
       <c r="F131" t="n">
-        <v>2.39055</v>
+        <v>2.28986</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.47576</v>
+        <v>1.39545</v>
       </c>
       <c r="C132" t="n">
-        <v>2.44107</v>
+        <v>2.55561</v>
       </c>
       <c r="D132" t="n">
-        <v>3.19895</v>
+        <v>3.59982</v>
       </c>
       <c r="E132" t="n">
-        <v>1.05675</v>
+        <v>1.01243</v>
       </c>
       <c r="F132" t="n">
-        <v>2.24037</v>
+        <v>2.24311</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.43747</v>
+        <v>1.24575</v>
       </c>
       <c r="C133" t="n">
-        <v>2.56293</v>
+        <v>2.5895</v>
       </c>
       <c r="D133" t="n">
-        <v>3.48756</v>
+        <v>3.33938</v>
       </c>
       <c r="E133" t="n">
-        <v>1.20951</v>
+        <v>1.05247</v>
       </c>
       <c r="F133" t="n">
-        <v>2.31402</v>
+        <v>2.36613</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.36016</v>
+        <v>1.35831</v>
       </c>
       <c r="C134" t="n">
-        <v>2.45346</v>
+        <v>2.65216</v>
       </c>
       <c r="D134" t="n">
-        <v>3.52301</v>
+        <v>3.08332</v>
       </c>
       <c r="E134" t="n">
-        <v>1.14659</v>
+        <v>0.988621</v>
       </c>
       <c r="F134" t="n">
-        <v>2.14854</v>
+        <v>2.018</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3558</v>
+        <v>1.38407</v>
       </c>
       <c r="C135" t="n">
-        <v>2.55724</v>
+        <v>2.50942</v>
       </c>
       <c r="D135" t="n">
-        <v>4.30474</v>
+        <v>4.4427</v>
       </c>
       <c r="E135" t="n">
-        <v>1.20405</v>
+        <v>1.13796</v>
       </c>
       <c r="F135" t="n">
-        <v>2.22613</v>
+        <v>2.24726</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.45421</v>
+        <v>1.34494</v>
       </c>
       <c r="C136" t="n">
-        <v>2.61631</v>
+        <v>2.49445</v>
       </c>
       <c r="D136" t="n">
-        <v>4.23546</v>
+        <v>4.09468</v>
       </c>
       <c r="E136" t="n">
-        <v>1.17176</v>
+        <v>1.15082</v>
       </c>
       <c r="F136" t="n">
-        <v>2.15286</v>
+        <v>2.08115</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.31771</v>
+        <v>1.29693</v>
       </c>
       <c r="C137" t="n">
-        <v>2.45278</v>
+        <v>2.45747</v>
       </c>
       <c r="D137" t="n">
-        <v>3.93076</v>
+        <v>4.122</v>
       </c>
       <c r="E137" t="n">
-        <v>1.41465</v>
+        <v>1.2784</v>
       </c>
       <c r="F137" t="n">
-        <v>2.67901</v>
+        <v>2.82283</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.7536</v>
+        <v>1.66172</v>
       </c>
       <c r="C138" t="n">
-        <v>3.24707</v>
+        <v>3.20838</v>
       </c>
       <c r="D138" t="n">
-        <v>3.97566</v>
+        <v>3.96386</v>
       </c>
       <c r="E138" t="n">
-        <v>1.39994</v>
+        <v>1.24537</v>
       </c>
       <c r="F138" t="n">
-        <v>2.6885</v>
+        <v>2.65475</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73541</v>
+        <v>1.63152</v>
       </c>
       <c r="C139" t="n">
-        <v>3.10201</v>
+        <v>3.04533</v>
       </c>
       <c r="D139" t="n">
-        <v>3.70528</v>
+        <v>4.03025</v>
       </c>
       <c r="E139" t="n">
-        <v>1.34699</v>
+        <v>1.43259</v>
       </c>
       <c r="F139" t="n">
-        <v>2.79774</v>
+        <v>2.69779</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6154</v>
+        <v>1.46924</v>
       </c>
       <c r="C140" t="n">
-        <v>3.12131</v>
+        <v>3.15194</v>
       </c>
       <c r="D140" t="n">
-        <v>3.96809</v>
+        <v>3.84646</v>
       </c>
       <c r="E140" t="n">
-        <v>1.09983</v>
+        <v>1.38725</v>
       </c>
       <c r="F140" t="n">
-        <v>2.64334</v>
+        <v>2.71605</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.67014</v>
+        <v>1.60852</v>
       </c>
       <c r="C141" t="n">
-        <v>3.18913</v>
+        <v>3.02147</v>
       </c>
       <c r="D141" t="n">
-        <v>3.80638</v>
+        <v>3.80639</v>
       </c>
       <c r="E141" t="n">
-        <v>1.26069</v>
+        <v>1.36947</v>
       </c>
       <c r="F141" t="n">
-        <v>2.76695</v>
+        <v>2.39691</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.49006</v>
+        <v>1.65341</v>
       </c>
       <c r="C142" t="n">
-        <v>3.1046</v>
+        <v>2.97465</v>
       </c>
       <c r="D142" t="n">
-        <v>3.54975</v>
+        <v>3.91173</v>
       </c>
       <c r="E142" t="n">
-        <v>1.33922</v>
+        <v>1.37565</v>
       </c>
       <c r="F142" t="n">
-        <v>2.77404</v>
+        <v>2.5192</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.57685</v>
+        <v>1.47589</v>
       </c>
       <c r="C143" t="n">
-        <v>2.69336</v>
+        <v>2.99621</v>
       </c>
       <c r="D143" t="n">
-        <v>3.88017</v>
+        <v>3.75431</v>
       </c>
       <c r="E143" t="n">
-        <v>1.39074</v>
+        <v>1.35349</v>
       </c>
       <c r="F143" t="n">
-        <v>2.73381</v>
+        <v>2.53294</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.59912</v>
+        <v>0.688238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.836186</v>
+        <v>0.88405</v>
       </c>
       <c r="D2" t="n">
-        <v>1.00194</v>
+        <v>1.12881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.323375</v>
+        <v>0.508069</v>
       </c>
       <c r="F2" t="n">
-        <v>0.807244</v>
+        <v>1.20981</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.358584</v>
+        <v>0.534313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.803979</v>
+        <v>1.00921</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01059</v>
+        <v>1.06319</v>
       </c>
       <c r="E3" t="n">
-        <v>0.311374</v>
+        <v>0.234473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7960120000000001</v>
+        <v>0.826333</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.340486</v>
+        <v>0.357129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7901820000000001</v>
+        <v>0.829095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.957189</v>
+        <v>1.10717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.311728</v>
+        <v>0.458028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.846998</v>
+        <v>0.817505</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.33136</v>
+        <v>0.431119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.800605</v>
+        <v>0.951095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.980637</v>
+        <v>1.2995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.303885</v>
+        <v>0.327834</v>
       </c>
       <c r="F5" t="n">
-        <v>0.804669</v>
+        <v>0.6591590000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.326474</v>
+        <v>0.291065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.80987</v>
+        <v>0.702084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.984178</v>
+        <v>0.923628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.304243</v>
+        <v>0.308597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.790895</v>
+        <v>0.8900169999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.31931</v>
+        <v>0.31554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.783077</v>
+        <v>0.770747</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18882</v>
+        <v>1.11573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.296329</v>
+        <v>0.404494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.804404</v>
+        <v>0.746591</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.317867</v>
+        <v>0.383306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.786974</v>
+        <v>0.977598</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18966</v>
+        <v>1.25905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.294779</v>
+        <v>0.433134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.79279</v>
+        <v>1.15098</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.320639</v>
+        <v>0.349451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.79254</v>
+        <v>0.7927</v>
       </c>
       <c r="D9" t="n">
-        <v>1.13476</v>
+        <v>1.02196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.562069</v>
+        <v>0.610133</v>
       </c>
       <c r="F9" t="n">
-        <v>0.959271</v>
+        <v>0.913976</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.613479</v>
+        <v>0.657551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.901631</v>
+        <v>0.955339</v>
       </c>
       <c r="D10" t="n">
-        <v>1.16661</v>
+        <v>0.979223</v>
       </c>
       <c r="E10" t="n">
-        <v>0.559289</v>
+        <v>0.59292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.928588</v>
+        <v>0.9223749999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5804319999999999</v>
+        <v>0.651928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.974186</v>
+        <v>0.830083</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06684</v>
+        <v>1.9408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5030289999999999</v>
+        <v>0.597933</v>
       </c>
       <c r="F11" t="n">
-        <v>0.868598</v>
+        <v>1.44998</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.529841</v>
+        <v>0.65955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.891302</v>
+        <v>0.83656</v>
       </c>
       <c r="D12" t="n">
-        <v>1.08443</v>
+        <v>1.01211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.510051</v>
+        <v>0.534092</v>
       </c>
       <c r="F12" t="n">
-        <v>0.883564</v>
+        <v>0.904182</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.535574</v>
+        <v>0.51803</v>
       </c>
       <c r="C13" t="n">
-        <v>0.860058</v>
+        <v>1.20541</v>
       </c>
       <c r="D13" t="n">
-        <v>1.06103</v>
+        <v>0.854235</v>
       </c>
       <c r="E13" t="n">
-        <v>0.498229</v>
+        <v>0.407942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8433389999999999</v>
+        <v>1.35141</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.498014</v>
+        <v>0.793901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.833638</v>
+        <v>0.913975</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05632</v>
+        <v>0.866628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.471756</v>
+        <v>0.465238</v>
       </c>
       <c r="F14" t="n">
-        <v>0.838048</v>
+        <v>0.973227</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.480826</v>
+        <v>0.587869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8217140000000001</v>
+        <v>1.07241</v>
       </c>
       <c r="D15" t="n">
-        <v>1.05513</v>
+        <v>1.02569</v>
       </c>
       <c r="E15" t="n">
-        <v>0.443973</v>
+        <v>0.569837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.836539</v>
+        <v>1.22989</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.471674</v>
+        <v>0.544903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.809536</v>
+        <v>1.12649</v>
       </c>
       <c r="D16" t="n">
-        <v>0.990456</v>
+        <v>1.09064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.431324</v>
+        <v>0.531393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.819892</v>
+        <v>1.0076</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456341</v>
+        <v>0.619052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.810802</v>
+        <v>0.863497</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99113</v>
+        <v>1.71354</v>
       </c>
       <c r="E17" t="n">
-        <v>0.423383</v>
+        <v>0.680854</v>
       </c>
       <c r="F17" t="n">
-        <v>0.842048</v>
+        <v>0.925647</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462941</v>
+        <v>0.585214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.825223</v>
+        <v>1.03709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.990657</v>
+        <v>1.25056</v>
       </c>
       <c r="E18" t="n">
-        <v>0.422493</v>
+        <v>0.531392</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7986760000000001</v>
+        <v>0.9787670000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.431612</v>
+        <v>0.468615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.787907</v>
+        <v>0.737111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.998939</v>
+        <v>0.986498</v>
       </c>
       <c r="E19" t="n">
-        <v>0.396729</v>
+        <v>0.378933</v>
       </c>
       <c r="F19" t="n">
-        <v>0.787683</v>
+        <v>0.83146</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.453844</v>
+        <v>0.48781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.800933</v>
+        <v>1.05457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.981805</v>
+        <v>0.913927</v>
       </c>
       <c r="E20" t="n">
-        <v>0.387546</v>
+        <v>0.459824</v>
       </c>
       <c r="F20" t="n">
-        <v>0.78368</v>
+        <v>1.00256</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.409728</v>
+        <v>0.644965</v>
       </c>
       <c r="C21" t="n">
-        <v>0.787336</v>
+        <v>0.93498</v>
       </c>
       <c r="D21" t="n">
-        <v>1.25004</v>
+        <v>1.3929</v>
       </c>
       <c r="E21" t="n">
-        <v>0.400901</v>
+        <v>0.5346</v>
       </c>
       <c r="F21" t="n">
-        <v>0.776778</v>
+        <v>1.02831</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.408038</v>
+        <v>0.592835</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7755570000000001</v>
+        <v>0.812574</v>
       </c>
       <c r="D22" t="n">
-        <v>1.15669</v>
+        <v>1.13854</v>
       </c>
       <c r="E22" t="n">
-        <v>0.379877</v>
+        <v>0.505809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.785058</v>
+        <v>0.909707</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.400592</v>
+        <v>0.50874</v>
       </c>
       <c r="C23" t="n">
-        <v>0.773415</v>
+        <v>0.722791</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13236</v>
+        <v>1.16325</v>
       </c>
       <c r="E23" t="n">
-        <v>0.633418</v>
+        <v>0.944432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.908875</v>
+        <v>1.23361</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6466499999999999</v>
+        <v>0.815563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9191279999999999</v>
+        <v>1.28917</v>
       </c>
       <c r="D24" t="n">
-        <v>1.15329</v>
+        <v>1.67662</v>
       </c>
       <c r="E24" t="n">
-        <v>0.611606</v>
+        <v>0.706775</v>
       </c>
       <c r="F24" t="n">
-        <v>0.89966</v>
+        <v>1.03236</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.656575</v>
+        <v>0.678802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9453780000000001</v>
+        <v>1.21763</v>
       </c>
       <c r="D25" t="n">
-        <v>1.10099</v>
+        <v>1.22211</v>
       </c>
       <c r="E25" t="n">
-        <v>0.595355</v>
+        <v>0.513914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.887765</v>
+        <v>1.19627</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.629325</v>
+        <v>0.819258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.873547</v>
+        <v>1.23071</v>
       </c>
       <c r="D26" t="n">
-        <v>1.09079</v>
+        <v>1.10685</v>
       </c>
       <c r="E26" t="n">
-        <v>0.574475</v>
+        <v>0.648168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.896487</v>
+        <v>0.9802</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.60547</v>
+        <v>0.527706</v>
       </c>
       <c r="C27" t="n">
-        <v>0.87902</v>
+        <v>0.77704</v>
       </c>
       <c r="D27" t="n">
-        <v>1.16234</v>
+        <v>1.02298</v>
       </c>
       <c r="E27" t="n">
-        <v>0.595664</v>
+        <v>0.575904</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8751910000000001</v>
+        <v>0.939407</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.574662</v>
+        <v>0.643856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.856487</v>
+        <v>0.9043600000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06717</v>
+        <v>1.6283</v>
       </c>
       <c r="E28" t="n">
-        <v>0.542734</v>
+        <v>0.585196</v>
       </c>
       <c r="F28" t="n">
-        <v>0.860712</v>
+        <v>0.804219</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.560995</v>
+        <v>0.653425</v>
       </c>
       <c r="C29" t="n">
-        <v>0.849885</v>
+        <v>1.44565</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04695</v>
+        <v>1.50496</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5156539999999999</v>
+        <v>0.615864</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85303</v>
+        <v>1.57129</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5360819999999999</v>
+        <v>0.771626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.839391</v>
+        <v>1.60317</v>
       </c>
       <c r="D30" t="n">
-        <v>1.03515</v>
+        <v>1.93411</v>
       </c>
       <c r="E30" t="n">
-        <v>0.503278</v>
+        <v>0.608235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.832945</v>
+        <v>0.996227</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.519194</v>
+        <v>0.697294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8387829999999999</v>
+        <v>1.13692</v>
       </c>
       <c r="D31" t="n">
-        <v>1.07198</v>
+        <v>0.849033</v>
       </c>
       <c r="E31" t="n">
-        <v>0.513383</v>
+        <v>0.549061</v>
       </c>
       <c r="F31" t="n">
-        <v>0.850085</v>
+        <v>1.38272</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.521141</v>
+        <v>0.639794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.821159</v>
+        <v>1.08537</v>
       </c>
       <c r="D32" t="n">
-        <v>1.03618</v>
+        <v>1.36038</v>
       </c>
       <c r="E32" t="n">
-        <v>0.478462</v>
+        <v>0.673234</v>
       </c>
       <c r="F32" t="n">
-        <v>0.838108</v>
+        <v>1.21396</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518103</v>
+        <v>0.657271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.822954</v>
+        <v>1.18271</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0631</v>
+        <v>1.53464</v>
       </c>
       <c r="E33" t="n">
-        <v>0.464678</v>
+        <v>0.369135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.820004</v>
+        <v>0.679716</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.510786</v>
+        <v>0.6416190000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.818242</v>
+        <v>0.777733</v>
       </c>
       <c r="D34" t="n">
-        <v>1.01068</v>
+        <v>1.17895</v>
       </c>
       <c r="E34" t="n">
-        <v>0.452016</v>
+        <v>0.453139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.808056</v>
+        <v>1.0343</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.475528</v>
+        <v>0.7252189999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.79764</v>
+        <v>1.00781</v>
       </c>
       <c r="D35" t="n">
-        <v>1.25961</v>
+        <v>1.2947</v>
       </c>
       <c r="E35" t="n">
-        <v>0.443224</v>
+        <v>0.581368</v>
       </c>
       <c r="F35" t="n">
-        <v>0.831414</v>
+        <v>1.24542</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.45909</v>
+        <v>0.7223540000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.796743</v>
+        <v>1.01932</v>
       </c>
       <c r="D36" t="n">
-        <v>1.23382</v>
+        <v>1.35286</v>
       </c>
       <c r="E36" t="n">
-        <v>0.445456</v>
+        <v>0.611133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.808513</v>
+        <v>0.982114</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455774</v>
+        <v>0.659102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.800624</v>
+        <v>1.3881</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23816</v>
+        <v>1.82791</v>
       </c>
       <c r="E37" t="n">
-        <v>0.696488</v>
+        <v>0.8204900000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1.02794</v>
+        <v>1.54019</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.70861</v>
+        <v>1.09607</v>
       </c>
       <c r="C38" t="n">
-        <v>0.99377</v>
+        <v>1.47318</v>
       </c>
       <c r="D38" t="n">
-        <v>1.21214</v>
+        <v>1.26804</v>
       </c>
       <c r="E38" t="n">
-        <v>0.668698</v>
+        <v>0.886511</v>
       </c>
       <c r="F38" t="n">
-        <v>1.00263</v>
+        <v>1.45807</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.703729</v>
+        <v>1.0039</v>
       </c>
       <c r="C39" t="n">
-        <v>0.969398</v>
+        <v>1.37039</v>
       </c>
       <c r="D39" t="n">
-        <v>1.23604</v>
+        <v>1.07046</v>
       </c>
       <c r="E39" t="n">
-        <v>0.649666</v>
+        <v>0.582575</v>
       </c>
       <c r="F39" t="n">
-        <v>0.968198</v>
+        <v>1.53202</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.664636</v>
+        <v>0.8574850000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.979395</v>
+        <v>1.39046</v>
       </c>
       <c r="D40" t="n">
-        <v>1.18696</v>
+        <v>1.55009</v>
       </c>
       <c r="E40" t="n">
-        <v>0.62615</v>
+        <v>0.807988</v>
       </c>
       <c r="F40" t="n">
-        <v>0.996718</v>
+        <v>1.31716</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.663198</v>
+        <v>0.933813</v>
       </c>
       <c r="C41" t="n">
-        <v>0.983617</v>
+        <v>1.4367</v>
       </c>
       <c r="D41" t="n">
-        <v>1.17943</v>
+        <v>1.54098</v>
       </c>
       <c r="E41" t="n">
-        <v>0.604226</v>
+        <v>0.6545299999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.950488</v>
+        <v>1.22598</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6308</v>
+        <v>0.987831</v>
       </c>
       <c r="C42" t="n">
-        <v>0.935715</v>
+        <v>1.26463</v>
       </c>
       <c r="D42" t="n">
-        <v>1.20476</v>
+        <v>1.33701</v>
       </c>
       <c r="E42" t="n">
-        <v>0.642268</v>
+        <v>0.581445</v>
       </c>
       <c r="F42" t="n">
-        <v>0.940794</v>
+        <v>1.4936</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.614383</v>
+        <v>1.00467</v>
       </c>
       <c r="C43" t="n">
-        <v>0.930239</v>
+        <v>1.11703</v>
       </c>
       <c r="D43" t="n">
-        <v>1.16955</v>
+        <v>1.19858</v>
       </c>
       <c r="E43" t="n">
-        <v>0.572451</v>
+        <v>0.540193</v>
       </c>
       <c r="F43" t="n">
-        <v>0.921382</v>
+        <v>1.2795</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.612584</v>
+        <v>0.9696900000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.960461</v>
+        <v>1.33471</v>
       </c>
       <c r="D44" t="n">
-        <v>1.15704</v>
+        <v>1.60288</v>
       </c>
       <c r="E44" t="n">
-        <v>0.555028</v>
+        <v>0.652251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9124719999999999</v>
+        <v>1.50321</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.56743</v>
+        <v>0.906376</v>
       </c>
       <c r="C45" t="n">
-        <v>0.912303</v>
+        <v>1.48397</v>
       </c>
       <c r="D45" t="n">
-        <v>1.12197</v>
+        <v>1.65934</v>
       </c>
       <c r="E45" t="n">
-        <v>0.54235</v>
+        <v>0.652715</v>
       </c>
       <c r="F45" t="n">
-        <v>0.903158</v>
+        <v>1.35208</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.560098</v>
+        <v>0.723092</v>
       </c>
       <c r="C46" t="n">
-        <v>0.91239</v>
+        <v>1.16228</v>
       </c>
       <c r="D46" t="n">
-        <v>1.11304</v>
+        <v>1.89934</v>
       </c>
       <c r="E46" t="n">
-        <v>0.518741</v>
+        <v>0.733816</v>
       </c>
       <c r="F46" t="n">
-        <v>0.892741</v>
+        <v>1.41024</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5494790000000001</v>
+        <v>0.899265</v>
       </c>
       <c r="C47" t="n">
-        <v>0.891435</v>
+        <v>1.38175</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1158</v>
+        <v>1.40177</v>
       </c>
       <c r="E47" t="n">
-        <v>0.510449</v>
+        <v>0.628435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.889286</v>
+        <v>1.29382</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.529827</v>
+        <v>0.755751</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8814340000000001</v>
+        <v>1.12042</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10022</v>
+        <v>1.98494</v>
       </c>
       <c r="E48" t="n">
-        <v>0.493642</v>
+        <v>0.611217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.877224</v>
+        <v>1.21793</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.527726</v>
+        <v>0.528832</v>
       </c>
       <c r="C49" t="n">
-        <v>0.898128</v>
+        <v>1.26796</v>
       </c>
       <c r="D49" t="n">
-        <v>1.12732</v>
+        <v>1.56954</v>
       </c>
       <c r="E49" t="n">
-        <v>0.498105</v>
+        <v>0.627274</v>
       </c>
       <c r="F49" t="n">
-        <v>0.910208</v>
+        <v>1.18057</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.513517</v>
+        <v>0.686358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.890743</v>
+        <v>1.00811</v>
       </c>
       <c r="D50" t="n">
-        <v>1.57947</v>
+        <v>1.40385</v>
       </c>
       <c r="E50" t="n">
-        <v>0.473048</v>
+        <v>0.676582</v>
       </c>
       <c r="F50" t="n">
-        <v>0.914586</v>
+        <v>1.30756</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4986</v>
+        <v>0.620817</v>
       </c>
       <c r="C51" t="n">
-        <v>0.872974</v>
+        <v>1.09065</v>
       </c>
       <c r="D51" t="n">
-        <v>1.52153</v>
+        <v>2.03729</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7519</v>
+        <v>0.760927</v>
       </c>
       <c r="F51" t="n">
-        <v>1.14496</v>
+        <v>1.95573</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5203449999999999</v>
+        <v>0.703981</v>
       </c>
       <c r="C52" t="n">
-        <v>0.87242</v>
+        <v>0.855517</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50415</v>
+        <v>1.73142</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7094</v>
+        <v>0.772771</v>
       </c>
       <c r="F52" t="n">
-        <v>1.11413</v>
+        <v>1.32611</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758382</v>
+        <v>1.01427</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13791</v>
+        <v>1.62302</v>
       </c>
       <c r="D53" t="n">
-        <v>1.52244</v>
+        <v>2.03667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.695706</v>
+        <v>0.521618</v>
       </c>
       <c r="F53" t="n">
-        <v>1.11451</v>
+        <v>1.19976</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.721756</v>
+        <v>0.852892</v>
       </c>
       <c r="C54" t="n">
-        <v>1.13772</v>
+        <v>1.39021</v>
       </c>
       <c r="D54" t="n">
-        <v>1.48084</v>
+        <v>1.50876</v>
       </c>
       <c r="E54" t="n">
-        <v>0.699909</v>
+        <v>0.6610279999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>1.07965</v>
+        <v>1.23216</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.706747</v>
+        <v>0.810045</v>
       </c>
       <c r="C55" t="n">
-        <v>1.11071</v>
+        <v>1.27048</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43599</v>
+        <v>1.83298</v>
       </c>
       <c r="E55" t="n">
-        <v>0.658534</v>
+        <v>0.591398</v>
       </c>
       <c r="F55" t="n">
-        <v>1.09255</v>
+        <v>1.54605</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.895577</v>
       </c>
       <c r="C56" t="n">
-        <v>1.13214</v>
+        <v>1.30372</v>
       </c>
       <c r="D56" t="n">
-        <v>1.39952</v>
+        <v>1.9578</v>
       </c>
       <c r="E56" t="n">
-        <v>0.638505</v>
+        <v>0.81258</v>
       </c>
       <c r="F56" t="n">
-        <v>1.05667</v>
+        <v>1.56899</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.676928</v>
+        <v>0.982141</v>
       </c>
       <c r="C57" t="n">
-        <v>1.08563</v>
+        <v>1.29339</v>
       </c>
       <c r="D57" t="n">
-        <v>1.42924</v>
+        <v>1.73617</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6236390000000001</v>
+        <v>0.718301</v>
       </c>
       <c r="F57" t="n">
-        <v>1.03841</v>
+        <v>1.42021</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.655908</v>
+        <v>0.852135</v>
       </c>
       <c r="C58" t="n">
-        <v>1.05636</v>
+        <v>1.30499</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4576</v>
+        <v>1.50756</v>
       </c>
       <c r="E58" t="n">
-        <v>0.639084</v>
+        <v>0.579105</v>
       </c>
       <c r="F58" t="n">
-        <v>1.04122</v>
+        <v>1.21028</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.633477</v>
+        <v>0.7810319999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>1.08065</v>
+        <v>1.42085</v>
       </c>
       <c r="D59" t="n">
-        <v>1.41864</v>
+        <v>1.71633</v>
       </c>
       <c r="E59" t="n">
-        <v>0.598345</v>
+        <v>0.7667929999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>1.026</v>
+        <v>1.54653</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.634045</v>
+        <v>0.905326</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04096</v>
+        <v>1.24885</v>
       </c>
       <c r="D60" t="n">
-        <v>1.39657</v>
+        <v>1.97308</v>
       </c>
       <c r="E60" t="n">
-        <v>0.586217</v>
+        <v>0.725942</v>
       </c>
       <c r="F60" t="n">
-        <v>0.99829</v>
+        <v>1.31525</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.61677</v>
+        <v>0.930996</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02933</v>
+        <v>1.27812</v>
       </c>
       <c r="D61" t="n">
-        <v>1.36795</v>
+        <v>1.45864</v>
       </c>
       <c r="E61" t="n">
-        <v>0.581568</v>
+        <v>0.588816</v>
       </c>
       <c r="F61" t="n">
-        <v>1.00379</v>
+        <v>1.34086</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608476</v>
+        <v>0.705564</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01559</v>
+        <v>1.20665</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36554</v>
+        <v>1.16435</v>
       </c>
       <c r="E62" t="n">
-        <v>0.557481</v>
+        <v>0.606231</v>
       </c>
       <c r="F62" t="n">
-        <v>0.977611</v>
+        <v>1.10246</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.602908</v>
+        <v>0.821142</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00889</v>
+        <v>1.30402</v>
       </c>
       <c r="D63" t="n">
-        <v>1.37101</v>
+        <v>1.8799</v>
       </c>
       <c r="E63" t="n">
-        <v>0.564612</v>
+        <v>0.695133</v>
       </c>
       <c r="F63" t="n">
-        <v>0.990435</v>
+        <v>0.8501840000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.585175</v>
+        <v>0.814902</v>
       </c>
       <c r="C64" t="n">
-        <v>0.996744</v>
+        <v>1.43998</v>
       </c>
       <c r="D64" t="n">
-        <v>2.16993</v>
+        <v>1.91294</v>
       </c>
       <c r="E64" t="n">
-        <v>0.533157</v>
+        <v>0.649629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.950395</v>
+        <v>1.04811</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.562358</v>
+        <v>0.83029</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00339</v>
+        <v>1.32231</v>
       </c>
       <c r="D65" t="n">
-        <v>2.14093</v>
+        <v>2.14102</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5435410000000001</v>
+        <v>0.589601</v>
       </c>
       <c r="F65" t="n">
-        <v>0.960466</v>
+        <v>1.02489</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5898640000000001</v>
+        <v>0.726109</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01952</v>
+        <v>1.16622</v>
       </c>
       <c r="D66" t="n">
-        <v>2.14141</v>
+        <v>1.77131</v>
       </c>
       <c r="E66" t="n">
-        <v>0.811825</v>
+        <v>0.88183</v>
       </c>
       <c r="F66" t="n">
-        <v>1.45117</v>
+        <v>1.67516</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850954</v>
+        <v>1.06585</v>
       </c>
       <c r="C67" t="n">
-        <v>1.5838</v>
+        <v>1.62509</v>
       </c>
       <c r="D67" t="n">
-        <v>2.04827</v>
+        <v>1.94491</v>
       </c>
       <c r="E67" t="n">
-        <v>0.780471</v>
+        <v>0.539315</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46502</v>
+        <v>1.42983</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.820688</v>
+        <v>1.1049</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53659</v>
+        <v>1.64904</v>
       </c>
       <c r="D68" t="n">
-        <v>2.0433</v>
+        <v>1.84769</v>
       </c>
       <c r="E68" t="n">
-        <v>0.760762</v>
+        <v>0.808243</v>
       </c>
       <c r="F68" t="n">
-        <v>1.42256</v>
+        <v>1.39666</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.815055</v>
+        <v>1.00448</v>
       </c>
       <c r="C69" t="n">
-        <v>1.53574</v>
+        <v>1.52958</v>
       </c>
       <c r="D69" t="n">
-        <v>2.01309</v>
+        <v>1.75298</v>
       </c>
       <c r="E69" t="n">
-        <v>0.749024</v>
+        <v>0.810393</v>
       </c>
       <c r="F69" t="n">
-        <v>1.38938</v>
+        <v>1.80605</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.781145</v>
+        <v>0.78084</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47874</v>
+        <v>1.45854</v>
       </c>
       <c r="D70" t="n">
-        <v>1.97558</v>
+        <v>1.65314</v>
       </c>
       <c r="E70" t="n">
-        <v>0.727194</v>
+        <v>0.686881</v>
       </c>
       <c r="F70" t="n">
-        <v>1.35748</v>
+        <v>1.32044</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.762474</v>
+        <v>0.7572680000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44182</v>
+        <v>1.44746</v>
       </c>
       <c r="D71" t="n">
-        <v>1.94903</v>
+        <v>2.00976</v>
       </c>
       <c r="E71" t="n">
-        <v>0.708892</v>
+        <v>0.714849</v>
       </c>
       <c r="F71" t="n">
-        <v>1.37683</v>
+        <v>1.3385</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7639899999999999</v>
+        <v>0.9232900000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42401</v>
+        <v>1.62032</v>
       </c>
       <c r="D72" t="n">
-        <v>1.92002</v>
+        <v>1.63645</v>
       </c>
       <c r="E72" t="n">
-        <v>0.686999</v>
+        <v>0.507447</v>
       </c>
       <c r="F72" t="n">
-        <v>1.359</v>
+        <v>1.51413</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.729671</v>
+        <v>0.880661</v>
       </c>
       <c r="C73" t="n">
-        <v>1.39081</v>
+        <v>1.59465</v>
       </c>
       <c r="D73" t="n">
-        <v>1.91442</v>
+        <v>1.57186</v>
       </c>
       <c r="E73" t="n">
-        <v>0.673181</v>
+        <v>0.599293</v>
       </c>
       <c r="F73" t="n">
-        <v>1.2948</v>
+        <v>0.9453240000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.75363</v>
+        <v>1.00269</v>
       </c>
       <c r="C74" t="n">
-        <v>1.36979</v>
+        <v>1.32519</v>
       </c>
       <c r="D74" t="n">
-        <v>1.90468</v>
+        <v>1.91207</v>
       </c>
       <c r="E74" t="n">
-        <v>0.670224</v>
+        <v>0.531056</v>
       </c>
       <c r="F74" t="n">
-        <v>1.26422</v>
+        <v>1.22929</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.712298</v>
+        <v>0.973486</v>
       </c>
       <c r="C75" t="n">
-        <v>1.34833</v>
+        <v>1.40369</v>
       </c>
       <c r="D75" t="n">
-        <v>1.97566</v>
+        <v>1.86035</v>
       </c>
       <c r="E75" t="n">
-        <v>0.656359</v>
+        <v>0.608523</v>
       </c>
       <c r="F75" t="n">
-        <v>1.25357</v>
+        <v>1.42482</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.684073</v>
+        <v>0.6